--- a/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiGek\bsc_scan_binance\src\main\resources\MQL5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E55E596-6E06-4D7C-9F2D-629A9134D0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2292" yWindow="0" windowWidth="34824" windowHeight="16680"/>
+    <workbookView xWindow="8376" yWindow="0" windowWidth="31596" windowHeight="16680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Input L30" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
     <sheet name="Sheet1 (2)" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -236,7 +237,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -314,7 +315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -381,37 +382,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0;\-0;;\ @"/>
-    <numFmt numFmtId="167" formatCode="0.00;\-0.00;;\ @"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000_);\(#,##0.000\)"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="0;\-0;;\ @"/>
+    <numFmt numFmtId="180" formatCode="0.00;\-0.00;;\ @"/>
+    <numFmt numFmtId="181" formatCode="#,##0.000"/>
+    <numFmt numFmtId="182" formatCode="#,##0.000_);\(#,##0.000\)"/>
+    <numFmt numFmtId="183" formatCode="#,##0.0"/>
+    <numFmt numFmtId="184" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -425,27 +426,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1231,7 +1232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1243,15 +1244,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1274,22 +1275,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1334,18 +1335,18 @@
     <xf numFmtId="4" fontId="18" fillId="15" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="14" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1364,16 +1365,16 @@
     <xf numFmtId="3" fontId="10" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="16" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="17" fillId="16" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="17" fillId="16" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,7 +1392,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1538,7 +1539,7 @@
     <xf numFmtId="0" fontId="28" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="17" fillId="16" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="17" fillId="16" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1574,12 +1575,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
-    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Input" xfId="6" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -1761,7 +1762,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,7 +1806,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1849,7 +1850,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1894,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1937,7 +1938,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1981,7 +1982,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,7 +2026,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2070,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +2114,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2158,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2201,7 +2202,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2245,7 +2246,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2289,7 +2290,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,7 +2334,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2378,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,6 +2396,94 @@
         <a:xfrm>
           <a:off x="31699200" y="29177673"/>
           <a:ext cx="7819048" cy="9085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>664990</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>161019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67DE0A7-2B88-DE24-13D0-30BFD61F0E32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="48463200"/>
+          <a:ext cx="14076190" cy="7247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>645943</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>189419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3FEA146-9533-F4D9-E8E2-4460C2292E46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="56007000"/>
+          <a:ext cx="14057143" cy="8647619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2426,7 +2515,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2559,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,7 +2603,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2805,35 +2894,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" style="11" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="5"/>
+    <col min="1" max="1" width="14.69921875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" style="12" customWidth="1"/>
+    <col min="3" max="4" width="14.69921875" style="11" customWidth="1"/>
+    <col min="5" max="6" width="9.09765625" style="5"/>
     <col min="7" max="7" width="19" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="10.5546875" style="5" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.109375" style="5"/>
+    <col min="8" max="8" width="12.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="10.59765625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="8.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.09765625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16.8">
+    <row r="1" spans="1:28" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
@@ -2841,14 +2930,14 @@
       <c r="C1" s="115"/>
       <c r="D1" s="115"/>
     </row>
-    <row r="2" spans="1:28" ht="25.2">
+    <row r="2" spans="1:28" ht="25.2" x14ac:dyDescent="0.4">
       <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
@@ -2874,7 +2963,7 @@
       <c r="W2" s="40"/>
       <c r="X2" s="40"/>
     </row>
-    <row r="3" spans="1:28" ht="16.8">
+    <row r="3" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
@@ -2882,7 +2971,7 @@
       <c r="C3" s="48"/>
       <c r="D3" s="43">
         <f>D2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3" s="27"/>
       <c r="H3" s="20"/>
@@ -2899,7 +2988,7 @@
       <c r="M3" s="117"/>
       <c r="N3" s="118">
         <f>L3+'Bảng Input L30'!C35</f>
-        <v>21729.638394694291</v>
+        <v>11099.505102274201</v>
       </c>
       <c r="O3" s="118"/>
       <c r="P3" s="118"/>
@@ -2912,7 +3001,7 @@
       <c r="W3" s="20"/>
       <c r="X3" s="20"/>
     </row>
-    <row r="4" spans="1:28" ht="18.600000000000001">
+    <row r="4" spans="1:28" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
@@ -2920,7 +3009,7 @@
       <c r="C4" s="48"/>
       <c r="D4" s="43">
         <f>D3</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>14</v>
@@ -2948,7 +3037,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:28" ht="18.600000000000001">
+    <row r="5" spans="1:28" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
@@ -2956,13 +3045,13 @@
       <c r="C5" s="48"/>
       <c r="D5" s="43">
         <f>D4</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>55</v>
       </c>
       <c r="H5" s="113">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I5" s="2">
         <v>1.6180000000000001</v>
@@ -2983,7 +3072,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:28" ht="20.399999999999999">
+    <row r="6" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
@@ -2991,13 +3080,13 @@
       <c r="C6" s="48"/>
       <c r="D6" s="43">
         <f>D5</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>73</v>
       </c>
       <c r="H6" s="113">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2">
         <v>2.6179999999999999</v>
@@ -3006,7 +3095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="16.8">
+    <row r="7" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>6</v>
       </c>
@@ -3014,7 +3103,7 @@
       <c r="C7" s="48"/>
       <c r="D7" s="43">
         <f>D6</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3023,82 +3112,82 @@
       </c>
       <c r="J7" s="38">
         <f>I7-H$5</f>
-        <v>2195</v>
+        <v>2198</v>
       </c>
       <c r="K7" s="38">
         <f t="shared" ref="K7:X7" si="0">J7-$H$5</f>
-        <v>2190</v>
+        <v>2196</v>
       </c>
       <c r="L7" s="38">
         <f t="shared" si="0"/>
-        <v>2185</v>
+        <v>2194</v>
       </c>
       <c r="M7" s="38">
         <f t="shared" si="0"/>
-        <v>2180</v>
+        <v>2192</v>
       </c>
       <c r="N7" s="38">
         <f t="shared" si="0"/>
-        <v>2175</v>
+        <v>2190</v>
       </c>
       <c r="O7" s="38">
         <f t="shared" si="0"/>
-        <v>2170</v>
+        <v>2188</v>
       </c>
       <c r="P7" s="38">
         <f t="shared" si="0"/>
-        <v>2165</v>
+        <v>2186</v>
       </c>
       <c r="Q7" s="38">
         <f t="shared" si="0"/>
-        <v>2160</v>
+        <v>2184</v>
       </c>
       <c r="R7" s="38">
         <f t="shared" si="0"/>
-        <v>2155</v>
+        <v>2182</v>
       </c>
       <c r="S7" s="38">
         <f t="shared" si="0"/>
-        <v>2150</v>
+        <v>2180</v>
       </c>
       <c r="T7" s="38">
         <f t="shared" si="0"/>
-        <v>2145</v>
+        <v>2178</v>
       </c>
       <c r="U7" s="38">
         <f t="shared" si="0"/>
-        <v>2140</v>
+        <v>2176</v>
       </c>
       <c r="V7" s="38">
         <f t="shared" si="0"/>
-        <v>2135</v>
+        <v>2174</v>
       </c>
       <c r="W7" s="38">
         <f t="shared" si="0"/>
-        <v>2130</v>
+        <v>2172</v>
       </c>
       <c r="X7" s="38">
         <f t="shared" si="0"/>
-        <v>2125</v>
+        <v>2170</v>
       </c>
       <c r="Y7" s="38">
         <f t="shared" ref="Y7" si="1">X7-$H$5</f>
-        <v>2120</v>
+        <v>2168</v>
       </c>
       <c r="Z7" s="38">
         <f t="shared" ref="Z7" si="2">Y7-$H$5</f>
-        <v>2115</v>
+        <v>2166</v>
       </c>
       <c r="AA7" s="38">
         <f t="shared" ref="AA7" si="3">Z7-$H$5</f>
-        <v>2110</v>
+        <v>2164</v>
       </c>
       <c r="AB7" s="38">
         <f t="shared" ref="AB7" si="4">AA7-$H$5</f>
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="16.8">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
         <v>74</v>
       </c>
@@ -3114,82 +3203,82 @@
       </c>
       <c r="J8" s="38">
         <f t="shared" ref="J8:X8" si="5">$I$7-J7</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K8" s="38">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L8" s="38">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M8" s="38">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N8" s="38">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O8" s="38">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="P8" s="38">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="38">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="R8" s="38">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="S8" s="38">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="T8" s="38">
         <f t="shared" si="5"/>
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="U8" s="38">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="V8" s="38">
         <f t="shared" si="5"/>
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="W8" s="38">
         <f t="shared" si="5"/>
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="X8" s="38">
         <f t="shared" si="5"/>
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="Y8" s="38">
         <f t="shared" ref="Y8:AB8" si="6">$I$7-Y7</f>
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="Z8" s="38">
         <f t="shared" si="6"/>
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AA8" s="38">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AB8" s="38">
         <f t="shared" si="6"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="16.8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
         <v>7</v>
       </c>
@@ -3265,7 +3354,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="18.600000000000001">
+    <row r="10" spans="1:28" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>75</v>
       </c>
@@ -3339,7 +3428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="17.399999999999999" thickBot="1">
+    <row r="11" spans="1:28" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -3353,11 +3442,11 @@
       </c>
       <c r="I11" s="31">
         <f>H11*H6*100</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J11" s="31">
         <f>H11*100*(H6-H5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K11" s="31">
         <f t="shared" ref="K11:AB11" si="7">$H$11*100*($H$6-$H$5*J10)</f>
@@ -3365,74 +3454,74 @@
       </c>
       <c r="L11" s="31">
         <f t="shared" si="7"/>
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="M11" s="31">
         <f>$H$11*100*($H$6-$H$5*L10)</f>
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="N11" s="31">
         <f t="shared" si="7"/>
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="O11" s="31">
         <f t="shared" si="7"/>
-        <v>-20</v>
+        <v>-8</v>
       </c>
       <c r="P11" s="31">
         <f t="shared" si="7"/>
-        <v>-25</v>
+        <v>-10</v>
       </c>
       <c r="Q11" s="31">
         <f t="shared" si="7"/>
-        <v>-30</v>
+        <v>-12</v>
       </c>
       <c r="R11" s="31">
         <f t="shared" si="7"/>
-        <v>-35</v>
+        <v>-14</v>
       </c>
       <c r="S11" s="31">
         <f t="shared" si="7"/>
-        <v>-40</v>
+        <v>-16</v>
       </c>
       <c r="T11" s="31">
         <f t="shared" si="7"/>
-        <v>-45</v>
+        <v>-18</v>
       </c>
       <c r="U11" s="31">
         <f t="shared" si="7"/>
-        <v>-50</v>
+        <v>-20</v>
       </c>
       <c r="V11" s="31">
         <f t="shared" si="7"/>
-        <v>-55</v>
+        <v>-22</v>
       </c>
       <c r="W11" s="31">
         <f t="shared" si="7"/>
-        <v>-60</v>
+        <v>-24</v>
       </c>
       <c r="X11" s="31">
         <f t="shared" si="7"/>
-        <v>-65</v>
+        <v>-26</v>
       </c>
       <c r="Y11" s="31">
         <f t="shared" si="7"/>
-        <v>-70</v>
+        <v>-28</v>
       </c>
       <c r="Z11" s="31">
         <f t="shared" si="7"/>
-        <v>-75</v>
+        <v>-30</v>
       </c>
       <c r="AA11" s="31">
         <f t="shared" si="7"/>
-        <v>-80</v>
+        <v>-32</v>
       </c>
       <c r="AB11" s="31">
         <f t="shared" si="7"/>
-        <v>-85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="18" thickTop="1" thickBot="1">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>8</v>
       </c>
@@ -3450,16 +3539,16 @@
       </c>
       <c r="H12" s="30">
         <f t="shared" ref="H12:H30" si="8">H11*$H$4</f>
-        <v>2.6179999999999998E-2</v>
+        <v>1.618E-2</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="31">
         <f>H12*100*H6</f>
-        <v>26.18</v>
+        <v>6.4719999999999995</v>
       </c>
       <c r="K12" s="31">
         <f>H12*100*(H6-H5)</f>
-        <v>13.09</v>
+        <v>3.2359999999999998</v>
       </c>
       <c r="L12" s="31">
         <f t="shared" ref="L12:AB12" si="9">$H$12*100*($H$6-$H$5*J10)</f>
@@ -3467,70 +3556,70 @@
       </c>
       <c r="M12" s="31">
         <f t="shared" si="9"/>
-        <v>-13.09</v>
+        <v>-3.2359999999999998</v>
       </c>
       <c r="N12" s="31">
         <f t="shared" si="9"/>
-        <v>-26.18</v>
+        <v>-6.4719999999999995</v>
       </c>
       <c r="O12" s="31">
         <f t="shared" si="9"/>
-        <v>-39.269999999999996</v>
+        <v>-9.7079999999999984</v>
       </c>
       <c r="P12" s="31">
         <f t="shared" si="9"/>
-        <v>-52.36</v>
+        <v>-12.943999999999999</v>
       </c>
       <c r="Q12" s="31">
         <f t="shared" si="9"/>
-        <v>-65.45</v>
+        <v>-16.18</v>
       </c>
       <c r="R12" s="31">
         <f t="shared" si="9"/>
-        <v>-78.539999999999992</v>
+        <v>-19.415999999999997</v>
       </c>
       <c r="S12" s="31">
         <f t="shared" si="9"/>
-        <v>-91.63</v>
+        <v>-22.651999999999997</v>
       </c>
       <c r="T12" s="31">
         <f t="shared" si="9"/>
-        <v>-104.72</v>
+        <v>-25.887999999999998</v>
       </c>
       <c r="U12" s="31">
         <f t="shared" si="9"/>
-        <v>-117.80999999999999</v>
+        <v>-29.123999999999999</v>
       </c>
       <c r="V12" s="31">
         <f t="shared" si="9"/>
-        <v>-130.9</v>
+        <v>-32.36</v>
       </c>
       <c r="W12" s="31">
         <f t="shared" si="9"/>
-        <v>-143.98999999999998</v>
+        <v>-35.595999999999997</v>
       </c>
       <c r="X12" s="31">
         <f t="shared" si="9"/>
-        <v>-157.07999999999998</v>
+        <v>-38.831999999999994</v>
       </c>
       <c r="Y12" s="31">
         <f t="shared" si="9"/>
-        <v>-170.17</v>
+        <v>-42.067999999999998</v>
       </c>
       <c r="Z12" s="31">
         <f t="shared" si="9"/>
-        <v>-183.26</v>
+        <v>-45.303999999999995</v>
       </c>
       <c r="AA12" s="31">
         <f t="shared" si="9"/>
-        <v>-196.35</v>
+        <v>-48.54</v>
       </c>
       <c r="AB12" s="31">
         <f t="shared" si="9"/>
-        <v>-209.44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="17.399999999999999" thickTop="1">
+        <v>-51.775999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="str">
         <f>IF($D$10&gt;0,"L1",0)</f>
         <v>L1</v>
@@ -3541,28 +3630,28 @@
       </c>
       <c r="C13" s="9">
         <f>+B13*D13*100</f>
-        <v>70</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="D13" s="9">
         <f>IF(A13=0,0,$D$2+$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="G13" s="34">
         <v>3</v>
       </c>
       <c r="H13" s="30">
         <f t="shared" si="8"/>
-        <v>6.8539239999999987E-2</v>
+        <v>2.6179240000000003E-2</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="31">
         <f>H13*100*H6</f>
-        <v>68.539239999999978</v>
+        <v>10.471696000000001</v>
       </c>
       <c r="L13" s="31">
         <f>H13*100*(H6-H5)</f>
-        <v>34.269619999999989</v>
+        <v>5.2358480000000007</v>
       </c>
       <c r="M13" s="31">
         <f t="shared" ref="M13:AB13" si="10">$H$13*100*($H$6-$H$5*J10)</f>
@@ -3570,66 +3659,66 @@
       </c>
       <c r="N13" s="31">
         <f t="shared" si="10"/>
-        <v>-34.269619999999989</v>
+        <v>-5.2358480000000007</v>
       </c>
       <c r="O13" s="31">
         <f t="shared" si="10"/>
-        <v>-68.539239999999978</v>
+        <v>-10.471696000000001</v>
       </c>
       <c r="P13" s="31">
         <f t="shared" si="10"/>
-        <v>-102.80885999999998</v>
+        <v>-15.707544000000002</v>
       </c>
       <c r="Q13" s="31">
         <f t="shared" si="10"/>
-        <v>-137.07847999999996</v>
+        <v>-20.943392000000003</v>
       </c>
       <c r="R13" s="31">
         <f t="shared" si="10"/>
-        <v>-171.34809999999996</v>
+        <v>-26.179240000000004</v>
       </c>
       <c r="S13" s="31">
         <f t="shared" si="10"/>
-        <v>-205.61771999999996</v>
+        <v>-31.415088000000004</v>
       </c>
       <c r="T13" s="31">
         <f t="shared" si="10"/>
-        <v>-239.88733999999994</v>
+        <v>-36.650936000000002</v>
       </c>
       <c r="U13" s="31">
         <f t="shared" si="10"/>
-        <v>-274.15695999999991</v>
+        <v>-41.886784000000006</v>
       </c>
       <c r="V13" s="31">
         <f t="shared" si="10"/>
-        <v>-308.42657999999994</v>
+        <v>-47.12263200000001</v>
       </c>
       <c r="W13" s="31">
         <f t="shared" si="10"/>
-        <v>-342.69619999999992</v>
+        <v>-52.358480000000007</v>
       </c>
       <c r="X13" s="31">
         <f t="shared" si="10"/>
-        <v>-376.96581999999989</v>
+        <v>-57.594328000000004</v>
       </c>
       <c r="Y13" s="31">
         <f t="shared" si="10"/>
-        <v>-411.23543999999993</v>
+        <v>-62.830176000000009</v>
       </c>
       <c r="Z13" s="31">
         <f t="shared" si="10"/>
-        <v>-445.5050599999999</v>
+        <v>-68.066024000000013</v>
       </c>
       <c r="AA13" s="31">
         <f t="shared" si="10"/>
-        <v>-479.77467999999988</v>
+        <v>-73.301872000000003</v>
       </c>
       <c r="AB13" s="31">
         <f t="shared" si="10"/>
-        <v>-514.04429999999991</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="16.8">
+        <v>-78.537720000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="str">
         <f t="shared" ref="A14:A34" si="11">IF(A13=0,0,IF(VALUE(MID(A13,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A13,2,2))+1))</f>
         <v>L2</v>
@@ -3640,29 +3729,29 @@
       </c>
       <c r="C14" s="9">
         <f t="shared" ref="C14:C34" si="13">+B14*D14*100</f>
-        <v>105.17</v>
+        <v>42.067999999999998</v>
       </c>
       <c r="D14" s="9">
         <f>IF(A14=0,0,$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="G14" s="34">
         <v>4</v>
       </c>
       <c r="H14" s="30">
         <f t="shared" si="8"/>
-        <v>0.17943573031999996</v>
+        <v>4.2358010320000007E-2</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="31">
         <f>H14*100*H6</f>
-        <v>179.43573031999995</v>
+        <v>16.943204128000001</v>
       </c>
       <c r="M14" s="31">
         <f>H14*100*(H6-H5)</f>
-        <v>89.717865159999974</v>
+        <v>8.4716020640000007</v>
       </c>
       <c r="N14" s="31">
         <f t="shared" ref="N14:AB14" si="14">$H$14*100*($H$6-$H$5*J10)</f>
@@ -3670,62 +3759,62 @@
       </c>
       <c r="O14" s="31">
         <f t="shared" si="14"/>
-        <v>-89.717865159999974</v>
+        <v>-8.4716020640000007</v>
       </c>
       <c r="P14" s="31">
         <f t="shared" si="14"/>
-        <v>-179.43573031999995</v>
+        <v>-16.943204128000001</v>
       </c>
       <c r="Q14" s="31">
         <f t="shared" si="14"/>
-        <v>-269.15359547999992</v>
+        <v>-25.414806192</v>
       </c>
       <c r="R14" s="31">
         <f t="shared" si="14"/>
-        <v>-358.8714606399999</v>
+        <v>-33.886408256000003</v>
       </c>
       <c r="S14" s="31">
         <f t="shared" si="14"/>
-        <v>-448.58932579999993</v>
+        <v>-42.358010320000005</v>
       </c>
       <c r="T14" s="31">
         <f t="shared" si="14"/>
-        <v>-538.30719095999984</v>
+        <v>-50.829612384000001</v>
       </c>
       <c r="U14" s="31">
         <f t="shared" si="14"/>
-        <v>-628.02505611999982</v>
+        <v>-59.301214448000003</v>
       </c>
       <c r="V14" s="31">
         <f t="shared" si="14"/>
-        <v>-717.74292127999979</v>
+        <v>-67.772816512000006</v>
       </c>
       <c r="W14" s="31">
         <f t="shared" si="14"/>
-        <v>-807.46078643999988</v>
+        <v>-76.244418576000001</v>
       </c>
       <c r="X14" s="31">
         <f t="shared" si="14"/>
-        <v>-897.17865159999985</v>
+        <v>-84.716020640000011</v>
       </c>
       <c r="Y14" s="31">
         <f t="shared" si="14"/>
-        <v>-986.89651675999983</v>
+        <v>-93.187622704000006</v>
       </c>
       <c r="Z14" s="31">
         <f t="shared" si="14"/>
-        <v>-1076.6143819199997</v>
+        <v>-101.659224768</v>
       </c>
       <c r="AA14" s="31">
         <f t="shared" si="14"/>
-        <v>-1166.3322470799997</v>
+        <v>-110.13082683200001</v>
       </c>
       <c r="AB14" s="31">
         <f t="shared" si="14"/>
-        <v>-1256.0501122399996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="16.8">
+        <v>-118.60242889600001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L3</v>
@@ -3736,18 +3825,18 @@
       </c>
       <c r="C15" s="9">
         <f t="shared" si="13"/>
-        <v>157.07544000000001</v>
+        <v>62.830176000000002</v>
       </c>
       <c r="D15" s="9">
         <f>IF(A15=0,0,$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G15" s="34">
         <v>5</v>
       </c>
       <c r="H15" s="30">
         <f t="shared" si="8"/>
-        <v>0.46976274197775986</v>
+        <v>6.8535260697760017E-2</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
@@ -3755,11 +3844,11 @@
       <c r="L15" s="3"/>
       <c r="M15" s="31">
         <f>H15*H6*100</f>
-        <v>469.76274197775984</v>
+        <v>27.414104279104006</v>
       </c>
       <c r="N15" s="31">
         <f>H15*100*(H6-H5)</f>
-        <v>234.88137098887992</v>
+        <v>13.707052139552003</v>
       </c>
       <c r="O15" s="31">
         <f t="shared" ref="O15:AB15" si="15">$H$15*100*($H$6-$H$5*J10)</f>
@@ -3767,58 +3856,58 @@
       </c>
       <c r="P15" s="31">
         <f t="shared" si="15"/>
-        <v>-234.88137098887992</v>
+        <v>-13.707052139552003</v>
       </c>
       <c r="Q15" s="31">
         <f t="shared" si="15"/>
-        <v>-469.76274197775984</v>
+        <v>-27.414104279104006</v>
       </c>
       <c r="R15" s="31">
         <f t="shared" si="15"/>
-        <v>-704.6441129666398</v>
+        <v>-41.121156418656007</v>
       </c>
       <c r="S15" s="31">
         <f t="shared" si="15"/>
-        <v>-939.52548395551969</v>
+        <v>-54.828208558208011</v>
       </c>
       <c r="T15" s="31">
         <f t="shared" si="15"/>
-        <v>-1174.4068549443996</v>
+        <v>-68.535260697760009</v>
       </c>
       <c r="U15" s="31">
         <f t="shared" si="15"/>
-        <v>-1409.2882259332796</v>
+        <v>-82.242312837312014</v>
       </c>
       <c r="V15" s="31">
         <f t="shared" si="15"/>
-        <v>-1644.1695969221596</v>
+        <v>-95.949364976864018</v>
       </c>
       <c r="W15" s="31">
         <f t="shared" si="15"/>
-        <v>-1879.0509679110394</v>
+        <v>-109.65641711641602</v>
       </c>
       <c r="X15" s="31">
         <f t="shared" si="15"/>
-        <v>-2113.9323388999192</v>
+        <v>-123.36346925596803</v>
       </c>
       <c r="Y15" s="31">
         <f t="shared" si="15"/>
-        <v>-2348.8137098887992</v>
+        <v>-137.07052139552002</v>
       </c>
       <c r="Z15" s="31">
         <f t="shared" si="15"/>
-        <v>-2583.6950808776792</v>
+        <v>-150.77757353507204</v>
       </c>
       <c r="AA15" s="31">
         <f t="shared" si="15"/>
-        <v>-2818.5764518665592</v>
+        <v>-164.48462567462403</v>
       </c>
       <c r="AB15" s="31">
         <f t="shared" si="15"/>
-        <v>-3053.4578228554392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="16.8">
+        <v>-178.19167781417605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L4</v>
@@ -3829,18 +3918,18 @@
       </c>
       <c r="C16" s="9">
         <f t="shared" si="13"/>
-        <v>232.96905676000006</v>
+        <v>93.18762270400002</v>
       </c>
       <c r="D16" s="9">
         <f>IF(A16=0,0,$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="G16" s="34">
         <v>6</v>
       </c>
       <c r="H16" s="30">
         <f t="shared" si="8"/>
-        <v>1.2298388584977753</v>
+        <v>0.11089005180897571</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -3849,11 +3938,11 @@
       <c r="M16" s="3"/>
       <c r="N16" s="31">
         <f>H16*H6*100</f>
-        <v>1229.8388584977752</v>
+        <v>44.356020723590284</v>
       </c>
       <c r="O16" s="31">
         <f>H16*100*(H6-H5)</f>
-        <v>614.9194292488877</v>
+        <v>22.178010361795142</v>
       </c>
       <c r="P16" s="31">
         <f t="shared" ref="P16:X16" si="16">$H$16*100*($H$6-$H$5*J10)</f>
@@ -3861,54 +3950,54 @@
       </c>
       <c r="Q16" s="31">
         <f t="shared" si="16"/>
-        <v>-614.9194292488877</v>
+        <v>-22.178010361795142</v>
       </c>
       <c r="R16" s="31">
         <f t="shared" si="16"/>
-        <v>-1229.8388584977754</v>
+        <v>-44.356020723590284</v>
       </c>
       <c r="S16" s="31">
         <f t="shared" si="16"/>
-        <v>-1844.758287746663</v>
+        <v>-66.534031085385422</v>
       </c>
       <c r="T16" s="31">
         <f t="shared" si="16"/>
-        <v>-2459.6777169955508</v>
+        <v>-88.712041447180567</v>
       </c>
       <c r="U16" s="31">
         <f t="shared" si="16"/>
-        <v>-3074.5971462444386</v>
+        <v>-110.89005180897571</v>
       </c>
       <c r="V16" s="31">
         <f t="shared" si="16"/>
-        <v>-3689.5165754933259</v>
+        <v>-133.06806217077084</v>
       </c>
       <c r="W16" s="31">
         <f t="shared" si="16"/>
-        <v>-4304.4360047422142</v>
+        <v>-155.24607253256599</v>
       </c>
       <c r="X16" s="31">
         <f t="shared" si="16"/>
-        <v>-4919.3554339911016</v>
+        <v>-177.42408289436113</v>
       </c>
       <c r="Y16" s="31">
         <f t="shared" ref="Y16" si="17">$H$16*100*($H$6-$H$5*S10)</f>
-        <v>-5534.2748632399889</v>
+        <v>-199.60209325615628</v>
       </c>
       <c r="Z16" s="31">
         <f t="shared" ref="Z16" si="18">$H$16*100*($H$6-$H$5*T10)</f>
-        <v>-6149.1942924888772</v>
+        <v>-221.78010361795143</v>
       </c>
       <c r="AA16" s="31">
         <f t="shared" ref="AA16" si="19">$H$16*100*($H$6-$H$5*U10)</f>
-        <v>-6764.1137217377645</v>
+        <v>-243.95811397974657</v>
       </c>
       <c r="AB16" s="31">
         <f t="shared" ref="AB16" si="20">$H$16*100*($H$6-$H$5*V10)</f>
-        <v>-7379.0331509866519</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="16.8">
+        <v>-266.13612434154169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L5</v>
@@ -3919,18 +4008,18 @@
       </c>
       <c r="C17" s="9">
         <f t="shared" si="13"/>
-        <v>342.67630348880004</v>
+        <v>137.07052139552002</v>
       </c>
       <c r="D17" s="9">
         <f>IF(A17=0,0,$D$6+($D$7*($D$10-6)))</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G17" s="34">
         <v>7</v>
       </c>
       <c r="H17" s="30">
         <f t="shared" si="8"/>
-        <v>3.2197181315471757</v>
+        <v>0.17942010382692272</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -3940,11 +4029,11 @@
       <c r="N17" s="3"/>
       <c r="O17" s="31">
         <f>H6*H17*100</f>
-        <v>3219.7181315471757</v>
+        <v>71.768041530769082</v>
       </c>
       <c r="P17" s="31">
         <f>H17*100*(H6-H5)</f>
-        <v>1609.8590657735876</v>
+        <v>35.884020765384541</v>
       </c>
       <c r="Q17" s="31">
         <f t="shared" ref="Q17:X17" si="21">$H$17*100*($H$6-$H$5*J10)</f>
@@ -3952,50 +4041,50 @@
       </c>
       <c r="R17" s="31">
         <f t="shared" si="21"/>
-        <v>-1609.8590657735876</v>
+        <v>-35.884020765384541</v>
       </c>
       <c r="S17" s="31">
         <f t="shared" si="21"/>
-        <v>-3219.7181315471753</v>
+        <v>-71.768041530769082</v>
       </c>
       <c r="T17" s="31">
         <f t="shared" si="21"/>
-        <v>-4829.5771973207629</v>
+        <v>-107.65206229615362</v>
       </c>
       <c r="U17" s="31">
         <f t="shared" si="21"/>
-        <v>-6439.4362630943506</v>
+        <v>-143.53608306153816</v>
       </c>
       <c r="V17" s="31">
         <f t="shared" si="21"/>
-        <v>-8049.2953288679391</v>
+        <v>-179.42010382692271</v>
       </c>
       <c r="W17" s="31">
         <f t="shared" si="21"/>
-        <v>-9659.1543946415259</v>
+        <v>-215.30412459230723</v>
       </c>
       <c r="X17" s="31">
         <f t="shared" si="21"/>
-        <v>-11269.013460415114</v>
+        <v>-251.18814535769178</v>
       </c>
       <c r="Y17" s="31">
         <f t="shared" ref="Y17" si="22">$H$17*100*($H$6-$H$5*R10)</f>
-        <v>-12878.872526188701</v>
+        <v>-287.07216612307633</v>
       </c>
       <c r="Z17" s="31">
         <f t="shared" ref="Z17" si="23">$H$17*100*($H$6-$H$5*S10)</f>
-        <v>-14488.731591962291</v>
+        <v>-322.95618688846088</v>
       </c>
       <c r="AA17" s="31">
         <f t="shared" ref="AA17" si="24">$H$17*100*($H$6-$H$5*T10)</f>
-        <v>-16098.590657735878</v>
+        <v>-358.84020765384543</v>
       </c>
       <c r="AB17" s="31">
         <f t="shared" ref="AB17" si="25">$H$17*100*($H$6-$H$5*U10)</f>
-        <v>-17708.449723509464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="16.8">
+        <v>-394.72422841922997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L6</v>
@@ -4006,18 +4095,18 @@
       </c>
       <c r="C18" s="9">
         <f t="shared" si="13"/>
-        <v>499.00523314039071</v>
+        <v>199.60209325615628</v>
       </c>
       <c r="D18" s="9">
         <f>IF(A18=0,0,($D$7*($D$10-6)))</f>
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G18" s="34">
         <v>8</v>
       </c>
       <c r="H18" s="30">
         <f t="shared" si="8"/>
-        <v>8.429222068390505</v>
+        <v>0.29030172799196097</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -4028,11 +4117,11 @@
       <c r="O18" s="3"/>
       <c r="P18" s="31">
         <f>H6*H18*100</f>
-        <v>8429.2220683905034</v>
+        <v>116.12069119678439</v>
       </c>
       <c r="Q18" s="31">
         <f>H18*100*(H6-H5)</f>
-        <v>4214.6110341952526</v>
+        <v>58.060345598392196</v>
       </c>
       <c r="R18" s="31">
         <f t="shared" ref="R18:X18" si="26">$H$18*100*($H$6-$H$5*J10)</f>
@@ -4040,46 +4129,46 @@
       </c>
       <c r="S18" s="31">
         <f t="shared" si="26"/>
-        <v>-4214.6110341952526</v>
+        <v>-58.060345598392196</v>
       </c>
       <c r="T18" s="31">
         <f t="shared" si="26"/>
-        <v>-8429.2220683905052</v>
+        <v>-116.12069119678439</v>
       </c>
       <c r="U18" s="31">
         <f t="shared" si="26"/>
-        <v>-12643.833102585759</v>
+        <v>-174.1810367951766</v>
       </c>
       <c r="V18" s="31">
         <f t="shared" si="26"/>
-        <v>-16858.44413678101</v>
+        <v>-232.24138239356878</v>
       </c>
       <c r="W18" s="31">
         <f t="shared" si="26"/>
-        <v>-21073.055170976262</v>
+        <v>-290.301727991961</v>
       </c>
       <c r="X18" s="31">
         <f t="shared" si="26"/>
-        <v>-25287.666205171518</v>
+        <v>-348.36207359035319</v>
       </c>
       <c r="Y18" s="31">
         <f t="shared" ref="Y18" si="27">$H$18*100*($H$6-$H$5*Q10)</f>
-        <v>-29502.277239366769</v>
+        <v>-406.42241918874538</v>
       </c>
       <c r="Z18" s="31">
         <f t="shared" ref="Z18" si="28">$H$18*100*($H$6-$H$5*R10)</f>
-        <v>-33716.888273562021</v>
+        <v>-464.48276478713757</v>
       </c>
       <c r="AA18" s="31">
         <f t="shared" ref="AA18" si="29">$H$18*100*($H$6-$H$5*S10)</f>
-        <v>-37931.499307757273</v>
+        <v>-522.54311038552976</v>
       </c>
       <c r="AB18" s="31">
         <f t="shared" ref="AB18" si="30">$H$18*100*($H$6-$H$5*T10)</f>
-        <v>-42146.110341952524</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="16.8">
+        <v>-580.603455983922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L7</v>
@@ -4090,18 +4179,18 @@
       </c>
       <c r="C19" s="9">
         <f t="shared" si="13"/>
-        <v>717.68041530769096</v>
+        <v>287.07216612307633</v>
       </c>
       <c r="D19" s="9">
         <f>IF(A19=0,0,($D$7*($D$10-7)))</f>
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G19" s="34">
         <v>9</v>
       </c>
       <c r="H19" s="30">
         <f t="shared" si="8"/>
-        <v>22.067703375046342</v>
+        <v>0.46970819589099289</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -4113,11 +4202,11 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="31">
         <f>H6*H19*100</f>
-        <v>22067.703375046342</v>
+        <v>187.88327835639714</v>
       </c>
       <c r="R19" s="31">
         <f>H19*100*(H6-H5)</f>
-        <v>11033.851687523173</v>
+        <v>93.941639178198571</v>
       </c>
       <c r="S19" s="31">
         <f t="shared" ref="S19:X19" si="31">$H$19*100*($H$6-$H$5*J10)</f>
@@ -4125,42 +4214,42 @@
       </c>
       <c r="T19" s="31">
         <f t="shared" si="31"/>
-        <v>-11033.851687523173</v>
+        <v>-93.941639178198571</v>
       </c>
       <c r="U19" s="31">
         <f t="shared" si="31"/>
-        <v>-22067.703375046345</v>
+        <v>-187.88327835639714</v>
       </c>
       <c r="V19" s="31">
         <f t="shared" si="31"/>
-        <v>-33101.555062569518</v>
+        <v>-281.82491753459573</v>
       </c>
       <c r="W19" s="31">
         <f t="shared" si="31"/>
-        <v>-44135.40675009269</v>
+        <v>-375.76655671279428</v>
       </c>
       <c r="X19" s="31">
         <f t="shared" si="31"/>
-        <v>-55169.258437615863</v>
+        <v>-469.70819589099284</v>
       </c>
       <c r="Y19" s="31">
         <f t="shared" ref="Y19" si="32">$H$19*100*($H$6-$H$5*P10)</f>
-        <v>-66203.110125139036</v>
+        <v>-563.64983506919145</v>
       </c>
       <c r="Z19" s="31">
         <f t="shared" ref="Z19" si="33">$H$19*100*($H$6-$H$5*Q10)</f>
-        <v>-77236.961812662208</v>
+        <v>-657.59147424739001</v>
       </c>
       <c r="AA19" s="31">
         <f t="shared" ref="AA19" si="34">$H$19*100*($H$6-$H$5*R10)</f>
-        <v>-88270.813500185381</v>
+        <v>-751.53311342558857</v>
       </c>
       <c r="AB19" s="31">
         <f t="shared" ref="AB19" si="35">$H$19*100*($H$6-$H$5*S10)</f>
-        <v>-99304.665187708553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="16.8">
+        <v>-845.47475260378712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L8</v>
@@ -4171,18 +4260,18 @@
       </c>
       <c r="C20" s="9">
         <f t="shared" si="13"/>
-        <v>1016.0560479718633</v>
+        <v>406.42241918874538</v>
       </c>
       <c r="D20" s="9">
         <f>IF(A20=0,0,($D$7*($D$10-8)))</f>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G20" s="34">
         <v>10</v>
       </c>
       <c r="H20" s="30">
         <f t="shared" si="8"/>
-        <v>57.773247435871319</v>
+        <v>0.75998786095162651</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -4195,11 +4284,11 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="31">
         <f>H6*H20*100</f>
-        <v>57773.247435871315</v>
+        <v>303.99514438065063</v>
       </c>
       <c r="S20" s="31">
         <f>H20*100*(H6-H5)</f>
-        <v>28886.623717935658</v>
+        <v>151.99757219032531</v>
       </c>
       <c r="T20" s="31">
         <f>$H$20*100*($H$6-$H$5*J10)</f>
@@ -4207,38 +4296,38 @@
       </c>
       <c r="U20" s="31">
         <f>$H$20*100*($H$6-$H$5*K10)</f>
-        <v>-28886.623717935658</v>
+        <v>-151.99757219032531</v>
       </c>
       <c r="V20" s="31">
         <f>$H$20*100*($H$6-$H$5*L10)</f>
-        <v>-57773.247435871315</v>
+        <v>-303.99514438065063</v>
       </c>
       <c r="W20" s="31">
         <f>$H$20*100*($H$6-$H$5*M10)</f>
-        <v>-86659.871153806977</v>
+        <v>-455.99271657097597</v>
       </c>
       <c r="X20" s="31">
         <f>$H$20*100*($H$6-$H$5*N10)</f>
-        <v>-115546.49487174263</v>
+        <v>-607.99028876130126</v>
       </c>
       <c r="Y20" s="31">
         <f t="shared" ref="Y20:AB20" si="36">$H$20*100*($H$6-$H$5*O10)</f>
-        <v>-144433.11858967828</v>
+        <v>-759.98786095162654</v>
       </c>
       <c r="Z20" s="31">
         <f t="shared" si="36"/>
-        <v>-173319.74230761395</v>
+        <v>-911.98543314195194</v>
       </c>
       <c r="AA20" s="31">
         <f t="shared" si="36"/>
-        <v>-202206.36602554962</v>
+        <v>-1063.9830053322771</v>
       </c>
       <c r="AB20" s="31">
         <f t="shared" si="36"/>
-        <v>-231092.98974348526</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="16.8">
+        <v>-1215.9805775226025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L9</v>
@@ -4249,18 +4338,18 @@
       </c>
       <c r="C21" s="9">
         <f t="shared" si="13"/>
-        <v>1409.1245876729786</v>
+        <v>563.64983506919145</v>
       </c>
       <c r="D21" s="9">
         <f>IF(A21=0,0,($D$7*($D$10-9)))</f>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G21" s="34">
         <v>11</v>
       </c>
       <c r="H21" s="30">
         <f t="shared" si="8"/>
-        <v>151.2503617871111</v>
+        <v>1.2296603590197317</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -4274,11 +4363,11 @@
       <c r="R21" s="3"/>
       <c r="S21" s="32">
         <f>H6*H21*100</f>
-        <v>151250.36178711112</v>
+        <v>491.86414360789269</v>
       </c>
       <c r="T21" s="32">
         <f>H21*100*(H6-H5)</f>
-        <v>75625.180893555545</v>
+        <v>245.93207180394634</v>
       </c>
       <c r="U21" s="32">
         <f>$H$21*100*($H$6-$H$5*J10)</f>
@@ -4286,34 +4375,34 @@
       </c>
       <c r="V21" s="32">
         <f>$H$21*100*($H$6-$H$5*K10)</f>
-        <v>-75625.180893555545</v>
+        <v>-245.93207180394634</v>
       </c>
       <c r="W21" s="32">
         <f>$H$21*100*($H$6-$H$5*L10)</f>
-        <v>-151250.36178711109</v>
+        <v>-491.86414360789269</v>
       </c>
       <c r="X21" s="32">
         <f>$H$21*100*($H$6-$H$5*M10)</f>
-        <v>-226875.54268066667</v>
+        <v>-737.79621541183906</v>
       </c>
       <c r="Y21" s="32">
         <f t="shared" ref="Y21:AB21" si="37">$H$21*100*($H$6-$H$5*N10)</f>
-        <v>-302500.72357422218</v>
+        <v>-983.72828721578537</v>
       </c>
       <c r="Z21" s="32">
         <f t="shared" si="37"/>
-        <v>-378125.90446777776</v>
+        <v>-1229.6603590197317</v>
       </c>
       <c r="AA21" s="32">
         <f t="shared" si="37"/>
-        <v>-453751.08536133333</v>
+        <v>-1475.5924308236781</v>
       </c>
       <c r="AB21" s="32">
         <f t="shared" si="37"/>
-        <v>-529376.26625488885</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="16.8">
+        <v>-1721.5245026276243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L10</v>
@@ -4324,18 +4413,18 @@
       </c>
       <c r="C22" s="9">
         <f t="shared" si="13"/>
-        <v>1899.9696523790665</v>
+        <v>759.98786095162654</v>
       </c>
       <c r="D22" s="9">
         <f>IF(A22=0,0,($D$7*($D$10-10)))</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G22" s="34">
         <v>12</v>
       </c>
       <c r="H22" s="30">
         <f t="shared" si="8"/>
-        <v>395.97344715865682</v>
+        <v>1.9895904608939261</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -4350,11 +4439,11 @@
       <c r="S22" s="32"/>
       <c r="T22" s="32">
         <f>H6*H22*100</f>
-        <v>395973.44715865684</v>
+        <v>795.83618435757046</v>
       </c>
       <c r="U22" s="32">
         <f>H22*100*(H6-H5)</f>
-        <v>197986.72357932842</v>
+        <v>397.91809217878523</v>
       </c>
       <c r="V22" s="32">
         <f>$H$22*100*($H$6-$H$5*J10)</f>
@@ -4362,30 +4451,30 @@
       </c>
       <c r="W22" s="32">
         <f>$H$22*100*($H$6-$H$5*K10)</f>
-        <v>-197986.72357932842</v>
+        <v>-397.91809217878523</v>
       </c>
       <c r="X22" s="32">
         <f>$H$22*100*($H$6-$H$5*L10)</f>
-        <v>-395973.44715865684</v>
+        <v>-795.83618435757046</v>
       </c>
       <c r="Y22" s="32">
         <f t="shared" ref="Y22:AB22" si="38">$H$22*100*($H$6-$H$5*M10)</f>
-        <v>-593960.17073798529</v>
+        <v>-1193.7542765363557</v>
       </c>
       <c r="Z22" s="32">
         <f t="shared" si="38"/>
-        <v>-791946.89431731368</v>
+        <v>-1591.6723687151409</v>
       </c>
       <c r="AA22" s="32">
         <f t="shared" si="38"/>
-        <v>-989933.61789664219</v>
+        <v>-1989.5904608939261</v>
       </c>
       <c r="AB22" s="32">
         <f t="shared" si="38"/>
-        <v>-1187920.3414759706</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="16.8">
+        <v>-2387.5085530727115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L11</v>
@@ -4396,18 +4485,18 @@
       </c>
       <c r="C23" s="9">
         <f t="shared" si="13"/>
-        <v>2459.3207180394634</v>
+        <v>983.72828721578537</v>
       </c>
       <c r="D23" s="9">
         <f>IF(A23=0,0,($D$7*($D$10-11)))</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G23" s="34">
         <v>13</v>
       </c>
       <c r="H23" s="30">
         <f t="shared" si="8"/>
-        <v>1036.6584846613634</v>
+        <v>3.2191573657263728</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -4423,11 +4512,11 @@
       <c r="T23" s="32"/>
       <c r="U23" s="32">
         <f>H6*H23*100</f>
-        <v>1036658.4846613634</v>
+        <v>1287.6629462905491</v>
       </c>
       <c r="V23" s="32">
         <f>H23*100*(H6-H5)</f>
-        <v>518329.24233068177</v>
+        <v>643.83147314527457</v>
       </c>
       <c r="W23" s="32">
         <f>$H$23*100*($H$6-$H$5*J10)</f>
@@ -4435,26 +4524,26 @@
       </c>
       <c r="X23" s="32">
         <f>$H$23*100*($H$6-$H$5*K10)</f>
-        <v>-518329.24233068177</v>
+        <v>-643.83147314527457</v>
       </c>
       <c r="Y23" s="32">
         <f t="shared" ref="Y23:AB23" si="39">$H$23*100*($H$6-$H$5*L10)</f>
-        <v>-1036658.4846613635</v>
+        <v>-1287.6629462905491</v>
       </c>
       <c r="Z23" s="32">
         <f t="shared" si="39"/>
-        <v>-1554987.7269920453</v>
+        <v>-1931.4944194358236</v>
       </c>
       <c r="AA23" s="32">
         <f t="shared" si="39"/>
-        <v>-2073316.9693227271</v>
+        <v>-2575.3258925810983</v>
       </c>
       <c r="AB23" s="32">
         <f t="shared" si="39"/>
-        <v>-2591646.2116534086</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" ht="16.8">
+        <v>-3219.157365726373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L12</v>
@@ -4465,18 +4554,18 @@
       </c>
       <c r="C24" s="9">
         <f t="shared" si="13"/>
-        <v>2984.385691340889</v>
+        <v>1193.7542765363555</v>
       </c>
       <c r="D24" s="9">
         <f>IF(A24=0,0,($D$7*($D$10-12)))</f>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G24" s="34">
         <v>14</v>
       </c>
       <c r="H24" s="30">
         <f t="shared" si="8"/>
-        <v>2713.9719128434494</v>
+        <v>5.2085966177452718</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -4493,11 +4582,11 @@
       <c r="U24" s="32"/>
       <c r="V24" s="32">
         <f>H6*H24*100</f>
-        <v>2713971.9128434495</v>
+        <v>2083.438647098109</v>
       </c>
       <c r="W24" s="32">
         <f>H24*100*(H6-H5)</f>
-        <v>1356985.9564217248</v>
+        <v>1041.7193235490545</v>
       </c>
       <c r="X24" s="32">
         <f>$H$24*100*($H$6-$H$5*J10)</f>
@@ -4505,22 +4594,22 @@
       </c>
       <c r="Y24" s="32">
         <f t="shared" ref="Y24:AB24" si="40">$H$24*100*($H$6-$H$5*K10)</f>
-        <v>-1356985.9564217248</v>
+        <v>-1041.7193235490545</v>
       </c>
       <c r="Z24" s="32">
         <f t="shared" si="40"/>
-        <v>-2713971.9128434495</v>
+        <v>-2083.438647098109</v>
       </c>
       <c r="AA24" s="32">
         <f t="shared" si="40"/>
-        <v>-4070957.869265174</v>
+        <v>-3125.1579706471634</v>
       </c>
       <c r="AB24" s="32">
         <f t="shared" si="40"/>
-        <v>-5427943.825686899</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="16.8">
+        <v>-4166.8772941962179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L13</v>
@@ -4531,18 +4620,18 @@
       </c>
       <c r="C25" s="9">
         <f t="shared" si="13"/>
-        <v>3219.157365726373</v>
+        <v>1287.6629462905491</v>
       </c>
       <c r="D25" s="9">
         <f>IF(A25=0,0,($D$7*($D$10-13)))</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G25" s="34">
         <v>15</v>
       </c>
       <c r="H25" s="30">
         <f t="shared" si="8"/>
-        <v>7105.1784678241502</v>
+        <v>8.4275093275118511</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -4560,11 +4649,11 @@
       <c r="V25" s="32"/>
       <c r="W25" s="32">
         <f>H6*H25*100</f>
-        <v>7105178.4678241499</v>
+        <v>3371.0037310047405</v>
       </c>
       <c r="X25" s="32">
         <f>H25*100*(H6-H5)</f>
-        <v>3552589.2339120754</v>
+        <v>1685.5018655023703</v>
       </c>
       <c r="Y25" s="32">
         <f>$H$25*100*($H$6-$H$5*J10)</f>
@@ -4572,18 +4661,18 @@
       </c>
       <c r="Z25" s="32">
         <f>$H$25*100*($H$6-$H$5*K10)</f>
-        <v>-3552589.2339120754</v>
+        <v>-1685.5018655023703</v>
       </c>
       <c r="AA25" s="32">
         <f>$H$25*100*($H$6-$H$5*L10)</f>
-        <v>-7105178.4678241508</v>
+        <v>-3371.0037310047405</v>
       </c>
       <c r="AB25" s="32">
         <f>$H$25*100*($H$6-$H$5*M10)</f>
-        <v>-10657767.701736227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="16.8">
+        <v>-5056.5055965071106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L14</v>
@@ -4594,18 +4683,18 @@
       </c>
       <c r="C26" s="9">
         <f t="shared" si="13"/>
-        <v>2604.298308872636</v>
+        <v>1041.7193235490545</v>
       </c>
       <c r="D26" s="9">
         <f>IF(A26=0,0,($D$7*($D$10-14)))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G26" s="34">
         <v>16</v>
       </c>
       <c r="H26" s="30">
         <f t="shared" si="8"/>
-        <v>18601.357228763623</v>
+        <v>13.635710091914175</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -4624,11 +4713,11 @@
       <c r="W26" s="32"/>
       <c r="X26" s="32">
         <f>H26*H6*100</f>
-        <v>18601357.228763621</v>
+        <v>5454.28403676567</v>
       </c>
       <c r="Y26" s="32">
         <f>$H$26*100*($H$6-$H$5)</f>
-        <v>9300678.6143818107</v>
+        <v>2727.142018382835</v>
       </c>
       <c r="Z26" s="32">
         <f>$H$26*100*($H$6-$H$5*J10)</f>
@@ -4636,14 +4725,14 @@
       </c>
       <c r="AA26" s="32">
         <f>$H$26*100*($H$6-$H$5*K10)</f>
-        <v>-9300678.6143818107</v>
+        <v>-2727.142018382835</v>
       </c>
       <c r="AB26" s="32">
         <f>$H$26*100*($H$6-$H$5*L10)</f>
-        <v>-18601357.228763621</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="16.8">
+        <v>-5454.28403676567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L15</v>
@@ -4665,15 +4754,15 @@
       </c>
       <c r="H27" s="30">
         <f t="shared" si="8"/>
-        <v>48698.353224903163</v>
+        <v>22.062578928717137</v>
       </c>
       <c r="Y27" s="32">
         <f>$H$27*$H$6*100</f>
-        <v>48698353.224903166</v>
+        <v>8825.0315714868557</v>
       </c>
       <c r="Z27" s="32">
         <f>$H$27*100*($H$6-$H$5*I$10)</f>
-        <v>24349176.612451579</v>
+        <v>4412.5157857434278</v>
       </c>
       <c r="AA27" s="32">
         <f t="shared" ref="AA27:AB27" si="41">$H$27*100*($H$6-$H$5*J$10)</f>
@@ -4681,10 +4770,10 @@
       </c>
       <c r="AB27" s="32">
         <f t="shared" si="41"/>
-        <v>-24349176.612451579</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" ht="16.8">
+        <v>-4412.5157857434278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -4706,22 +4795,22 @@
       </c>
       <c r="H28" s="30">
         <f t="shared" si="8"/>
-        <v>127492.28874279647</v>
+        <v>35.697252706664329</v>
       </c>
       <c r="Z28" s="32">
         <f>$H$28*$H$6*100</f>
-        <v>127492288.74279647</v>
+        <v>14278.901082665732</v>
       </c>
       <c r="AA28" s="32">
         <f>$H$28*100*($H$6-$H$5*I$10)</f>
-        <v>63746144.37139824</v>
+        <v>7139.4505413328661</v>
       </c>
       <c r="AB28" s="32">
         <f>$H$28*100*($H$6-$H$5*J$10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="16.8">
+    <row r="29" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -4743,18 +4832,18 @@
       </c>
       <c r="H29" s="30">
         <f t="shared" si="8"/>
-        <v>333774.81192864117</v>
+        <v>57.758154879382886</v>
       </c>
       <c r="AA29" s="32">
         <f>$H$29*$H$6*100</f>
-        <v>333774811.92864114</v>
+        <v>23103.261951753153</v>
       </c>
       <c r="AB29" s="32">
         <f>$H$29*100*($H$6-$H$5*I$10)</f>
-        <v>166887405.96432057</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="16.8">
+        <v>11551.630975876576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -4776,14 +4865,14 @@
       </c>
       <c r="H30" s="30">
         <f t="shared" si="8"/>
-        <v>873822.45762918249</v>
+        <v>93.452694594841518</v>
       </c>
       <c r="AB30" s="32">
         <f>$H$30*$H$6*100</f>
-        <v>873822457.62918258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="16.8">
+        <v>37381.077837936609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <f>IF(A30=0,0,IF(VALUE(MID(A30,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A30,2,2))+1))</f>
         <v>0</v>
@@ -4805,7 +4894,7 @@
       </c>
       <c r="H31" s="42">
         <f>SUM(H11:H26)</f>
-        <v>30097.863550620004</v>
+        <v>35.683784674299567</v>
       </c>
       <c r="I31" s="37">
         <f>SUMIF(I11:I30, "&lt;0")</f>
@@ -4821,74 +4910,74 @@
       </c>
       <c r="L31" s="37">
         <f t="shared" si="42"/>
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="M31" s="37">
         <f t="shared" si="42"/>
-        <v>-23.09</v>
+        <v>-7.2359999999999998</v>
       </c>
       <c r="N31" s="37">
         <f t="shared" si="42"/>
-        <v>-75.449619999999982</v>
+        <v>-17.707847999999998</v>
       </c>
       <c r="O31" s="37">
         <f t="shared" si="42"/>
-        <v>-217.52710515999996</v>
+        <v>-36.651298064000002</v>
       </c>
       <c r="P31" s="37">
         <f t="shared" si="42"/>
-        <v>-594.48596130887984</v>
+        <v>-69.301800267552011</v>
       </c>
       <c r="Q31" s="37">
         <f t="shared" si="42"/>
-        <v>-1586.3642467066475</v>
+        <v>-124.13031283289916</v>
       </c>
       <c r="R31" s="37">
         <f t="shared" si="42"/>
-        <v>-4188.1015978780024</v>
+        <v>-214.84284616363084</v>
       </c>
       <c r="S31" s="37">
         <f t="shared" si="42"/>
-        <v>-11004.449983244609</v>
+        <v>-363.61572509275476</v>
       </c>
       <c r="T31" s="37">
         <f t="shared" si="42"/>
-        <v>-28854.650056134393</v>
+        <v>-606.33024320007712</v>
       </c>
       <c r="U31" s="37">
         <f t="shared" si="42"/>
-        <v>-75591.473846959823</v>
+        <v>-1001.0423334977249</v>
       </c>
       <c r="V31" s="37">
         <f t="shared" si="42"/>
-        <v>-197953.47853134081</v>
+        <v>-1641.6864955993192</v>
       </c>
       <c r="W31" s="37">
         <f t="shared" si="42"/>
-        <v>-518302.20679505018</v>
+        <v>-2680.2487498796986</v>
       </c>
       <c r="X31" s="37">
         <f t="shared" si="42"/>
-        <v>-1356980.1773894415</v>
+        <v>-4362.6424773053523</v>
       </c>
       <c r="Y31" s="37">
         <f t="shared" si="42"/>
-        <v>-3552644.1044055568</v>
+        <v>-7086.7555282800604</v>
       </c>
       <c r="Z31" s="37">
         <f t="shared" si="42"/>
-        <v>-9300897.2653337475</v>
+        <v>-11496.37044475714</v>
       </c>
       <c r="AA31" s="37">
         <f t="shared" si="42"/>
-        <v>-24349829.040643752</v>
+        <v>-18633.127379617054</v>
       </c>
       <c r="AB31" s="37">
         <f t="shared" si="42"/>
-        <v>-63747937.42840533</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="16.8">
+        <v>-30182.400100220391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -4910,86 +4999,86 @@
       </c>
       <c r="I32" s="60">
         <f t="shared" ref="I32:AB32" si="44">SUM(I11:I30)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J32" s="60">
         <f t="shared" si="44"/>
-        <v>31.18</v>
+        <v>8.4719999999999995</v>
       </c>
       <c r="K32" s="60">
         <f t="shared" si="44"/>
-        <v>81.629239999999982</v>
+        <v>13.707696000000002</v>
       </c>
       <c r="L32" s="60">
         <f t="shared" si="44"/>
-        <v>208.70535031999992</v>
+        <v>20.179052128000002</v>
       </c>
       <c r="M32" s="60">
         <f t="shared" si="44"/>
-        <v>536.39060713775984</v>
+        <v>28.649706343104008</v>
       </c>
       <c r="N32" s="60">
         <f t="shared" si="44"/>
-        <v>1389.2706094866551</v>
+        <v>40.35522486314229</v>
       </c>
       <c r="O32" s="60">
         <f t="shared" si="44"/>
-        <v>3617.1104556360633</v>
+        <v>57.294753828564225</v>
       </c>
       <c r="P32" s="60">
         <f t="shared" si="44"/>
-        <v>9444.5951728552118</v>
+        <v>82.702911694616915</v>
       </c>
       <c r="Q32" s="60">
         <f t="shared" si="44"/>
-        <v>24695.950162534948</v>
+        <v>121.81331112189017</v>
       </c>
       <c r="R32" s="60">
         <f t="shared" si="44"/>
-        <v>64618.997525516483</v>
+        <v>183.09393739521835</v>
       </c>
       <c r="S32" s="60">
         <f t="shared" si="44"/>
-        <v>169132.53552180217</v>
+        <v>280.24599070546321</v>
       </c>
       <c r="T32" s="60">
         <f t="shared" si="44"/>
-        <v>442743.97799607797</v>
+        <v>435.43801296143965</v>
       </c>
       <c r="U32" s="60">
         <f t="shared" si="44"/>
-        <v>1159053.7343937319</v>
+        <v>684.53870497160938</v>
       </c>
       <c r="V32" s="60">
         <f t="shared" si="44"/>
-        <v>3034347.6766427904</v>
+        <v>1085.5836246440645</v>
       </c>
       <c r="W32" s="60">
         <f t="shared" si="44"/>
-        <v>7943862.2174508246</v>
+        <v>1732.4743046740964</v>
       </c>
       <c r="X32" s="60">
         <f t="shared" si="44"/>
-        <v>20796966.285286255</v>
+        <v>2777.1434249626882</v>
       </c>
       <c r="Y32" s="60">
         <f t="shared" si="44"/>
-        <v>54446387.734879419</v>
+        <v>4465.4180615896303</v>
       </c>
       <c r="Z32" s="60">
         <f t="shared" si="44"/>
-        <v>142540568.08991429</v>
+        <v>7195.0464236520202</v>
       </c>
       <c r="AA32" s="60">
         <f t="shared" si="44"/>
-        <v>373171127.2593956</v>
+        <v>11609.585113468966</v>
       </c>
       <c r="AB32" s="60">
         <f t="shared" si="44"/>
-        <v>976961926.16509783</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="16.8">
+        <v>18750.308713592793</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5016,82 +5105,82 @@
       </c>
       <c r="J33" s="39">
         <f>SUM($H11:$H12)</f>
-        <v>3.6179999999999997E-2</v>
+        <v>2.6180000000000002E-2</v>
       </c>
       <c r="K33" s="39">
         <f>SUM($H11:$H13)</f>
-        <v>0.10471923999999999</v>
+        <v>5.2359240000000001E-2</v>
       </c>
       <c r="L33" s="39">
         <f>SUM($H11:$H14)</f>
-        <v>0.28415497031999992</v>
+        <v>9.4717250320000002E-2</v>
       </c>
       <c r="M33" s="39">
         <f>SUM($H11:$H15)</f>
-        <v>0.75391771229775983</v>
+        <v>0.16325251101776</v>
       </c>
       <c r="N33" s="39">
         <f>SUM($H11:$H16)</f>
-        <v>1.9837565707955351</v>
+        <v>0.27414256282673571</v>
       </c>
       <c r="O33" s="39">
         <f>SUM($H11:$H17)</f>
-        <v>5.203474702342711</v>
+        <v>0.45356266665365841</v>
       </c>
       <c r="P33" s="39">
         <f>SUM($H11:$H18)</f>
-        <v>13.632696770733215</v>
+        <v>0.74386439464561938</v>
       </c>
       <c r="Q33" s="39">
         <f>SUM($H11:$H19)</f>
-        <v>35.700400145779554</v>
+        <v>1.2135725905366122</v>
       </c>
       <c r="R33" s="39">
         <f>SUM($H11:$H20)</f>
-        <v>93.47364758165088</v>
+        <v>1.9735604514882388</v>
       </c>
       <c r="S33" s="39">
         <f>SUM($H11:$H21)</f>
-        <v>244.72400936876198</v>
+        <v>3.2032208105079705</v>
       </c>
       <c r="T33" s="39">
         <f>SUM($H11:$H22)</f>
-        <v>640.69745652741881</v>
+        <v>5.1928112714018964</v>
       </c>
       <c r="U33" s="39">
         <f>SUM($H11:$H23)</f>
-        <v>1677.3559411887823</v>
+        <v>8.4119686371282683</v>
       </c>
       <c r="V33" s="39">
         <f>SUM($H11:$H24)</f>
-        <v>4391.3278540322317</v>
+        <v>13.62056525487354</v>
       </c>
       <c r="W33" s="39">
         <f>SUM($H11:$H25)</f>
-        <v>11496.506321856381</v>
+        <v>22.048074582385389</v>
       </c>
       <c r="X33" s="39">
         <f>SUM($H11:$H26)</f>
-        <v>30097.863550620004</v>
+        <v>35.683784674299567</v>
       </c>
       <c r="Y33" s="39">
         <f>SUM($H11:$H27)</f>
-        <v>78796.216775523164</v>
+        <v>57.746363603016704</v>
       </c>
       <c r="Z33" s="39">
         <f>SUM($H11:$H28)</f>
-        <v>206288.50551831964</v>
+        <v>93.443616309681033</v>
       </c>
       <c r="AA33" s="39">
         <f>SUM($H11:$H29)</f>
-        <v>540063.31744696083</v>
+        <v>151.20177118906392</v>
       </c>
       <c r="AB33" s="39">
         <f>SUM($H11:$H30)</f>
-        <v>1413885.7750761434</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" ht="17.399999999999999" thickBot="1">
+        <v>244.65446578390544</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5109,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="18" thickTop="1" thickBot="1">
+    <row r="35" spans="1:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="59" t="s">
         <v>12</v>
       </c>
@@ -5119,15 +5208,15 @@
       </c>
       <c r="C35" s="25">
         <f>SUM(C13:C34)</f>
-        <v>17716.888820700151</v>
+        <v>7086.7555282800604</v>
       </c>
       <c r="D35" s="26">
         <f>MAX(D13:D34)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="13.8" thickTop="1"/>
-    <row r="37" spans="1:29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -5154,7 +5243,7 @@
       <c r="AB37" s="11"/>
       <c r="AC37" s="11"/>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -5181,7 +5270,7 @@
       <c r="AB38" s="11"/>
       <c r="AC38" s="11"/>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -5208,7 +5297,7 @@
       <c r="AB39" s="11"/>
       <c r="AC39" s="11"/>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -5235,7 +5324,7 @@
       <c r="AB40" s="11"/>
       <c r="AC40" s="11"/>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -5262,7 +5351,7 @@
       <c r="AB41" s="11"/>
       <c r="AC41" s="11"/>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -5289,7 +5378,7 @@
       <c r="AB42" s="11"/>
       <c r="AC42" s="11"/>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -5316,7 +5405,7 @@
       <c r="AB43" s="11"/>
       <c r="AC43" s="11"/>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
@@ -5343,7 +5432,7 @@
       <c r="AB44" s="11"/>
       <c r="AC44" s="11"/>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -5370,7 +5459,7 @@
       <c r="AB45" s="11"/>
       <c r="AC45" s="11"/>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -5397,7 +5486,7 @@
       <c r="AB46" s="11"/>
       <c r="AC46" s="11"/>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -5424,7 +5513,7 @@
       <c r="AB47" s="11"/>
       <c r="AC47" s="11"/>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -5451,7 +5540,7 @@
       <c r="AB48" s="11"/>
       <c r="AC48" s="11"/>
     </row>
-    <row r="49" spans="5:29">
+    <row r="49" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -5478,7 +5567,7 @@
       <c r="AB49" s="11"/>
       <c r="AC49" s="11"/>
     </row>
-    <row r="50" spans="5:29">
+    <row r="50" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -5505,7 +5594,7 @@
       <c r="AB50" s="11"/>
       <c r="AC50" s="11"/>
     </row>
-    <row r="51" spans="5:29">
+    <row r="51" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -5532,7 +5621,7 @@
       <c r="AB51" s="11"/>
       <c r="AC51" s="11"/>
     </row>
-    <row r="52" spans="5:29">
+    <row r="52" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -5559,7 +5648,7 @@
       <c r="AB52" s="11"/>
       <c r="AC52" s="11"/>
     </row>
-    <row r="53" spans="5:29">
+    <row r="53" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -5586,7 +5675,7 @@
       <c r="AB53" s="11"/>
       <c r="AC53" s="11"/>
     </row>
-    <row r="54" spans="5:29">
+    <row r="54" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -5613,7 +5702,7 @@
       <c r="AB54" s="11"/>
       <c r="AC54" s="11"/>
     </row>
-    <row r="55" spans="5:29">
+    <row r="55" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -5640,7 +5729,7 @@
       <c r="AB55" s="11"/>
       <c r="AC55" s="11"/>
     </row>
-    <row r="56" spans="5:29">
+    <row r="56" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -5667,7 +5756,7 @@
       <c r="AB56" s="11"/>
       <c r="AC56" s="11"/>
     </row>
-    <row r="57" spans="5:29">
+    <row r="57" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
@@ -5694,7 +5783,7 @@
       <c r="AB57" s="11"/>
       <c r="AC57" s="11"/>
     </row>
-    <row r="58" spans="5:29">
+    <row r="58" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
@@ -5721,7 +5810,7 @@
       <c r="AB58" s="11"/>
       <c r="AC58" s="11"/>
     </row>
-    <row r="59" spans="5:29">
+    <row r="59" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
@@ -5748,7 +5837,7 @@
       <c r="AB59" s="11"/>
       <c r="AC59" s="11"/>
     </row>
-    <row r="60" spans="5:29">
+    <row r="60" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
@@ -5775,7 +5864,7 @@
       <c r="AB60" s="11"/>
       <c r="AC60" s="11"/>
     </row>
-    <row r="61" spans="5:29">
+    <row r="61" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
@@ -5802,7 +5891,7 @@
       <c r="AB61" s="11"/>
       <c r="AC61" s="11"/>
     </row>
-    <row r="62" spans="5:29">
+    <row r="62" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
@@ -5829,7 +5918,7 @@
       <c r="AB62" s="11"/>
       <c r="AC62" s="11"/>
     </row>
-    <row r="63" spans="5:29">
+    <row r="63" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
@@ -5856,7 +5945,7 @@
       <c r="AB63" s="11"/>
       <c r="AC63" s="11"/>
     </row>
-    <row r="64" spans="5:29">
+    <row r="64" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
@@ -5883,7 +5972,7 @@
       <c r="AB64" s="11"/>
       <c r="AC64" s="11"/>
     </row>
-    <row r="65" spans="5:29">
+    <row r="65" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
@@ -5910,7 +5999,7 @@
       <c r="AB65" s="11"/>
       <c r="AC65" s="11"/>
     </row>
-    <row r="66" spans="5:29">
+    <row r="66" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
@@ -5933,7 +6022,7 @@
       <c r="X66" s="11"/>
       <c r="Y66" s="11"/>
     </row>
-    <row r="67" spans="5:29">
+    <row r="67" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
@@ -5956,7 +6045,7 @@
       <c r="X67" s="11"/>
       <c r="Y67" s="11"/>
     </row>
-    <row r="68" spans="5:29">
+    <row r="68" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
@@ -5979,7 +6068,7 @@
       <c r="X68" s="11"/>
       <c r="Y68" s="11"/>
     </row>
-    <row r="69" spans="5:29">
+    <row r="69" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
@@ -6002,7 +6091,7 @@
       <c r="X69" s="11"/>
       <c r="Y69" s="11"/>
     </row>
-    <row r="70" spans="5:29">
+    <row r="70" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
@@ -6025,7 +6114,7 @@
       <c r="X70" s="11"/>
       <c r="Y70" s="11"/>
     </row>
-    <row r="71" spans="5:29">
+    <row r="71" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
@@ -6048,7 +6137,7 @@
       <c r="X71" s="11"/>
       <c r="Y71" s="11"/>
     </row>
-    <row r="72" spans="5:29">
+    <row r="72" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
@@ -6071,7 +6160,7 @@
       <c r="X72" s="11"/>
       <c r="Y72" s="11"/>
     </row>
-    <row r="73" spans="5:29">
+    <row r="73" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
@@ -6094,7 +6183,7 @@
       <c r="X73" s="11"/>
       <c r="Y73" s="11"/>
     </row>
-    <row r="74" spans="5:29">
+    <row r="74" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
@@ -6117,7 +6206,7 @@
       <c r="X74" s="11"/>
       <c r="Y74" s="11"/>
     </row>
-    <row r="75" spans="5:29">
+    <row r="75" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
@@ -6140,7 +6229,7 @@
       <c r="X75" s="11"/>
       <c r="Y75" s="11"/>
     </row>
-    <row r="76" spans="5:29">
+    <row r="76" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
@@ -6163,7 +6252,7 @@
       <c r="X76" s="11"/>
       <c r="Y76" s="11"/>
     </row>
-    <row r="77" spans="5:29">
+    <row r="77" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
@@ -6186,7 +6275,7 @@
       <c r="X77" s="11"/>
       <c r="Y77" s="11"/>
     </row>
-    <row r="78" spans="5:29">
+    <row r="78" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
@@ -6209,7 +6298,7 @@
       <c r="X78" s="11"/>
       <c r="Y78" s="11"/>
     </row>
-    <row r="79" spans="5:29">
+    <row r="79" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
@@ -6232,7 +6321,7 @@
       <c r="X79" s="11"/>
       <c r="Y79" s="11"/>
     </row>
-    <row r="80" spans="5:29">
+    <row r="80" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
@@ -6255,7 +6344,7 @@
       <c r="X80" s="11"/>
       <c r="Y80" s="11"/>
     </row>
-    <row r="81" spans="5:25">
+    <row r="81" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
@@ -6278,7 +6367,7 @@
       <c r="X81" s="11"/>
       <c r="Y81" s="11"/>
     </row>
-    <row r="82" spans="5:25">
+    <row r="82" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
@@ -6301,7 +6390,7 @@
       <c r="X82" s="11"/>
       <c r="Y82" s="11"/>
     </row>
-    <row r="83" spans="5:25">
+    <row r="83" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
@@ -6324,7 +6413,7 @@
       <c r="X83" s="11"/>
       <c r="Y83" s="11"/>
     </row>
-    <row r="84" spans="5:25">
+    <row r="84" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
@@ -6347,7 +6436,7 @@
       <c r="X84" s="11"/>
       <c r="Y84" s="11"/>
     </row>
-    <row r="85" spans="5:25">
+    <row r="85" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
@@ -6370,7 +6459,7 @@
       <c r="X85" s="11"/>
       <c r="Y85" s="11"/>
     </row>
-    <row r="86" spans="5:25">
+    <row r="86" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
@@ -6393,7 +6482,7 @@
       <c r="X86" s="11"/>
       <c r="Y86" s="11"/>
     </row>
-    <row r="87" spans="5:25">
+    <row r="87" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
@@ -6416,7 +6505,7 @@
       <c r="X87" s="11"/>
       <c r="Y87" s="11"/>
     </row>
-    <row r="88" spans="5:25">
+    <row r="88" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
@@ -6439,7 +6528,7 @@
       <c r="X88" s="11"/>
       <c r="Y88" s="11"/>
     </row>
-    <row r="89" spans="5:25">
+    <row r="89" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
@@ -6462,7 +6551,7 @@
       <c r="X89" s="11"/>
       <c r="Y89" s="11"/>
     </row>
-    <row r="90" spans="5:25">
+    <row r="90" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
@@ -6485,7 +6574,7 @@
       <c r="X90" s="11"/>
       <c r="Y90" s="11"/>
     </row>
-    <row r="91" spans="5:25">
+    <row r="91" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
@@ -6508,7 +6597,7 @@
       <c r="X91" s="11"/>
       <c r="Y91" s="11"/>
     </row>
-    <row r="92" spans="5:25">
+    <row r="92" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
@@ -6531,7 +6620,7 @@
       <c r="X92" s="11"/>
       <c r="Y92" s="11"/>
     </row>
-    <row r="93" spans="5:25">
+    <row r="93" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
@@ -6554,7 +6643,7 @@
       <c r="X93" s="11"/>
       <c r="Y93" s="11"/>
     </row>
-    <row r="94" spans="5:25">
+    <row r="94" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
@@ -6577,7 +6666,7 @@
       <c r="X94" s="11"/>
       <c r="Y94" s="11"/>
     </row>
-    <row r="95" spans="5:25">
+    <row r="95" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
@@ -6600,7 +6689,7 @@
       <c r="X95" s="11"/>
       <c r="Y95" s="11"/>
     </row>
-    <row r="96" spans="5:25">
+    <row r="96" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
@@ -6623,7 +6712,7 @@
       <c r="X96" s="11"/>
       <c r="Y96" s="11"/>
     </row>
-    <row r="97" spans="5:25">
+    <row r="97" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
@@ -6646,7 +6735,7 @@
       <c r="X97" s="11"/>
       <c r="Y97" s="11"/>
     </row>
-    <row r="98" spans="5:25">
+    <row r="98" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
@@ -6669,7 +6758,7 @@
       <c r="X98" s="11"/>
       <c r="Y98" s="11"/>
     </row>
-    <row r="99" spans="5:25">
+    <row r="99" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
@@ -6812,26 +6901,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:W29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="61"/>
+    <col min="1" max="1" width="9.09765625" style="61"/>
     <col min="2" max="2" width="6" style="61" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" style="19"/>
-    <col min="5" max="5" width="15.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="19"/>
-    <col min="7" max="20" width="9.109375" style="61"/>
-    <col min="21" max="21" width="10.44140625" style="61" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="61"/>
+    <col min="3" max="4" width="9.09765625" style="19"/>
+    <col min="5" max="5" width="15.3984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.09765625" style="19"/>
+    <col min="7" max="20" width="9.09765625" style="61"/>
+    <col min="21" max="21" width="10.3984375" style="61" customWidth="1"/>
+    <col min="22" max="16384" width="9.09765625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B1" s="120" t="s">
         <v>80</v>
       </c>
@@ -6850,7 +6939,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="2" spans="2:23">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B2" s="120" t="s">
         <v>81</v>
       </c>
@@ -6904,7 +6993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:23">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B3" s="120"/>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -6970,7 +7059,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:23">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B4" s="122" t="s">
         <v>82</v>
       </c>
@@ -7026,7 +7115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="14.4">
+    <row r="5" spans="2:23" ht="14.4" x14ac:dyDescent="0.45">
       <c r="B5" s="63" t="s">
         <v>83</v>
       </c>
@@ -7091,7 +7180,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:23">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B6" s="65" t="s">
         <v>33</v>
       </c>
@@ -7172,7 +7261,7 @@
       <c r="V6" s="66"/>
       <c r="W6" s="66"/>
     </row>
-    <row r="7" spans="2:23">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B7" s="65" t="s">
         <v>34</v>
       </c>
@@ -7252,7 +7341,7 @@
       <c r="V7" s="66"/>
       <c r="W7" s="66"/>
     </row>
-    <row r="8" spans="2:23">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B8" s="65" t="s">
         <v>35</v>
       </c>
@@ -7329,7 +7418,7 @@
       <c r="V8" s="66"/>
       <c r="W8" s="66"/>
     </row>
-    <row r="9" spans="2:23">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B9" s="65" t="s">
         <v>36</v>
       </c>
@@ -7403,7 +7492,7 @@
       <c r="V9" s="66"/>
       <c r="W9" s="66"/>
     </row>
-    <row r="10" spans="2:23">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B10" s="65" t="s">
         <v>37</v>
       </c>
@@ -7474,7 +7563,7 @@
       <c r="V10" s="66"/>
       <c r="W10" s="66"/>
     </row>
-    <row r="11" spans="2:23">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B11" s="65" t="s">
         <v>38</v>
       </c>
@@ -7542,7 +7631,7 @@
       <c r="V11" s="66"/>
       <c r="W11" s="66"/>
     </row>
-    <row r="12" spans="2:23">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B12" s="65" t="s">
         <v>39</v>
       </c>
@@ -7606,7 +7695,7 @@
       <c r="V12" s="66"/>
       <c r="W12" s="66"/>
     </row>
-    <row r="13" spans="2:23">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B13" s="65" t="s">
         <v>40</v>
       </c>
@@ -7668,7 +7757,7 @@
       <c r="V13" s="66"/>
       <c r="W13" s="66"/>
     </row>
-    <row r="14" spans="2:23">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B14" s="65" t="s">
         <v>41</v>
       </c>
@@ -7726,7 +7815,7 @@
       <c r="V14" s="66"/>
       <c r="W14" s="66"/>
     </row>
-    <row r="15" spans="2:23" ht="14.1" customHeight="1">
+    <row r="15" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="65" t="s">
         <v>42</v>
       </c>
@@ -7781,7 +7870,7 @@
       <c r="V15" s="66"/>
       <c r="W15" s="66"/>
     </row>
-    <row r="16" spans="2:23">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B16" s="65" t="s">
         <v>43</v>
       </c>
@@ -7833,7 +7922,7 @@
       <c r="V16" s="66"/>
       <c r="W16" s="66"/>
     </row>
-    <row r="17" spans="2:23">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B17" s="65" t="s">
         <v>44</v>
       </c>
@@ -7882,7 +7971,7 @@
       <c r="V17" s="66"/>
       <c r="W17" s="66"/>
     </row>
-    <row r="18" spans="2:23">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B18" s="65" t="s">
         <v>45</v>
       </c>
@@ -7928,7 +8017,7 @@
       <c r="V18" s="66"/>
       <c r="W18" s="66"/>
     </row>
-    <row r="19" spans="2:23">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B19" s="65" t="s">
         <v>46</v>
       </c>
@@ -7971,7 +8060,7 @@
       <c r="V19" s="66"/>
       <c r="W19" s="66"/>
     </row>
-    <row r="20" spans="2:23">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B20" s="65" t="s">
         <v>47</v>
       </c>
@@ -8011,7 +8100,7 @@
       <c r="V20" s="66"/>
       <c r="W20" s="66"/>
     </row>
-    <row r="21" spans="2:23">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F21" s="67">
         <f>SUM(F6:F20)</f>
         <v>36.629999999999995</v>
@@ -8079,7 +8168,7 @@
       <c r="V21" s="66"/>
       <c r="W21" s="66"/>
     </row>
-    <row r="22" spans="2:23">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F22" s="61"/>
       <c r="G22" s="83">
         <f t="shared" ref="G22:U22" si="17">SUM(G6:G20)</f>
@@ -8144,27 +8233,27 @@
       <c r="V22" s="66"/>
       <c r="W22" s="66"/>
     </row>
-    <row r="23" spans="2:23">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F23" s="61"/>
       <c r="G23" s="66"/>
     </row>
-    <row r="24" spans="2:23">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F24" s="61"/>
     </row>
-    <row r="25" spans="2:23">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F25" s="61"/>
     </row>
-    <row r="26" spans="2:23">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F26" s="61"/>
       <c r="W26" s="66"/>
     </row>
-    <row r="27" spans="2:23">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F27" s="61"/>
     </row>
-    <row r="28" spans="2:23">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F28" s="61"/>
     </row>
-    <row r="29" spans="2:23">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F29" s="61"/>
     </row>
   </sheetData>
@@ -8182,16 +8271,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:AU56"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AL154" sqref="AL154"/>
+    <sheetView tabSelected="1" topLeftCell="B244" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y255" sqref="Y255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:47">
+    <row r="3" spans="2:47" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>56</v>
       </c>
@@ -8226,7 +8315,7 @@
         <v>107.7</v>
       </c>
     </row>
-    <row r="56" spans="2:38">
+    <row r="56" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>66</v>
       </c>
@@ -8263,16 +8352,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="K169:L169"/>
   <sheetViews>
     <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="AA165" sqref="AA165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="169" spans="11:12">
+    <row r="169" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K169">
         <v>2149.9029999999998</v>
       </c>

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E55E596-6E06-4D7C-9F2D-629A9134D0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFFE74D-B8BD-4EBC-A51D-B5262C3DBC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8376" yWindow="0" windowWidth="31596" windowHeight="16680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6324" yWindow="0" windowWidth="34824" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Input L30" sheetId="2" r:id="rId1"/>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
-  <si>
-    <t>THÔNG TIN ĐẦU VÀO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
   <si>
     <t>Quãng giá L1-L2</t>
   </si>
@@ -703,18 +700,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -1235,91 +1223,91 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="179" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="180" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1332,244 +1320,238 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="15" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="15" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="14" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="17" fillId="16" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="17" fillId="16" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="14" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="17" fillId="16" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="17" fillId="16" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="17" fillId="16" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="7" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="9" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="14" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="14" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="14" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="17" fillId="16" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="7" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="24" fillId="9" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2895,66 +2877,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC99"/>
+  <dimension ref="B1:AD99"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.69921875" style="12" customWidth="1"/>
-    <col min="3" max="4" width="14.69921875" style="11" customWidth="1"/>
-    <col min="5" max="6" width="9.09765625" style="5"/>
-    <col min="7" max="7" width="19" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="10.59765625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="8.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9.296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12.296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.69921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.09765625" style="5"/>
+    <col min="1" max="1" width="2" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" style="12" customWidth="1"/>
+    <col min="4" max="5" width="14.69921875" style="11" customWidth="1"/>
+    <col min="6" max="7" width="9.09765625" style="5"/>
+    <col min="8" max="8" width="19" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="10.59765625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="8.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.09765625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="2:29" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-    </row>
-    <row r="2" spans="1:28" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="57">
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="57">
         <v>2</v>
       </c>
-      <c r="H2" s="40"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="117" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119" t="s">
+      <c r="N2" s="117"/>
+      <c r="O2" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="40"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
       <c r="R2" s="40"/>
       <c r="S2" s="40"/>
       <c r="T2" s="40"/>
@@ -2962,37 +2940,37 @@
       <c r="V2" s="40"/>
       <c r="W2" s="40"/>
       <c r="X2" s="40"/>
-    </row>
-    <row r="3" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="Y2" s="40"/>
+    </row>
+    <row r="3" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="43">
+        <f>E2</f>
         <v>2</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="43">
-        <f>D2</f>
-        <v>2</v>
-      </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="20"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="116">
-        <f>SUM('Bảng Input L30'!B13:B37)</f>
+      <c r="J3" s="20"/>
+      <c r="K3" s="114">
+        <f>SUM('Bảng Input L30'!C13:C37)</f>
         <v>44.096149164770779</v>
       </c>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117">
-        <f>J3*91</f>
+      <c r="L3" s="114"/>
+      <c r="M3" s="115">
+        <f>K3*91</f>
         <v>4012.749573994141</v>
       </c>
-      <c r="M3" s="117"/>
-      <c r="N3" s="118">
-        <f>L3+'Bảng Input L30'!C35</f>
+      <c r="N3" s="115"/>
+      <c r="O3" s="116">
+        <f>M3+'Bảng Input L30'!D35</f>
         <v>11099.505102274201</v>
       </c>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="20"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
@@ -3000,28 +2978,28 @@
       <c r="V3" s="20"/>
       <c r="W3" s="20"/>
       <c r="X3" s="20"/>
-    </row>
-    <row r="4" spans="1:28" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="43">
-        <f>D3</f>
+      <c r="Y3" s="20"/>
+    </row>
+    <row r="4" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="B4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="55">
-        <f>D9</f>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="43">
+        <f>E3</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="55">
+        <f>E9</f>
         <v>1.6180000000000001</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>1.3819999999999999</v>
       </c>
-      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -3036,27 +3014,27 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-    </row>
-    <row r="5" spans="1:28" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="43">
-        <f>D4</f>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="B5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="43">
+        <f>E4</f>
         <v>2</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="113">
+      <c r="H5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="113">
         <v>2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>1.6180000000000001</v>
       </c>
-      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -3071,1128 +3049,1128 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-    </row>
-    <row r="6" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="2:29" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B6" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="43">
+        <f>E5</f>
+        <v>2</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="113">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.6179999999999999</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="43">
-        <f>D5</f>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="43">
+        <f>E6</f>
         <v>2</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="113">
-        <v>4</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2.6179999999999999</v>
-      </c>
-      <c r="N6" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="43">
-        <f>D6</f>
-        <v>2</v>
-      </c>
-      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="38">
+      <c r="I7" s="1"/>
+      <c r="J7" s="38">
         <v>2200</v>
       </c>
-      <c r="J7" s="38">
-        <f>I7-H$5</f>
+      <c r="K7" s="38">
+        <f>J7-I$5</f>
         <v>2198</v>
       </c>
-      <c r="K7" s="38">
-        <f t="shared" ref="K7:X7" si="0">J7-$H$5</f>
+      <c r="L7" s="38">
+        <f t="shared" ref="L7:Y7" si="0">K7-$I$5</f>
         <v>2196</v>
       </c>
-      <c r="L7" s="38">
+      <c r="M7" s="38">
         <f t="shared" si="0"/>
         <v>2194</v>
       </c>
-      <c r="M7" s="38">
+      <c r="N7" s="38">
         <f t="shared" si="0"/>
         <v>2192</v>
       </c>
-      <c r="N7" s="38">
+      <c r="O7" s="38">
         <f t="shared" si="0"/>
         <v>2190</v>
       </c>
-      <c r="O7" s="38">
+      <c r="P7" s="38">
         <f t="shared" si="0"/>
         <v>2188</v>
       </c>
-      <c r="P7" s="38">
+      <c r="Q7" s="38">
         <f t="shared" si="0"/>
         <v>2186</v>
       </c>
-      <c r="Q7" s="38">
+      <c r="R7" s="38">
         <f t="shared" si="0"/>
         <v>2184</v>
       </c>
-      <c r="R7" s="38">
+      <c r="S7" s="38">
         <f t="shared" si="0"/>
         <v>2182</v>
       </c>
-      <c r="S7" s="38">
+      <c r="T7" s="38">
         <f t="shared" si="0"/>
         <v>2180</v>
       </c>
-      <c r="T7" s="38">
+      <c r="U7" s="38">
         <f t="shared" si="0"/>
         <v>2178</v>
       </c>
-      <c r="U7" s="38">
+      <c r="V7" s="38">
         <f t="shared" si="0"/>
         <v>2176</v>
       </c>
-      <c r="V7" s="38">
+      <c r="W7" s="38">
         <f t="shared" si="0"/>
         <v>2174</v>
       </c>
-      <c r="W7" s="38">
+      <c r="X7" s="38">
         <f t="shared" si="0"/>
         <v>2172</v>
       </c>
-      <c r="X7" s="38">
+      <c r="Y7" s="38">
         <f t="shared" si="0"/>
         <v>2170</v>
       </c>
-      <c r="Y7" s="38">
-        <f t="shared" ref="Y7" si="1">X7-$H$5</f>
+      <c r="Z7" s="38">
+        <f t="shared" ref="Z7" si="1">Y7-$I$5</f>
         <v>2168</v>
       </c>
-      <c r="Z7" s="38">
-        <f t="shared" ref="Z7" si="2">Y7-$H$5</f>
+      <c r="AA7" s="38">
+        <f t="shared" ref="AA7" si="2">Z7-$I$5</f>
         <v>2166</v>
       </c>
-      <c r="AA7" s="38">
-        <f t="shared" ref="AA7" si="3">Z7-$H$5</f>
+      <c r="AB7" s="38">
+        <f t="shared" ref="AB7" si="3">AA7-$I$5</f>
         <v>2164</v>
       </c>
-      <c r="AB7" s="38">
-        <f t="shared" ref="AB7" si="4">AA7-$H$5</f>
+      <c r="AC7" s="38">
+        <f t="shared" ref="AC7" si="4">AB7-$I$5</f>
         <v>2162</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="44">
+    <row r="8" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="44">
         <v>0.01</v>
       </c>
-      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="38">
+      <c r="I8" s="1"/>
+      <c r="J8" s="38">
         <v>0</v>
       </c>
-      <c r="J8" s="38">
-        <f t="shared" ref="J8:X8" si="5">$I$7-J7</f>
+      <c r="K8" s="38">
+        <f t="shared" ref="K8:Y8" si="5">$J$7-K7</f>
         <v>2</v>
       </c>
-      <c r="K8" s="38">
+      <c r="L8" s="38">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L8" s="38">
+      <c r="M8" s="38">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="M8" s="38">
+      <c r="N8" s="38">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="N8" s="38">
+      <c r="O8" s="38">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="O8" s="38">
+      <c r="P8" s="38">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="P8" s="38">
+      <c r="Q8" s="38">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="R8" s="38">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="R8" s="38">
+      <c r="S8" s="38">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="S8" s="38">
+      <c r="T8" s="38">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="T8" s="38">
+      <c r="U8" s="38">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="U8" s="38">
+      <c r="V8" s="38">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="V8" s="38">
+      <c r="W8" s="38">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="W8" s="38">
+      <c r="X8" s="38">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="X8" s="38">
+      <c r="Y8" s="38">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="Y8" s="38">
-        <f t="shared" ref="Y8:AB8" si="6">$I$7-Y7</f>
+      <c r="Z8" s="38">
+        <f t="shared" ref="Z8:AC8" si="6">$J$7-Z7</f>
         <v>32</v>
       </c>
-      <c r="Z8" s="38">
+      <c r="AA8" s="38">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="AA8" s="38">
+      <c r="AB8" s="38">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="AB8" s="38">
+      <c r="AC8" s="38">
         <f t="shared" si="6"/>
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+    <row r="9" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="45">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="X9" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y9" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB9" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC9" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="B10" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="58">
+        <v>15</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="56"/>
+      <c r="J10" s="29">
+        <v>1</v>
+      </c>
+      <c r="K10" s="29">
+        <v>2</v>
+      </c>
+      <c r="L10" s="29">
+        <v>3</v>
+      </c>
+      <c r="M10" s="29">
+        <v>4</v>
+      </c>
+      <c r="N10" s="29">
+        <v>5</v>
+      </c>
+      <c r="O10" s="29">
+        <v>6</v>
+      </c>
+      <c r="P10" s="29">
         <v>7</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="45">
-        <v>1.6180000000000001</v>
-      </c>
-      <c r="G9" s="29" t="s">
+      <c r="Q10" s="29">
+        <v>8</v>
+      </c>
+      <c r="R10" s="29">
+        <v>9</v>
+      </c>
+      <c r="S10" s="29">
+        <v>10</v>
+      </c>
+      <c r="T10" s="29">
+        <v>11</v>
+      </c>
+      <c r="U10" s="29">
+        <v>12</v>
+      </c>
+      <c r="V10" s="29">
+        <v>13</v>
+      </c>
+      <c r="W10" s="29">
+        <v>14</v>
+      </c>
+      <c r="X10" s="29">
+        <v>15</v>
+      </c>
+      <c r="Y10" s="29">
         <v>16</v>
       </c>
-      <c r="H9" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="29" t="s">
+      <c r="Z10" s="29">
         <v>17</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="AA10" s="29">
         <v>18</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="AB10" s="29">
         <v>19</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="AC10" s="29">
         <v>20</v>
       </c>
-      <c r="M9" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="S9" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="T9" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="U9" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="V9" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="W9" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="X9" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y9" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z9" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA9" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB9" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="58">
-        <v>15</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="29">
+    </row>
+    <row r="11" spans="2:29" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="H11" s="34">
         <v>1</v>
       </c>
-      <c r="J10" s="29">
+      <c r="I11" s="35">
+        <f>'Bảng Input L30'!C13</f>
+        <v>0.01</v>
+      </c>
+      <c r="J11" s="31">
+        <f>I11*I6*100</f>
+        <v>4</v>
+      </c>
+      <c r="K11" s="31">
+        <f>I11*100*(I6-I5)</f>
         <v>2</v>
       </c>
-      <c r="K10" s="29">
-        <v>3</v>
-      </c>
-      <c r="L10" s="29">
-        <v>4</v>
-      </c>
-      <c r="M10" s="29">
-        <v>5</v>
-      </c>
-      <c r="N10" s="29">
-        <v>6</v>
-      </c>
-      <c r="O10" s="29">
-        <v>7</v>
-      </c>
-      <c r="P10" s="29">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="29">
-        <v>9</v>
-      </c>
-      <c r="R10" s="29">
-        <v>10</v>
-      </c>
-      <c r="S10" s="29">
-        <v>11</v>
-      </c>
-      <c r="T10" s="29">
-        <v>12</v>
-      </c>
-      <c r="U10" s="29">
-        <v>13</v>
-      </c>
-      <c r="V10" s="29">
-        <v>14</v>
-      </c>
-      <c r="W10" s="29">
-        <v>15</v>
-      </c>
-      <c r="X10" s="29">
-        <v>16</v>
-      </c>
-      <c r="Y10" s="29">
-        <v>17</v>
-      </c>
-      <c r="Z10" s="29">
-        <v>18</v>
-      </c>
-      <c r="AA10" s="29">
-        <v>19</v>
-      </c>
-      <c r="AB10" s="29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="G11" s="34">
-        <v>1</v>
-      </c>
-      <c r="H11" s="35">
-        <f>'Bảng Input L30'!B13</f>
-        <v>0.01</v>
-      </c>
-      <c r="I11" s="31">
-        <f>H11*H6*100</f>
-        <v>4</v>
-      </c>
-      <c r="J11" s="31">
-        <f>H11*100*(H6-H5)</f>
-        <v>2</v>
-      </c>
-      <c r="K11" s="31">
-        <f t="shared" ref="K11:AB11" si="7">$H$11*100*($H$6-$H$5*J10)</f>
+      <c r="L11" s="31">
+        <f t="shared" ref="L11:AC11" si="7">$I$11*100*($I$6-$I$5*K10)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="31">
+      <c r="M11" s="31">
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="M11" s="31">
-        <f>$H$11*100*($H$6-$H$5*L10)</f>
+      <c r="N11" s="31">
+        <f>$I$11*100*($I$6-$I$5*M10)</f>
         <v>-4</v>
       </c>
-      <c r="N11" s="31">
+      <c r="O11" s="31">
         <f t="shared" si="7"/>
         <v>-6</v>
       </c>
-      <c r="O11" s="31">
+      <c r="P11" s="31">
         <f t="shared" si="7"/>
         <v>-8</v>
       </c>
-      <c r="P11" s="31">
+      <c r="Q11" s="31">
         <f t="shared" si="7"/>
         <v>-10</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="R11" s="31">
         <f t="shared" si="7"/>
         <v>-12</v>
       </c>
-      <c r="R11" s="31">
+      <c r="S11" s="31">
         <f t="shared" si="7"/>
         <v>-14</v>
       </c>
-      <c r="S11" s="31">
+      <c r="T11" s="31">
         <f t="shared" si="7"/>
         <v>-16</v>
       </c>
-      <c r="T11" s="31">
+      <c r="U11" s="31">
         <f t="shared" si="7"/>
         <v>-18</v>
       </c>
-      <c r="U11" s="31">
+      <c r="V11" s="31">
         <f t="shared" si="7"/>
         <v>-20</v>
       </c>
-      <c r="V11" s="31">
+      <c r="W11" s="31">
         <f t="shared" si="7"/>
         <v>-22</v>
       </c>
-      <c r="W11" s="31">
+      <c r="X11" s="31">
         <f t="shared" si="7"/>
         <v>-24</v>
       </c>
-      <c r="X11" s="31">
+      <c r="Y11" s="31">
         <f t="shared" si="7"/>
         <v>-26</v>
       </c>
-      <c r="Y11" s="31">
+      <c r="Z11" s="31">
         <f t="shared" si="7"/>
         <v>-28</v>
       </c>
-      <c r="Z11" s="31">
+      <c r="AA11" s="31">
         <f t="shared" si="7"/>
         <v>-30</v>
       </c>
-      <c r="AA11" s="31">
+      <c r="AB11" s="31">
         <f t="shared" si="7"/>
         <v>-32</v>
       </c>
-      <c r="AB11" s="31">
+      <c r="AC11" s="31">
         <f t="shared" si="7"/>
         <v>-34</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="2:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="E12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="34">
+      <c r="H12" s="34">
         <v>2</v>
       </c>
-      <c r="H12" s="30">
-        <f t="shared" ref="H12:H30" si="8">H11*$H$4</f>
+      <c r="I12" s="30">
+        <f t="shared" ref="I12:I30" si="8">I11*$I$4</f>
         <v>1.618E-2</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="31">
-        <f>H12*100*H6</f>
+      <c r="J12" s="3"/>
+      <c r="K12" s="31">
+        <f>I12*100*I6</f>
         <v>6.4719999999999995</v>
       </c>
-      <c r="K12" s="31">
-        <f>H12*100*(H6-H5)</f>
+      <c r="L12" s="31">
+        <f>I12*100*(I6-I5)</f>
         <v>3.2359999999999998</v>
       </c>
-      <c r="L12" s="31">
-        <f t="shared" ref="L12:AB12" si="9">$H$12*100*($H$6-$H$5*J10)</f>
+      <c r="M12" s="31">
+        <f t="shared" ref="M12:AC12" si="9">$I$12*100*($I$6-$I$5*K10)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="31">
+      <c r="N12" s="31">
         <f t="shared" si="9"/>
         <v>-3.2359999999999998</v>
       </c>
-      <c r="N12" s="31">
+      <c r="O12" s="31">
         <f t="shared" si="9"/>
         <v>-6.4719999999999995</v>
       </c>
-      <c r="O12" s="31">
+      <c r="P12" s="31">
         <f t="shared" si="9"/>
         <v>-9.7079999999999984</v>
       </c>
-      <c r="P12" s="31">
+      <c r="Q12" s="31">
         <f t="shared" si="9"/>
         <v>-12.943999999999999</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="R12" s="31">
         <f t="shared" si="9"/>
         <v>-16.18</v>
       </c>
-      <c r="R12" s="31">
+      <c r="S12" s="31">
         <f t="shared" si="9"/>
         <v>-19.415999999999997</v>
       </c>
-      <c r="S12" s="31">
+      <c r="T12" s="31">
         <f t="shared" si="9"/>
         <v>-22.651999999999997</v>
       </c>
-      <c r="T12" s="31">
+      <c r="U12" s="31">
         <f t="shared" si="9"/>
         <v>-25.887999999999998</v>
       </c>
-      <c r="U12" s="31">
+      <c r="V12" s="31">
         <f t="shared" si="9"/>
         <v>-29.123999999999999</v>
       </c>
-      <c r="V12" s="31">
+      <c r="W12" s="31">
         <f t="shared" si="9"/>
         <v>-32.36</v>
       </c>
-      <c r="W12" s="31">
+      <c r="X12" s="31">
         <f t="shared" si="9"/>
         <v>-35.595999999999997</v>
       </c>
-      <c r="X12" s="31">
+      <c r="Y12" s="31">
         <f t="shared" si="9"/>
         <v>-38.831999999999994</v>
       </c>
-      <c r="Y12" s="31">
+      <c r="Z12" s="31">
         <f t="shared" si="9"/>
         <v>-42.067999999999998</v>
       </c>
-      <c r="Z12" s="31">
+      <c r="AA12" s="31">
         <f t="shared" si="9"/>
         <v>-45.303999999999995</v>
       </c>
-      <c r="AA12" s="31">
+      <c r="AB12" s="31">
         <f t="shared" si="9"/>
         <v>-48.54</v>
       </c>
-      <c r="AB12" s="31">
+      <c r="AC12" s="31">
         <f t="shared" si="9"/>
         <v>-51.775999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="str">
-        <f>IF($D$10&gt;0,"L1",0)</f>
+    <row r="13" spans="2:29" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="str">
+        <f>IF($E$10&gt;0,"L1",0)</f>
         <v>L1</v>
       </c>
-      <c r="B13" s="8">
-        <f>+D8</f>
+      <c r="C13" s="8">
+        <f>+E8</f>
         <v>0.01</v>
       </c>
-      <c r="C13" s="9">
-        <f>+B13*D13*100</f>
+      <c r="D13" s="9">
+        <f>+C13*E13*100</f>
         <v>28.000000000000004</v>
       </c>
-      <c r="D13" s="9">
-        <f>IF(A13=0,0,$D$2+$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
+      <c r="E13" s="9">
+        <f>IF(B13=0,0,$E$2+$E$3+$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
         <v>28</v>
       </c>
-      <c r="G13" s="34">
+      <c r="H13" s="34">
         <v>3</v>
       </c>
-      <c r="H13" s="30">
+      <c r="I13" s="30">
         <f t="shared" si="8"/>
         <v>2.6179240000000003E-2</v>
       </c>
-      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="31">
-        <f>H13*100*H6</f>
+      <c r="K13" s="3"/>
+      <c r="L13" s="31">
+        <f>I13*100*I6</f>
         <v>10.471696000000001</v>
       </c>
-      <c r="L13" s="31">
-        <f>H13*100*(H6-H5)</f>
+      <c r="M13" s="31">
+        <f>I13*100*(I6-I5)</f>
         <v>5.2358480000000007</v>
       </c>
-      <c r="M13" s="31">
-        <f t="shared" ref="M13:AB13" si="10">$H$13*100*($H$6-$H$5*J10)</f>
+      <c r="N13" s="31">
+        <f t="shared" ref="N13:AC13" si="10">$I$13*100*($I$6-$I$5*K10)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="31">
+      <c r="O13" s="31">
         <f t="shared" si="10"/>
         <v>-5.2358480000000007</v>
       </c>
-      <c r="O13" s="31">
+      <c r="P13" s="31">
         <f t="shared" si="10"/>
         <v>-10.471696000000001</v>
       </c>
-      <c r="P13" s="31">
+      <c r="Q13" s="31">
         <f t="shared" si="10"/>
         <v>-15.707544000000002</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="R13" s="31">
         <f t="shared" si="10"/>
         <v>-20.943392000000003</v>
       </c>
-      <c r="R13" s="31">
+      <c r="S13" s="31">
         <f t="shared" si="10"/>
         <v>-26.179240000000004</v>
       </c>
-      <c r="S13" s="31">
+      <c r="T13" s="31">
         <f t="shared" si="10"/>
         <v>-31.415088000000004</v>
       </c>
-      <c r="T13" s="31">
+      <c r="U13" s="31">
         <f t="shared" si="10"/>
         <v>-36.650936000000002</v>
       </c>
-      <c r="U13" s="31">
+      <c r="V13" s="31">
         <f t="shared" si="10"/>
         <v>-41.886784000000006</v>
       </c>
-      <c r="V13" s="31">
+      <c r="W13" s="31">
         <f t="shared" si="10"/>
         <v>-47.12263200000001</v>
       </c>
-      <c r="W13" s="31">
+      <c r="X13" s="31">
         <f t="shared" si="10"/>
         <v>-52.358480000000007</v>
       </c>
-      <c r="X13" s="31">
+      <c r="Y13" s="31">
         <f t="shared" si="10"/>
         <v>-57.594328000000004</v>
       </c>
-      <c r="Y13" s="31">
+      <c r="Z13" s="31">
         <f t="shared" si="10"/>
         <v>-62.830176000000009</v>
       </c>
-      <c r="Z13" s="31">
+      <c r="AA13" s="31">
         <f t="shared" si="10"/>
         <v>-68.066024000000013</v>
       </c>
-      <c r="AA13" s="31">
+      <c r="AB13" s="31">
         <f t="shared" si="10"/>
         <v>-73.301872000000003</v>
       </c>
-      <c r="AB13" s="31">
+      <c r="AC13" s="31">
         <f t="shared" si="10"/>
         <v>-78.537720000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="str">
-        <f t="shared" ref="A14:A34" si="11">IF(A13=0,0,IF(VALUE(MID(A13,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A13,2,2))+1))</f>
+    <row r="14" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="24" t="str">
+        <f t="shared" ref="B14:B34" si="11">IF(B13=0,0,IF(VALUE(MID(B13,2,2))&gt;=$E$10,0,"L"&amp;VALUE(MID(B13,2,2))+1))</f>
         <v>L2</v>
       </c>
-      <c r="B14" s="10">
-        <f t="shared" ref="B14:B34" si="12">IF(A14&lt;&gt;0,B13*$D$9,0)</f>
+      <c r="C14" s="10">
+        <f t="shared" ref="C14:C34" si="12">IF(B14&lt;&gt;0,C13*$E$9,0)</f>
         <v>1.618E-2</v>
       </c>
-      <c r="C14" s="9">
-        <f t="shared" ref="C14:C34" si="13">+B14*D14*100</f>
+      <c r="D14" s="9">
+        <f t="shared" ref="D14:D34" si="13">+C14*E14*100</f>
         <v>42.067999999999998</v>
       </c>
-      <c r="D14" s="9">
-        <f>IF(A14=0,0,$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
+      <c r="E14" s="9">
+        <f>IF(B14=0,0,$E$3+$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
         <v>26</v>
       </c>
-      <c r="G14" s="34">
+      <c r="H14" s="34">
         <v>4</v>
       </c>
-      <c r="H14" s="30">
+      <c r="I14" s="30">
         <f t="shared" si="8"/>
         <v>4.2358010320000007E-2</v>
       </c>
-      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="31">
-        <f>H14*100*H6</f>
+      <c r="L14" s="3"/>
+      <c r="M14" s="31">
+        <f>I14*100*I6</f>
         <v>16.943204128000001</v>
       </c>
-      <c r="M14" s="31">
-        <f>H14*100*(H6-H5)</f>
+      <c r="N14" s="31">
+        <f>I14*100*(I6-I5)</f>
         <v>8.4716020640000007</v>
       </c>
-      <c r="N14" s="31">
-        <f t="shared" ref="N14:AB14" si="14">$H$14*100*($H$6-$H$5*J10)</f>
+      <c r="O14" s="31">
+        <f t="shared" ref="O14:AC14" si="14">$I$14*100*($I$6-$I$5*K10)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="31">
+      <c r="P14" s="31">
         <f t="shared" si="14"/>
         <v>-8.4716020640000007</v>
       </c>
-      <c r="P14" s="31">
+      <c r="Q14" s="31">
         <f t="shared" si="14"/>
         <v>-16.943204128000001</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="R14" s="31">
         <f t="shared" si="14"/>
         <v>-25.414806192</v>
       </c>
-      <c r="R14" s="31">
+      <c r="S14" s="31">
         <f t="shared" si="14"/>
         <v>-33.886408256000003</v>
       </c>
-      <c r="S14" s="31">
+      <c r="T14" s="31">
         <f t="shared" si="14"/>
         <v>-42.358010320000005</v>
       </c>
-      <c r="T14" s="31">
+      <c r="U14" s="31">
         <f t="shared" si="14"/>
         <v>-50.829612384000001</v>
       </c>
-      <c r="U14" s="31">
+      <c r="V14" s="31">
         <f t="shared" si="14"/>
         <v>-59.301214448000003</v>
       </c>
-      <c r="V14" s="31">
+      <c r="W14" s="31">
         <f t="shared" si="14"/>
         <v>-67.772816512000006</v>
       </c>
-      <c r="W14" s="31">
+      <c r="X14" s="31">
         <f t="shared" si="14"/>
         <v>-76.244418576000001</v>
       </c>
-      <c r="X14" s="31">
+      <c r="Y14" s="31">
         <f t="shared" si="14"/>
         <v>-84.716020640000011</v>
       </c>
-      <c r="Y14" s="31">
+      <c r="Z14" s="31">
         <f t="shared" si="14"/>
         <v>-93.187622704000006</v>
       </c>
-      <c r="Z14" s="31">
+      <c r="AA14" s="31">
         <f t="shared" si="14"/>
         <v>-101.659224768</v>
       </c>
-      <c r="AA14" s="31">
+      <c r="AB14" s="31">
         <f t="shared" si="14"/>
         <v>-110.13082683200001</v>
       </c>
-      <c r="AB14" s="31">
+      <c r="AC14" s="31">
         <f t="shared" si="14"/>
         <v>-118.60242889600001</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="str">
+    <row r="15" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L3</v>
       </c>
-      <c r="B15" s="10">
+      <c r="C15" s="10">
         <f t="shared" si="12"/>
         <v>2.6179240000000003E-2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="D15" s="9">
         <f t="shared" si="13"/>
         <v>62.830176000000002</v>
       </c>
-      <c r="D15" s="9">
-        <f>IF(A15=0,0,$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
+      <c r="E15" s="9">
+        <f>IF(B15=0,0,$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
         <v>24</v>
       </c>
-      <c r="G15" s="34">
+      <c r="H15" s="34">
         <v>5</v>
       </c>
-      <c r="H15" s="30">
+      <c r="I15" s="30">
         <f t="shared" si="8"/>
         <v>6.8535260697760017E-2</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="31">
-        <f>H15*H6*100</f>
+      <c r="M15" s="3"/>
+      <c r="N15" s="31">
+        <f>I15*I6*100</f>
         <v>27.414104279104006</v>
       </c>
-      <c r="N15" s="31">
-        <f>H15*100*(H6-H5)</f>
+      <c r="O15" s="31">
+        <f>I15*100*(I6-I5)</f>
         <v>13.707052139552003</v>
       </c>
-      <c r="O15" s="31">
-        <f t="shared" ref="O15:AB15" si="15">$H$15*100*($H$6-$H$5*J10)</f>
+      <c r="P15" s="31">
+        <f t="shared" ref="P15:AC15" si="15">$I$15*100*($I$6-$I$5*K10)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="31">
+      <c r="Q15" s="31">
         <f t="shared" si="15"/>
         <v>-13.707052139552003</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="R15" s="31">
         <f t="shared" si="15"/>
         <v>-27.414104279104006</v>
       </c>
-      <c r="R15" s="31">
+      <c r="S15" s="31">
         <f t="shared" si="15"/>
         <v>-41.121156418656007</v>
       </c>
-      <c r="S15" s="31">
+      <c r="T15" s="31">
         <f t="shared" si="15"/>
         <v>-54.828208558208011</v>
       </c>
-      <c r="T15" s="31">
+      <c r="U15" s="31">
         <f t="shared" si="15"/>
         <v>-68.535260697760009</v>
       </c>
-      <c r="U15" s="31">
+      <c r="V15" s="31">
         <f t="shared" si="15"/>
         <v>-82.242312837312014</v>
       </c>
-      <c r="V15" s="31">
+      <c r="W15" s="31">
         <f t="shared" si="15"/>
         <v>-95.949364976864018</v>
       </c>
-      <c r="W15" s="31">
+      <c r="X15" s="31">
         <f t="shared" si="15"/>
         <v>-109.65641711641602</v>
       </c>
-      <c r="X15" s="31">
+      <c r="Y15" s="31">
         <f t="shared" si="15"/>
         <v>-123.36346925596803</v>
       </c>
-      <c r="Y15" s="31">
+      <c r="Z15" s="31">
         <f t="shared" si="15"/>
         <v>-137.07052139552002</v>
       </c>
-      <c r="Z15" s="31">
+      <c r="AA15" s="31">
         <f t="shared" si="15"/>
         <v>-150.77757353507204</v>
       </c>
-      <c r="AA15" s="31">
+      <c r="AB15" s="31">
         <f t="shared" si="15"/>
         <v>-164.48462567462403</v>
       </c>
-      <c r="AB15" s="31">
+      <c r="AC15" s="31">
         <f t="shared" si="15"/>
         <v>-178.19167781417605</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="str">
+    <row r="16" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L4</v>
       </c>
-      <c r="B16" s="10">
+      <c r="C16" s="10">
         <f t="shared" si="12"/>
         <v>4.2358010320000007E-2</v>
       </c>
-      <c r="C16" s="9">
+      <c r="D16" s="9">
         <f t="shared" si="13"/>
         <v>93.18762270400002</v>
       </c>
-      <c r="D16" s="9">
-        <f>IF(A16=0,0,$D$5+$D$6+($D$7*($D$10-6)))</f>
+      <c r="E16" s="9">
+        <f>IF(B16=0,0,$E$5+$E$6+($E$7*($E$10-6)))</f>
         <v>22</v>
       </c>
-      <c r="G16" s="34">
+      <c r="H16" s="34">
         <v>6</v>
       </c>
-      <c r="H16" s="30">
+      <c r="I16" s="30">
         <f t="shared" si="8"/>
         <v>0.11089005180897571</v>
       </c>
-      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="31">
-        <f>H16*H6*100</f>
+      <c r="N16" s="3"/>
+      <c r="O16" s="31">
+        <f>I16*I6*100</f>
         <v>44.356020723590284</v>
       </c>
-      <c r="O16" s="31">
-        <f>H16*100*(H6-H5)</f>
+      <c r="P16" s="31">
+        <f>I16*100*(I6-I5)</f>
         <v>22.178010361795142</v>
       </c>
-      <c r="P16" s="31">
-        <f t="shared" ref="P16:X16" si="16">$H$16*100*($H$6-$H$5*J10)</f>
+      <c r="Q16" s="31">
+        <f t="shared" ref="Q16:Y16" si="16">$I$16*100*($I$6-$I$5*K10)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="R16" s="31">
         <f t="shared" si="16"/>
         <v>-22.178010361795142</v>
       </c>
-      <c r="R16" s="31">
+      <c r="S16" s="31">
         <f t="shared" si="16"/>
         <v>-44.356020723590284</v>
       </c>
-      <c r="S16" s="31">
+      <c r="T16" s="31">
         <f t="shared" si="16"/>
         <v>-66.534031085385422</v>
       </c>
-      <c r="T16" s="31">
+      <c r="U16" s="31">
         <f t="shared" si="16"/>
         <v>-88.712041447180567</v>
       </c>
-      <c r="U16" s="31">
+      <c r="V16" s="31">
         <f t="shared" si="16"/>
         <v>-110.89005180897571</v>
       </c>
-      <c r="V16" s="31">
+      <c r="W16" s="31">
         <f t="shared" si="16"/>
         <v>-133.06806217077084</v>
       </c>
-      <c r="W16" s="31">
+      <c r="X16" s="31">
         <f t="shared" si="16"/>
         <v>-155.24607253256599</v>
       </c>
-      <c r="X16" s="31">
+      <c r="Y16" s="31">
         <f t="shared" si="16"/>
         <v>-177.42408289436113</v>
       </c>
-      <c r="Y16" s="31">
-        <f t="shared" ref="Y16" si="17">$H$16*100*($H$6-$H$5*S10)</f>
+      <c r="Z16" s="31">
+        <f t="shared" ref="Z16" si="17">$I$16*100*($I$6-$I$5*T10)</f>
         <v>-199.60209325615628</v>
       </c>
-      <c r="Z16" s="31">
-        <f t="shared" ref="Z16" si="18">$H$16*100*($H$6-$H$5*T10)</f>
+      <c r="AA16" s="31">
+        <f t="shared" ref="AA16" si="18">$I$16*100*($I$6-$I$5*U10)</f>
         <v>-221.78010361795143</v>
       </c>
-      <c r="AA16" s="31">
-        <f t="shared" ref="AA16" si="19">$H$16*100*($H$6-$H$5*U10)</f>
+      <c r="AB16" s="31">
+        <f t="shared" ref="AB16" si="19">$I$16*100*($I$6-$I$5*V10)</f>
         <v>-243.95811397974657</v>
       </c>
-      <c r="AB16" s="31">
-        <f t="shared" ref="AB16" si="20">$H$16*100*($H$6-$H$5*V10)</f>
+      <c r="AC16" s="31">
+        <f t="shared" ref="AC16" si="20">$I$16*100*($I$6-$I$5*W10)</f>
         <v>-266.13612434154169</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="str">
+    <row r="17" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L5</v>
       </c>
-      <c r="B17" s="10">
+      <c r="C17" s="10">
         <f t="shared" si="12"/>
         <v>6.8535260697760017E-2</v>
       </c>
-      <c r="C17" s="9">
+      <c r="D17" s="9">
         <f t="shared" si="13"/>
         <v>137.07052139552002</v>
       </c>
-      <c r="D17" s="9">
-        <f>IF(A17=0,0,$D$6+($D$7*($D$10-6)))</f>
+      <c r="E17" s="9">
+        <f>IF(B17=0,0,$E$6+($E$7*($E$10-6)))</f>
         <v>20</v>
       </c>
-      <c r="G17" s="34">
+      <c r="H17" s="34">
         <v>7</v>
       </c>
-      <c r="H17" s="30">
+      <c r="I17" s="30">
         <f t="shared" si="8"/>
         <v>0.17942010382692272</v>
       </c>
-      <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="31">
-        <f>H6*H17*100</f>
+      <c r="O17" s="3"/>
+      <c r="P17" s="31">
+        <f>I6*I17*100</f>
         <v>71.768041530769082</v>
       </c>
-      <c r="P17" s="31">
-        <f>H17*100*(H6-H5)</f>
+      <c r="Q17" s="31">
+        <f>I17*100*(I6-I5)</f>
         <v>35.884020765384541</v>
       </c>
-      <c r="Q17" s="31">
-        <f t="shared" ref="Q17:X17" si="21">$H$17*100*($H$6-$H$5*J10)</f>
+      <c r="R17" s="31">
+        <f t="shared" ref="R17:Y17" si="21">$I$17*100*($I$6-$I$5*K10)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="31">
+      <c r="S17" s="31">
         <f t="shared" si="21"/>
         <v>-35.884020765384541</v>
       </c>
-      <c r="S17" s="31">
+      <c r="T17" s="31">
         <f t="shared" si="21"/>
         <v>-71.768041530769082</v>
       </c>
-      <c r="T17" s="31">
+      <c r="U17" s="31">
         <f t="shared" si="21"/>
         <v>-107.65206229615362</v>
       </c>
-      <c r="U17" s="31">
+      <c r="V17" s="31">
         <f t="shared" si="21"/>
         <v>-143.53608306153816</v>
       </c>
-      <c r="V17" s="31">
+      <c r="W17" s="31">
         <f t="shared" si="21"/>
         <v>-179.42010382692271</v>
       </c>
-      <c r="W17" s="31">
+      <c r="X17" s="31">
         <f t="shared" si="21"/>
         <v>-215.30412459230723</v>
       </c>
-      <c r="X17" s="31">
+      <c r="Y17" s="31">
         <f t="shared" si="21"/>
         <v>-251.18814535769178</v>
       </c>
-      <c r="Y17" s="31">
-        <f t="shared" ref="Y17" si="22">$H$17*100*($H$6-$H$5*R10)</f>
+      <c r="Z17" s="31">
+        <f t="shared" ref="Z17" si="22">$I$17*100*($I$6-$I$5*S10)</f>
         <v>-287.07216612307633</v>
       </c>
-      <c r="Z17" s="31">
-        <f t="shared" ref="Z17" si="23">$H$17*100*($H$6-$H$5*S10)</f>
+      <c r="AA17" s="31">
+        <f t="shared" ref="AA17" si="23">$I$17*100*($I$6-$I$5*T10)</f>
         <v>-322.95618688846088</v>
       </c>
-      <c r="AA17" s="31">
-        <f t="shared" ref="AA17" si="24">$H$17*100*($H$6-$H$5*T10)</f>
+      <c r="AB17" s="31">
+        <f t="shared" ref="AB17" si="24">$I$17*100*($I$6-$I$5*U10)</f>
         <v>-358.84020765384543</v>
       </c>
-      <c r="AB17" s="31">
-        <f t="shared" ref="AB17" si="25">$H$17*100*($H$6-$H$5*U10)</f>
+      <c r="AC17" s="31">
+        <f t="shared" ref="AC17" si="25">$I$17*100*($I$6-$I$5*V10)</f>
         <v>-394.72422841922997</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="str">
+    <row r="18" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L6</v>
       </c>
-      <c r="B18" s="10">
+      <c r="C18" s="10">
         <f t="shared" si="12"/>
         <v>0.11089005180897571</v>
       </c>
-      <c r="C18" s="9">
+      <c r="D18" s="9">
         <f t="shared" si="13"/>
         <v>199.60209325615628</v>
       </c>
-      <c r="D18" s="9">
-        <f>IF(A18=0,0,($D$7*($D$10-6)))</f>
+      <c r="E18" s="9">
+        <f>IF(B18=0,0,($E$7*($E$10-6)))</f>
         <v>18</v>
       </c>
-      <c r="G18" s="34">
+      <c r="H18" s="34">
         <v>8</v>
       </c>
-      <c r="H18" s="30">
+      <c r="I18" s="30">
         <f t="shared" si="8"/>
         <v>0.29030172799196097</v>
       </c>
-      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="31">
-        <f>H6*H18*100</f>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="31">
+        <f>I6*I18*100</f>
         <v>116.12069119678439</v>
       </c>
-      <c r="Q18" s="31">
-        <f>H18*100*(H6-H5)</f>
+      <c r="R18" s="31">
+        <f>I18*100*(I6-I5)</f>
         <v>58.060345598392196</v>
       </c>
-      <c r="R18" s="31">
-        <f t="shared" ref="R18:X18" si="26">$H$18*100*($H$6-$H$5*J10)</f>
+      <c r="S18" s="31">
+        <f t="shared" ref="S18:Y18" si="26">$I$18*100*($I$6-$I$5*K10)</f>
         <v>0</v>
       </c>
-      <c r="S18" s="31">
+      <c r="T18" s="31">
         <f t="shared" si="26"/>
         <v>-58.060345598392196</v>
       </c>
-      <c r="T18" s="31">
+      <c r="U18" s="31">
         <f t="shared" si="26"/>
         <v>-116.12069119678439</v>
       </c>
-      <c r="U18" s="31">
+      <c r="V18" s="31">
         <f t="shared" si="26"/>
         <v>-174.1810367951766</v>
       </c>
-      <c r="V18" s="31">
+      <c r="W18" s="31">
         <f t="shared" si="26"/>
         <v>-232.24138239356878</v>
       </c>
-      <c r="W18" s="31">
+      <c r="X18" s="31">
         <f t="shared" si="26"/>
         <v>-290.301727991961</v>
       </c>
-      <c r="X18" s="31">
+      <c r="Y18" s="31">
         <f t="shared" si="26"/>
         <v>-348.36207359035319</v>
       </c>
-      <c r="Y18" s="31">
-        <f t="shared" ref="Y18" si="27">$H$18*100*($H$6-$H$5*Q10)</f>
+      <c r="Z18" s="31">
+        <f t="shared" ref="Z18" si="27">$I$18*100*($I$6-$I$5*R10)</f>
         <v>-406.42241918874538</v>
       </c>
-      <c r="Z18" s="31">
-        <f t="shared" ref="Z18" si="28">$H$18*100*($H$6-$H$5*R10)</f>
+      <c r="AA18" s="31">
+        <f t="shared" ref="AA18" si="28">$I$18*100*($I$6-$I$5*S10)</f>
         <v>-464.48276478713757</v>
       </c>
-      <c r="AA18" s="31">
-        <f t="shared" ref="AA18" si="29">$H$18*100*($H$6-$H$5*S10)</f>
+      <c r="AB18" s="31">
+        <f t="shared" ref="AB18" si="29">$I$18*100*($I$6-$I$5*T10)</f>
         <v>-522.54311038552976</v>
       </c>
-      <c r="AB18" s="31">
-        <f t="shared" ref="AB18" si="30">$H$18*100*($H$6-$H$5*T10)</f>
+      <c r="AC18" s="31">
+        <f t="shared" ref="AC18" si="30">$I$18*100*($I$6-$I$5*U10)</f>
         <v>-580.603455983922</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="str">
+    <row r="19" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L7</v>
       </c>
-      <c r="B19" s="10">
+      <c r="C19" s="10">
         <f t="shared" si="12"/>
         <v>0.17942010382692272</v>
       </c>
-      <c r="C19" s="9">
+      <c r="D19" s="9">
         <f t="shared" si="13"/>
         <v>287.07216612307633</v>
       </c>
-      <c r="D19" s="9">
-        <f>IF(A19=0,0,($D$7*($D$10-7)))</f>
+      <c r="E19" s="9">
+        <f>IF(B19=0,0,($E$7*($E$10-7)))</f>
         <v>16</v>
       </c>
-      <c r="G19" s="34">
+      <c r="H19" s="34">
         <v>9</v>
       </c>
-      <c r="H19" s="30">
+      <c r="I19" s="30">
         <f t="shared" si="8"/>
         <v>0.46970819589099289</v>
       </c>
-      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -4200,80 +4178,80 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="31">
-        <f>H6*H19*100</f>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="31">
+        <f>I6*I19*100</f>
         <v>187.88327835639714</v>
       </c>
-      <c r="R19" s="31">
-        <f>H19*100*(H6-H5)</f>
+      <c r="S19" s="31">
+        <f>I19*100*(I6-I5)</f>
         <v>93.941639178198571</v>
       </c>
-      <c r="S19" s="31">
-        <f t="shared" ref="S19:X19" si="31">$H$19*100*($H$6-$H$5*J10)</f>
+      <c r="T19" s="31">
+        <f t="shared" ref="T19:Y19" si="31">$I$19*100*($I$6-$I$5*K10)</f>
         <v>0</v>
       </c>
-      <c r="T19" s="31">
+      <c r="U19" s="31">
         <f t="shared" si="31"/>
         <v>-93.941639178198571</v>
       </c>
-      <c r="U19" s="31">
+      <c r="V19" s="31">
         <f t="shared" si="31"/>
         <v>-187.88327835639714</v>
       </c>
-      <c r="V19" s="31">
+      <c r="W19" s="31">
         <f t="shared" si="31"/>
         <v>-281.82491753459573</v>
       </c>
-      <c r="W19" s="31">
+      <c r="X19" s="31">
         <f t="shared" si="31"/>
         <v>-375.76655671279428</v>
       </c>
-      <c r="X19" s="31">
+      <c r="Y19" s="31">
         <f t="shared" si="31"/>
         <v>-469.70819589099284</v>
       </c>
-      <c r="Y19" s="31">
-        <f t="shared" ref="Y19" si="32">$H$19*100*($H$6-$H$5*P10)</f>
+      <c r="Z19" s="31">
+        <f t="shared" ref="Z19" si="32">$I$19*100*($I$6-$I$5*Q10)</f>
         <v>-563.64983506919145</v>
       </c>
-      <c r="Z19" s="31">
-        <f t="shared" ref="Z19" si="33">$H$19*100*($H$6-$H$5*Q10)</f>
+      <c r="AA19" s="31">
+        <f t="shared" ref="AA19" si="33">$I$19*100*($I$6-$I$5*R10)</f>
         <v>-657.59147424739001</v>
       </c>
-      <c r="AA19" s="31">
-        <f t="shared" ref="AA19" si="34">$H$19*100*($H$6-$H$5*R10)</f>
+      <c r="AB19" s="31">
+        <f t="shared" ref="AB19" si="34">$I$19*100*($I$6-$I$5*S10)</f>
         <v>-751.53311342558857</v>
       </c>
-      <c r="AB19" s="31">
-        <f t="shared" ref="AB19" si="35">$H$19*100*($H$6-$H$5*S10)</f>
+      <c r="AC19" s="31">
+        <f t="shared" ref="AC19" si="35">$I$19*100*($I$6-$I$5*T10)</f>
         <v>-845.47475260378712</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="str">
+    <row r="20" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L8</v>
       </c>
-      <c r="B20" s="10">
+      <c r="C20" s="10">
         <f t="shared" si="12"/>
         <v>0.29030172799196097</v>
       </c>
-      <c r="C20" s="9">
+      <c r="D20" s="9">
         <f t="shared" si="13"/>
         <v>406.42241918874538</v>
       </c>
-      <c r="D20" s="9">
-        <f>IF(A20=0,0,($D$7*($D$10-8)))</f>
+      <c r="E20" s="9">
+        <f>IF(B20=0,0,($E$7*($E$10-8)))</f>
         <v>14</v>
       </c>
-      <c r="G20" s="34">
+      <c r="H20" s="34">
         <v>10</v>
       </c>
-      <c r="H20" s="30">
+      <c r="I20" s="30">
         <f t="shared" si="8"/>
         <v>0.75998786095162651</v>
       </c>
-      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -4282,76 +4260,76 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="31">
-        <f>H6*H20*100</f>
+      <c r="R20" s="3"/>
+      <c r="S20" s="31">
+        <f>I6*I20*100</f>
         <v>303.99514438065063</v>
       </c>
-      <c r="S20" s="31">
-        <f>H20*100*(H6-H5)</f>
+      <c r="T20" s="31">
+        <f>I20*100*(I6-I5)</f>
         <v>151.99757219032531</v>
       </c>
-      <c r="T20" s="31">
-        <f>$H$20*100*($H$6-$H$5*J10)</f>
+      <c r="U20" s="31">
+        <f>$I$20*100*($I$6-$I$5*K10)</f>
         <v>0</v>
       </c>
-      <c r="U20" s="31">
-        <f>$H$20*100*($H$6-$H$5*K10)</f>
+      <c r="V20" s="31">
+        <f>$I$20*100*($I$6-$I$5*L10)</f>
         <v>-151.99757219032531</v>
       </c>
-      <c r="V20" s="31">
-        <f>$H$20*100*($H$6-$H$5*L10)</f>
+      <c r="W20" s="31">
+        <f>$I$20*100*($I$6-$I$5*M10)</f>
         <v>-303.99514438065063</v>
       </c>
-      <c r="W20" s="31">
-        <f>$H$20*100*($H$6-$H$5*M10)</f>
+      <c r="X20" s="31">
+        <f>$I$20*100*($I$6-$I$5*N10)</f>
         <v>-455.99271657097597</v>
       </c>
-      <c r="X20" s="31">
-        <f>$H$20*100*($H$6-$H$5*N10)</f>
+      <c r="Y20" s="31">
+        <f>$I$20*100*($I$6-$I$5*O10)</f>
         <v>-607.99028876130126</v>
       </c>
-      <c r="Y20" s="31">
-        <f t="shared" ref="Y20:AB20" si="36">$H$20*100*($H$6-$H$5*O10)</f>
+      <c r="Z20" s="31">
+        <f t="shared" ref="Z20:AC20" si="36">$I$20*100*($I$6-$I$5*P10)</f>
         <v>-759.98786095162654</v>
       </c>
-      <c r="Z20" s="31">
+      <c r="AA20" s="31">
         <f t="shared" si="36"/>
         <v>-911.98543314195194</v>
       </c>
-      <c r="AA20" s="31">
+      <c r="AB20" s="31">
         <f t="shared" si="36"/>
         <v>-1063.9830053322771</v>
       </c>
-      <c r="AB20" s="31">
+      <c r="AC20" s="31">
         <f t="shared" si="36"/>
         <v>-1215.9805775226025</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="str">
+    <row r="21" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L9</v>
       </c>
-      <c r="B21" s="10">
+      <c r="C21" s="10">
         <f t="shared" si="12"/>
         <v>0.46970819589099289</v>
       </c>
-      <c r="C21" s="9">
+      <c r="D21" s="9">
         <f t="shared" si="13"/>
         <v>563.64983506919145</v>
       </c>
-      <c r="D21" s="9">
-        <f>IF(A21=0,0,($D$7*($D$10-9)))</f>
+      <c r="E21" s="9">
+        <f>IF(B21=0,0,($E$7*($E$10-9)))</f>
         <v>12</v>
       </c>
-      <c r="G21" s="34">
+      <c r="H21" s="34">
         <v>11</v>
       </c>
-      <c r="H21" s="30">
+      <c r="I21" s="30">
         <f t="shared" si="8"/>
         <v>1.2296603590197317</v>
       </c>
-      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -4361,72 +4339,72 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="32">
-        <f>H6*H21*100</f>
+      <c r="S21" s="3"/>
+      <c r="T21" s="32">
+        <f>I6*I21*100</f>
         <v>491.86414360789269</v>
       </c>
-      <c r="T21" s="32">
-        <f>H21*100*(H6-H5)</f>
+      <c r="U21" s="32">
+        <f>I21*100*(I6-I5)</f>
         <v>245.93207180394634</v>
       </c>
-      <c r="U21" s="32">
-        <f>$H$21*100*($H$6-$H$5*J10)</f>
+      <c r="V21" s="32">
+        <f>$I$21*100*($I$6-$I$5*K10)</f>
         <v>0</v>
       </c>
-      <c r="V21" s="32">
-        <f>$H$21*100*($H$6-$H$5*K10)</f>
+      <c r="W21" s="32">
+        <f>$I$21*100*($I$6-$I$5*L10)</f>
         <v>-245.93207180394634</v>
       </c>
-      <c r="W21" s="32">
-        <f>$H$21*100*($H$6-$H$5*L10)</f>
+      <c r="X21" s="32">
+        <f>$I$21*100*($I$6-$I$5*M10)</f>
         <v>-491.86414360789269</v>
       </c>
-      <c r="X21" s="32">
-        <f>$H$21*100*($H$6-$H$5*M10)</f>
+      <c r="Y21" s="32">
+        <f>$I$21*100*($I$6-$I$5*N10)</f>
         <v>-737.79621541183906</v>
       </c>
-      <c r="Y21" s="32">
-        <f t="shared" ref="Y21:AB21" si="37">$H$21*100*($H$6-$H$5*N10)</f>
+      <c r="Z21" s="32">
+        <f t="shared" ref="Z21:AC21" si="37">$I$21*100*($I$6-$I$5*O10)</f>
         <v>-983.72828721578537</v>
       </c>
-      <c r="Z21" s="32">
+      <c r="AA21" s="32">
         <f t="shared" si="37"/>
         <v>-1229.6603590197317</v>
       </c>
-      <c r="AA21" s="32">
+      <c r="AB21" s="32">
         <f t="shared" si="37"/>
         <v>-1475.5924308236781</v>
       </c>
-      <c r="AB21" s="32">
+      <c r="AC21" s="32">
         <f t="shared" si="37"/>
         <v>-1721.5245026276243</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="str">
+    <row r="22" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L10</v>
       </c>
-      <c r="B22" s="10">
+      <c r="C22" s="10">
         <f t="shared" si="12"/>
         <v>0.75998786095162651</v>
       </c>
-      <c r="C22" s="9">
+      <c r="D22" s="9">
         <f t="shared" si="13"/>
         <v>759.98786095162654</v>
       </c>
-      <c r="D22" s="9">
-        <f>IF(A22=0,0,($D$7*($D$10-10)))</f>
+      <c r="E22" s="9">
+        <f>IF(B22=0,0,($E$7*($E$10-10)))</f>
         <v>10</v>
       </c>
-      <c r="G22" s="34">
+      <c r="H22" s="34">
         <v>12</v>
       </c>
-      <c r="H22" s="30">
+      <c r="I22" s="30">
         <f t="shared" si="8"/>
         <v>1.9895904608939261</v>
       </c>
-      <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -4436,69 +4414,69 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32">
-        <f>H6*H22*100</f>
+      <c r="S22" s="3"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32">
+        <f>I6*I22*100</f>
         <v>795.83618435757046</v>
       </c>
-      <c r="U22" s="32">
-        <f>H22*100*(H6-H5)</f>
+      <c r="V22" s="32">
+        <f>I22*100*(I6-I5)</f>
         <v>397.91809217878523</v>
       </c>
-      <c r="V22" s="32">
-        <f>$H$22*100*($H$6-$H$5*J10)</f>
+      <c r="W22" s="32">
+        <f>$I$22*100*($I$6-$I$5*K10)</f>
         <v>0</v>
       </c>
-      <c r="W22" s="32">
-        <f>$H$22*100*($H$6-$H$5*K10)</f>
+      <c r="X22" s="32">
+        <f>$I$22*100*($I$6-$I$5*L10)</f>
         <v>-397.91809217878523</v>
       </c>
-      <c r="X22" s="32">
-        <f>$H$22*100*($H$6-$H$5*L10)</f>
+      <c r="Y22" s="32">
+        <f>$I$22*100*($I$6-$I$5*M10)</f>
         <v>-795.83618435757046</v>
       </c>
-      <c r="Y22" s="32">
-        <f t="shared" ref="Y22:AB22" si="38">$H$22*100*($H$6-$H$5*M10)</f>
+      <c r="Z22" s="32">
+        <f t="shared" ref="Z22:AC22" si="38">$I$22*100*($I$6-$I$5*N10)</f>
         <v>-1193.7542765363557</v>
       </c>
-      <c r="Z22" s="32">
+      <c r="AA22" s="32">
         <f t="shared" si="38"/>
         <v>-1591.6723687151409</v>
       </c>
-      <c r="AA22" s="32">
+      <c r="AB22" s="32">
         <f t="shared" si="38"/>
         <v>-1989.5904608939261</v>
       </c>
-      <c r="AB22" s="32">
+      <c r="AC22" s="32">
         <f t="shared" si="38"/>
         <v>-2387.5085530727115</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="str">
+    <row r="23" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L11</v>
       </c>
-      <c r="B23" s="10">
+      <c r="C23" s="10">
         <f t="shared" si="12"/>
         <v>1.2296603590197317</v>
       </c>
-      <c r="C23" s="9">
+      <c r="D23" s="9">
         <f t="shared" si="13"/>
         <v>983.72828721578537</v>
       </c>
-      <c r="D23" s="9">
-        <f>IF(A23=0,0,($D$7*($D$10-11)))</f>
+      <c r="E23" s="9">
+        <f>IF(B23=0,0,($E$7*($E$10-11)))</f>
         <v>8</v>
       </c>
-      <c r="G23" s="34">
+      <c r="H23" s="34">
         <v>13</v>
       </c>
-      <c r="H23" s="30">
+      <c r="I23" s="30">
         <f t="shared" si="8"/>
         <v>3.2191573657263728</v>
       </c>
-      <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -4508,66 +4486,66 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="32"/>
+      <c r="S23" s="3"/>
       <c r="T23" s="32"/>
-      <c r="U23" s="32">
-        <f>H6*H23*100</f>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32">
+        <f>I6*I23*100</f>
         <v>1287.6629462905491</v>
       </c>
-      <c r="V23" s="32">
-        <f>H23*100*(H6-H5)</f>
+      <c r="W23" s="32">
+        <f>I23*100*(I6-I5)</f>
         <v>643.83147314527457</v>
       </c>
-      <c r="W23" s="32">
-        <f>$H$23*100*($H$6-$H$5*J10)</f>
+      <c r="X23" s="32">
+        <f>$I$23*100*($I$6-$I$5*K10)</f>
         <v>0</v>
       </c>
-      <c r="X23" s="32">
-        <f>$H$23*100*($H$6-$H$5*K10)</f>
+      <c r="Y23" s="32">
+        <f>$I$23*100*($I$6-$I$5*L10)</f>
         <v>-643.83147314527457</v>
       </c>
-      <c r="Y23" s="32">
-        <f t="shared" ref="Y23:AB23" si="39">$H$23*100*($H$6-$H$5*L10)</f>
+      <c r="Z23" s="32">
+        <f t="shared" ref="Z23:AC23" si="39">$I$23*100*($I$6-$I$5*M10)</f>
         <v>-1287.6629462905491</v>
       </c>
-      <c r="Z23" s="32">
+      <c r="AA23" s="32">
         <f t="shared" si="39"/>
         <v>-1931.4944194358236</v>
       </c>
-      <c r="AA23" s="32">
+      <c r="AB23" s="32">
         <f t="shared" si="39"/>
         <v>-2575.3258925810983</v>
       </c>
-      <c r="AB23" s="32">
+      <c r="AC23" s="32">
         <f t="shared" si="39"/>
         <v>-3219.157365726373</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="str">
+    <row r="24" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L12</v>
       </c>
-      <c r="B24" s="10">
+      <c r="C24" s="10">
         <f t="shared" si="12"/>
         <v>1.9895904608939261</v>
       </c>
-      <c r="C24" s="9">
+      <c r="D24" s="9">
         <f t="shared" si="13"/>
         <v>1193.7542765363555</v>
       </c>
-      <c r="D24" s="9">
-        <f>IF(A24=0,0,($D$7*($D$10-12)))</f>
+      <c r="E24" s="9">
+        <f>IF(B24=0,0,($E$7*($E$10-12)))</f>
         <v>6</v>
       </c>
-      <c r="G24" s="34">
+      <c r="H24" s="34">
         <v>14</v>
       </c>
-      <c r="H24" s="30">
+      <c r="I24" s="30">
         <f t="shared" si="8"/>
         <v>5.2085966177452718</v>
       </c>
-      <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -4577,63 +4555,63 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="32"/>
+      <c r="S24" s="3"/>
       <c r="T24" s="32"/>
       <c r="U24" s="32"/>
-      <c r="V24" s="32">
-        <f>H6*H24*100</f>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32">
+        <f>I6*I24*100</f>
         <v>2083.438647098109</v>
       </c>
-      <c r="W24" s="32">
-        <f>H24*100*(H6-H5)</f>
+      <c r="X24" s="32">
+        <f>I24*100*(I6-I5)</f>
         <v>1041.7193235490545</v>
       </c>
-      <c r="X24" s="32">
-        <f>$H$24*100*($H$6-$H$5*J10)</f>
+      <c r="Y24" s="32">
+        <f>$I$24*100*($I$6-$I$5*K10)</f>
         <v>0</v>
       </c>
-      <c r="Y24" s="32">
-        <f t="shared" ref="Y24:AB24" si="40">$H$24*100*($H$6-$H$5*K10)</f>
+      <c r="Z24" s="32">
+        <f t="shared" ref="Z24:AC24" si="40">$I$24*100*($I$6-$I$5*L10)</f>
         <v>-1041.7193235490545</v>
       </c>
-      <c r="Z24" s="32">
+      <c r="AA24" s="32">
         <f t="shared" si="40"/>
         <v>-2083.438647098109</v>
       </c>
-      <c r="AA24" s="32">
+      <c r="AB24" s="32">
         <f t="shared" si="40"/>
         <v>-3125.1579706471634</v>
       </c>
-      <c r="AB24" s="32">
+      <c r="AC24" s="32">
         <f t="shared" si="40"/>
         <v>-4166.8772941962179</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="str">
+    <row r="25" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L13</v>
       </c>
-      <c r="B25" s="10">
+      <c r="C25" s="10">
         <f t="shared" si="12"/>
         <v>3.2191573657263728</v>
       </c>
-      <c r="C25" s="9">
+      <c r="D25" s="9">
         <f t="shared" si="13"/>
         <v>1287.6629462905491</v>
       </c>
-      <c r="D25" s="9">
-        <f>IF(A25=0,0,($D$7*($D$10-13)))</f>
+      <c r="E25" s="9">
+        <f>IF(B25=0,0,($E$7*($E$10-13)))</f>
         <v>4</v>
       </c>
-      <c r="G25" s="34">
+      <c r="H25" s="34">
         <v>15</v>
       </c>
-      <c r="H25" s="30">
+      <c r="I25" s="30">
         <f t="shared" si="8"/>
         <v>8.4275093275118511</v>
       </c>
-      <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -4643,60 +4621,60 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-      <c r="S25" s="32"/>
+      <c r="S25" s="3"/>
       <c r="T25" s="32"/>
       <c r="U25" s="32"/>
       <c r="V25" s="32"/>
-      <c r="W25" s="32">
-        <f>H6*H25*100</f>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32">
+        <f>I6*I25*100</f>
         <v>3371.0037310047405</v>
       </c>
-      <c r="X25" s="32">
-        <f>H25*100*(H6-H5)</f>
+      <c r="Y25" s="32">
+        <f>I25*100*(I6-I5)</f>
         <v>1685.5018655023703</v>
       </c>
-      <c r="Y25" s="32">
-        <f>$H$25*100*($H$6-$H$5*J10)</f>
+      <c r="Z25" s="32">
+        <f>$I$25*100*($I$6-$I$5*K10)</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="32">
-        <f>$H$25*100*($H$6-$H$5*K10)</f>
+      <c r="AA25" s="32">
+        <f>$I$25*100*($I$6-$I$5*L10)</f>
         <v>-1685.5018655023703</v>
       </c>
-      <c r="AA25" s="32">
-        <f>$H$25*100*($H$6-$H$5*L10)</f>
+      <c r="AB25" s="32">
+        <f>$I$25*100*($I$6-$I$5*M10)</f>
         <v>-3371.0037310047405</v>
       </c>
-      <c r="AB25" s="32">
-        <f>$H$25*100*($H$6-$H$5*M10)</f>
+      <c r="AC25" s="32">
+        <f>$I$25*100*($I$6-$I$5*N10)</f>
         <v>-5056.5055965071106</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="str">
+    <row r="26" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L14</v>
       </c>
-      <c r="B26" s="10">
+      <c r="C26" s="10">
         <f t="shared" si="12"/>
         <v>5.2085966177452718</v>
       </c>
-      <c r="C26" s="9">
+      <c r="D26" s="9">
         <f t="shared" si="13"/>
         <v>1041.7193235490545</v>
       </c>
-      <c r="D26" s="9">
-        <f>IF(A26=0,0,($D$7*($D$10-14)))</f>
+      <c r="E26" s="9">
+        <f>IF(B26=0,0,($E$7*($E$10-14)))</f>
         <v>2</v>
       </c>
-      <c r="G26" s="34">
+      <c r="H26" s="34">
         <v>16</v>
       </c>
-      <c r="H26" s="30">
+      <c r="I26" s="30">
         <f t="shared" si="8"/>
         <v>13.635710091914175</v>
       </c>
-      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -4706,518 +4684,518 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-      <c r="S26" s="32"/>
+      <c r="S26" s="3"/>
       <c r="T26" s="32"/>
       <c r="U26" s="32"/>
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
-      <c r="X26" s="32">
-        <f>H26*H6*100</f>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32">
+        <f>I26*I6*100</f>
         <v>5454.28403676567</v>
       </c>
-      <c r="Y26" s="32">
-        <f>$H$26*100*($H$6-$H$5)</f>
+      <c r="Z26" s="32">
+        <f>$I$26*100*($I$6-$I$5)</f>
         <v>2727.142018382835</v>
       </c>
-      <c r="Z26" s="32">
-        <f>$H$26*100*($H$6-$H$5*J10)</f>
+      <c r="AA26" s="32">
+        <f>$I$26*100*($I$6-$I$5*K10)</f>
         <v>0</v>
       </c>
-      <c r="AA26" s="32">
-        <f>$H$26*100*($H$6-$H$5*K10)</f>
+      <c r="AB26" s="32">
+        <f>$I$26*100*($I$6-$I$5*L10)</f>
         <v>-2727.142018382835</v>
       </c>
-      <c r="AB26" s="32">
-        <f>$H$26*100*($H$6-$H$5*L10)</f>
+      <c r="AC26" s="32">
+        <f>$I$26*100*($I$6-$I$5*M10)</f>
         <v>-5454.28403676567</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="str">
+    <row r="27" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="24" t="str">
         <f t="shared" si="11"/>
         <v>L15</v>
       </c>
-      <c r="B27" s="10">
+      <c r="C27" s="10">
         <f t="shared" si="12"/>
         <v>8.4275093275118511</v>
       </c>
-      <c r="C27" s="9">
+      <c r="D27" s="9">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D27" s="9">
-        <f>IF(A27=0,0,($D$7*($D$10-15)))</f>
+      <c r="E27" s="9">
+        <f>IF(B27=0,0,($E$7*($E$10-15)))</f>
         <v>0</v>
       </c>
-      <c r="G27" s="34">
+      <c r="H27" s="34">
         <v>17</v>
       </c>
-      <c r="H27" s="30">
+      <c r="I27" s="30">
         <f t="shared" si="8"/>
         <v>22.062578928717137</v>
       </c>
-      <c r="Y27" s="32">
-        <f>$H$27*$H$6*100</f>
+      <c r="Z27" s="32">
+        <f>$I$27*$I$6*100</f>
         <v>8825.0315714868557</v>
       </c>
-      <c r="Z27" s="32">
-        <f>$H$27*100*($H$6-$H$5*I$10)</f>
+      <c r="AA27" s="32">
+        <f>$I$27*100*($I$6-$I$5*J$10)</f>
         <v>4412.5157857434278</v>
       </c>
-      <c r="AA27" s="32">
-        <f t="shared" ref="AA27:AB27" si="41">$H$27*100*($H$6-$H$5*J$10)</f>
+      <c r="AB27" s="32">
+        <f t="shared" ref="AB27:AC27" si="41">$I$27*100*($I$6-$I$5*K$10)</f>
         <v>0</v>
       </c>
-      <c r="AB27" s="32">
+      <c r="AC27" s="32">
         <f t="shared" si="41"/>
         <v>-4412.5157857434278</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="24">
+    <row r="28" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="B28" s="10">
+      <c r="C28" s="10">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="C28" s="9">
+      <c r="D28" s="9">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D28" s="9">
-        <f>IF(A28=0,0,($D$7*($D$10-16)))</f>
+      <c r="E28" s="9">
+        <f>IF(B28=0,0,($E$7*($E$10-16)))</f>
         <v>0</v>
       </c>
-      <c r="G28" s="34">
+      <c r="H28" s="34">
         <v>18</v>
       </c>
-      <c r="H28" s="30">
+      <c r="I28" s="30">
         <f t="shared" si="8"/>
         <v>35.697252706664329</v>
       </c>
-      <c r="Z28" s="32">
-        <f>$H$28*$H$6*100</f>
+      <c r="AA28" s="32">
+        <f>$I$28*$I$6*100</f>
         <v>14278.901082665732</v>
       </c>
-      <c r="AA28" s="32">
-        <f>$H$28*100*($H$6-$H$5*I$10)</f>
+      <c r="AB28" s="32">
+        <f>$I$28*100*($I$6-$I$5*J$10)</f>
         <v>7139.4505413328661</v>
       </c>
-      <c r="AB28" s="32">
-        <f>$H$28*100*($H$6-$H$5*J$10)</f>
+      <c r="AC28" s="32">
+        <f>$I$28*100*($I$6-$I$5*K$10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
+    <row r="29" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="B29" s="10">
+      <c r="C29" s="10">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="C29" s="9">
+      <c r="D29" s="9">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D29" s="9">
-        <f>IF(A29=0,0,($D$7*($D$10-17)))</f>
+      <c r="E29" s="9">
+        <f>IF(B29=0,0,($E$7*($E$10-17)))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="34">
+      <c r="H29" s="34">
         <v>19</v>
       </c>
-      <c r="H29" s="30">
+      <c r="I29" s="30">
         <f t="shared" si="8"/>
         <v>57.758154879382886</v>
       </c>
-      <c r="AA29" s="32">
-        <f>$H$29*$H$6*100</f>
+      <c r="AB29" s="32">
+        <f>$I$29*$I$6*100</f>
         <v>23103.261951753153</v>
       </c>
-      <c r="AB29" s="32">
-        <f>$H$29*100*($H$6-$H$5*I$10)</f>
+      <c r="AC29" s="32">
+        <f>$I$29*100*($I$6-$I$5*J$10)</f>
         <v>11551.630975876576</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="24">
+    <row r="30" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="B30" s="10">
+      <c r="C30" s="10">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="C30" s="9">
+      <c r="D30" s="9">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D30" s="9">
-        <f>IF(A30=0,0,($D$7*($D$10-18)))</f>
+      <c r="E30" s="9">
+        <f>IF(B30=0,0,($E$7*($E$10-18)))</f>
         <v>0</v>
       </c>
-      <c r="G30" s="34">
+      <c r="H30" s="34">
         <v>20</v>
       </c>
-      <c r="H30" s="30">
+      <c r="I30" s="30">
         <f t="shared" si="8"/>
         <v>93.452694594841518</v>
       </c>
-      <c r="AB30" s="32">
-        <f>$H$30*$H$6*100</f>
+      <c r="AC30" s="32">
+        <f>$I$30*$I$6*100</f>
         <v>37381.077837936609</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="24">
-        <f>IF(A30=0,0,IF(VALUE(MID(A30,2,2))&gt;=$D$10,0,"L"&amp;VALUE(MID(A30,2,2))+1))</f>
+    <row r="31" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="24">
+        <f>IF(B30=0,0,IF(VALUE(MID(B30,2,2))&gt;=$E$10,0,"L"&amp;VALUE(MID(B30,2,2))+1))</f>
         <v>0</v>
       </c>
-      <c r="B31" s="10">
-        <f>IF(A31&lt;&gt;0,B30*$D$9,0)</f>
+      <c r="C31" s="10">
+        <f>IF(B31&lt;&gt;0,C30*$E$9,0)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="9">
+      <c r="D31" s="9">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D31" s="9">
-        <f>IF(A31=0,0,($D$7*($D$10-19)))</f>
+      <c r="E31" s="9">
+        <f>IF(B31=0,0,($E$7*($E$10-19)))</f>
         <v>0</v>
       </c>
-      <c r="G31" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="42">
-        <f>SUM(H11:H26)</f>
+      <c r="H31" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="42">
+        <f>SUM(I11:I26)</f>
         <v>35.683784674299567</v>
       </c>
-      <c r="I31" s="37">
-        <f>SUMIF(I11:I30, "&lt;0")</f>
+      <c r="J31" s="37">
+        <f>SUMIF(J11:J30, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="J31" s="37">
-        <f t="shared" ref="J31:AB31" si="42">SUMIF(J11:J30, "&lt;0")</f>
+      <c r="K31" s="37">
+        <f t="shared" ref="K31:AC31" si="42">SUMIF(K11:K30, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="K31" s="37">
+      <c r="L31" s="37">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="L31" s="37">
+      <c r="M31" s="37">
         <f t="shared" si="42"/>
         <v>-2</v>
       </c>
-      <c r="M31" s="37">
+      <c r="N31" s="37">
         <f t="shared" si="42"/>
         <v>-7.2359999999999998</v>
       </c>
-      <c r="N31" s="37">
+      <c r="O31" s="37">
         <f t="shared" si="42"/>
         <v>-17.707847999999998</v>
       </c>
-      <c r="O31" s="37">
+      <c r="P31" s="37">
         <f t="shared" si="42"/>
         <v>-36.651298064000002</v>
       </c>
-      <c r="P31" s="37">
+      <c r="Q31" s="37">
         <f t="shared" si="42"/>
         <v>-69.301800267552011</v>
       </c>
-      <c r="Q31" s="37">
+      <c r="R31" s="37">
         <f t="shared" si="42"/>
         <v>-124.13031283289916</v>
       </c>
-      <c r="R31" s="37">
+      <c r="S31" s="37">
         <f t="shared" si="42"/>
         <v>-214.84284616363084</v>
       </c>
-      <c r="S31" s="37">
+      <c r="T31" s="37">
         <f t="shared" si="42"/>
         <v>-363.61572509275476</v>
       </c>
-      <c r="T31" s="37">
+      <c r="U31" s="37">
         <f t="shared" si="42"/>
         <v>-606.33024320007712</v>
       </c>
-      <c r="U31" s="37">
+      <c r="V31" s="37">
         <f t="shared" si="42"/>
         <v>-1001.0423334977249</v>
       </c>
-      <c r="V31" s="37">
+      <c r="W31" s="37">
         <f t="shared" si="42"/>
         <v>-1641.6864955993192</v>
       </c>
-      <c r="W31" s="37">
+      <c r="X31" s="37">
         <f t="shared" si="42"/>
         <v>-2680.2487498796986</v>
       </c>
-      <c r="X31" s="37">
+      <c r="Y31" s="37">
         <f t="shared" si="42"/>
         <v>-4362.6424773053523</v>
       </c>
-      <c r="Y31" s="37">
+      <c r="Z31" s="37">
         <f t="shared" si="42"/>
         <v>-7086.7555282800604</v>
       </c>
-      <c r="Z31" s="37">
+      <c r="AA31" s="37">
         <f t="shared" si="42"/>
         <v>-11496.37044475714</v>
       </c>
-      <c r="AA31" s="37">
+      <c r="AB31" s="37">
         <f t="shared" si="42"/>
         <v>-18633.127379617054</v>
       </c>
-      <c r="AB31" s="37">
+      <c r="AC31" s="37">
         <f t="shared" si="42"/>
         <v>-30182.400100220391</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="24">
+    <row r="32" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="B32" s="10">
+      <c r="C32" s="10">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="C32" s="9">
+      <c r="D32" s="9">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D32" s="9">
-        <f t="shared" ref="D32:D34" si="43">IF(A32=0,0,($D$7*($D$10-20)))</f>
+      <c r="E32" s="9">
+        <f t="shared" ref="E32:E34" si="43">IF(B32=0,0,($E$7*($E$10-20)))</f>
         <v>0</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I32" s="60">
-        <f t="shared" ref="I32:AB32" si="44">SUM(I11:I30)</f>
+      <c r="I32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" s="60">
+        <f t="shared" ref="J32:AC32" si="44">SUM(J11:J30)</f>
         <v>4</v>
       </c>
-      <c r="J32" s="60">
+      <c r="K32" s="60">
         <f t="shared" si="44"/>
         <v>8.4719999999999995</v>
       </c>
-      <c r="K32" s="60">
+      <c r="L32" s="60">
         <f t="shared" si="44"/>
         <v>13.707696000000002</v>
       </c>
-      <c r="L32" s="60">
+      <c r="M32" s="60">
         <f t="shared" si="44"/>
         <v>20.179052128000002</v>
       </c>
-      <c r="M32" s="60">
+      <c r="N32" s="60">
         <f t="shared" si="44"/>
         <v>28.649706343104008</v>
       </c>
-      <c r="N32" s="60">
+      <c r="O32" s="60">
         <f t="shared" si="44"/>
         <v>40.35522486314229</v>
       </c>
-      <c r="O32" s="60">
+      <c r="P32" s="60">
         <f t="shared" si="44"/>
         <v>57.294753828564225</v>
       </c>
-      <c r="P32" s="60">
+      <c r="Q32" s="60">
         <f t="shared" si="44"/>
         <v>82.702911694616915</v>
       </c>
-      <c r="Q32" s="60">
+      <c r="R32" s="60">
         <f t="shared" si="44"/>
         <v>121.81331112189017</v>
       </c>
-      <c r="R32" s="60">
+      <c r="S32" s="60">
         <f t="shared" si="44"/>
         <v>183.09393739521835</v>
       </c>
-      <c r="S32" s="60">
+      <c r="T32" s="60">
         <f t="shared" si="44"/>
         <v>280.24599070546321</v>
       </c>
-      <c r="T32" s="60">
+      <c r="U32" s="60">
         <f t="shared" si="44"/>
         <v>435.43801296143965</v>
       </c>
-      <c r="U32" s="60">
+      <c r="V32" s="60">
         <f t="shared" si="44"/>
         <v>684.53870497160938</v>
       </c>
-      <c r="V32" s="60">
+      <c r="W32" s="60">
         <f t="shared" si="44"/>
         <v>1085.5836246440645</v>
       </c>
-      <c r="W32" s="60">
+      <c r="X32" s="60">
         <f t="shared" si="44"/>
         <v>1732.4743046740964</v>
       </c>
-      <c r="X32" s="60">
+      <c r="Y32" s="60">
         <f t="shared" si="44"/>
         <v>2777.1434249626882</v>
       </c>
-      <c r="Y32" s="60">
+      <c r="Z32" s="60">
         <f t="shared" si="44"/>
         <v>4465.4180615896303</v>
       </c>
-      <c r="Z32" s="60">
+      <c r="AA32" s="60">
         <f t="shared" si="44"/>
         <v>7195.0464236520202</v>
       </c>
-      <c r="AA32" s="60">
+      <c r="AB32" s="60">
         <f t="shared" si="44"/>
         <v>11609.585113468966</v>
       </c>
-      <c r="AB32" s="60">
+      <c r="AC32" s="60">
         <f t="shared" si="44"/>
         <v>18750.308713592793</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="24">
+    <row r="33" spans="2:30" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="B33" s="10">
+      <c r="C33" s="10">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="C33" s="9">
+      <c r="D33" s="9">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D33" s="9">
+      <c r="E33" s="9">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I33" s="39">
-        <f>SUM($H11:$H11)</f>
+      <c r="H33" s="1"/>
+      <c r="I33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J33" s="39">
+        <f>SUM($I11:$I11)</f>
         <v>0.01</v>
       </c>
-      <c r="J33" s="39">
-        <f>SUM($H11:$H12)</f>
+      <c r="K33" s="39">
+        <f>SUM($I11:$I12)</f>
         <v>2.6180000000000002E-2</v>
       </c>
-      <c r="K33" s="39">
-        <f>SUM($H11:$H13)</f>
+      <c r="L33" s="39">
+        <f>SUM($I11:$I13)</f>
         <v>5.2359240000000001E-2</v>
       </c>
-      <c r="L33" s="39">
-        <f>SUM($H11:$H14)</f>
+      <c r="M33" s="39">
+        <f>SUM($I11:$I14)</f>
         <v>9.4717250320000002E-2</v>
       </c>
-      <c r="M33" s="39">
-        <f>SUM($H11:$H15)</f>
+      <c r="N33" s="39">
+        <f>SUM($I11:$I15)</f>
         <v>0.16325251101776</v>
       </c>
-      <c r="N33" s="39">
-        <f>SUM($H11:$H16)</f>
+      <c r="O33" s="39">
+        <f>SUM($I11:$I16)</f>
         <v>0.27414256282673571</v>
       </c>
-      <c r="O33" s="39">
-        <f>SUM($H11:$H17)</f>
+      <c r="P33" s="39">
+        <f>SUM($I11:$I17)</f>
         <v>0.45356266665365841</v>
       </c>
-      <c r="P33" s="39">
-        <f>SUM($H11:$H18)</f>
+      <c r="Q33" s="39">
+        <f>SUM($I11:$I18)</f>
         <v>0.74386439464561938</v>
       </c>
-      <c r="Q33" s="39">
-        <f>SUM($H11:$H19)</f>
+      <c r="R33" s="39">
+        <f>SUM($I11:$I19)</f>
         <v>1.2135725905366122</v>
       </c>
-      <c r="R33" s="39">
-        <f>SUM($H11:$H20)</f>
+      <c r="S33" s="39">
+        <f>SUM($I11:$I20)</f>
         <v>1.9735604514882388</v>
       </c>
-      <c r="S33" s="39">
-        <f>SUM($H11:$H21)</f>
+      <c r="T33" s="39">
+        <f>SUM($I11:$I21)</f>
         <v>3.2032208105079705</v>
       </c>
-      <c r="T33" s="39">
-        <f>SUM($H11:$H22)</f>
+      <c r="U33" s="39">
+        <f>SUM($I11:$I22)</f>
         <v>5.1928112714018964</v>
       </c>
-      <c r="U33" s="39">
-        <f>SUM($H11:$H23)</f>
+      <c r="V33" s="39">
+        <f>SUM($I11:$I23)</f>
         <v>8.4119686371282683</v>
       </c>
-      <c r="V33" s="39">
-        <f>SUM($H11:$H24)</f>
+      <c r="W33" s="39">
+        <f>SUM($I11:$I24)</f>
         <v>13.62056525487354</v>
       </c>
-      <c r="W33" s="39">
-        <f>SUM($H11:$H25)</f>
+      <c r="X33" s="39">
+        <f>SUM($I11:$I25)</f>
         <v>22.048074582385389</v>
       </c>
-      <c r="X33" s="39">
-        <f>SUM($H11:$H26)</f>
+      <c r="Y33" s="39">
+        <f>SUM($I11:$I26)</f>
         <v>35.683784674299567</v>
       </c>
-      <c r="Y33" s="39">
-        <f>SUM($H11:$H27)</f>
+      <c r="Z33" s="39">
+        <f>SUM($I11:$I27)</f>
         <v>57.746363603016704</v>
       </c>
-      <c r="Z33" s="39">
-        <f>SUM($H11:$H28)</f>
+      <c r="AA33" s="39">
+        <f>SUM($I11:$I28)</f>
         <v>93.443616309681033</v>
       </c>
-      <c r="AA33" s="39">
-        <f>SUM($H11:$H29)</f>
+      <c r="AB33" s="39">
+        <f>SUM($I11:$I29)</f>
         <v>151.20177118906392</v>
       </c>
-      <c r="AB33" s="39">
-        <f>SUM($H11:$H30)</f>
+      <c r="AC33" s="39">
+        <f>SUM($I11:$I30)</f>
         <v>244.65446578390544</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="24">
+    <row r="34" spans="2:30" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="B34" s="10">
+      <c r="C34" s="10">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="C34" s="9">
+      <c r="D34" s="9">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D34" s="9">
+      <c r="E34" s="9">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="25">
-        <f>SUM(B13:B34)</f>
-        <v>22.048074582385389</v>
+    <row r="35" spans="2:30" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="59" t="s">
+        <v>11</v>
       </c>
       <c r="C35" s="25">
         <f>SUM(C13:C34)</f>
+        <v>22.048074582385389</v>
+      </c>
+      <c r="D35" s="25">
+        <f>SUM(D13:D34)</f>
         <v>7086.7555282800604</v>
       </c>
-      <c r="D35" s="26">
-        <f>MAX(D13:D34)</f>
+      <c r="E35" s="26">
+        <f>MAX(E13:E34)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E37" s="11"/>
+    <row r="36" spans="2:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -5242,9 +5220,9 @@
       <c r="AA37" s="11"/>
       <c r="AB37" s="11"/>
       <c r="AC37" s="11"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E38" s="11"/>
+      <c r="AD37" s="11"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -5269,9 +5247,9 @@
       <c r="AA38" s="11"/>
       <c r="AB38" s="11"/>
       <c r="AC38" s="11"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E39" s="11"/>
+      <c r="AD38" s="11"/>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -5296,9 +5274,9 @@
       <c r="AA39" s="11"/>
       <c r="AB39" s="11"/>
       <c r="AC39" s="11"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E40" s="11"/>
+      <c r="AD39" s="11"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -5323,9 +5301,9 @@
       <c r="AA40" s="11"/>
       <c r="AB40" s="11"/>
       <c r="AC40" s="11"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E41" s="11"/>
+      <c r="AD40" s="11"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -5350,9 +5328,9 @@
       <c r="AA41" s="11"/>
       <c r="AB41" s="11"/>
       <c r="AC41" s="11"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E42" s="11"/>
+      <c r="AD41" s="11"/>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -5377,9 +5355,9 @@
       <c r="AA42" s="11"/>
       <c r="AB42" s="11"/>
       <c r="AC42" s="11"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E43" s="11"/>
+      <c r="AD42" s="11"/>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -5404,9 +5382,9 @@
       <c r="AA43" s="11"/>
       <c r="AB43" s="11"/>
       <c r="AC43" s="11"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E44" s="11"/>
+      <c r="AD43" s="11"/>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -5431,9 +5409,9 @@
       <c r="AA44" s="11"/>
       <c r="AB44" s="11"/>
       <c r="AC44" s="11"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E45" s="11"/>
+      <c r="AD44" s="11"/>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -5458,9 +5436,9 @@
       <c r="AA45" s="11"/>
       <c r="AB45" s="11"/>
       <c r="AC45" s="11"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E46" s="11"/>
+      <c r="AD45" s="11"/>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -5485,9 +5463,9 @@
       <c r="AA46" s="11"/>
       <c r="AB46" s="11"/>
       <c r="AC46" s="11"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E47" s="11"/>
+      <c r="AD46" s="11"/>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -5512,9 +5490,9 @@
       <c r="AA47" s="11"/>
       <c r="AB47" s="11"/>
       <c r="AC47" s="11"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E48" s="11"/>
+      <c r="AD47" s="11"/>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -5539,9 +5517,9 @@
       <c r="AA48" s="11"/>
       <c r="AB48" s="11"/>
       <c r="AC48" s="11"/>
-    </row>
-    <row r="49" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E49" s="11"/>
+      <c r="AD48" s="11"/>
+    </row>
+    <row r="49" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -5566,9 +5544,9 @@
       <c r="AA49" s="11"/>
       <c r="AB49" s="11"/>
       <c r="AC49" s="11"/>
-    </row>
-    <row r="50" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E50" s="11"/>
+      <c r="AD49" s="11"/>
+    </row>
+    <row r="50" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
@@ -5593,9 +5571,9 @@
       <c r="AA50" s="11"/>
       <c r="AB50" s="11"/>
       <c r="AC50" s="11"/>
-    </row>
-    <row r="51" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E51" s="11"/>
+      <c r="AD50" s="11"/>
+    </row>
+    <row r="51" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
@@ -5620,9 +5598,9 @@
       <c r="AA51" s="11"/>
       <c r="AB51" s="11"/>
       <c r="AC51" s="11"/>
-    </row>
-    <row r="52" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E52" s="11"/>
+      <c r="AD51" s="11"/>
+    </row>
+    <row r="52" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
@@ -5647,9 +5625,9 @@
       <c r="AA52" s="11"/>
       <c r="AB52" s="11"/>
       <c r="AC52" s="11"/>
-    </row>
-    <row r="53" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E53" s="11"/>
+      <c r="AD52" s="11"/>
+    </row>
+    <row r="53" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
@@ -5674,9 +5652,9 @@
       <c r="AA53" s="11"/>
       <c r="AB53" s="11"/>
       <c r="AC53" s="11"/>
-    </row>
-    <row r="54" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E54" s="11"/>
+      <c r="AD53" s="11"/>
+    </row>
+    <row r="54" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
@@ -5701,9 +5679,9 @@
       <c r="AA54" s="11"/>
       <c r="AB54" s="11"/>
       <c r="AC54" s="11"/>
-    </row>
-    <row r="55" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E55" s="11"/>
+      <c r="AD54" s="11"/>
+    </row>
+    <row r="55" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
@@ -5728,9 +5706,9 @@
       <c r="AA55" s="11"/>
       <c r="AB55" s="11"/>
       <c r="AC55" s="11"/>
-    </row>
-    <row r="56" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E56" s="11"/>
+      <c r="AD55" s="11"/>
+    </row>
+    <row r="56" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
@@ -5755,9 +5733,9 @@
       <c r="AA56" s="11"/>
       <c r="AB56" s="11"/>
       <c r="AC56" s="11"/>
-    </row>
-    <row r="57" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E57" s="11"/>
+      <c r="AD56" s="11"/>
+    </row>
+    <row r="57" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
@@ -5782,9 +5760,9 @@
       <c r="AA57" s="11"/>
       <c r="AB57" s="11"/>
       <c r="AC57" s="11"/>
-    </row>
-    <row r="58" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E58" s="11"/>
+      <c r="AD57" s="11"/>
+    </row>
+    <row r="58" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
@@ -5809,9 +5787,9 @@
       <c r="AA58" s="11"/>
       <c r="AB58" s="11"/>
       <c r="AC58" s="11"/>
-    </row>
-    <row r="59" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E59" s="11"/>
+      <c r="AD58" s="11"/>
+    </row>
+    <row r="59" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
@@ -5836,9 +5814,9 @@
       <c r="AA59" s="11"/>
       <c r="AB59" s="11"/>
       <c r="AC59" s="11"/>
-    </row>
-    <row r="60" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E60" s="11"/>
+      <c r="AD59" s="11"/>
+    </row>
+    <row r="60" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -5863,9 +5841,9 @@
       <c r="AA60" s="11"/>
       <c r="AB60" s="11"/>
       <c r="AC60" s="11"/>
-    </row>
-    <row r="61" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E61" s="11"/>
+      <c r="AD60" s="11"/>
+    </row>
+    <row r="61" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
@@ -5890,9 +5868,9 @@
       <c r="AA61" s="11"/>
       <c r="AB61" s="11"/>
       <c r="AC61" s="11"/>
-    </row>
-    <row r="62" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E62" s="11"/>
+      <c r="AD61" s="11"/>
+    </row>
+    <row r="62" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
@@ -5917,9 +5895,9 @@
       <c r="AA62" s="11"/>
       <c r="AB62" s="11"/>
       <c r="AC62" s="11"/>
-    </row>
-    <row r="63" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E63" s="11"/>
+      <c r="AD62" s="11"/>
+    </row>
+    <row r="63" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
@@ -5944,9 +5922,9 @@
       <c r="AA63" s="11"/>
       <c r="AB63" s="11"/>
       <c r="AC63" s="11"/>
-    </row>
-    <row r="64" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E64" s="11"/>
+      <c r="AD63" s="11"/>
+    </row>
+    <row r="64" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
@@ -5971,9 +5949,9 @@
       <c r="AA64" s="11"/>
       <c r="AB64" s="11"/>
       <c r="AC64" s="11"/>
-    </row>
-    <row r="65" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E65" s="11"/>
+      <c r="AD64" s="11"/>
+    </row>
+    <row r="65" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
@@ -5998,9 +5976,9 @@
       <c r="AA65" s="11"/>
       <c r="AB65" s="11"/>
       <c r="AC65" s="11"/>
-    </row>
-    <row r="66" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E66" s="11"/>
+      <c r="AD65" s="11"/>
+    </row>
+    <row r="66" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
@@ -6021,9 +5999,9 @@
       <c r="W66" s="11"/>
       <c r="X66" s="11"/>
       <c r="Y66" s="11"/>
-    </row>
-    <row r="67" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E67" s="11"/>
+      <c r="Z66" s="11"/>
+    </row>
+    <row r="67" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -6044,9 +6022,9 @@
       <c r="W67" s="11"/>
       <c r="X67" s="11"/>
       <c r="Y67" s="11"/>
-    </row>
-    <row r="68" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E68" s="11"/>
+      <c r="Z67" s="11"/>
+    </row>
+    <row r="68" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
@@ -6067,9 +6045,9 @@
       <c r="W68" s="11"/>
       <c r="X68" s="11"/>
       <c r="Y68" s="11"/>
-    </row>
-    <row r="69" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E69" s="11"/>
+      <c r="Z68" s="11"/>
+    </row>
+    <row r="69" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
@@ -6090,9 +6068,9 @@
       <c r="W69" s="11"/>
       <c r="X69" s="11"/>
       <c r="Y69" s="11"/>
-    </row>
-    <row r="70" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E70" s="11"/>
+      <c r="Z69" s="11"/>
+    </row>
+    <row r="70" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
@@ -6113,9 +6091,9 @@
       <c r="W70" s="11"/>
       <c r="X70" s="11"/>
       <c r="Y70" s="11"/>
-    </row>
-    <row r="71" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E71" s="11"/>
+      <c r="Z70" s="11"/>
+    </row>
+    <row r="71" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
@@ -6136,9 +6114,9 @@
       <c r="W71" s="11"/>
       <c r="X71" s="11"/>
       <c r="Y71" s="11"/>
-    </row>
-    <row r="72" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E72" s="11"/>
+      <c r="Z71" s="11"/>
+    </row>
+    <row r="72" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
@@ -6159,9 +6137,9 @@
       <c r="W72" s="11"/>
       <c r="X72" s="11"/>
       <c r="Y72" s="11"/>
-    </row>
-    <row r="73" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E73" s="11"/>
+      <c r="Z72" s="11"/>
+    </row>
+    <row r="73" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
@@ -6182,9 +6160,9 @@
       <c r="W73" s="11"/>
       <c r="X73" s="11"/>
       <c r="Y73" s="11"/>
-    </row>
-    <row r="74" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E74" s="11"/>
+      <c r="Z73" s="11"/>
+    </row>
+    <row r="74" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -6205,9 +6183,9 @@
       <c r="W74" s="11"/>
       <c r="X74" s="11"/>
       <c r="Y74" s="11"/>
-    </row>
-    <row r="75" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E75" s="11"/>
+      <c r="Z74" s="11"/>
+    </row>
+    <row r="75" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
@@ -6228,9 +6206,9 @@
       <c r="W75" s="11"/>
       <c r="X75" s="11"/>
       <c r="Y75" s="11"/>
-    </row>
-    <row r="76" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E76" s="11"/>
+      <c r="Z75" s="11"/>
+    </row>
+    <row r="76" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
@@ -6251,9 +6229,9 @@
       <c r="W76" s="11"/>
       <c r="X76" s="11"/>
       <c r="Y76" s="11"/>
-    </row>
-    <row r="77" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E77" s="11"/>
+      <c r="Z76" s="11"/>
+    </row>
+    <row r="77" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
@@ -6274,9 +6252,9 @@
       <c r="W77" s="11"/>
       <c r="X77" s="11"/>
       <c r="Y77" s="11"/>
-    </row>
-    <row r="78" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E78" s="11"/>
+      <c r="Z77" s="11"/>
+    </row>
+    <row r="78" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
@@ -6297,9 +6275,9 @@
       <c r="W78" s="11"/>
       <c r="X78" s="11"/>
       <c r="Y78" s="11"/>
-    </row>
-    <row r="79" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E79" s="11"/>
+      <c r="Z78" s="11"/>
+    </row>
+    <row r="79" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
@@ -6320,9 +6298,9 @@
       <c r="W79" s="11"/>
       <c r="X79" s="11"/>
       <c r="Y79" s="11"/>
-    </row>
-    <row r="80" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E80" s="11"/>
+      <c r="Z79" s="11"/>
+    </row>
+    <row r="80" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
@@ -6343,9 +6321,9 @@
       <c r="W80" s="11"/>
       <c r="X80" s="11"/>
       <c r="Y80" s="11"/>
-    </row>
-    <row r="81" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E81" s="11"/>
+      <c r="Z80" s="11"/>
+    </row>
+    <row r="81" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
@@ -6366,9 +6344,9 @@
       <c r="W81" s="11"/>
       <c r="X81" s="11"/>
       <c r="Y81" s="11"/>
-    </row>
-    <row r="82" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E82" s="11"/>
+      <c r="Z81" s="11"/>
+    </row>
+    <row r="82" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -6389,9 +6367,9 @@
       <c r="W82" s="11"/>
       <c r="X82" s="11"/>
       <c r="Y82" s="11"/>
-    </row>
-    <row r="83" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E83" s="11"/>
+      <c r="Z82" s="11"/>
+    </row>
+    <row r="83" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
@@ -6412,9 +6390,9 @@
       <c r="W83" s="11"/>
       <c r="X83" s="11"/>
       <c r="Y83" s="11"/>
-    </row>
-    <row r="84" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E84" s="11"/>
+      <c r="Z83" s="11"/>
+    </row>
+    <row r="84" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
@@ -6435,9 +6413,9 @@
       <c r="W84" s="11"/>
       <c r="X84" s="11"/>
       <c r="Y84" s="11"/>
-    </row>
-    <row r="85" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E85" s="11"/>
+      <c r="Z84" s="11"/>
+    </row>
+    <row r="85" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -6458,9 +6436,9 @@
       <c r="W85" s="11"/>
       <c r="X85" s="11"/>
       <c r="Y85" s="11"/>
-    </row>
-    <row r="86" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E86" s="11"/>
+      <c r="Z85" s="11"/>
+    </row>
+    <row r="86" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
@@ -6481,9 +6459,9 @@
       <c r="W86" s="11"/>
       <c r="X86" s="11"/>
       <c r="Y86" s="11"/>
-    </row>
-    <row r="87" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E87" s="11"/>
+      <c r="Z86" s="11"/>
+    </row>
+    <row r="87" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
@@ -6504,9 +6482,9 @@
       <c r="W87" s="11"/>
       <c r="X87" s="11"/>
       <c r="Y87" s="11"/>
-    </row>
-    <row r="88" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E88" s="11"/>
+      <c r="Z87" s="11"/>
+    </row>
+    <row r="88" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
@@ -6527,9 +6505,9 @@
       <c r="W88" s="11"/>
       <c r="X88" s="11"/>
       <c r="Y88" s="11"/>
-    </row>
-    <row r="89" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E89" s="11"/>
+      <c r="Z88" s="11"/>
+    </row>
+    <row r="89" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
@@ -6550,9 +6528,9 @@
       <c r="W89" s="11"/>
       <c r="X89" s="11"/>
       <c r="Y89" s="11"/>
-    </row>
-    <row r="90" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E90" s="11"/>
+      <c r="Z89" s="11"/>
+    </row>
+    <row r="90" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
@@ -6573,9 +6551,9 @@
       <c r="W90" s="11"/>
       <c r="X90" s="11"/>
       <c r="Y90" s="11"/>
-    </row>
-    <row r="91" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E91" s="11"/>
+      <c r="Z90" s="11"/>
+    </row>
+    <row r="91" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
@@ -6596,9 +6574,9 @@
       <c r="W91" s="11"/>
       <c r="X91" s="11"/>
       <c r="Y91" s="11"/>
-    </row>
-    <row r="92" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E92" s="11"/>
+      <c r="Z91" s="11"/>
+    </row>
+    <row r="92" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
@@ -6619,9 +6597,9 @@
       <c r="W92" s="11"/>
       <c r="X92" s="11"/>
       <c r="Y92" s="11"/>
-    </row>
-    <row r="93" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E93" s="11"/>
+      <c r="Z92" s="11"/>
+    </row>
+    <row r="93" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
@@ -6642,9 +6620,9 @@
       <c r="W93" s="11"/>
       <c r="X93" s="11"/>
       <c r="Y93" s="11"/>
-    </row>
-    <row r="94" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E94" s="11"/>
+      <c r="Z93" s="11"/>
+    </row>
+    <row r="94" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
@@ -6665,9 +6643,9 @@
       <c r="W94" s="11"/>
       <c r="X94" s="11"/>
       <c r="Y94" s="11"/>
-    </row>
-    <row r="95" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E95" s="11"/>
+      <c r="Z94" s="11"/>
+    </row>
+    <row r="95" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
@@ -6688,9 +6666,9 @@
       <c r="W95" s="11"/>
       <c r="X95" s="11"/>
       <c r="Y95" s="11"/>
-    </row>
-    <row r="96" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E96" s="11"/>
+      <c r="Z95" s="11"/>
+    </row>
+    <row r="96" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
@@ -6711,9 +6689,9 @@
       <c r="W96" s="11"/>
       <c r="X96" s="11"/>
       <c r="Y96" s="11"/>
-    </row>
-    <row r="97" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E97" s="11"/>
+      <c r="Z96" s="11"/>
+    </row>
+    <row r="97" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
@@ -6734,9 +6712,9 @@
       <c r="W97" s="11"/>
       <c r="X97" s="11"/>
       <c r="Y97" s="11"/>
-    </row>
-    <row r="98" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E98" s="11"/>
+      <c r="Z97" s="11"/>
+    </row>
+    <row r="98" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
@@ -6757,9 +6735,9 @@
       <c r="W98" s="11"/>
       <c r="X98" s="11"/>
       <c r="Y98" s="11"/>
-    </row>
-    <row r="99" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E99" s="11"/>
+      <c r="Z98" s="11"/>
+    </row>
+    <row r="99" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
@@ -6780,119 +6758,119 @@
       <c r="W99" s="11"/>
       <c r="X99" s="11"/>
       <c r="Y99" s="11"/>
+      <c r="Z99" s="11"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="D2:D10" name="DATA_2"/>
+    <protectedRange sqref="E2:E10" name="DATA_2"/>
   </protectedRanges>
-  <mergeCells count="7">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:P2"/>
+  <mergeCells count="6">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="I10">
+  <conditionalFormatting sqref="J10">
     <cfRule type="expression" dxfId="19" priority="73">
-      <formula>$I$10=$D$10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="18" priority="74">
-      <formula>$J$10=$D$10</formula>
+      <formula>$J$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="17" priority="75">
-      <formula>$K$10=$D$10</formula>
+    <cfRule type="expression" dxfId="18" priority="74">
+      <formula>$K$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="16" priority="76">
-      <formula>$L$10=$D$10</formula>
+    <cfRule type="expression" dxfId="17" priority="75">
+      <formula>$L$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="15" priority="77">
-      <formula>$M$10=$D$10</formula>
+    <cfRule type="expression" dxfId="16" priority="76">
+      <formula>$M$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="14" priority="78">
-      <formula>$N$10=$D$10</formula>
+    <cfRule type="expression" dxfId="15" priority="77">
+      <formula>$N$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="13" priority="79">
-      <formula>$O$10=$D$10</formula>
+    <cfRule type="expression" dxfId="14" priority="78">
+      <formula>$O$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="expression" dxfId="12" priority="80">
-      <formula>$P$10=$D$10</formula>
+    <cfRule type="expression" dxfId="13" priority="79">
+      <formula>$P$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="expression" dxfId="11" priority="81">
-      <formula>$Q$10=$D$10</formula>
+    <cfRule type="expression" dxfId="12" priority="80">
+      <formula>$Q$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="10" priority="82">
-      <formula>$R$10=$D$10</formula>
+    <cfRule type="expression" dxfId="11" priority="81">
+      <formula>$R$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="expression" dxfId="9" priority="83">
-      <formula>$S$10=$D$10</formula>
+    <cfRule type="expression" dxfId="10" priority="82">
+      <formula>$S$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10">
-    <cfRule type="expression" dxfId="8" priority="84">
-      <formula>$T$10=$D$10</formula>
+    <cfRule type="expression" dxfId="9" priority="83">
+      <formula>$T$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="expression" dxfId="7" priority="85">
-      <formula>$U$10=$D$10</formula>
+    <cfRule type="expression" dxfId="8" priority="84">
+      <formula>$U$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10">
-    <cfRule type="expression" dxfId="6" priority="86">
-      <formula>$V$10=$D$10</formula>
+    <cfRule type="expression" dxfId="7" priority="85">
+      <formula>$V$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="expression" dxfId="5" priority="87">
-      <formula>$W$10=$D$10</formula>
+    <cfRule type="expression" dxfId="6" priority="86">
+      <formula>$W$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X10">
-    <cfRule type="expression" dxfId="4" priority="88">
-      <formula>$X$10=$D$10</formula>
+    <cfRule type="expression" dxfId="5" priority="87">
+      <formula>$X$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10">
-    <cfRule type="expression" dxfId="3" priority="24">
-      <formula>$Y$10=$D$10</formula>
+    <cfRule type="expression" dxfId="4" priority="88">
+      <formula>$Y$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z10">
-    <cfRule type="expression" dxfId="2" priority="23">
-      <formula>$Z$10=$D$10</formula>
+    <cfRule type="expression" dxfId="3" priority="24">
+      <formula>$Z$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA10">
-    <cfRule type="expression" dxfId="1" priority="22">
-      <formula>$AA$10=$D$10</formula>
+    <cfRule type="expression" dxfId="2" priority="23">
+      <formula>$AA$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
+    <cfRule type="expression" dxfId="1" priority="22">
+      <formula>$AB$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC10">
     <cfRule type="expression" dxfId="0" priority="21">
-      <formula>$AB$10=$D$10</formula>
+      <formula>$AC$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6905,7 +6883,7 @@
   <dimension ref="B1:W29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -6921,13 +6899,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B1" s="120" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
+      <c r="B1" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
       <c r="E1" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="62">
         <v>1</v>
@@ -6940,14 +6918,14 @@
       </c>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B2" s="120" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
+      <c r="B2" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
       <c r="E2" s="69"/>
       <c r="F2" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="72"/>
       <c r="H2" s="73">
@@ -6994,12 +6972,12 @@
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" s="75"/>
       <c r="H3" s="76">
@@ -7060,13 +7038,13 @@
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B4" s="122" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="123"/>
+      <c r="B4" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="120"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="100">
@@ -7117,7 +7095,7 @@
     </row>
     <row r="5" spans="2:23" ht="14.4" x14ac:dyDescent="0.45">
       <c r="B5" s="63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="64">
         <f>F1</f>
@@ -7132,57 +7110,57 @@
         <v>1.7</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="110" t="s">
+      <c r="I5" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="J5" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="110" t="s">
+      <c r="K5" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="110" t="s">
+      <c r="L5" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="110" t="s">
+      <c r="M5" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="110" t="s">
+      <c r="N5" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="111" t="s">
+      <c r="O5" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="112" t="s">
+      <c r="P5" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="110" t="s">
+      <c r="Q5" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="111" t="s">
+      <c r="R5" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="112" t="s">
+      <c r="S5" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="110" t="s">
+      <c r="T5" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="T5" s="110" t="s">
+      <c r="U5" s="111" t="s">
         <v>46</v>
-      </c>
-      <c r="U5" s="111" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B6" s="65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="16">
         <v>0.01</v>
@@ -7263,7 +7241,7 @@
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B7" s="65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="17">
         <f>C6*$F$1</f>
@@ -7343,7 +7321,7 @@
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B8" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="17">
         <f>C7*$F$1</f>
@@ -7420,7 +7398,7 @@
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B9" s="65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" ref="C9:C20" si="5">C8*$F$1</f>
@@ -7494,7 +7472,7 @@
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B10" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="17">
         <f t="shared" si="5"/>
@@ -7565,7 +7543,7 @@
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B11" s="65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="17">
         <f t="shared" si="5"/>
@@ -7633,7 +7611,7 @@
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B12" s="65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="17">
         <f t="shared" si="5"/>
@@ -7697,7 +7675,7 @@
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B13" s="65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="17">
         <f t="shared" si="5"/>
@@ -7759,7 +7737,7 @@
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B14" s="65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="17">
         <f t="shared" si="5"/>
@@ -7817,7 +7795,7 @@
     </row>
     <row r="15" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="17">
         <f t="shared" si="5"/>
@@ -7872,7 +7850,7 @@
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B16" s="65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="17">
         <f t="shared" si="5"/>
@@ -7924,7 +7902,7 @@
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B17" s="65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="17">
         <f t="shared" si="5"/>
@@ -7973,7 +7951,7 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B18" s="65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="17">
         <f t="shared" si="5"/>
@@ -8019,7 +7997,7 @@
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B19" s="65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="17">
         <f t="shared" si="5"/>
@@ -8062,7 +8040,7 @@
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B20" s="65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="17">
         <f t="shared" si="5"/>
@@ -8274,7 +8252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:AU56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B244" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B244" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y255" sqref="Y255"/>
     </sheetView>
   </sheetViews>
@@ -8282,34 +8260,34 @@
   <sheetData>
     <row r="3" spans="2:47" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="M3" t="s">
+      <c r="X3" t="s">
         <v>58</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Y3" t="s">
         <v>63</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AI3" t="s">
         <v>59</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AJ3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT3" t="s">
         <v>64</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>65</v>
       </c>
       <c r="AU3">
         <v>107.7</v>
@@ -8317,31 +8295,31 @@
     </row>
     <row r="56" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" t="s">
         <v>66</v>
       </c>
-      <c r="D56" t="s">
+      <c r="M56" t="s">
         <v>67</v>
       </c>
-      <c r="M56" t="s">
+      <c r="O56" t="s">
         <v>68</v>
       </c>
-      <c r="O56" t="s">
+      <c r="X56" t="s">
         <v>69</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Z56" t="s">
         <v>70</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AI56" t="s">
         <v>71</v>
       </c>
-      <c r="AI56" t="s">
-        <v>72</v>
-      </c>
       <c r="AJ56" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL56" t="s">
         <v>66</v>
-      </c>
-      <c r="AL56" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFFE74D-B8BD-4EBC-A51D-B5262C3DBC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF0AAE5-DCBC-423A-8CE0-1A28820A3AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6324" yWindow="0" windowWidth="34824" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5148" yWindow="1884" windowWidth="34824" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Input L30" sheetId="2" r:id="rId1"/>
@@ -380,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -390,6 +390,7 @@
     <numFmt numFmtId="182" formatCode="#,##0.000_);\(#,##0.000\)"/>
     <numFmt numFmtId="183" formatCode="#,##0.0"/>
     <numFmt numFmtId="184" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="188" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1225,7 +1226,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1554,6 +1555,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="188" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -2879,7 +2881,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2971,7 +2975,10 @@
       </c>
       <c r="P3" s="116"/>
       <c r="Q3" s="116"/>
-      <c r="R3" s="20"/>
+      <c r="R3" s="122">
+        <f>O3*2</f>
+        <v>22199.010204548402</v>
+      </c>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF0AAE5-DCBC-423A-8CE0-1A28820A3AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB5F0B8-1589-4A0E-AFE7-60D4C68B3B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="1884" windowWidth="34824" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4668" yWindow="1776" windowWidth="34824" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Input L30" sheetId="2" r:id="rId1"/>
     <sheet name="Thay đổi hệ số quãng" sheetId="10" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
-    <sheet name="Sheet1 (2)" sheetId="9" r:id="rId4"/>
+    <sheet name="L15-L18" sheetId="11" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet1 (2)" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>Quãng giá L1-L2</t>
   </si>
@@ -75,9 +76,6 @@
   </si>
   <si>
     <t>TỔNG CỘNG:</t>
-  </si>
-  <si>
-    <t>BẢNG TÍNH TP THEO QUÃNG VÀ HỆ SỐ</t>
   </si>
   <si>
     <t>Hệ số nhân</t>
@@ -390,9 +388,9 @@
     <numFmt numFmtId="182" formatCode="#,##0.000_);\(#,##0.000\)"/>
     <numFmt numFmtId="183" formatCode="#,##0.0"/>
     <numFmt numFmtId="184" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="188" formatCode="#,##0_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,13 +524,6 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1226,7 +1217,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1318,19 +1309,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="18" fillId="15" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1369,7 +1351,7 @@
     <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1378,7 +1360,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1519,25 +1501,32 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="17" fillId="16" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="7" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="7" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="24" fillId="9" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="23" fillId="9" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1555,7 +1544,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -1727,6 +1715,186 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>409585</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>227971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6555FB7A-0209-6305-3F45-A47787CB54BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="228600"/>
+          <a:ext cx="15161905" cy="5028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>447680</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>37467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDAFC89-B924-3F74-83AA-75685B088739}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="5486400"/>
+          <a:ext cx="15200000" cy="5066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>472396</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>27628</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12690A0F-9D94-427E-A759-4E15B09AFC80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="2346"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="10972800"/>
+          <a:ext cx="15224716" cy="7571428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>428632</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>227914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4FAAB6C-78ED-42F7-80AE-9B0B3CBAB2A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="18745200"/>
+          <a:ext cx="15180952" cy="5485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2388,98 +2556,10 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>664990</xdr:colOff>
-      <xdr:row>243</xdr:row>
-      <xdr:rowOff>161019</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67DE0A7-2B88-DE24-13D0-30BFD61F0E32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1341120" y="48463200"/>
-          <a:ext cx="14076190" cy="7247619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>645943</xdr:colOff>
-      <xdr:row>282</xdr:row>
-      <xdr:rowOff>189419</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3FEA146-9533-F4D9-E8E2-4460C2292E46}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1341120" y="56007000"/>
-          <a:ext cx="14057143" cy="8647619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2882,7 +2962,7 @@
   <dimension ref="B1:AD99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2914,26 +2994,26 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="2:29" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="57">
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="54">
         <v>2</v>
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
       <c r="K2" s="117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="117"/>
       <c r="M2" s="117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N2" s="117"/>
       <c r="O2" s="117" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P2" s="117"/>
       <c r="Q2" s="117"/>
@@ -2947,12 +3027,12 @@
       <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="43">
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="42">
         <f>E2</f>
         <v>2</v>
       </c>
@@ -2975,7 +3055,7 @@
       </c>
       <c r="P3" s="116"/>
       <c r="Q3" s="116"/>
-      <c r="R3" s="122">
+      <c r="R3" s="111">
         <f>O3*2</f>
         <v>22199.010204548402</v>
       </c>
@@ -2988,19 +3068,19 @@
       <c r="Y3" s="20"/>
     </row>
     <row r="4" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="43">
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="42">
         <f>E3</f>
         <v>2</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="55">
+        <v>12</v>
+      </c>
+      <c r="I4" s="52">
         <f>E9</f>
         <v>1.6180000000000001</v>
       </c>
@@ -3024,19 +3104,19 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="43">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="42">
         <f>E4</f>
         <v>2</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="113">
+        <v>53</v>
+      </c>
+      <c r="I5" s="110">
         <v>2</v>
       </c>
       <c r="J5" s="2">
@@ -3058,36 +3138,34 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="2:29" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B6" s="46" t="s">
+    <row r="6" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="B6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="43">
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="42">
         <f>E5</f>
         <v>2</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="113">
+        <v>71</v>
+      </c>
+      <c r="I6" s="110">
         <v>4</v>
       </c>
       <c r="J6" s="2">
         <v>2.6179999999999999</v>
       </c>
-      <c r="O6" s="41" t="s">
-        <v>12</v>
-      </c>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="43">
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="42">
         <f>E6</f>
         <v>2</v>
       </c>
@@ -3174,12 +3252,12 @@
       </c>
     </row>
     <row r="8" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="44">
+      <c r="B8" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="113">
         <v>0.01</v>
       </c>
       <c r="H8" s="1"/>
@@ -3265,94 +3343,94 @@
       </c>
     </row>
     <row r="9" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="45">
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="112">
         <v>1.6180000000000001</v>
       </c>
       <c r="H9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="29" t="s">
+      <c r="K9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="L9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="M9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="29" t="s">
+      <c r="N9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="O9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="29" t="s">
+      <c r="P9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="29" t="s">
+      <c r="Q9" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="29" t="s">
+      <c r="R9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="29" t="s">
+      <c r="S9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="29" t="s">
+      <c r="T9" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="29" t="s">
+      <c r="U9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="29" t="s">
+      <c r="V9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="V9" s="29" t="s">
+      <c r="W9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="W9" s="29" t="s">
+      <c r="X9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="X9" s="29" t="s">
+      <c r="Y9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="Y9" s="29" t="s">
-        <v>31</v>
-      </c>
       <c r="Z9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA9" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="AA9" s="29" t="s">
+      <c r="AB9" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="AB9" s="29" t="s">
+      <c r="AC9" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC9" s="29" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="10" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B10" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="58">
+      <c r="B10" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="55">
         <v>15</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="56"/>
+        <v>51</v>
+      </c>
+      <c r="I10" s="53"/>
       <c r="J10" s="29">
         <v>1</v>
       </c>
@@ -4876,9 +4954,9 @@
         <v>0</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="42">
+        <v>46</v>
+      </c>
+      <c r="I31" s="41">
         <f>SUM(I11:I26)</f>
         <v>35.683784674299567</v>
       </c>
@@ -4981,85 +5059,85 @@
         <v>0</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J32" s="60">
+        <v>85</v>
+      </c>
+      <c r="J32" s="57">
         <f t="shared" ref="J32:AC32" si="44">SUM(J11:J30)</f>
         <v>4</v>
       </c>
-      <c r="K32" s="60">
+      <c r="K32" s="57">
         <f t="shared" si="44"/>
         <v>8.4719999999999995</v>
       </c>
-      <c r="L32" s="60">
+      <c r="L32" s="57">
         <f t="shared" si="44"/>
         <v>13.707696000000002</v>
       </c>
-      <c r="M32" s="60">
+      <c r="M32" s="57">
         <f t="shared" si="44"/>
         <v>20.179052128000002</v>
       </c>
-      <c r="N32" s="60">
+      <c r="N32" s="57">
         <f t="shared" si="44"/>
         <v>28.649706343104008</v>
       </c>
-      <c r="O32" s="60">
+      <c r="O32" s="57">
         <f t="shared" si="44"/>
         <v>40.35522486314229</v>
       </c>
-      <c r="P32" s="60">
+      <c r="P32" s="57">
         <f t="shared" si="44"/>
         <v>57.294753828564225</v>
       </c>
-      <c r="Q32" s="60">
+      <c r="Q32" s="57">
         <f t="shared" si="44"/>
         <v>82.702911694616915</v>
       </c>
-      <c r="R32" s="60">
+      <c r="R32" s="57">
         <f t="shared" si="44"/>
         <v>121.81331112189017</v>
       </c>
-      <c r="S32" s="60">
+      <c r="S32" s="57">
         <f t="shared" si="44"/>
         <v>183.09393739521835</v>
       </c>
-      <c r="T32" s="60">
+      <c r="T32" s="57">
         <f t="shared" si="44"/>
         <v>280.24599070546321</v>
       </c>
-      <c r="U32" s="60">
+      <c r="U32" s="57">
         <f t="shared" si="44"/>
         <v>435.43801296143965</v>
       </c>
-      <c r="V32" s="60">
+      <c r="V32" s="57">
         <f t="shared" si="44"/>
         <v>684.53870497160938</v>
       </c>
-      <c r="W32" s="60">
+      <c r="W32" s="57">
         <f t="shared" si="44"/>
         <v>1085.5836246440645</v>
       </c>
-      <c r="X32" s="60">
+      <c r="X32" s="57">
         <f t="shared" si="44"/>
         <v>1732.4743046740964</v>
       </c>
-      <c r="Y32" s="60">
+      <c r="Y32" s="57">
         <f t="shared" si="44"/>
         <v>2777.1434249626882</v>
       </c>
-      <c r="Z32" s="60">
+      <c r="Z32" s="57">
         <f t="shared" si="44"/>
         <v>4465.4180615896303</v>
       </c>
-      <c r="AA32" s="60">
+      <c r="AA32" s="57">
         <f t="shared" si="44"/>
         <v>7195.0464236520202</v>
       </c>
-      <c r="AB32" s="60">
+      <c r="AB32" s="57">
         <f t="shared" si="44"/>
         <v>11609.585113468966</v>
       </c>
-      <c r="AC32" s="60">
+      <c r="AC32" s="57">
         <f t="shared" si="44"/>
         <v>18750.308713592793</v>
       </c>
@@ -5083,7 +5161,7 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J33" s="39">
         <f>SUM($I11:$I11)</f>
@@ -5185,7 +5263,7 @@
       </c>
     </row>
     <row r="35" spans="2:30" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="25">
@@ -6895,86 +6973,86 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="61"/>
-    <col min="2" max="2" width="6" style="61" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" style="58"/>
+    <col min="2" max="2" width="6" style="58" customWidth="1"/>
     <col min="3" max="4" width="9.09765625" style="19"/>
     <col min="5" max="5" width="15.3984375" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.09765625" style="19"/>
-    <col min="7" max="20" width="9.09765625" style="61"/>
-    <col min="21" max="21" width="10.3984375" style="61" customWidth="1"/>
-    <col min="22" max="16384" width="9.09765625" style="61"/>
+    <col min="7" max="20" width="9.09765625" style="58"/>
+    <col min="21" max="21" width="10.3984375" style="58" customWidth="1"/>
+    <col min="22" max="16384" width="9.09765625" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B1" s="118" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="118"/>
       <c r="D1" s="118"/>
       <c r="E1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="62">
+        <v>50</v>
+      </c>
+      <c r="F1" s="59">
         <v>1</v>
       </c>
-      <c r="G1" s="62">
+      <c r="G1" s="59">
         <v>1.6</v>
       </c>
-      <c r="H1" s="62">
+      <c r="H1" s="59">
         <v>1.7</v>
       </c>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B2" s="118" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="118"/>
       <c r="D2" s="119"/>
-      <c r="E2" s="69"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73">
+        <v>84</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70">
         <v>5</v>
       </c>
-      <c r="I2" s="73">
+      <c r="I2" s="70">
         <v>5</v>
       </c>
-      <c r="J2" s="73">
+      <c r="J2" s="70">
         <v>5</v>
       </c>
-      <c r="K2" s="73">
+      <c r="K2" s="70">
         <v>5</v>
       </c>
-      <c r="L2" s="73">
+      <c r="L2" s="70">
         <v>5</v>
       </c>
-      <c r="M2" s="73">
+      <c r="M2" s="70">
         <v>5</v>
       </c>
-      <c r="N2" s="74">
+      <c r="N2" s="71">
         <v>5</v>
       </c>
-      <c r="O2" s="86">
+      <c r="O2" s="83">
         <v>3</v>
       </c>
-      <c r="P2" s="87">
+      <c r="P2" s="84">
         <v>3</v>
       </c>
-      <c r="Q2" s="88">
+      <c r="Q2" s="85">
         <v>3</v>
       </c>
-      <c r="R2" s="92">
+      <c r="R2" s="89">
         <v>2</v>
       </c>
-      <c r="S2" s="93">
+      <c r="S2" s="90">
         <v>2</v>
       </c>
-      <c r="T2" s="93">
+      <c r="T2" s="90">
         <v>2</v>
       </c>
-      <c r="U2" s="94">
+      <c r="U2" s="91">
         <v>2</v>
       </c>
     </row>
@@ -6982,192 +7060,192 @@
       <c r="B3" s="118"/>
       <c r="C3" s="118"/>
       <c r="D3" s="119"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76">
+      <c r="E3" s="66"/>
+      <c r="F3" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73">
         <f>H2</f>
         <v>5</v>
       </c>
-      <c r="I3" s="76">
+      <c r="I3" s="73">
         <f>SUM($H$2:I2)</f>
         <v>10</v>
       </c>
-      <c r="J3" s="76">
+      <c r="J3" s="73">
         <f>SUM($H$2:J2)</f>
         <v>15</v>
       </c>
-      <c r="K3" s="76">
+      <c r="K3" s="73">
         <f>SUM($H$2:K2)</f>
         <v>20</v>
       </c>
-      <c r="L3" s="76">
+      <c r="L3" s="73">
         <f>SUM($H$2:L2)</f>
         <v>25</v>
       </c>
-      <c r="M3" s="76">
+      <c r="M3" s="73">
         <f>SUM($H$2:M2)</f>
         <v>30</v>
       </c>
-      <c r="N3" s="77">
+      <c r="N3" s="74">
         <f>SUM($H$2:N2)</f>
         <v>35</v>
       </c>
-      <c r="O3" s="89">
+      <c r="O3" s="86">
         <f>SUM($H$2:O2)</f>
         <v>38</v>
       </c>
-      <c r="P3" s="90">
+      <c r="P3" s="87">
         <f>SUM($H$2:P2)</f>
         <v>41</v>
       </c>
-      <c r="Q3" s="91">
+      <c r="Q3" s="88">
         <f>SUM($H$2:Q2)</f>
         <v>44</v>
       </c>
-      <c r="R3" s="95">
+      <c r="R3" s="92">
         <f>SUM($H$2:R2)</f>
         <v>46</v>
       </c>
-      <c r="S3" s="96">
+      <c r="S3" s="93">
         <f>SUM($H$2:S2)</f>
         <v>48</v>
       </c>
-      <c r="T3" s="96">
+      <c r="T3" s="93">
         <f>SUM($H$2:T2)</f>
         <v>50</v>
       </c>
-      <c r="U3" s="97">
+      <c r="U3" s="94">
         <f>SUM($H$2:U2)</f>
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B4" s="120" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="120"/>
       <c r="D4" s="121"/>
       <c r="E4" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="15"/>
-      <c r="G4" s="100">
+      <c r="G4" s="97">
         <v>30</v>
       </c>
-      <c r="H4" s="101">
+      <c r="H4" s="98">
         <v>30</v>
       </c>
-      <c r="I4" s="101">
+      <c r="I4" s="98">
         <v>30</v>
       </c>
-      <c r="J4" s="101">
+      <c r="J4" s="98">
         <v>30</v>
       </c>
-      <c r="K4" s="101">
+      <c r="K4" s="98">
         <v>30</v>
       </c>
-      <c r="L4" s="101">
+      <c r="L4" s="98">
         <v>30</v>
       </c>
-      <c r="M4" s="101">
+      <c r="M4" s="98">
         <v>30</v>
       </c>
-      <c r="N4" s="102">
+      <c r="N4" s="99">
         <v>30</v>
       </c>
-      <c r="O4" s="103">
+      <c r="O4" s="100">
         <v>5</v>
       </c>
-      <c r="P4" s="104">
+      <c r="P4" s="101">
         <v>5</v>
       </c>
-      <c r="Q4" s="105">
+      <c r="Q4" s="102">
         <v>5</v>
       </c>
-      <c r="R4" s="106">
+      <c r="R4" s="103">
         <v>3</v>
       </c>
-      <c r="S4" s="107">
+      <c r="S4" s="104">
         <v>3</v>
       </c>
-      <c r="T4" s="107">
+      <c r="T4" s="104">
         <v>3</v>
       </c>
-      <c r="U4" s="108">
+      <c r="U4" s="105">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:23" ht="14.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="64">
+      <c r="B5" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="61">
         <f>F1</f>
         <v>1</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="61">
         <f>G1</f>
         <v>1.6</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="61">
         <f>H1</f>
         <v>1.7</v>
       </c>
-      <c r="F5" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="109" t="s">
+      <c r="F5" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="110" t="s">
+      <c r="I5" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="J5" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="110" t="s">
+      <c r="K5" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="110" t="s">
+      <c r="L5" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="110" t="s">
+      <c r="M5" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="110" t="s">
+      <c r="N5" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="111" t="s">
+      <c r="O5" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="112" t="s">
+      <c r="P5" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="110" t="s">
+      <c r="Q5" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="111" t="s">
+      <c r="R5" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="112" t="s">
+      <c r="S5" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="110" t="s">
+      <c r="T5" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="110" t="s">
+      <c r="U5" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="U5" s="111" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B6" s="65" t="s">
-        <v>32</v>
+      <c r="B6" s="62" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="16">
         <v>0.01</v>
@@ -7180,75 +7258,75 @@
         <f>C6</f>
         <v>0.01</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="65">
         <v>0.01</v>
       </c>
-      <c r="G6" s="98">
+      <c r="G6" s="95">
         <f>F6*G4*100</f>
         <v>30</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="46">
         <f>$F$6*(H4-H3)*100</f>
         <v>25</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="46">
         <f t="shared" ref="I6:U6" si="0">$F$6*(I4-I3)*100</f>
         <v>20</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="46">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="46">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6" s="99">
+      <c r="N6" s="96">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="O6" s="52">
+      <c r="O6" s="49">
         <f t="shared" si="0"/>
         <v>-33</v>
       </c>
-      <c r="P6" s="49">
+      <c r="P6" s="46">
         <f t="shared" si="0"/>
         <v>-36</v>
       </c>
-      <c r="Q6" s="99">
+      <c r="Q6" s="96">
         <f t="shared" si="0"/>
         <v>-39</v>
       </c>
-      <c r="R6" s="52">
+      <c r="R6" s="49">
         <f t="shared" si="0"/>
         <v>-43</v>
       </c>
-      <c r="S6" s="49">
+      <c r="S6" s="46">
         <f t="shared" si="0"/>
         <v>-45</v>
       </c>
-      <c r="T6" s="49">
+      <c r="T6" s="46">
         <f t="shared" si="0"/>
         <v>-47</v>
       </c>
-      <c r="U6" s="99">
+      <c r="U6" s="96">
         <f t="shared" si="0"/>
         <v>-49</v>
       </c>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B7" s="65" t="s">
-        <v>33</v>
+      <c r="B7" s="62" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="17">
         <f>C6*$F$1</f>
@@ -7266,8 +7344,8 @@
         <f>F6*$F$1</f>
         <v>0.01</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="53">
+      <c r="G7" s="47"/>
+      <c r="H7" s="50">
         <f>F7*H4*100</f>
         <v>30</v>
       </c>
@@ -7291,11 +7369,11 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N7" s="51">
+      <c r="N7" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O7" s="50">
+      <c r="O7" s="47">
         <f t="shared" si="3"/>
         <v>-28</v>
       </c>
@@ -7303,11 +7381,11 @@
         <f t="shared" si="3"/>
         <v>-31</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="Q7" s="48">
         <f t="shared" si="3"/>
         <v>-34</v>
       </c>
-      <c r="R7" s="50">
+      <c r="R7" s="47">
         <f t="shared" si="3"/>
         <v>-38</v>
       </c>
@@ -7319,16 +7397,16 @@
         <f t="shared" si="3"/>
         <v>-42</v>
       </c>
-      <c r="U7" s="51">
+      <c r="U7" s="48">
         <f t="shared" si="3"/>
         <v>-44</v>
       </c>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B8" s="65" t="s">
-        <v>34</v>
+      <c r="B8" s="62" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="17">
         <f>C7*$F$1</f>
@@ -7346,9 +7424,9 @@
         <f>F7*$F$1</f>
         <v>0.01</v>
       </c>
-      <c r="G8" s="50"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="53">
+      <c r="I8" s="50">
         <f>F8*I4*100</f>
         <v>30</v>
       </c>
@@ -7368,11 +7446,11 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="N8" s="51">
+      <c r="N8" s="48">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="O8" s="50">
+      <c r="O8" s="47">
         <f t="shared" si="4"/>
         <v>-23</v>
       </c>
@@ -7380,11 +7458,11 @@
         <f t="shared" si="4"/>
         <v>-26</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="48">
         <f t="shared" si="4"/>
         <v>-29</v>
       </c>
-      <c r="R8" s="50">
+      <c r="R8" s="47">
         <f t="shared" si="4"/>
         <v>-33</v>
       </c>
@@ -7396,16 +7474,16 @@
         <f t="shared" si="4"/>
         <v>-37</v>
       </c>
-      <c r="U8" s="51">
+      <c r="U8" s="48">
         <f t="shared" si="4"/>
         <v>-39</v>
       </c>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B9" s="65" t="s">
-        <v>35</v>
+      <c r="B9" s="62" t="s">
+        <v>34</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" ref="C9:C20" si="5">C8*$F$1</f>
@@ -7423,10 +7501,10 @@
         <f t="shared" ref="F9:F13" si="6">F8*$F$1</f>
         <v>0.01</v>
       </c>
-      <c r="G9" s="50"/>
+      <c r="G9" s="47"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="53">
+      <c r="J9" s="50">
         <f>F9*J4*100</f>
         <v>30</v>
       </c>
@@ -7442,11 +7520,11 @@
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="N9" s="51">
+      <c r="N9" s="48">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="O9" s="50">
+      <c r="O9" s="47">
         <f t="shared" si="7"/>
         <v>-18</v>
       </c>
@@ -7454,11 +7532,11 @@
         <f t="shared" si="7"/>
         <v>-21</v>
       </c>
-      <c r="Q9" s="51">
+      <c r="Q9" s="48">
         <f t="shared" si="7"/>
         <v>-24</v>
       </c>
-      <c r="R9" s="50">
+      <c r="R9" s="47">
         <f t="shared" si="7"/>
         <v>-28.000000000000004</v>
       </c>
@@ -7470,16 +7548,16 @@
         <f t="shared" si="7"/>
         <v>-32</v>
       </c>
-      <c r="U9" s="51">
+      <c r="U9" s="48">
         <f t="shared" si="7"/>
         <v>-34</v>
       </c>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B10" s="65" t="s">
-        <v>36</v>
+      <c r="B10" s="62" t="s">
+        <v>35</v>
       </c>
       <c r="C10" s="17">
         <f t="shared" si="5"/>
@@ -7497,11 +7575,11 @@
         <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
-      <c r="G10" s="50"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="53">
+      <c r="K10" s="50">
         <f>F10*K4*100</f>
         <v>30</v>
       </c>
@@ -7513,11 +7591,11 @@
         <f>$F$10*(M4-(M3-$K$3))*100</f>
         <v>20</v>
       </c>
-      <c r="N10" s="51">
+      <c r="N10" s="48">
         <f t="shared" ref="N10:U10" si="8">$F$10*(N4-(N3-$K$3))*100</f>
         <v>15</v>
       </c>
-      <c r="O10" s="50">
+      <c r="O10" s="47">
         <f t="shared" si="8"/>
         <v>-13</v>
       </c>
@@ -7525,11 +7603,11 @@
         <f t="shared" si="8"/>
         <v>-16</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="48">
         <f t="shared" si="8"/>
         <v>-19</v>
       </c>
-      <c r="R10" s="50">
+      <c r="R10" s="47">
         <f t="shared" si="8"/>
         <v>-23</v>
       </c>
@@ -7541,16 +7619,16 @@
         <f t="shared" si="8"/>
         <v>-27</v>
       </c>
-      <c r="U10" s="51">
+      <c r="U10" s="48">
         <f t="shared" si="8"/>
         <v>-28.999999999999996</v>
       </c>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B11" s="65" t="s">
-        <v>37</v>
+      <c r="B11" s="62" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="17">
         <f t="shared" si="5"/>
@@ -7568,12 +7646,12 @@
         <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
-      <c r="G11" s="50"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="53">
+      <c r="L11" s="50">
         <f>F11*L4*100</f>
         <v>30</v>
       </c>
@@ -7581,11 +7659,11 @@
         <f>$F$11*(M4-(M3-$L$3))*100</f>
         <v>25</v>
       </c>
-      <c r="N11" s="51">
+      <c r="N11" s="48">
         <f>$F$11*(N4-(N3-$L$3))*100</f>
         <v>20</v>
       </c>
-      <c r="O11" s="50">
+      <c r="O11" s="47">
         <f t="shared" ref="O11:U11" si="9">$F$11*(O4-(O3-$L$3))*100</f>
         <v>-8</v>
       </c>
@@ -7593,11 +7671,11 @@
         <f t="shared" si="9"/>
         <v>-11</v>
       </c>
-      <c r="Q11" s="51">
+      <c r="Q11" s="48">
         <f t="shared" si="9"/>
         <v>-14.000000000000002</v>
       </c>
-      <c r="R11" s="50">
+      <c r="R11" s="47">
         <f t="shared" si="9"/>
         <v>-18</v>
       </c>
@@ -7609,16 +7687,16 @@
         <f t="shared" si="9"/>
         <v>-22</v>
       </c>
-      <c r="U11" s="51">
+      <c r="U11" s="48">
         <f t="shared" si="9"/>
         <v>-24</v>
       </c>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B12" s="65" t="s">
-        <v>38</v>
+      <c r="B12" s="62" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="17">
         <f t="shared" si="5"/>
@@ -7635,21 +7713,21 @@
       <c r="F12" s="17">
         <v>0.01</v>
       </c>
-      <c r="G12" s="50"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
-      <c r="M12" s="53">
+      <c r="M12" s="50">
         <f>F12*M4*100</f>
         <v>30</v>
       </c>
-      <c r="N12" s="51">
+      <c r="N12" s="48">
         <f>$F$12*(N4-(N3-$M$3))*100</f>
         <v>25</v>
       </c>
-      <c r="O12" s="50">
+      <c r="O12" s="47">
         <f>$F$12*(O4-(O3-$M$3))*100</f>
         <v>-3</v>
       </c>
@@ -7657,11 +7735,11 @@
         <f t="shared" ref="P12:U12" si="10">$F$12*(P4-(P3-$M$3))*100</f>
         <v>-6</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="Q12" s="48">
         <f t="shared" si="10"/>
         <v>-9</v>
       </c>
-      <c r="R12" s="50">
+      <c r="R12" s="47">
         <f t="shared" si="10"/>
         <v>-13</v>
       </c>
@@ -7673,16 +7751,16 @@
         <f t="shared" si="10"/>
         <v>-17</v>
       </c>
-      <c r="U12" s="51">
+      <c r="U12" s="48">
         <f t="shared" si="10"/>
         <v>-19</v>
       </c>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B13" s="65" t="s">
-        <v>39</v>
+      <c r="B13" s="62" t="s">
+        <v>38</v>
       </c>
       <c r="C13" s="17">
         <f t="shared" si="5"/>
@@ -7700,18 +7778,18 @@
         <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="79">
+      <c r="N13" s="76">
         <f>F13*N4*100</f>
         <v>30</v>
       </c>
-      <c r="O13" s="50">
+      <c r="O13" s="47">
         <f>$F$13*(O4-(O3-$N$3))*100</f>
         <v>2</v>
       </c>
@@ -7719,11 +7797,11 @@
         <f>$F$13*(P4-(P3-$N$3))*100</f>
         <v>-1</v>
       </c>
-      <c r="Q13" s="51">
+      <c r="Q13" s="48">
         <f t="shared" ref="Q13:U13" si="11">$F$13*(Q4-(Q3-$N$3))*100</f>
         <v>-4</v>
       </c>
-      <c r="R13" s="50">
+      <c r="R13" s="47">
         <f t="shared" si="11"/>
         <v>-8</v>
       </c>
@@ -7735,16 +7813,16 @@
         <f t="shared" si="11"/>
         <v>-12</v>
       </c>
-      <c r="U13" s="51">
+      <c r="U13" s="48">
         <f t="shared" si="11"/>
         <v>-14.000000000000002</v>
       </c>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B14" s="65" t="s">
-        <v>40</v>
+      <c r="B14" s="62" t="s">
+        <v>39</v>
       </c>
       <c r="C14" s="17">
         <f t="shared" si="5"/>
@@ -7761,15 +7839,15 @@
       <c r="F14" s="17">
         <v>0.43</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="47"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="78">
+      <c r="N14" s="48"/>
+      <c r="O14" s="75">
         <f>F14*O4*100</f>
         <v>215</v>
       </c>
@@ -7777,11 +7855,11 @@
         <f>$F$14*(P4-(P3-$O$3))*100</f>
         <v>86</v>
       </c>
-      <c r="Q14" s="51">
+      <c r="Q14" s="48">
         <f>$F$14*(Q4-(Q3-$O$3))*100</f>
         <v>-43</v>
       </c>
-      <c r="R14" s="50">
+      <c r="R14" s="47">
         <f t="shared" ref="R14:U14" si="12">$F$14*(R4-(R3-$O$3))*100</f>
         <v>-215</v>
       </c>
@@ -7793,16 +7871,16 @@
         <f t="shared" si="12"/>
         <v>-387</v>
       </c>
-      <c r="U14" s="51">
+      <c r="U14" s="48">
         <f t="shared" si="12"/>
         <v>-472.99999999999994</v>
       </c>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
     </row>
     <row r="15" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="65" t="s">
-        <v>41</v>
+      <c r="B15" s="62" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="17">
         <f t="shared" si="5"/>
@@ -7819,24 +7897,24 @@
       <c r="F15" s="17">
         <v>0.69</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="53">
+      <c r="N15" s="48"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="50">
         <f>F15*P4*100</f>
         <v>345</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="48">
         <f>$F$15*(Q4-(Q3-$P$3))*100</f>
         <v>138</v>
       </c>
-      <c r="R15" s="50">
+      <c r="R15" s="47">
         <f>$F$15*(R4-(R3-$P$3))*100</f>
         <v>-138</v>
       </c>
@@ -7848,16 +7926,16 @@
         <f t="shared" si="13"/>
         <v>-413.99999999999994</v>
       </c>
-      <c r="U15" s="51">
+      <c r="U15" s="48">
         <f t="shared" si="13"/>
         <v>-552</v>
       </c>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B16" s="65" t="s">
-        <v>42</v>
+      <c r="B16" s="62" t="s">
+        <v>41</v>
       </c>
       <c r="C16" s="17">
         <f t="shared" si="5"/>
@@ -7874,21 +7952,21 @@
       <c r="F16" s="17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="50"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="47"/>
       <c r="P16" s="18"/>
-      <c r="Q16" s="79">
+      <c r="Q16" s="76">
         <f>F16*Q4*100</f>
         <v>550</v>
       </c>
-      <c r="R16" s="50">
+      <c r="R16" s="47">
         <f>$F$16*(R4-(R3-$Q$3))*100</f>
         <v>110.00000000000001</v>
       </c>
@@ -7900,16 +7978,16 @@
         <f t="shared" ref="T16:U16" si="14">$F$16*(T4-(T3-$Q$3))*100</f>
         <v>-330</v>
       </c>
-      <c r="U16" s="51">
+      <c r="U16" s="48">
         <f t="shared" si="14"/>
         <v>-550</v>
       </c>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B17" s="65" t="s">
-        <v>43</v>
+      <c r="B17" s="62" t="s">
+        <v>42</v>
       </c>
       <c r="C17" s="17">
         <f t="shared" si="5"/>
@@ -7926,18 +8004,18 @@
       <c r="F17" s="17">
         <v>1.76</v>
       </c>
-      <c r="G17" s="50"/>
+      <c r="G17" s="47"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="50"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="47"/>
       <c r="P17" s="18"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="78">
+      <c r="Q17" s="48"/>
+      <c r="R17" s="75">
         <f>F17*R4*100</f>
         <v>528</v>
       </c>
@@ -7949,16 +8027,16 @@
         <f>$F$17*(T4-(T3-$R$3))*100</f>
         <v>-176</v>
       </c>
-      <c r="U17" s="51">
+      <c r="U17" s="48">
         <f t="shared" ref="U17" si="15">$F$17*(U4-(U3-$R$3))*100</f>
         <v>-528</v>
       </c>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B18" s="65" t="s">
-        <v>44</v>
+      <c r="B18" s="62" t="s">
+        <v>43</v>
       </c>
       <c r="C18" s="17">
         <f t="shared" si="5"/>
@@ -7975,19 +8053,19 @@
       <c r="F18" s="17">
         <v>5.83</v>
       </c>
-      <c r="G18" s="50"/>
+      <c r="G18" s="47"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="50"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="47"/>
       <c r="P18" s="18"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="53">
+      <c r="Q18" s="48"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="50">
         <f>F18*S4*100</f>
         <v>1749.0000000000002</v>
       </c>
@@ -7995,16 +8073,16 @@
         <f>$F$18*(T4-(T3-$S$3))*100</f>
         <v>583</v>
       </c>
-      <c r="U18" s="51">
+      <c r="U18" s="48">
         <f>$F$18*(U4-(U3-$S$3))*100</f>
         <v>-583</v>
       </c>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B19" s="65" t="s">
-        <v>45</v>
+      <c r="B19" s="62" t="s">
+        <v>44</v>
       </c>
       <c r="C19" s="17">
         <f t="shared" si="5"/>
@@ -8021,33 +8099,33 @@
       <c r="F19" s="17">
         <v>9.9</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="50"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="47"/>
       <c r="P19" s="18"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="50"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="47"/>
       <c r="S19" s="18"/>
-      <c r="T19" s="53">
+      <c r="T19" s="50">
         <f>F19*T4*100</f>
         <v>2970.0000000000005</v>
       </c>
-      <c r="U19" s="51">
+      <c r="U19" s="48">
         <f>$F$19*(U4-(U3-$T$3))*100</f>
         <v>990</v>
       </c>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B20" s="65" t="s">
-        <v>46</v>
+      <c r="B20" s="62" t="s">
+        <v>45</v>
       </c>
       <c r="C20" s="17">
         <f t="shared" si="5"/>
@@ -8061,185 +8139,185 @@
         <f t="shared" si="2"/>
         <v>16.837782655940089</v>
       </c>
-      <c r="F20" s="71">
+      <c r="F20" s="68">
         <v>16.84</v>
       </c>
-      <c r="G20" s="80"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="54">
+      <c r="G20" s="77"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="51">
         <f>F20*U4*100</f>
         <v>5052</v>
       </c>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="F21" s="67">
+      <c r="F21" s="64">
         <f>SUM(F6:F20)</f>
         <v>36.629999999999995</v>
       </c>
-      <c r="G21" s="83">
+      <c r="G21" s="80">
         <f>SUMIF(G5:G20, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="H21" s="84">
+      <c r="H21" s="81">
         <f t="shared" ref="H21:U21" si="16">SUMIF(H5:H20, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="I21" s="84">
+      <c r="I21" s="81">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J21" s="84">
+      <c r="J21" s="81">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K21" s="84">
+      <c r="K21" s="81">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L21" s="84">
+      <c r="L21" s="81">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M21" s="84">
+      <c r="M21" s="81">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N21" s="85">
+      <c r="N21" s="82">
         <f t="shared" si="16"/>
         <v>-5</v>
       </c>
-      <c r="O21" s="83">
+      <c r="O21" s="80">
         <f t="shared" si="16"/>
         <v>-126</v>
       </c>
-      <c r="P21" s="84">
+      <c r="P21" s="81">
         <f t="shared" si="16"/>
         <v>-148</v>
       </c>
-      <c r="Q21" s="85">
+      <c r="Q21" s="82">
         <f t="shared" si="16"/>
         <v>-215</v>
       </c>
-      <c r="R21" s="83">
+      <c r="R21" s="80">
         <f t="shared" si="16"/>
         <v>-557</v>
       </c>
-      <c r="S21" s="84">
+      <c r="S21" s="81">
         <f t="shared" si="16"/>
         <v>-907</v>
       </c>
-      <c r="T21" s="84">
+      <c r="T21" s="81">
         <f t="shared" si="16"/>
         <v>-1543</v>
       </c>
-      <c r="U21" s="85">
+      <c r="U21" s="82">
         <f t="shared" si="16"/>
         <v>-2938</v>
       </c>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="F22" s="61"/>
-      <c r="G22" s="83">
+      <c r="F22" s="58"/>
+      <c r="G22" s="80">
         <f t="shared" ref="G22:U22" si="17">SUM(G6:G20)</f>
         <v>30</v>
       </c>
-      <c r="H22" s="84">
+      <c r="H22" s="81">
         <f t="shared" si="17"/>
         <v>55</v>
       </c>
-      <c r="I22" s="84">
+      <c r="I22" s="81">
         <f t="shared" si="17"/>
         <v>75</v>
       </c>
-      <c r="J22" s="84">
+      <c r="J22" s="81">
         <f t="shared" si="17"/>
         <v>90</v>
       </c>
-      <c r="K22" s="84">
+      <c r="K22" s="81">
         <f t="shared" si="17"/>
         <v>100</v>
       </c>
-      <c r="L22" s="84">
+      <c r="L22" s="81">
         <f t="shared" si="17"/>
         <v>105</v>
       </c>
-      <c r="M22" s="84">
+      <c r="M22" s="81">
         <f t="shared" si="17"/>
         <v>105</v>
       </c>
-      <c r="N22" s="85">
+      <c r="N22" s="82">
         <f t="shared" si="17"/>
         <v>100</v>
       </c>
-      <c r="O22" s="83">
+      <c r="O22" s="80">
         <f t="shared" si="17"/>
         <v>91</v>
       </c>
-      <c r="P22" s="84">
+      <c r="P22" s="81">
         <f t="shared" si="17"/>
         <v>283</v>
       </c>
-      <c r="Q22" s="85">
+      <c r="Q22" s="82">
         <f t="shared" si="17"/>
         <v>473</v>
       </c>
-      <c r="R22" s="83">
+      <c r="R22" s="80">
         <f t="shared" si="17"/>
         <v>81</v>
       </c>
-      <c r="S22" s="84">
+      <c r="S22" s="81">
         <f t="shared" si="17"/>
         <v>1018.0000000000002</v>
       </c>
-      <c r="T22" s="84">
+      <c r="T22" s="81">
         <f t="shared" si="17"/>
         <v>2010.0000000000005</v>
       </c>
-      <c r="U22" s="85">
+      <c r="U22" s="82">
         <f t="shared" si="17"/>
         <v>3104</v>
       </c>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="F23" s="61"/>
-      <c r="G23" s="66"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="63"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="F24" s="61"/>
+      <c r="F24" s="58"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="F25" s="61"/>
+      <c r="F25" s="58"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="F26" s="61"/>
-      <c r="W26" s="66"/>
+      <c r="F26" s="58"/>
+      <c r="W26" s="63"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="F27" s="61"/>
+      <c r="F27" s="58"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="F28" s="61"/>
+      <c r="F28" s="58"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="F29" s="61"/>
+      <c r="F29" s="58"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -8256,10 +8334,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1C529B-8D3D-4769-84DC-B22FB77D121C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:AU56"/>
   <sheetViews>
-    <sheetView topLeftCell="B244" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B156" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y255" sqref="Y255"/>
     </sheetView>
   </sheetViews>
@@ -8267,34 +8361,34 @@
   <sheetData>
     <row r="3" spans="2:47" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" t="s">
+      <c r="X3" t="s">
         <v>57</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Y3" t="s">
         <v>62</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AI3" t="s">
         <v>58</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AJ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT3" t="s">
         <v>63</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>64</v>
       </c>
       <c r="AU3">
         <v>107.7</v>
@@ -8302,31 +8396,31 @@
     </row>
     <row r="56" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" t="s">
         <v>65</v>
       </c>
-      <c r="D56" t="s">
+      <c r="M56" t="s">
         <v>66</v>
       </c>
-      <c r="M56" t="s">
+      <c r="O56" t="s">
         <v>67</v>
       </c>
-      <c r="O56" t="s">
+      <c r="X56" t="s">
         <v>68</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Z56" t="s">
         <v>69</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AI56" t="s">
         <v>70</v>
       </c>
-      <c r="AI56" t="s">
-        <v>71</v>
-      </c>
       <c r="AJ56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL56" t="s">
         <v>65</v>
-      </c>
-      <c r="AL56" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -8336,7 +8430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="K169:L169"/>
   <sheetViews>

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB5F0B8-1589-4A0E-AFE7-60D4C68B3B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C07968B-0E69-4CB8-83B5-6A061342FFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4668" yWindow="1776" windowWidth="34824" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Input L30" sheetId="2" r:id="rId1"/>
-    <sheet name="Thay đổi hệ số quãng" sheetId="10" r:id="rId2"/>
-    <sheet name="L15-L18" sheetId="11" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet1 (2)" sheetId="9" r:id="rId5"/>
+    <sheet name="GBPJPY" sheetId="12" r:id="rId2"/>
+    <sheet name="Thay đổi hệ số quãng" sheetId="10" r:id="rId3"/>
+    <sheet name="L15-L18" sheetId="11" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet1 (2)" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
   <si>
     <t>Quãng giá L1-L2</t>
   </si>
@@ -1217,7 +1218,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1544,6 +1545,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -1554,7 +1561,147 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2961,7 +3108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
@@ -6859,102 +7006,102 @@
   </mergeCells>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="19" priority="73">
+    <cfRule type="expression" dxfId="39" priority="73">
       <formula>$J$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="18" priority="74">
+    <cfRule type="expression" dxfId="38" priority="74">
       <formula>$K$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="17" priority="75">
+    <cfRule type="expression" dxfId="37" priority="75">
       <formula>$L$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="16" priority="76">
+    <cfRule type="expression" dxfId="36" priority="76">
       <formula>$M$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="15" priority="77">
+    <cfRule type="expression" dxfId="35" priority="77">
       <formula>$N$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="14" priority="78">
+    <cfRule type="expression" dxfId="34" priority="78">
       <formula>$O$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="expression" dxfId="13" priority="79">
+    <cfRule type="expression" dxfId="33" priority="79">
       <formula>$P$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="expression" dxfId="12" priority="80">
+    <cfRule type="expression" dxfId="32" priority="80">
       <formula>$Q$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="11" priority="81">
+    <cfRule type="expression" dxfId="31" priority="81">
       <formula>$R$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="expression" dxfId="10" priority="82">
+    <cfRule type="expression" dxfId="30" priority="82">
       <formula>$S$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10">
-    <cfRule type="expression" dxfId="9" priority="83">
+    <cfRule type="expression" dxfId="29" priority="83">
       <formula>$T$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="expression" dxfId="8" priority="84">
+    <cfRule type="expression" dxfId="28" priority="84">
       <formula>$U$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10">
-    <cfRule type="expression" dxfId="7" priority="85">
+    <cfRule type="expression" dxfId="27" priority="85">
       <formula>$V$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="expression" dxfId="6" priority="86">
+    <cfRule type="expression" dxfId="26" priority="86">
       <formula>$W$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X10">
-    <cfRule type="expression" dxfId="5" priority="87">
+    <cfRule type="expression" dxfId="25" priority="87">
       <formula>$X$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10">
-    <cfRule type="expression" dxfId="4" priority="88">
+    <cfRule type="expression" dxfId="24" priority="88">
       <formula>$Y$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z10">
-    <cfRule type="expression" dxfId="3" priority="24">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>$Z$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA10">
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$AA$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="expression" dxfId="1" priority="22">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>$AB$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC10">
-    <cfRule type="expression" dxfId="0" priority="21">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>$AC$10=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6964,6 +7111,4013 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3541F4C-599F-4FD9-B039-A87B0308EEC1}">
+  <dimension ref="B1:AD99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" style="12" customWidth="1"/>
+    <col min="4" max="5" width="14.69921875" style="11" customWidth="1"/>
+    <col min="6" max="7" width="9.09765625" style="5"/>
+    <col min="8" max="8" width="19" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="10.59765625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="8.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.09765625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="2:29" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="B2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="122">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+    </row>
+    <row r="3" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="123">
+        <f>E2</f>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="114">
+        <f>SUM(GBPJPY!C13:C37)</f>
+        <v>115.49272720603341</v>
+      </c>
+      <c r="L3" s="114"/>
+      <c r="M3" s="115">
+        <f>K3*91</f>
+        <v>10509.838175749041</v>
+      </c>
+      <c r="N3" s="115"/>
+      <c r="O3" s="116">
+        <f>M3+GBPJPY!D35</f>
+        <v>12634.014697025385</v>
+      </c>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="111">
+        <f>O3*2</f>
+        <v>25268.029394050769</v>
+      </c>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+    </row>
+    <row r="4" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="B4" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="123">
+        <f>E3</f>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="52">
+        <f>E9</f>
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="B5" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="123">
+        <f>E4</f>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="52">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="B6" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="123">
+        <f>E5</f>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="52">
+        <f>I5*2</f>
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.6179999999999999</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="123">
+        <f>E6</f>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="38">
+        <v>2200</v>
+      </c>
+      <c r="K7" s="38">
+        <f>J7-I$5</f>
+        <v>2199.7719999999999</v>
+      </c>
+      <c r="L7" s="38">
+        <f t="shared" ref="L7:AC7" si="0">K7-$I$5</f>
+        <v>2199.5439999999999</v>
+      </c>
+      <c r="M7" s="38">
+        <f t="shared" si="0"/>
+        <v>2199.3159999999998</v>
+      </c>
+      <c r="N7" s="38">
+        <f t="shared" si="0"/>
+        <v>2199.0879999999997</v>
+      </c>
+      <c r="O7" s="38">
+        <f t="shared" si="0"/>
+        <v>2198.8599999999997</v>
+      </c>
+      <c r="P7" s="38">
+        <f t="shared" si="0"/>
+        <v>2198.6319999999996</v>
+      </c>
+      <c r="Q7" s="38">
+        <f t="shared" si="0"/>
+        <v>2198.4039999999995</v>
+      </c>
+      <c r="R7" s="38">
+        <f t="shared" si="0"/>
+        <v>2198.1759999999995</v>
+      </c>
+      <c r="S7" s="38">
+        <f t="shared" si="0"/>
+        <v>2197.9479999999994</v>
+      </c>
+      <c r="T7" s="38">
+        <f t="shared" si="0"/>
+        <v>2197.7199999999993</v>
+      </c>
+      <c r="U7" s="38">
+        <f t="shared" si="0"/>
+        <v>2197.4919999999993</v>
+      </c>
+      <c r="V7" s="38">
+        <f t="shared" si="0"/>
+        <v>2197.2639999999992</v>
+      </c>
+      <c r="W7" s="38">
+        <f t="shared" si="0"/>
+        <v>2197.0359999999991</v>
+      </c>
+      <c r="X7" s="38">
+        <f t="shared" si="0"/>
+        <v>2196.8079999999991</v>
+      </c>
+      <c r="Y7" s="38">
+        <f t="shared" si="0"/>
+        <v>2196.579999999999</v>
+      </c>
+      <c r="Z7" s="38">
+        <f t="shared" si="0"/>
+        <v>2196.351999999999</v>
+      </c>
+      <c r="AA7" s="38">
+        <f t="shared" si="0"/>
+        <v>2196.1239999999989</v>
+      </c>
+      <c r="AB7" s="38">
+        <f t="shared" si="0"/>
+        <v>2195.8959999999988</v>
+      </c>
+      <c r="AC7" s="38">
+        <f t="shared" si="0"/>
+        <v>2195.6679999999988</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="113">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="38">
+        <v>0</v>
+      </c>
+      <c r="K8" s="38">
+        <f t="shared" ref="K8:AC8" si="1">$J$7-K7</f>
+        <v>0.22800000000006548</v>
+      </c>
+      <c r="L8" s="38">
+        <f t="shared" si="1"/>
+        <v>0.45600000000013097</v>
+      </c>
+      <c r="M8" s="38">
+        <f t="shared" si="1"/>
+        <v>0.68400000000019645</v>
+      </c>
+      <c r="N8" s="38">
+        <f t="shared" si="1"/>
+        <v>0.91200000000026193</v>
+      </c>
+      <c r="O8" s="38">
+        <f t="shared" si="1"/>
+        <v>1.1400000000003274</v>
+      </c>
+      <c r="P8" s="38">
+        <f t="shared" si="1"/>
+        <v>1.3680000000003929</v>
+      </c>
+      <c r="Q8" s="38">
+        <f t="shared" si="1"/>
+        <v>1.5960000000004584</v>
+      </c>
+      <c r="R8" s="38">
+        <f t="shared" si="1"/>
+        <v>1.8240000000005239</v>
+      </c>
+      <c r="S8" s="38">
+        <f t="shared" si="1"/>
+        <v>2.0520000000005894</v>
+      </c>
+      <c r="T8" s="38">
+        <f t="shared" si="1"/>
+        <v>2.2800000000006548</v>
+      </c>
+      <c r="U8" s="38">
+        <f t="shared" si="1"/>
+        <v>2.5080000000007203</v>
+      </c>
+      <c r="V8" s="38">
+        <f t="shared" si="1"/>
+        <v>2.7360000000007858</v>
+      </c>
+      <c r="W8" s="38">
+        <f t="shared" si="1"/>
+        <v>2.9640000000008513</v>
+      </c>
+      <c r="X8" s="38">
+        <f t="shared" si="1"/>
+        <v>3.1920000000009168</v>
+      </c>
+      <c r="Y8" s="38">
+        <f t="shared" si="1"/>
+        <v>3.4200000000009823</v>
+      </c>
+      <c r="Z8" s="38">
+        <f t="shared" si="1"/>
+        <v>3.6480000000010477</v>
+      </c>
+      <c r="AA8" s="38">
+        <f t="shared" si="1"/>
+        <v>3.8760000000011132</v>
+      </c>
+      <c r="AB8" s="38">
+        <f t="shared" si="1"/>
+        <v>4.1040000000011787</v>
+      </c>
+      <c r="AC8" s="38">
+        <f t="shared" si="1"/>
+        <v>4.3320000000012442</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="112">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA9" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB9" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC9" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="B10" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="55">
+        <v>17</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="53"/>
+      <c r="J10" s="29">
+        <v>1</v>
+      </c>
+      <c r="K10" s="29">
+        <v>2</v>
+      </c>
+      <c r="L10" s="29">
+        <v>3</v>
+      </c>
+      <c r="M10" s="29">
+        <v>4</v>
+      </c>
+      <c r="N10" s="29">
+        <v>5</v>
+      </c>
+      <c r="O10" s="29">
+        <v>6</v>
+      </c>
+      <c r="P10" s="29">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>8</v>
+      </c>
+      <c r="R10" s="29">
+        <v>9</v>
+      </c>
+      <c r="S10" s="29">
+        <v>10</v>
+      </c>
+      <c r="T10" s="29">
+        <v>11</v>
+      </c>
+      <c r="U10" s="29">
+        <v>12</v>
+      </c>
+      <c r="V10" s="29">
+        <v>13</v>
+      </c>
+      <c r="W10" s="29">
+        <v>14</v>
+      </c>
+      <c r="X10" s="29">
+        <v>15</v>
+      </c>
+      <c r="Y10" s="29">
+        <v>16</v>
+      </c>
+      <c r="Z10" s="29">
+        <v>17</v>
+      </c>
+      <c r="AA10" s="29">
+        <v>18</v>
+      </c>
+      <c r="AB10" s="29">
+        <v>19</v>
+      </c>
+      <c r="AC10" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="H11" s="34">
+        <v>1</v>
+      </c>
+      <c r="I11" s="35">
+        <f>GBPJPY!C13</f>
+        <v>0.01</v>
+      </c>
+      <c r="J11" s="31">
+        <f>I11*I6*100</f>
+        <v>0.45600000000000007</v>
+      </c>
+      <c r="K11" s="31">
+        <f>I11*100*(I6-I5)</f>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="L11" s="31">
+        <f t="shared" ref="L11:AC11" si="2">$I$11*100*($I$6-$I$5*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="31">
+        <f t="shared" si="2"/>
+        <v>-0.22800000000000004</v>
+      </c>
+      <c r="N11" s="31">
+        <f>$I$11*100*($I$6-$I$5*M10)</f>
+        <v>-0.45600000000000002</v>
+      </c>
+      <c r="O11" s="31">
+        <f t="shared" si="2"/>
+        <v>-0.68400000000000016</v>
+      </c>
+      <c r="P11" s="31">
+        <f t="shared" si="2"/>
+        <v>-0.91200000000000014</v>
+      </c>
+      <c r="Q11" s="31">
+        <f t="shared" si="2"/>
+        <v>-1.1400000000000001</v>
+      </c>
+      <c r="R11" s="31">
+        <f t="shared" si="2"/>
+        <v>-1.3680000000000001</v>
+      </c>
+      <c r="S11" s="31">
+        <f t="shared" si="2"/>
+        <v>-1.5960000000000001</v>
+      </c>
+      <c r="T11" s="31">
+        <f t="shared" si="2"/>
+        <v>-1.8240000000000003</v>
+      </c>
+      <c r="U11" s="31">
+        <f t="shared" si="2"/>
+        <v>-2.052</v>
+      </c>
+      <c r="V11" s="31">
+        <f t="shared" si="2"/>
+        <v>-2.2800000000000002</v>
+      </c>
+      <c r="W11" s="31">
+        <f t="shared" si="2"/>
+        <v>-2.508</v>
+      </c>
+      <c r="X11" s="31">
+        <f t="shared" si="2"/>
+        <v>-2.7360000000000002</v>
+      </c>
+      <c r="Y11" s="31">
+        <f t="shared" si="2"/>
+        <v>-2.964</v>
+      </c>
+      <c r="Z11" s="31">
+        <f t="shared" si="2"/>
+        <v>-3.1920000000000002</v>
+      </c>
+      <c r="AA11" s="31">
+        <f t="shared" si="2"/>
+        <v>-3.4200000000000004</v>
+      </c>
+      <c r="AB11" s="31">
+        <f t="shared" si="2"/>
+        <v>-3.6480000000000001</v>
+      </c>
+      <c r="AC11" s="31">
+        <f t="shared" si="2"/>
+        <v>-3.8759999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="34">
+        <v>2</v>
+      </c>
+      <c r="I12" s="30">
+        <f t="shared" ref="I12:I30" si="3">I11*$I$4</f>
+        <v>1.618E-2</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="31">
+        <f>I12*100*I6</f>
+        <v>0.73780800000000002</v>
+      </c>
+      <c r="L12" s="31">
+        <f>I12*100*(I6-I5)</f>
+        <v>0.36890400000000001</v>
+      </c>
+      <c r="M12" s="31">
+        <f t="shared" ref="M12:AC12" si="4">$I$12*100*($I$6-$I$5*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="31">
+        <f t="shared" si="4"/>
+        <v>-0.36890400000000001</v>
+      </c>
+      <c r="O12" s="31">
+        <f t="shared" si="4"/>
+        <v>-0.73780800000000002</v>
+      </c>
+      <c r="P12" s="31">
+        <f t="shared" si="4"/>
+        <v>-1.1067120000000001</v>
+      </c>
+      <c r="Q12" s="31">
+        <f t="shared" si="4"/>
+        <v>-1.475616</v>
+      </c>
+      <c r="R12" s="31">
+        <f t="shared" si="4"/>
+        <v>-1.8445200000000002</v>
+      </c>
+      <c r="S12" s="31">
+        <f t="shared" si="4"/>
+        <v>-2.2134239999999998</v>
+      </c>
+      <c r="T12" s="31">
+        <f t="shared" si="4"/>
+        <v>-2.582328</v>
+      </c>
+      <c r="U12" s="31">
+        <f t="shared" si="4"/>
+        <v>-2.9512320000000001</v>
+      </c>
+      <c r="V12" s="31">
+        <f t="shared" si="4"/>
+        <v>-3.3201359999999998</v>
+      </c>
+      <c r="W12" s="31">
+        <f t="shared" si="4"/>
+        <v>-3.6890400000000003</v>
+      </c>
+      <c r="X12" s="31">
+        <f t="shared" si="4"/>
+        <v>-4.057944</v>
+      </c>
+      <c r="Y12" s="31">
+        <f t="shared" si="4"/>
+        <v>-4.4268479999999997</v>
+      </c>
+      <c r="Z12" s="31">
+        <f t="shared" si="4"/>
+        <v>-4.7957519999999993</v>
+      </c>
+      <c r="AA12" s="31">
+        <f t="shared" si="4"/>
+        <v>-5.1646559999999999</v>
+      </c>
+      <c r="AB12" s="31">
+        <f t="shared" si="4"/>
+        <v>-5.5335600000000005</v>
+      </c>
+      <c r="AC12" s="31">
+        <f t="shared" si="4"/>
+        <v>-5.9024640000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="str">
+        <f>IF($E$10&gt;0,"L1",0)</f>
+        <v>L1</v>
+      </c>
+      <c r="C13" s="8">
+        <f>+E8</f>
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="9">
+        <f>+C13*E13*100</f>
+        <v>3.6480000000000006</v>
+      </c>
+      <c r="E13" s="9">
+        <f>IF(B13=0,0,$E$2+$E$3+$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
+        <v>3.6480000000000001</v>
+      </c>
+      <c r="H13" s="34">
+        <v>3</v>
+      </c>
+      <c r="I13" s="30">
+        <f t="shared" si="3"/>
+        <v>2.6179240000000003E-2</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="31">
+        <f>I13*100*I6</f>
+        <v>1.1937733440000002</v>
+      </c>
+      <c r="M13" s="31">
+        <f>I13*100*(I6-I5)</f>
+        <v>0.59688667200000012</v>
+      </c>
+      <c r="N13" s="31">
+        <f t="shared" ref="N13:AC13" si="5">$I$13*100*($I$6-$I$5*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="31">
+        <f t="shared" si="5"/>
+        <v>-0.59688667200000023</v>
+      </c>
+      <c r="P13" s="31">
+        <f t="shared" si="5"/>
+        <v>-1.1937733440000002</v>
+      </c>
+      <c r="Q13" s="31">
+        <f t="shared" si="5"/>
+        <v>-1.7906600160000006</v>
+      </c>
+      <c r="R13" s="31">
+        <f t="shared" si="5"/>
+        <v>-2.3875466880000009</v>
+      </c>
+      <c r="S13" s="31">
+        <f t="shared" si="5"/>
+        <v>-2.9844333600000006</v>
+      </c>
+      <c r="T13" s="31">
+        <f t="shared" si="5"/>
+        <v>-3.5813200320000007</v>
+      </c>
+      <c r="U13" s="31">
+        <f t="shared" si="5"/>
+        <v>-4.1782067040000008</v>
+      </c>
+      <c r="V13" s="31">
+        <f t="shared" si="5"/>
+        <v>-4.7750933760000018</v>
+      </c>
+      <c r="W13" s="31">
+        <f t="shared" si="5"/>
+        <v>-5.3719800480000011</v>
+      </c>
+      <c r="X13" s="31">
+        <f t="shared" si="5"/>
+        <v>-5.9688667200000012</v>
+      </c>
+      <c r="Y13" s="31">
+        <f t="shared" si="5"/>
+        <v>-6.5657533920000013</v>
+      </c>
+      <c r="Z13" s="31">
+        <f t="shared" si="5"/>
+        <v>-7.1626400640000014</v>
+      </c>
+      <c r="AA13" s="31">
+        <f t="shared" si="5"/>
+        <v>-7.7595267360000006</v>
+      </c>
+      <c r="AB13" s="31">
+        <f t="shared" si="5"/>
+        <v>-8.3564134080000017</v>
+      </c>
+      <c r="AC13" s="31">
+        <f t="shared" si="5"/>
+        <v>-8.9533000800000018</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="24" t="str">
+        <f t="shared" ref="B14:B34" si="6">IF(B13=0,0,IF(VALUE(MID(B13,2,2))&gt;=$E$10,0,"L"&amp;VALUE(MID(B13,2,2))+1))</f>
+        <v>L2</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" ref="C14:C34" si="7">IF(B14&lt;&gt;0,C13*$E$9,0)</f>
+        <v>1.618E-2</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" ref="D14:D34" si="8">+C14*E14*100</f>
+        <v>5.5335599999999996</v>
+      </c>
+      <c r="E14" s="9">
+        <f>IF(B14=0,0,$E$3+$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
+        <v>3.42</v>
+      </c>
+      <c r="H14" s="34">
+        <v>4</v>
+      </c>
+      <c r="I14" s="30">
+        <f t="shared" si="3"/>
+        <v>4.2358010320000007E-2</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="31">
+        <f>I14*100*I6</f>
+        <v>1.9315252705920003</v>
+      </c>
+      <c r="N14" s="31">
+        <f>I14*100*(I6-I5)</f>
+        <v>0.96576263529600015</v>
+      </c>
+      <c r="O14" s="31">
+        <f t="shared" ref="O14:AC14" si="9">$I$14*100*($I$6-$I$5*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="31">
+        <f t="shared" si="9"/>
+        <v>-0.96576263529600026</v>
+      </c>
+      <c r="Q14" s="31">
+        <f t="shared" si="9"/>
+        <v>-1.9315252705920003</v>
+      </c>
+      <c r="R14" s="31">
+        <f t="shared" si="9"/>
+        <v>-2.897287905888001</v>
+      </c>
+      <c r="S14" s="31">
+        <f t="shared" si="9"/>
+        <v>-3.863050541184001</v>
+      </c>
+      <c r="T14" s="31">
+        <f t="shared" si="9"/>
+        <v>-4.8288131764800006</v>
+      </c>
+      <c r="U14" s="31">
+        <f t="shared" si="9"/>
+        <v>-5.7945758117760011</v>
+      </c>
+      <c r="V14" s="31">
+        <f t="shared" si="9"/>
+        <v>-6.7603384470720007</v>
+      </c>
+      <c r="W14" s="31">
+        <f t="shared" si="9"/>
+        <v>-7.7261010823680021</v>
+      </c>
+      <c r="X14" s="31">
+        <f t="shared" si="9"/>
+        <v>-8.6918637176640008</v>
+      </c>
+      <c r="Y14" s="31">
+        <f t="shared" si="9"/>
+        <v>-9.6576263529600013</v>
+      </c>
+      <c r="Z14" s="31">
+        <f t="shared" si="9"/>
+        <v>-10.623388988256002</v>
+      </c>
+      <c r="AA14" s="31">
+        <f t="shared" si="9"/>
+        <v>-11.589151623552002</v>
+      </c>
+      <c r="AB14" s="31">
+        <f t="shared" si="9"/>
+        <v>-12.554914258848001</v>
+      </c>
+      <c r="AC14" s="31">
+        <f t="shared" si="9"/>
+        <v>-13.520676894144001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>L3</v>
+      </c>
+      <c r="C15" s="10">
+        <f t="shared" si="7"/>
+        <v>2.6179240000000003E-2</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="8"/>
+        <v>8.3564134080000017</v>
+      </c>
+      <c r="E15" s="9">
+        <f>IF(B15=0,0,$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
+        <v>3.1920000000000002</v>
+      </c>
+      <c r="H15" s="34">
+        <v>5</v>
+      </c>
+      <c r="I15" s="30">
+        <f t="shared" si="3"/>
+        <v>6.8535260697760017E-2</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="31">
+        <f>I15*I6*100</f>
+        <v>3.1252078878178566</v>
+      </c>
+      <c r="O15" s="31">
+        <f>I15*100*(I6-I5)</f>
+        <v>1.5626039439089283</v>
+      </c>
+      <c r="P15" s="31">
+        <f t="shared" ref="P15:AC15" si="10">$I$15*100*($I$6-$I$5*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="31">
+        <f t="shared" si="10"/>
+        <v>-1.5626039439089285</v>
+      </c>
+      <c r="R15" s="31">
+        <f t="shared" si="10"/>
+        <v>-3.1252078878178566</v>
+      </c>
+      <c r="S15" s="31">
+        <f t="shared" si="10"/>
+        <v>-4.6878118317267861</v>
+      </c>
+      <c r="T15" s="31">
+        <f t="shared" si="10"/>
+        <v>-6.2504157756357142</v>
+      </c>
+      <c r="U15" s="31">
+        <f t="shared" si="10"/>
+        <v>-7.8130197195446422</v>
+      </c>
+      <c r="V15" s="31">
+        <f t="shared" si="10"/>
+        <v>-9.3756236634535703</v>
+      </c>
+      <c r="W15" s="31">
+        <f t="shared" si="10"/>
+        <v>-10.938227607362499</v>
+      </c>
+      <c r="X15" s="31">
+        <f t="shared" si="10"/>
+        <v>-12.500831551271428</v>
+      </c>
+      <c r="Y15" s="31">
+        <f t="shared" si="10"/>
+        <v>-14.063435495180356</v>
+      </c>
+      <c r="Z15" s="31">
+        <f t="shared" si="10"/>
+        <v>-15.626039439089284</v>
+      </c>
+      <c r="AA15" s="31">
+        <f t="shared" si="10"/>
+        <v>-17.188643382998212</v>
+      </c>
+      <c r="AB15" s="31">
+        <f t="shared" si="10"/>
+        <v>-18.751247326907141</v>
+      </c>
+      <c r="AC15" s="31">
+        <f t="shared" si="10"/>
+        <v>-20.31385127081607</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>L4</v>
+      </c>
+      <c r="C16" s="10">
+        <f t="shared" si="7"/>
+        <v>4.2358010320000007E-2</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="8"/>
+        <v>12.554914258848001</v>
+      </c>
+      <c r="E16" s="9">
+        <f>IF(B16=0,0,$E$5+$E$6+($E$7*($E$10-6)))</f>
+        <v>2.964</v>
+      </c>
+      <c r="H16" s="34">
+        <v>6</v>
+      </c>
+      <c r="I16" s="30">
+        <f t="shared" si="3"/>
+        <v>0.11089005180897571</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="31">
+        <f>I16*I6*100</f>
+        <v>5.0565863624892922</v>
+      </c>
+      <c r="P16" s="31">
+        <f>I16*100*(I6-I5)</f>
+        <v>2.5282931812446461</v>
+      </c>
+      <c r="Q16" s="31">
+        <f t="shared" ref="Q16:AC16" si="11">$I$16*100*($I$6-$I$5*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="31">
+        <f t="shared" si="11"/>
+        <v>-2.5282931812446465</v>
+      </c>
+      <c r="S16" s="31">
+        <f t="shared" si="11"/>
+        <v>-5.0565863624892922</v>
+      </c>
+      <c r="T16" s="31">
+        <f t="shared" si="11"/>
+        <v>-7.5848795437339405</v>
+      </c>
+      <c r="U16" s="31">
+        <f t="shared" si="11"/>
+        <v>-10.113172724978586</v>
+      </c>
+      <c r="V16" s="31">
+        <f t="shared" si="11"/>
+        <v>-12.641465906223232</v>
+      </c>
+      <c r="W16" s="31">
+        <f t="shared" si="11"/>
+        <v>-15.169759087467877</v>
+      </c>
+      <c r="X16" s="31">
+        <f t="shared" si="11"/>
+        <v>-17.698052268712523</v>
+      </c>
+      <c r="Y16" s="31">
+        <f t="shared" si="11"/>
+        <v>-20.226345449957172</v>
+      </c>
+      <c r="Z16" s="31">
+        <f t="shared" si="11"/>
+        <v>-22.754638631201814</v>
+      </c>
+      <c r="AA16" s="31">
+        <f t="shared" si="11"/>
+        <v>-25.282931812446463</v>
+      </c>
+      <c r="AB16" s="31">
+        <f t="shared" si="11"/>
+        <v>-27.811224993691109</v>
+      </c>
+      <c r="AC16" s="31">
+        <f t="shared" si="11"/>
+        <v>-30.339518174935755</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>L5</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" si="7"/>
+        <v>6.8535260697760017E-2</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="8"/>
+        <v>18.751247326907141</v>
+      </c>
+      <c r="E17" s="9">
+        <f>IF(B17=0,0,$E$6+($E$7*($E$10-6)))</f>
+        <v>2.7360000000000002</v>
+      </c>
+      <c r="H17" s="34">
+        <v>7</v>
+      </c>
+      <c r="I17" s="30">
+        <f t="shared" si="3"/>
+        <v>0.17942010382692272</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="31">
+        <f>I6*I17*100</f>
+        <v>8.1815567345076765</v>
+      </c>
+      <c r="Q17" s="31">
+        <f>I17*100*(I6-I5)</f>
+        <v>4.0907783672538383</v>
+      </c>
+      <c r="R17" s="31">
+        <f t="shared" ref="R17:AC17" si="12">$I$17*100*($I$6-$I$5*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="31">
+        <f t="shared" si="12"/>
+        <v>-4.0907783672538383</v>
+      </c>
+      <c r="T17" s="31">
+        <f t="shared" si="12"/>
+        <v>-8.1815567345076765</v>
+      </c>
+      <c r="U17" s="31">
+        <f t="shared" si="12"/>
+        <v>-12.272335101761517</v>
+      </c>
+      <c r="V17" s="31">
+        <f t="shared" si="12"/>
+        <v>-16.363113469015353</v>
+      </c>
+      <c r="W17" s="31">
+        <f t="shared" si="12"/>
+        <v>-20.453891836269189</v>
+      </c>
+      <c r="X17" s="31">
+        <f t="shared" si="12"/>
+        <v>-24.54467020352303</v>
+      </c>
+      <c r="Y17" s="31">
+        <f t="shared" si="12"/>
+        <v>-28.635448570776866</v>
+      </c>
+      <c r="Z17" s="31">
+        <f t="shared" si="12"/>
+        <v>-32.726226938030706</v>
+      </c>
+      <c r="AA17" s="31">
+        <f t="shared" si="12"/>
+        <v>-36.817005305284539</v>
+      </c>
+      <c r="AB17" s="31">
+        <f t="shared" si="12"/>
+        <v>-40.907783672538379</v>
+      </c>
+      <c r="AC17" s="31">
+        <f t="shared" si="12"/>
+        <v>-44.998562039792212</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>L6</v>
+      </c>
+      <c r="C18" s="10">
+        <f t="shared" si="7"/>
+        <v>0.11089005180897571</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="8"/>
+        <v>27.811224993691109</v>
+      </c>
+      <c r="E18" s="9">
+        <f>IF(B18=0,0,($E$7*($E$10-6)))</f>
+        <v>2.508</v>
+      </c>
+      <c r="H18" s="34">
+        <v>8</v>
+      </c>
+      <c r="I18" s="30">
+        <f t="shared" si="3"/>
+        <v>0.29030172799196097</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="31">
+        <f>I6*I18*100</f>
+        <v>13.237758796433422</v>
+      </c>
+      <c r="R18" s="31">
+        <f>I18*100*(I6-I5)</f>
+        <v>6.6188793982167109</v>
+      </c>
+      <c r="S18" s="31">
+        <f t="shared" ref="S18:AC18" si="13">$I$18*100*($I$6-$I$5*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="31">
+        <f t="shared" si="13"/>
+        <v>-6.6188793982167118</v>
+      </c>
+      <c r="U18" s="31">
+        <f t="shared" si="13"/>
+        <v>-13.237758796433422</v>
+      </c>
+      <c r="V18" s="31">
+        <f t="shared" si="13"/>
+        <v>-19.856638194650134</v>
+      </c>
+      <c r="W18" s="31">
+        <f t="shared" si="13"/>
+        <v>-26.475517592866847</v>
+      </c>
+      <c r="X18" s="31">
+        <f t="shared" si="13"/>
+        <v>-33.094396991083556</v>
+      </c>
+      <c r="Y18" s="31">
+        <f t="shared" si="13"/>
+        <v>-39.713276389300262</v>
+      </c>
+      <c r="Z18" s="31">
+        <f t="shared" si="13"/>
+        <v>-46.332155787516974</v>
+      </c>
+      <c r="AA18" s="31">
+        <f t="shared" si="13"/>
+        <v>-52.951035185733694</v>
+      </c>
+      <c r="AB18" s="31">
+        <f t="shared" si="13"/>
+        <v>-59.569914583950393</v>
+      </c>
+      <c r="AC18" s="31">
+        <f t="shared" si="13"/>
+        <v>-66.188793982167113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>L7</v>
+      </c>
+      <c r="C19" s="10">
+        <f t="shared" si="7"/>
+        <v>0.17942010382692272</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" si="8"/>
+        <v>40.907783672538386</v>
+      </c>
+      <c r="E19" s="9">
+        <f>IF(B19=0,0,($E$7*($E$10-7)))</f>
+        <v>2.2800000000000002</v>
+      </c>
+      <c r="H19" s="34">
+        <v>9</v>
+      </c>
+      <c r="I19" s="30">
+        <f t="shared" si="3"/>
+        <v>0.46970819589099289</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="31">
+        <f>I6*I19*100</f>
+        <v>21.418693732629276</v>
+      </c>
+      <c r="S19" s="31">
+        <f>I19*100*(I6-I5)</f>
+        <v>10.709346866314638</v>
+      </c>
+      <c r="T19" s="31">
+        <f t="shared" ref="T19:AC19" si="14">$I$19*100*($I$6-$I$5*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="31">
+        <f t="shared" si="14"/>
+        <v>-10.70934686631464</v>
+      </c>
+      <c r="V19" s="31">
+        <f t="shared" si="14"/>
+        <v>-21.418693732629276</v>
+      </c>
+      <c r="W19" s="31">
+        <f t="shared" si="14"/>
+        <v>-32.128040598943919</v>
+      </c>
+      <c r="X19" s="31">
+        <f t="shared" si="14"/>
+        <v>-42.837387465258558</v>
+      </c>
+      <c r="Y19" s="31">
+        <f t="shared" si="14"/>
+        <v>-53.546734331573191</v>
+      </c>
+      <c r="Z19" s="31">
+        <f t="shared" si="14"/>
+        <v>-64.256081197887823</v>
+      </c>
+      <c r="AA19" s="31">
+        <f t="shared" si="14"/>
+        <v>-74.96542806420247</v>
+      </c>
+      <c r="AB19" s="31">
+        <f t="shared" si="14"/>
+        <v>-85.674774930517117</v>
+      </c>
+      <c r="AC19" s="31">
+        <f t="shared" si="14"/>
+        <v>-96.384121796831735</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>L8</v>
+      </c>
+      <c r="C20" s="10">
+        <f t="shared" si="7"/>
+        <v>0.29030172799196097</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="8"/>
+        <v>59.569914583950393</v>
+      </c>
+      <c r="E20" s="9">
+        <f>IF(B20=0,0,($E$7*($E$10-8)))</f>
+        <v>2.052</v>
+      </c>
+      <c r="H20" s="34">
+        <v>10</v>
+      </c>
+      <c r="I20" s="30">
+        <f t="shared" si="3"/>
+        <v>0.75998786095162651</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="31">
+        <f>I6*I20*100</f>
+        <v>34.65544645939417</v>
+      </c>
+      <c r="T20" s="31">
+        <f>I20*100*(I6-I5)</f>
+        <v>17.327723229697085</v>
+      </c>
+      <c r="U20" s="31">
+        <f>$I$20*100*($I$6-$I$5*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="31">
+        <f>$I$20*100*($I$6-$I$5*L10)</f>
+        <v>-17.327723229697089</v>
+      </c>
+      <c r="W20" s="31">
+        <f>$I$20*100*($I$6-$I$5*M10)</f>
+        <v>-34.65544645939417</v>
+      </c>
+      <c r="X20" s="31">
+        <f>$I$20*100*($I$6-$I$5*N10)</f>
+        <v>-51.98316968909127</v>
+      </c>
+      <c r="Y20" s="31">
+        <f>$I$20*100*($I$6-$I$5*O10)</f>
+        <v>-69.310892918788355</v>
+      </c>
+      <c r="Z20" s="31">
+        <f t="shared" ref="Z20:AC20" si="15">$I$20*100*($I$6-$I$5*P10)</f>
+        <v>-86.63861614848544</v>
+      </c>
+      <c r="AA20" s="31">
+        <f t="shared" si="15"/>
+        <v>-103.96633937818252</v>
+      </c>
+      <c r="AB20" s="31">
+        <f t="shared" si="15"/>
+        <v>-121.29406260787961</v>
+      </c>
+      <c r="AC20" s="31">
+        <f t="shared" si="15"/>
+        <v>-138.62178583757671</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>L9</v>
+      </c>
+      <c r="C21" s="10">
+        <f t="shared" si="7"/>
+        <v>0.46970819589099289</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="8"/>
+        <v>85.674774930517103</v>
+      </c>
+      <c r="E21" s="9">
+        <f>IF(B21=0,0,($E$7*($E$10-9)))</f>
+        <v>1.8240000000000001</v>
+      </c>
+      <c r="H21" s="34">
+        <v>11</v>
+      </c>
+      <c r="I21" s="30">
+        <f t="shared" si="3"/>
+        <v>1.2296603590197317</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="32">
+        <f>I6*I21*100</f>
+        <v>56.072512371299766</v>
+      </c>
+      <c r="U21" s="32">
+        <f>I21*100*(I6-I5)</f>
+        <v>28.036256185649883</v>
+      </c>
+      <c r="V21" s="32">
+        <f>$I$21*100*($I$6-$I$5*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="32">
+        <f>$I$21*100*($I$6-$I$5*L10)</f>
+        <v>-28.036256185649886</v>
+      </c>
+      <c r="X21" s="32">
+        <f>$I$21*100*($I$6-$I$5*M10)</f>
+        <v>-56.072512371299766</v>
+      </c>
+      <c r="Y21" s="32">
+        <f>$I$21*100*($I$6-$I$5*N10)</f>
+        <v>-84.10876855694967</v>
+      </c>
+      <c r="Z21" s="32">
+        <f t="shared" ref="Z21:AC21" si="16">$I$21*100*($I$6-$I$5*O10)</f>
+        <v>-112.14502474259955</v>
+      </c>
+      <c r="AA21" s="32">
+        <f t="shared" si="16"/>
+        <v>-140.18128092824944</v>
+      </c>
+      <c r="AB21" s="32">
+        <f t="shared" si="16"/>
+        <v>-168.21753711389931</v>
+      </c>
+      <c r="AC21" s="32">
+        <f t="shared" si="16"/>
+        <v>-196.25379329954919</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>L10</v>
+      </c>
+      <c r="C22" s="10">
+        <f t="shared" si="7"/>
+        <v>0.75998786095162651</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="8"/>
+        <v>121.29406260787961</v>
+      </c>
+      <c r="E22" s="9">
+        <f>IF(B22=0,0,($E$7*($E$10-10)))</f>
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="H22" s="34">
+        <v>12</v>
+      </c>
+      <c r="I22" s="30">
+        <f t="shared" si="3"/>
+        <v>1.9895904608939261</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32">
+        <f>I6*I22*100</f>
+        <v>90.725325016763037</v>
+      </c>
+      <c r="V22" s="32">
+        <f>I22*100*(I6-I5)</f>
+        <v>45.362662508381518</v>
+      </c>
+      <c r="W22" s="32">
+        <f>$I$22*100*($I$6-$I$5*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="32">
+        <f>$I$22*100*($I$6-$I$5*L10)</f>
+        <v>-45.362662508381526</v>
+      </c>
+      <c r="Y22" s="32">
+        <f>$I$22*100*($I$6-$I$5*M10)</f>
+        <v>-90.725325016763037</v>
+      </c>
+      <c r="Z22" s="32">
+        <f t="shared" ref="Z22:AC22" si="17">$I$22*100*($I$6-$I$5*N10)</f>
+        <v>-136.08798752514457</v>
+      </c>
+      <c r="AA22" s="32">
+        <f t="shared" si="17"/>
+        <v>-181.4506500335261</v>
+      </c>
+      <c r="AB22" s="32">
+        <f t="shared" si="17"/>
+        <v>-226.81331254190761</v>
+      </c>
+      <c r="AC22" s="32">
+        <f t="shared" si="17"/>
+        <v>-272.17597505028914</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>L11</v>
+      </c>
+      <c r="C23" s="10">
+        <f t="shared" si="7"/>
+        <v>1.2296603590197317</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="8"/>
+        <v>168.21753711389931</v>
+      </c>
+      <c r="E23" s="9">
+        <f>IF(B23=0,0,($E$7*($E$10-11)))</f>
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="H23" s="34">
+        <v>13</v>
+      </c>
+      <c r="I23" s="30">
+        <f t="shared" si="3"/>
+        <v>3.2191573657263728</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32">
+        <f>I6*I23*100</f>
+        <v>146.79357587712261</v>
+      </c>
+      <c r="W23" s="32">
+        <f>I23*100*(I6-I5)</f>
+        <v>73.396787938561303</v>
+      </c>
+      <c r="X23" s="32">
+        <f>$I$23*100*($I$6-$I$5*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="32">
+        <f>$I$23*100*($I$6-$I$5*L10)</f>
+        <v>-73.396787938561317</v>
+      </c>
+      <c r="Z23" s="32">
+        <f t="shared" ref="Z23:AC23" si="18">$I$23*100*($I$6-$I$5*M10)</f>
+        <v>-146.79357587712261</v>
+      </c>
+      <c r="AA23" s="32">
+        <f t="shared" si="18"/>
+        <v>-220.19036381568395</v>
+      </c>
+      <c r="AB23" s="32">
+        <f t="shared" si="18"/>
+        <v>-293.58715175424527</v>
+      </c>
+      <c r="AC23" s="32">
+        <f t="shared" si="18"/>
+        <v>-366.98393969280653</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>L12</v>
+      </c>
+      <c r="C24" s="10">
+        <f t="shared" si="7"/>
+        <v>1.9895904608939261</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="8"/>
+        <v>226.81331254190761</v>
+      </c>
+      <c r="E24" s="9">
+        <f>IF(B24=0,0,($E$7*($E$10-12)))</f>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="H24" s="34">
+        <v>14</v>
+      </c>
+      <c r="I24" s="30">
+        <f t="shared" si="3"/>
+        <v>5.2085966177452718</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32">
+        <f>I6*I24*100</f>
+        <v>237.51200576918441</v>
+      </c>
+      <c r="X24" s="32">
+        <f>I24*100*(I6-I5)</f>
+        <v>118.75600288459222</v>
+      </c>
+      <c r="Y24" s="32">
+        <f>$I$24*100*($I$6-$I$5*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="32">
+        <f t="shared" ref="Z24:AC24" si="19">$I$24*100*($I$6-$I$5*L10)</f>
+        <v>-118.75600288459223</v>
+      </c>
+      <c r="AA24" s="32">
+        <f t="shared" si="19"/>
+        <v>-237.51200576918444</v>
+      </c>
+      <c r="AB24" s="32">
+        <f t="shared" si="19"/>
+        <v>-356.26800865377669</v>
+      </c>
+      <c r="AC24" s="32">
+        <f t="shared" si="19"/>
+        <v>-475.02401153836894</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>L13</v>
+      </c>
+      <c r="C25" s="10">
+        <f t="shared" si="7"/>
+        <v>3.2191573657263728</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" si="8"/>
+        <v>293.58715175424521</v>
+      </c>
+      <c r="E25" s="9">
+        <f>IF(B25=0,0,($E$7*($E$10-13)))</f>
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="H25" s="34">
+        <v>15</v>
+      </c>
+      <c r="I25" s="30">
+        <f t="shared" si="3"/>
+        <v>8.4275093275118511</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32">
+        <f>I6*I25*100</f>
+        <v>384.29442533454045</v>
+      </c>
+      <c r="Y25" s="32">
+        <f>I25*100*(I6-I5)</f>
+        <v>192.14721266727022</v>
+      </c>
+      <c r="Z25" s="32">
+        <f>$I$25*100*($I$6-$I$5*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="32">
+        <f>$I$25*100*($I$6-$I$5*L10)</f>
+        <v>-192.14721266727025</v>
+      </c>
+      <c r="AB25" s="32">
+        <f>$I$25*100*($I$6-$I$5*M10)</f>
+        <v>-384.29442533454045</v>
+      </c>
+      <c r="AC25" s="32">
+        <f>$I$25*100*($I$6-$I$5*N10)</f>
+        <v>-576.44163800181082</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>L14</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" si="7"/>
+        <v>5.2085966177452718</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="8"/>
+        <v>356.26800865377663</v>
+      </c>
+      <c r="E26" s="9">
+        <f>IF(B26=0,0,($E$7*($E$10-14)))</f>
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="H26" s="34">
+        <v>16</v>
+      </c>
+      <c r="I26" s="30">
+        <f t="shared" si="3"/>
+        <v>13.635710091914175</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32">
+        <f>I26*I6*100</f>
+        <v>621.78838019128648</v>
+      </c>
+      <c r="Z26" s="32">
+        <f>$I$26*100*($I$6-$I$5)</f>
+        <v>310.89419009564318</v>
+      </c>
+      <c r="AA26" s="32">
+        <f>$I$26*100*($I$6-$I$5*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="32">
+        <f>$I$26*100*($I$6-$I$5*L10)</f>
+        <v>-310.89419009564324</v>
+      </c>
+      <c r="AC26" s="32">
+        <f>$I$26*100*($I$6-$I$5*M10)</f>
+        <v>-621.78838019128636</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>L15</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="7"/>
+        <v>8.4275093275118511</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" si="8"/>
+        <v>384.29442533454045</v>
+      </c>
+      <c r="E27" s="9">
+        <f>IF(B27=0,0,($E$7*($E$10-15)))</f>
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="H27" s="34">
+        <v>17</v>
+      </c>
+      <c r="I27" s="30">
+        <f t="shared" si="3"/>
+        <v>22.062578928717137</v>
+      </c>
+      <c r="Z27" s="32">
+        <f>$I$27*$I$6*100</f>
+        <v>1006.0535991495016</v>
+      </c>
+      <c r="AA27" s="32">
+        <f>$I$27*100*($I$6-$I$5*J$10)</f>
+        <v>503.02679957475078</v>
+      </c>
+      <c r="AB27" s="32">
+        <f t="shared" ref="AB27:AC27" si="20">$I$27*100*($I$6-$I$5*K$10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="32">
+        <f t="shared" si="20"/>
+        <v>-503.02679957475084</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>L16</v>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" si="7"/>
+        <v>13.635710091914175</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" si="8"/>
+        <v>310.89419009564324</v>
+      </c>
+      <c r="E28" s="9">
+        <f>IF(B28=0,0,($E$7*($E$10-16)))</f>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H28" s="34">
+        <v>18</v>
+      </c>
+      <c r="I28" s="30">
+        <f t="shared" si="3"/>
+        <v>35.697252706664329</v>
+      </c>
+      <c r="AA28" s="32">
+        <f>$I$28*$I$6*100</f>
+        <v>1627.7947234238934</v>
+      </c>
+      <c r="AB28" s="32">
+        <f>$I$28*100*($I$6-$I$5*J$10)</f>
+        <v>813.89736171194681</v>
+      </c>
+      <c r="AC28" s="32">
+        <f>$I$28*100*($I$6-$I$5*K$10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>L17</v>
+      </c>
+      <c r="C29" s="10">
+        <f t="shared" si="7"/>
+        <v>22.062578928717137</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <f>IF(B29=0,0,($E$7*($E$10-17)))</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="34">
+        <v>19</v>
+      </c>
+      <c r="I29" s="30">
+        <f t="shared" si="3"/>
+        <v>57.758154879382886</v>
+      </c>
+      <c r="AB29" s="32">
+        <f>$I$29*$I$6*100</f>
+        <v>2633.7718624998597</v>
+      </c>
+      <c r="AC29" s="32">
+        <f>$I$29*100*($I$6-$I$5*J$10)</f>
+        <v>1316.8859312499299</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <f>IF(B30=0,0,($E$7*($E$10-18)))</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="34">
+        <v>20</v>
+      </c>
+      <c r="I30" s="30">
+        <f t="shared" si="3"/>
+        <v>93.452694594841518</v>
+      </c>
+      <c r="AC30" s="32">
+        <f>$I$30*$I$6*100</f>
+        <v>4261.4428735247739</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="24">
+        <f>IF(B30=0,0,IF(VALUE(MID(B30,2,2))&gt;=$E$10,0,"L"&amp;VALUE(MID(B30,2,2))+1))</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="10">
+        <f>IF(B31&lt;&gt;0,C30*$E$9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
+        <f>IF(B31=0,0,($E$7*($E$10-19)))</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="41">
+        <f>SUM(I11:I26)</f>
+        <v>35.683784674299567</v>
+      </c>
+      <c r="J31" s="37">
+        <f>SUMIF(J11:J30, "&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="37">
+        <f t="shared" ref="K31:AC31" si="21">SUMIF(K11:K30, "&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="37">
+        <f t="shared" si="21"/>
+        <v>-0.22800000000000004</v>
+      </c>
+      <c r="N31" s="37">
+        <f t="shared" si="21"/>
+        <v>-0.82490400000000008</v>
+      </c>
+      <c r="O31" s="37">
+        <f t="shared" si="21"/>
+        <v>-2.0186946720000005</v>
+      </c>
+      <c r="P31" s="37">
+        <f t="shared" si="21"/>
+        <v>-4.1782479792960006</v>
+      </c>
+      <c r="Q31" s="37">
+        <f t="shared" si="21"/>
+        <v>-7.9004052305009296</v>
+      </c>
+      <c r="R31" s="37">
+        <f t="shared" si="21"/>
+        <v>-14.150855662950505</v>
+      </c>
+      <c r="S31" s="37">
+        <f t="shared" si="21"/>
+        <v>-24.492084462653921</v>
+      </c>
+      <c r="T31" s="37">
+        <f t="shared" si="21"/>
+        <v>-41.452192660574049</v>
+      </c>
+      <c r="U31" s="37">
+        <f t="shared" si="21"/>
+        <v>-69.12164772480881</v>
+      </c>
+      <c r="V31" s="37">
+        <f t="shared" si="21"/>
+        <v>-114.11882601874066</v>
+      </c>
+      <c r="W31" s="37">
+        <f t="shared" si="21"/>
+        <v>-187.15226049832239</v>
+      </c>
+      <c r="X31" s="37">
+        <f t="shared" si="21"/>
+        <v>-305.54835748628562</v>
+      </c>
+      <c r="Y31" s="37">
+        <f t="shared" si="21"/>
+        <v>-497.34124241281023</v>
+      </c>
+      <c r="Z31" s="37">
+        <f t="shared" si="21"/>
+        <v>-807.89013022392714</v>
+      </c>
+      <c r="AA31" s="37">
+        <f t="shared" si="21"/>
+        <v>-1310.5862307023142</v>
+      </c>
+      <c r="AB31" s="37">
+        <f t="shared" si="21"/>
+        <v>-2124.1765212763444</v>
+      </c>
+      <c r="AC31" s="37">
+        <f t="shared" si="21"/>
+        <v>-3440.7936114251256</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" ref="E32:E34" si="22">IF(B32=0,0,($E$7*($E$10-20)))</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" s="57">
+        <f t="shared" ref="J32:AC32" si="23">SUM(J11:J30)</f>
+        <v>0.45600000000000007</v>
+      </c>
+      <c r="K32" s="57">
+        <f t="shared" si="23"/>
+        <v>0.965808</v>
+      </c>
+      <c r="L32" s="57">
+        <f t="shared" si="23"/>
+        <v>1.5626773440000004</v>
+      </c>
+      <c r="M32" s="57">
+        <f t="shared" si="23"/>
+        <v>2.3004119425920004</v>
+      </c>
+      <c r="N32" s="57">
+        <f t="shared" si="23"/>
+        <v>3.2660665231138566</v>
+      </c>
+      <c r="O32" s="57">
+        <f t="shared" si="23"/>
+        <v>4.6004956343982197</v>
+      </c>
+      <c r="P32" s="57">
+        <f t="shared" si="23"/>
+        <v>6.5316019364563225</v>
+      </c>
+      <c r="Q32" s="57">
+        <f t="shared" si="23"/>
+        <v>9.4281319331863305</v>
+      </c>
+      <c r="R32" s="57">
+        <f t="shared" si="23"/>
+        <v>13.886717467895481</v>
+      </c>
+      <c r="S32" s="57">
+        <f t="shared" si="23"/>
+        <v>20.872708863054889</v>
+      </c>
+      <c r="T32" s="57">
+        <f t="shared" si="23"/>
+        <v>31.948042940422802</v>
+      </c>
+      <c r="U32" s="57">
+        <f t="shared" si="23"/>
+        <v>49.63993347760411</v>
+      </c>
+      <c r="V32" s="57">
+        <f t="shared" si="23"/>
+        <v>78.037412366763462</v>
+      </c>
+      <c r="W32" s="57">
+        <f t="shared" si="23"/>
+        <v>123.75653320942332</v>
+      </c>
+      <c r="X32" s="57">
+        <f t="shared" si="23"/>
+        <v>197.50207073284705</v>
+      </c>
+      <c r="Y32" s="57">
+        <f t="shared" si="23"/>
+        <v>316.5943504457465</v>
+      </c>
+      <c r="Z32" s="57">
+        <f t="shared" si="23"/>
+        <v>509.0576590212176</v>
+      </c>
+      <c r="AA32" s="57">
+        <f t="shared" si="23"/>
+        <v>820.23529229633004</v>
+      </c>
+      <c r="AB32" s="57">
+        <f t="shared" si="23"/>
+        <v>1323.4927029354621</v>
+      </c>
+      <c r="AC32" s="57">
+        <f t="shared" si="23"/>
+        <v>2137.5351933495781</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="39">
+        <f>SUM($I11:$I11)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K33" s="39">
+        <f>SUM($I11:$I12)</f>
+        <v>2.6180000000000002E-2</v>
+      </c>
+      <c r="L33" s="39">
+        <f>SUM($I11:$I13)</f>
+        <v>5.2359240000000001E-2</v>
+      </c>
+      <c r="M33" s="39">
+        <f>SUM($I11:$I14)</f>
+        <v>9.4717250320000002E-2</v>
+      </c>
+      <c r="N33" s="39">
+        <f>SUM($I11:$I15)</f>
+        <v>0.16325251101776</v>
+      </c>
+      <c r="O33" s="39">
+        <f>SUM($I11:$I16)</f>
+        <v>0.27414256282673571</v>
+      </c>
+      <c r="P33" s="39">
+        <f>SUM($I11:$I17)</f>
+        <v>0.45356266665365841</v>
+      </c>
+      <c r="Q33" s="39">
+        <f>SUM($I11:$I18)</f>
+        <v>0.74386439464561938</v>
+      </c>
+      <c r="R33" s="39">
+        <f>SUM($I11:$I19)</f>
+        <v>1.2135725905366122</v>
+      </c>
+      <c r="S33" s="39">
+        <f>SUM($I11:$I20)</f>
+        <v>1.9735604514882388</v>
+      </c>
+      <c r="T33" s="39">
+        <f>SUM($I11:$I21)</f>
+        <v>3.2032208105079705</v>
+      </c>
+      <c r="U33" s="39">
+        <f>SUM($I11:$I22)</f>
+        <v>5.1928112714018964</v>
+      </c>
+      <c r="V33" s="39">
+        <f>SUM($I11:$I23)</f>
+        <v>8.4119686371282683</v>
+      </c>
+      <c r="W33" s="39">
+        <f>SUM($I11:$I24)</f>
+        <v>13.62056525487354</v>
+      </c>
+      <c r="X33" s="39">
+        <f>SUM($I11:$I25)</f>
+        <v>22.048074582385389</v>
+      </c>
+      <c r="Y33" s="39">
+        <f>SUM($I11:$I26)</f>
+        <v>35.683784674299567</v>
+      </c>
+      <c r="Z33" s="39">
+        <f>SUM($I11:$I27)</f>
+        <v>57.746363603016704</v>
+      </c>
+      <c r="AA33" s="39">
+        <f>SUM($I11:$I28)</f>
+        <v>93.443616309681033</v>
+      </c>
+      <c r="AB33" s="39">
+        <f>SUM($I11:$I29)</f>
+        <v>151.20177118906392</v>
+      </c>
+      <c r="AC33" s="39">
+        <f>SUM($I11:$I30)</f>
+        <v>244.65446578390544</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="25">
+        <f>SUM(C13:C34)</f>
+        <v>57.746363603016704</v>
+      </c>
+      <c r="D35" s="25">
+        <f>SUM(D13:D34)</f>
+        <v>2124.1765212763444</v>
+      </c>
+      <c r="E35" s="26">
+        <f>MAX(E13:E34)</f>
+        <v>3.6480000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+    </row>
+    <row r="49" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+    </row>
+    <row r="50" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+    </row>
+    <row r="51" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+    </row>
+    <row r="52" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+    </row>
+    <row r="53" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+    </row>
+    <row r="54" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11"/>
+    </row>
+    <row r="55" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+    </row>
+    <row r="56" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11"/>
+    </row>
+    <row r="57" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="11"/>
+      <c r="AC57" s="11"/>
+      <c r="AD57" s="11"/>
+    </row>
+    <row r="58" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
+    </row>
+    <row r="59" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="11"/>
+      <c r="AC59" s="11"/>
+      <c r="AD59" s="11"/>
+    </row>
+    <row r="60" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="11"/>
+      <c r="AB60" s="11"/>
+      <c r="AC60" s="11"/>
+      <c r="AD60" s="11"/>
+    </row>
+    <row r="61" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="11"/>
+      <c r="AA61" s="11"/>
+      <c r="AB61" s="11"/>
+      <c r="AC61" s="11"/>
+      <c r="AD61" s="11"/>
+    </row>
+    <row r="62" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="11"/>
+      <c r="AB62" s="11"/>
+      <c r="AC62" s="11"/>
+      <c r="AD62" s="11"/>
+    </row>
+    <row r="63" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="11"/>
+      <c r="AB63" s="11"/>
+      <c r="AC63" s="11"/>
+      <c r="AD63" s="11"/>
+    </row>
+    <row r="64" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="11"/>
+      <c r="AB64" s="11"/>
+      <c r="AC64" s="11"/>
+      <c r="AD64" s="11"/>
+    </row>
+    <row r="65" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="11"/>
+      <c r="AB65" s="11"/>
+      <c r="AC65" s="11"/>
+      <c r="AD65" s="11"/>
+    </row>
+    <row r="66" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="11"/>
+      <c r="W66" s="11"/>
+      <c r="X66" s="11"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="11"/>
+    </row>
+    <row r="67" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="11"/>
+      <c r="X67" s="11"/>
+      <c r="Y67" s="11"/>
+      <c r="Z67" s="11"/>
+    </row>
+    <row r="68" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="11"/>
+    </row>
+    <row r="69" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="11"/>
+      <c r="Y69" s="11"/>
+      <c r="Z69" s="11"/>
+    </row>
+    <row r="70" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
+      <c r="W70" s="11"/>
+      <c r="X70" s="11"/>
+      <c r="Y70" s="11"/>
+      <c r="Z70" s="11"/>
+    </row>
+    <row r="71" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="11"/>
+    </row>
+    <row r="72" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="11"/>
+    </row>
+    <row r="73" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="11"/>
+      <c r="X73" s="11"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="11"/>
+    </row>
+    <row r="74" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="11"/>
+    </row>
+    <row r="75" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
+      <c r="X75" s="11"/>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="11"/>
+    </row>
+    <row r="76" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="11"/>
+    </row>
+    <row r="77" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
+    </row>
+    <row r="78" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="11"/>
+    </row>
+    <row r="79" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="11"/>
+    </row>
+    <row r="80" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="11"/>
+    </row>
+    <row r="81" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="11"/>
+    </row>
+    <row r="82" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="11"/>
+      <c r="W82" s="11"/>
+      <c r="X82" s="11"/>
+      <c r="Y82" s="11"/>
+      <c r="Z82" s="11"/>
+    </row>
+    <row r="83" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="11"/>
+      <c r="V83" s="11"/>
+      <c r="W83" s="11"/>
+      <c r="X83" s="11"/>
+      <c r="Y83" s="11"/>
+      <c r="Z83" s="11"/>
+    </row>
+    <row r="84" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="11"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
+      <c r="Y84" s="11"/>
+      <c r="Z84" s="11"/>
+    </row>
+    <row r="85" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="11"/>
+      <c r="V85" s="11"/>
+      <c r="W85" s="11"/>
+      <c r="X85" s="11"/>
+      <c r="Y85" s="11"/>
+      <c r="Z85" s="11"/>
+    </row>
+    <row r="86" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
+      <c r="Y86" s="11"/>
+      <c r="Z86" s="11"/>
+    </row>
+    <row r="87" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="11"/>
+      <c r="Y87" s="11"/>
+      <c r="Z87" s="11"/>
+    </row>
+    <row r="88" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="11"/>
+      <c r="U88" s="11"/>
+      <c r="V88" s="11"/>
+      <c r="W88" s="11"/>
+      <c r="X88" s="11"/>
+      <c r="Y88" s="11"/>
+      <c r="Z88" s="11"/>
+    </row>
+    <row r="89" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="11"/>
+      <c r="T89" s="11"/>
+      <c r="U89" s="11"/>
+      <c r="V89" s="11"/>
+      <c r="W89" s="11"/>
+      <c r="X89" s="11"/>
+      <c r="Y89" s="11"/>
+      <c r="Z89" s="11"/>
+    </row>
+    <row r="90" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="11"/>
+      <c r="V90" s="11"/>
+      <c r="W90" s="11"/>
+      <c r="X90" s="11"/>
+      <c r="Y90" s="11"/>
+      <c r="Z90" s="11"/>
+    </row>
+    <row r="91" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
+      <c r="T91" s="11"/>
+      <c r="U91" s="11"/>
+      <c r="V91" s="11"/>
+      <c r="W91" s="11"/>
+      <c r="X91" s="11"/>
+      <c r="Y91" s="11"/>
+      <c r="Z91" s="11"/>
+    </row>
+    <row r="92" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="11"/>
+      <c r="V92" s="11"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="11"/>
+      <c r="Y92" s="11"/>
+      <c r="Z92" s="11"/>
+    </row>
+    <row r="93" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="11"/>
+      <c r="U93" s="11"/>
+      <c r="V93" s="11"/>
+      <c r="W93" s="11"/>
+      <c r="X93" s="11"/>
+      <c r="Y93" s="11"/>
+      <c r="Z93" s="11"/>
+    </row>
+    <row r="94" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="11"/>
+      <c r="U94" s="11"/>
+      <c r="V94" s="11"/>
+      <c r="W94" s="11"/>
+      <c r="X94" s="11"/>
+      <c r="Y94" s="11"/>
+      <c r="Z94" s="11"/>
+    </row>
+    <row r="95" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="11"/>
+      <c r="U95" s="11"/>
+      <c r="V95" s="11"/>
+      <c r="W95" s="11"/>
+      <c r="X95" s="11"/>
+      <c r="Y95" s="11"/>
+      <c r="Z95" s="11"/>
+    </row>
+    <row r="96" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="11"/>
+      <c r="T96" s="11"/>
+      <c r="U96" s="11"/>
+      <c r="V96" s="11"/>
+      <c r="W96" s="11"/>
+      <c r="X96" s="11"/>
+      <c r="Y96" s="11"/>
+      <c r="Z96" s="11"/>
+    </row>
+    <row r="97" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="11"/>
+      <c r="U97" s="11"/>
+      <c r="V97" s="11"/>
+      <c r="W97" s="11"/>
+      <c r="X97" s="11"/>
+      <c r="Y97" s="11"/>
+      <c r="Z97" s="11"/>
+    </row>
+    <row r="98" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="11"/>
+      <c r="T98" s="11"/>
+      <c r="U98" s="11"/>
+      <c r="V98" s="11"/>
+      <c r="W98" s="11"/>
+      <c r="X98" s="11"/>
+      <c r="Y98" s="11"/>
+      <c r="Z98" s="11"/>
+    </row>
+    <row r="99" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="11"/>
+      <c r="S99" s="11"/>
+      <c r="T99" s="11"/>
+      <c r="U99" s="11"/>
+      <c r="V99" s="11"/>
+      <c r="W99" s="11"/>
+      <c r="X99" s="11"/>
+      <c r="Y99" s="11"/>
+      <c r="Z99" s="11"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="E2:E10" name="DATA_2"/>
+  </protectedRanges>
+  <mergeCells count="6">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="expression" dxfId="19" priority="5">
+      <formula>$J$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="expression" dxfId="18" priority="6">
+      <formula>$K$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="expression" dxfId="17" priority="7">
+      <formula>$L$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10">
+    <cfRule type="expression" dxfId="16" priority="8">
+      <formula>$M$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>$N$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>$O$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P10">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$P$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$Q$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$R$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>$S$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10">
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>$T$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U10">
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>$U$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V10">
+    <cfRule type="expression" dxfId="7" priority="17">
+      <formula>$V$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W10">
+    <cfRule type="expression" dxfId="6" priority="18">
+      <formula>$W$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X10">
+    <cfRule type="expression" dxfId="5" priority="19">
+      <formula>$X$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10">
+    <cfRule type="expression" dxfId="4" priority="20">
+      <formula>$Y$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z10">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$Z$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA10">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$AA$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB10">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$AB$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC10">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$AC$10=$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:W29"/>
   <sheetViews>
@@ -8333,7 +12487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1C529B-8D3D-4769-84DC-B22FB77D121C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8349,7 +12503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:AU56"/>
   <sheetViews>
@@ -8430,7 +12584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="K169:L169"/>
   <sheetViews>

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C07968B-0E69-4CB8-83B5-6A061342FFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B28D8E-E764-4974-B0D3-9B8547E73FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,7 +379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="13">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -390,6 +390,9 @@
     <numFmt numFmtId="183" formatCode="#,##0.0"/>
     <numFmt numFmtId="184" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="185" formatCode="#,##0_ "/>
+    <numFmt numFmtId="186" formatCode="0.00000_ "/>
+    <numFmt numFmtId="187" formatCode="#,##0.00000_);\(#,##0.00000\)"/>
+    <numFmt numFmtId="188" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1218,7 +1221,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1545,11 +1548,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="188" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="188" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="188" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="19" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -7115,7 +7131,7 @@
   <dimension ref="B1:AD99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7152,8 +7168,8 @@
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="45"/>
-      <c r="E2" s="122">
-        <v>0.22800000000000001</v>
+      <c r="E2" s="123">
+        <v>0.11</v>
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
@@ -7185,32 +7201,32 @@
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="45"/>
-      <c r="E3" s="123">
+      <c r="E3" s="124">
         <f>E2</f>
-        <v>0.22800000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="114">
         <f>SUM(GBPJPY!C13:C37)</f>
-        <v>115.49272720603341</v>
+        <v>12.759243790619122</v>
       </c>
       <c r="L3" s="114"/>
       <c r="M3" s="115">
         <f>K3*91</f>
-        <v>10509.838175749041</v>
+        <v>1161.09118494634</v>
       </c>
       <c r="N3" s="115"/>
       <c r="O3" s="116">
         <f>M3+GBPJPY!D35</f>
-        <v>12634.014697025385</v>
+        <v>1339.9022866437358</v>
       </c>
       <c r="P3" s="116"/>
       <c r="Q3" s="116"/>
       <c r="R3" s="111">
         <f>O3*2</f>
-        <v>25268.029394050769</v>
+        <v>2679.8045732874716</v>
       </c>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
@@ -7226,16 +7242,16 @@
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="45"/>
-      <c r="E4" s="123">
+      <c r="E4" s="124">
         <f>E3</f>
-        <v>0.22800000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H4" s="28" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="52">
         <f>E9</f>
-        <v>1.6180000000000001</v>
+        <v>1.3819999999999999</v>
       </c>
       <c r="J4" s="1">
         <v>1.3819999999999999</v>
@@ -7262,15 +7278,15 @@
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="E5" s="123">
+      <c r="E5" s="124">
         <f>E4</f>
-        <v>0.22800000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H5" s="28" t="s">
         <v>53</v>
       </c>
       <c r="I5" s="52">
-        <v>0.22800000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="J5" s="2">
         <v>1.6180000000000001</v>
@@ -7297,16 +7313,16 @@
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="45"/>
-      <c r="E6" s="123">
+      <c r="E6" s="124">
         <f>E5</f>
-        <v>0.22800000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>71</v>
       </c>
       <c r="I6" s="52">
-        <f>I5*2</f>
-        <v>0.45600000000000002</v>
+        <f>I5*3</f>
+        <v>0.33</v>
       </c>
       <c r="J6" s="2">
         <v>2.6179999999999999</v>
@@ -7319,9 +7335,9 @@
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="45"/>
-      <c r="E7" s="123">
+      <c r="E7" s="124">
         <f>E6</f>
-        <v>0.22800000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -7330,79 +7346,79 @@
       </c>
       <c r="K7" s="38">
         <f>J7-I$5</f>
-        <v>2199.7719999999999</v>
+        <v>2199.89</v>
       </c>
       <c r="L7" s="38">
         <f t="shared" ref="L7:AC7" si="0">K7-$I$5</f>
-        <v>2199.5439999999999</v>
+        <v>2199.7799999999997</v>
       </c>
       <c r="M7" s="38">
         <f t="shared" si="0"/>
-        <v>2199.3159999999998</v>
+        <v>2199.6699999999996</v>
       </c>
       <c r="N7" s="38">
         <f t="shared" si="0"/>
-        <v>2199.0879999999997</v>
+        <v>2199.5599999999995</v>
       </c>
       <c r="O7" s="38">
         <f t="shared" si="0"/>
-        <v>2198.8599999999997</v>
+        <v>2199.4499999999994</v>
       </c>
       <c r="P7" s="38">
         <f t="shared" si="0"/>
-        <v>2198.6319999999996</v>
+        <v>2199.3399999999992</v>
       </c>
       <c r="Q7" s="38">
         <f t="shared" si="0"/>
-        <v>2198.4039999999995</v>
+        <v>2199.2299999999991</v>
       </c>
       <c r="R7" s="38">
         <f t="shared" si="0"/>
-        <v>2198.1759999999995</v>
+        <v>2199.119999999999</v>
       </c>
       <c r="S7" s="38">
         <f t="shared" si="0"/>
-        <v>2197.9479999999994</v>
+        <v>2199.0099999999989</v>
       </c>
       <c r="T7" s="38">
         <f t="shared" si="0"/>
-        <v>2197.7199999999993</v>
+        <v>2198.8999999999987</v>
       </c>
       <c r="U7" s="38">
         <f t="shared" si="0"/>
-        <v>2197.4919999999993</v>
+        <v>2198.7899999999986</v>
       </c>
       <c r="V7" s="38">
         <f t="shared" si="0"/>
-        <v>2197.2639999999992</v>
+        <v>2198.6799999999985</v>
       </c>
       <c r="W7" s="38">
         <f t="shared" si="0"/>
-        <v>2197.0359999999991</v>
+        <v>2198.5699999999983</v>
       </c>
       <c r="X7" s="38">
         <f t="shared" si="0"/>
-        <v>2196.8079999999991</v>
+        <v>2198.4599999999982</v>
       </c>
       <c r="Y7" s="38">
         <f t="shared" si="0"/>
-        <v>2196.579999999999</v>
+        <v>2198.3499999999981</v>
       </c>
       <c r="Z7" s="38">
         <f t="shared" si="0"/>
-        <v>2196.351999999999</v>
+        <v>2198.239999999998</v>
       </c>
       <c r="AA7" s="38">
         <f t="shared" si="0"/>
-        <v>2196.1239999999989</v>
+        <v>2198.1299999999978</v>
       </c>
       <c r="AB7" s="38">
         <f t="shared" si="0"/>
-        <v>2195.8959999999988</v>
+        <v>2198.0199999999977</v>
       </c>
       <c r="AC7" s="38">
         <f t="shared" si="0"/>
-        <v>2195.6679999999988</v>
+        <v>2197.9099999999976</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -7421,79 +7437,79 @@
       </c>
       <c r="K8" s="38">
         <f t="shared" ref="K8:AC8" si="1">$J$7-K7</f>
-        <v>0.22800000000006548</v>
+        <v>0.11000000000012733</v>
       </c>
       <c r="L8" s="38">
         <f t="shared" si="1"/>
-        <v>0.45600000000013097</v>
+        <v>0.22000000000025466</v>
       </c>
       <c r="M8" s="38">
         <f t="shared" si="1"/>
-        <v>0.68400000000019645</v>
+        <v>0.33000000000038199</v>
       </c>
       <c r="N8" s="38">
         <f t="shared" si="1"/>
-        <v>0.91200000000026193</v>
+        <v>0.44000000000050932</v>
       </c>
       <c r="O8" s="38">
         <f t="shared" si="1"/>
-        <v>1.1400000000003274</v>
+        <v>0.55000000000063665</v>
       </c>
       <c r="P8" s="38">
         <f t="shared" si="1"/>
-        <v>1.3680000000003929</v>
+        <v>0.66000000000076398</v>
       </c>
       <c r="Q8" s="38">
         <f t="shared" si="1"/>
-        <v>1.5960000000004584</v>
+        <v>0.7700000000008913</v>
       </c>
       <c r="R8" s="38">
         <f t="shared" si="1"/>
-        <v>1.8240000000005239</v>
+        <v>0.88000000000101863</v>
       </c>
       <c r="S8" s="38">
         <f t="shared" si="1"/>
-        <v>2.0520000000005894</v>
+        <v>0.99000000000114596</v>
       </c>
       <c r="T8" s="38">
         <f t="shared" si="1"/>
-        <v>2.2800000000006548</v>
+        <v>1.1000000000012733</v>
       </c>
       <c r="U8" s="38">
         <f t="shared" si="1"/>
-        <v>2.5080000000007203</v>
+        <v>1.2100000000014006</v>
       </c>
       <c r="V8" s="38">
         <f t="shared" si="1"/>
-        <v>2.7360000000007858</v>
+        <v>1.320000000001528</v>
       </c>
       <c r="W8" s="38">
         <f t="shared" si="1"/>
-        <v>2.9640000000008513</v>
+        <v>1.4300000000016553</v>
       </c>
       <c r="X8" s="38">
         <f t="shared" si="1"/>
-        <v>3.1920000000009168</v>
+        <v>1.5400000000017826</v>
       </c>
       <c r="Y8" s="38">
         <f t="shared" si="1"/>
-        <v>3.4200000000009823</v>
+        <v>1.6500000000019099</v>
       </c>
       <c r="Z8" s="38">
         <f t="shared" si="1"/>
-        <v>3.6480000000010477</v>
+        <v>1.7600000000020373</v>
       </c>
       <c r="AA8" s="38">
         <f t="shared" si="1"/>
-        <v>3.8760000000011132</v>
+        <v>1.8700000000021646</v>
       </c>
       <c r="AB8" s="38">
         <f t="shared" si="1"/>
-        <v>4.1040000000011787</v>
+        <v>1.9800000000022919</v>
       </c>
       <c r="AC8" s="38">
         <f t="shared" si="1"/>
-        <v>4.3320000000012442</v>
+        <v>2.0900000000024193</v>
       </c>
     </row>
     <row r="9" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -7503,7 +7519,7 @@
       <c r="C9" s="44"/>
       <c r="D9" s="45"/>
       <c r="E9" s="112">
-        <v>1.6180000000000001</v>
+        <v>1.3819999999999999</v>
       </c>
       <c r="H9" s="29" t="s">
         <v>14</v>
@@ -7658,85 +7674,85 @@
         <f>GBPJPY!C13</f>
         <v>0.01</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="125">
         <f>I11*I6*100</f>
-        <v>0.45600000000000007</v>
-      </c>
-      <c r="K11" s="31">
+        <v>0.33</v>
+      </c>
+      <c r="K11" s="125">
         <f>I11*100*(I6-I5)</f>
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="L11" s="31">
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="L11" s="125">
         <f t="shared" ref="L11:AC11" si="2">$I$11*100*($I$6-$I$5*K10)</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="M11" s="125">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="31">
+      <c r="N11" s="125">
+        <f>$I$11*100*($I$6-$I$5*M10)</f>
+        <v>-0.10999999999999999</v>
+      </c>
+      <c r="O11" s="125">
         <f t="shared" si="2"/>
-        <v>-0.22800000000000004</v>
-      </c>
-      <c r="N11" s="31">
-        <f>$I$11*100*($I$6-$I$5*M10)</f>
-        <v>-0.45600000000000002</v>
-      </c>
-      <c r="O11" s="31">
+        <v>-0.22000000000000003</v>
+      </c>
+      <c r="P11" s="125">
         <f t="shared" si="2"/>
-        <v>-0.68400000000000016</v>
-      </c>
-      <c r="P11" s="31">
+        <v>-0.33</v>
+      </c>
+      <c r="Q11" s="125">
         <f t="shared" si="2"/>
-        <v>-0.91200000000000014</v>
-      </c>
-      <c r="Q11" s="31">
+        <v>-0.44</v>
+      </c>
+      <c r="R11" s="125">
         <f t="shared" si="2"/>
-        <v>-1.1400000000000001</v>
-      </c>
-      <c r="R11" s="31">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="S11" s="125">
         <f t="shared" si="2"/>
-        <v>-1.3680000000000001</v>
-      </c>
-      <c r="S11" s="31">
+        <v>-0.65999999999999992</v>
+      </c>
+      <c r="T11" s="125">
         <f t="shared" si="2"/>
-        <v>-1.5960000000000001</v>
-      </c>
-      <c r="T11" s="31">
+        <v>-0.77</v>
+      </c>
+      <c r="U11" s="125">
         <f t="shared" si="2"/>
-        <v>-1.8240000000000003</v>
-      </c>
-      <c r="U11" s="31">
+        <v>-0.87999999999999989</v>
+      </c>
+      <c r="V11" s="125">
         <f t="shared" si="2"/>
-        <v>-2.052</v>
-      </c>
-      <c r="V11" s="31">
+        <v>-0.99</v>
+      </c>
+      <c r="W11" s="125">
         <f t="shared" si="2"/>
-        <v>-2.2800000000000002</v>
-      </c>
-      <c r="W11" s="31">
+        <v>-1.0999999999999999</v>
+      </c>
+      <c r="X11" s="125">
         <f t="shared" si="2"/>
-        <v>-2.508</v>
-      </c>
-      <c r="X11" s="31">
+        <v>-1.21</v>
+      </c>
+      <c r="Y11" s="125">
         <f t="shared" si="2"/>
-        <v>-2.7360000000000002</v>
-      </c>
-      <c r="Y11" s="31">
+        <v>-1.3199999999999998</v>
+      </c>
+      <c r="Z11" s="125">
         <f t="shared" si="2"/>
-        <v>-2.964</v>
-      </c>
-      <c r="Z11" s="31">
+        <v>-1.43</v>
+      </c>
+      <c r="AA11" s="125">
         <f t="shared" si="2"/>
-        <v>-3.1920000000000002</v>
-      </c>
-      <c r="AA11" s="31">
+        <v>-1.54</v>
+      </c>
+      <c r="AB11" s="125">
         <f t="shared" si="2"/>
-        <v>-3.4200000000000004</v>
-      </c>
-      <c r="AB11" s="31">
+        <v>-1.65</v>
+      </c>
+      <c r="AC11" s="125">
         <f t="shared" si="2"/>
-        <v>-3.6480000000000001</v>
-      </c>
-      <c r="AC11" s="31">
-        <f t="shared" si="2"/>
-        <v>-3.8759999999999999</v>
+        <v>-1.7599999999999998</v>
       </c>
     </row>
     <row r="12" spans="2:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7757,84 +7773,84 @@
       </c>
       <c r="I12" s="30">
         <f t="shared" ref="I12:I30" si="3">I11*$I$4</f>
-        <v>1.618E-2</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="31">
+        <v>1.3819999999999999E-2</v>
+      </c>
+      <c r="J12" s="126"/>
+      <c r="K12" s="125">
         <f>I12*100*I6</f>
-        <v>0.73780800000000002</v>
-      </c>
-      <c r="L12" s="31">
+        <v>0.45605999999999997</v>
+      </c>
+      <c r="L12" s="125">
         <f>I12*100*(I6-I5)</f>
-        <v>0.36890400000000001</v>
-      </c>
-      <c r="M12" s="31">
+        <v>0.30404000000000003</v>
+      </c>
+      <c r="M12" s="125">
         <f t="shared" ref="M12:AC12" si="4">$I$12*100*($I$6-$I$5*K10)</f>
+        <v>0.15202000000000002</v>
+      </c>
+      <c r="N12" s="125">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N12" s="31">
+      <c r="O12" s="125">
         <f t="shared" si="4"/>
-        <v>-0.36890400000000001</v>
-      </c>
-      <c r="O12" s="31">
+        <v>-0.15201999999999996</v>
+      </c>
+      <c r="P12" s="125">
         <f t="shared" si="4"/>
-        <v>-0.73780800000000002</v>
-      </c>
-      <c r="P12" s="31">
+        <v>-0.30404000000000003</v>
+      </c>
+      <c r="Q12" s="125">
         <f t="shared" si="4"/>
-        <v>-1.1067120000000001</v>
-      </c>
-      <c r="Q12" s="31">
+        <v>-0.45605999999999997</v>
+      </c>
+      <c r="R12" s="125">
         <f t="shared" si="4"/>
-        <v>-1.475616</v>
-      </c>
-      <c r="R12" s="31">
+        <v>-0.60807999999999995</v>
+      </c>
+      <c r="S12" s="125">
         <f t="shared" si="4"/>
-        <v>-1.8445200000000002</v>
-      </c>
-      <c r="S12" s="31">
+        <v>-0.7601</v>
+      </c>
+      <c r="T12" s="125">
         <f t="shared" si="4"/>
-        <v>-2.2134239999999998</v>
-      </c>
-      <c r="T12" s="31">
+        <v>-0.91211999999999982</v>
+      </c>
+      <c r="U12" s="125">
         <f t="shared" si="4"/>
-        <v>-2.582328</v>
-      </c>
-      <c r="U12" s="31">
+        <v>-1.0641399999999999</v>
+      </c>
+      <c r="V12" s="125">
         <f t="shared" si="4"/>
-        <v>-2.9512320000000001</v>
-      </c>
-      <c r="V12" s="31">
+        <v>-1.2161599999999997</v>
+      </c>
+      <c r="W12" s="125">
         <f t="shared" si="4"/>
-        <v>-3.3201359999999998</v>
-      </c>
-      <c r="W12" s="31">
+        <v>-1.36818</v>
+      </c>
+      <c r="X12" s="125">
         <f t="shared" si="4"/>
-        <v>-3.6890400000000003</v>
-      </c>
-      <c r="X12" s="31">
+        <v>-1.5201999999999998</v>
+      </c>
+      <c r="Y12" s="125">
         <f t="shared" si="4"/>
-        <v>-4.057944</v>
-      </c>
-      <c r="Y12" s="31">
+        <v>-1.6722199999999998</v>
+      </c>
+      <c r="Z12" s="125">
         <f t="shared" si="4"/>
-        <v>-4.4268479999999997</v>
-      </c>
-      <c r="Z12" s="31">
+        <v>-1.8242399999999996</v>
+      </c>
+      <c r="AA12" s="125">
         <f t="shared" si="4"/>
-        <v>-4.7957519999999993</v>
-      </c>
-      <c r="AA12" s="31">
+        <v>-1.9762599999999997</v>
+      </c>
+      <c r="AB12" s="125">
         <f t="shared" si="4"/>
-        <v>-5.1646559999999999</v>
-      </c>
-      <c r="AB12" s="31">
+        <v>-2.1282799999999997</v>
+      </c>
+      <c r="AC12" s="125">
         <f t="shared" si="4"/>
-        <v>-5.5335600000000005</v>
-      </c>
-      <c r="AC12" s="31">
-        <f t="shared" si="4"/>
-        <v>-5.9024640000000002</v>
+        <v>-2.2802999999999995</v>
       </c>
     </row>
     <row r="13" spans="2:29" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
@@ -7848,92 +7864,92 @@
       </c>
       <c r="D13" s="9">
         <f>+C13*E13*100</f>
-        <v>3.6480000000000006</v>
-      </c>
-      <c r="E13" s="9">
+        <v>1.76</v>
+      </c>
+      <c r="E13" s="122">
         <f>IF(B13=0,0,$E$2+$E$3+$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
-        <v>3.6480000000000001</v>
+        <v>1.76</v>
       </c>
       <c r="H13" s="34">
         <v>3</v>
       </c>
       <c r="I13" s="30">
         <f t="shared" si="3"/>
-        <v>2.6179240000000003E-2</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="31">
+        <v>1.9099239999999996E-2</v>
+      </c>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="125">
         <f>I13*100*I6</f>
-        <v>1.1937733440000002</v>
-      </c>
-      <c r="M13" s="31">
+        <v>0.63027491999999996</v>
+      </c>
+      <c r="M13" s="125">
         <f>I13*100*(I6-I5)</f>
-        <v>0.59688667200000012</v>
-      </c>
-      <c r="N13" s="31">
+        <v>0.42018327999999999</v>
+      </c>
+      <c r="N13" s="125">
         <f t="shared" ref="N13:AC13" si="5">$I$13*100*($I$6-$I$5*K10)</f>
+        <v>0.21009164</v>
+      </c>
+      <c r="O13" s="125">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O13" s="31">
+      <c r="P13" s="125">
         <f t="shared" si="5"/>
-        <v>-0.59688667200000023</v>
-      </c>
-      <c r="P13" s="31">
+        <v>-0.21009163999999994</v>
+      </c>
+      <c r="Q13" s="125">
         <f t="shared" si="5"/>
-        <v>-1.1937733440000002</v>
-      </c>
-      <c r="Q13" s="31">
+        <v>-0.42018327999999999</v>
+      </c>
+      <c r="R13" s="125">
         <f t="shared" si="5"/>
-        <v>-1.7906600160000006</v>
-      </c>
-      <c r="R13" s="31">
+        <v>-0.63027491999999996</v>
+      </c>
+      <c r="S13" s="125">
         <f t="shared" si="5"/>
-        <v>-2.3875466880000009</v>
-      </c>
-      <c r="S13" s="31">
+        <v>-0.84036655999999987</v>
+      </c>
+      <c r="T13" s="125">
         <f t="shared" si="5"/>
-        <v>-2.9844333600000006</v>
-      </c>
-      <c r="T13" s="31">
+        <v>-1.0504582</v>
+      </c>
+      <c r="U13" s="125">
         <f t="shared" si="5"/>
-        <v>-3.5813200320000007</v>
-      </c>
-      <c r="U13" s="31">
+        <v>-1.2605498399999997</v>
+      </c>
+      <c r="V13" s="125">
         <f t="shared" si="5"/>
-        <v>-4.1782067040000008</v>
-      </c>
-      <c r="V13" s="31">
+        <v>-1.4706414799999998</v>
+      </c>
+      <c r="W13" s="125">
         <f t="shared" si="5"/>
-        <v>-4.7750933760000018</v>
-      </c>
-      <c r="W13" s="31">
+        <v>-1.6807331199999995</v>
+      </c>
+      <c r="X13" s="125">
         <f t="shared" si="5"/>
-        <v>-5.3719800480000011</v>
-      </c>
-      <c r="X13" s="31">
+        <v>-1.8908247599999997</v>
+      </c>
+      <c r="Y13" s="125">
         <f t="shared" si="5"/>
-        <v>-5.9688667200000012</v>
-      </c>
-      <c r="Y13" s="31">
+        <v>-2.1009163999999996</v>
+      </c>
+      <c r="Z13" s="125">
         <f t="shared" si="5"/>
-        <v>-6.5657533920000013</v>
-      </c>
-      <c r="Z13" s="31">
+        <v>-2.3110080399999995</v>
+      </c>
+      <c r="AA13" s="125">
         <f t="shared" si="5"/>
-        <v>-7.1626400640000014</v>
-      </c>
-      <c r="AA13" s="31">
+        <v>-2.5210996799999994</v>
+      </c>
+      <c r="AB13" s="125">
         <f t="shared" si="5"/>
-        <v>-7.7595267360000006</v>
-      </c>
-      <c r="AB13" s="31">
+        <v>-2.7311913199999993</v>
+      </c>
+      <c r="AC13" s="125">
         <f t="shared" si="5"/>
-        <v>-8.3564134080000017</v>
-      </c>
-      <c r="AC13" s="31">
-        <f t="shared" si="5"/>
-        <v>-8.9533000800000018</v>
+        <v>-2.9412829599999997</v>
       </c>
     </row>
     <row r="14" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -7943,93 +7959,93 @@
       </c>
       <c r="C14" s="10">
         <f t="shared" ref="C14:C34" si="7">IF(B14&lt;&gt;0,C13*$E$9,0)</f>
-        <v>1.618E-2</v>
+        <v>1.3819999999999999E-2</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" ref="D14:D34" si="8">+C14*E14*100</f>
-        <v>5.5335599999999996</v>
-      </c>
-      <c r="E14" s="9">
+        <v>2.2802999999999995</v>
+      </c>
+      <c r="E14" s="122">
         <f>IF(B14=0,0,$E$3+$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
-        <v>3.42</v>
+        <v>1.65</v>
       </c>
       <c r="H14" s="34">
         <v>4</v>
       </c>
       <c r="I14" s="30">
         <f t="shared" si="3"/>
-        <v>4.2358010320000007E-2</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="31">
+        <v>2.6395149679999994E-2</v>
+      </c>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="125">
         <f>I14*100*I6</f>
-        <v>1.9315252705920003</v>
-      </c>
-      <c r="N14" s="31">
+        <v>0.8710399394399998</v>
+      </c>
+      <c r="N14" s="125">
         <f>I14*100*(I6-I5)</f>
-        <v>0.96576263529600015</v>
-      </c>
-      <c r="O14" s="31">
+        <v>0.58069329295999994</v>
+      </c>
+      <c r="O14" s="125">
         <f t="shared" ref="O14:AC14" si="9">$I$14*100*($I$6-$I$5*K10)</f>
+        <v>0.29034664647999997</v>
+      </c>
+      <c r="P14" s="125">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P14" s="31">
+      <c r="Q14" s="125">
         <f t="shared" si="9"/>
-        <v>-0.96576263529600026</v>
-      </c>
-      <c r="Q14" s="31">
+        <v>-0.29034664647999991</v>
+      </c>
+      <c r="R14" s="125">
         <f t="shared" si="9"/>
-        <v>-1.9315252705920003</v>
-      </c>
-      <c r="R14" s="31">
+        <v>-0.58069329295999994</v>
+      </c>
+      <c r="S14" s="125">
         <f t="shared" si="9"/>
-        <v>-2.897287905888001</v>
-      </c>
-      <c r="S14" s="31">
+        <v>-0.8710399394399998</v>
+      </c>
+      <c r="T14" s="125">
         <f t="shared" si="9"/>
-        <v>-3.863050541184001</v>
-      </c>
-      <c r="T14" s="31">
+        <v>-1.1613865859199997</v>
+      </c>
+      <c r="U14" s="125">
         <f t="shared" si="9"/>
-        <v>-4.8288131764800006</v>
-      </c>
-      <c r="U14" s="31">
+        <v>-1.4517332323999999</v>
+      </c>
+      <c r="V14" s="125">
         <f t="shared" si="9"/>
-        <v>-5.7945758117760011</v>
-      </c>
-      <c r="V14" s="31">
+        <v>-1.7420798788799994</v>
+      </c>
+      <c r="W14" s="125">
         <f t="shared" si="9"/>
-        <v>-6.7603384470720007</v>
-      </c>
-      <c r="W14" s="31">
+        <v>-2.0324265253599996</v>
+      </c>
+      <c r="X14" s="125">
         <f t="shared" si="9"/>
-        <v>-7.7261010823680021</v>
-      </c>
-      <c r="X14" s="31">
+        <v>-2.3227731718399993</v>
+      </c>
+      <c r="Y14" s="125">
         <f t="shared" si="9"/>
-        <v>-8.6918637176640008</v>
-      </c>
-      <c r="Y14" s="31">
+        <v>-2.6131198183199995</v>
+      </c>
+      <c r="Z14" s="125">
         <f t="shared" si="9"/>
-        <v>-9.6576263529600013</v>
-      </c>
-      <c r="Z14" s="31">
+        <v>-2.9034664647999988</v>
+      </c>
+      <c r="AA14" s="125">
         <f t="shared" si="9"/>
-        <v>-10.623388988256002</v>
-      </c>
-      <c r="AA14" s="31">
+        <v>-3.193813111279999</v>
+      </c>
+      <c r="AB14" s="125">
         <f t="shared" si="9"/>
-        <v>-11.589151623552002</v>
-      </c>
-      <c r="AB14" s="31">
+        <v>-3.4841597577599988</v>
+      </c>
+      <c r="AC14" s="125">
         <f t="shared" si="9"/>
-        <v>-12.554914258848001</v>
-      </c>
-      <c r="AC14" s="31">
-        <f t="shared" si="9"/>
-        <v>-13.520676894144001</v>
+        <v>-3.7745064042399989</v>
       </c>
     </row>
     <row r="15" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -8039,90 +8055,90 @@
       </c>
       <c r="C15" s="10">
         <f t="shared" si="7"/>
-        <v>2.6179240000000003E-2</v>
+        <v>1.9099239999999996E-2</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="8"/>
-        <v>8.3564134080000017</v>
-      </c>
-      <c r="E15" s="9">
+        <v>2.9412829599999997</v>
+      </c>
+      <c r="E15" s="122">
         <f>IF(B15=0,0,$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
-        <v>3.1920000000000002</v>
+        <v>1.54</v>
       </c>
       <c r="H15" s="34">
         <v>5</v>
       </c>
       <c r="I15" s="30">
         <f t="shared" si="3"/>
-        <v>6.8535260697760017E-2</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="31">
+        <v>3.647809685775999E-2</v>
+      </c>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="125">
         <f>I15*I6*100</f>
-        <v>3.1252078878178566</v>
-      </c>
-      <c r="O15" s="31">
+        <v>1.2037771963060797</v>
+      </c>
+      <c r="O15" s="125">
         <f>I15*100*(I6-I5)</f>
-        <v>1.5626039439089283</v>
-      </c>
-      <c r="P15" s="31">
+        <v>0.80251813087071988</v>
+      </c>
+      <c r="P15" s="125">
         <f t="shared" ref="P15:AC15" si="10">$I$15*100*($I$6-$I$5*K10)</f>
+        <v>0.40125906543535994</v>
+      </c>
+      <c r="Q15" s="125">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="R15" s="125">
         <f t="shared" si="10"/>
-        <v>-1.5626039439089285</v>
-      </c>
-      <c r="R15" s="31">
+        <v>-0.40125906543535989</v>
+      </c>
+      <c r="S15" s="125">
         <f t="shared" si="10"/>
-        <v>-3.1252078878178566</v>
-      </c>
-      <c r="S15" s="31">
+        <v>-0.80251813087071988</v>
+      </c>
+      <c r="T15" s="125">
         <f t="shared" si="10"/>
-        <v>-4.6878118317267861</v>
-      </c>
-      <c r="T15" s="31">
+        <v>-1.2037771963060797</v>
+      </c>
+      <c r="U15" s="125">
         <f t="shared" si="10"/>
-        <v>-6.2504157756357142</v>
-      </c>
-      <c r="U15" s="31">
+        <v>-1.6050362617414395</v>
+      </c>
+      <c r="V15" s="125">
         <f t="shared" si="10"/>
-        <v>-7.8130197195446422</v>
-      </c>
-      <c r="V15" s="31">
+        <v>-2.0062953271767996</v>
+      </c>
+      <c r="W15" s="125">
         <f t="shared" si="10"/>
-        <v>-9.3756236634535703</v>
-      </c>
-      <c r="W15" s="31">
+        <v>-2.407554392612159</v>
+      </c>
+      <c r="X15" s="125">
         <f t="shared" si="10"/>
-        <v>-10.938227607362499</v>
-      </c>
-      <c r="X15" s="31">
+        <v>-2.8088134580475193</v>
+      </c>
+      <c r="Y15" s="125">
         <f t="shared" si="10"/>
-        <v>-12.500831551271428</v>
-      </c>
-      <c r="Y15" s="31">
+        <v>-3.2100725234828791</v>
+      </c>
+      <c r="Z15" s="125">
         <f t="shared" si="10"/>
-        <v>-14.063435495180356</v>
-      </c>
-      <c r="Z15" s="31">
+        <v>-3.6113315889182394</v>
+      </c>
+      <c r="AA15" s="125">
         <f t="shared" si="10"/>
-        <v>-15.626039439089284</v>
-      </c>
-      <c r="AA15" s="31">
+        <v>-4.0125906543535983</v>
+      </c>
+      <c r="AB15" s="125">
         <f t="shared" si="10"/>
-        <v>-17.188643382998212</v>
-      </c>
-      <c r="AB15" s="31">
+        <v>-4.413849719788959</v>
+      </c>
+      <c r="AC15" s="125">
         <f t="shared" si="10"/>
-        <v>-18.751247326907141</v>
-      </c>
-      <c r="AC15" s="31">
-        <f t="shared" si="10"/>
-        <v>-20.31385127081607</v>
+        <v>-4.815108785224318</v>
       </c>
     </row>
     <row r="16" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -8132,87 +8148,87 @@
       </c>
       <c r="C16" s="10">
         <f t="shared" si="7"/>
-        <v>4.2358010320000007E-2</v>
+        <v>2.6395149679999994E-2</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="8"/>
-        <v>12.554914258848001</v>
-      </c>
-      <c r="E16" s="9">
+        <v>3.7745064042399989</v>
+      </c>
+      <c r="E16" s="122">
         <f>IF(B16=0,0,$E$5+$E$6+($E$7*($E$10-6)))</f>
-        <v>2.964</v>
+        <v>1.43</v>
       </c>
       <c r="H16" s="34">
         <v>6</v>
       </c>
       <c r="I16" s="30">
         <f t="shared" si="3"/>
-        <v>0.11089005180897571</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="31">
+        <v>5.0412729857424302E-2</v>
+      </c>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="125">
         <f>I16*I6*100</f>
-        <v>5.0565863624892922</v>
-      </c>
-      <c r="P16" s="31">
+        <v>1.663620085295002</v>
+      </c>
+      <c r="P16" s="125">
         <f>I16*100*(I6-I5)</f>
-        <v>2.5282931812446461</v>
-      </c>
-      <c r="Q16" s="31">
+        <v>1.1090800568633348</v>
+      </c>
+      <c r="Q16" s="125">
         <f t="shared" ref="Q16:AC16" si="11">$I$16*100*($I$6-$I$5*K10)</f>
+        <v>0.55454002843166739</v>
+      </c>
+      <c r="R16" s="125">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R16" s="31">
+      <c r="S16" s="125">
         <f t="shared" si="11"/>
-        <v>-2.5282931812446465</v>
-      </c>
-      <c r="S16" s="31">
+        <v>-0.55454002843166728</v>
+      </c>
+      <c r="T16" s="125">
         <f t="shared" si="11"/>
-        <v>-5.0565863624892922</v>
-      </c>
-      <c r="T16" s="31">
+        <v>-1.1090800568633348</v>
+      </c>
+      <c r="U16" s="125">
         <f t="shared" si="11"/>
-        <v>-7.5848795437339405</v>
-      </c>
-      <c r="U16" s="31">
+        <v>-1.663620085295002</v>
+      </c>
+      <c r="V16" s="125">
         <f t="shared" si="11"/>
-        <v>-10.113172724978586</v>
-      </c>
-      <c r="V16" s="31">
+        <v>-2.2181601137266691</v>
+      </c>
+      <c r="W16" s="125">
         <f t="shared" si="11"/>
-        <v>-12.641465906223232</v>
-      </c>
-      <c r="W16" s="31">
+        <v>-2.7727001421583366</v>
+      </c>
+      <c r="X16" s="125">
         <f t="shared" si="11"/>
-        <v>-15.169759087467877</v>
-      </c>
-      <c r="X16" s="31">
+        <v>-3.3272401705900037</v>
+      </c>
+      <c r="Y16" s="125">
         <f t="shared" si="11"/>
-        <v>-17.698052268712523</v>
-      </c>
-      <c r="Y16" s="31">
+        <v>-3.8817801990216712</v>
+      </c>
+      <c r="Z16" s="125">
         <f t="shared" si="11"/>
-        <v>-20.226345449957172</v>
-      </c>
-      <c r="Z16" s="31">
+        <v>-4.4363202274533382</v>
+      </c>
+      <c r="AA16" s="125">
         <f t="shared" si="11"/>
-        <v>-22.754638631201814</v>
-      </c>
-      <c r="AA16" s="31">
+        <v>-4.9908602558850061</v>
+      </c>
+      <c r="AB16" s="125">
         <f t="shared" si="11"/>
-        <v>-25.282931812446463</v>
-      </c>
-      <c r="AB16" s="31">
+        <v>-5.5454002843166723</v>
+      </c>
+      <c r="AC16" s="125">
         <f t="shared" si="11"/>
-        <v>-27.811224993691109</v>
-      </c>
-      <c r="AC16" s="31">
-        <f t="shared" si="11"/>
-        <v>-30.339518174935755</v>
+        <v>-6.0999403127483403</v>
       </c>
     </row>
     <row r="17" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -8222,84 +8238,84 @@
       </c>
       <c r="C17" s="10">
         <f t="shared" si="7"/>
-        <v>6.8535260697760017E-2</v>
+        <v>3.647809685775999E-2</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" si="8"/>
-        <v>18.751247326907141</v>
-      </c>
-      <c r="E17" s="9">
+        <v>4.8151087852243188</v>
+      </c>
+      <c r="E17" s="122">
         <f>IF(B17=0,0,$E$6+($E$7*($E$10-6)))</f>
-        <v>2.7360000000000002</v>
+        <v>1.32</v>
       </c>
       <c r="H17" s="34">
         <v>7</v>
       </c>
       <c r="I17" s="30">
         <f t="shared" si="3"/>
-        <v>0.17942010382692272</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="31">
+        <v>6.9670392662960379E-2</v>
+      </c>
+      <c r="J17" s="126"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="126"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="125">
         <f>I6*I17*100</f>
-        <v>8.1815567345076765</v>
-      </c>
-      <c r="Q17" s="31">
+        <v>2.2991229578776928</v>
+      </c>
+      <c r="Q17" s="125">
         <f>I17*100*(I6-I5)</f>
-        <v>4.0907783672538383</v>
-      </c>
-      <c r="R17" s="31">
+        <v>1.5327486385851283</v>
+      </c>
+      <c r="R17" s="125">
         <f t="shared" ref="R17:AC17" si="12">$I$17*100*($I$6-$I$5*K10)</f>
+        <v>0.76637431929256417</v>
+      </c>
+      <c r="S17" s="125">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S17" s="31">
+      <c r="T17" s="125">
         <f t="shared" si="12"/>
-        <v>-4.0907783672538383</v>
-      </c>
-      <c r="T17" s="31">
+        <v>-0.76637431929256405</v>
+      </c>
+      <c r="U17" s="125">
         <f t="shared" si="12"/>
-        <v>-8.1815567345076765</v>
-      </c>
-      <c r="U17" s="31">
+        <v>-1.5327486385851283</v>
+      </c>
+      <c r="V17" s="125">
         <f t="shared" si="12"/>
-        <v>-12.272335101761517</v>
-      </c>
-      <c r="V17" s="31">
+        <v>-2.2991229578776924</v>
+      </c>
+      <c r="W17" s="125">
         <f t="shared" si="12"/>
-        <v>-16.363113469015353</v>
-      </c>
-      <c r="W17" s="31">
+        <v>-3.0654972771702567</v>
+      </c>
+      <c r="X17" s="125">
         <f t="shared" si="12"/>
-        <v>-20.453891836269189</v>
-      </c>
-      <c r="X17" s="31">
+        <v>-3.8318715964628209</v>
+      </c>
+      <c r="Y17" s="125">
         <f t="shared" si="12"/>
-        <v>-24.54467020352303</v>
-      </c>
-      <c r="Y17" s="31">
+        <v>-4.5982459157553839</v>
+      </c>
+      <c r="Z17" s="125">
         <f t="shared" si="12"/>
-        <v>-28.635448570776866</v>
-      </c>
-      <c r="Z17" s="31">
+        <v>-5.3646202350479486</v>
+      </c>
+      <c r="AA17" s="125">
         <f t="shared" si="12"/>
-        <v>-32.726226938030706</v>
-      </c>
-      <c r="AA17" s="31">
+        <v>-6.1309945543405124</v>
+      </c>
+      <c r="AB17" s="125">
         <f t="shared" si="12"/>
-        <v>-36.817005305284539</v>
-      </c>
-      <c r="AB17" s="31">
+        <v>-6.8973688736330772</v>
+      </c>
+      <c r="AC17" s="125">
         <f t="shared" si="12"/>
-        <v>-40.907783672538379</v>
-      </c>
-      <c r="AC17" s="31">
-        <f t="shared" si="12"/>
-        <v>-44.998562039792212</v>
+        <v>-7.6637431929256401</v>
       </c>
     </row>
     <row r="18" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -8309,81 +8325,81 @@
       </c>
       <c r="C18" s="10">
         <f t="shared" si="7"/>
-        <v>0.11089005180897571</v>
+        <v>5.0412729857424302E-2</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="8"/>
-        <v>27.811224993691109</v>
-      </c>
-      <c r="E18" s="9">
+        <v>6.0999403127483403</v>
+      </c>
+      <c r="E18" s="122">
         <f>IF(B18=0,0,($E$7*($E$10-6)))</f>
-        <v>2.508</v>
+        <v>1.21</v>
       </c>
       <c r="H18" s="34">
         <v>8</v>
       </c>
       <c r="I18" s="30">
         <f t="shared" si="3"/>
-        <v>0.29030172799196097</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="31">
+        <v>9.6284482660211237E-2</v>
+      </c>
+      <c r="J18" s="126"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="126"/>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="125">
         <f>I6*I18*100</f>
-        <v>13.237758796433422</v>
-      </c>
-      <c r="R18" s="31">
+        <v>3.1773879277869712</v>
+      </c>
+      <c r="R18" s="125">
         <f>I18*100*(I6-I5)</f>
-        <v>6.6188793982167109</v>
-      </c>
-      <c r="S18" s="31">
+        <v>2.1182586185246475</v>
+      </c>
+      <c r="S18" s="125">
         <f t="shared" ref="S18:AC18" si="13">$I$18*100*($I$6-$I$5*K10)</f>
+        <v>1.0591293092623237</v>
+      </c>
+      <c r="T18" s="125">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T18" s="31">
+      <c r="U18" s="125">
         <f t="shared" si="13"/>
-        <v>-6.6188793982167118</v>
-      </c>
-      <c r="U18" s="31">
+        <v>-1.0591293092623235</v>
+      </c>
+      <c r="V18" s="125">
         <f t="shared" si="13"/>
-        <v>-13.237758796433422</v>
-      </c>
-      <c r="V18" s="31">
+        <v>-2.1182586185246475</v>
+      </c>
+      <c r="W18" s="125">
         <f t="shared" si="13"/>
-        <v>-19.856638194650134</v>
-      </c>
-      <c r="W18" s="31">
+        <v>-3.1773879277869712</v>
+      </c>
+      <c r="X18" s="125">
         <f t="shared" si="13"/>
-        <v>-26.475517592866847</v>
-      </c>
-      <c r="X18" s="31">
+        <v>-4.2365172370492949</v>
+      </c>
+      <c r="Y18" s="125">
         <f t="shared" si="13"/>
-        <v>-33.094396991083556</v>
-      </c>
-      <c r="Y18" s="31">
+        <v>-5.2956465463116187</v>
+      </c>
+      <c r="Z18" s="125">
         <f t="shared" si="13"/>
-        <v>-39.713276389300262</v>
-      </c>
-      <c r="Z18" s="31">
+        <v>-6.3547758555739406</v>
+      </c>
+      <c r="AA18" s="125">
         <f t="shared" si="13"/>
-        <v>-46.332155787516974</v>
-      </c>
-      <c r="AA18" s="31">
+        <v>-7.4139051648362653</v>
+      </c>
+      <c r="AB18" s="125">
         <f t="shared" si="13"/>
-        <v>-52.951035185733694</v>
-      </c>
-      <c r="AB18" s="31">
+        <v>-8.4730344740985881</v>
+      </c>
+      <c r="AC18" s="125">
         <f t="shared" si="13"/>
-        <v>-59.569914583950393</v>
-      </c>
-      <c r="AC18" s="31">
-        <f t="shared" si="13"/>
-        <v>-66.188793982167113</v>
+        <v>-9.5321637833609127</v>
       </c>
     </row>
     <row r="19" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -8393,78 +8409,78 @@
       </c>
       <c r="C19" s="10">
         <f t="shared" si="7"/>
-        <v>0.17942010382692272</v>
+        <v>6.9670392662960379E-2</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" si="8"/>
-        <v>40.907783672538386</v>
-      </c>
-      <c r="E19" s="9">
+        <v>7.6637431929256428</v>
+      </c>
+      <c r="E19" s="122">
         <f>IF(B19=0,0,($E$7*($E$10-7)))</f>
-        <v>2.2800000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H19" s="34">
         <v>9</v>
       </c>
       <c r="I19" s="30">
         <f t="shared" si="3"/>
-        <v>0.46970819589099289</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="31">
+        <v>0.13306515503641192</v>
+      </c>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="125">
         <f>I6*I19*100</f>
-        <v>21.418693732629276</v>
-      </c>
-      <c r="S19" s="31">
+        <v>4.3911501162015938</v>
+      </c>
+      <c r="S19" s="125">
         <f>I19*100*(I6-I5)</f>
-        <v>10.709346866314638</v>
-      </c>
-      <c r="T19" s="31">
+        <v>2.9274334108010627</v>
+      </c>
+      <c r="T19" s="125">
         <f t="shared" ref="T19:AC19" si="14">$I$19*100*($I$6-$I$5*K10)</f>
+        <v>1.4637167054005313</v>
+      </c>
+      <c r="U19" s="125">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U19" s="31">
+      <c r="V19" s="125">
         <f t="shared" si="14"/>
-        <v>-10.70934686631464</v>
-      </c>
-      <c r="V19" s="31">
+        <v>-1.4637167054005309</v>
+      </c>
+      <c r="W19" s="125">
         <f t="shared" si="14"/>
-        <v>-21.418693732629276</v>
-      </c>
-      <c r="W19" s="31">
+        <v>-2.9274334108010627</v>
+      </c>
+      <c r="X19" s="125">
         <f t="shared" si="14"/>
-        <v>-32.128040598943919</v>
-      </c>
-      <c r="X19" s="31">
+        <v>-4.3911501162015938</v>
+      </c>
+      <c r="Y19" s="125">
         <f t="shared" si="14"/>
-        <v>-42.837387465258558</v>
-      </c>
-      <c r="Y19" s="31">
+        <v>-5.8548668216021245</v>
+      </c>
+      <c r="Z19" s="125">
         <f t="shared" si="14"/>
-        <v>-53.546734331573191</v>
-      </c>
-      <c r="Z19" s="31">
+        <v>-7.318583527002656</v>
+      </c>
+      <c r="AA19" s="125">
         <f t="shared" si="14"/>
-        <v>-64.256081197887823</v>
-      </c>
-      <c r="AA19" s="31">
+        <v>-8.7823002324031858</v>
+      </c>
+      <c r="AB19" s="125">
         <f t="shared" si="14"/>
-        <v>-74.96542806420247</v>
-      </c>
-      <c r="AB19" s="31">
+        <v>-10.246016937803718</v>
+      </c>
+      <c r="AC19" s="125">
         <f t="shared" si="14"/>
-        <v>-85.674774930517117</v>
-      </c>
-      <c r="AC19" s="31">
-        <f t="shared" si="14"/>
-        <v>-96.384121796831735</v>
+        <v>-11.709733643204247</v>
       </c>
     </row>
     <row r="20" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -8474,75 +8490,75 @@
       </c>
       <c r="C20" s="10">
         <f t="shared" si="7"/>
-        <v>0.29030172799196097</v>
+        <v>9.6284482660211237E-2</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="8"/>
-        <v>59.569914583950393</v>
-      </c>
-      <c r="E20" s="9">
+        <v>9.5321637833609127</v>
+      </c>
+      <c r="E20" s="122">
         <f>IF(B20=0,0,($E$7*($E$10-8)))</f>
-        <v>2.052</v>
+        <v>0.99</v>
       </c>
       <c r="H20" s="34">
         <v>10</v>
       </c>
       <c r="I20" s="30">
         <f t="shared" si="3"/>
-        <v>0.75998786095162651</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="31">
+        <v>0.18389604426032125</v>
+      </c>
+      <c r="J20" s="126"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="126"/>
+      <c r="O20" s="126"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="126"/>
+      <c r="R20" s="126"/>
+      <c r="S20" s="125">
         <f>I6*I20*100</f>
-        <v>34.65544645939417</v>
-      </c>
-      <c r="T20" s="31">
+        <v>6.0685694605906013</v>
+      </c>
+      <c r="T20" s="125">
         <f>I20*100*(I6-I5)</f>
-        <v>17.327723229697085</v>
-      </c>
-      <c r="U20" s="31">
+        <v>4.0457129737270678</v>
+      </c>
+      <c r="U20" s="125">
         <f>$I$20*100*($I$6-$I$5*K10)</f>
+        <v>2.0228564868635339</v>
+      </c>
+      <c r="V20" s="125">
+        <f>$I$20*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="V20" s="31">
-        <f>$I$20*100*($I$6-$I$5*L10)</f>
-        <v>-17.327723229697089</v>
-      </c>
-      <c r="W20" s="31">
+      <c r="W20" s="125">
         <f>$I$20*100*($I$6-$I$5*M10)</f>
-        <v>-34.65544645939417</v>
-      </c>
-      <c r="X20" s="31">
+        <v>-2.0228564868635335</v>
+      </c>
+      <c r="X20" s="125">
         <f>$I$20*100*($I$6-$I$5*N10)</f>
-        <v>-51.98316968909127</v>
-      </c>
-      <c r="Y20" s="31">
+        <v>-4.0457129737270678</v>
+      </c>
+      <c r="Y20" s="125">
         <f>$I$20*100*($I$6-$I$5*O10)</f>
-        <v>-69.310892918788355</v>
-      </c>
-      <c r="Z20" s="31">
+        <v>-6.0685694605906013</v>
+      </c>
+      <c r="Z20" s="125">
         <f t="shared" ref="Z20:AC20" si="15">$I$20*100*($I$6-$I$5*P10)</f>
-        <v>-86.63861614848544</v>
-      </c>
-      <c r="AA20" s="31">
+        <v>-8.0914259474541357</v>
+      </c>
+      <c r="AA20" s="125">
         <f t="shared" si="15"/>
-        <v>-103.96633937818252</v>
-      </c>
-      <c r="AB20" s="31">
+        <v>-10.114282434317669</v>
+      </c>
+      <c r="AB20" s="125">
         <f t="shared" si="15"/>
-        <v>-121.29406260787961</v>
-      </c>
-      <c r="AC20" s="31">
+        <v>-12.137138921181201</v>
+      </c>
+      <c r="AC20" s="125">
         <f t="shared" si="15"/>
-        <v>-138.62178583757671</v>
+        <v>-14.159995408044736</v>
       </c>
     </row>
     <row r="21" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -8552,72 +8568,72 @@
       </c>
       <c r="C21" s="10">
         <f t="shared" si="7"/>
-        <v>0.46970819589099289</v>
+        <v>0.13306515503641192</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="8"/>
-        <v>85.674774930517103</v>
-      </c>
-      <c r="E21" s="9">
+        <v>11.709733643204249</v>
+      </c>
+      <c r="E21" s="122">
         <f>IF(B21=0,0,($E$7*($E$10-9)))</f>
-        <v>1.8240000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="H21" s="34">
         <v>11</v>
       </c>
       <c r="I21" s="30">
         <f t="shared" si="3"/>
-        <v>1.2296603590197317</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="32">
+        <v>0.25414433316776397</v>
+      </c>
+      <c r="J21" s="126"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="126"/>
+      <c r="O21" s="126"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="126"/>
+      <c r="S21" s="126"/>
+      <c r="T21" s="127">
         <f>I6*I21*100</f>
-        <v>56.072512371299766</v>
-      </c>
-      <c r="U21" s="32">
+        <v>8.3867629945362108</v>
+      </c>
+      <c r="U21" s="127">
         <f>I21*100*(I6-I5)</f>
-        <v>28.036256185649883</v>
-      </c>
-      <c r="V21" s="32">
+        <v>5.5911753296908078</v>
+      </c>
+      <c r="V21" s="127">
         <f>$I$21*100*($I$6-$I$5*K10)</f>
+        <v>2.7955876648454039</v>
+      </c>
+      <c r="W21" s="127">
+        <f>$I$21*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="W21" s="32">
-        <f>$I$21*100*($I$6-$I$5*L10)</f>
-        <v>-28.036256185649886</v>
-      </c>
-      <c r="X21" s="32">
+      <c r="X21" s="127">
         <f>$I$21*100*($I$6-$I$5*M10)</f>
-        <v>-56.072512371299766</v>
-      </c>
-      <c r="Y21" s="32">
+        <v>-2.7955876648454034</v>
+      </c>
+      <c r="Y21" s="127">
         <f>$I$21*100*($I$6-$I$5*N10)</f>
-        <v>-84.10876855694967</v>
-      </c>
-      <c r="Z21" s="32">
+        <v>-5.5911753296908078</v>
+      </c>
+      <c r="Z21" s="127">
         <f t="shared" ref="Z21:AC21" si="16">$I$21*100*($I$6-$I$5*O10)</f>
-        <v>-112.14502474259955</v>
-      </c>
-      <c r="AA21" s="32">
+        <v>-8.3867629945362108</v>
+      </c>
+      <c r="AA21" s="127">
         <f t="shared" si="16"/>
-        <v>-140.18128092824944</v>
-      </c>
-      <c r="AB21" s="32">
+        <v>-11.182350659381614</v>
+      </c>
+      <c r="AB21" s="127">
         <f t="shared" si="16"/>
-        <v>-168.21753711389931</v>
-      </c>
-      <c r="AC21" s="32">
+        <v>-13.977938324227019</v>
+      </c>
+      <c r="AC21" s="127">
         <f t="shared" si="16"/>
-        <v>-196.25379329954919</v>
+        <v>-16.773525989072418</v>
       </c>
     </row>
     <row r="22" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -8627,69 +8643,69 @@
       </c>
       <c r="C22" s="10">
         <f t="shared" si="7"/>
-        <v>0.75998786095162651</v>
+        <v>0.18389604426032125</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="8"/>
-        <v>121.29406260787961</v>
-      </c>
-      <c r="E22" s="9">
+        <v>14.159995408044738</v>
+      </c>
+      <c r="E22" s="122">
         <f>IF(B22=0,0,($E$7*($E$10-10)))</f>
-        <v>1.5960000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="H22" s="34">
         <v>12</v>
       </c>
       <c r="I22" s="30">
         <f t="shared" si="3"/>
-        <v>1.9895904608939261</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32">
+        <v>0.3512274684378498</v>
+      </c>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="126"/>
+      <c r="S22" s="126"/>
+      <c r="T22" s="127"/>
+      <c r="U22" s="127">
         <f>I6*I22*100</f>
-        <v>90.725325016763037</v>
-      </c>
-      <c r="V22" s="32">
+        <v>11.590506458449044</v>
+      </c>
+      <c r="V22" s="127">
         <f>I22*100*(I6-I5)</f>
-        <v>45.362662508381518</v>
-      </c>
-      <c r="W22" s="32">
+        <v>7.7270043056326969</v>
+      </c>
+      <c r="W22" s="127">
         <f>$I$22*100*($I$6-$I$5*K10)</f>
+        <v>3.8635021528163485</v>
+      </c>
+      <c r="X22" s="127">
+        <f>$I$22*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="X22" s="32">
-        <f>$I$22*100*($I$6-$I$5*L10)</f>
-        <v>-45.362662508381526</v>
-      </c>
-      <c r="Y22" s="32">
+      <c r="Y22" s="127">
         <f>$I$22*100*($I$6-$I$5*M10)</f>
-        <v>-90.725325016763037</v>
-      </c>
-      <c r="Z22" s="32">
+        <v>-3.8635021528163476</v>
+      </c>
+      <c r="Z22" s="127">
         <f t="shared" ref="Z22:AC22" si="17">$I$22*100*($I$6-$I$5*N10)</f>
-        <v>-136.08798752514457</v>
-      </c>
-      <c r="AA22" s="32">
+        <v>-7.7270043056326969</v>
+      </c>
+      <c r="AA22" s="127">
         <f t="shared" si="17"/>
-        <v>-181.4506500335261</v>
-      </c>
-      <c r="AB22" s="32">
+        <v>-11.590506458449044</v>
+      </c>
+      <c r="AB22" s="127">
         <f t="shared" si="17"/>
-        <v>-226.81331254190761</v>
-      </c>
-      <c r="AC22" s="32">
+        <v>-15.454008611265392</v>
+      </c>
+      <c r="AC22" s="127">
         <f t="shared" si="17"/>
-        <v>-272.17597505028914</v>
+        <v>-19.317510764081742</v>
       </c>
     </row>
     <row r="23" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -8699,66 +8715,66 @@
       </c>
       <c r="C23" s="10">
         <f t="shared" si="7"/>
-        <v>1.2296603590197317</v>
+        <v>0.25414433316776397</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" si="8"/>
-        <v>168.21753711389931</v>
-      </c>
-      <c r="E23" s="9">
+        <v>16.773525989072422</v>
+      </c>
+      <c r="E23" s="122">
         <f>IF(B23=0,0,($E$7*($E$10-11)))</f>
-        <v>1.3680000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="H23" s="34">
         <v>13</v>
       </c>
       <c r="I23" s="30">
         <f t="shared" si="3"/>
-        <v>3.2191573657263728</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32">
+        <v>0.48539636138110837</v>
+      </c>
+      <c r="J23" s="126"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="126"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="126"/>
+      <c r="S23" s="126"/>
+      <c r="T23" s="127"/>
+      <c r="U23" s="127"/>
+      <c r="V23" s="127">
         <f>I6*I23*100</f>
-        <v>146.79357587712261</v>
-      </c>
-      <c r="W23" s="32">
+        <v>16.018079925576576</v>
+      </c>
+      <c r="W23" s="127">
         <f>I23*100*(I6-I5)</f>
-        <v>73.396787938561303</v>
-      </c>
-      <c r="X23" s="32">
+        <v>10.678719950384385</v>
+      </c>
+      <c r="X23" s="127">
         <f>$I$23*100*($I$6-$I$5*K10)</f>
+        <v>5.3393599751921927</v>
+      </c>
+      <c r="Y23" s="127">
+        <f>$I$23*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="32">
-        <f>$I$23*100*($I$6-$I$5*L10)</f>
-        <v>-73.396787938561317</v>
-      </c>
-      <c r="Z23" s="32">
+      <c r="Z23" s="127">
         <f t="shared" ref="Z23:AC23" si="18">$I$23*100*($I$6-$I$5*M10)</f>
-        <v>-146.79357587712261</v>
-      </c>
-      <c r="AA23" s="32">
+        <v>-5.339359975192191</v>
+      </c>
+      <c r="AA23" s="127">
         <f t="shared" si="18"/>
-        <v>-220.19036381568395</v>
-      </c>
-      <c r="AB23" s="32">
+        <v>-10.678719950384385</v>
+      </c>
+      <c r="AB23" s="127">
         <f t="shared" si="18"/>
-        <v>-293.58715175424527</v>
-      </c>
-      <c r="AC23" s="32">
+        <v>-16.018079925576576</v>
+      </c>
+      <c r="AC23" s="127">
         <f t="shared" si="18"/>
-        <v>-366.98393969280653</v>
+        <v>-21.357439900768767</v>
       </c>
     </row>
     <row r="24" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -8768,63 +8784,63 @@
       </c>
       <c r="C24" s="10">
         <f t="shared" si="7"/>
-        <v>1.9895904608939261</v>
+        <v>0.3512274684378498</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="8"/>
-        <v>226.81331254190761</v>
-      </c>
-      <c r="E24" s="9">
+        <v>19.317510764081742</v>
+      </c>
+      <c r="E24" s="122">
         <f>IF(B24=0,0,($E$7*($E$10-12)))</f>
-        <v>1.1400000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H24" s="34">
         <v>14</v>
       </c>
       <c r="I24" s="30">
         <f t="shared" si="3"/>
-        <v>5.2085966177452718</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32">
+        <v>0.6708177714286917</v>
+      </c>
+      <c r="J24" s="126"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="126"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="126"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="126"/>
+      <c r="T24" s="127"/>
+      <c r="U24" s="127"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="127">
         <f>I6*I24*100</f>
-        <v>237.51200576918441</v>
-      </c>
-      <c r="X24" s="32">
+        <v>22.136986457146826</v>
+      </c>
+      <c r="X24" s="127">
         <f>I24*100*(I6-I5)</f>
-        <v>118.75600288459222</v>
-      </c>
-      <c r="Y24" s="32">
+        <v>14.757990971431219</v>
+      </c>
+      <c r="Y24" s="127">
         <f>$I$24*100*($I$6-$I$5*K10)</f>
+        <v>7.3789954857156097</v>
+      </c>
+      <c r="Z24" s="127">
+        <f t="shared" ref="Z24:AC24" si="19">$I$24*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="Z24" s="32">
-        <f t="shared" ref="Z24:AC24" si="19">$I$24*100*($I$6-$I$5*L10)</f>
-        <v>-118.75600288459223</v>
-      </c>
-      <c r="AA24" s="32">
+      <c r="AA24" s="127">
         <f t="shared" si="19"/>
-        <v>-237.51200576918444</v>
-      </c>
-      <c r="AB24" s="32">
+        <v>-7.3789954857156079</v>
+      </c>
+      <c r="AB24" s="127">
         <f t="shared" si="19"/>
-        <v>-356.26800865377669</v>
-      </c>
-      <c r="AC24" s="32">
+        <v>-14.757990971431219</v>
+      </c>
+      <c r="AC24" s="127">
         <f t="shared" si="19"/>
-        <v>-475.02401153836894</v>
+        <v>-22.136986457146829</v>
       </c>
     </row>
     <row r="25" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -8834,60 +8850,60 @@
       </c>
       <c r="C25" s="10">
         <f t="shared" si="7"/>
-        <v>3.2191573657263728</v>
+        <v>0.48539636138110837</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" si="8"/>
-        <v>293.58715175424521</v>
-      </c>
-      <c r="E25" s="9">
+        <v>21.357439900768767</v>
+      </c>
+      <c r="E25" s="122">
         <f>IF(B25=0,0,($E$7*($E$10-13)))</f>
-        <v>0.91200000000000003</v>
+        <v>0.44</v>
       </c>
       <c r="H25" s="34">
         <v>15</v>
       </c>
       <c r="I25" s="30">
         <f t="shared" si="3"/>
-        <v>8.4275093275118511</v>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32">
+        <v>0.92707016011445187</v>
+      </c>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="126"/>
+      <c r="T25" s="127"/>
+      <c r="U25" s="127"/>
+      <c r="V25" s="127"/>
+      <c r="W25" s="127"/>
+      <c r="X25" s="127">
         <f>I6*I25*100</f>
-        <v>384.29442533454045</v>
-      </c>
-      <c r="Y25" s="32">
+        <v>30.59331528377691</v>
+      </c>
+      <c r="Y25" s="127">
         <f>I25*100*(I6-I5)</f>
-        <v>192.14721266727022</v>
-      </c>
-      <c r="Z25" s="32">
+        <v>20.395543522517944</v>
+      </c>
+      <c r="Z25" s="127">
         <f>$I$25*100*($I$6-$I$5*K10)</f>
+        <v>10.197771761258972</v>
+      </c>
+      <c r="AA25" s="127">
+        <f>$I$25*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="AA25" s="32">
-        <f>$I$25*100*($I$6-$I$5*L10)</f>
-        <v>-192.14721266727025</v>
-      </c>
-      <c r="AB25" s="32">
+      <c r="AB25" s="127">
         <f>$I$25*100*($I$6-$I$5*M10)</f>
-        <v>-384.29442533454045</v>
-      </c>
-      <c r="AC25" s="32">
+        <v>-10.19777176125897</v>
+      </c>
+      <c r="AC25" s="127">
         <f>$I$25*100*($I$6-$I$5*N10)</f>
-        <v>-576.44163800181082</v>
+        <v>-20.395543522517944</v>
       </c>
     </row>
     <row r="26" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -8897,57 +8913,57 @@
       </c>
       <c r="C26" s="10">
         <f t="shared" si="7"/>
-        <v>5.2085966177452718</v>
+        <v>0.6708177714286917</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" si="8"/>
-        <v>356.26800865377663</v>
-      </c>
-      <c r="E26" s="9">
+        <v>22.136986457146826</v>
+      </c>
+      <c r="E26" s="122">
         <f>IF(B26=0,0,($E$7*($E$10-14)))</f>
-        <v>0.68400000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="H26" s="34">
         <v>16</v>
       </c>
       <c r="I26" s="30">
         <f t="shared" si="3"/>
-        <v>13.635710091914175</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32">
+        <v>1.2812109612781724</v>
+      </c>
+      <c r="J26" s="126"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="126"/>
+      <c r="S26" s="126"/>
+      <c r="T26" s="127"/>
+      <c r="U26" s="127"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="127"/>
+      <c r="Y26" s="127">
         <f>I26*I6*100</f>
-        <v>621.78838019128648</v>
-      </c>
-      <c r="Z26" s="32">
+        <v>42.279961722179685</v>
+      </c>
+      <c r="Z26" s="127">
         <f>$I$26*100*($I$6-$I$5)</f>
-        <v>310.89419009564318</v>
-      </c>
-      <c r="AA26" s="32">
+        <v>28.186641148119794</v>
+      </c>
+      <c r="AA26" s="127">
         <f>$I$26*100*($I$6-$I$5*K10)</f>
+        <v>14.093320574059897</v>
+      </c>
+      <c r="AB26" s="127">
+        <f>$I$26*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="AB26" s="32">
-        <f>$I$26*100*($I$6-$I$5*L10)</f>
-        <v>-310.89419009564324</v>
-      </c>
-      <c r="AC26" s="32">
+      <c r="AC26" s="127">
         <f>$I$26*100*($I$6-$I$5*M10)</f>
-        <v>-621.78838019128636</v>
+        <v>-14.093320574059893</v>
       </c>
     </row>
     <row r="27" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -8957,38 +8973,54 @@
       </c>
       <c r="C27" s="10">
         <f t="shared" si="7"/>
-        <v>8.4275093275118511</v>
+        <v>0.92707016011445187</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" si="8"/>
-        <v>384.29442533454045</v>
-      </c>
-      <c r="E27" s="9">
+        <v>20.395543522517944</v>
+      </c>
+      <c r="E27" s="122">
         <f>IF(B27=0,0,($E$7*($E$10-15)))</f>
-        <v>0.45600000000000002</v>
+        <v>0.22</v>
       </c>
       <c r="H27" s="34">
         <v>17</v>
       </c>
       <c r="I27" s="30">
         <f t="shared" si="3"/>
-        <v>22.062578928717137</v>
-      </c>
-      <c r="Z27" s="32">
+        <v>1.770633548486434</v>
+      </c>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="128"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="128"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="127">
         <f>$I$27*$I$6*100</f>
-        <v>1006.0535991495016</v>
-      </c>
-      <c r="AA27" s="32">
+        <v>58.430907100052323</v>
+      </c>
+      <c r="AA27" s="127">
         <f>$I$27*100*($I$6-$I$5*J$10)</f>
-        <v>503.02679957475078</v>
-      </c>
-      <c r="AB27" s="32">
+        <v>38.953938066701554</v>
+      </c>
+      <c r="AB27" s="127">
         <f t="shared" ref="AB27:AC27" si="20">$I$27*100*($I$6-$I$5*K$10)</f>
+        <v>19.476969033350777</v>
+      </c>
+      <c r="AC27" s="127">
+        <f t="shared" si="20"/>
         <v>0</v>
-      </c>
-      <c r="AC27" s="32">
-        <f t="shared" si="20"/>
-        <v>-503.02679957475084</v>
       </c>
     </row>
     <row r="28" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -8998,34 +9030,51 @@
       </c>
       <c r="C28" s="10">
         <f t="shared" si="7"/>
-        <v>13.635710091914175</v>
+        <v>1.2812109612781724</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="8"/>
-        <v>310.89419009564324</v>
-      </c>
-      <c r="E28" s="9">
+        <v>14.093320574059895</v>
+      </c>
+      <c r="E28" s="122">
         <f>IF(B28=0,0,($E$7*($E$10-16)))</f>
-        <v>0.22800000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H28" s="34">
         <v>18</v>
       </c>
       <c r="I28" s="30">
         <f t="shared" si="3"/>
-        <v>35.697252706664329</v>
-      </c>
-      <c r="AA28" s="32">
+        <v>2.4470155640082516</v>
+      </c>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="128"/>
+      <c r="T28" s="128"/>
+      <c r="U28" s="128"/>
+      <c r="V28" s="128"/>
+      <c r="W28" s="128"/>
+      <c r="X28" s="128"/>
+      <c r="Y28" s="128"/>
+      <c r="Z28" s="128"/>
+      <c r="AA28" s="127">
         <f>$I$28*$I$6*100</f>
-        <v>1627.7947234238934</v>
-      </c>
-      <c r="AB28" s="32">
+        <v>80.751513612272305</v>
+      </c>
+      <c r="AB28" s="127">
         <f>$I$28*100*($I$6-$I$5*J$10)</f>
-        <v>813.89736171194681</v>
-      </c>
-      <c r="AC28" s="32">
+        <v>53.834342408181541</v>
+      </c>
+      <c r="AC28" s="127">
         <f>$I$28*100*($I$6-$I$5*K$10)</f>
-        <v>0</v>
+        <v>26.917171204090771</v>
       </c>
     </row>
     <row r="29" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -9035,13 +9084,13 @@
       </c>
       <c r="C29" s="10">
         <f t="shared" si="7"/>
-        <v>22.062578928717137</v>
+        <v>1.770633548486434</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="122">
         <f>IF(B29=0,0,($E$7*($E$10-17)))</f>
         <v>0</v>
       </c>
@@ -9050,15 +9099,33 @@
       </c>
       <c r="I29" s="30">
         <f t="shared" si="3"/>
-        <v>57.758154879382886</v>
-      </c>
-      <c r="AB29" s="32">
+        <v>3.3817755094594033</v>
+      </c>
+      <c r="J29" s="128"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="128"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="128"/>
+      <c r="U29" s="128"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="128"/>
+      <c r="Z29" s="128"/>
+      <c r="AA29" s="128"/>
+      <c r="AB29" s="127">
         <f>$I$29*$I$6*100</f>
-        <v>2633.7718624998597</v>
-      </c>
-      <c r="AC29" s="32">
+        <v>111.59859181216032</v>
+      </c>
+      <c r="AC29" s="127">
         <f>$I$29*100*($I$6-$I$5*J$10)</f>
-        <v>1316.8859312499299</v>
+        <v>74.399061208106872</v>
       </c>
     </row>
     <row r="30" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -9083,11 +9150,30 @@
       </c>
       <c r="I30" s="30">
         <f t="shared" si="3"/>
-        <v>93.452694594841518</v>
-      </c>
-      <c r="AC30" s="32">
+        <v>4.6736137540728953</v>
+      </c>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="128"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="128"/>
+      <c r="P30" s="128"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="128"/>
+      <c r="S30" s="128"/>
+      <c r="T30" s="128"/>
+      <c r="U30" s="128"/>
+      <c r="V30" s="128"/>
+      <c r="W30" s="128"/>
+      <c r="X30" s="128"/>
+      <c r="Y30" s="128"/>
+      <c r="Z30" s="128"/>
+      <c r="AA30" s="128"/>
+      <c r="AB30" s="128"/>
+      <c r="AC30" s="127">
         <f>$I$30*$I$6*100</f>
-        <v>4261.4428735247739</v>
+        <v>154.22925388440555</v>
       </c>
     </row>
     <row r="31" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -9112,87 +9198,87 @@
       </c>
       <c r="I31" s="41">
         <f>SUM(I11:I26)</f>
-        <v>35.683784674299567</v>
-      </c>
-      <c r="J31" s="37">
+        <v>4.6089883468231267</v>
+      </c>
+      <c r="J31" s="129">
         <f>SUMIF(J11:J30, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="129">
         <f t="shared" ref="K31:AC31" si="21">SUMIF(K11:K30, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L31" s="129">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="129">
         <f t="shared" si="21"/>
-        <v>-0.22800000000000004</v>
-      </c>
-      <c r="N31" s="37">
+        <v>0</v>
+      </c>
+      <c r="N31" s="129">
         <f t="shared" si="21"/>
-        <v>-0.82490400000000008</v>
-      </c>
-      <c r="O31" s="37">
+        <v>-0.10999999999999999</v>
+      </c>
+      <c r="O31" s="129">
         <f t="shared" si="21"/>
-        <v>-2.0186946720000005</v>
-      </c>
-      <c r="P31" s="37">
+        <v>-0.37202000000000002</v>
+      </c>
+      <c r="P31" s="129">
         <f t="shared" si="21"/>
-        <v>-4.1782479792960006</v>
-      </c>
-      <c r="Q31" s="37">
+        <v>-0.84413163999999996</v>
+      </c>
+      <c r="Q31" s="129">
         <f t="shared" si="21"/>
-        <v>-7.9004052305009296</v>
-      </c>
-      <c r="R31" s="37">
+        <v>-1.6065899264799999</v>
+      </c>
+      <c r="R31" s="129">
         <f t="shared" si="21"/>
-        <v>-14.150855662950505</v>
-      </c>
-      <c r="S31" s="37">
+        <v>-2.77030727839536</v>
+      </c>
+      <c r="S31" s="129">
         <f t="shared" si="21"/>
-        <v>-24.492084462653921</v>
-      </c>
-      <c r="T31" s="37">
+        <v>-4.4885646587423862</v>
+      </c>
+      <c r="T31" s="129">
         <f t="shared" si="21"/>
-        <v>-41.452192660574049</v>
-      </c>
-      <c r="U31" s="37">
+        <v>-6.973196358381978</v>
+      </c>
+      <c r="U31" s="129">
         <f t="shared" si="21"/>
-        <v>-69.12164772480881</v>
-      </c>
-      <c r="V31" s="37">
+        <v>-10.516957367283892</v>
+      </c>
+      <c r="V31" s="129">
         <f t="shared" si="21"/>
-        <v>-114.11882601874066</v>
-      </c>
-      <c r="W31" s="37">
+        <v>-15.524435081586336</v>
+      </c>
+      <c r="W31" s="129">
         <f t="shared" si="21"/>
-        <v>-187.15226049832239</v>
-      </c>
-      <c r="X31" s="37">
+        <v>-22.554769282752318</v>
+      </c>
+      <c r="X31" s="129">
         <f t="shared" si="21"/>
-        <v>-305.54835748628562</v>
-      </c>
-      <c r="Y31" s="37">
+        <v>-32.380691148763702</v>
+      </c>
+      <c r="Y31" s="129">
         <f t="shared" si="21"/>
-        <v>-497.34124241281023</v>
-      </c>
-      <c r="Z31" s="37">
+        <v>-46.070115167591432</v>
+      </c>
+      <c r="Z31" s="129">
         <f t="shared" si="21"/>
-        <v>-807.89013022392714</v>
-      </c>
-      <c r="AA31" s="37">
+        <v>-65.098899161611357</v>
+      </c>
+      <c r="AA31" s="129">
         <f t="shared" si="21"/>
-        <v>-1310.5862307023142</v>
-      </c>
-      <c r="AB31" s="37">
+        <v>-91.506678641346895</v>
+      </c>
+      <c r="AB31" s="129">
         <f t="shared" si="21"/>
-        <v>-2124.1765212763444</v>
-      </c>
-      <c r="AC31" s="37">
+        <v>-128.11222988234138</v>
+      </c>
+      <c r="AC31" s="129">
         <f t="shared" si="21"/>
-        <v>-3440.7936114251256</v>
+        <v>-178.81110169739583</v>
       </c>
     </row>
     <row r="32" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -9215,85 +9301,85 @@
       <c r="I32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J32" s="57">
+      <c r="J32" s="130">
         <f t="shared" ref="J32:AC32" si="23">SUM(J11:J30)</f>
-        <v>0.45600000000000007</v>
-      </c>
-      <c r="K32" s="57">
+        <v>0.33</v>
+      </c>
+      <c r="K32" s="130">
         <f t="shared" si="23"/>
-        <v>0.965808</v>
-      </c>
-      <c r="L32" s="57">
+        <v>0.67605999999999999</v>
+      </c>
+      <c r="L32" s="130">
         <f t="shared" si="23"/>
-        <v>1.5626773440000004</v>
-      </c>
-      <c r="M32" s="57">
+        <v>1.0443149200000001</v>
+      </c>
+      <c r="M32" s="130">
         <f t="shared" si="23"/>
-        <v>2.3004119425920004</v>
-      </c>
-      <c r="N32" s="57">
+        <v>1.4432432194399998</v>
+      </c>
+      <c r="N32" s="130">
         <f t="shared" si="23"/>
-        <v>3.2660665231138566</v>
-      </c>
-      <c r="O32" s="57">
+        <v>1.8845621292660797</v>
+      </c>
+      <c r="O32" s="130">
         <f t="shared" si="23"/>
-        <v>4.6004956343982197</v>
-      </c>
-      <c r="P32" s="57">
+        <v>2.3844648626457219</v>
+      </c>
+      <c r="P32" s="130">
         <f t="shared" si="23"/>
-        <v>6.5316019364563225</v>
-      </c>
-      <c r="Q32" s="57">
+        <v>2.9653304401763876</v>
+      </c>
+      <c r="Q32" s="130">
         <f t="shared" si="23"/>
-        <v>9.4281319331863305</v>
-      </c>
-      <c r="R32" s="57">
+        <v>3.6580866683237669</v>
+      </c>
+      <c r="R32" s="130">
         <f t="shared" si="23"/>
-        <v>13.886717467895481</v>
-      </c>
-      <c r="S32" s="57">
+        <v>4.5054757756234451</v>
+      </c>
+      <c r="S32" s="130">
         <f t="shared" si="23"/>
-        <v>20.872708863054889</v>
-      </c>
-      <c r="T32" s="57">
+        <v>5.5665675219116011</v>
+      </c>
+      <c r="T32" s="130">
         <f t="shared" si="23"/>
-        <v>31.948042940422802</v>
-      </c>
-      <c r="U32" s="57">
+        <v>6.9229963152818321</v>
+      </c>
+      <c r="U32" s="130">
         <f t="shared" si="23"/>
-        <v>49.63993347760411</v>
-      </c>
-      <c r="V32" s="57">
+        <v>8.687580907719493</v>
+      </c>
+      <c r="V32" s="130">
         <f t="shared" si="23"/>
-        <v>78.037412366763462</v>
-      </c>
-      <c r="W32" s="57">
+        <v>11.016236814468339</v>
+      </c>
+      <c r="W32" s="130">
         <f t="shared" si="23"/>
-        <v>123.75653320942332</v>
-      </c>
-      <c r="X32" s="57">
+        <v>14.124439277595242</v>
+      </c>
+      <c r="X32" s="130">
         <f t="shared" si="23"/>
-        <v>197.50207073284705</v>
-      </c>
-      <c r="Y32" s="57">
+        <v>18.309975081636619</v>
+      </c>
+      <c r="Y32" s="130">
         <f t="shared" si="23"/>
-        <v>316.5943504457465</v>
-      </c>
-      <c r="Z32" s="57">
+        <v>23.98438556282181</v>
+      </c>
+      <c r="Z32" s="130">
         <f t="shared" si="23"/>
-        <v>509.0576590212176</v>
-      </c>
-      <c r="AA32" s="57">
+        <v>31.71642084781973</v>
+      </c>
+      <c r="AA32" s="130">
         <f t="shared" si="23"/>
-        <v>820.23529229633004</v>
-      </c>
-      <c r="AB32" s="57">
+        <v>42.292093611686866</v>
+      </c>
+      <c r="AB32" s="130">
         <f t="shared" si="23"/>
-        <v>1323.4927029354621</v>
-      </c>
-      <c r="AC32" s="57">
+        <v>56.797673371351252</v>
+      </c>
+      <c r="AC32" s="130">
         <f t="shared" si="23"/>
-        <v>2137.5351933495781</v>
+        <v>76.734384599207374</v>
       </c>
     </row>
     <row r="33" spans="2:30" ht="16.8" x14ac:dyDescent="0.3">
@@ -9323,79 +9409,79 @@
       </c>
       <c r="K33" s="39">
         <f>SUM($I11:$I12)</f>
-        <v>2.6180000000000002E-2</v>
+        <v>2.3820000000000001E-2</v>
       </c>
       <c r="L33" s="39">
         <f>SUM($I11:$I13)</f>
-        <v>5.2359240000000001E-2</v>
+        <v>4.2919239999999997E-2</v>
       </c>
       <c r="M33" s="39">
         <f>SUM($I11:$I14)</f>
-        <v>9.4717250320000002E-2</v>
+        <v>6.9314389679999991E-2</v>
       </c>
       <c r="N33" s="39">
         <f>SUM($I11:$I15)</f>
-        <v>0.16325251101776</v>
+        <v>0.10579248653775998</v>
       </c>
       <c r="O33" s="39">
         <f>SUM($I11:$I16)</f>
-        <v>0.27414256282673571</v>
+        <v>0.15620521639518428</v>
       </c>
       <c r="P33" s="39">
         <f>SUM($I11:$I17)</f>
-        <v>0.45356266665365841</v>
+        <v>0.22587560905814466</v>
       </c>
       <c r="Q33" s="39">
         <f>SUM($I11:$I18)</f>
-        <v>0.74386439464561938</v>
+        <v>0.32216009171835591</v>
       </c>
       <c r="R33" s="39">
         <f>SUM($I11:$I19)</f>
-        <v>1.2135725905366122</v>
+        <v>0.45522524675476783</v>
       </c>
       <c r="S33" s="39">
         <f>SUM($I11:$I20)</f>
-        <v>1.9735604514882388</v>
+        <v>0.63912129101508908</v>
       </c>
       <c r="T33" s="39">
         <f>SUM($I11:$I21)</f>
-        <v>3.2032208105079705</v>
+        <v>0.89326562418285305</v>
       </c>
       <c r="U33" s="39">
         <f>SUM($I11:$I22)</f>
-        <v>5.1928112714018964</v>
+        <v>1.244493092620703</v>
       </c>
       <c r="V33" s="39">
         <f>SUM($I11:$I23)</f>
-        <v>8.4119686371282683</v>
+        <v>1.7298894540018113</v>
       </c>
       <c r="W33" s="39">
         <f>SUM($I11:$I24)</f>
-        <v>13.62056525487354</v>
+        <v>2.4007072254305029</v>
       </c>
       <c r="X33" s="39">
         <f>SUM($I11:$I25)</f>
-        <v>22.048074582385389</v>
+        <v>3.3277773855449548</v>
       </c>
       <c r="Y33" s="39">
         <f>SUM($I11:$I26)</f>
-        <v>35.683784674299567</v>
+        <v>4.6089883468231267</v>
       </c>
       <c r="Z33" s="39">
         <f>SUM($I11:$I27)</f>
-        <v>57.746363603016704</v>
+        <v>6.3796218953095609</v>
       </c>
       <c r="AA33" s="39">
         <f>SUM($I11:$I28)</f>
-        <v>93.443616309681033</v>
+        <v>8.8266374593178121</v>
       </c>
       <c r="AB33" s="39">
         <f>SUM($I11:$I29)</f>
-        <v>151.20177118906392</v>
+        <v>12.208412968777216</v>
       </c>
       <c r="AC33" s="39">
         <f>SUM($I11:$I30)</f>
-        <v>244.65446578390544</v>
+        <v>16.88202672285011</v>
       </c>
     </row>
     <row r="34" spans="2:30" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -9422,15 +9508,15 @@
       </c>
       <c r="C35" s="25">
         <f>SUM(C13:C34)</f>
-        <v>57.746363603016704</v>
+        <v>6.3796218953095609</v>
       </c>
       <c r="D35" s="25">
         <f>SUM(D13:D34)</f>
-        <v>2124.1765212763444</v>
+        <v>178.81110169739583</v>
       </c>
       <c r="E35" s="26">
         <f>MAX(E13:E34)</f>
-        <v>3.6480000000000001</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="36" spans="2:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B28D8E-E764-4974-B0D3-9B8547E73FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5F4F6D-1909-4F1B-AC25-1C6FACC7B692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5796" yWindow="396" windowWidth="31320" windowHeight="14244" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Input L30" sheetId="2" r:id="rId1"/>
     <sheet name="GBPJPY" sheetId="12" r:id="rId2"/>
     <sheet name="Thay đổi hệ số quãng" sheetId="10" r:id="rId3"/>
-    <sheet name="L15-L18" sheetId="11" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet1 (2)" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet1 (2)" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1221,7 +1220,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1524,6 +1523,25 @@
     <xf numFmtId="176" fontId="14" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="188" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="188" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="188" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="19" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="4" fontId="21" fillId="7" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1548,24 +1566,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="188" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="19" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1878,186 +1880,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>409585</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>227971</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6555FB7A-0209-6305-3F45-A47787CB54BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="228600"/>
-          <a:ext cx="15161905" cy="5028571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>447680</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>37467</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDAFC89-B924-3F74-83AA-75685B088739}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="5486400"/>
-          <a:ext cx="15200000" cy="5066667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>472396</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>27628</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12690A0F-9D94-427E-A759-4E15B09AFC80}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect l="2346"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="10972800"/>
-          <a:ext cx="15224716" cy="7571428"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>428632</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>227914</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4FAAB6C-78ED-42F7-80AE-9B0B3CBAB2A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="18745200"/>
-          <a:ext cx="15180952" cy="5485714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2722,7 +2544,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3167,19 +2989,19 @@
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="117" t="s">
+      <c r="K2" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117" t="s">
+      <c r="L2" s="126"/>
+      <c r="M2" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117" t="s">
+      <c r="N2" s="126"/>
+      <c r="O2" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
       <c r="R2" s="40"/>
       <c r="S2" s="40"/>
       <c r="T2" s="40"/>
@@ -3202,22 +3024,22 @@
       <c r="H3" s="27"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
-      <c r="K3" s="114">
+      <c r="K3" s="123">
         <f>SUM('Bảng Input L30'!C13:C37)</f>
         <v>44.096149164770779</v>
       </c>
-      <c r="L3" s="114"/>
-      <c r="M3" s="115">
+      <c r="L3" s="123"/>
+      <c r="M3" s="124">
         <f>K3*91</f>
         <v>4012.749573994141</v>
       </c>
-      <c r="N3" s="115"/>
-      <c r="O3" s="116">
+      <c r="N3" s="124"/>
+      <c r="O3" s="125">
         <f>M3+'Bảng Input L30'!D35</f>
         <v>11099.505102274201</v>
       </c>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
       <c r="R3" s="111">
         <f>O3*2</f>
         <v>22199.010204548402</v>
@@ -7130,7 +6952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3541F4C-599F-4FD9-B039-A87B0308EEC1}">
   <dimension ref="B1:AD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -7168,24 +6990,24 @@
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="45"/>
-      <c r="E2" s="123">
+      <c r="E2" s="115">
         <v>0.11</v>
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="117" t="s">
+      <c r="K2" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117" t="s">
+      <c r="L2" s="126"/>
+      <c r="M2" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117" t="s">
+      <c r="N2" s="126"/>
+      <c r="O2" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
       <c r="R2" s="40"/>
       <c r="S2" s="40"/>
       <c r="T2" s="40"/>
@@ -7201,29 +7023,29 @@
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="45"/>
-      <c r="E3" s="124">
+      <c r="E3" s="116">
         <f>E2</f>
         <v>0.11</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
-      <c r="K3" s="114">
+      <c r="K3" s="123">
         <f>SUM(GBPJPY!C13:C37)</f>
         <v>12.759243790619122</v>
       </c>
-      <c r="L3" s="114"/>
-      <c r="M3" s="115">
+      <c r="L3" s="123"/>
+      <c r="M3" s="124">
         <f>K3*91</f>
         <v>1161.09118494634</v>
       </c>
-      <c r="N3" s="115"/>
-      <c r="O3" s="116">
+      <c r="N3" s="124"/>
+      <c r="O3" s="125">
         <f>M3+GBPJPY!D35</f>
         <v>1339.9022866437358</v>
       </c>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
       <c r="R3" s="111">
         <f>O3*2</f>
         <v>2679.8045732874716</v>
@@ -7242,7 +7064,7 @@
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="45"/>
-      <c r="E4" s="124">
+      <c r="E4" s="116">
         <f>E3</f>
         <v>0.11</v>
       </c>
@@ -7278,7 +7100,7 @@
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="E5" s="124">
+      <c r="E5" s="116">
         <f>E4</f>
         <v>0.11</v>
       </c>
@@ -7313,7 +7135,7 @@
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="45"/>
-      <c r="E6" s="124">
+      <c r="E6" s="116">
         <f>E5</f>
         <v>0.11</v>
       </c>
@@ -7335,7 +7157,7 @@
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="45"/>
-      <c r="E7" s="124">
+      <c r="E7" s="116">
         <f>E6</f>
         <v>0.11</v>
       </c>
@@ -7674,83 +7496,83 @@
         <f>GBPJPY!C13</f>
         <v>0.01</v>
       </c>
-      <c r="J11" s="125">
+      <c r="J11" s="117">
         <f>I11*I6*100</f>
         <v>0.33</v>
       </c>
-      <c r="K11" s="125">
+      <c r="K11" s="117">
         <f>I11*100*(I6-I5)</f>
         <v>0.22000000000000003</v>
       </c>
-      <c r="L11" s="125">
+      <c r="L11" s="117">
         <f t="shared" ref="L11:AC11" si="2">$I$11*100*($I$6-$I$5*K10)</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="M11" s="125">
+      <c r="M11" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N11" s="125">
+      <c r="N11" s="117">
         <f>$I$11*100*($I$6-$I$5*M10)</f>
         <v>-0.10999999999999999</v>
       </c>
-      <c r="O11" s="125">
+      <c r="O11" s="117">
         <f t="shared" si="2"/>
         <v>-0.22000000000000003</v>
       </c>
-      <c r="P11" s="125">
+      <c r="P11" s="117">
         <f t="shared" si="2"/>
         <v>-0.33</v>
       </c>
-      <c r="Q11" s="125">
+      <c r="Q11" s="117">
         <f t="shared" si="2"/>
         <v>-0.44</v>
       </c>
-      <c r="R11" s="125">
+      <c r="R11" s="117">
         <f t="shared" si="2"/>
         <v>-0.55000000000000004</v>
       </c>
-      <c r="S11" s="125">
+      <c r="S11" s="117">
         <f t="shared" si="2"/>
         <v>-0.65999999999999992</v>
       </c>
-      <c r="T11" s="125">
+      <c r="T11" s="117">
         <f t="shared" si="2"/>
         <v>-0.77</v>
       </c>
-      <c r="U11" s="125">
+      <c r="U11" s="117">
         <f t="shared" si="2"/>
         <v>-0.87999999999999989</v>
       </c>
-      <c r="V11" s="125">
+      <c r="V11" s="117">
         <f t="shared" si="2"/>
         <v>-0.99</v>
       </c>
-      <c r="W11" s="125">
+      <c r="W11" s="117">
         <f t="shared" si="2"/>
         <v>-1.0999999999999999</v>
       </c>
-      <c r="X11" s="125">
+      <c r="X11" s="117">
         <f t="shared" si="2"/>
         <v>-1.21</v>
       </c>
-      <c r="Y11" s="125">
+      <c r="Y11" s="117">
         <f t="shared" si="2"/>
         <v>-1.3199999999999998</v>
       </c>
-      <c r="Z11" s="125">
+      <c r="Z11" s="117">
         <f t="shared" si="2"/>
         <v>-1.43</v>
       </c>
-      <c r="AA11" s="125">
+      <c r="AA11" s="117">
         <f t="shared" si="2"/>
         <v>-1.54</v>
       </c>
-      <c r="AB11" s="125">
+      <c r="AB11" s="117">
         <f t="shared" si="2"/>
         <v>-1.65</v>
       </c>
-      <c r="AC11" s="125">
+      <c r="AC11" s="117">
         <f t="shared" si="2"/>
         <v>-1.7599999999999998</v>
       </c>
@@ -7775,80 +7597,80 @@
         <f t="shared" ref="I12:I30" si="3">I11*$I$4</f>
         <v>1.3819999999999999E-2</v>
       </c>
-      <c r="J12" s="126"/>
-      <c r="K12" s="125">
+      <c r="J12" s="118"/>
+      <c r="K12" s="117">
         <f>I12*100*I6</f>
         <v>0.45605999999999997</v>
       </c>
-      <c r="L12" s="125">
+      <c r="L12" s="117">
         <f>I12*100*(I6-I5)</f>
         <v>0.30404000000000003</v>
       </c>
-      <c r="M12" s="125">
+      <c r="M12" s="117">
         <f t="shared" ref="M12:AC12" si="4">$I$12*100*($I$6-$I$5*K10)</f>
         <v>0.15202000000000002</v>
       </c>
-      <c r="N12" s="125">
+      <c r="N12" s="117">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O12" s="125">
+      <c r="O12" s="117">
         <f t="shared" si="4"/>
         <v>-0.15201999999999996</v>
       </c>
-      <c r="P12" s="125">
+      <c r="P12" s="117">
         <f t="shared" si="4"/>
         <v>-0.30404000000000003</v>
       </c>
-      <c r="Q12" s="125">
+      <c r="Q12" s="117">
         <f t="shared" si="4"/>
         <v>-0.45605999999999997</v>
       </c>
-      <c r="R12" s="125">
+      <c r="R12" s="117">
         <f t="shared" si="4"/>
         <v>-0.60807999999999995</v>
       </c>
-      <c r="S12" s="125">
+      <c r="S12" s="117">
         <f t="shared" si="4"/>
         <v>-0.7601</v>
       </c>
-      <c r="T12" s="125">
+      <c r="T12" s="117">
         <f t="shared" si="4"/>
         <v>-0.91211999999999982</v>
       </c>
-      <c r="U12" s="125">
+      <c r="U12" s="117">
         <f t="shared" si="4"/>
         <v>-1.0641399999999999</v>
       </c>
-      <c r="V12" s="125">
+      <c r="V12" s="117">
         <f t="shared" si="4"/>
         <v>-1.2161599999999997</v>
       </c>
-      <c r="W12" s="125">
+      <c r="W12" s="117">
         <f t="shared" si="4"/>
         <v>-1.36818</v>
       </c>
-      <c r="X12" s="125">
+      <c r="X12" s="117">
         <f t="shared" si="4"/>
         <v>-1.5201999999999998</v>
       </c>
-      <c r="Y12" s="125">
+      <c r="Y12" s="117">
         <f t="shared" si="4"/>
         <v>-1.6722199999999998</v>
       </c>
-      <c r="Z12" s="125">
+      <c r="Z12" s="117">
         <f t="shared" si="4"/>
         <v>-1.8242399999999996</v>
       </c>
-      <c r="AA12" s="125">
+      <c r="AA12" s="117">
         <f t="shared" si="4"/>
         <v>-1.9762599999999997</v>
       </c>
-      <c r="AB12" s="125">
+      <c r="AB12" s="117">
         <f t="shared" si="4"/>
         <v>-2.1282799999999997</v>
       </c>
-      <c r="AC12" s="125">
+      <c r="AC12" s="117">
         <f t="shared" si="4"/>
         <v>-2.2802999999999995</v>
       </c>
@@ -7866,7 +7688,7 @@
         <f>+C13*E13*100</f>
         <v>1.76</v>
       </c>
-      <c r="E13" s="122">
+      <c r="E13" s="114">
         <f>IF(B13=0,0,$E$2+$E$3+$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
         <v>1.76</v>
       </c>
@@ -7877,77 +7699,77 @@
         <f t="shared" si="3"/>
         <v>1.9099239999999996E-2</v>
       </c>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="125">
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="117">
         <f>I13*100*I6</f>
         <v>0.63027491999999996</v>
       </c>
-      <c r="M13" s="125">
+      <c r="M13" s="117">
         <f>I13*100*(I6-I5)</f>
         <v>0.42018327999999999</v>
       </c>
-      <c r="N13" s="125">
+      <c r="N13" s="117">
         <f t="shared" ref="N13:AC13" si="5">$I$13*100*($I$6-$I$5*K10)</f>
         <v>0.21009164</v>
       </c>
-      <c r="O13" s="125">
+      <c r="O13" s="117">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P13" s="125">
+      <c r="P13" s="117">
         <f t="shared" si="5"/>
         <v>-0.21009163999999994</v>
       </c>
-      <c r="Q13" s="125">
+      <c r="Q13" s="117">
         <f t="shared" si="5"/>
         <v>-0.42018327999999999</v>
       </c>
-      <c r="R13" s="125">
+      <c r="R13" s="117">
         <f t="shared" si="5"/>
         <v>-0.63027491999999996</v>
       </c>
-      <c r="S13" s="125">
+      <c r="S13" s="117">
         <f t="shared" si="5"/>
         <v>-0.84036655999999987</v>
       </c>
-      <c r="T13" s="125">
+      <c r="T13" s="117">
         <f t="shared" si="5"/>
         <v>-1.0504582</v>
       </c>
-      <c r="U13" s="125">
+      <c r="U13" s="117">
         <f t="shared" si="5"/>
         <v>-1.2605498399999997</v>
       </c>
-      <c r="V13" s="125">
+      <c r="V13" s="117">
         <f t="shared" si="5"/>
         <v>-1.4706414799999998</v>
       </c>
-      <c r="W13" s="125">
+      <c r="W13" s="117">
         <f t="shared" si="5"/>
         <v>-1.6807331199999995</v>
       </c>
-      <c r="X13" s="125">
+      <c r="X13" s="117">
         <f t="shared" si="5"/>
         <v>-1.8908247599999997</v>
       </c>
-      <c r="Y13" s="125">
+      <c r="Y13" s="117">
         <f t="shared" si="5"/>
         <v>-2.1009163999999996</v>
       </c>
-      <c r="Z13" s="125">
+      <c r="Z13" s="117">
         <f t="shared" si="5"/>
         <v>-2.3110080399999995</v>
       </c>
-      <c r="AA13" s="125">
+      <c r="AA13" s="117">
         <f t="shared" si="5"/>
         <v>-2.5210996799999994</v>
       </c>
-      <c r="AB13" s="125">
+      <c r="AB13" s="117">
         <f t="shared" si="5"/>
         <v>-2.7311913199999993</v>
       </c>
-      <c r="AC13" s="125">
+      <c r="AC13" s="117">
         <f t="shared" si="5"/>
         <v>-2.9412829599999997</v>
       </c>
@@ -7965,7 +7787,7 @@
         <f t="shared" ref="D14:D34" si="8">+C14*E14*100</f>
         <v>2.2802999999999995</v>
       </c>
-      <c r="E14" s="122">
+      <c r="E14" s="114">
         <f>IF(B14=0,0,$E$3+$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
         <v>1.65</v>
       </c>
@@ -7976,74 +7798,74 @@
         <f t="shared" si="3"/>
         <v>2.6395149679999994E-2</v>
       </c>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="125">
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="117">
         <f>I14*100*I6</f>
         <v>0.8710399394399998</v>
       </c>
-      <c r="N14" s="125">
+      <c r="N14" s="117">
         <f>I14*100*(I6-I5)</f>
         <v>0.58069329295999994</v>
       </c>
-      <c r="O14" s="125">
+      <c r="O14" s="117">
         <f t="shared" ref="O14:AC14" si="9">$I$14*100*($I$6-$I$5*K10)</f>
         <v>0.29034664647999997</v>
       </c>
-      <c r="P14" s="125">
+      <c r="P14" s="117">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="125">
+      <c r="Q14" s="117">
         <f t="shared" si="9"/>
         <v>-0.29034664647999991</v>
       </c>
-      <c r="R14" s="125">
+      <c r="R14" s="117">
         <f t="shared" si="9"/>
         <v>-0.58069329295999994</v>
       </c>
-      <c r="S14" s="125">
+      <c r="S14" s="117">
         <f t="shared" si="9"/>
         <v>-0.8710399394399998</v>
       </c>
-      <c r="T14" s="125">
+      <c r="T14" s="117">
         <f t="shared" si="9"/>
         <v>-1.1613865859199997</v>
       </c>
-      <c r="U14" s="125">
+      <c r="U14" s="117">
         <f t="shared" si="9"/>
         <v>-1.4517332323999999</v>
       </c>
-      <c r="V14" s="125">
+      <c r="V14" s="117">
         <f t="shared" si="9"/>
         <v>-1.7420798788799994</v>
       </c>
-      <c r="W14" s="125">
+      <c r="W14" s="117">
         <f t="shared" si="9"/>
         <v>-2.0324265253599996</v>
       </c>
-      <c r="X14" s="125">
+      <c r="X14" s="117">
         <f t="shared" si="9"/>
         <v>-2.3227731718399993</v>
       </c>
-      <c r="Y14" s="125">
+      <c r="Y14" s="117">
         <f t="shared" si="9"/>
         <v>-2.6131198183199995</v>
       </c>
-      <c r="Z14" s="125">
+      <c r="Z14" s="117">
         <f t="shared" si="9"/>
         <v>-2.9034664647999988</v>
       </c>
-      <c r="AA14" s="125">
+      <c r="AA14" s="117">
         <f t="shared" si="9"/>
         <v>-3.193813111279999</v>
       </c>
-      <c r="AB14" s="125">
+      <c r="AB14" s="117">
         <f t="shared" si="9"/>
         <v>-3.4841597577599988</v>
       </c>
-      <c r="AC14" s="125">
+      <c r="AC14" s="117">
         <f t="shared" si="9"/>
         <v>-3.7745064042399989</v>
       </c>
@@ -8061,7 +7883,7 @@
         <f t="shared" si="8"/>
         <v>2.9412829599999997</v>
       </c>
-      <c r="E15" s="122">
+      <c r="E15" s="114">
         <f>IF(B15=0,0,$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
         <v>1.54</v>
       </c>
@@ -8072,71 +7894,71 @@
         <f t="shared" si="3"/>
         <v>3.647809685775999E-2</v>
       </c>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="125">
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="117">
         <f>I15*I6*100</f>
         <v>1.2037771963060797</v>
       </c>
-      <c r="O15" s="125">
+      <c r="O15" s="117">
         <f>I15*100*(I6-I5)</f>
         <v>0.80251813087071988</v>
       </c>
-      <c r="P15" s="125">
+      <c r="P15" s="117">
         <f t="shared" ref="P15:AC15" si="10">$I$15*100*($I$6-$I$5*K10)</f>
         <v>0.40125906543535994</v>
       </c>
-      <c r="Q15" s="125">
+      <c r="Q15" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R15" s="125">
+      <c r="R15" s="117">
         <f t="shared" si="10"/>
         <v>-0.40125906543535989</v>
       </c>
-      <c r="S15" s="125">
+      <c r="S15" s="117">
         <f t="shared" si="10"/>
         <v>-0.80251813087071988</v>
       </c>
-      <c r="T15" s="125">
+      <c r="T15" s="117">
         <f t="shared" si="10"/>
         <v>-1.2037771963060797</v>
       </c>
-      <c r="U15" s="125">
+      <c r="U15" s="117">
         <f t="shared" si="10"/>
         <v>-1.6050362617414395</v>
       </c>
-      <c r="V15" s="125">
+      <c r="V15" s="117">
         <f t="shared" si="10"/>
         <v>-2.0062953271767996</v>
       </c>
-      <c r="W15" s="125">
+      <c r="W15" s="117">
         <f t="shared" si="10"/>
         <v>-2.407554392612159</v>
       </c>
-      <c r="X15" s="125">
+      <c r="X15" s="117">
         <f t="shared" si="10"/>
         <v>-2.8088134580475193</v>
       </c>
-      <c r="Y15" s="125">
+      <c r="Y15" s="117">
         <f t="shared" si="10"/>
         <v>-3.2100725234828791</v>
       </c>
-      <c r="Z15" s="125">
+      <c r="Z15" s="117">
         <f t="shared" si="10"/>
         <v>-3.6113315889182394</v>
       </c>
-      <c r="AA15" s="125">
+      <c r="AA15" s="117">
         <f t="shared" si="10"/>
         <v>-4.0125906543535983</v>
       </c>
-      <c r="AB15" s="125">
+      <c r="AB15" s="117">
         <f t="shared" si="10"/>
         <v>-4.413849719788959</v>
       </c>
-      <c r="AC15" s="125">
+      <c r="AC15" s="117">
         <f t="shared" si="10"/>
         <v>-4.815108785224318</v>
       </c>
@@ -8154,7 +7976,7 @@
         <f t="shared" si="8"/>
         <v>3.7745064042399989</v>
       </c>
-      <c r="E16" s="122">
+      <c r="E16" s="114">
         <f>IF(B16=0,0,$E$5+$E$6+($E$7*($E$10-6)))</f>
         <v>1.43</v>
       </c>
@@ -8165,68 +7987,68 @@
         <f t="shared" si="3"/>
         <v>5.0412729857424302E-2</v>
       </c>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="125">
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="117">
         <f>I16*I6*100</f>
         <v>1.663620085295002</v>
       </c>
-      <c r="P16" s="125">
+      <c r="P16" s="117">
         <f>I16*100*(I6-I5)</f>
         <v>1.1090800568633348</v>
       </c>
-      <c r="Q16" s="125">
+      <c r="Q16" s="117">
         <f t="shared" ref="Q16:AC16" si="11">$I$16*100*($I$6-$I$5*K10)</f>
         <v>0.55454002843166739</v>
       </c>
-      <c r="R16" s="125">
+      <c r="R16" s="117">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S16" s="125">
+      <c r="S16" s="117">
         <f t="shared" si="11"/>
         <v>-0.55454002843166728</v>
       </c>
-      <c r="T16" s="125">
+      <c r="T16" s="117">
         <f t="shared" si="11"/>
         <v>-1.1090800568633348</v>
       </c>
-      <c r="U16" s="125">
+      <c r="U16" s="117">
         <f t="shared" si="11"/>
         <v>-1.663620085295002</v>
       </c>
-      <c r="V16" s="125">
+      <c r="V16" s="117">
         <f t="shared" si="11"/>
         <v>-2.2181601137266691</v>
       </c>
-      <c r="W16" s="125">
+      <c r="W16" s="117">
         <f t="shared" si="11"/>
         <v>-2.7727001421583366</v>
       </c>
-      <c r="X16" s="125">
+      <c r="X16" s="117">
         <f t="shared" si="11"/>
         <v>-3.3272401705900037</v>
       </c>
-      <c r="Y16" s="125">
+      <c r="Y16" s="117">
         <f t="shared" si="11"/>
         <v>-3.8817801990216712</v>
       </c>
-      <c r="Z16" s="125">
+      <c r="Z16" s="117">
         <f t="shared" si="11"/>
         <v>-4.4363202274533382</v>
       </c>
-      <c r="AA16" s="125">
+      <c r="AA16" s="117">
         <f t="shared" si="11"/>
         <v>-4.9908602558850061</v>
       </c>
-      <c r="AB16" s="125">
+      <c r="AB16" s="117">
         <f t="shared" si="11"/>
         <v>-5.5454002843166723</v>
       </c>
-      <c r="AC16" s="125">
+      <c r="AC16" s="117">
         <f t="shared" si="11"/>
         <v>-6.0999403127483403</v>
       </c>
@@ -8244,7 +8066,7 @@
         <f t="shared" si="8"/>
         <v>4.8151087852243188</v>
       </c>
-      <c r="E17" s="122">
+      <c r="E17" s="114">
         <f>IF(B17=0,0,$E$6+($E$7*($E$10-6)))</f>
         <v>1.32</v>
       </c>
@@ -8255,65 +8077,65 @@
         <f t="shared" si="3"/>
         <v>6.9670392662960379E-2</v>
       </c>
-      <c r="J17" s="126"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="126"/>
-      <c r="O17" s="126"/>
-      <c r="P17" s="125">
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="117">
         <f>I6*I17*100</f>
         <v>2.2991229578776928</v>
       </c>
-      <c r="Q17" s="125">
+      <c r="Q17" s="117">
         <f>I17*100*(I6-I5)</f>
         <v>1.5327486385851283</v>
       </c>
-      <c r="R17" s="125">
+      <c r="R17" s="117">
         <f t="shared" ref="R17:AC17" si="12">$I$17*100*($I$6-$I$5*K10)</f>
         <v>0.76637431929256417</v>
       </c>
-      <c r="S17" s="125">
+      <c r="S17" s="117">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T17" s="125">
+      <c r="T17" s="117">
         <f t="shared" si="12"/>
         <v>-0.76637431929256405</v>
       </c>
-      <c r="U17" s="125">
+      <c r="U17" s="117">
         <f t="shared" si="12"/>
         <v>-1.5327486385851283</v>
       </c>
-      <c r="V17" s="125">
+      <c r="V17" s="117">
         <f t="shared" si="12"/>
         <v>-2.2991229578776924</v>
       </c>
-      <c r="W17" s="125">
+      <c r="W17" s="117">
         <f t="shared" si="12"/>
         <v>-3.0654972771702567</v>
       </c>
-      <c r="X17" s="125">
+      <c r="X17" s="117">
         <f t="shared" si="12"/>
         <v>-3.8318715964628209</v>
       </c>
-      <c r="Y17" s="125">
+      <c r="Y17" s="117">
         <f t="shared" si="12"/>
         <v>-4.5982459157553839</v>
       </c>
-      <c r="Z17" s="125">
+      <c r="Z17" s="117">
         <f t="shared" si="12"/>
         <v>-5.3646202350479486</v>
       </c>
-      <c r="AA17" s="125">
+      <c r="AA17" s="117">
         <f t="shared" si="12"/>
         <v>-6.1309945543405124</v>
       </c>
-      <c r="AB17" s="125">
+      <c r="AB17" s="117">
         <f t="shared" si="12"/>
         <v>-6.8973688736330772</v>
       </c>
-      <c r="AC17" s="125">
+      <c r="AC17" s="117">
         <f t="shared" si="12"/>
         <v>-7.6637431929256401</v>
       </c>
@@ -8331,7 +8153,7 @@
         <f t="shared" si="8"/>
         <v>6.0999403127483403</v>
       </c>
-      <c r="E18" s="122">
+      <c r="E18" s="114">
         <f>IF(B18=0,0,($E$7*($E$10-6)))</f>
         <v>1.21</v>
       </c>
@@ -8342,62 +8164,62 @@
         <f t="shared" si="3"/>
         <v>9.6284482660211237E-2</v>
       </c>
-      <c r="J18" s="126"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="126"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="126"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="125">
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="117">
         <f>I6*I18*100</f>
         <v>3.1773879277869712</v>
       </c>
-      <c r="R18" s="125">
+      <c r="R18" s="117">
         <f>I18*100*(I6-I5)</f>
         <v>2.1182586185246475</v>
       </c>
-      <c r="S18" s="125">
+      <c r="S18" s="117">
         <f t="shared" ref="S18:AC18" si="13">$I$18*100*($I$6-$I$5*K10)</f>
         <v>1.0591293092623237</v>
       </c>
-      <c r="T18" s="125">
+      <c r="T18" s="117">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U18" s="125">
+      <c r="U18" s="117">
         <f t="shared" si="13"/>
         <v>-1.0591293092623235</v>
       </c>
-      <c r="V18" s="125">
+      <c r="V18" s="117">
         <f t="shared" si="13"/>
         <v>-2.1182586185246475</v>
       </c>
-      <c r="W18" s="125">
+      <c r="W18" s="117">
         <f t="shared" si="13"/>
         <v>-3.1773879277869712</v>
       </c>
-      <c r="X18" s="125">
+      <c r="X18" s="117">
         <f t="shared" si="13"/>
         <v>-4.2365172370492949</v>
       </c>
-      <c r="Y18" s="125">
+      <c r="Y18" s="117">
         <f t="shared" si="13"/>
         <v>-5.2956465463116187</v>
       </c>
-      <c r="Z18" s="125">
+      <c r="Z18" s="117">
         <f t="shared" si="13"/>
         <v>-6.3547758555739406</v>
       </c>
-      <c r="AA18" s="125">
+      <c r="AA18" s="117">
         <f t="shared" si="13"/>
         <v>-7.4139051648362653</v>
       </c>
-      <c r="AB18" s="125">
+      <c r="AB18" s="117">
         <f t="shared" si="13"/>
         <v>-8.4730344740985881</v>
       </c>
-      <c r="AC18" s="125">
+      <c r="AC18" s="117">
         <f t="shared" si="13"/>
         <v>-9.5321637833609127</v>
       </c>
@@ -8415,7 +8237,7 @@
         <f t="shared" si="8"/>
         <v>7.6637431929256428</v>
       </c>
-      <c r="E19" s="122">
+      <c r="E19" s="114">
         <f>IF(B19=0,0,($E$7*($E$10-7)))</f>
         <v>1.1000000000000001</v>
       </c>
@@ -8426,59 +8248,59 @@
         <f t="shared" si="3"/>
         <v>0.13306515503641192</v>
       </c>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="125">
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="117">
         <f>I6*I19*100</f>
         <v>4.3911501162015938</v>
       </c>
-      <c r="S19" s="125">
+      <c r="S19" s="117">
         <f>I19*100*(I6-I5)</f>
         <v>2.9274334108010627</v>
       </c>
-      <c r="T19" s="125">
+      <c r="T19" s="117">
         <f t="shared" ref="T19:AC19" si="14">$I$19*100*($I$6-$I$5*K10)</f>
         <v>1.4637167054005313</v>
       </c>
-      <c r="U19" s="125">
+      <c r="U19" s="117">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V19" s="125">
+      <c r="V19" s="117">
         <f t="shared" si="14"/>
         <v>-1.4637167054005309</v>
       </c>
-      <c r="W19" s="125">
+      <c r="W19" s="117">
         <f t="shared" si="14"/>
         <v>-2.9274334108010627</v>
       </c>
-      <c r="X19" s="125">
+      <c r="X19" s="117">
         <f t="shared" si="14"/>
         <v>-4.3911501162015938</v>
       </c>
-      <c r="Y19" s="125">
+      <c r="Y19" s="117">
         <f t="shared" si="14"/>
         <v>-5.8548668216021245</v>
       </c>
-      <c r="Z19" s="125">
+      <c r="Z19" s="117">
         <f t="shared" si="14"/>
         <v>-7.318583527002656</v>
       </c>
-      <c r="AA19" s="125">
+      <c r="AA19" s="117">
         <f t="shared" si="14"/>
         <v>-8.7823002324031858</v>
       </c>
-      <c r="AB19" s="125">
+      <c r="AB19" s="117">
         <f t="shared" si="14"/>
         <v>-10.246016937803718</v>
       </c>
-      <c r="AC19" s="125">
+      <c r="AC19" s="117">
         <f t="shared" si="14"/>
         <v>-11.709733643204247</v>
       </c>
@@ -8496,7 +8318,7 @@
         <f t="shared" si="8"/>
         <v>9.5321637833609127</v>
       </c>
-      <c r="E20" s="122">
+      <c r="E20" s="114">
         <f>IF(B20=0,0,($E$7*($E$10-8)))</f>
         <v>0.99</v>
       </c>
@@ -8507,56 +8329,56 @@
         <f t="shared" si="3"/>
         <v>0.18389604426032125</v>
       </c>
-      <c r="J20" s="126"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="126"/>
-      <c r="N20" s="126"/>
-      <c r="O20" s="126"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="126"/>
-      <c r="R20" s="126"/>
-      <c r="S20" s="125">
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="117">
         <f>I6*I20*100</f>
         <v>6.0685694605906013</v>
       </c>
-      <c r="T20" s="125">
+      <c r="T20" s="117">
         <f>I20*100*(I6-I5)</f>
         <v>4.0457129737270678</v>
       </c>
-      <c r="U20" s="125">
+      <c r="U20" s="117">
         <f>$I$20*100*($I$6-$I$5*K10)</f>
         <v>2.0228564868635339</v>
       </c>
-      <c r="V20" s="125">
+      <c r="V20" s="117">
         <f>$I$20*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="125">
+      <c r="W20" s="117">
         <f>$I$20*100*($I$6-$I$5*M10)</f>
         <v>-2.0228564868635335</v>
       </c>
-      <c r="X20" s="125">
+      <c r="X20" s="117">
         <f>$I$20*100*($I$6-$I$5*N10)</f>
         <v>-4.0457129737270678</v>
       </c>
-      <c r="Y20" s="125">
+      <c r="Y20" s="117">
         <f>$I$20*100*($I$6-$I$5*O10)</f>
         <v>-6.0685694605906013</v>
       </c>
-      <c r="Z20" s="125">
+      <c r="Z20" s="117">
         <f t="shared" ref="Z20:AC20" si="15">$I$20*100*($I$6-$I$5*P10)</f>
         <v>-8.0914259474541357</v>
       </c>
-      <c r="AA20" s="125">
+      <c r="AA20" s="117">
         <f t="shared" si="15"/>
         <v>-10.114282434317669</v>
       </c>
-      <c r="AB20" s="125">
+      <c r="AB20" s="117">
         <f t="shared" si="15"/>
         <v>-12.137138921181201</v>
       </c>
-      <c r="AC20" s="125">
+      <c r="AC20" s="117">
         <f t="shared" si="15"/>
         <v>-14.159995408044736</v>
       </c>
@@ -8574,7 +8396,7 @@
         <f t="shared" si="8"/>
         <v>11.709733643204249</v>
       </c>
-      <c r="E21" s="122">
+      <c r="E21" s="114">
         <f>IF(B21=0,0,($E$7*($E$10-9)))</f>
         <v>0.88</v>
       </c>
@@ -8585,53 +8407,53 @@
         <f t="shared" si="3"/>
         <v>0.25414433316776397</v>
       </c>
-      <c r="J21" s="126"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="126"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="126"/>
-      <c r="S21" s="126"/>
-      <c r="T21" s="127">
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="119">
         <f>I6*I21*100</f>
         <v>8.3867629945362108</v>
       </c>
-      <c r="U21" s="127">
+      <c r="U21" s="119">
         <f>I21*100*(I6-I5)</f>
         <v>5.5911753296908078</v>
       </c>
-      <c r="V21" s="127">
+      <c r="V21" s="119">
         <f>$I$21*100*($I$6-$I$5*K10)</f>
         <v>2.7955876648454039</v>
       </c>
-      <c r="W21" s="127">
+      <c r="W21" s="119">
         <f>$I$21*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="X21" s="127">
+      <c r="X21" s="119">
         <f>$I$21*100*($I$6-$I$5*M10)</f>
         <v>-2.7955876648454034</v>
       </c>
-      <c r="Y21" s="127">
+      <c r="Y21" s="119">
         <f>$I$21*100*($I$6-$I$5*N10)</f>
         <v>-5.5911753296908078</v>
       </c>
-      <c r="Z21" s="127">
+      <c r="Z21" s="119">
         <f t="shared" ref="Z21:AC21" si="16">$I$21*100*($I$6-$I$5*O10)</f>
         <v>-8.3867629945362108</v>
       </c>
-      <c r="AA21" s="127">
+      <c r="AA21" s="119">
         <f t="shared" si="16"/>
         <v>-11.182350659381614</v>
       </c>
-      <c r="AB21" s="127">
+      <c r="AB21" s="119">
         <f t="shared" si="16"/>
         <v>-13.977938324227019</v>
       </c>
-      <c r="AC21" s="127">
+      <c r="AC21" s="119">
         <f t="shared" si="16"/>
         <v>-16.773525989072418</v>
       </c>
@@ -8649,7 +8471,7 @@
         <f t="shared" si="8"/>
         <v>14.159995408044738</v>
       </c>
-      <c r="E22" s="122">
+      <c r="E22" s="114">
         <f>IF(B22=0,0,($E$7*($E$10-10)))</f>
         <v>0.77</v>
       </c>
@@ -8660,50 +8482,50 @@
         <f t="shared" si="3"/>
         <v>0.3512274684378498</v>
       </c>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="126"/>
-      <c r="S22" s="126"/>
-      <c r="T22" s="127"/>
-      <c r="U22" s="127">
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119">
         <f>I6*I22*100</f>
         <v>11.590506458449044</v>
       </c>
-      <c r="V22" s="127">
+      <c r="V22" s="119">
         <f>I22*100*(I6-I5)</f>
         <v>7.7270043056326969</v>
       </c>
-      <c r="W22" s="127">
+      <c r="W22" s="119">
         <f>$I$22*100*($I$6-$I$5*K10)</f>
         <v>3.8635021528163485</v>
       </c>
-      <c r="X22" s="127">
+      <c r="X22" s="119">
         <f>$I$22*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="Y22" s="127">
+      <c r="Y22" s="119">
         <f>$I$22*100*($I$6-$I$5*M10)</f>
         <v>-3.8635021528163476</v>
       </c>
-      <c r="Z22" s="127">
+      <c r="Z22" s="119">
         <f t="shared" ref="Z22:AC22" si="17">$I$22*100*($I$6-$I$5*N10)</f>
         <v>-7.7270043056326969</v>
       </c>
-      <c r="AA22" s="127">
+      <c r="AA22" s="119">
         <f t="shared" si="17"/>
         <v>-11.590506458449044</v>
       </c>
-      <c r="AB22" s="127">
+      <c r="AB22" s="119">
         <f t="shared" si="17"/>
         <v>-15.454008611265392</v>
       </c>
-      <c r="AC22" s="127">
+      <c r="AC22" s="119">
         <f t="shared" si="17"/>
         <v>-19.317510764081742</v>
       </c>
@@ -8721,7 +8543,7 @@
         <f t="shared" si="8"/>
         <v>16.773525989072422</v>
       </c>
-      <c r="E23" s="122">
+      <c r="E23" s="114">
         <f>IF(B23=0,0,($E$7*($E$10-11)))</f>
         <v>0.66</v>
       </c>
@@ -8732,47 +8554,47 @@
         <f t="shared" si="3"/>
         <v>0.48539636138110837</v>
       </c>
-      <c r="J23" s="126"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
-      <c r="T23" s="127"/>
-      <c r="U23" s="127"/>
-      <c r="V23" s="127">
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="119"/>
+      <c r="U23" s="119"/>
+      <c r="V23" s="119">
         <f>I6*I23*100</f>
         <v>16.018079925576576</v>
       </c>
-      <c r="W23" s="127">
+      <c r="W23" s="119">
         <f>I23*100*(I6-I5)</f>
         <v>10.678719950384385</v>
       </c>
-      <c r="X23" s="127">
+      <c r="X23" s="119">
         <f>$I$23*100*($I$6-$I$5*K10)</f>
         <v>5.3393599751921927</v>
       </c>
-      <c r="Y23" s="127">
+      <c r="Y23" s="119">
         <f>$I$23*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="127">
+      <c r="Z23" s="119">
         <f t="shared" ref="Z23:AC23" si="18">$I$23*100*($I$6-$I$5*M10)</f>
         <v>-5.339359975192191</v>
       </c>
-      <c r="AA23" s="127">
+      <c r="AA23" s="119">
         <f t="shared" si="18"/>
         <v>-10.678719950384385</v>
       </c>
-      <c r="AB23" s="127">
+      <c r="AB23" s="119">
         <f t="shared" si="18"/>
         <v>-16.018079925576576</v>
       </c>
-      <c r="AC23" s="127">
+      <c r="AC23" s="119">
         <f t="shared" si="18"/>
         <v>-21.357439900768767</v>
       </c>
@@ -8790,7 +8612,7 @@
         <f t="shared" si="8"/>
         <v>19.317510764081742</v>
       </c>
-      <c r="E24" s="122">
+      <c r="E24" s="114">
         <f>IF(B24=0,0,($E$7*($E$10-12)))</f>
         <v>0.55000000000000004</v>
       </c>
@@ -8801,44 +8623,44 @@
         <f t="shared" si="3"/>
         <v>0.6708177714286917</v>
       </c>
-      <c r="J24" s="126"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="126"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="126"/>
-      <c r="S24" s="126"/>
-      <c r="T24" s="127"/>
-      <c r="U24" s="127"/>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127">
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="119"/>
+      <c r="U24" s="119"/>
+      <c r="V24" s="119"/>
+      <c r="W24" s="119">
         <f>I6*I24*100</f>
         <v>22.136986457146826</v>
       </c>
-      <c r="X24" s="127">
+      <c r="X24" s="119">
         <f>I24*100*(I6-I5)</f>
         <v>14.757990971431219</v>
       </c>
-      <c r="Y24" s="127">
+      <c r="Y24" s="119">
         <f>$I$24*100*($I$6-$I$5*K10)</f>
         <v>7.3789954857156097</v>
       </c>
-      <c r="Z24" s="127">
+      <c r="Z24" s="119">
         <f t="shared" ref="Z24:AC24" si="19">$I$24*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="127">
+      <c r="AA24" s="119">
         <f t="shared" si="19"/>
         <v>-7.3789954857156079</v>
       </c>
-      <c r="AB24" s="127">
+      <c r="AB24" s="119">
         <f t="shared" si="19"/>
         <v>-14.757990971431219</v>
       </c>
-      <c r="AC24" s="127">
+      <c r="AC24" s="119">
         <f t="shared" si="19"/>
         <v>-22.136986457146829</v>
       </c>
@@ -8856,7 +8678,7 @@
         <f t="shared" si="8"/>
         <v>21.357439900768767</v>
       </c>
-      <c r="E25" s="122">
+      <c r="E25" s="114">
         <f>IF(B25=0,0,($E$7*($E$10-13)))</f>
         <v>0.44</v>
       </c>
@@ -8867,41 +8689,41 @@
         <f t="shared" si="3"/>
         <v>0.92707016011445187</v>
       </c>
-      <c r="J25" s="126"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="126"/>
-      <c r="O25" s="126"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="126"/>
-      <c r="S25" s="126"/>
-      <c r="T25" s="127"/>
-      <c r="U25" s="127"/>
-      <c r="V25" s="127"/>
-      <c r="W25" s="127"/>
-      <c r="X25" s="127">
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="119"/>
+      <c r="U25" s="119"/>
+      <c r="V25" s="119"/>
+      <c r="W25" s="119"/>
+      <c r="X25" s="119">
         <f>I6*I25*100</f>
         <v>30.59331528377691</v>
       </c>
-      <c r="Y25" s="127">
+      <c r="Y25" s="119">
         <f>I25*100*(I6-I5)</f>
         <v>20.395543522517944</v>
       </c>
-      <c r="Z25" s="127">
+      <c r="Z25" s="119">
         <f>$I$25*100*($I$6-$I$5*K10)</f>
         <v>10.197771761258972</v>
       </c>
-      <c r="AA25" s="127">
+      <c r="AA25" s="119">
         <f>$I$25*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="127">
+      <c r="AB25" s="119">
         <f>$I$25*100*($I$6-$I$5*M10)</f>
         <v>-10.19777176125897</v>
       </c>
-      <c r="AC25" s="127">
+      <c r="AC25" s="119">
         <f>$I$25*100*($I$6-$I$5*N10)</f>
         <v>-20.395543522517944</v>
       </c>
@@ -8919,7 +8741,7 @@
         <f t="shared" si="8"/>
         <v>22.136986457146826</v>
       </c>
-      <c r="E26" s="122">
+      <c r="E26" s="114">
         <f>IF(B26=0,0,($E$7*($E$10-14)))</f>
         <v>0.33</v>
       </c>
@@ -8930,38 +8752,38 @@
         <f t="shared" si="3"/>
         <v>1.2812109612781724</v>
       </c>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="127"/>
-      <c r="U26" s="127"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="127">
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="118"/>
+      <c r="O26" s="118"/>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="119"/>
+      <c r="U26" s="119"/>
+      <c r="V26" s="119"/>
+      <c r="W26" s="119"/>
+      <c r="X26" s="119"/>
+      <c r="Y26" s="119">
         <f>I26*I6*100</f>
         <v>42.279961722179685</v>
       </c>
-      <c r="Z26" s="127">
+      <c r="Z26" s="119">
         <f>$I$26*100*($I$6-$I$5)</f>
         <v>28.186641148119794</v>
       </c>
-      <c r="AA26" s="127">
+      <c r="AA26" s="119">
         <f>$I$26*100*($I$6-$I$5*K10)</f>
         <v>14.093320574059897</v>
       </c>
-      <c r="AB26" s="127">
+      <c r="AB26" s="119">
         <f>$I$26*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="AC26" s="127">
+      <c r="AC26" s="119">
         <f>$I$26*100*($I$6-$I$5*M10)</f>
         <v>-14.093320574059893</v>
       </c>
@@ -8979,7 +8801,7 @@
         <f t="shared" si="8"/>
         <v>20.395543522517944</v>
       </c>
-      <c r="E27" s="122">
+      <c r="E27" s="114">
         <f>IF(B27=0,0,($E$7*($E$10-15)))</f>
         <v>0.22</v>
       </c>
@@ -8990,35 +8812,35 @@
         <f t="shared" si="3"/>
         <v>1.770633548486434</v>
       </c>
-      <c r="J27" s="128"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="128"/>
-      <c r="Q27" s="128"/>
-      <c r="R27" s="128"/>
-      <c r="S27" s="128"/>
-      <c r="T27" s="128"/>
-      <c r="U27" s="128"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="127">
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="120"/>
+      <c r="T27" s="120"/>
+      <c r="U27" s="120"/>
+      <c r="V27" s="120"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="120"/>
+      <c r="Y27" s="120"/>
+      <c r="Z27" s="119">
         <f>$I$27*$I$6*100</f>
         <v>58.430907100052323</v>
       </c>
-      <c r="AA27" s="127">
+      <c r="AA27" s="119">
         <f>$I$27*100*($I$6-$I$5*J$10)</f>
         <v>38.953938066701554</v>
       </c>
-      <c r="AB27" s="127">
+      <c r="AB27" s="119">
         <f t="shared" ref="AB27:AC27" si="20">$I$27*100*($I$6-$I$5*K$10)</f>
         <v>19.476969033350777</v>
       </c>
-      <c r="AC27" s="127">
+      <c r="AC27" s="119">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -9036,7 +8858,7 @@
         <f t="shared" si="8"/>
         <v>14.093320574059895</v>
       </c>
-      <c r="E28" s="122">
+      <c r="E28" s="114">
         <f>IF(B28=0,0,($E$7*($E$10-16)))</f>
         <v>0.11</v>
       </c>
@@ -9047,32 +8869,32 @@
         <f t="shared" si="3"/>
         <v>2.4470155640082516</v>
       </c>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="128"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="128"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
-      <c r="X28" s="128"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="128"/>
-      <c r="AA28" s="127">
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="120"/>
+      <c r="Q28" s="120"/>
+      <c r="R28" s="120"/>
+      <c r="S28" s="120"/>
+      <c r="T28" s="120"/>
+      <c r="U28" s="120"/>
+      <c r="V28" s="120"/>
+      <c r="W28" s="120"/>
+      <c r="X28" s="120"/>
+      <c r="Y28" s="120"/>
+      <c r="Z28" s="120"/>
+      <c r="AA28" s="119">
         <f>$I$28*$I$6*100</f>
         <v>80.751513612272305</v>
       </c>
-      <c r="AB28" s="127">
+      <c r="AB28" s="119">
         <f>$I$28*100*($I$6-$I$5*J$10)</f>
         <v>53.834342408181541</v>
       </c>
-      <c r="AC28" s="127">
+      <c r="AC28" s="119">
         <f>$I$28*100*($I$6-$I$5*K$10)</f>
         <v>26.917171204090771</v>
       </c>
@@ -9090,7 +8912,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E29" s="122">
+      <c r="E29" s="114">
         <f>IF(B29=0,0,($E$7*($E$10-17)))</f>
         <v>0</v>
       </c>
@@ -9101,29 +8923,29 @@
         <f t="shared" si="3"/>
         <v>3.3817755094594033</v>
       </c>
-      <c r="J29" s="128"/>
-      <c r="K29" s="128"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="128"/>
-      <c r="P29" s="128"/>
-      <c r="Q29" s="128"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="128"/>
-      <c r="T29" s="128"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="128"/>
-      <c r="AA29" s="128"/>
-      <c r="AB29" s="127">
+      <c r="J29" s="120"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="120"/>
+      <c r="W29" s="120"/>
+      <c r="X29" s="120"/>
+      <c r="Y29" s="120"/>
+      <c r="Z29" s="120"/>
+      <c r="AA29" s="120"/>
+      <c r="AB29" s="119">
         <f>$I$29*$I$6*100</f>
         <v>111.59859181216032</v>
       </c>
-      <c r="AC29" s="127">
+      <c r="AC29" s="119">
         <f>$I$29*100*($I$6-$I$5*J$10)</f>
         <v>74.399061208106872</v>
       </c>
@@ -9152,26 +8974,26 @@
         <f t="shared" si="3"/>
         <v>4.6736137540728953</v>
       </c>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="128"/>
-      <c r="N30" s="128"/>
-      <c r="O30" s="128"/>
-      <c r="P30" s="128"/>
-      <c r="Q30" s="128"/>
-      <c r="R30" s="128"/>
-      <c r="S30" s="128"/>
-      <c r="T30" s="128"/>
-      <c r="U30" s="128"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="128"/>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="128"/>
-      <c r="AA30" s="128"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="127">
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="120"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="120"/>
+      <c r="S30" s="120"/>
+      <c r="T30" s="120"/>
+      <c r="U30" s="120"/>
+      <c r="V30" s="120"/>
+      <c r="W30" s="120"/>
+      <c r="X30" s="120"/>
+      <c r="Y30" s="120"/>
+      <c r="Z30" s="120"/>
+      <c r="AA30" s="120"/>
+      <c r="AB30" s="120"/>
+      <c r="AC30" s="119">
         <f>$I$30*$I$6*100</f>
         <v>154.22925388440555</v>
       </c>
@@ -9200,83 +9022,83 @@
         <f>SUM(I11:I26)</f>
         <v>4.6089883468231267</v>
       </c>
-      <c r="J31" s="129">
+      <c r="J31" s="121">
         <f>SUMIF(J11:J30, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="K31" s="129">
+      <c r="K31" s="121">
         <f t="shared" ref="K31:AC31" si="21">SUMIF(K11:K30, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="L31" s="129">
+      <c r="L31" s="121">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M31" s="129">
+      <c r="M31" s="121">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="N31" s="129">
+      <c r="N31" s="121">
         <f t="shared" si="21"/>
         <v>-0.10999999999999999</v>
       </c>
-      <c r="O31" s="129">
+      <c r="O31" s="121">
         <f t="shared" si="21"/>
         <v>-0.37202000000000002</v>
       </c>
-      <c r="P31" s="129">
+      <c r="P31" s="121">
         <f t="shared" si="21"/>
         <v>-0.84413163999999996</v>
       </c>
-      <c r="Q31" s="129">
+      <c r="Q31" s="121">
         <f t="shared" si="21"/>
         <v>-1.6065899264799999</v>
       </c>
-      <c r="R31" s="129">
+      <c r="R31" s="121">
         <f t="shared" si="21"/>
         <v>-2.77030727839536</v>
       </c>
-      <c r="S31" s="129">
+      <c r="S31" s="121">
         <f t="shared" si="21"/>
         <v>-4.4885646587423862</v>
       </c>
-      <c r="T31" s="129">
+      <c r="T31" s="121">
         <f t="shared" si="21"/>
         <v>-6.973196358381978</v>
       </c>
-      <c r="U31" s="129">
+      <c r="U31" s="121">
         <f t="shared" si="21"/>
         <v>-10.516957367283892</v>
       </c>
-      <c r="V31" s="129">
+      <c r="V31" s="121">
         <f t="shared" si="21"/>
         <v>-15.524435081586336</v>
       </c>
-      <c r="W31" s="129">
+      <c r="W31" s="121">
         <f t="shared" si="21"/>
         <v>-22.554769282752318</v>
       </c>
-      <c r="X31" s="129">
+      <c r="X31" s="121">
         <f t="shared" si="21"/>
         <v>-32.380691148763702</v>
       </c>
-      <c r="Y31" s="129">
+      <c r="Y31" s="121">
         <f t="shared" si="21"/>
         <v>-46.070115167591432</v>
       </c>
-      <c r="Z31" s="129">
+      <c r="Z31" s="121">
         <f t="shared" si="21"/>
         <v>-65.098899161611357</v>
       </c>
-      <c r="AA31" s="129">
+      <c r="AA31" s="121">
         <f t="shared" si="21"/>
         <v>-91.506678641346895</v>
       </c>
-      <c r="AB31" s="129">
+      <c r="AB31" s="121">
         <f t="shared" si="21"/>
         <v>-128.11222988234138</v>
       </c>
-      <c r="AC31" s="129">
+      <c r="AC31" s="121">
         <f t="shared" si="21"/>
         <v>-178.81110169739583</v>
       </c>
@@ -9301,83 +9123,83 @@
       <c r="I32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J32" s="130">
+      <c r="J32" s="122">
         <f t="shared" ref="J32:AC32" si="23">SUM(J11:J30)</f>
         <v>0.33</v>
       </c>
-      <c r="K32" s="130">
+      <c r="K32" s="122">
         <f t="shared" si="23"/>
         <v>0.67605999999999999</v>
       </c>
-      <c r="L32" s="130">
+      <c r="L32" s="122">
         <f t="shared" si="23"/>
         <v>1.0443149200000001</v>
       </c>
-      <c r="M32" s="130">
+      <c r="M32" s="122">
         <f t="shared" si="23"/>
         <v>1.4432432194399998</v>
       </c>
-      <c r="N32" s="130">
+      <c r="N32" s="122">
         <f t="shared" si="23"/>
         <v>1.8845621292660797</v>
       </c>
-      <c r="O32" s="130">
+      <c r="O32" s="122">
         <f t="shared" si="23"/>
         <v>2.3844648626457219</v>
       </c>
-      <c r="P32" s="130">
+      <c r="P32" s="122">
         <f t="shared" si="23"/>
         <v>2.9653304401763876</v>
       </c>
-      <c r="Q32" s="130">
+      <c r="Q32" s="122">
         <f t="shared" si="23"/>
         <v>3.6580866683237669</v>
       </c>
-      <c r="R32" s="130">
+      <c r="R32" s="122">
         <f t="shared" si="23"/>
         <v>4.5054757756234451</v>
       </c>
-      <c r="S32" s="130">
+      <c r="S32" s="122">
         <f t="shared" si="23"/>
         <v>5.5665675219116011</v>
       </c>
-      <c r="T32" s="130">
+      <c r="T32" s="122">
         <f t="shared" si="23"/>
         <v>6.9229963152818321</v>
       </c>
-      <c r="U32" s="130">
+      <c r="U32" s="122">
         <f t="shared" si="23"/>
         <v>8.687580907719493</v>
       </c>
-      <c r="V32" s="130">
+      <c r="V32" s="122">
         <f t="shared" si="23"/>
         <v>11.016236814468339</v>
       </c>
-      <c r="W32" s="130">
+      <c r="W32" s="122">
         <f t="shared" si="23"/>
         <v>14.124439277595242</v>
       </c>
-      <c r="X32" s="130">
+      <c r="X32" s="122">
         <f t="shared" si="23"/>
         <v>18.309975081636619</v>
       </c>
-      <c r="Y32" s="130">
+      <c r="Y32" s="122">
         <f t="shared" si="23"/>
         <v>23.98438556282181</v>
       </c>
-      <c r="Z32" s="130">
+      <c r="Z32" s="122">
         <f t="shared" si="23"/>
         <v>31.71642084781973</v>
       </c>
-      <c r="AA32" s="130">
+      <c r="AA32" s="122">
         <f t="shared" si="23"/>
         <v>42.292093611686866</v>
       </c>
-      <c r="AB32" s="130">
+      <c r="AB32" s="122">
         <f t="shared" si="23"/>
         <v>56.797673371351252</v>
       </c>
-      <c r="AC32" s="130">
+      <c r="AC32" s="122">
         <f t="shared" si="23"/>
         <v>76.734384599207374</v>
       </c>
@@ -11205,10 +11027,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:W29"/>
+  <dimension ref="B1:Z38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -11224,11 +11046,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="13" t="s">
         <v>50</v>
       </c>
@@ -11243,11 +11065,11 @@
       </c>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="128"/>
       <c r="E2" s="66"/>
       <c r="F2" s="14" t="s">
         <v>84</v>
@@ -11297,9 +11119,9 @@
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="66"/>
       <c r="F3" s="66" t="s">
         <v>83</v>
@@ -11363,11 +11185,11 @@
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="121"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="15" t="s">
         <v>13</v>
       </c>
@@ -12225,7 +12047,7 @@
       <c r="V16" s="63"/>
       <c r="W16" s="63"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B17" s="62" t="s">
         <v>42</v>
       </c>
@@ -12274,7 +12096,7 @@
       <c r="V17" s="63"/>
       <c r="W17" s="63"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B18" s="62" t="s">
         <v>43</v>
       </c>
@@ -12320,7 +12142,7 @@
       <c r="V18" s="63"/>
       <c r="W18" s="63"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B19" s="62" t="s">
         <v>44</v>
       </c>
@@ -12363,7 +12185,7 @@
       <c r="V19" s="63"/>
       <c r="W19" s="63"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B20" s="62" t="s">
         <v>45</v>
       </c>
@@ -12403,7 +12225,7 @@
       <c r="V20" s="63"/>
       <c r="W20" s="63"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F21" s="64">
         <f>SUM(F6:F20)</f>
         <v>36.629999999999995</v>
@@ -12471,7 +12293,7 @@
       <c r="V21" s="63"/>
       <c r="W21" s="63"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F22" s="58"/>
       <c r="G22" s="80">
         <f t="shared" ref="G22:U22" si="17">SUM(G6:G20)</f>
@@ -12536,28 +12358,762 @@
       <c r="V22" s="63"/>
       <c r="W22" s="63"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F23" s="58"/>
       <c r="G23" s="63"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F24" s="58"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F25" s="58"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F26" s="58"/>
       <c r="W26" s="63"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F27" s="58"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F28" s="58"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F29" s="58"/>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="G30" s="58">
+        <v>1</v>
+      </c>
+      <c r="H30" s="58">
+        <v>2</v>
+      </c>
+      <c r="I30" s="58">
+        <v>3</v>
+      </c>
+      <c r="J30" s="58">
+        <v>4</v>
+      </c>
+      <c r="K30" s="58">
+        <v>5</v>
+      </c>
+      <c r="L30" s="58">
+        <v>6</v>
+      </c>
+      <c r="M30" s="58">
+        <v>7</v>
+      </c>
+      <c r="N30" s="58">
+        <v>8</v>
+      </c>
+      <c r="O30" s="58">
+        <v>9</v>
+      </c>
+      <c r="P30" s="58">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="58">
+        <v>11</v>
+      </c>
+      <c r="R30" s="58">
+        <v>12</v>
+      </c>
+      <c r="S30" s="58">
+        <v>13</v>
+      </c>
+      <c r="T30" s="58">
+        <v>14</v>
+      </c>
+      <c r="U30" s="58">
+        <v>15</v>
+      </c>
+      <c r="V30" s="58">
+        <v>16</v>
+      </c>
+      <c r="W30" s="58">
+        <v>17</v>
+      </c>
+      <c r="X30" s="58">
+        <v>18</v>
+      </c>
+      <c r="Y30" s="58">
+        <v>19</v>
+      </c>
+      <c r="Z30" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="F31" s="63">
+        <v>1</v>
+      </c>
+      <c r="G31" s="131">
+        <v>200</v>
+      </c>
+      <c r="H31" s="131">
+        <f>G31*1.05</f>
+        <v>210</v>
+      </c>
+      <c r="I31" s="131">
+        <f t="shared" ref="I31:Z31" si="18">H31*1.05</f>
+        <v>220.5</v>
+      </c>
+      <c r="J31" s="131">
+        <f t="shared" si="18"/>
+        <v>231.52500000000001</v>
+      </c>
+      <c r="K31" s="131">
+        <f t="shared" si="18"/>
+        <v>243.10125000000002</v>
+      </c>
+      <c r="L31" s="131">
+        <f t="shared" si="18"/>
+        <v>255.25631250000004</v>
+      </c>
+      <c r="M31" s="131">
+        <f t="shared" si="18"/>
+        <v>268.01912812500007</v>
+      </c>
+      <c r="N31" s="131">
+        <f t="shared" si="18"/>
+        <v>281.4200845312501</v>
+      </c>
+      <c r="O31" s="131">
+        <f t="shared" si="18"/>
+        <v>295.49108875781263</v>
+      </c>
+      <c r="P31" s="131">
+        <f t="shared" si="18"/>
+        <v>310.26564319570326</v>
+      </c>
+      <c r="Q31" s="131">
+        <f t="shared" si="18"/>
+        <v>325.77892535548841</v>
+      </c>
+      <c r="R31" s="131">
+        <f t="shared" si="18"/>
+        <v>342.06787162326287</v>
+      </c>
+      <c r="S31" s="131">
+        <f t="shared" si="18"/>
+        <v>359.17126520442605</v>
+      </c>
+      <c r="T31" s="131">
+        <f t="shared" si="18"/>
+        <v>377.12982846464735</v>
+      </c>
+      <c r="U31" s="131">
+        <f t="shared" si="18"/>
+        <v>395.98631988787974</v>
+      </c>
+      <c r="V31" s="131">
+        <f t="shared" si="18"/>
+        <v>415.78563588227377</v>
+      </c>
+      <c r="W31" s="131">
+        <f t="shared" si="18"/>
+        <v>436.57491767638749</v>
+      </c>
+      <c r="X31" s="131">
+        <f t="shared" si="18"/>
+        <v>458.40366356020689</v>
+      </c>
+      <c r="Y31" s="131">
+        <f t="shared" si="18"/>
+        <v>481.32384673821724</v>
+      </c>
+      <c r="Z31" s="131">
+        <f t="shared" si="18"/>
+        <v>505.39003907512813</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="F32" s="63">
+        <v>2</v>
+      </c>
+      <c r="G32" s="131">
+        <v>500</v>
+      </c>
+      <c r="H32" s="131">
+        <f>G32*1.05</f>
+        <v>525</v>
+      </c>
+      <c r="I32" s="131">
+        <f t="shared" ref="I32:Z32" si="19">H32*1.05</f>
+        <v>551.25</v>
+      </c>
+      <c r="J32" s="131">
+        <f t="shared" si="19"/>
+        <v>578.8125</v>
+      </c>
+      <c r="K32" s="131">
+        <f t="shared" si="19"/>
+        <v>607.75312500000007</v>
+      </c>
+      <c r="L32" s="131">
+        <f t="shared" si="19"/>
+        <v>638.14078125000015</v>
+      </c>
+      <c r="M32" s="131">
+        <f t="shared" si="19"/>
+        <v>670.04782031250022</v>
+      </c>
+      <c r="N32" s="131">
+        <f t="shared" si="19"/>
+        <v>703.55021132812522</v>
+      </c>
+      <c r="O32" s="131">
+        <f t="shared" si="19"/>
+        <v>738.72772189453156</v>
+      </c>
+      <c r="P32" s="131">
+        <f t="shared" si="19"/>
+        <v>775.66410798925813</v>
+      </c>
+      <c r="Q32" s="131">
+        <f t="shared" si="19"/>
+        <v>814.44731338872111</v>
+      </c>
+      <c r="R32" s="131">
+        <f t="shared" si="19"/>
+        <v>855.16967905815716</v>
+      </c>
+      <c r="S32" s="131">
+        <f t="shared" si="19"/>
+        <v>897.92816301106507</v>
+      </c>
+      <c r="T32" s="131">
+        <f t="shared" si="19"/>
+        <v>942.82457116161834</v>
+      </c>
+      <c r="U32" s="131">
+        <f t="shared" si="19"/>
+        <v>989.96579971969925</v>
+      </c>
+      <c r="V32" s="131">
+        <f t="shared" si="19"/>
+        <v>1039.4640897056843</v>
+      </c>
+      <c r="W32" s="131">
+        <f t="shared" si="19"/>
+        <v>1091.4372941909685</v>
+      </c>
+      <c r="X32" s="131">
+        <f t="shared" si="19"/>
+        <v>1146.0091589005169</v>
+      </c>
+      <c r="Y32" s="131">
+        <f t="shared" si="19"/>
+        <v>1203.3096168455429</v>
+      </c>
+      <c r="Z32" s="131">
+        <f t="shared" si="19"/>
+        <v>1263.4750976878202</v>
+      </c>
+    </row>
+    <row r="33" spans="6:26" x14ac:dyDescent="0.45">
+      <c r="F33" s="63">
+        <v>3</v>
+      </c>
+      <c r="G33" s="131">
+        <v>1200</v>
+      </c>
+      <c r="H33" s="131">
+        <f>G33*1.05</f>
+        <v>1260</v>
+      </c>
+      <c r="I33" s="131">
+        <f t="shared" ref="I33:Z33" si="20">H33*1.05</f>
+        <v>1323</v>
+      </c>
+      <c r="J33" s="131">
+        <f t="shared" si="20"/>
+        <v>1389.15</v>
+      </c>
+      <c r="K33" s="131">
+        <f t="shared" si="20"/>
+        <v>1458.6075000000001</v>
+      </c>
+      <c r="L33" s="131">
+        <f t="shared" si="20"/>
+        <v>1531.5378750000002</v>
+      </c>
+      <c r="M33" s="131">
+        <f t="shared" si="20"/>
+        <v>1608.1147687500004</v>
+      </c>
+      <c r="N33" s="131">
+        <f t="shared" si="20"/>
+        <v>1688.5205071875005</v>
+      </c>
+      <c r="O33" s="131">
+        <f t="shared" si="20"/>
+        <v>1772.9465325468755</v>
+      </c>
+      <c r="P33" s="131">
+        <f t="shared" si="20"/>
+        <v>1861.5938591742192</v>
+      </c>
+      <c r="Q33" s="131">
+        <f t="shared" si="20"/>
+        <v>1954.6735521329304</v>
+      </c>
+      <c r="R33" s="131">
+        <f t="shared" si="20"/>
+        <v>2052.4072297395769</v>
+      </c>
+      <c r="S33" s="131">
+        <f t="shared" si="20"/>
+        <v>2155.0275912265561</v>
+      </c>
+      <c r="T33" s="131">
+        <f t="shared" si="20"/>
+        <v>2262.7789707878842</v>
+      </c>
+      <c r="U33" s="131">
+        <f t="shared" si="20"/>
+        <v>2375.9179193272785</v>
+      </c>
+      <c r="V33" s="131">
+        <f t="shared" si="20"/>
+        <v>2494.7138152936427</v>
+      </c>
+      <c r="W33" s="131">
+        <f t="shared" si="20"/>
+        <v>2619.4495060583249</v>
+      </c>
+      <c r="X33" s="131">
+        <f t="shared" si="20"/>
+        <v>2750.4219813612413</v>
+      </c>
+      <c r="Y33" s="131">
+        <f t="shared" si="20"/>
+        <v>2887.9430804293033</v>
+      </c>
+      <c r="Z33" s="131">
+        <f t="shared" si="20"/>
+        <v>3032.3402344507685</v>
+      </c>
+    </row>
+    <row r="34" spans="6:26" x14ac:dyDescent="0.45">
+      <c r="F34" s="63">
+        <v>4</v>
+      </c>
+      <c r="G34" s="131">
+        <v>3000</v>
+      </c>
+      <c r="H34" s="131">
+        <f>G34*1.05</f>
+        <v>3150</v>
+      </c>
+      <c r="I34" s="131">
+        <f t="shared" ref="I34:Z34" si="21">H34*1.05</f>
+        <v>3307.5</v>
+      </c>
+      <c r="J34" s="131">
+        <f t="shared" si="21"/>
+        <v>3472.875</v>
+      </c>
+      <c r="K34" s="131">
+        <f t="shared" si="21"/>
+        <v>3646.5187500000002</v>
+      </c>
+      <c r="L34" s="131">
+        <f t="shared" si="21"/>
+        <v>3828.8446875000004</v>
+      </c>
+      <c r="M34" s="131">
+        <f t="shared" si="21"/>
+        <v>4020.2869218750006</v>
+      </c>
+      <c r="N34" s="131">
+        <f t="shared" si="21"/>
+        <v>4221.3012679687508</v>
+      </c>
+      <c r="O34" s="131">
+        <f t="shared" si="21"/>
+        <v>4432.3663313671886</v>
+      </c>
+      <c r="P34" s="131">
+        <f t="shared" si="21"/>
+        <v>4653.9846479355483</v>
+      </c>
+      <c r="Q34" s="131">
+        <f t="shared" si="21"/>
+        <v>4886.6838803323262</v>
+      </c>
+      <c r="R34" s="131">
+        <f t="shared" si="21"/>
+        <v>5131.0180743489427</v>
+      </c>
+      <c r="S34" s="131">
+        <f t="shared" si="21"/>
+        <v>5387.5689780663897</v>
+      </c>
+      <c r="T34" s="131">
+        <f t="shared" si="21"/>
+        <v>5656.9474269697093</v>
+      </c>
+      <c r="U34" s="131">
+        <f t="shared" si="21"/>
+        <v>5939.7947983181948</v>
+      </c>
+      <c r="V34" s="131">
+        <f t="shared" si="21"/>
+        <v>6236.7845382341047</v>
+      </c>
+      <c r="W34" s="131">
+        <f t="shared" si="21"/>
+        <v>6548.6237651458105</v>
+      </c>
+      <c r="X34" s="131">
+        <f t="shared" si="21"/>
+        <v>6876.0549534031015</v>
+      </c>
+      <c r="Y34" s="131">
+        <f t="shared" si="21"/>
+        <v>7219.857701073257</v>
+      </c>
+      <c r="Z34" s="131">
+        <f t="shared" si="21"/>
+        <v>7580.8505861269205</v>
+      </c>
+    </row>
+    <row r="35" spans="6:26" x14ac:dyDescent="0.45">
+      <c r="F35" s="63">
+        <v>5</v>
+      </c>
+      <c r="G35" s="131">
+        <v>7500</v>
+      </c>
+      <c r="H35" s="131">
+        <f>G35*1.05</f>
+        <v>7875</v>
+      </c>
+      <c r="I35" s="131">
+        <f t="shared" ref="I35:Z38" si="22">H35*1.05</f>
+        <v>8268.75</v>
+      </c>
+      <c r="J35" s="131">
+        <f t="shared" si="22"/>
+        <v>8682.1875</v>
+      </c>
+      <c r="K35" s="131">
+        <f t="shared" si="22"/>
+        <v>9116.296875</v>
+      </c>
+      <c r="L35" s="131">
+        <f t="shared" si="22"/>
+        <v>9572.1117187500004</v>
+      </c>
+      <c r="M35" s="131">
+        <f t="shared" si="22"/>
+        <v>10050.717304687501</v>
+      </c>
+      <c r="N35" s="131">
+        <f t="shared" si="22"/>
+        <v>10553.253169921876</v>
+      </c>
+      <c r="O35" s="131">
+        <f t="shared" si="22"/>
+        <v>11080.91582841797</v>
+      </c>
+      <c r="P35" s="131">
+        <f t="shared" si="22"/>
+        <v>11634.961619838869</v>
+      </c>
+      <c r="Q35" s="131">
+        <f t="shared" si="22"/>
+        <v>12216.709700830812</v>
+      </c>
+      <c r="R35" s="131">
+        <f t="shared" si="22"/>
+        <v>12827.545185872354</v>
+      </c>
+      <c r="S35" s="131">
+        <f t="shared" si="22"/>
+        <v>13468.922445165972</v>
+      </c>
+      <c r="T35" s="131">
+        <f t="shared" si="22"/>
+        <v>14142.368567424272</v>
+      </c>
+      <c r="U35" s="131">
+        <f t="shared" si="22"/>
+        <v>14849.486995795485</v>
+      </c>
+      <c r="V35" s="131">
+        <f t="shared" si="22"/>
+        <v>15591.96134558526</v>
+      </c>
+      <c r="W35" s="131">
+        <f t="shared" si="22"/>
+        <v>16371.559412864523</v>
+      </c>
+      <c r="X35" s="131">
+        <f t="shared" si="22"/>
+        <v>17190.13738350775</v>
+      </c>
+      <c r="Y35" s="131">
+        <f t="shared" si="22"/>
+        <v>18049.644252683138</v>
+      </c>
+      <c r="Z35" s="131">
+        <f t="shared" si="22"/>
+        <v>18952.126465317295</v>
+      </c>
+    </row>
+    <row r="36" spans="6:26" x14ac:dyDescent="0.45">
+      <c r="F36" s="63">
+        <v>6</v>
+      </c>
+      <c r="G36" s="131">
+        <v>18000</v>
+      </c>
+      <c r="H36" s="131">
+        <f t="shared" ref="H36:W38" si="23">G36*1.05</f>
+        <v>18900</v>
+      </c>
+      <c r="I36" s="131">
+        <f t="shared" si="23"/>
+        <v>19845</v>
+      </c>
+      <c r="J36" s="131">
+        <f t="shared" si="23"/>
+        <v>20837.25</v>
+      </c>
+      <c r="K36" s="131">
+        <f t="shared" si="23"/>
+        <v>21879.112499999999</v>
+      </c>
+      <c r="L36" s="131">
+        <f t="shared" si="23"/>
+        <v>22973.068125000002</v>
+      </c>
+      <c r="M36" s="131">
+        <f t="shared" si="23"/>
+        <v>24121.721531250001</v>
+      </c>
+      <c r="N36" s="131">
+        <f t="shared" si="23"/>
+        <v>25327.807607812501</v>
+      </c>
+      <c r="O36" s="131">
+        <f t="shared" si="23"/>
+        <v>26594.197988203126</v>
+      </c>
+      <c r="P36" s="131">
+        <f t="shared" si="23"/>
+        <v>27923.907887613284</v>
+      </c>
+      <c r="Q36" s="131">
+        <f t="shared" si="23"/>
+        <v>29320.10328199395</v>
+      </c>
+      <c r="R36" s="131">
+        <f t="shared" si="23"/>
+        <v>30786.108446093647</v>
+      </c>
+      <c r="S36" s="131">
+        <f t="shared" si="23"/>
+        <v>32325.413868398329</v>
+      </c>
+      <c r="T36" s="131">
+        <f t="shared" si="23"/>
+        <v>33941.684561818249</v>
+      </c>
+      <c r="U36" s="131">
+        <f t="shared" si="23"/>
+        <v>35638.768789909162</v>
+      </c>
+      <c r="V36" s="131">
+        <f t="shared" si="23"/>
+        <v>37420.707229404623</v>
+      </c>
+      <c r="W36" s="131">
+        <f t="shared" si="23"/>
+        <v>39291.742590874856</v>
+      </c>
+      <c r="X36" s="131">
+        <f t="shared" si="22"/>
+        <v>41256.329720418602</v>
+      </c>
+      <c r="Y36" s="131">
+        <f t="shared" si="22"/>
+        <v>43319.146206439531</v>
+      </c>
+      <c r="Z36" s="131">
+        <f t="shared" si="22"/>
+        <v>45485.103516761512</v>
+      </c>
+    </row>
+    <row r="37" spans="6:26" x14ac:dyDescent="0.45">
+      <c r="F37" s="63">
+        <v>7</v>
+      </c>
+      <c r="G37" s="131">
+        <v>45000</v>
+      </c>
+      <c r="H37" s="131">
+        <f t="shared" si="23"/>
+        <v>47250</v>
+      </c>
+      <c r="I37" s="131">
+        <f t="shared" si="22"/>
+        <v>49612.5</v>
+      </c>
+      <c r="J37" s="131">
+        <f t="shared" si="22"/>
+        <v>52093.125</v>
+      </c>
+      <c r="K37" s="131">
+        <f t="shared" si="22"/>
+        <v>54697.78125</v>
+      </c>
+      <c r="L37" s="131">
+        <f t="shared" si="22"/>
+        <v>57432.670312500006</v>
+      </c>
+      <c r="M37" s="131">
+        <f t="shared" si="22"/>
+        <v>60304.303828125012</v>
+      </c>
+      <c r="N37" s="131">
+        <f t="shared" si="22"/>
+        <v>63319.519019531268</v>
+      </c>
+      <c r="O37" s="131">
+        <f t="shared" si="22"/>
+        <v>66485.494970507832</v>
+      </c>
+      <c r="P37" s="131">
+        <f t="shared" si="22"/>
+        <v>69809.769719033226</v>
+      </c>
+      <c r="Q37" s="131">
+        <f t="shared" si="22"/>
+        <v>73300.258204984886</v>
+      </c>
+      <c r="R37" s="131">
+        <f t="shared" si="22"/>
+        <v>76965.271115234136</v>
+      </c>
+      <c r="S37" s="131">
+        <f t="shared" si="22"/>
+        <v>80813.534670995839</v>
+      </c>
+      <c r="T37" s="131">
+        <f t="shared" si="22"/>
+        <v>84854.21140454564</v>
+      </c>
+      <c r="U37" s="131">
+        <f t="shared" si="22"/>
+        <v>89096.921974772922</v>
+      </c>
+      <c r="V37" s="131">
+        <f t="shared" si="22"/>
+        <v>93551.768073511572</v>
+      </c>
+      <c r="W37" s="131">
+        <f t="shared" si="22"/>
+        <v>98229.356477187161</v>
+      </c>
+      <c r="X37" s="131">
+        <f t="shared" si="22"/>
+        <v>103140.82430104652</v>
+      </c>
+      <c r="Y37" s="131">
+        <f t="shared" si="22"/>
+        <v>108297.86551609886</v>
+      </c>
+      <c r="Z37" s="131">
+        <f t="shared" si="22"/>
+        <v>113712.75879190381</v>
+      </c>
+    </row>
+    <row r="38" spans="6:26" x14ac:dyDescent="0.45">
+      <c r="F38" s="63">
+        <v>8</v>
+      </c>
+      <c r="G38" s="131">
+        <v>100000</v>
+      </c>
+      <c r="H38" s="131">
+        <f t="shared" si="23"/>
+        <v>105000</v>
+      </c>
+      <c r="I38" s="131">
+        <f t="shared" si="22"/>
+        <v>110250</v>
+      </c>
+      <c r="J38" s="131">
+        <f t="shared" si="22"/>
+        <v>115762.5</v>
+      </c>
+      <c r="K38" s="131">
+        <f t="shared" si="22"/>
+        <v>121550.625</v>
+      </c>
+      <c r="L38" s="131">
+        <f t="shared" si="22"/>
+        <v>127628.15625</v>
+      </c>
+      <c r="M38" s="131">
+        <f t="shared" si="22"/>
+        <v>134009.56406249999</v>
+      </c>
+      <c r="N38" s="131">
+        <f t="shared" si="22"/>
+        <v>140710.042265625</v>
+      </c>
+      <c r="O38" s="131">
+        <f t="shared" si="22"/>
+        <v>147745.54437890626</v>
+      </c>
+      <c r="P38" s="131">
+        <f t="shared" si="22"/>
+        <v>155132.82159785158</v>
+      </c>
+      <c r="Q38" s="131">
+        <f t="shared" si="22"/>
+        <v>162889.46267774416</v>
+      </c>
+      <c r="R38" s="131">
+        <f t="shared" si="22"/>
+        <v>171033.93581163138</v>
+      </c>
+      <c r="S38" s="131">
+        <f t="shared" si="22"/>
+        <v>179585.63260221295</v>
+      </c>
+      <c r="T38" s="131">
+        <f t="shared" si="22"/>
+        <v>188564.91423232362</v>
+      </c>
+      <c r="U38" s="131">
+        <f t="shared" si="22"/>
+        <v>197993.1599439398</v>
+      </c>
+      <c r="V38" s="131">
+        <f t="shared" si="22"/>
+        <v>207892.8179411368</v>
+      </c>
+      <c r="W38" s="131">
+        <f t="shared" si="22"/>
+        <v>218287.45883819365</v>
+      </c>
+      <c r="X38" s="131">
+        <f t="shared" si="22"/>
+        <v>229201.83178010333</v>
+      </c>
+      <c r="Y38" s="131">
+        <f t="shared" si="22"/>
+        <v>240661.9233691085</v>
+      </c>
+      <c r="Z38" s="131">
+        <f t="shared" si="22"/>
+        <v>252695.01953756393</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -12574,26 +13130,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1C529B-8D3D-4769-84DC-B22FB77D121C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:AU56"/>
   <sheetViews>
-    <sheetView topLeftCell="B156" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B204" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y255" sqref="Y255"/>
     </sheetView>
   </sheetViews>
@@ -12670,11 +13210,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="K169:L169"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
+    <sheetView topLeftCell="A182" workbookViewId="0">
       <selection activeCell="AA165" sqref="AA165"/>
     </sheetView>
   </sheetViews>

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5F4F6D-1909-4F1B-AC25-1C6FACC7B692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BDEFC3-805A-41B7-A1BF-5B7EB67A4379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5796" yWindow="396" windowWidth="31320" windowHeight="14244" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Input L30" sheetId="2" r:id="rId1"/>
@@ -1220,7 +1220,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1353,9 +1353,6 @@
     </xf>
     <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1542,6 +1539,9 @@
     <xf numFmtId="188" fontId="25" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="185" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="21" fillId="7" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1566,8 +1566,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2946,8 +2949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AD99"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3040,7 +3043,7 @@
       </c>
       <c r="P3" s="125"/>
       <c r="Q3" s="125"/>
-      <c r="R3" s="111">
+      <c r="R3" s="110">
         <f>O3*2</f>
         <v>22199.010204548402</v>
       </c>
@@ -3101,7 +3104,7 @@
       <c r="H5" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="110">
+      <c r="I5" s="109">
         <v>2</v>
       </c>
       <c r="J5" s="2">
@@ -3136,7 +3139,7 @@
       <c r="H6" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="110">
+      <c r="I6" s="109">
         <v>4</v>
       </c>
       <c r="J6" s="2">
@@ -3242,7 +3245,7 @@
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="45"/>
-      <c r="E8" s="113">
+      <c r="E8" s="112">
         <v>0.01</v>
       </c>
       <c r="H8" s="1"/>
@@ -3333,7 +3336,7 @@
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="45"/>
-      <c r="E9" s="112">
+      <c r="E9" s="111">
         <v>1.6180000000000001</v>
       </c>
       <c r="H9" s="29" t="s">
@@ -5046,83 +5049,83 @@
       <c r="I32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J32" s="57">
+      <c r="J32" s="132">
         <f t="shared" ref="J32:AC32" si="44">SUM(J11:J30)</f>
         <v>4</v>
       </c>
-      <c r="K32" s="57">
+      <c r="K32" s="132">
         <f t="shared" si="44"/>
         <v>8.4719999999999995</v>
       </c>
-      <c r="L32" s="57">
+      <c r="L32" s="132">
         <f t="shared" si="44"/>
         <v>13.707696000000002</v>
       </c>
-      <c r="M32" s="57">
+      <c r="M32" s="132">
         <f t="shared" si="44"/>
         <v>20.179052128000002</v>
       </c>
-      <c r="N32" s="57">
+      <c r="N32" s="132">
         <f t="shared" si="44"/>
         <v>28.649706343104008</v>
       </c>
-      <c r="O32" s="57">
+      <c r="O32" s="132">
         <f t="shared" si="44"/>
         <v>40.35522486314229</v>
       </c>
-      <c r="P32" s="57">
+      <c r="P32" s="132">
         <f t="shared" si="44"/>
         <v>57.294753828564225</v>
       </c>
-      <c r="Q32" s="57">
+      <c r="Q32" s="132">
         <f t="shared" si="44"/>
         <v>82.702911694616915</v>
       </c>
-      <c r="R32" s="57">
+      <c r="R32" s="132">
         <f t="shared" si="44"/>
         <v>121.81331112189017</v>
       </c>
-      <c r="S32" s="57">
+      <c r="S32" s="132">
         <f t="shared" si="44"/>
         <v>183.09393739521835</v>
       </c>
-      <c r="T32" s="57">
+      <c r="T32" s="132">
         <f t="shared" si="44"/>
         <v>280.24599070546321</v>
       </c>
-      <c r="U32" s="57">
+      <c r="U32" s="132">
         <f t="shared" si="44"/>
         <v>435.43801296143965</v>
       </c>
-      <c r="V32" s="57">
+      <c r="V32" s="132">
         <f t="shared" si="44"/>
         <v>684.53870497160938</v>
       </c>
-      <c r="W32" s="57">
+      <c r="W32" s="132">
         <f t="shared" si="44"/>
         <v>1085.5836246440645</v>
       </c>
-      <c r="X32" s="57">
+      <c r="X32" s="132">
         <f t="shared" si="44"/>
         <v>1732.4743046740964</v>
       </c>
-      <c r="Y32" s="57">
+      <c r="Y32" s="132">
         <f t="shared" si="44"/>
         <v>2777.1434249626882</v>
       </c>
-      <c r="Z32" s="57">
+      <c r="Z32" s="132">
         <f t="shared" si="44"/>
         <v>4465.4180615896303</v>
       </c>
-      <c r="AA32" s="57">
+      <c r="AA32" s="132">
         <f t="shared" si="44"/>
         <v>7195.0464236520202</v>
       </c>
-      <c r="AB32" s="57">
+      <c r="AB32" s="132">
         <f t="shared" si="44"/>
         <v>11609.585113468966</v>
       </c>
-      <c r="AC32" s="57">
+      <c r="AC32" s="132">
         <f t="shared" si="44"/>
         <v>18750.308713592793</v>
       </c>
@@ -5262,6 +5265,86 @@
       <c r="E35" s="26">
         <f>MAX(E13:E34)</f>
         <v>28</v>
+      </c>
+      <c r="J35" s="5" t="str">
+        <f t="shared" ref="J35:AB35" si="45">"iff(trade_no == "&amp;J10&amp;") return "&amp;ROUND(J32, 2)&amp;" ;"</f>
+        <v>iff(trade_no == 1) return 4 ;</v>
+      </c>
+      <c r="K35" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>iff(trade_no == 2) return 8.47 ;</v>
+      </c>
+      <c r="L35" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>iff(trade_no == 3) return 13.71 ;</v>
+      </c>
+      <c r="M35" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>iff(trade_no == 4) return 20.18 ;</v>
+      </c>
+      <c r="N35" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>iff(trade_no == 5) return 28.65 ;</v>
+      </c>
+      <c r="O35" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>iff(trade_no == 6) return 40.36 ;</v>
+      </c>
+      <c r="P35" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>iff(trade_no == 7) return 57.29 ;</v>
+      </c>
+      <c r="Q35" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>iff(trade_no == 8) return 82.7 ;</v>
+      </c>
+      <c r="R35" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>iff(trade_no == 9) return 121.81 ;</v>
+      </c>
+      <c r="S35" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>iff(trade_no == 10) return 183.09 ;</v>
+      </c>
+      <c r="T35" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>iff(trade_no == 11) return 280.25 ;</v>
+      </c>
+      <c r="U35" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>iff(trade_no == 12) return 435.44 ;</v>
+      </c>
+      <c r="V35" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>iff(trade_no == 13) return 684.54 ;</v>
+      </c>
+      <c r="W35" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>iff(trade_no == 14) return 1085.58 ;</v>
+      </c>
+      <c r="X35" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>iff(trade_no == 15) return 1732.47 ;</v>
+      </c>
+      <c r="Y35" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>iff(trade_no == 16) return 2777.14 ;</v>
+      </c>
+      <c r="Z35" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>iff(trade_no == 17) return 4465.42 ;</v>
+      </c>
+      <c r="AA35" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>iff(trade_no == 18) return 7195.05 ;</v>
+      </c>
+      <c r="AB35" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>iff(trade_no == 19) return 11609.59 ;</v>
+      </c>
+      <c r="AC35" s="5" t="str">
+        <f>"iff(trade_no == "&amp;AC10&amp;") return "&amp;ROUND(AC32, 2)&amp;" ;"</f>
+        <v>iff(trade_no == 20) return 18750.31 ;</v>
       </c>
     </row>
     <row r="36" spans="2:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -6990,7 +7073,7 @@
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="45"/>
-      <c r="E2" s="115">
+      <c r="E2" s="114">
         <v>0.11</v>
       </c>
       <c r="I2" s="40"/>
@@ -7023,7 +7106,7 @@
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="45"/>
-      <c r="E3" s="116">
+      <c r="E3" s="115">
         <f>E2</f>
         <v>0.11</v>
       </c>
@@ -7046,7 +7129,7 @@
       </c>
       <c r="P3" s="125"/>
       <c r="Q3" s="125"/>
-      <c r="R3" s="111">
+      <c r="R3" s="110">
         <f>O3*2</f>
         <v>2679.8045732874716</v>
       </c>
@@ -7064,7 +7147,7 @@
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="45"/>
-      <c r="E4" s="116">
+      <c r="E4" s="115">
         <f>E3</f>
         <v>0.11</v>
       </c>
@@ -7100,7 +7183,7 @@
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
-      <c r="E5" s="116">
+      <c r="E5" s="115">
         <f>E4</f>
         <v>0.11</v>
       </c>
@@ -7135,7 +7218,7 @@
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="45"/>
-      <c r="E6" s="116">
+      <c r="E6" s="115">
         <f>E5</f>
         <v>0.11</v>
       </c>
@@ -7157,7 +7240,7 @@
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="45"/>
-      <c r="E7" s="116">
+      <c r="E7" s="115">
         <f>E6</f>
         <v>0.11</v>
       </c>
@@ -7249,7 +7332,7 @@
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="45"/>
-      <c r="E8" s="113">
+      <c r="E8" s="112">
         <v>0.01</v>
       </c>
       <c r="H8" s="1"/>
@@ -7340,7 +7423,7 @@
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="45"/>
-      <c r="E9" s="112">
+      <c r="E9" s="111">
         <v>1.3819999999999999</v>
       </c>
       <c r="H9" s="29" t="s">
@@ -7496,83 +7579,83 @@
         <f>GBPJPY!C13</f>
         <v>0.01</v>
       </c>
-      <c r="J11" s="117">
+      <c r="J11" s="116">
         <f>I11*I6*100</f>
         <v>0.33</v>
       </c>
-      <c r="K11" s="117">
+      <c r="K11" s="116">
         <f>I11*100*(I6-I5)</f>
         <v>0.22000000000000003</v>
       </c>
-      <c r="L11" s="117">
+      <c r="L11" s="116">
         <f t="shared" ref="L11:AC11" si="2">$I$11*100*($I$6-$I$5*K10)</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="M11" s="117">
+      <c r="M11" s="116">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N11" s="117">
+      <c r="N11" s="116">
         <f>$I$11*100*($I$6-$I$5*M10)</f>
         <v>-0.10999999999999999</v>
       </c>
-      <c r="O11" s="117">
+      <c r="O11" s="116">
         <f t="shared" si="2"/>
         <v>-0.22000000000000003</v>
       </c>
-      <c r="P11" s="117">
+      <c r="P11" s="116">
         <f t="shared" si="2"/>
         <v>-0.33</v>
       </c>
-      <c r="Q11" s="117">
+      <c r="Q11" s="116">
         <f t="shared" si="2"/>
         <v>-0.44</v>
       </c>
-      <c r="R11" s="117">
+      <c r="R11" s="116">
         <f t="shared" si="2"/>
         <v>-0.55000000000000004</v>
       </c>
-      <c r="S11" s="117">
+      <c r="S11" s="116">
         <f t="shared" si="2"/>
         <v>-0.65999999999999992</v>
       </c>
-      <c r="T11" s="117">
+      <c r="T11" s="116">
         <f t="shared" si="2"/>
         <v>-0.77</v>
       </c>
-      <c r="U11" s="117">
+      <c r="U11" s="116">
         <f t="shared" si="2"/>
         <v>-0.87999999999999989</v>
       </c>
-      <c r="V11" s="117">
+      <c r="V11" s="116">
         <f t="shared" si="2"/>
         <v>-0.99</v>
       </c>
-      <c r="W11" s="117">
+      <c r="W11" s="116">
         <f t="shared" si="2"/>
         <v>-1.0999999999999999</v>
       </c>
-      <c r="X11" s="117">
+      <c r="X11" s="116">
         <f t="shared" si="2"/>
         <v>-1.21</v>
       </c>
-      <c r="Y11" s="117">
+      <c r="Y11" s="116">
         <f t="shared" si="2"/>
         <v>-1.3199999999999998</v>
       </c>
-      <c r="Z11" s="117">
+      <c r="Z11" s="116">
         <f t="shared" si="2"/>
         <v>-1.43</v>
       </c>
-      <c r="AA11" s="117">
+      <c r="AA11" s="116">
         <f t="shared" si="2"/>
         <v>-1.54</v>
       </c>
-      <c r="AB11" s="117">
+      <c r="AB11" s="116">
         <f t="shared" si="2"/>
         <v>-1.65</v>
       </c>
-      <c r="AC11" s="117">
+      <c r="AC11" s="116">
         <f t="shared" si="2"/>
         <v>-1.7599999999999998</v>
       </c>
@@ -7597,80 +7680,80 @@
         <f t="shared" ref="I12:I30" si="3">I11*$I$4</f>
         <v>1.3819999999999999E-2</v>
       </c>
-      <c r="J12" s="118"/>
-      <c r="K12" s="117">
+      <c r="J12" s="117"/>
+      <c r="K12" s="116">
         <f>I12*100*I6</f>
         <v>0.45605999999999997</v>
       </c>
-      <c r="L12" s="117">
+      <c r="L12" s="116">
         <f>I12*100*(I6-I5)</f>
         <v>0.30404000000000003</v>
       </c>
-      <c r="M12" s="117">
+      <c r="M12" s="116">
         <f t="shared" ref="M12:AC12" si="4">$I$12*100*($I$6-$I$5*K10)</f>
         <v>0.15202000000000002</v>
       </c>
-      <c r="N12" s="117">
+      <c r="N12" s="116">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O12" s="117">
+      <c r="O12" s="116">
         <f t="shared" si="4"/>
         <v>-0.15201999999999996</v>
       </c>
-      <c r="P12" s="117">
+      <c r="P12" s="116">
         <f t="shared" si="4"/>
         <v>-0.30404000000000003</v>
       </c>
-      <c r="Q12" s="117">
+      <c r="Q12" s="116">
         <f t="shared" si="4"/>
         <v>-0.45605999999999997</v>
       </c>
-      <c r="R12" s="117">
+      <c r="R12" s="116">
         <f t="shared" si="4"/>
         <v>-0.60807999999999995</v>
       </c>
-      <c r="S12" s="117">
+      <c r="S12" s="116">
         <f t="shared" si="4"/>
         <v>-0.7601</v>
       </c>
-      <c r="T12" s="117">
+      <c r="T12" s="116">
         <f t="shared" si="4"/>
         <v>-0.91211999999999982</v>
       </c>
-      <c r="U12" s="117">
+      <c r="U12" s="116">
         <f t="shared" si="4"/>
         <v>-1.0641399999999999</v>
       </c>
-      <c r="V12" s="117">
+      <c r="V12" s="116">
         <f t="shared" si="4"/>
         <v>-1.2161599999999997</v>
       </c>
-      <c r="W12" s="117">
+      <c r="W12" s="116">
         <f t="shared" si="4"/>
         <v>-1.36818</v>
       </c>
-      <c r="X12" s="117">
+      <c r="X12" s="116">
         <f t="shared" si="4"/>
         <v>-1.5201999999999998</v>
       </c>
-      <c r="Y12" s="117">
+      <c r="Y12" s="116">
         <f t="shared" si="4"/>
         <v>-1.6722199999999998</v>
       </c>
-      <c r="Z12" s="117">
+      <c r="Z12" s="116">
         <f t="shared" si="4"/>
         <v>-1.8242399999999996</v>
       </c>
-      <c r="AA12" s="117">
+      <c r="AA12" s="116">
         <f t="shared" si="4"/>
         <v>-1.9762599999999997</v>
       </c>
-      <c r="AB12" s="117">
+      <c r="AB12" s="116">
         <f t="shared" si="4"/>
         <v>-2.1282799999999997</v>
       </c>
-      <c r="AC12" s="117">
+      <c r="AC12" s="116">
         <f t="shared" si="4"/>
         <v>-2.2802999999999995</v>
       </c>
@@ -7688,7 +7771,7 @@
         <f>+C13*E13*100</f>
         <v>1.76</v>
       </c>
-      <c r="E13" s="114">
+      <c r="E13" s="113">
         <f>IF(B13=0,0,$E$2+$E$3+$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
         <v>1.76</v>
       </c>
@@ -7699,77 +7782,77 @@
         <f t="shared" si="3"/>
         <v>1.9099239999999996E-2</v>
       </c>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="117">
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="116">
         <f>I13*100*I6</f>
         <v>0.63027491999999996</v>
       </c>
-      <c r="M13" s="117">
+      <c r="M13" s="116">
         <f>I13*100*(I6-I5)</f>
         <v>0.42018327999999999</v>
       </c>
-      <c r="N13" s="117">
+      <c r="N13" s="116">
         <f t="shared" ref="N13:AC13" si="5">$I$13*100*($I$6-$I$5*K10)</f>
         <v>0.21009164</v>
       </c>
-      <c r="O13" s="117">
+      <c r="O13" s="116">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P13" s="117">
+      <c r="P13" s="116">
         <f t="shared" si="5"/>
         <v>-0.21009163999999994</v>
       </c>
-      <c r="Q13" s="117">
+      <c r="Q13" s="116">
         <f t="shared" si="5"/>
         <v>-0.42018327999999999</v>
       </c>
-      <c r="R13" s="117">
+      <c r="R13" s="116">
         <f t="shared" si="5"/>
         <v>-0.63027491999999996</v>
       </c>
-      <c r="S13" s="117">
+      <c r="S13" s="116">
         <f t="shared" si="5"/>
         <v>-0.84036655999999987</v>
       </c>
-      <c r="T13" s="117">
+      <c r="T13" s="116">
         <f t="shared" si="5"/>
         <v>-1.0504582</v>
       </c>
-      <c r="U13" s="117">
+      <c r="U13" s="116">
         <f t="shared" si="5"/>
         <v>-1.2605498399999997</v>
       </c>
-      <c r="V13" s="117">
+      <c r="V13" s="116">
         <f t="shared" si="5"/>
         <v>-1.4706414799999998</v>
       </c>
-      <c r="W13" s="117">
+      <c r="W13" s="116">
         <f t="shared" si="5"/>
         <v>-1.6807331199999995</v>
       </c>
-      <c r="X13" s="117">
+      <c r="X13" s="116">
         <f t="shared" si="5"/>
         <v>-1.8908247599999997</v>
       </c>
-      <c r="Y13" s="117">
+      <c r="Y13" s="116">
         <f t="shared" si="5"/>
         <v>-2.1009163999999996</v>
       </c>
-      <c r="Z13" s="117">
+      <c r="Z13" s="116">
         <f t="shared" si="5"/>
         <v>-2.3110080399999995</v>
       </c>
-      <c r="AA13" s="117">
+      <c r="AA13" s="116">
         <f t="shared" si="5"/>
         <v>-2.5210996799999994</v>
       </c>
-      <c r="AB13" s="117">
+      <c r="AB13" s="116">
         <f t="shared" si="5"/>
         <v>-2.7311913199999993</v>
       </c>
-      <c r="AC13" s="117">
+      <c r="AC13" s="116">
         <f t="shared" si="5"/>
         <v>-2.9412829599999997</v>
       </c>
@@ -7787,7 +7870,7 @@
         <f t="shared" ref="D14:D34" si="8">+C14*E14*100</f>
         <v>2.2802999999999995</v>
       </c>
-      <c r="E14" s="114">
+      <c r="E14" s="113">
         <f>IF(B14=0,0,$E$3+$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
         <v>1.65</v>
       </c>
@@ -7798,74 +7881,74 @@
         <f t="shared" si="3"/>
         <v>2.6395149679999994E-2</v>
       </c>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="117">
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="116">
         <f>I14*100*I6</f>
         <v>0.8710399394399998</v>
       </c>
-      <c r="N14" s="117">
+      <c r="N14" s="116">
         <f>I14*100*(I6-I5)</f>
         <v>0.58069329295999994</v>
       </c>
-      <c r="O14" s="117">
+      <c r="O14" s="116">
         <f t="shared" ref="O14:AC14" si="9">$I$14*100*($I$6-$I$5*K10)</f>
         <v>0.29034664647999997</v>
       </c>
-      <c r="P14" s="117">
+      <c r="P14" s="116">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="117">
+      <c r="Q14" s="116">
         <f t="shared" si="9"/>
         <v>-0.29034664647999991</v>
       </c>
-      <c r="R14" s="117">
+      <c r="R14" s="116">
         <f t="shared" si="9"/>
         <v>-0.58069329295999994</v>
       </c>
-      <c r="S14" s="117">
+      <c r="S14" s="116">
         <f t="shared" si="9"/>
         <v>-0.8710399394399998</v>
       </c>
-      <c r="T14" s="117">
+      <c r="T14" s="116">
         <f t="shared" si="9"/>
         <v>-1.1613865859199997</v>
       </c>
-      <c r="U14" s="117">
+      <c r="U14" s="116">
         <f t="shared" si="9"/>
         <v>-1.4517332323999999</v>
       </c>
-      <c r="V14" s="117">
+      <c r="V14" s="116">
         <f t="shared" si="9"/>
         <v>-1.7420798788799994</v>
       </c>
-      <c r="W14" s="117">
+      <c r="W14" s="116">
         <f t="shared" si="9"/>
         <v>-2.0324265253599996</v>
       </c>
-      <c r="X14" s="117">
+      <c r="X14" s="116">
         <f t="shared" si="9"/>
         <v>-2.3227731718399993</v>
       </c>
-      <c r="Y14" s="117">
+      <c r="Y14" s="116">
         <f t="shared" si="9"/>
         <v>-2.6131198183199995</v>
       </c>
-      <c r="Z14" s="117">
+      <c r="Z14" s="116">
         <f t="shared" si="9"/>
         <v>-2.9034664647999988</v>
       </c>
-      <c r="AA14" s="117">
+      <c r="AA14" s="116">
         <f t="shared" si="9"/>
         <v>-3.193813111279999</v>
       </c>
-      <c r="AB14" s="117">
+      <c r="AB14" s="116">
         <f t="shared" si="9"/>
         <v>-3.4841597577599988</v>
       </c>
-      <c r="AC14" s="117">
+      <c r="AC14" s="116">
         <f t="shared" si="9"/>
         <v>-3.7745064042399989</v>
       </c>
@@ -7883,7 +7966,7 @@
         <f t="shared" si="8"/>
         <v>2.9412829599999997</v>
       </c>
-      <c r="E15" s="114">
+      <c r="E15" s="113">
         <f>IF(B15=0,0,$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
         <v>1.54</v>
       </c>
@@ -7894,71 +7977,71 @@
         <f t="shared" si="3"/>
         <v>3.647809685775999E-2</v>
       </c>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="117">
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="116">
         <f>I15*I6*100</f>
         <v>1.2037771963060797</v>
       </c>
-      <c r="O15" s="117">
+      <c r="O15" s="116">
         <f>I15*100*(I6-I5)</f>
         <v>0.80251813087071988</v>
       </c>
-      <c r="P15" s="117">
+      <c r="P15" s="116">
         <f t="shared" ref="P15:AC15" si="10">$I$15*100*($I$6-$I$5*K10)</f>
         <v>0.40125906543535994</v>
       </c>
-      <c r="Q15" s="117">
+      <c r="Q15" s="116">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R15" s="117">
+      <c r="R15" s="116">
         <f t="shared" si="10"/>
         <v>-0.40125906543535989</v>
       </c>
-      <c r="S15" s="117">
+      <c r="S15" s="116">
         <f t="shared" si="10"/>
         <v>-0.80251813087071988</v>
       </c>
-      <c r="T15" s="117">
+      <c r="T15" s="116">
         <f t="shared" si="10"/>
         <v>-1.2037771963060797</v>
       </c>
-      <c r="U15" s="117">
+      <c r="U15" s="116">
         <f t="shared" si="10"/>
         <v>-1.6050362617414395</v>
       </c>
-      <c r="V15" s="117">
+      <c r="V15" s="116">
         <f t="shared" si="10"/>
         <v>-2.0062953271767996</v>
       </c>
-      <c r="W15" s="117">
+      <c r="W15" s="116">
         <f t="shared" si="10"/>
         <v>-2.407554392612159</v>
       </c>
-      <c r="X15" s="117">
+      <c r="X15" s="116">
         <f t="shared" si="10"/>
         <v>-2.8088134580475193</v>
       </c>
-      <c r="Y15" s="117">
+      <c r="Y15" s="116">
         <f t="shared" si="10"/>
         <v>-3.2100725234828791</v>
       </c>
-      <c r="Z15" s="117">
+      <c r="Z15" s="116">
         <f t="shared" si="10"/>
         <v>-3.6113315889182394</v>
       </c>
-      <c r="AA15" s="117">
+      <c r="AA15" s="116">
         <f t="shared" si="10"/>
         <v>-4.0125906543535983</v>
       </c>
-      <c r="AB15" s="117">
+      <c r="AB15" s="116">
         <f t="shared" si="10"/>
         <v>-4.413849719788959</v>
       </c>
-      <c r="AC15" s="117">
+      <c r="AC15" s="116">
         <f t="shared" si="10"/>
         <v>-4.815108785224318</v>
       </c>
@@ -7976,7 +8059,7 @@
         <f t="shared" si="8"/>
         <v>3.7745064042399989</v>
       </c>
-      <c r="E16" s="114">
+      <c r="E16" s="113">
         <f>IF(B16=0,0,$E$5+$E$6+($E$7*($E$10-6)))</f>
         <v>1.43</v>
       </c>
@@ -7987,68 +8070,68 @@
         <f t="shared" si="3"/>
         <v>5.0412729857424302E-2</v>
       </c>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="117">
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="116">
         <f>I16*I6*100</f>
         <v>1.663620085295002</v>
       </c>
-      <c r="P16" s="117">
+      <c r="P16" s="116">
         <f>I16*100*(I6-I5)</f>
         <v>1.1090800568633348</v>
       </c>
-      <c r="Q16" s="117">
+      <c r="Q16" s="116">
         <f t="shared" ref="Q16:AC16" si="11">$I$16*100*($I$6-$I$5*K10)</f>
         <v>0.55454002843166739</v>
       </c>
-      <c r="R16" s="117">
+      <c r="R16" s="116">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S16" s="117">
+      <c r="S16" s="116">
         <f t="shared" si="11"/>
         <v>-0.55454002843166728</v>
       </c>
-      <c r="T16" s="117">
+      <c r="T16" s="116">
         <f t="shared" si="11"/>
         <v>-1.1090800568633348</v>
       </c>
-      <c r="U16" s="117">
+      <c r="U16" s="116">
         <f t="shared" si="11"/>
         <v>-1.663620085295002</v>
       </c>
-      <c r="V16" s="117">
+      <c r="V16" s="116">
         <f t="shared" si="11"/>
         <v>-2.2181601137266691</v>
       </c>
-      <c r="W16" s="117">
+      <c r="W16" s="116">
         <f t="shared" si="11"/>
         <v>-2.7727001421583366</v>
       </c>
-      <c r="X16" s="117">
+      <c r="X16" s="116">
         <f t="shared" si="11"/>
         <v>-3.3272401705900037</v>
       </c>
-      <c r="Y16" s="117">
+      <c r="Y16" s="116">
         <f t="shared" si="11"/>
         <v>-3.8817801990216712</v>
       </c>
-      <c r="Z16" s="117">
+      <c r="Z16" s="116">
         <f t="shared" si="11"/>
         <v>-4.4363202274533382</v>
       </c>
-      <c r="AA16" s="117">
+      <c r="AA16" s="116">
         <f t="shared" si="11"/>
         <v>-4.9908602558850061</v>
       </c>
-      <c r="AB16" s="117">
+      <c r="AB16" s="116">
         <f t="shared" si="11"/>
         <v>-5.5454002843166723</v>
       </c>
-      <c r="AC16" s="117">
+      <c r="AC16" s="116">
         <f t="shared" si="11"/>
         <v>-6.0999403127483403</v>
       </c>
@@ -8066,7 +8149,7 @@
         <f t="shared" si="8"/>
         <v>4.8151087852243188</v>
       </c>
-      <c r="E17" s="114">
+      <c r="E17" s="113">
         <f>IF(B17=0,0,$E$6+($E$7*($E$10-6)))</f>
         <v>1.32</v>
       </c>
@@ -8077,65 +8160,65 @@
         <f t="shared" si="3"/>
         <v>6.9670392662960379E-2</v>
       </c>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="117">
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="116">
         <f>I6*I17*100</f>
         <v>2.2991229578776928</v>
       </c>
-      <c r="Q17" s="117">
+      <c r="Q17" s="116">
         <f>I17*100*(I6-I5)</f>
         <v>1.5327486385851283</v>
       </c>
-      <c r="R17" s="117">
+      <c r="R17" s="116">
         <f t="shared" ref="R17:AC17" si="12">$I$17*100*($I$6-$I$5*K10)</f>
         <v>0.76637431929256417</v>
       </c>
-      <c r="S17" s="117">
+      <c r="S17" s="116">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T17" s="117">
+      <c r="T17" s="116">
         <f t="shared" si="12"/>
         <v>-0.76637431929256405</v>
       </c>
-      <c r="U17" s="117">
+      <c r="U17" s="116">
         <f t="shared" si="12"/>
         <v>-1.5327486385851283</v>
       </c>
-      <c r="V17" s="117">
+      <c r="V17" s="116">
         <f t="shared" si="12"/>
         <v>-2.2991229578776924</v>
       </c>
-      <c r="W17" s="117">
+      <c r="W17" s="116">
         <f t="shared" si="12"/>
         <v>-3.0654972771702567</v>
       </c>
-      <c r="X17" s="117">
+      <c r="X17" s="116">
         <f t="shared" si="12"/>
         <v>-3.8318715964628209</v>
       </c>
-      <c r="Y17" s="117">
+      <c r="Y17" s="116">
         <f t="shared" si="12"/>
         <v>-4.5982459157553839</v>
       </c>
-      <c r="Z17" s="117">
+      <c r="Z17" s="116">
         <f t="shared" si="12"/>
         <v>-5.3646202350479486</v>
       </c>
-      <c r="AA17" s="117">
+      <c r="AA17" s="116">
         <f t="shared" si="12"/>
         <v>-6.1309945543405124</v>
       </c>
-      <c r="AB17" s="117">
+      <c r="AB17" s="116">
         <f t="shared" si="12"/>
         <v>-6.8973688736330772</v>
       </c>
-      <c r="AC17" s="117">
+      <c r="AC17" s="116">
         <f t="shared" si="12"/>
         <v>-7.6637431929256401</v>
       </c>
@@ -8153,7 +8236,7 @@
         <f t="shared" si="8"/>
         <v>6.0999403127483403</v>
       </c>
-      <c r="E18" s="114">
+      <c r="E18" s="113">
         <f>IF(B18=0,0,($E$7*($E$10-6)))</f>
         <v>1.21</v>
       </c>
@@ -8164,62 +8247,62 @@
         <f t="shared" si="3"/>
         <v>9.6284482660211237E-2</v>
       </c>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="117">
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="116">
         <f>I6*I18*100</f>
         <v>3.1773879277869712</v>
       </c>
-      <c r="R18" s="117">
+      <c r="R18" s="116">
         <f>I18*100*(I6-I5)</f>
         <v>2.1182586185246475</v>
       </c>
-      <c r="S18" s="117">
+      <c r="S18" s="116">
         <f t="shared" ref="S18:AC18" si="13">$I$18*100*($I$6-$I$5*K10)</f>
         <v>1.0591293092623237</v>
       </c>
-      <c r="T18" s="117">
+      <c r="T18" s="116">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U18" s="117">
+      <c r="U18" s="116">
         <f t="shared" si="13"/>
         <v>-1.0591293092623235</v>
       </c>
-      <c r="V18" s="117">
+      <c r="V18" s="116">
         <f t="shared" si="13"/>
         <v>-2.1182586185246475</v>
       </c>
-      <c r="W18" s="117">
+      <c r="W18" s="116">
         <f t="shared" si="13"/>
         <v>-3.1773879277869712</v>
       </c>
-      <c r="X18" s="117">
+      <c r="X18" s="116">
         <f t="shared" si="13"/>
         <v>-4.2365172370492949</v>
       </c>
-      <c r="Y18" s="117">
+      <c r="Y18" s="116">
         <f t="shared" si="13"/>
         <v>-5.2956465463116187</v>
       </c>
-      <c r="Z18" s="117">
+      <c r="Z18" s="116">
         <f t="shared" si="13"/>
         <v>-6.3547758555739406</v>
       </c>
-      <c r="AA18" s="117">
+      <c r="AA18" s="116">
         <f t="shared" si="13"/>
         <v>-7.4139051648362653</v>
       </c>
-      <c r="AB18" s="117">
+      <c r="AB18" s="116">
         <f t="shared" si="13"/>
         <v>-8.4730344740985881</v>
       </c>
-      <c r="AC18" s="117">
+      <c r="AC18" s="116">
         <f t="shared" si="13"/>
         <v>-9.5321637833609127</v>
       </c>
@@ -8237,7 +8320,7 @@
         <f t="shared" si="8"/>
         <v>7.6637431929256428</v>
       </c>
-      <c r="E19" s="114">
+      <c r="E19" s="113">
         <f>IF(B19=0,0,($E$7*($E$10-7)))</f>
         <v>1.1000000000000001</v>
       </c>
@@ -8248,59 +8331,59 @@
         <f t="shared" si="3"/>
         <v>0.13306515503641192</v>
       </c>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="117">
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="116">
         <f>I6*I19*100</f>
         <v>4.3911501162015938</v>
       </c>
-      <c r="S19" s="117">
+      <c r="S19" s="116">
         <f>I19*100*(I6-I5)</f>
         <v>2.9274334108010627</v>
       </c>
-      <c r="T19" s="117">
+      <c r="T19" s="116">
         <f t="shared" ref="T19:AC19" si="14">$I$19*100*($I$6-$I$5*K10)</f>
         <v>1.4637167054005313</v>
       </c>
-      <c r="U19" s="117">
+      <c r="U19" s="116">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V19" s="117">
+      <c r="V19" s="116">
         <f t="shared" si="14"/>
         <v>-1.4637167054005309</v>
       </c>
-      <c r="W19" s="117">
+      <c r="W19" s="116">
         <f t="shared" si="14"/>
         <v>-2.9274334108010627</v>
       </c>
-      <c r="X19" s="117">
+      <c r="X19" s="116">
         <f t="shared" si="14"/>
         <v>-4.3911501162015938</v>
       </c>
-      <c r="Y19" s="117">
+      <c r="Y19" s="116">
         <f t="shared" si="14"/>
         <v>-5.8548668216021245</v>
       </c>
-      <c r="Z19" s="117">
+      <c r="Z19" s="116">
         <f t="shared" si="14"/>
         <v>-7.318583527002656</v>
       </c>
-      <c r="AA19" s="117">
+      <c r="AA19" s="116">
         <f t="shared" si="14"/>
         <v>-8.7823002324031858</v>
       </c>
-      <c r="AB19" s="117">
+      <c r="AB19" s="116">
         <f t="shared" si="14"/>
         <v>-10.246016937803718</v>
       </c>
-      <c r="AC19" s="117">
+      <c r="AC19" s="116">
         <f t="shared" si="14"/>
         <v>-11.709733643204247</v>
       </c>
@@ -8318,7 +8401,7 @@
         <f t="shared" si="8"/>
         <v>9.5321637833609127</v>
       </c>
-      <c r="E20" s="114">
+      <c r="E20" s="113">
         <f>IF(B20=0,0,($E$7*($E$10-8)))</f>
         <v>0.99</v>
       </c>
@@ -8329,56 +8412,56 @@
         <f t="shared" si="3"/>
         <v>0.18389604426032125</v>
       </c>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="117">
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="116">
         <f>I6*I20*100</f>
         <v>6.0685694605906013</v>
       </c>
-      <c r="T20" s="117">
+      <c r="T20" s="116">
         <f>I20*100*(I6-I5)</f>
         <v>4.0457129737270678</v>
       </c>
-      <c r="U20" s="117">
+      <c r="U20" s="116">
         <f>$I$20*100*($I$6-$I$5*K10)</f>
         <v>2.0228564868635339</v>
       </c>
-      <c r="V20" s="117">
+      <c r="V20" s="116">
         <f>$I$20*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="117">
+      <c r="W20" s="116">
         <f>$I$20*100*($I$6-$I$5*M10)</f>
         <v>-2.0228564868635335</v>
       </c>
-      <c r="X20" s="117">
+      <c r="X20" s="116">
         <f>$I$20*100*($I$6-$I$5*N10)</f>
         <v>-4.0457129737270678</v>
       </c>
-      <c r="Y20" s="117">
+      <c r="Y20" s="116">
         <f>$I$20*100*($I$6-$I$5*O10)</f>
         <v>-6.0685694605906013</v>
       </c>
-      <c r="Z20" s="117">
+      <c r="Z20" s="116">
         <f t="shared" ref="Z20:AC20" si="15">$I$20*100*($I$6-$I$5*P10)</f>
         <v>-8.0914259474541357</v>
       </c>
-      <c r="AA20" s="117">
+      <c r="AA20" s="116">
         <f t="shared" si="15"/>
         <v>-10.114282434317669</v>
       </c>
-      <c r="AB20" s="117">
+      <c r="AB20" s="116">
         <f t="shared" si="15"/>
         <v>-12.137138921181201</v>
       </c>
-      <c r="AC20" s="117">
+      <c r="AC20" s="116">
         <f t="shared" si="15"/>
         <v>-14.159995408044736</v>
       </c>
@@ -8396,7 +8479,7 @@
         <f t="shared" si="8"/>
         <v>11.709733643204249</v>
       </c>
-      <c r="E21" s="114">
+      <c r="E21" s="113">
         <f>IF(B21=0,0,($E$7*($E$10-9)))</f>
         <v>0.88</v>
       </c>
@@ -8407,53 +8490,53 @@
         <f t="shared" si="3"/>
         <v>0.25414433316776397</v>
       </c>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="118"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="119">
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="117"/>
+      <c r="R21" s="117"/>
+      <c r="S21" s="117"/>
+      <c r="T21" s="118">
         <f>I6*I21*100</f>
         <v>8.3867629945362108</v>
       </c>
-      <c r="U21" s="119">
+      <c r="U21" s="118">
         <f>I21*100*(I6-I5)</f>
         <v>5.5911753296908078</v>
       </c>
-      <c r="V21" s="119">
+      <c r="V21" s="118">
         <f>$I$21*100*($I$6-$I$5*K10)</f>
         <v>2.7955876648454039</v>
       </c>
-      <c r="W21" s="119">
+      <c r="W21" s="118">
         <f>$I$21*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="X21" s="119">
+      <c r="X21" s="118">
         <f>$I$21*100*($I$6-$I$5*M10)</f>
         <v>-2.7955876648454034</v>
       </c>
-      <c r="Y21" s="119">
+      <c r="Y21" s="118">
         <f>$I$21*100*($I$6-$I$5*N10)</f>
         <v>-5.5911753296908078</v>
       </c>
-      <c r="Z21" s="119">
+      <c r="Z21" s="118">
         <f t="shared" ref="Z21:AC21" si="16">$I$21*100*($I$6-$I$5*O10)</f>
         <v>-8.3867629945362108</v>
       </c>
-      <c r="AA21" s="119">
+      <c r="AA21" s="118">
         <f t="shared" si="16"/>
         <v>-11.182350659381614</v>
       </c>
-      <c r="AB21" s="119">
+      <c r="AB21" s="118">
         <f t="shared" si="16"/>
         <v>-13.977938324227019</v>
       </c>
-      <c r="AC21" s="119">
+      <c r="AC21" s="118">
         <f t="shared" si="16"/>
         <v>-16.773525989072418</v>
       </c>
@@ -8471,7 +8554,7 @@
         <f t="shared" si="8"/>
         <v>14.159995408044738</v>
       </c>
-      <c r="E22" s="114">
+      <c r="E22" s="113">
         <f>IF(B22=0,0,($E$7*($E$10-10)))</f>
         <v>0.77</v>
       </c>
@@ -8482,50 +8565,50 @@
         <f t="shared" si="3"/>
         <v>0.3512274684378498</v>
       </c>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="119"/>
-      <c r="U22" s="119">
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="117"/>
+      <c r="R22" s="117"/>
+      <c r="S22" s="117"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118">
         <f>I6*I22*100</f>
         <v>11.590506458449044</v>
       </c>
-      <c r="V22" s="119">
+      <c r="V22" s="118">
         <f>I22*100*(I6-I5)</f>
         <v>7.7270043056326969</v>
       </c>
-      <c r="W22" s="119">
+      <c r="W22" s="118">
         <f>$I$22*100*($I$6-$I$5*K10)</f>
         <v>3.8635021528163485</v>
       </c>
-      <c r="X22" s="119">
+      <c r="X22" s="118">
         <f>$I$22*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="Y22" s="119">
+      <c r="Y22" s="118">
         <f>$I$22*100*($I$6-$I$5*M10)</f>
         <v>-3.8635021528163476</v>
       </c>
-      <c r="Z22" s="119">
+      <c r="Z22" s="118">
         <f t="shared" ref="Z22:AC22" si="17">$I$22*100*($I$6-$I$5*N10)</f>
         <v>-7.7270043056326969</v>
       </c>
-      <c r="AA22" s="119">
+      <c r="AA22" s="118">
         <f t="shared" si="17"/>
         <v>-11.590506458449044</v>
       </c>
-      <c r="AB22" s="119">
+      <c r="AB22" s="118">
         <f t="shared" si="17"/>
         <v>-15.454008611265392</v>
       </c>
-      <c r="AC22" s="119">
+      <c r="AC22" s="118">
         <f t="shared" si="17"/>
         <v>-19.317510764081742</v>
       </c>
@@ -8543,7 +8626,7 @@
         <f t="shared" si="8"/>
         <v>16.773525989072422</v>
       </c>
-      <c r="E23" s="114">
+      <c r="E23" s="113">
         <f>IF(B23=0,0,($E$7*($E$10-11)))</f>
         <v>0.66</v>
       </c>
@@ -8554,47 +8637,47 @@
         <f t="shared" si="3"/>
         <v>0.48539636138110837</v>
       </c>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="118"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="119"/>
-      <c r="U23" s="119"/>
-      <c r="V23" s="119">
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="117"/>
+      <c r="S23" s="117"/>
+      <c r="T23" s="118"/>
+      <c r="U23" s="118"/>
+      <c r="V23" s="118">
         <f>I6*I23*100</f>
         <v>16.018079925576576</v>
       </c>
-      <c r="W23" s="119">
+      <c r="W23" s="118">
         <f>I23*100*(I6-I5)</f>
         <v>10.678719950384385</v>
       </c>
-      <c r="X23" s="119">
+      <c r="X23" s="118">
         <f>$I$23*100*($I$6-$I$5*K10)</f>
         <v>5.3393599751921927</v>
       </c>
-      <c r="Y23" s="119">
+      <c r="Y23" s="118">
         <f>$I$23*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="119">
+      <c r="Z23" s="118">
         <f t="shared" ref="Z23:AC23" si="18">$I$23*100*($I$6-$I$5*M10)</f>
         <v>-5.339359975192191</v>
       </c>
-      <c r="AA23" s="119">
+      <c r="AA23" s="118">
         <f t="shared" si="18"/>
         <v>-10.678719950384385</v>
       </c>
-      <c r="AB23" s="119">
+      <c r="AB23" s="118">
         <f t="shared" si="18"/>
         <v>-16.018079925576576</v>
       </c>
-      <c r="AC23" s="119">
+      <c r="AC23" s="118">
         <f t="shared" si="18"/>
         <v>-21.357439900768767</v>
       </c>
@@ -8612,7 +8695,7 @@
         <f t="shared" si="8"/>
         <v>19.317510764081742</v>
       </c>
-      <c r="E24" s="114">
+      <c r="E24" s="113">
         <f>IF(B24=0,0,($E$7*($E$10-12)))</f>
         <v>0.55000000000000004</v>
       </c>
@@ -8623,44 +8706,44 @@
         <f t="shared" si="3"/>
         <v>0.6708177714286917</v>
       </c>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="118"/>
-      <c r="P24" s="118"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="119"/>
-      <c r="U24" s="119"/>
-      <c r="V24" s="119"/>
-      <c r="W24" s="119">
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="117"/>
+      <c r="R24" s="117"/>
+      <c r="S24" s="117"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="118">
         <f>I6*I24*100</f>
         <v>22.136986457146826</v>
       </c>
-      <c r="X24" s="119">
+      <c r="X24" s="118">
         <f>I24*100*(I6-I5)</f>
         <v>14.757990971431219</v>
       </c>
-      <c r="Y24" s="119">
+      <c r="Y24" s="118">
         <f>$I$24*100*($I$6-$I$5*K10)</f>
         <v>7.3789954857156097</v>
       </c>
-      <c r="Z24" s="119">
+      <c r="Z24" s="118">
         <f t="shared" ref="Z24:AC24" si="19">$I$24*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="119">
+      <c r="AA24" s="118">
         <f t="shared" si="19"/>
         <v>-7.3789954857156079</v>
       </c>
-      <c r="AB24" s="119">
+      <c r="AB24" s="118">
         <f t="shared" si="19"/>
         <v>-14.757990971431219</v>
       </c>
-      <c r="AC24" s="119">
+      <c r="AC24" s="118">
         <f t="shared" si="19"/>
         <v>-22.136986457146829</v>
       </c>
@@ -8678,7 +8761,7 @@
         <f t="shared" si="8"/>
         <v>21.357439900768767</v>
       </c>
-      <c r="E25" s="114">
+      <c r="E25" s="113">
         <f>IF(B25=0,0,($E$7*($E$10-13)))</f>
         <v>0.44</v>
       </c>
@@ -8689,41 +8772,41 @@
         <f t="shared" si="3"/>
         <v>0.92707016011445187</v>
       </c>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="119"/>
-      <c r="U25" s="119"/>
-      <c r="V25" s="119"/>
-      <c r="W25" s="119"/>
-      <c r="X25" s="119">
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="117"/>
+      <c r="S25" s="117"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118">
         <f>I6*I25*100</f>
         <v>30.59331528377691</v>
       </c>
-      <c r="Y25" s="119">
+      <c r="Y25" s="118">
         <f>I25*100*(I6-I5)</f>
         <v>20.395543522517944</v>
       </c>
-      <c r="Z25" s="119">
+      <c r="Z25" s="118">
         <f>$I$25*100*($I$6-$I$5*K10)</f>
         <v>10.197771761258972</v>
       </c>
-      <c r="AA25" s="119">
+      <c r="AA25" s="118">
         <f>$I$25*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="119">
+      <c r="AB25" s="118">
         <f>$I$25*100*($I$6-$I$5*M10)</f>
         <v>-10.19777176125897</v>
       </c>
-      <c r="AC25" s="119">
+      <c r="AC25" s="118">
         <f>$I$25*100*($I$6-$I$5*N10)</f>
         <v>-20.395543522517944</v>
       </c>
@@ -8741,7 +8824,7 @@
         <f t="shared" si="8"/>
         <v>22.136986457146826</v>
       </c>
-      <c r="E26" s="114">
+      <c r="E26" s="113">
         <f>IF(B26=0,0,($E$7*($E$10-14)))</f>
         <v>0.33</v>
       </c>
@@ -8752,38 +8835,38 @@
         <f t="shared" si="3"/>
         <v>1.2812109612781724</v>
       </c>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="118"/>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="119"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="119"/>
-      <c r="W26" s="119"/>
-      <c r="X26" s="119"/>
-      <c r="Y26" s="119">
+      <c r="J26" s="117"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="117"/>
+      <c r="R26" s="117"/>
+      <c r="S26" s="117"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="118"/>
+      <c r="W26" s="118"/>
+      <c r="X26" s="118"/>
+      <c r="Y26" s="118">
         <f>I26*I6*100</f>
         <v>42.279961722179685</v>
       </c>
-      <c r="Z26" s="119">
+      <c r="Z26" s="118">
         <f>$I$26*100*($I$6-$I$5)</f>
         <v>28.186641148119794</v>
       </c>
-      <c r="AA26" s="119">
+      <c r="AA26" s="118">
         <f>$I$26*100*($I$6-$I$5*K10)</f>
         <v>14.093320574059897</v>
       </c>
-      <c r="AB26" s="119">
+      <c r="AB26" s="118">
         <f>$I$26*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="AC26" s="119">
+      <c r="AC26" s="118">
         <f>$I$26*100*($I$6-$I$5*M10)</f>
         <v>-14.093320574059893</v>
       </c>
@@ -8801,7 +8884,7 @@
         <f t="shared" si="8"/>
         <v>20.395543522517944</v>
       </c>
-      <c r="E27" s="114">
+      <c r="E27" s="113">
         <f>IF(B27=0,0,($E$7*($E$10-15)))</f>
         <v>0.22</v>
       </c>
@@ -8812,35 +8895,35 @@
         <f t="shared" si="3"/>
         <v>1.770633548486434</v>
       </c>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="120"/>
-      <c r="S27" s="120"/>
-      <c r="T27" s="120"/>
-      <c r="U27" s="120"/>
-      <c r="V27" s="120"/>
-      <c r="W27" s="120"/>
-      <c r="X27" s="120"/>
-      <c r="Y27" s="120"/>
-      <c r="Z27" s="119">
+      <c r="J27" s="119"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="119"/>
+      <c r="N27" s="119"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="119"/>
+      <c r="T27" s="119"/>
+      <c r="U27" s="119"/>
+      <c r="V27" s="119"/>
+      <c r="W27" s="119"/>
+      <c r="X27" s="119"/>
+      <c r="Y27" s="119"/>
+      <c r="Z27" s="118">
         <f>$I$27*$I$6*100</f>
         <v>58.430907100052323</v>
       </c>
-      <c r="AA27" s="119">
+      <c r="AA27" s="118">
         <f>$I$27*100*($I$6-$I$5*J$10)</f>
         <v>38.953938066701554</v>
       </c>
-      <c r="AB27" s="119">
+      <c r="AB27" s="118">
         <f t="shared" ref="AB27:AC27" si="20">$I$27*100*($I$6-$I$5*K$10)</f>
         <v>19.476969033350777</v>
       </c>
-      <c r="AC27" s="119">
+      <c r="AC27" s="118">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -8858,7 +8941,7 @@
         <f t="shared" si="8"/>
         <v>14.093320574059895</v>
       </c>
-      <c r="E28" s="114">
+      <c r="E28" s="113">
         <f>IF(B28=0,0,($E$7*($E$10-16)))</f>
         <v>0.11</v>
       </c>
@@ -8869,32 +8952,32 @@
         <f t="shared" si="3"/>
         <v>2.4470155640082516</v>
       </c>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="120"/>
-      <c r="O28" s="120"/>
-      <c r="P28" s="120"/>
-      <c r="Q28" s="120"/>
-      <c r="R28" s="120"/>
-      <c r="S28" s="120"/>
-      <c r="T28" s="120"/>
-      <c r="U28" s="120"/>
-      <c r="V28" s="120"/>
-      <c r="W28" s="120"/>
-      <c r="X28" s="120"/>
-      <c r="Y28" s="120"/>
-      <c r="Z28" s="120"/>
-      <c r="AA28" s="119">
+      <c r="J28" s="119"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="119"/>
+      <c r="T28" s="119"/>
+      <c r="U28" s="119"/>
+      <c r="V28" s="119"/>
+      <c r="W28" s="119"/>
+      <c r="X28" s="119"/>
+      <c r="Y28" s="119"/>
+      <c r="Z28" s="119"/>
+      <c r="AA28" s="118">
         <f>$I$28*$I$6*100</f>
         <v>80.751513612272305</v>
       </c>
-      <c r="AB28" s="119">
+      <c r="AB28" s="118">
         <f>$I$28*100*($I$6-$I$5*J$10)</f>
         <v>53.834342408181541</v>
       </c>
-      <c r="AC28" s="119">
+      <c r="AC28" s="118">
         <f>$I$28*100*($I$6-$I$5*K$10)</f>
         <v>26.917171204090771</v>
       </c>
@@ -8912,7 +8995,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E29" s="114">
+      <c r="E29" s="113">
         <f>IF(B29=0,0,($E$7*($E$10-17)))</f>
         <v>0</v>
       </c>
@@ -8923,29 +9006,29 @@
         <f t="shared" si="3"/>
         <v>3.3817755094594033</v>
       </c>
-      <c r="J29" s="120"/>
-      <c r="K29" s="120"/>
-      <c r="L29" s="120"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="120"/>
-      <c r="O29" s="120"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="120"/>
-      <c r="S29" s="120"/>
-      <c r="T29" s="120"/>
-      <c r="U29" s="120"/>
-      <c r="V29" s="120"/>
-      <c r="W29" s="120"/>
-      <c r="X29" s="120"/>
-      <c r="Y29" s="120"/>
-      <c r="Z29" s="120"/>
-      <c r="AA29" s="120"/>
-      <c r="AB29" s="119">
+      <c r="J29" s="119"/>
+      <c r="K29" s="119"/>
+      <c r="L29" s="119"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="119"/>
+      <c r="Q29" s="119"/>
+      <c r="R29" s="119"/>
+      <c r="S29" s="119"/>
+      <c r="T29" s="119"/>
+      <c r="U29" s="119"/>
+      <c r="V29" s="119"/>
+      <c r="W29" s="119"/>
+      <c r="X29" s="119"/>
+      <c r="Y29" s="119"/>
+      <c r="Z29" s="119"/>
+      <c r="AA29" s="119"/>
+      <c r="AB29" s="118">
         <f>$I$29*$I$6*100</f>
         <v>111.59859181216032</v>
       </c>
-      <c r="AC29" s="119">
+      <c r="AC29" s="118">
         <f>$I$29*100*($I$6-$I$5*J$10)</f>
         <v>74.399061208106872</v>
       </c>
@@ -8974,26 +9057,26 @@
         <f t="shared" si="3"/>
         <v>4.6736137540728953</v>
       </c>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="120"/>
-      <c r="T30" s="120"/>
-      <c r="U30" s="120"/>
-      <c r="V30" s="120"/>
-      <c r="W30" s="120"/>
-      <c r="X30" s="120"/>
-      <c r="Y30" s="120"/>
-      <c r="Z30" s="120"/>
-      <c r="AA30" s="120"/>
-      <c r="AB30" s="120"/>
-      <c r="AC30" s="119">
+      <c r="J30" s="119"/>
+      <c r="K30" s="119"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="119"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="119"/>
+      <c r="P30" s="119"/>
+      <c r="Q30" s="119"/>
+      <c r="R30" s="119"/>
+      <c r="S30" s="119"/>
+      <c r="T30" s="119"/>
+      <c r="U30" s="119"/>
+      <c r="V30" s="119"/>
+      <c r="W30" s="119"/>
+      <c r="X30" s="119"/>
+      <c r="Y30" s="119"/>
+      <c r="Z30" s="119"/>
+      <c r="AA30" s="119"/>
+      <c r="AB30" s="119"/>
+      <c r="AC30" s="118">
         <f>$I$30*$I$6*100</f>
         <v>154.22925388440555</v>
       </c>
@@ -9022,83 +9105,83 @@
         <f>SUM(I11:I26)</f>
         <v>4.6089883468231267</v>
       </c>
-      <c r="J31" s="121">
+      <c r="J31" s="120">
         <f>SUMIF(J11:J30, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="K31" s="121">
+      <c r="K31" s="120">
         <f t="shared" ref="K31:AC31" si="21">SUMIF(K11:K30, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="L31" s="121">
+      <c r="L31" s="120">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M31" s="121">
+      <c r="M31" s="120">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="N31" s="121">
+      <c r="N31" s="120">
         <f t="shared" si="21"/>
         <v>-0.10999999999999999</v>
       </c>
-      <c r="O31" s="121">
+      <c r="O31" s="120">
         <f t="shared" si="21"/>
         <v>-0.37202000000000002</v>
       </c>
-      <c r="P31" s="121">
+      <c r="P31" s="120">
         <f t="shared" si="21"/>
         <v>-0.84413163999999996</v>
       </c>
-      <c r="Q31" s="121">
+      <c r="Q31" s="120">
         <f t="shared" si="21"/>
         <v>-1.6065899264799999</v>
       </c>
-      <c r="R31" s="121">
+      <c r="R31" s="120">
         <f t="shared" si="21"/>
         <v>-2.77030727839536</v>
       </c>
-      <c r="S31" s="121">
+      <c r="S31" s="120">
         <f t="shared" si="21"/>
         <v>-4.4885646587423862</v>
       </c>
-      <c r="T31" s="121">
+      <c r="T31" s="120">
         <f t="shared" si="21"/>
         <v>-6.973196358381978</v>
       </c>
-      <c r="U31" s="121">
+      <c r="U31" s="120">
         <f t="shared" si="21"/>
         <v>-10.516957367283892</v>
       </c>
-      <c r="V31" s="121">
+      <c r="V31" s="120">
         <f t="shared" si="21"/>
         <v>-15.524435081586336</v>
       </c>
-      <c r="W31" s="121">
+      <c r="W31" s="120">
         <f t="shared" si="21"/>
         <v>-22.554769282752318</v>
       </c>
-      <c r="X31" s="121">
+      <c r="X31" s="120">
         <f t="shared" si="21"/>
         <v>-32.380691148763702</v>
       </c>
-      <c r="Y31" s="121">
+      <c r="Y31" s="120">
         <f t="shared" si="21"/>
         <v>-46.070115167591432</v>
       </c>
-      <c r="Z31" s="121">
+      <c r="Z31" s="120">
         <f t="shared" si="21"/>
         <v>-65.098899161611357</v>
       </c>
-      <c r="AA31" s="121">
+      <c r="AA31" s="120">
         <f t="shared" si="21"/>
         <v>-91.506678641346895</v>
       </c>
-      <c r="AB31" s="121">
+      <c r="AB31" s="120">
         <f t="shared" si="21"/>
         <v>-128.11222988234138</v>
       </c>
-      <c r="AC31" s="121">
+      <c r="AC31" s="120">
         <f t="shared" si="21"/>
         <v>-178.81110169739583</v>
       </c>
@@ -9123,83 +9206,83 @@
       <c r="I32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J32" s="122">
+      <c r="J32" s="121">
         <f t="shared" ref="J32:AC32" si="23">SUM(J11:J30)</f>
         <v>0.33</v>
       </c>
-      <c r="K32" s="122">
+      <c r="K32" s="121">
         <f t="shared" si="23"/>
         <v>0.67605999999999999</v>
       </c>
-      <c r="L32" s="122">
+      <c r="L32" s="121">
         <f t="shared" si="23"/>
         <v>1.0443149200000001</v>
       </c>
-      <c r="M32" s="122">
+      <c r="M32" s="121">
         <f t="shared" si="23"/>
         <v>1.4432432194399998</v>
       </c>
-      <c r="N32" s="122">
+      <c r="N32" s="121">
         <f t="shared" si="23"/>
         <v>1.8845621292660797</v>
       </c>
-      <c r="O32" s="122">
+      <c r="O32" s="121">
         <f t="shared" si="23"/>
         <v>2.3844648626457219</v>
       </c>
-      <c r="P32" s="122">
+      <c r="P32" s="121">
         <f t="shared" si="23"/>
         <v>2.9653304401763876</v>
       </c>
-      <c r="Q32" s="122">
+      <c r="Q32" s="121">
         <f t="shared" si="23"/>
         <v>3.6580866683237669</v>
       </c>
-      <c r="R32" s="122">
+      <c r="R32" s="121">
         <f t="shared" si="23"/>
         <v>4.5054757756234451</v>
       </c>
-      <c r="S32" s="122">
+      <c r="S32" s="121">
         <f t="shared" si="23"/>
         <v>5.5665675219116011</v>
       </c>
-      <c r="T32" s="122">
+      <c r="T32" s="121">
         <f t="shared" si="23"/>
         <v>6.9229963152818321</v>
       </c>
-      <c r="U32" s="122">
+      <c r="U32" s="121">
         <f t="shared" si="23"/>
         <v>8.687580907719493</v>
       </c>
-      <c r="V32" s="122">
+      <c r="V32" s="121">
         <f t="shared" si="23"/>
         <v>11.016236814468339</v>
       </c>
-      <c r="W32" s="122">
+      <c r="W32" s="121">
         <f t="shared" si="23"/>
         <v>14.124439277595242</v>
       </c>
-      <c r="X32" s="122">
+      <c r="X32" s="121">
         <f t="shared" si="23"/>
         <v>18.309975081636619</v>
       </c>
-      <c r="Y32" s="122">
+      <c r="Y32" s="121">
         <f t="shared" si="23"/>
         <v>23.98438556282181</v>
       </c>
-      <c r="Z32" s="122">
+      <c r="Z32" s="121">
         <f t="shared" si="23"/>
         <v>31.71642084781973</v>
       </c>
-      <c r="AA32" s="122">
+      <c r="AA32" s="121">
         <f t="shared" si="23"/>
         <v>42.292093611686866</v>
       </c>
-      <c r="AB32" s="122">
+      <c r="AB32" s="121">
         <f t="shared" si="23"/>
         <v>56.797673371351252</v>
       </c>
-      <c r="AC32" s="122">
+      <c r="AC32" s="121">
         <f t="shared" si="23"/>
         <v>76.734384599207374</v>
       </c>
@@ -11027,22 +11110,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:Z38"/>
+  <dimension ref="B1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="58"/>
-    <col min="2" max="2" width="6" style="58" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" style="57"/>
+    <col min="2" max="2" width="6" style="57" customWidth="1"/>
     <col min="3" max="4" width="9.09765625" style="19"/>
     <col min="5" max="5" width="15.3984375" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.09765625" style="19"/>
-    <col min="7" max="20" width="9.09765625" style="58"/>
-    <col min="21" max="21" width="10.3984375" style="58" customWidth="1"/>
-    <col min="22" max="16384" width="9.09765625" style="58"/>
+    <col min="7" max="20" width="9.09765625" style="57"/>
+    <col min="21" max="21" width="10.3984375" style="57" customWidth="1"/>
+    <col min="22" max="16384" width="9.09765625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.45">
@@ -11054,13 +11137,13 @@
       <c r="E1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="59">
+      <c r="F1" s="58">
         <v>1</v>
       </c>
-      <c r="G1" s="59">
+      <c r="G1" s="58">
         <v>1.6</v>
       </c>
-      <c r="H1" s="59">
+      <c r="H1" s="58">
         <v>1.7</v>
       </c>
     </row>
@@ -11070,51 +11153,51 @@
       </c>
       <c r="C2" s="127"/>
       <c r="D2" s="128"/>
-      <c r="E2" s="66"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70">
+      <c r="G2" s="68"/>
+      <c r="H2" s="69">
         <v>5</v>
       </c>
-      <c r="I2" s="70">
+      <c r="I2" s="69">
         <v>5</v>
       </c>
-      <c r="J2" s="70">
+      <c r="J2" s="69">
         <v>5</v>
       </c>
-      <c r="K2" s="70">
+      <c r="K2" s="69">
         <v>5</v>
       </c>
-      <c r="L2" s="70">
+      <c r="L2" s="69">
         <v>5</v>
       </c>
-      <c r="M2" s="70">
+      <c r="M2" s="69">
         <v>5</v>
       </c>
-      <c r="N2" s="71">
+      <c r="N2" s="70">
         <v>5</v>
       </c>
-      <c r="O2" s="83">
+      <c r="O2" s="82">
         <v>3</v>
       </c>
-      <c r="P2" s="84">
+      <c r="P2" s="83">
         <v>3</v>
       </c>
-      <c r="Q2" s="85">
+      <c r="Q2" s="84">
         <v>3</v>
       </c>
-      <c r="R2" s="89">
+      <c r="R2" s="88">
         <v>2</v>
       </c>
-      <c r="S2" s="90">
+      <c r="S2" s="89">
         <v>2</v>
       </c>
-      <c r="T2" s="90">
+      <c r="T2" s="89">
         <v>2</v>
       </c>
-      <c r="U2" s="91">
+      <c r="U2" s="90">
         <v>2</v>
       </c>
     </row>
@@ -11122,64 +11205,64 @@
       <c r="B3" s="127"/>
       <c r="C3" s="127"/>
       <c r="D3" s="128"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66" t="s">
+      <c r="E3" s="65"/>
+      <c r="F3" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73">
+      <c r="G3" s="71"/>
+      <c r="H3" s="72">
         <f>H2</f>
         <v>5</v>
       </c>
-      <c r="I3" s="73">
+      <c r="I3" s="72">
         <f>SUM($H$2:I2)</f>
         <v>10</v>
       </c>
-      <c r="J3" s="73">
+      <c r="J3" s="72">
         <f>SUM($H$2:J2)</f>
         <v>15</v>
       </c>
-      <c r="K3" s="73">
+      <c r="K3" s="72">
         <f>SUM($H$2:K2)</f>
         <v>20</v>
       </c>
-      <c r="L3" s="73">
+      <c r="L3" s="72">
         <f>SUM($H$2:L2)</f>
         <v>25</v>
       </c>
-      <c r="M3" s="73">
+      <c r="M3" s="72">
         <f>SUM($H$2:M2)</f>
         <v>30</v>
       </c>
-      <c r="N3" s="74">
+      <c r="N3" s="73">
         <f>SUM($H$2:N2)</f>
         <v>35</v>
       </c>
-      <c r="O3" s="86">
+      <c r="O3" s="85">
         <f>SUM($H$2:O2)</f>
         <v>38</v>
       </c>
-      <c r="P3" s="87">
+      <c r="P3" s="86">
         <f>SUM($H$2:P2)</f>
         <v>41</v>
       </c>
-      <c r="Q3" s="88">
+      <c r="Q3" s="87">
         <f>SUM($H$2:Q2)</f>
         <v>44</v>
       </c>
-      <c r="R3" s="92">
+      <c r="R3" s="91">
         <f>SUM($H$2:R2)</f>
         <v>46</v>
       </c>
-      <c r="S3" s="93">
+      <c r="S3" s="92">
         <f>SUM($H$2:S2)</f>
         <v>48</v>
       </c>
-      <c r="T3" s="93">
+      <c r="T3" s="92">
         <f>SUM($H$2:T2)</f>
         <v>50</v>
       </c>
-      <c r="U3" s="94">
+      <c r="U3" s="93">
         <f>SUM($H$2:U2)</f>
         <v>52</v>
       </c>
@@ -11194,119 +11277,119 @@
         <v>13</v>
       </c>
       <c r="F4" s="15"/>
-      <c r="G4" s="97">
+      <c r="G4" s="96">
         <v>30</v>
       </c>
-      <c r="H4" s="98">
+      <c r="H4" s="97">
         <v>30</v>
       </c>
-      <c r="I4" s="98">
+      <c r="I4" s="97">
         <v>30</v>
       </c>
-      <c r="J4" s="98">
+      <c r="J4" s="97">
         <v>30</v>
       </c>
-      <c r="K4" s="98">
+      <c r="K4" s="97">
         <v>30</v>
       </c>
-      <c r="L4" s="98">
+      <c r="L4" s="97">
         <v>30</v>
       </c>
-      <c r="M4" s="98">
+      <c r="M4" s="97">
         <v>30</v>
       </c>
-      <c r="N4" s="99">
+      <c r="N4" s="98">
         <v>30</v>
       </c>
-      <c r="O4" s="100">
+      <c r="O4" s="99">
         <v>5</v>
       </c>
-      <c r="P4" s="101">
+      <c r="P4" s="100">
         <v>5</v>
       </c>
-      <c r="Q4" s="102">
+      <c r="Q4" s="101">
         <v>5</v>
       </c>
-      <c r="R4" s="103">
+      <c r="R4" s="102">
         <v>3</v>
       </c>
-      <c r="S4" s="104">
+      <c r="S4" s="103">
         <v>3</v>
       </c>
-      <c r="T4" s="104">
+      <c r="T4" s="103">
         <v>3</v>
       </c>
-      <c r="U4" s="105">
+      <c r="U4" s="104">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:23" ht="14.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="60">
         <f>F1</f>
         <v>1</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="60">
         <f>G1</f>
         <v>1.6</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="60">
         <f>H1</f>
         <v>1.7</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="107" t="s">
+      <c r="H5" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="107" t="s">
+      <c r="I5" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="107" t="s">
+      <c r="J5" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="107" t="s">
+      <c r="K5" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="107" t="s">
+      <c r="L5" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="107" t="s">
+      <c r="M5" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="108" t="s">
+      <c r="N5" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="109" t="s">
+      <c r="O5" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="107" t="s">
+      <c r="P5" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="108" t="s">
+      <c r="Q5" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="109" t="s">
+      <c r="R5" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="107" t="s">
+      <c r="S5" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="107" t="s">
+      <c r="T5" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="108" t="s">
+      <c r="U5" s="107" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="16">
@@ -11320,10 +11403,10 @@
         <f>C6</f>
         <v>0.01</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="64">
         <v>0.01</v>
       </c>
-      <c r="G6" s="95">
+      <c r="G6" s="94">
         <f>F6*G4*100</f>
         <v>30</v>
       </c>
@@ -11351,7 +11434,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6" s="96">
+      <c r="N6" s="95">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
@@ -11363,7 +11446,7 @@
         <f t="shared" si="0"/>
         <v>-36</v>
       </c>
-      <c r="Q6" s="96">
+      <c r="Q6" s="95">
         <f t="shared" si="0"/>
         <v>-39</v>
       </c>
@@ -11379,15 +11462,15 @@
         <f t="shared" si="0"/>
         <v>-47</v>
       </c>
-      <c r="U6" s="96">
+      <c r="U6" s="95">
         <f t="shared" si="0"/>
         <v>-49</v>
       </c>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="61" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="17">
@@ -11463,11 +11546,11 @@
         <f t="shared" si="3"/>
         <v>-44</v>
       </c>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="17">
@@ -11540,11 +11623,11 @@
         <f t="shared" si="4"/>
         <v>-39</v>
       </c>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="61" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="17">
@@ -11614,11 +11697,11 @@
         <f t="shared" si="7"/>
         <v>-34</v>
       </c>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="61" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="17">
@@ -11685,11 +11768,11 @@
         <f t="shared" si="8"/>
         <v>-28.999999999999996</v>
       </c>
-      <c r="V10" s="63"/>
-      <c r="W10" s="63"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="61" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="17">
@@ -11753,11 +11836,11 @@
         <f t="shared" si="9"/>
         <v>-24</v>
       </c>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="61" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="17">
@@ -11817,11 +11900,11 @@
         <f t="shared" si="10"/>
         <v>-19</v>
       </c>
-      <c r="V12" s="63"/>
-      <c r="W12" s="63"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="61" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="17">
@@ -11847,7 +11930,7 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="76">
+      <c r="N13" s="75">
         <f>F13*N4*100</f>
         <v>30</v>
       </c>
@@ -11879,11 +11962,11 @@
         <f t="shared" si="11"/>
         <v>-14.000000000000002</v>
       </c>
-      <c r="V13" s="63"/>
-      <c r="W13" s="63"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="61" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="17">
@@ -11909,7 +11992,7 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="N14" s="48"/>
-      <c r="O14" s="75">
+      <c r="O14" s="74">
         <f>F14*O4*100</f>
         <v>215</v>
       </c>
@@ -11937,11 +12020,11 @@
         <f t="shared" si="12"/>
         <v>-472.99999999999994</v>
       </c>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
     </row>
     <row r="15" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="61" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="17">
@@ -11992,11 +12075,11 @@
         <f t="shared" si="13"/>
         <v>-552</v>
       </c>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="61" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="17">
@@ -12024,7 +12107,7 @@
       <c r="N16" s="48"/>
       <c r="O16" s="47"/>
       <c r="P16" s="18"/>
-      <c r="Q16" s="76">
+      <c r="Q16" s="75">
         <f>F16*Q4*100</f>
         <v>550</v>
       </c>
@@ -12044,11 +12127,11 @@
         <f t="shared" si="14"/>
         <v>-550</v>
       </c>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="61" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="17">
@@ -12077,7 +12160,7 @@
       <c r="O17" s="47"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="48"/>
-      <c r="R17" s="75">
+      <c r="R17" s="74">
         <f>F17*R4*100</f>
         <v>528</v>
       </c>
@@ -12093,11 +12176,11 @@
         <f t="shared" ref="U17" si="15">$F$17*(U4-(U3-$R$3))*100</f>
         <v>-528</v>
       </c>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="61" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="17">
@@ -12139,11 +12222,11 @@
         <f>$F$18*(U4-(U3-$S$3))*100</f>
         <v>-583</v>
       </c>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="61" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="17">
@@ -12182,11 +12265,11 @@
         <f>$F$19*(U4-(U3-$T$3))*100</f>
         <v>990</v>
       </c>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="61" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="17">
@@ -12201,918 +12284,1135 @@
         <f t="shared" si="2"/>
         <v>16.837782655940089</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="67">
         <v>16.84</v>
       </c>
-      <c r="G20" s="77"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
       <c r="U20" s="51">
         <f>F20*U4*100</f>
         <v>5052</v>
       </c>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F21" s="64">
+      <c r="F21" s="63">
         <f>SUM(F6:F20)</f>
         <v>36.629999999999995</v>
       </c>
-      <c r="G21" s="80">
+      <c r="G21" s="79">
         <f>SUMIF(G5:G20, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="H21" s="81">
+      <c r="H21" s="80">
         <f t="shared" ref="H21:U21" si="16">SUMIF(H5:H20, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="I21" s="81">
+      <c r="I21" s="80">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J21" s="81">
+      <c r="J21" s="80">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K21" s="81">
+      <c r="K21" s="80">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L21" s="81">
+      <c r="L21" s="80">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M21" s="81">
+      <c r="M21" s="80">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N21" s="82">
+      <c r="N21" s="81">
         <f t="shared" si="16"/>
         <v>-5</v>
       </c>
-      <c r="O21" s="80">
+      <c r="O21" s="79">
         <f t="shared" si="16"/>
         <v>-126</v>
       </c>
-      <c r="P21" s="81">
+      <c r="P21" s="80">
         <f t="shared" si="16"/>
         <v>-148</v>
       </c>
-      <c r="Q21" s="82">
+      <c r="Q21" s="81">
         <f t="shared" si="16"/>
         <v>-215</v>
       </c>
-      <c r="R21" s="80">
+      <c r="R21" s="79">
         <f t="shared" si="16"/>
         <v>-557</v>
       </c>
-      <c r="S21" s="81">
+      <c r="S21" s="80">
         <f t="shared" si="16"/>
         <v>-907</v>
       </c>
-      <c r="T21" s="81">
+      <c r="T21" s="80">
         <f t="shared" si="16"/>
         <v>-1543</v>
       </c>
-      <c r="U21" s="82">
+      <c r="U21" s="81">
         <f t="shared" si="16"/>
         <v>-2938</v>
       </c>
-      <c r="V21" s="63"/>
-      <c r="W21" s="63"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F22" s="58"/>
-      <c r="G22" s="80">
+      <c r="F22" s="57"/>
+      <c r="G22" s="79">
         <f t="shared" ref="G22:U22" si="17">SUM(G6:G20)</f>
         <v>30</v>
       </c>
-      <c r="H22" s="81">
+      <c r="H22" s="80">
         <f t="shared" si="17"/>
         <v>55</v>
       </c>
-      <c r="I22" s="81">
+      <c r="I22" s="80">
         <f t="shared" si="17"/>
         <v>75</v>
       </c>
-      <c r="J22" s="81">
+      <c r="J22" s="80">
         <f t="shared" si="17"/>
         <v>90</v>
       </c>
-      <c r="K22" s="81">
+      <c r="K22" s="80">
         <f t="shared" si="17"/>
         <v>100</v>
       </c>
-      <c r="L22" s="81">
+      <c r="L22" s="80">
         <f t="shared" si="17"/>
         <v>105</v>
       </c>
-      <c r="M22" s="81">
+      <c r="M22" s="80">
         <f t="shared" si="17"/>
         <v>105</v>
       </c>
-      <c r="N22" s="82">
+      <c r="N22" s="81">
         <f t="shared" si="17"/>
         <v>100</v>
       </c>
-      <c r="O22" s="80">
+      <c r="O22" s="79">
         <f t="shared" si="17"/>
         <v>91</v>
       </c>
-      <c r="P22" s="81">
+      <c r="P22" s="80">
         <f t="shared" si="17"/>
         <v>283</v>
       </c>
-      <c r="Q22" s="82">
+      <c r="Q22" s="81">
         <f t="shared" si="17"/>
         <v>473</v>
       </c>
-      <c r="R22" s="80">
+      <c r="R22" s="79">
         <f t="shared" si="17"/>
         <v>81</v>
       </c>
-      <c r="S22" s="81">
+      <c r="S22" s="80">
         <f t="shared" si="17"/>
         <v>1018.0000000000002</v>
       </c>
-      <c r="T22" s="81">
+      <c r="T22" s="80">
         <f t="shared" si="17"/>
         <v>2010.0000000000005</v>
       </c>
-      <c r="U22" s="82">
+      <c r="U22" s="81">
         <f t="shared" si="17"/>
         <v>3104</v>
       </c>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F23" s="58"/>
-      <c r="G23" s="63"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="62"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F24" s="58"/>
+      <c r="F24" s="57"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F25" s="58"/>
+      <c r="F25" s="57"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F26" s="58"/>
-      <c r="W26" s="63"/>
+      <c r="F26" s="57"/>
+      <c r="W26" s="62"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F27" s="58"/>
+      <c r="F27" s="57"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F28" s="58"/>
+      <c r="F28" s="57"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F29" s="58"/>
+      <c r="F29" s="57"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="G30" s="58">
+      <c r="G30" s="57">
         <v>1</v>
       </c>
-      <c r="H30" s="58">
+      <c r="H30" s="57">
         <v>2</v>
       </c>
-      <c r="I30" s="58">
+      <c r="I30" s="57">
         <v>3</v>
       </c>
-      <c r="J30" s="58">
+      <c r="J30" s="57">
         <v>4</v>
       </c>
-      <c r="K30" s="58">
+      <c r="K30" s="57">
         <v>5</v>
       </c>
-      <c r="L30" s="58">
+      <c r="L30" s="57">
         <v>6</v>
       </c>
-      <c r="M30" s="58">
+      <c r="M30" s="57">
         <v>7</v>
       </c>
-      <c r="N30" s="58">
+      <c r="N30" s="57">
         <v>8</v>
       </c>
-      <c r="O30" s="58">
+      <c r="O30" s="57">
         <v>9</v>
       </c>
-      <c r="P30" s="58">
+      <c r="P30" s="57">
         <v>10</v>
       </c>
-      <c r="Q30" s="58">
+      <c r="Q30" s="57">
         <v>11</v>
       </c>
-      <c r="R30" s="58">
+      <c r="R30" s="57">
         <v>12</v>
       </c>
-      <c r="S30" s="58">
+      <c r="S30" s="57">
         <v>13</v>
       </c>
-      <c r="T30" s="58">
+      <c r="T30" s="57">
         <v>14</v>
       </c>
-      <c r="U30" s="58">
+      <c r="U30" s="57">
         <v>15</v>
       </c>
-      <c r="V30" s="58">
+      <c r="V30" s="57">
         <v>16</v>
       </c>
-      <c r="W30" s="58">
+      <c r="W30" s="57">
         <v>17</v>
       </c>
-      <c r="X30" s="58">
+      <c r="X30" s="57">
         <v>18</v>
       </c>
-      <c r="Y30" s="58">
+      <c r="Y30" s="57">
         <v>19</v>
       </c>
-      <c r="Z30" s="58">
+      <c r="Z30" s="57">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F31" s="63">
+      <c r="F31" s="62">
         <v>1</v>
       </c>
-      <c r="G31" s="131">
+      <c r="G31" s="122">
         <v>200</v>
       </c>
-      <c r="H31" s="131">
+      <c r="H31" s="122">
         <f>G31*1.05</f>
         <v>210</v>
       </c>
-      <c r="I31" s="131">
+      <c r="I31" s="122">
         <f t="shared" ref="I31:Z31" si="18">H31*1.05</f>
         <v>220.5</v>
       </c>
-      <c r="J31" s="131">
+      <c r="J31" s="122">
         <f t="shared" si="18"/>
         <v>231.52500000000001</v>
       </c>
-      <c r="K31" s="131">
+      <c r="K31" s="122">
         <f t="shared" si="18"/>
         <v>243.10125000000002</v>
       </c>
-      <c r="L31" s="131">
+      <c r="L31" s="122">
         <f t="shared" si="18"/>
         <v>255.25631250000004</v>
       </c>
-      <c r="M31" s="131">
+      <c r="M31" s="122">
         <f t="shared" si="18"/>
         <v>268.01912812500007</v>
       </c>
-      <c r="N31" s="131">
+      <c r="N31" s="122">
         <f t="shared" si="18"/>
         <v>281.4200845312501</v>
       </c>
-      <c r="O31" s="131">
+      <c r="O31" s="122">
         <f t="shared" si="18"/>
         <v>295.49108875781263</v>
       </c>
-      <c r="P31" s="131">
+      <c r="P31" s="122">
         <f t="shared" si="18"/>
         <v>310.26564319570326</v>
       </c>
-      <c r="Q31" s="131">
+      <c r="Q31" s="122">
         <f t="shared" si="18"/>
         <v>325.77892535548841</v>
       </c>
-      <c r="R31" s="131">
+      <c r="R31" s="122">
         <f t="shared" si="18"/>
         <v>342.06787162326287</v>
       </c>
-      <c r="S31" s="131">
+      <c r="S31" s="122">
         <f t="shared" si="18"/>
         <v>359.17126520442605</v>
       </c>
-      <c r="T31" s="131">
+      <c r="T31" s="122">
         <f t="shared" si="18"/>
         <v>377.12982846464735</v>
       </c>
-      <c r="U31" s="131">
+      <c r="U31" s="122">
         <f t="shared" si="18"/>
         <v>395.98631988787974</v>
       </c>
-      <c r="V31" s="131">
+      <c r="V31" s="122">
         <f t="shared" si="18"/>
         <v>415.78563588227377</v>
       </c>
-      <c r="W31" s="131">
+      <c r="W31" s="122">
         <f t="shared" si="18"/>
         <v>436.57491767638749</v>
       </c>
-      <c r="X31" s="131">
+      <c r="X31" s="122">
         <f t="shared" si="18"/>
         <v>458.40366356020689</v>
       </c>
-      <c r="Y31" s="131">
+      <c r="Y31" s="122">
         <f t="shared" si="18"/>
         <v>481.32384673821724</v>
       </c>
-      <c r="Z31" s="131">
+      <c r="Z31" s="122">
         <f t="shared" si="18"/>
         <v>505.39003907512813</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F32" s="63">
+      <c r="F32" s="62">
         <v>2</v>
       </c>
-      <c r="G32" s="131">
+      <c r="G32" s="122">
         <v>500</v>
       </c>
-      <c r="H32" s="131">
+      <c r="H32" s="122">
         <f>G32*1.05</f>
         <v>525</v>
       </c>
-      <c r="I32" s="131">
+      <c r="I32" s="122">
         <f t="shared" ref="I32:Z32" si="19">H32*1.05</f>
         <v>551.25</v>
       </c>
-      <c r="J32" s="131">
+      <c r="J32" s="122">
         <f t="shared" si="19"/>
         <v>578.8125</v>
       </c>
-      <c r="K32" s="131">
+      <c r="K32" s="122">
         <f t="shared" si="19"/>
         <v>607.75312500000007</v>
       </c>
-      <c r="L32" s="131">
+      <c r="L32" s="122">
         <f t="shared" si="19"/>
         <v>638.14078125000015</v>
       </c>
-      <c r="M32" s="131">
+      <c r="M32" s="122">
         <f t="shared" si="19"/>
         <v>670.04782031250022</v>
       </c>
-      <c r="N32" s="131">
+      <c r="N32" s="122">
         <f t="shared" si="19"/>
         <v>703.55021132812522</v>
       </c>
-      <c r="O32" s="131">
+      <c r="O32" s="122">
         <f t="shared" si="19"/>
         <v>738.72772189453156</v>
       </c>
-      <c r="P32" s="131">
+      <c r="P32" s="122">
         <f t="shared" si="19"/>
         <v>775.66410798925813</v>
       </c>
-      <c r="Q32" s="131">
+      <c r="Q32" s="122">
         <f t="shared" si="19"/>
         <v>814.44731338872111</v>
       </c>
-      <c r="R32" s="131">
+      <c r="R32" s="122">
         <f t="shared" si="19"/>
         <v>855.16967905815716</v>
       </c>
-      <c r="S32" s="131">
+      <c r="S32" s="122">
         <f t="shared" si="19"/>
         <v>897.92816301106507</v>
       </c>
-      <c r="T32" s="131">
+      <c r="T32" s="122">
         <f t="shared" si="19"/>
         <v>942.82457116161834</v>
       </c>
-      <c r="U32" s="131">
+      <c r="U32" s="122">
         <f t="shared" si="19"/>
         <v>989.96579971969925</v>
       </c>
-      <c r="V32" s="131">
+      <c r="V32" s="122">
         <f t="shared" si="19"/>
         <v>1039.4640897056843</v>
       </c>
-      <c r="W32" s="131">
+      <c r="W32" s="122">
         <f t="shared" si="19"/>
         <v>1091.4372941909685</v>
       </c>
-      <c r="X32" s="131">
+      <c r="X32" s="122">
         <f t="shared" si="19"/>
         <v>1146.0091589005169</v>
       </c>
-      <c r="Y32" s="131">
+      <c r="Y32" s="122">
         <f t="shared" si="19"/>
         <v>1203.3096168455429</v>
       </c>
-      <c r="Z32" s="131">
+      <c r="Z32" s="122">
         <f t="shared" si="19"/>
         <v>1263.4750976878202</v>
       </c>
     </row>
     <row r="33" spans="6:26" x14ac:dyDescent="0.45">
-      <c r="F33" s="63">
+      <c r="F33" s="62">
         <v>3</v>
       </c>
-      <c r="G33" s="131">
+      <c r="G33" s="122">
         <v>1200</v>
       </c>
-      <c r="H33" s="131">
+      <c r="H33" s="122">
         <f>G33*1.05</f>
         <v>1260</v>
       </c>
-      <c r="I33" s="131">
+      <c r="I33" s="122">
         <f t="shared" ref="I33:Z33" si="20">H33*1.05</f>
         <v>1323</v>
       </c>
-      <c r="J33" s="131">
+      <c r="J33" s="122">
         <f t="shared" si="20"/>
         <v>1389.15</v>
       </c>
-      <c r="K33" s="131">
+      <c r="K33" s="122">
         <f t="shared" si="20"/>
         <v>1458.6075000000001</v>
       </c>
-      <c r="L33" s="131">
+      <c r="L33" s="122">
         <f t="shared" si="20"/>
         <v>1531.5378750000002</v>
       </c>
-      <c r="M33" s="131">
+      <c r="M33" s="122">
         <f t="shared" si="20"/>
         <v>1608.1147687500004</v>
       </c>
-      <c r="N33" s="131">
+      <c r="N33" s="122">
         <f t="shared" si="20"/>
         <v>1688.5205071875005</v>
       </c>
-      <c r="O33" s="131">
+      <c r="O33" s="122">
         <f t="shared" si="20"/>
         <v>1772.9465325468755</v>
       </c>
-      <c r="P33" s="131">
+      <c r="P33" s="122">
         <f t="shared" si="20"/>
         <v>1861.5938591742192</v>
       </c>
-      <c r="Q33" s="131">
+      <c r="Q33" s="122">
         <f t="shared" si="20"/>
         <v>1954.6735521329304</v>
       </c>
-      <c r="R33" s="131">
+      <c r="R33" s="122">
         <f t="shared" si="20"/>
         <v>2052.4072297395769</v>
       </c>
-      <c r="S33" s="131">
+      <c r="S33" s="122">
         <f t="shared" si="20"/>
         <v>2155.0275912265561</v>
       </c>
-      <c r="T33" s="131">
+      <c r="T33" s="122">
         <f t="shared" si="20"/>
         <v>2262.7789707878842</v>
       </c>
-      <c r="U33" s="131">
+      <c r="U33" s="122">
         <f t="shared" si="20"/>
         <v>2375.9179193272785</v>
       </c>
-      <c r="V33" s="131">
+      <c r="V33" s="122">
         <f t="shared" si="20"/>
         <v>2494.7138152936427</v>
       </c>
-      <c r="W33" s="131">
+      <c r="W33" s="122">
         <f t="shared" si="20"/>
         <v>2619.4495060583249</v>
       </c>
-      <c r="X33" s="131">
+      <c r="X33" s="122">
         <f t="shared" si="20"/>
         <v>2750.4219813612413</v>
       </c>
-      <c r="Y33" s="131">
+      <c r="Y33" s="122">
         <f t="shared" si="20"/>
         <v>2887.9430804293033</v>
       </c>
-      <c r="Z33" s="131">
+      <c r="Z33" s="122">
         <f t="shared" si="20"/>
         <v>3032.3402344507685</v>
       </c>
     </row>
     <row r="34" spans="6:26" x14ac:dyDescent="0.45">
-      <c r="F34" s="63">
+      <c r="F34" s="62">
         <v>4</v>
       </c>
-      <c r="G34" s="131">
+      <c r="G34" s="122">
         <v>3000</v>
       </c>
-      <c r="H34" s="131">
+      <c r="H34" s="122">
         <f>G34*1.05</f>
         <v>3150</v>
       </c>
-      <c r="I34" s="131">
+      <c r="I34" s="122">
         <f t="shared" ref="I34:Z34" si="21">H34*1.05</f>
         <v>3307.5</v>
       </c>
-      <c r="J34" s="131">
+      <c r="J34" s="122">
         <f t="shared" si="21"/>
         <v>3472.875</v>
       </c>
-      <c r="K34" s="131">
+      <c r="K34" s="122">
         <f t="shared" si="21"/>
         <v>3646.5187500000002</v>
       </c>
-      <c r="L34" s="131">
+      <c r="L34" s="122">
         <f t="shared" si="21"/>
         <v>3828.8446875000004</v>
       </c>
-      <c r="M34" s="131">
+      <c r="M34" s="122">
         <f t="shared" si="21"/>
         <v>4020.2869218750006</v>
       </c>
-      <c r="N34" s="131">
+      <c r="N34" s="122">
         <f t="shared" si="21"/>
         <v>4221.3012679687508</v>
       </c>
-      <c r="O34" s="131">
+      <c r="O34" s="122">
         <f t="shared" si="21"/>
         <v>4432.3663313671886</v>
       </c>
-      <c r="P34" s="131">
+      <c r="P34" s="122">
         <f t="shared" si="21"/>
         <v>4653.9846479355483</v>
       </c>
-      <c r="Q34" s="131">
+      <c r="Q34" s="122">
         <f t="shared" si="21"/>
         <v>4886.6838803323262</v>
       </c>
-      <c r="R34" s="131">
+      <c r="R34" s="122">
         <f t="shared" si="21"/>
         <v>5131.0180743489427</v>
       </c>
-      <c r="S34" s="131">
+      <c r="S34" s="122">
         <f t="shared" si="21"/>
         <v>5387.5689780663897</v>
       </c>
-      <c r="T34" s="131">
+      <c r="T34" s="122">
         <f t="shared" si="21"/>
         <v>5656.9474269697093</v>
       </c>
-      <c r="U34" s="131">
+      <c r="U34" s="122">
         <f t="shared" si="21"/>
         <v>5939.7947983181948</v>
       </c>
-      <c r="V34" s="131">
+      <c r="V34" s="122">
         <f t="shared" si="21"/>
         <v>6236.7845382341047</v>
       </c>
-      <c r="W34" s="131">
+      <c r="W34" s="122">
         <f t="shared" si="21"/>
         <v>6548.6237651458105</v>
       </c>
-      <c r="X34" s="131">
+      <c r="X34" s="122">
         <f t="shared" si="21"/>
         <v>6876.0549534031015</v>
       </c>
-      <c r="Y34" s="131">
+      <c r="Y34" s="122">
         <f t="shared" si="21"/>
         <v>7219.857701073257</v>
       </c>
-      <c r="Z34" s="131">
+      <c r="Z34" s="122">
         <f t="shared" si="21"/>
         <v>7580.8505861269205</v>
       </c>
     </row>
     <row r="35" spans="6:26" x14ac:dyDescent="0.45">
-      <c r="F35" s="63">
+      <c r="F35" s="62">
         <v>5</v>
       </c>
-      <c r="G35" s="131">
+      <c r="G35" s="122">
         <v>7500</v>
       </c>
-      <c r="H35" s="131">
+      <c r="H35" s="122">
         <f>G35*1.05</f>
         <v>7875</v>
       </c>
-      <c r="I35" s="131">
+      <c r="I35" s="122">
         <f t="shared" ref="I35:Z38" si="22">H35*1.05</f>
         <v>8268.75</v>
       </c>
-      <c r="J35" s="131">
+      <c r="J35" s="122">
         <f t="shared" si="22"/>
         <v>8682.1875</v>
       </c>
-      <c r="K35" s="131">
+      <c r="K35" s="122">
         <f t="shared" si="22"/>
         <v>9116.296875</v>
       </c>
-      <c r="L35" s="131">
+      <c r="L35" s="122">
         <f t="shared" si="22"/>
         <v>9572.1117187500004</v>
       </c>
-      <c r="M35" s="131">
+      <c r="M35" s="122">
         <f t="shared" si="22"/>
         <v>10050.717304687501</v>
       </c>
-      <c r="N35" s="131">
+      <c r="N35" s="122">
         <f t="shared" si="22"/>
         <v>10553.253169921876</v>
       </c>
-      <c r="O35" s="131">
+      <c r="O35" s="122">
         <f t="shared" si="22"/>
         <v>11080.91582841797</v>
       </c>
-      <c r="P35" s="131">
+      <c r="P35" s="122">
         <f t="shared" si="22"/>
         <v>11634.961619838869</v>
       </c>
-      <c r="Q35" s="131">
+      <c r="Q35" s="122">
         <f t="shared" si="22"/>
         <v>12216.709700830812</v>
       </c>
-      <c r="R35" s="131">
+      <c r="R35" s="122">
         <f t="shared" si="22"/>
         <v>12827.545185872354</v>
       </c>
-      <c r="S35" s="131">
+      <c r="S35" s="122">
         <f t="shared" si="22"/>
         <v>13468.922445165972</v>
       </c>
-      <c r="T35" s="131">
+      <c r="T35" s="122">
         <f t="shared" si="22"/>
         <v>14142.368567424272</v>
       </c>
-      <c r="U35" s="131">
+      <c r="U35" s="122">
         <f t="shared" si="22"/>
         <v>14849.486995795485</v>
       </c>
-      <c r="V35" s="131">
+      <c r="V35" s="122">
         <f t="shared" si="22"/>
         <v>15591.96134558526</v>
       </c>
-      <c r="W35" s="131">
+      <c r="W35" s="122">
         <f t="shared" si="22"/>
         <v>16371.559412864523</v>
       </c>
-      <c r="X35" s="131">
+      <c r="X35" s="122">
         <f t="shared" si="22"/>
         <v>17190.13738350775</v>
       </c>
-      <c r="Y35" s="131">
+      <c r="Y35" s="122">
         <f t="shared" si="22"/>
         <v>18049.644252683138</v>
       </c>
-      <c r="Z35" s="131">
+      <c r="Z35" s="122">
         <f t="shared" si="22"/>
         <v>18952.126465317295</v>
       </c>
     </row>
     <row r="36" spans="6:26" x14ac:dyDescent="0.45">
-      <c r="F36" s="63">
+      <c r="F36" s="62">
         <v>6</v>
       </c>
-      <c r="G36" s="131">
+      <c r="G36" s="122">
         <v>18000</v>
       </c>
-      <c r="H36" s="131">
+      <c r="H36" s="122">
         <f t="shared" ref="H36:W38" si="23">G36*1.05</f>
         <v>18900</v>
       </c>
-      <c r="I36" s="131">
+      <c r="I36" s="122">
         <f t="shared" si="23"/>
         <v>19845</v>
       </c>
-      <c r="J36" s="131">
+      <c r="J36" s="122">
         <f t="shared" si="23"/>
         <v>20837.25</v>
       </c>
-      <c r="K36" s="131">
+      <c r="K36" s="122">
         <f t="shared" si="23"/>
         <v>21879.112499999999</v>
       </c>
-      <c r="L36" s="131">
+      <c r="L36" s="122">
         <f t="shared" si="23"/>
         <v>22973.068125000002</v>
       </c>
-      <c r="M36" s="131">
+      <c r="M36" s="122">
         <f t="shared" si="23"/>
         <v>24121.721531250001</v>
       </c>
-      <c r="N36" s="131">
+      <c r="N36" s="122">
         <f t="shared" si="23"/>
         <v>25327.807607812501</v>
       </c>
-      <c r="O36" s="131">
+      <c r="O36" s="122">
         <f t="shared" si="23"/>
         <v>26594.197988203126</v>
       </c>
-      <c r="P36" s="131">
+      <c r="P36" s="122">
         <f t="shared" si="23"/>
         <v>27923.907887613284</v>
       </c>
-      <c r="Q36" s="131">
+      <c r="Q36" s="122">
         <f t="shared" si="23"/>
         <v>29320.10328199395</v>
       </c>
-      <c r="R36" s="131">
+      <c r="R36" s="122">
         <f t="shared" si="23"/>
         <v>30786.108446093647</v>
       </c>
-      <c r="S36" s="131">
+      <c r="S36" s="122">
         <f t="shared" si="23"/>
         <v>32325.413868398329</v>
       </c>
-      <c r="T36" s="131">
+      <c r="T36" s="122">
         <f t="shared" si="23"/>
         <v>33941.684561818249</v>
       </c>
-      <c r="U36" s="131">
+      <c r="U36" s="122">
         <f t="shared" si="23"/>
         <v>35638.768789909162</v>
       </c>
-      <c r="V36" s="131">
+      <c r="V36" s="122">
         <f t="shared" si="23"/>
         <v>37420.707229404623</v>
       </c>
-      <c r="W36" s="131">
+      <c r="W36" s="122">
         <f t="shared" si="23"/>
         <v>39291.742590874856</v>
       </c>
-      <c r="X36" s="131">
+      <c r="X36" s="122">
         <f t="shared" si="22"/>
         <v>41256.329720418602</v>
       </c>
-      <c r="Y36" s="131">
+      <c r="Y36" s="122">
         <f t="shared" si="22"/>
         <v>43319.146206439531</v>
       </c>
-      <c r="Z36" s="131">
+      <c r="Z36" s="122">
         <f t="shared" si="22"/>
         <v>45485.103516761512</v>
       </c>
     </row>
     <row r="37" spans="6:26" x14ac:dyDescent="0.45">
-      <c r="F37" s="63">
+      <c r="F37" s="62">
         <v>7</v>
       </c>
-      <c r="G37" s="131">
+      <c r="G37" s="122">
         <v>45000</v>
       </c>
-      <c r="H37" s="131">
+      <c r="H37" s="122">
         <f t="shared" si="23"/>
         <v>47250</v>
       </c>
-      <c r="I37" s="131">
+      <c r="I37" s="122">
         <f t="shared" si="22"/>
         <v>49612.5</v>
       </c>
-      <c r="J37" s="131">
+      <c r="J37" s="122">
         <f t="shared" si="22"/>
         <v>52093.125</v>
       </c>
-      <c r="K37" s="131">
+      <c r="K37" s="122">
         <f t="shared" si="22"/>
         <v>54697.78125</v>
       </c>
-      <c r="L37" s="131">
+      <c r="L37" s="122">
         <f t="shared" si="22"/>
         <v>57432.670312500006</v>
       </c>
-      <c r="M37" s="131">
+      <c r="M37" s="122">
         <f t="shared" si="22"/>
         <v>60304.303828125012</v>
       </c>
-      <c r="N37" s="131">
+      <c r="N37" s="122">
         <f t="shared" si="22"/>
         <v>63319.519019531268</v>
       </c>
-      <c r="O37" s="131">
+      <c r="O37" s="122">
         <f t="shared" si="22"/>
         <v>66485.494970507832</v>
       </c>
-      <c r="P37" s="131">
+      <c r="P37" s="122">
         <f t="shared" si="22"/>
         <v>69809.769719033226</v>
       </c>
-      <c r="Q37" s="131">
+      <c r="Q37" s="122">
         <f t="shared" si="22"/>
         <v>73300.258204984886</v>
       </c>
-      <c r="R37" s="131">
+      <c r="R37" s="122">
         <f t="shared" si="22"/>
         <v>76965.271115234136</v>
       </c>
-      <c r="S37" s="131">
+      <c r="S37" s="122">
         <f t="shared" si="22"/>
         <v>80813.534670995839</v>
       </c>
-      <c r="T37" s="131">
+      <c r="T37" s="122">
         <f t="shared" si="22"/>
         <v>84854.21140454564</v>
       </c>
-      <c r="U37" s="131">
+      <c r="U37" s="122">
         <f t="shared" si="22"/>
         <v>89096.921974772922</v>
       </c>
-      <c r="V37" s="131">
+      <c r="V37" s="122">
         <f t="shared" si="22"/>
         <v>93551.768073511572</v>
       </c>
-      <c r="W37" s="131">
+      <c r="W37" s="122">
         <f t="shared" si="22"/>
         <v>98229.356477187161</v>
       </c>
-      <c r="X37" s="131">
+      <c r="X37" s="122">
         <f t="shared" si="22"/>
         <v>103140.82430104652</v>
       </c>
-      <c r="Y37" s="131">
+      <c r="Y37" s="122">
         <f t="shared" si="22"/>
         <v>108297.86551609886</v>
       </c>
-      <c r="Z37" s="131">
+      <c r="Z37" s="122">
         <f t="shared" si="22"/>
         <v>113712.75879190381</v>
       </c>
     </row>
     <row r="38" spans="6:26" x14ac:dyDescent="0.45">
-      <c r="F38" s="63">
+      <c r="F38" s="62">
         <v>8</v>
       </c>
-      <c r="G38" s="131">
+      <c r="G38" s="122">
         <v>100000</v>
       </c>
-      <c r="H38" s="131">
+      <c r="H38" s="122">
         <f t="shared" si="23"/>
         <v>105000</v>
       </c>
-      <c r="I38" s="131">
+      <c r="I38" s="122">
         <f t="shared" si="22"/>
         <v>110250</v>
       </c>
-      <c r="J38" s="131">
+      <c r="J38" s="122">
         <f t="shared" si="22"/>
         <v>115762.5</v>
       </c>
-      <c r="K38" s="131">
+      <c r="K38" s="122">
         <f t="shared" si="22"/>
         <v>121550.625</v>
       </c>
-      <c r="L38" s="131">
+      <c r="L38" s="122">
         <f t="shared" si="22"/>
         <v>127628.15625</v>
       </c>
-      <c r="M38" s="131">
+      <c r="M38" s="122">
         <f t="shared" si="22"/>
         <v>134009.56406249999</v>
       </c>
-      <c r="N38" s="131">
+      <c r="N38" s="122">
         <f t="shared" si="22"/>
         <v>140710.042265625</v>
       </c>
-      <c r="O38" s="131">
+      <c r="O38" s="122">
         <f t="shared" si="22"/>
         <v>147745.54437890626</v>
       </c>
-      <c r="P38" s="131">
+      <c r="P38" s="122">
         <f t="shared" si="22"/>
         <v>155132.82159785158</v>
       </c>
-      <c r="Q38" s="131">
+      <c r="Q38" s="122">
         <f t="shared" si="22"/>
         <v>162889.46267774416</v>
       </c>
-      <c r="R38" s="131">
+      <c r="R38" s="122">
         <f t="shared" si="22"/>
         <v>171033.93581163138</v>
       </c>
-      <c r="S38" s="131">
+      <c r="S38" s="122">
         <f t="shared" si="22"/>
         <v>179585.63260221295</v>
       </c>
-      <c r="T38" s="131">
+      <c r="T38" s="122">
         <f t="shared" si="22"/>
         <v>188564.91423232362</v>
       </c>
-      <c r="U38" s="131">
+      <c r="U38" s="122">
         <f t="shared" si="22"/>
         <v>197993.1599439398</v>
       </c>
-      <c r="V38" s="131">
+      <c r="V38" s="122">
         <f t="shared" si="22"/>
         <v>207892.8179411368</v>
       </c>
-      <c r="W38" s="131">
+      <c r="W38" s="122">
         <f t="shared" si="22"/>
         <v>218287.45883819365</v>
       </c>
-      <c r="X38" s="131">
+      <c r="X38" s="122">
         <f t="shared" si="22"/>
         <v>229201.83178010333</v>
       </c>
-      <c r="Y38" s="131">
+      <c r="Y38" s="122">
         <f t="shared" si="22"/>
         <v>240661.9233691085</v>
       </c>
-      <c r="Z38" s="131">
+      <c r="Z38" s="122">
         <f t="shared" si="22"/>
         <v>252695.01953756393</v>
+      </c>
+    </row>
+    <row r="42" spans="6:26" x14ac:dyDescent="0.45">
+      <c r="G42" s="57">
+        <v>1</v>
+      </c>
+      <c r="H42" s="57">
+        <v>2</v>
+      </c>
+      <c r="I42" s="57">
+        <v>3</v>
+      </c>
+      <c r="J42" s="57">
+        <v>4</v>
+      </c>
+      <c r="K42" s="57">
+        <v>5</v>
+      </c>
+      <c r="L42" s="57">
+        <v>6</v>
+      </c>
+      <c r="M42" s="57">
+        <v>7</v>
+      </c>
+      <c r="N42" s="57">
+        <v>8</v>
+      </c>
+      <c r="O42" s="57">
+        <v>9</v>
+      </c>
+      <c r="P42" s="57">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="57">
+        <v>11</v>
+      </c>
+      <c r="R42" s="57">
+        <v>12</v>
+      </c>
+      <c r="S42" s="57">
+        <v>13</v>
+      </c>
+      <c r="T42" s="57">
+        <v>14</v>
+      </c>
+      <c r="U42" s="57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="6:26" x14ac:dyDescent="0.45">
+      <c r="G43" s="57">
+        <v>30</v>
+      </c>
+      <c r="H43" s="57">
+        <v>30</v>
+      </c>
+      <c r="I43" s="57">
+        <v>30</v>
+      </c>
+      <c r="J43" s="57">
+        <v>30</v>
+      </c>
+      <c r="K43" s="57">
+        <v>30</v>
+      </c>
+      <c r="L43" s="57">
+        <v>30</v>
+      </c>
+      <c r="M43" s="57">
+        <v>30</v>
+      </c>
+      <c r="N43" s="57">
+        <v>30</v>
+      </c>
+      <c r="O43" s="57">
+        <v>30</v>
+      </c>
+      <c r="P43" s="57">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="57">
+        <v>30</v>
+      </c>
+      <c r="R43" s="57">
+        <v>30</v>
+      </c>
+      <c r="S43" s="57">
+        <v>30</v>
+      </c>
+      <c r="T43" s="57">
+        <v>30</v>
+      </c>
+      <c r="U43" s="57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="6:26" x14ac:dyDescent="0.45">
+      <c r="G44" s="57">
+        <v>10</v>
+      </c>
+      <c r="H44" s="57">
+        <f>$G44*H42</f>
+        <v>20</v>
+      </c>
+      <c r="I44" s="57">
+        <f t="shared" ref="I44:U44" si="24">$G44*I42</f>
+        <v>30</v>
+      </c>
+      <c r="J44" s="57">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="K44" s="57">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="L44" s="57">
+        <f t="shared" si="24"/>
+        <v>60</v>
+      </c>
+      <c r="M44" s="57">
+        <f t="shared" si="24"/>
+        <v>70</v>
+      </c>
+      <c r="N44" s="57">
+        <f t="shared" si="24"/>
+        <v>80</v>
+      </c>
+      <c r="O44" s="57">
+        <f t="shared" si="24"/>
+        <v>90</v>
+      </c>
+      <c r="P44" s="57">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+      <c r="Q44" s="57">
+        <f t="shared" si="24"/>
+        <v>110</v>
+      </c>
+      <c r="R44" s="57">
+        <f t="shared" si="24"/>
+        <v>120</v>
+      </c>
+      <c r="S44" s="57">
+        <f t="shared" si="24"/>
+        <v>130</v>
+      </c>
+      <c r="T44" s="57">
+        <f t="shared" si="24"/>
+        <v>140</v>
+      </c>
+      <c r="U44" s="57">
+        <f t="shared" si="24"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="6:26" x14ac:dyDescent="0.45">
+      <c r="G45" s="131">
+        <f>SUM(G43:G44)</f>
+        <v>40</v>
+      </c>
+      <c r="H45" s="131">
+        <f t="shared" ref="H45:U45" si="25">SUM(H43:H44)</f>
+        <v>50</v>
+      </c>
+      <c r="I45" s="131">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="J45" s="131">
+        <f t="shared" si="25"/>
+        <v>70</v>
+      </c>
+      <c r="K45" s="131">
+        <f t="shared" si="25"/>
+        <v>80</v>
+      </c>
+      <c r="L45" s="131">
+        <f t="shared" si="25"/>
+        <v>90</v>
+      </c>
+      <c r="M45" s="131">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="N45" s="131">
+        <f t="shared" si="25"/>
+        <v>110</v>
+      </c>
+      <c r="O45" s="131">
+        <f t="shared" si="25"/>
+        <v>120</v>
+      </c>
+      <c r="P45" s="131">
+        <f t="shared" si="25"/>
+        <v>130</v>
+      </c>
+      <c r="Q45" s="131">
+        <f t="shared" si="25"/>
+        <v>140</v>
+      </c>
+      <c r="R45" s="131">
+        <f t="shared" si="25"/>
+        <v>150</v>
+      </c>
+      <c r="S45" s="131">
+        <f t="shared" si="25"/>
+        <v>160</v>
+      </c>
+      <c r="T45" s="131">
+        <f t="shared" si="25"/>
+        <v>170</v>
+      </c>
+      <c r="U45" s="131">
+        <f t="shared" si="25"/>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -13133,7 +13433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:AU56"/>
   <sheetViews>
-    <sheetView topLeftCell="B204" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B228" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y255" sqref="Y255"/>
     </sheetView>
   </sheetViews>

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BDEFC3-805A-41B7-A1BF-5B7EB67A4379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21BB214-71CE-4A71-A3F6-4F2C5101391A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1542,6 +1542,12 @@
     <xf numFmtId="185" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="4" fontId="21" fillId="7" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1565,12 +1571,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2950,7 +2950,7 @@
   <dimension ref="B1:AD99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2992,19 +2992,19 @@
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="126" t="s">
+      <c r="K2" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126" t="s">
+      <c r="L2" s="128"/>
+      <c r="M2" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126" t="s">
+      <c r="N2" s="128"/>
+      <c r="O2" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
       <c r="R2" s="40"/>
       <c r="S2" s="40"/>
       <c r="T2" s="40"/>
@@ -3027,22 +3027,22 @@
       <c r="H3" s="27"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
-      <c r="K3" s="123">
+      <c r="K3" s="125">
         <f>SUM('Bảng Input L30'!C13:C37)</f>
         <v>44.096149164770779</v>
       </c>
-      <c r="L3" s="123"/>
-      <c r="M3" s="124">
+      <c r="L3" s="125"/>
+      <c r="M3" s="126">
         <f>K3*91</f>
         <v>4012.749573994141</v>
       </c>
-      <c r="N3" s="124"/>
-      <c r="O3" s="125">
+      <c r="N3" s="126"/>
+      <c r="O3" s="127">
         <f>M3+'Bảng Input L30'!D35</f>
         <v>11099.505102274201</v>
       </c>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
       <c r="R3" s="110">
         <f>O3*2</f>
         <v>22199.010204548402</v>
@@ -3105,7 +3105,7 @@
         <v>53</v>
       </c>
       <c r="I5" s="109">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J5" s="2">
         <v>1.6180000000000001</v>
@@ -3140,7 +3140,7 @@
         <v>71</v>
       </c>
       <c r="I6" s="109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="2">
         <v>2.6179999999999999</v>
@@ -3164,79 +3164,79 @@
       </c>
       <c r="K7" s="38">
         <f>J7-I$5</f>
-        <v>2198</v>
+        <v>2198.5</v>
       </c>
       <c r="L7" s="38">
         <f t="shared" ref="L7:Y7" si="0">K7-$I$5</f>
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="M7" s="38">
         <f t="shared" si="0"/>
-        <v>2194</v>
+        <v>2195.5</v>
       </c>
       <c r="N7" s="38">
         <f t="shared" si="0"/>
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="O7" s="38">
         <f t="shared" si="0"/>
-        <v>2190</v>
+        <v>2192.5</v>
       </c>
       <c r="P7" s="38">
         <f t="shared" si="0"/>
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="Q7" s="38">
         <f t="shared" si="0"/>
-        <v>2186</v>
+        <v>2189.5</v>
       </c>
       <c r="R7" s="38">
         <f t="shared" si="0"/>
-        <v>2184</v>
+        <v>2188</v>
       </c>
       <c r="S7" s="38">
         <f t="shared" si="0"/>
-        <v>2182</v>
+        <v>2186.5</v>
       </c>
       <c r="T7" s="38">
         <f t="shared" si="0"/>
-        <v>2180</v>
+        <v>2185</v>
       </c>
       <c r="U7" s="38">
         <f t="shared" si="0"/>
-        <v>2178</v>
+        <v>2183.5</v>
       </c>
       <c r="V7" s="38">
         <f t="shared" si="0"/>
-        <v>2176</v>
+        <v>2182</v>
       </c>
       <c r="W7" s="38">
         <f t="shared" si="0"/>
-        <v>2174</v>
+        <v>2180.5</v>
       </c>
       <c r="X7" s="38">
         <f t="shared" si="0"/>
-        <v>2172</v>
+        <v>2179</v>
       </c>
       <c r="Y7" s="38">
         <f t="shared" si="0"/>
-        <v>2170</v>
+        <v>2177.5</v>
       </c>
       <c r="Z7" s="38">
         <f t="shared" ref="Z7" si="1">Y7-$I$5</f>
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="AA7" s="38">
         <f t="shared" ref="AA7" si="2">Z7-$I$5</f>
-        <v>2166</v>
+        <v>2174.5</v>
       </c>
       <c r="AB7" s="38">
         <f t="shared" ref="AB7" si="3">AA7-$I$5</f>
-        <v>2164</v>
+        <v>2173</v>
       </c>
       <c r="AC7" s="38">
         <f t="shared" ref="AC7" si="4">AB7-$I$5</f>
-        <v>2162</v>
+        <v>2171.5</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -3255,79 +3255,79 @@
       </c>
       <c r="K8" s="38">
         <f t="shared" ref="K8:Y8" si="5">$J$7-K7</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L8" s="38">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" s="38">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N8" s="38">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O8" s="38">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="P8" s="38">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q8" s="38">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="R8" s="38">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S8" s="38">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="T8" s="38">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U8" s="38">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="V8" s="38">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="W8" s="38">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="X8" s="38">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y8" s="38">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>22.5</v>
       </c>
       <c r="Z8" s="38">
         <f t="shared" ref="Z8:AC8" si="6">$J$7-Z7</f>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AA8" s="38">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>25.5</v>
       </c>
       <c r="AB8" s="38">
         <f t="shared" si="6"/>
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AC8" s="38">
         <f t="shared" si="6"/>
-        <v>38</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="9" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -3494,11 +3494,11 @@
       </c>
       <c r="J11" s="31">
         <f>I11*I6*100</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11" s="31">
         <f>I11*100*(I6-I5)</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L11" s="31">
         <f t="shared" ref="L11:AC11" si="7">$I$11*100*($I$6-$I$5*K10)</f>
@@ -3506,71 +3506,71 @@
       </c>
       <c r="M11" s="31">
         <f t="shared" si="7"/>
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="N11" s="31">
         <f>$I$11*100*($I$6-$I$5*M10)</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="O11" s="31">
         <f t="shared" si="7"/>
-        <v>-6</v>
+        <v>-4.5</v>
       </c>
       <c r="P11" s="31">
         <f t="shared" si="7"/>
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="Q11" s="31">
         <f t="shared" si="7"/>
-        <v>-10</v>
+        <v>-7.5</v>
       </c>
       <c r="R11" s="31">
         <f t="shared" si="7"/>
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="S11" s="31">
         <f t="shared" si="7"/>
-        <v>-14</v>
+        <v>-10.5</v>
       </c>
       <c r="T11" s="31">
         <f t="shared" si="7"/>
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="U11" s="31">
         <f t="shared" si="7"/>
-        <v>-18</v>
+        <v>-13.5</v>
       </c>
       <c r="V11" s="31">
         <f t="shared" si="7"/>
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="W11" s="31">
         <f t="shared" si="7"/>
-        <v>-22</v>
+        <v>-16.5</v>
       </c>
       <c r="X11" s="31">
         <f t="shared" si="7"/>
-        <v>-24</v>
+        <v>-18</v>
       </c>
       <c r="Y11" s="31">
         <f t="shared" si="7"/>
-        <v>-26</v>
+        <v>-19.5</v>
       </c>
       <c r="Z11" s="31">
         <f t="shared" si="7"/>
-        <v>-28</v>
+        <v>-21</v>
       </c>
       <c r="AA11" s="31">
         <f t="shared" si="7"/>
-        <v>-30</v>
+        <v>-22.5</v>
       </c>
       <c r="AB11" s="31">
         <f t="shared" si="7"/>
-        <v>-32</v>
+        <v>-24</v>
       </c>
       <c r="AC11" s="31">
         <f t="shared" si="7"/>
-        <v>-34</v>
+        <v>-25.5</v>
       </c>
     </row>
     <row r="12" spans="2:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3596,11 +3596,11 @@
       <c r="J12" s="3"/>
       <c r="K12" s="31">
         <f>I12*100*I6</f>
-        <v>6.4719999999999995</v>
+        <v>4.8539999999999992</v>
       </c>
       <c r="L12" s="31">
         <f>I12*100*(I6-I5)</f>
-        <v>3.2359999999999998</v>
+        <v>2.4269999999999996</v>
       </c>
       <c r="M12" s="31">
         <f t="shared" ref="M12:AC12" si="9">$I$12*100*($I$6-$I$5*K10)</f>
@@ -3608,67 +3608,67 @@
       </c>
       <c r="N12" s="31">
         <f t="shared" si="9"/>
-        <v>-3.2359999999999998</v>
+        <v>-2.4269999999999996</v>
       </c>
       <c r="O12" s="31">
         <f t="shared" si="9"/>
-        <v>-6.4719999999999995</v>
+        <v>-4.8539999999999992</v>
       </c>
       <c r="P12" s="31">
         <f t="shared" si="9"/>
-        <v>-9.7079999999999984</v>
+        <v>-7.2809999999999997</v>
       </c>
       <c r="Q12" s="31">
         <f t="shared" si="9"/>
-        <v>-12.943999999999999</v>
+        <v>-9.7079999999999984</v>
       </c>
       <c r="R12" s="31">
         <f t="shared" si="9"/>
-        <v>-16.18</v>
+        <v>-12.135</v>
       </c>
       <c r="S12" s="31">
         <f t="shared" si="9"/>
-        <v>-19.415999999999997</v>
+        <v>-14.561999999999999</v>
       </c>
       <c r="T12" s="31">
         <f t="shared" si="9"/>
-        <v>-22.651999999999997</v>
+        <v>-16.988999999999997</v>
       </c>
       <c r="U12" s="31">
         <f t="shared" si="9"/>
-        <v>-25.887999999999998</v>
+        <v>-19.415999999999997</v>
       </c>
       <c r="V12" s="31">
         <f t="shared" si="9"/>
-        <v>-29.123999999999999</v>
+        <v>-21.843</v>
       </c>
       <c r="W12" s="31">
         <f t="shared" si="9"/>
-        <v>-32.36</v>
+        <v>-24.27</v>
       </c>
       <c r="X12" s="31">
         <f t="shared" si="9"/>
-        <v>-35.595999999999997</v>
+        <v>-26.696999999999999</v>
       </c>
       <c r="Y12" s="31">
         <f t="shared" si="9"/>
-        <v>-38.831999999999994</v>
+        <v>-29.123999999999999</v>
       </c>
       <c r="Z12" s="31">
         <f t="shared" si="9"/>
-        <v>-42.067999999999998</v>
+        <v>-31.550999999999998</v>
       </c>
       <c r="AA12" s="31">
         <f t="shared" si="9"/>
-        <v>-45.303999999999995</v>
+        <v>-33.977999999999994</v>
       </c>
       <c r="AB12" s="31">
         <f t="shared" si="9"/>
-        <v>-48.54</v>
+        <v>-36.404999999999994</v>
       </c>
       <c r="AC12" s="31">
         <f t="shared" si="9"/>
-        <v>-51.775999999999996</v>
+        <v>-38.831999999999994</v>
       </c>
     </row>
     <row r="13" spans="2:29" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
@@ -3699,11 +3699,11 @@
       <c r="K13" s="3"/>
       <c r="L13" s="31">
         <f>I13*100*I6</f>
-        <v>10.471696000000001</v>
+        <v>7.8537720000000011</v>
       </c>
       <c r="M13" s="31">
         <f>I13*100*(I6-I5)</f>
-        <v>5.2358480000000007</v>
+        <v>3.9268860000000005</v>
       </c>
       <c r="N13" s="31">
         <f t="shared" ref="N13:AC13" si="10">$I$13*100*($I$6-$I$5*K10)</f>
@@ -3711,63 +3711,63 @@
       </c>
       <c r="O13" s="31">
         <f t="shared" si="10"/>
-        <v>-5.2358480000000007</v>
+        <v>-3.9268860000000005</v>
       </c>
       <c r="P13" s="31">
         <f t="shared" si="10"/>
-        <v>-10.471696000000001</v>
+        <v>-7.8537720000000011</v>
       </c>
       <c r="Q13" s="31">
         <f t="shared" si="10"/>
-        <v>-15.707544000000002</v>
+        <v>-11.780658000000003</v>
       </c>
       <c r="R13" s="31">
         <f t="shared" si="10"/>
-        <v>-20.943392000000003</v>
+        <v>-15.707544000000002</v>
       </c>
       <c r="S13" s="31">
         <f t="shared" si="10"/>
-        <v>-26.179240000000004</v>
+        <v>-19.634430000000002</v>
       </c>
       <c r="T13" s="31">
         <f t="shared" si="10"/>
-        <v>-31.415088000000004</v>
+        <v>-23.561316000000005</v>
       </c>
       <c r="U13" s="31">
         <f t="shared" si="10"/>
-        <v>-36.650936000000002</v>
+        <v>-27.488202000000005</v>
       </c>
       <c r="V13" s="31">
         <f t="shared" si="10"/>
-        <v>-41.886784000000006</v>
+        <v>-31.415088000000004</v>
       </c>
       <c r="W13" s="31">
         <f t="shared" si="10"/>
-        <v>-47.12263200000001</v>
+        <v>-35.341974000000008</v>
       </c>
       <c r="X13" s="31">
         <f t="shared" si="10"/>
-        <v>-52.358480000000007</v>
+        <v>-39.268860000000004</v>
       </c>
       <c r="Y13" s="31">
         <f t="shared" si="10"/>
-        <v>-57.594328000000004</v>
+        <v>-43.195746000000007</v>
       </c>
       <c r="Z13" s="31">
         <f t="shared" si="10"/>
-        <v>-62.830176000000009</v>
+        <v>-47.12263200000001</v>
       </c>
       <c r="AA13" s="31">
         <f t="shared" si="10"/>
-        <v>-68.066024000000013</v>
+        <v>-51.049518000000006</v>
       </c>
       <c r="AB13" s="31">
         <f t="shared" si="10"/>
-        <v>-73.301872000000003</v>
+        <v>-54.976404000000009</v>
       </c>
       <c r="AC13" s="31">
         <f t="shared" si="10"/>
-        <v>-78.537720000000007</v>
+        <v>-58.903290000000005</v>
       </c>
     </row>
     <row r="14" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -3799,11 +3799,11 @@
       <c r="L14" s="3"/>
       <c r="M14" s="31">
         <f>I14*100*I6</f>
-        <v>16.943204128000001</v>
+        <v>12.707403096</v>
       </c>
       <c r="N14" s="31">
         <f>I14*100*(I6-I5)</f>
-        <v>8.4716020640000007</v>
+        <v>6.3537015480000001</v>
       </c>
       <c r="O14" s="31">
         <f t="shared" ref="O14:AC14" si="14">$I$14*100*($I$6-$I$5*K10)</f>
@@ -3811,59 +3811,59 @@
       </c>
       <c r="P14" s="31">
         <f t="shared" si="14"/>
-        <v>-8.4716020640000007</v>
+        <v>-6.3537015480000001</v>
       </c>
       <c r="Q14" s="31">
         <f t="shared" si="14"/>
-        <v>-16.943204128000001</v>
+        <v>-12.707403096</v>
       </c>
       <c r="R14" s="31">
         <f t="shared" si="14"/>
-        <v>-25.414806192</v>
+        <v>-19.061104644</v>
       </c>
       <c r="S14" s="31">
         <f t="shared" si="14"/>
-        <v>-33.886408256000003</v>
+        <v>-25.414806192</v>
       </c>
       <c r="T14" s="31">
         <f t="shared" si="14"/>
-        <v>-42.358010320000005</v>
+        <v>-31.768507740000004</v>
       </c>
       <c r="U14" s="31">
         <f t="shared" si="14"/>
-        <v>-50.829612384000001</v>
+        <v>-38.122209288000001</v>
       </c>
       <c r="V14" s="31">
         <f t="shared" si="14"/>
-        <v>-59.301214448000003</v>
+        <v>-44.475910836000004</v>
       </c>
       <c r="W14" s="31">
         <f t="shared" si="14"/>
-        <v>-67.772816512000006</v>
+        <v>-50.829612384000001</v>
       </c>
       <c r="X14" s="31">
         <f t="shared" si="14"/>
-        <v>-76.244418576000001</v>
+        <v>-57.183313932000004</v>
       </c>
       <c r="Y14" s="31">
         <f t="shared" si="14"/>
-        <v>-84.716020640000011</v>
+        <v>-63.537015480000008</v>
       </c>
       <c r="Z14" s="31">
         <f t="shared" si="14"/>
-        <v>-93.187622704000006</v>
+        <v>-69.890717028000012</v>
       </c>
       <c r="AA14" s="31">
         <f t="shared" si="14"/>
-        <v>-101.659224768</v>
+        <v>-76.244418576000001</v>
       </c>
       <c r="AB14" s="31">
         <f t="shared" si="14"/>
-        <v>-110.13082683200001</v>
+        <v>-82.598120124000005</v>
       </c>
       <c r="AC14" s="31">
         <f t="shared" si="14"/>
-        <v>-118.60242889600001</v>
+        <v>-88.951821672000008</v>
       </c>
     </row>
     <row r="15" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -3896,11 +3896,11 @@
       <c r="M15" s="3"/>
       <c r="N15" s="31">
         <f>I15*I6*100</f>
-        <v>27.414104279104006</v>
+        <v>20.560578209328007</v>
       </c>
       <c r="O15" s="31">
         <f>I15*100*(I6-I5)</f>
-        <v>13.707052139552003</v>
+        <v>10.280289104664002</v>
       </c>
       <c r="P15" s="31">
         <f t="shared" ref="P15:AC15" si="15">$I$15*100*($I$6-$I$5*K10)</f>
@@ -3908,55 +3908,55 @@
       </c>
       <c r="Q15" s="31">
         <f t="shared" si="15"/>
-        <v>-13.707052139552003</v>
+        <v>-10.280289104664002</v>
       </c>
       <c r="R15" s="31">
         <f t="shared" si="15"/>
-        <v>-27.414104279104006</v>
+        <v>-20.560578209328003</v>
       </c>
       <c r="S15" s="31">
         <f t="shared" si="15"/>
-        <v>-41.121156418656007</v>
+        <v>-30.840867313992007</v>
       </c>
       <c r="T15" s="31">
         <f t="shared" si="15"/>
-        <v>-54.828208558208011</v>
+        <v>-41.121156418656007</v>
       </c>
       <c r="U15" s="31">
         <f t="shared" si="15"/>
-        <v>-68.535260697760009</v>
+        <v>-51.401445523320014</v>
       </c>
       <c r="V15" s="31">
         <f t="shared" si="15"/>
-        <v>-82.242312837312014</v>
+        <v>-61.681734627984014</v>
       </c>
       <c r="W15" s="31">
         <f t="shared" si="15"/>
-        <v>-95.949364976864018</v>
+        <v>-71.962023732648021</v>
       </c>
       <c r="X15" s="31">
         <f t="shared" si="15"/>
-        <v>-109.65641711641602</v>
+        <v>-82.242312837312014</v>
       </c>
       <c r="Y15" s="31">
         <f t="shared" si="15"/>
-        <v>-123.36346925596803</v>
+        <v>-92.522601941976021</v>
       </c>
       <c r="Z15" s="31">
         <f t="shared" si="15"/>
-        <v>-137.07052139552002</v>
+        <v>-102.80289104664003</v>
       </c>
       <c r="AA15" s="31">
         <f t="shared" si="15"/>
-        <v>-150.77757353507204</v>
+        <v>-113.08318015130402</v>
       </c>
       <c r="AB15" s="31">
         <f t="shared" si="15"/>
-        <v>-164.48462567462403</v>
+        <v>-123.36346925596803</v>
       </c>
       <c r="AC15" s="31">
         <f t="shared" si="15"/>
-        <v>-178.19167781417605</v>
+        <v>-133.64375836063203</v>
       </c>
     </row>
     <row r="16" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -3990,11 +3990,11 @@
       <c r="N16" s="3"/>
       <c r="O16" s="31">
         <f>I16*I6*100</f>
-        <v>44.356020723590284</v>
+        <v>33.267015542692711</v>
       </c>
       <c r="P16" s="31">
         <f>I16*100*(I6-I5)</f>
-        <v>22.178010361795142</v>
+        <v>16.633507771346355</v>
       </c>
       <c r="Q16" s="31">
         <f t="shared" ref="Q16:Y16" si="16">$I$16*100*($I$6-$I$5*K10)</f>
@@ -4002,51 +4002,51 @@
       </c>
       <c r="R16" s="31">
         <f t="shared" si="16"/>
-        <v>-22.178010361795142</v>
+        <v>-16.633507771346355</v>
       </c>
       <c r="S16" s="31">
         <f t="shared" si="16"/>
-        <v>-44.356020723590284</v>
+        <v>-33.267015542692711</v>
       </c>
       <c r="T16" s="31">
         <f t="shared" si="16"/>
-        <v>-66.534031085385422</v>
+        <v>-49.90052331403907</v>
       </c>
       <c r="U16" s="31">
         <f t="shared" si="16"/>
-        <v>-88.712041447180567</v>
+        <v>-66.534031085385422</v>
       </c>
       <c r="V16" s="31">
         <f t="shared" si="16"/>
-        <v>-110.89005180897571</v>
+        <v>-83.167538856731781</v>
       </c>
       <c r="W16" s="31">
         <f t="shared" si="16"/>
-        <v>-133.06806217077084</v>
+        <v>-99.80104662807814</v>
       </c>
       <c r="X16" s="31">
         <f t="shared" si="16"/>
-        <v>-155.24607253256599</v>
+        <v>-116.4345543994245</v>
       </c>
       <c r="Y16" s="31">
         <f t="shared" si="16"/>
-        <v>-177.42408289436113</v>
+        <v>-133.06806217077084</v>
       </c>
       <c r="Z16" s="31">
         <f t="shared" ref="Z16" si="17">$I$16*100*($I$6-$I$5*T10)</f>
-        <v>-199.60209325615628</v>
+        <v>-149.7015699421172</v>
       </c>
       <c r="AA16" s="31">
         <f t="shared" ref="AA16" si="18">$I$16*100*($I$6-$I$5*U10)</f>
-        <v>-221.78010361795143</v>
+        <v>-166.33507771346356</v>
       </c>
       <c r="AB16" s="31">
         <f t="shared" ref="AB16" si="19">$I$16*100*($I$6-$I$5*V10)</f>
-        <v>-243.95811397974657</v>
+        <v>-182.96858548480992</v>
       </c>
       <c r="AC16" s="31">
         <f t="shared" ref="AC16" si="20">$I$16*100*($I$6-$I$5*W10)</f>
-        <v>-266.13612434154169</v>
+        <v>-199.60209325615628</v>
       </c>
     </row>
     <row r="17" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4081,11 +4081,11 @@
       <c r="O17" s="3"/>
       <c r="P17" s="31">
         <f>I6*I17*100</f>
-        <v>71.768041530769082</v>
+        <v>53.826031148076815</v>
       </c>
       <c r="Q17" s="31">
         <f>I17*100*(I6-I5)</f>
-        <v>35.884020765384541</v>
+        <v>26.913015574038404</v>
       </c>
       <c r="R17" s="31">
         <f t="shared" ref="R17:Y17" si="21">$I$17*100*($I$6-$I$5*K10)</f>
@@ -4093,47 +4093,47 @@
       </c>
       <c r="S17" s="31">
         <f t="shared" si="21"/>
-        <v>-35.884020765384541</v>
+        <v>-26.913015574038404</v>
       </c>
       <c r="T17" s="31">
         <f t="shared" si="21"/>
-        <v>-71.768041530769082</v>
+        <v>-53.826031148076808</v>
       </c>
       <c r="U17" s="31">
         <f t="shared" si="21"/>
-        <v>-107.65206229615362</v>
+        <v>-80.739046722115219</v>
       </c>
       <c r="V17" s="31">
         <f t="shared" si="21"/>
-        <v>-143.53608306153816</v>
+        <v>-107.65206229615362</v>
       </c>
       <c r="W17" s="31">
         <f t="shared" si="21"/>
-        <v>-179.42010382692271</v>
+        <v>-134.56507787019203</v>
       </c>
       <c r="X17" s="31">
         <f t="shared" si="21"/>
-        <v>-215.30412459230723</v>
+        <v>-161.47809344423044</v>
       </c>
       <c r="Y17" s="31">
         <f t="shared" si="21"/>
-        <v>-251.18814535769178</v>
+        <v>-188.39110901826885</v>
       </c>
       <c r="Z17" s="31">
         <f t="shared" ref="Z17" si="22">$I$17*100*($I$6-$I$5*S10)</f>
-        <v>-287.07216612307633</v>
+        <v>-215.30412459230723</v>
       </c>
       <c r="AA17" s="31">
         <f t="shared" ref="AA17" si="23">$I$17*100*($I$6-$I$5*T10)</f>
-        <v>-322.95618688846088</v>
+        <v>-242.21714016634564</v>
       </c>
       <c r="AB17" s="31">
         <f t="shared" ref="AB17" si="24">$I$17*100*($I$6-$I$5*U10)</f>
-        <v>-358.84020765384543</v>
+        <v>-269.13015574038405</v>
       </c>
       <c r="AC17" s="31">
         <f t="shared" ref="AC17" si="25">$I$17*100*($I$6-$I$5*V10)</f>
-        <v>-394.72422841922997</v>
+        <v>-296.04317131442247</v>
       </c>
     </row>
     <row r="18" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4169,11 +4169,11 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="31">
         <f>I6*I18*100</f>
-        <v>116.12069119678439</v>
+        <v>87.090518397588284</v>
       </c>
       <c r="R18" s="31">
         <f>I18*100*(I6-I5)</f>
-        <v>58.060345598392196</v>
+        <v>43.545259198794149</v>
       </c>
       <c r="S18" s="31">
         <f t="shared" ref="S18:Y18" si="26">$I$18*100*($I$6-$I$5*K10)</f>
@@ -4181,43 +4181,43 @@
       </c>
       <c r="T18" s="31">
         <f t="shared" si="26"/>
-        <v>-58.060345598392196</v>
+        <v>-43.545259198794149</v>
       </c>
       <c r="U18" s="31">
         <f t="shared" si="26"/>
-        <v>-116.12069119678439</v>
+        <v>-87.090518397588298</v>
       </c>
       <c r="V18" s="31">
         <f t="shared" si="26"/>
-        <v>-174.1810367951766</v>
+        <v>-130.63577759638244</v>
       </c>
       <c r="W18" s="31">
         <f t="shared" si="26"/>
-        <v>-232.24138239356878</v>
+        <v>-174.1810367951766</v>
       </c>
       <c r="X18" s="31">
         <f t="shared" si="26"/>
-        <v>-290.301727991961</v>
+        <v>-217.72629599397072</v>
       </c>
       <c r="Y18" s="31">
         <f t="shared" si="26"/>
-        <v>-348.36207359035319</v>
+        <v>-261.27155519276488</v>
       </c>
       <c r="Z18" s="31">
         <f t="shared" ref="Z18" si="27">$I$18*100*($I$6-$I$5*R10)</f>
-        <v>-406.42241918874538</v>
+        <v>-304.81681439155903</v>
       </c>
       <c r="AA18" s="31">
         <f t="shared" ref="AA18" si="28">$I$18*100*($I$6-$I$5*S10)</f>
-        <v>-464.48276478713757</v>
+        <v>-348.36207359035319</v>
       </c>
       <c r="AB18" s="31">
         <f t="shared" ref="AB18" si="29">$I$18*100*($I$6-$I$5*T10)</f>
-        <v>-522.54311038552976</v>
+        <v>-391.90733278914735</v>
       </c>
       <c r="AC18" s="31">
         <f t="shared" ref="AC18" si="30">$I$18*100*($I$6-$I$5*U10)</f>
-        <v>-580.603455983922</v>
+        <v>-435.45259198794145</v>
       </c>
     </row>
     <row r="19" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4254,11 +4254,11 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="31">
         <f>I6*I19*100</f>
-        <v>187.88327835639714</v>
+        <v>140.91245876729786</v>
       </c>
       <c r="S19" s="31">
         <f>I19*100*(I6-I5)</f>
-        <v>93.941639178198571</v>
+        <v>70.456229383648932</v>
       </c>
       <c r="T19" s="31">
         <f t="shared" ref="T19:Y19" si="31">$I$19*100*($I$6-$I$5*K10)</f>
@@ -4266,39 +4266,39 @@
       </c>
       <c r="U19" s="31">
         <f t="shared" si="31"/>
-        <v>-93.941639178198571</v>
+        <v>-70.456229383648932</v>
       </c>
       <c r="V19" s="31">
         <f t="shared" si="31"/>
-        <v>-187.88327835639714</v>
+        <v>-140.91245876729786</v>
       </c>
       <c r="W19" s="31">
         <f t="shared" si="31"/>
-        <v>-281.82491753459573</v>
+        <v>-211.36868815094678</v>
       </c>
       <c r="X19" s="31">
         <f t="shared" si="31"/>
-        <v>-375.76655671279428</v>
+        <v>-281.82491753459573</v>
       </c>
       <c r="Y19" s="31">
         <f t="shared" si="31"/>
-        <v>-469.70819589099284</v>
+        <v>-352.28114691824464</v>
       </c>
       <c r="Z19" s="31">
         <f t="shared" ref="Z19" si="32">$I$19*100*($I$6-$I$5*Q10)</f>
-        <v>-563.64983506919145</v>
+        <v>-422.73737630189356</v>
       </c>
       <c r="AA19" s="31">
         <f t="shared" ref="AA19" si="33">$I$19*100*($I$6-$I$5*R10)</f>
-        <v>-657.59147424739001</v>
+        <v>-493.19360568554248</v>
       </c>
       <c r="AB19" s="31">
         <f t="shared" ref="AB19" si="34">$I$19*100*($I$6-$I$5*S10)</f>
-        <v>-751.53311342558857</v>
+        <v>-563.64983506919145</v>
       </c>
       <c r="AC19" s="31">
         <f t="shared" ref="AC19" si="35">$I$19*100*($I$6-$I$5*T10)</f>
-        <v>-845.47475260378712</v>
+        <v>-634.10606445284031</v>
       </c>
     </row>
     <row r="20" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4336,11 +4336,11 @@
       <c r="R20" s="3"/>
       <c r="S20" s="31">
         <f>I6*I20*100</f>
-        <v>303.99514438065063</v>
+        <v>227.99635828548793</v>
       </c>
       <c r="T20" s="31">
         <f>I20*100*(I6-I5)</f>
-        <v>151.99757219032531</v>
+        <v>113.99817914274399</v>
       </c>
       <c r="U20" s="31">
         <f>$I$20*100*($I$6-$I$5*K10)</f>
@@ -4348,35 +4348,35 @@
       </c>
       <c r="V20" s="31">
         <f>$I$20*100*($I$6-$I$5*L10)</f>
-        <v>-151.99757219032531</v>
+        <v>-113.99817914274399</v>
       </c>
       <c r="W20" s="31">
         <f>$I$20*100*($I$6-$I$5*M10)</f>
-        <v>-303.99514438065063</v>
+        <v>-227.99635828548799</v>
       </c>
       <c r="X20" s="31">
         <f>$I$20*100*($I$6-$I$5*N10)</f>
-        <v>-455.99271657097597</v>
+        <v>-341.99453742823198</v>
       </c>
       <c r="Y20" s="31">
         <f>$I$20*100*($I$6-$I$5*O10)</f>
-        <v>-607.99028876130126</v>
+        <v>-455.99271657097597</v>
       </c>
       <c r="Z20" s="31">
         <f t="shared" ref="Z20:AC20" si="36">$I$20*100*($I$6-$I$5*P10)</f>
-        <v>-759.98786095162654</v>
+        <v>-569.99089571371996</v>
       </c>
       <c r="AA20" s="31">
         <f t="shared" si="36"/>
-        <v>-911.98543314195194</v>
+        <v>-683.98907485646396</v>
       </c>
       <c r="AB20" s="31">
         <f t="shared" si="36"/>
-        <v>-1063.9830053322771</v>
+        <v>-797.98725399920795</v>
       </c>
       <c r="AC20" s="31">
         <f t="shared" si="36"/>
-        <v>-1215.9805775226025</v>
+        <v>-911.98543314195194</v>
       </c>
     </row>
     <row r="21" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4415,11 +4415,11 @@
       <c r="S21" s="3"/>
       <c r="T21" s="32">
         <f>I6*I21*100</f>
-        <v>491.86414360789269</v>
+        <v>368.89810770591953</v>
       </c>
       <c r="U21" s="32">
         <f>I21*100*(I6-I5)</f>
-        <v>245.93207180394634</v>
+        <v>184.44905385295976</v>
       </c>
       <c r="V21" s="32">
         <f>$I$21*100*($I$6-$I$5*K10)</f>
@@ -4427,31 +4427,31 @@
       </c>
       <c r="W21" s="32">
         <f>$I$21*100*($I$6-$I$5*L10)</f>
-        <v>-245.93207180394634</v>
+        <v>-184.44905385295976</v>
       </c>
       <c r="X21" s="32">
         <f>$I$21*100*($I$6-$I$5*M10)</f>
-        <v>-491.86414360789269</v>
+        <v>-368.89810770591953</v>
       </c>
       <c r="Y21" s="32">
         <f>$I$21*100*($I$6-$I$5*N10)</f>
-        <v>-737.79621541183906</v>
+        <v>-553.34716155887929</v>
       </c>
       <c r="Z21" s="32">
         <f t="shared" ref="Z21:AC21" si="37">$I$21*100*($I$6-$I$5*O10)</f>
-        <v>-983.72828721578537</v>
+        <v>-737.79621541183906</v>
       </c>
       <c r="AA21" s="32">
         <f t="shared" si="37"/>
-        <v>-1229.6603590197317</v>
+        <v>-922.24526926479882</v>
       </c>
       <c r="AB21" s="32">
         <f t="shared" si="37"/>
-        <v>-1475.5924308236781</v>
+        <v>-1106.6943231177586</v>
       </c>
       <c r="AC21" s="32">
         <f t="shared" si="37"/>
-        <v>-1721.5245026276243</v>
+        <v>-1291.1433769707182</v>
       </c>
     </row>
     <row r="22" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4491,11 +4491,11 @@
       <c r="T22" s="32"/>
       <c r="U22" s="32">
         <f>I6*I22*100</f>
-        <v>795.83618435757046</v>
+        <v>596.87713826817776</v>
       </c>
       <c r="V22" s="32">
         <f>I22*100*(I6-I5)</f>
-        <v>397.91809217878523</v>
+        <v>298.43856913408894</v>
       </c>
       <c r="W22" s="32">
         <f>$I$22*100*($I$6-$I$5*K10)</f>
@@ -4503,27 +4503,27 @@
       </c>
       <c r="X22" s="32">
         <f>$I$22*100*($I$6-$I$5*L10)</f>
-        <v>-397.91809217878523</v>
+        <v>-298.43856913408894</v>
       </c>
       <c r="Y22" s="32">
         <f>$I$22*100*($I$6-$I$5*M10)</f>
-        <v>-795.83618435757046</v>
+        <v>-596.87713826817787</v>
       </c>
       <c r="Z22" s="32">
         <f t="shared" ref="Z22:AC22" si="38">$I$22*100*($I$6-$I$5*N10)</f>
-        <v>-1193.7542765363557</v>
+        <v>-895.31570740226675</v>
       </c>
       <c r="AA22" s="32">
         <f t="shared" si="38"/>
-        <v>-1591.6723687151409</v>
+        <v>-1193.7542765363557</v>
       </c>
       <c r="AB22" s="32">
         <f t="shared" si="38"/>
-        <v>-1989.5904608939261</v>
+        <v>-1492.1928456704445</v>
       </c>
       <c r="AC22" s="32">
         <f t="shared" si="38"/>
-        <v>-2387.5085530727115</v>
+        <v>-1790.6314148045335</v>
       </c>
     </row>
     <row r="23" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4564,11 +4564,11 @@
       <c r="U23" s="32"/>
       <c r="V23" s="32">
         <f>I6*I23*100</f>
-        <v>1287.6629462905491</v>
+        <v>965.7472097179118</v>
       </c>
       <c r="W23" s="32">
         <f>I23*100*(I6-I5)</f>
-        <v>643.83147314527457</v>
+        <v>482.8736048589559</v>
       </c>
       <c r="X23" s="32">
         <f>$I$23*100*($I$6-$I$5*K10)</f>
@@ -4576,23 +4576,23 @@
       </c>
       <c r="Y23" s="32">
         <f>$I$23*100*($I$6-$I$5*L10)</f>
-        <v>-643.83147314527457</v>
+        <v>-482.8736048589559</v>
       </c>
       <c r="Z23" s="32">
         <f t="shared" ref="Z23:AC23" si="39">$I$23*100*($I$6-$I$5*M10)</f>
-        <v>-1287.6629462905491</v>
+        <v>-965.7472097179118</v>
       </c>
       <c r="AA23" s="32">
         <f t="shared" si="39"/>
-        <v>-1931.4944194358236</v>
+        <v>-1448.6208145768678</v>
       </c>
       <c r="AB23" s="32">
         <f t="shared" si="39"/>
-        <v>-2575.3258925810983</v>
+        <v>-1931.4944194358236</v>
       </c>
       <c r="AC23" s="32">
         <f t="shared" si="39"/>
-        <v>-3219.157365726373</v>
+        <v>-2414.3680242947798</v>
       </c>
     </row>
     <row r="24" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4634,11 +4634,11 @@
       <c r="V24" s="32"/>
       <c r="W24" s="32">
         <f>I6*I24*100</f>
-        <v>2083.438647098109</v>
+        <v>1562.5789853235815</v>
       </c>
       <c r="X24" s="32">
         <f>I24*100*(I6-I5)</f>
-        <v>1041.7193235490545</v>
+        <v>781.28949266179086</v>
       </c>
       <c r="Y24" s="32">
         <f>$I$24*100*($I$6-$I$5*K10)</f>
@@ -4646,19 +4646,19 @@
       </c>
       <c r="Z24" s="32">
         <f t="shared" ref="Z24:AC24" si="40">$I$24*100*($I$6-$I$5*L10)</f>
-        <v>-1041.7193235490545</v>
+        <v>-781.28949266179086</v>
       </c>
       <c r="AA24" s="32">
         <f t="shared" si="40"/>
-        <v>-2083.438647098109</v>
+        <v>-1562.5789853235817</v>
       </c>
       <c r="AB24" s="32">
         <f t="shared" si="40"/>
-        <v>-3125.1579706471634</v>
+        <v>-2343.8684779853725</v>
       </c>
       <c r="AC24" s="32">
         <f t="shared" si="40"/>
-        <v>-4166.8772941962179</v>
+        <v>-3125.1579706471634</v>
       </c>
     </row>
     <row r="25" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4701,11 +4701,11 @@
       <c r="W25" s="32"/>
       <c r="X25" s="32">
         <f>I6*I25*100</f>
-        <v>3371.0037310047405</v>
+        <v>2528.2527982535557</v>
       </c>
       <c r="Y25" s="32">
         <f>I25*100*(I6-I5)</f>
-        <v>1685.5018655023703</v>
+        <v>1264.1263991267776</v>
       </c>
       <c r="Z25" s="32">
         <f>$I$25*100*($I$6-$I$5*K10)</f>
@@ -4713,15 +4713,15 @@
       </c>
       <c r="AA25" s="32">
         <f>$I$25*100*($I$6-$I$5*L10)</f>
-        <v>-1685.5018655023703</v>
+        <v>-1264.1263991267776</v>
       </c>
       <c r="AB25" s="32">
         <f>$I$25*100*($I$6-$I$5*M10)</f>
-        <v>-3371.0037310047405</v>
+        <v>-2528.2527982535553</v>
       </c>
       <c r="AC25" s="32">
         <f>$I$25*100*($I$6-$I$5*N10)</f>
-        <v>-5056.5055965071106</v>
+        <v>-3792.3791973803332</v>
       </c>
     </row>
     <row r="26" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4765,11 +4765,11 @@
       <c r="X26" s="32"/>
       <c r="Y26" s="32">
         <f>I26*I6*100</f>
-        <v>5454.28403676567</v>
+        <v>4090.7130275742525</v>
       </c>
       <c r="Z26" s="32">
         <f>$I$26*100*($I$6-$I$5)</f>
-        <v>2727.142018382835</v>
+        <v>2045.3565137871262</v>
       </c>
       <c r="AA26" s="32">
         <f>$I$26*100*($I$6-$I$5*K10)</f>
@@ -4777,11 +4777,11 @@
       </c>
       <c r="AB26" s="32">
         <f>$I$26*100*($I$6-$I$5*L10)</f>
-        <v>-2727.142018382835</v>
+        <v>-2045.3565137871262</v>
       </c>
       <c r="AC26" s="32">
         <f>$I$26*100*($I$6-$I$5*M10)</f>
-        <v>-5454.28403676567</v>
+        <v>-4090.7130275742525</v>
       </c>
     </row>
     <row r="27" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4810,11 +4810,11 @@
       </c>
       <c r="Z27" s="32">
         <f>$I$27*$I$6*100</f>
-        <v>8825.0315714868557</v>
+        <v>6618.7736786151418</v>
       </c>
       <c r="AA27" s="32">
         <f>$I$27*100*($I$6-$I$5*J$10)</f>
-        <v>4412.5157857434278</v>
+        <v>3309.3868393075709</v>
       </c>
       <c r="AB27" s="32">
         <f t="shared" ref="AB27:AC27" si="41">$I$27*100*($I$6-$I$5*K$10)</f>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="AC27" s="32">
         <f t="shared" si="41"/>
-        <v>-4412.5157857434278</v>
+        <v>-3309.3868393075709</v>
       </c>
     </row>
     <row r="28" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4851,11 +4851,11 @@
       </c>
       <c r="AA28" s="32">
         <f>$I$28*$I$6*100</f>
-        <v>14278.901082665732</v>
+        <v>10709.175811999299</v>
       </c>
       <c r="AB28" s="32">
         <f>$I$28*100*($I$6-$I$5*J$10)</f>
-        <v>7139.4505413328661</v>
+        <v>5354.5879059996496</v>
       </c>
       <c r="AC28" s="32">
         <f>$I$28*100*($I$6-$I$5*K$10)</f>
@@ -4888,11 +4888,11 @@
       </c>
       <c r="AB29" s="32">
         <f>$I$29*$I$6*100</f>
-        <v>23103.261951753153</v>
+        <v>17327.446463814867</v>
       </c>
       <c r="AC29" s="32">
         <f>$I$29*100*($I$6-$I$5*J$10)</f>
-        <v>11551.630975876576</v>
+        <v>8663.7232319074319</v>
       </c>
     </row>
     <row r="30" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="AC30" s="32">
         <f>$I$30*$I$6*100</f>
-        <v>37381.077837936609</v>
+        <v>28035.808378452453</v>
       </c>
     </row>
     <row r="31" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4962,71 +4962,71 @@
       </c>
       <c r="M31" s="37">
         <f t="shared" si="42"/>
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="N31" s="37">
         <f t="shared" si="42"/>
-        <v>-7.2359999999999998</v>
+        <v>-5.4269999999999996</v>
       </c>
       <c r="O31" s="37">
         <f t="shared" si="42"/>
-        <v>-17.707847999999998</v>
+        <v>-13.280885999999999</v>
       </c>
       <c r="P31" s="37">
         <f t="shared" si="42"/>
-        <v>-36.651298064000002</v>
+        <v>-27.488473547999998</v>
       </c>
       <c r="Q31" s="37">
         <f t="shared" si="42"/>
-        <v>-69.301800267552011</v>
+        <v>-51.976350200664001</v>
       </c>
       <c r="R31" s="37">
         <f t="shared" si="42"/>
-        <v>-124.13031283289916</v>
+        <v>-93.097734624674359</v>
       </c>
       <c r="S31" s="37">
         <f t="shared" si="42"/>
-        <v>-214.84284616363084</v>
+        <v>-161.13213462272313</v>
       </c>
       <c r="T31" s="37">
         <f t="shared" si="42"/>
-        <v>-363.61572509275476</v>
+        <v>-272.71179381956603</v>
       </c>
       <c r="U31" s="37">
         <f t="shared" si="42"/>
-        <v>-606.33024320007712</v>
+        <v>-454.7476824000579</v>
       </c>
       <c r="V31" s="37">
         <f t="shared" si="42"/>
-        <v>-1001.0423334977249</v>
+        <v>-750.7817501232937</v>
       </c>
       <c r="W31" s="37">
         <f t="shared" si="42"/>
-        <v>-1641.6864955993192</v>
+        <v>-1231.2648716994895</v>
       </c>
       <c r="X31" s="37">
         <f t="shared" si="42"/>
-        <v>-2680.2487498796986</v>
+        <v>-2010.1865624097738</v>
       </c>
       <c r="Y31" s="37">
         <f t="shared" si="42"/>
-        <v>-4362.6424773053523</v>
+        <v>-3271.981857979014</v>
       </c>
       <c r="Z31" s="37">
         <f t="shared" si="42"/>
-        <v>-7086.7555282800604</v>
+        <v>-5315.0666462100453</v>
       </c>
       <c r="AA31" s="37">
         <f t="shared" si="42"/>
-        <v>-11496.37044475714</v>
+        <v>-8622.277833567854</v>
       </c>
       <c r="AB31" s="37">
         <f t="shared" si="42"/>
-        <v>-18633.127379617054</v>
+        <v>-13974.845534712789</v>
       </c>
       <c r="AC31" s="37">
         <f t="shared" si="42"/>
-        <v>-30182.400100220391</v>
+        <v>-22636.800075165294</v>
       </c>
     </row>
     <row r="32" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -5049,85 +5049,85 @@
       <c r="I32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J32" s="132">
+      <c r="J32" s="124">
         <f t="shared" ref="J32:AC32" si="44">SUM(J11:J30)</f>
-        <v>4</v>
-      </c>
-      <c r="K32" s="132">
+        <v>3</v>
+      </c>
+      <c r="K32" s="124">
         <f t="shared" si="44"/>
-        <v>8.4719999999999995</v>
-      </c>
-      <c r="L32" s="132">
+        <v>6.3539999999999992</v>
+      </c>
+      <c r="L32" s="124">
         <f t="shared" si="44"/>
-        <v>13.707696000000002</v>
-      </c>
-      <c r="M32" s="132">
+        <v>10.280772000000001</v>
+      </c>
+      <c r="M32" s="124">
         <f t="shared" si="44"/>
-        <v>20.179052128000002</v>
-      </c>
-      <c r="N32" s="132">
+        <v>15.134289096</v>
+      </c>
+      <c r="N32" s="124">
         <f t="shared" si="44"/>
-        <v>28.649706343104008</v>
-      </c>
-      <c r="O32" s="132">
+        <v>21.487279757328007</v>
+      </c>
+      <c r="O32" s="124">
         <f t="shared" si="44"/>
-        <v>40.35522486314229</v>
-      </c>
-      <c r="P32" s="132">
+        <v>30.266418647356716</v>
+      </c>
+      <c r="P32" s="124">
         <f t="shared" si="44"/>
-        <v>57.294753828564225</v>
-      </c>
-      <c r="Q32" s="132">
+        <v>42.971065371423173</v>
+      </c>
+      <c r="Q32" s="124">
         <f t="shared" si="44"/>
-        <v>82.702911694616915</v>
-      </c>
-      <c r="R32" s="132">
+        <v>62.027183770962687</v>
+      </c>
+      <c r="R32" s="124">
         <f t="shared" si="44"/>
-        <v>121.81331112189017</v>
-      </c>
-      <c r="S32" s="132">
+        <v>91.35998334141766</v>
+      </c>
+      <c r="S32" s="124">
         <f t="shared" si="44"/>
-        <v>183.09393739521835</v>
-      </c>
-      <c r="T32" s="132">
+        <v>137.32045304641372</v>
+      </c>
+      <c r="T32" s="124">
         <f t="shared" si="44"/>
-        <v>280.24599070546321</v>
-      </c>
-      <c r="U32" s="132">
+        <v>210.1844930290975</v>
+      </c>
+      <c r="U32" s="124">
         <f t="shared" si="44"/>
-        <v>435.43801296143965</v>
-      </c>
-      <c r="V32" s="132">
+        <v>326.57850972107963</v>
+      </c>
+      <c r="V32" s="124">
         <f t="shared" si="44"/>
-        <v>684.53870497160938</v>
-      </c>
-      <c r="W32" s="132">
+        <v>513.40402872870709</v>
+      </c>
+      <c r="W32" s="124">
         <f t="shared" si="44"/>
-        <v>1085.5836246440645</v>
-      </c>
-      <c r="X32" s="132">
+        <v>814.18771848304789</v>
+      </c>
+      <c r="X32" s="124">
         <f t="shared" si="44"/>
-        <v>1732.4743046740964</v>
-      </c>
-      <c r="Y32" s="132">
+        <v>1299.3557285055726</v>
+      </c>
+      <c r="Y32" s="124">
         <f t="shared" si="44"/>
-        <v>2777.1434249626882</v>
-      </c>
-      <c r="Z32" s="132">
+        <v>2082.8575687220164</v>
+      </c>
+      <c r="Z32" s="124">
         <f t="shared" si="44"/>
-        <v>4465.4180615896303</v>
-      </c>
-      <c r="AA32" s="132">
+        <v>3349.0635461922229</v>
+      </c>
+      <c r="AA32" s="124">
         <f t="shared" si="44"/>
-        <v>7195.0464236520202</v>
-      </c>
-      <c r="AB32" s="132">
+        <v>5396.284817739016</v>
+      </c>
+      <c r="AB32" s="124">
         <f t="shared" si="44"/>
-        <v>11609.585113468966</v>
-      </c>
-      <c r="AC32" s="132">
+        <v>8707.1888351017278</v>
+      </c>
+      <c r="AC32" s="124">
         <f t="shared" si="44"/>
-        <v>18750.308713592793</v>
+        <v>14062.731535194591</v>
       </c>
     </row>
     <row r="33" spans="2:30" ht="16.8" x14ac:dyDescent="0.3">
@@ -5268,83 +5268,83 @@
       </c>
       <c r="J35" s="5" t="str">
         <f t="shared" ref="J35:AB35" si="45">"iff(trade_no == "&amp;J10&amp;") return "&amp;ROUND(J32, 2)&amp;" ;"</f>
-        <v>iff(trade_no == 1) return 4 ;</v>
+        <v>iff(trade_no == 1) return 3 ;</v>
       </c>
       <c r="K35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 2) return 8.47 ;</v>
+        <v>iff(trade_no == 2) return 6.35 ;</v>
       </c>
       <c r="L35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 3) return 13.71 ;</v>
+        <v>iff(trade_no == 3) return 10.28 ;</v>
       </c>
       <c r="M35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 4) return 20.18 ;</v>
+        <v>iff(trade_no == 4) return 15.13 ;</v>
       </c>
       <c r="N35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 5) return 28.65 ;</v>
+        <v>iff(trade_no == 5) return 21.49 ;</v>
       </c>
       <c r="O35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 6) return 40.36 ;</v>
+        <v>iff(trade_no == 6) return 30.27 ;</v>
       </c>
       <c r="P35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 7) return 57.29 ;</v>
+        <v>iff(trade_no == 7) return 42.97 ;</v>
       </c>
       <c r="Q35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 8) return 82.7 ;</v>
+        <v>iff(trade_no == 8) return 62.03 ;</v>
       </c>
       <c r="R35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 9) return 121.81 ;</v>
+        <v>iff(trade_no == 9) return 91.36 ;</v>
       </c>
       <c r="S35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 10) return 183.09 ;</v>
+        <v>iff(trade_no == 10) return 137.32 ;</v>
       </c>
       <c r="T35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 11) return 280.25 ;</v>
+        <v>iff(trade_no == 11) return 210.18 ;</v>
       </c>
       <c r="U35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 12) return 435.44 ;</v>
+        <v>iff(trade_no == 12) return 326.58 ;</v>
       </c>
       <c r="V35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 13) return 684.54 ;</v>
+        <v>iff(trade_no == 13) return 513.4 ;</v>
       </c>
       <c r="W35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 14) return 1085.58 ;</v>
+        <v>iff(trade_no == 14) return 814.19 ;</v>
       </c>
       <c r="X35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 15) return 1732.47 ;</v>
+        <v>iff(trade_no == 15) return 1299.36 ;</v>
       </c>
       <c r="Y35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 16) return 2777.14 ;</v>
+        <v>iff(trade_no == 16) return 2082.86 ;</v>
       </c>
       <c r="Z35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 17) return 4465.42 ;</v>
+        <v>iff(trade_no == 17) return 3349.06 ;</v>
       </c>
       <c r="AA35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 18) return 7195.05 ;</v>
+        <v>iff(trade_no == 18) return 5396.28 ;</v>
       </c>
       <c r="AB35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 19) return 11609.59 ;</v>
+        <v>iff(trade_no == 19) return 8707.19 ;</v>
       </c>
       <c r="AC35" s="5" t="str">
         <f>"iff(trade_no == "&amp;AC10&amp;") return "&amp;ROUND(AC32, 2)&amp;" ;"</f>
-        <v>iff(trade_no == 20) return 18750.31 ;</v>
+        <v>iff(trade_no == 20) return 14062.73 ;</v>
       </c>
     </row>
     <row r="36" spans="2:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -7078,19 +7078,19 @@
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="126" t="s">
+      <c r="K2" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126" t="s">
+      <c r="L2" s="128"/>
+      <c r="M2" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126" t="s">
+      <c r="N2" s="128"/>
+      <c r="O2" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
       <c r="R2" s="40"/>
       <c r="S2" s="40"/>
       <c r="T2" s="40"/>
@@ -7113,22 +7113,22 @@
       <c r="H3" s="27"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
-      <c r="K3" s="123">
+      <c r="K3" s="125">
         <f>SUM(GBPJPY!C13:C37)</f>
         <v>12.759243790619122</v>
       </c>
-      <c r="L3" s="123"/>
-      <c r="M3" s="124">
+      <c r="L3" s="125"/>
+      <c r="M3" s="126">
         <f>K3*91</f>
         <v>1161.09118494634</v>
       </c>
-      <c r="N3" s="124"/>
-      <c r="O3" s="125">
+      <c r="N3" s="126"/>
+      <c r="O3" s="127">
         <f>M3+GBPJPY!D35</f>
         <v>1339.9022866437358</v>
       </c>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
       <c r="R3" s="110">
         <f>O3*2</f>
         <v>2679.8045732874716</v>
@@ -11129,11 +11129,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="13" t="s">
         <v>50</v>
       </c>
@@ -11148,11 +11148,11 @@
       </c>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="130"/>
       <c r="E2" s="65"/>
       <c r="F2" s="14" t="s">
         <v>84</v>
@@ -11202,9 +11202,9 @@
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="65"/>
       <c r="F3" s="65" t="s">
         <v>83</v>
@@ -11268,11 +11268,11 @@
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="130"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="15" t="s">
         <v>13</v>
       </c>
@@ -13354,63 +13354,63 @@
       </c>
     </row>
     <row r="45" spans="6:26" x14ac:dyDescent="0.45">
-      <c r="G45" s="131">
+      <c r="G45" s="123">
         <f>SUM(G43:G44)</f>
         <v>40</v>
       </c>
-      <c r="H45" s="131">
+      <c r="H45" s="123">
         <f t="shared" ref="H45:U45" si="25">SUM(H43:H44)</f>
         <v>50</v>
       </c>
-      <c r="I45" s="131">
+      <c r="I45" s="123">
         <f t="shared" si="25"/>
         <v>60</v>
       </c>
-      <c r="J45" s="131">
+      <c r="J45" s="123">
         <f t="shared" si="25"/>
         <v>70</v>
       </c>
-      <c r="K45" s="131">
+      <c r="K45" s="123">
         <f t="shared" si="25"/>
         <v>80</v>
       </c>
-      <c r="L45" s="131">
+      <c r="L45" s="123">
         <f t="shared" si="25"/>
         <v>90</v>
       </c>
-      <c r="M45" s="131">
+      <c r="M45" s="123">
         <f t="shared" si="25"/>
         <v>100</v>
       </c>
-      <c r="N45" s="131">
+      <c r="N45" s="123">
         <f t="shared" si="25"/>
         <v>110</v>
       </c>
-      <c r="O45" s="131">
+      <c r="O45" s="123">
         <f t="shared" si="25"/>
         <v>120</v>
       </c>
-      <c r="P45" s="131">
+      <c r="P45" s="123">
         <f t="shared" si="25"/>
         <v>130</v>
       </c>
-      <c r="Q45" s="131">
+      <c r="Q45" s="123">
         <f t="shared" si="25"/>
         <v>140</v>
       </c>
-      <c r="R45" s="131">
+      <c r="R45" s="123">
         <f t="shared" si="25"/>
         <v>150</v>
       </c>
-      <c r="S45" s="131">
+      <c r="S45" s="123">
         <f t="shared" si="25"/>
         <v>160</v>
       </c>
-      <c r="T45" s="131">
+      <c r="T45" s="123">
         <f t="shared" si="25"/>
         <v>170</v>
       </c>
-      <c r="U45" s="131">
+      <c r="U45" s="123">
         <f t="shared" si="25"/>
         <v>180</v>
       </c>

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21BB214-71CE-4A71-A3F6-4F2C5101391A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7EB2D5-9F79-4EFE-A2E2-D7C0E0D5A0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2950,7 +2950,7 @@
   <dimension ref="B1:AD99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3029,23 +3029,23 @@
       <c r="J3" s="20"/>
       <c r="K3" s="125">
         <f>SUM('Bảng Input L30'!C13:C37)</f>
-        <v>44.096149164770779</v>
+        <v>33.76405344570022</v>
       </c>
       <c r="L3" s="125"/>
       <c r="M3" s="126">
-        <f>K3*91</f>
-        <v>4012.749573994141</v>
+        <f>K3*90</f>
+        <v>3038.7648101130198</v>
       </c>
       <c r="N3" s="126"/>
       <c r="O3" s="127">
         <f>M3+'Bảng Input L30'!D35</f>
-        <v>11099.505102274201</v>
+        <v>11772.810214746589</v>
       </c>
       <c r="P3" s="127"/>
       <c r="Q3" s="127"/>
       <c r="R3" s="110">
         <f>O3*2</f>
-        <v>22199.010204548402</v>
+        <v>23545.620429493178</v>
       </c>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="I4" s="52">
         <f>E9</f>
-        <v>1.6180000000000001</v>
+        <v>1.3819999999999999</v>
       </c>
       <c r="J4" s="1">
         <v>1.3819999999999999</v>
@@ -3105,7 +3105,7 @@
         <v>53</v>
       </c>
       <c r="I5" s="109">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="2">
         <v>1.6180000000000001</v>
@@ -3140,7 +3140,8 @@
         <v>71</v>
       </c>
       <c r="I6" s="109">
-        <v>3</v>
+        <f>I5*3</f>
+        <v>12</v>
       </c>
       <c r="J6" s="2">
         <v>2.6179999999999999</v>
@@ -3164,79 +3165,79 @@
       </c>
       <c r="K7" s="38">
         <f>J7-I$5</f>
-        <v>2198.5</v>
+        <v>2196</v>
       </c>
       <c r="L7" s="38">
         <f t="shared" ref="L7:Y7" si="0">K7-$I$5</f>
-        <v>2197</v>
+        <v>2192</v>
       </c>
       <c r="M7" s="38">
         <f t="shared" si="0"/>
-        <v>2195.5</v>
+        <v>2188</v>
       </c>
       <c r="N7" s="38">
         <f t="shared" si="0"/>
-        <v>2194</v>
+        <v>2184</v>
       </c>
       <c r="O7" s="38">
         <f t="shared" si="0"/>
-        <v>2192.5</v>
+        <v>2180</v>
       </c>
       <c r="P7" s="38">
         <f t="shared" si="0"/>
-        <v>2191</v>
+        <v>2176</v>
       </c>
       <c r="Q7" s="38">
         <f t="shared" si="0"/>
-        <v>2189.5</v>
+        <v>2172</v>
       </c>
       <c r="R7" s="38">
         <f t="shared" si="0"/>
-        <v>2188</v>
+        <v>2168</v>
       </c>
       <c r="S7" s="38">
         <f t="shared" si="0"/>
-        <v>2186.5</v>
+        <v>2164</v>
       </c>
       <c r="T7" s="38">
         <f t="shared" si="0"/>
-        <v>2185</v>
+        <v>2160</v>
       </c>
       <c r="U7" s="38">
         <f t="shared" si="0"/>
-        <v>2183.5</v>
+        <v>2156</v>
       </c>
       <c r="V7" s="38">
         <f t="shared" si="0"/>
-        <v>2182</v>
+        <v>2152</v>
       </c>
       <c r="W7" s="38">
         <f t="shared" si="0"/>
-        <v>2180.5</v>
+        <v>2148</v>
       </c>
       <c r="X7" s="38">
         <f t="shared" si="0"/>
-        <v>2179</v>
+        <v>2144</v>
       </c>
       <c r="Y7" s="38">
         <f t="shared" si="0"/>
-        <v>2177.5</v>
+        <v>2140</v>
       </c>
       <c r="Z7" s="38">
         <f t="shared" ref="Z7" si="1">Y7-$I$5</f>
-        <v>2176</v>
+        <v>2136</v>
       </c>
       <c r="AA7" s="38">
         <f t="shared" ref="AA7" si="2">Z7-$I$5</f>
-        <v>2174.5</v>
+        <v>2132</v>
       </c>
       <c r="AB7" s="38">
         <f t="shared" ref="AB7" si="3">AA7-$I$5</f>
-        <v>2173</v>
+        <v>2128</v>
       </c>
       <c r="AC7" s="38">
         <f t="shared" ref="AC7" si="4">AB7-$I$5</f>
-        <v>2171.5</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -3255,79 +3256,79 @@
       </c>
       <c r="K8" s="38">
         <f t="shared" ref="K8:Y8" si="5">$J$7-K7</f>
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="L8" s="38">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M8" s="38">
         <f t="shared" si="5"/>
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="N8" s="38">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O8" s="38">
         <f t="shared" si="5"/>
-        <v>7.5</v>
+        <v>20</v>
       </c>
       <c r="P8" s="38">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="38">
         <f t="shared" si="5"/>
-        <v>10.5</v>
+        <v>28</v>
       </c>
       <c r="R8" s="38">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="S8" s="38">
         <f t="shared" si="5"/>
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="T8" s="38">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="U8" s="38">
         <f t="shared" si="5"/>
-        <v>16.5</v>
+        <v>44</v>
       </c>
       <c r="V8" s="38">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="W8" s="38">
         <f t="shared" si="5"/>
-        <v>19.5</v>
+        <v>52</v>
       </c>
       <c r="X8" s="38">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="Y8" s="38">
         <f t="shared" si="5"/>
-        <v>22.5</v>
+        <v>60</v>
       </c>
       <c r="Z8" s="38">
         <f t="shared" ref="Z8:AC8" si="6">$J$7-Z7</f>
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="AA8" s="38">
         <f t="shared" si="6"/>
-        <v>25.5</v>
+        <v>68</v>
       </c>
       <c r="AB8" s="38">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="AC8" s="38">
         <f t="shared" si="6"/>
-        <v>28.5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -3337,7 +3338,7 @@
       <c r="C9" s="44"/>
       <c r="D9" s="45"/>
       <c r="E9" s="111">
-        <v>1.6180000000000001</v>
+        <v>1.3819999999999999</v>
       </c>
       <c r="H9" s="29" t="s">
         <v>14</v>
@@ -3413,7 +3414,7 @@
       <c r="C10" s="44"/>
       <c r="D10" s="45"/>
       <c r="E10" s="55">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>51</v>
@@ -3494,83 +3495,83 @@
       </c>
       <c r="J11" s="31">
         <f>I11*I6*100</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K11" s="31">
         <f>I11*100*(I6-I5)</f>
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="L11" s="31">
         <f t="shared" ref="L11:AC11" si="7">$I$11*100*($I$6-$I$5*K10)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M11" s="31">
         <f t="shared" si="7"/>
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="N11" s="31">
         <f>$I$11*100*($I$6-$I$5*M10)</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="O11" s="31">
         <f t="shared" si="7"/>
-        <v>-4.5</v>
+        <v>-8</v>
       </c>
       <c r="P11" s="31">
         <f t="shared" si="7"/>
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="Q11" s="31">
         <f t="shared" si="7"/>
-        <v>-7.5</v>
+        <v>-16</v>
       </c>
       <c r="R11" s="31">
         <f t="shared" si="7"/>
-        <v>-9</v>
+        <v>-20</v>
       </c>
       <c r="S11" s="31">
         <f t="shared" si="7"/>
-        <v>-10.5</v>
+        <v>-24</v>
       </c>
       <c r="T11" s="31">
         <f t="shared" si="7"/>
-        <v>-12</v>
+        <v>-28</v>
       </c>
       <c r="U11" s="31">
         <f t="shared" si="7"/>
-        <v>-13.5</v>
+        <v>-32</v>
       </c>
       <c r="V11" s="31">
         <f t="shared" si="7"/>
-        <v>-15</v>
+        <v>-36</v>
       </c>
       <c r="W11" s="31">
         <f t="shared" si="7"/>
-        <v>-16.5</v>
+        <v>-40</v>
       </c>
       <c r="X11" s="31">
         <f t="shared" si="7"/>
-        <v>-18</v>
+        <v>-44</v>
       </c>
       <c r="Y11" s="31">
         <f t="shared" si="7"/>
-        <v>-19.5</v>
+        <v>-48</v>
       </c>
       <c r="Z11" s="31">
         <f t="shared" si="7"/>
-        <v>-21</v>
+        <v>-52</v>
       </c>
       <c r="AA11" s="31">
         <f t="shared" si="7"/>
-        <v>-22.5</v>
+        <v>-56</v>
       </c>
       <c r="AB11" s="31">
         <f t="shared" si="7"/>
-        <v>-24</v>
+        <v>-60</v>
       </c>
       <c r="AC11" s="31">
         <f t="shared" si="7"/>
-        <v>-25.5</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="12" spans="2:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3591,84 +3592,84 @@
       </c>
       <c r="I12" s="30">
         <f t="shared" ref="I12:I30" si="8">I11*$I$4</f>
-        <v>1.618E-2</v>
+        <v>1.3819999999999999E-2</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="31">
         <f>I12*100*I6</f>
-        <v>4.8539999999999992</v>
+        <v>16.584</v>
       </c>
       <c r="L12" s="31">
         <f>I12*100*(I6-I5)</f>
-        <v>2.4269999999999996</v>
+        <v>11.055999999999999</v>
       </c>
       <c r="M12" s="31">
         <f t="shared" ref="M12:AC12" si="9">$I$12*100*($I$6-$I$5*K10)</f>
-        <v>0</v>
+        <v>5.5279999999999996</v>
       </c>
       <c r="N12" s="31">
         <f t="shared" si="9"/>
-        <v>-2.4269999999999996</v>
+        <v>0</v>
       </c>
       <c r="O12" s="31">
         <f t="shared" si="9"/>
-        <v>-4.8539999999999992</v>
+        <v>-5.5279999999999996</v>
       </c>
       <c r="P12" s="31">
         <f t="shared" si="9"/>
-        <v>-7.2809999999999997</v>
+        <v>-11.055999999999999</v>
       </c>
       <c r="Q12" s="31">
         <f t="shared" si="9"/>
-        <v>-9.7079999999999984</v>
+        <v>-16.584</v>
       </c>
       <c r="R12" s="31">
         <f t="shared" si="9"/>
-        <v>-12.135</v>
+        <v>-22.111999999999998</v>
       </c>
       <c r="S12" s="31">
         <f t="shared" si="9"/>
-        <v>-14.561999999999999</v>
+        <v>-27.639999999999997</v>
       </c>
       <c r="T12" s="31">
         <f t="shared" si="9"/>
-        <v>-16.988999999999997</v>
+        <v>-33.167999999999999</v>
       </c>
       <c r="U12" s="31">
         <f t="shared" si="9"/>
-        <v>-19.415999999999997</v>
+        <v>-38.695999999999998</v>
       </c>
       <c r="V12" s="31">
         <f t="shared" si="9"/>
-        <v>-21.843</v>
+        <v>-44.223999999999997</v>
       </c>
       <c r="W12" s="31">
         <f t="shared" si="9"/>
-        <v>-24.27</v>
+        <v>-49.751999999999995</v>
       </c>
       <c r="X12" s="31">
         <f t="shared" si="9"/>
-        <v>-26.696999999999999</v>
+        <v>-55.279999999999994</v>
       </c>
       <c r="Y12" s="31">
         <f t="shared" si="9"/>
-        <v>-29.123999999999999</v>
+        <v>-60.807999999999993</v>
       </c>
       <c r="Z12" s="31">
         <f t="shared" si="9"/>
-        <v>-31.550999999999998</v>
+        <v>-66.335999999999999</v>
       </c>
       <c r="AA12" s="31">
         <f t="shared" si="9"/>
-        <v>-33.977999999999994</v>
+        <v>-71.86399999999999</v>
       </c>
       <c r="AB12" s="31">
         <f t="shared" si="9"/>
-        <v>-36.404999999999994</v>
+        <v>-77.391999999999996</v>
       </c>
       <c r="AC12" s="31">
         <f t="shared" si="9"/>
-        <v>-38.831999999999994</v>
+        <v>-82.919999999999987</v>
       </c>
     </row>
     <row r="13" spans="2:29" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
@@ -3682,92 +3683,92 @@
       </c>
       <c r="D13" s="9">
         <f>+C13*E13*100</f>
-        <v>28.000000000000004</v>
+        <v>38</v>
       </c>
       <c r="E13" s="9">
         <f>IF(B13=0,0,$E$2+$E$3+$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H13" s="34">
         <v>3</v>
       </c>
       <c r="I13" s="30">
         <f t="shared" si="8"/>
-        <v>2.6179240000000003E-2</v>
+        <v>1.9099239999999996E-2</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="31">
         <f>I13*100*I6</f>
-        <v>7.8537720000000011</v>
+        <v>22.919087999999995</v>
       </c>
       <c r="M13" s="31">
         <f>I13*100*(I6-I5)</f>
-        <v>3.9268860000000005</v>
+        <v>15.279391999999998</v>
       </c>
       <c r="N13" s="31">
         <f t="shared" ref="N13:AC13" si="10">$I$13*100*($I$6-$I$5*K10)</f>
-        <v>0</v>
+        <v>7.6396959999999989</v>
       </c>
       <c r="O13" s="31">
         <f t="shared" si="10"/>
-        <v>-3.9268860000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" s="31">
         <f t="shared" si="10"/>
-        <v>-7.8537720000000011</v>
+        <v>-7.6396959999999989</v>
       </c>
       <c r="Q13" s="31">
         <f t="shared" si="10"/>
-        <v>-11.780658000000003</v>
+        <v>-15.279391999999998</v>
       </c>
       <c r="R13" s="31">
         <f t="shared" si="10"/>
-        <v>-15.707544000000002</v>
+        <v>-22.919087999999995</v>
       </c>
       <c r="S13" s="31">
         <f t="shared" si="10"/>
-        <v>-19.634430000000002</v>
+        <v>-30.558783999999996</v>
       </c>
       <c r="T13" s="31">
         <f t="shared" si="10"/>
-        <v>-23.561316000000005</v>
+        <v>-38.198479999999996</v>
       </c>
       <c r="U13" s="31">
         <f t="shared" si="10"/>
-        <v>-27.488202000000005</v>
+        <v>-45.83817599999999</v>
       </c>
       <c r="V13" s="31">
         <f t="shared" si="10"/>
-        <v>-31.415088000000004</v>
+        <v>-53.477871999999991</v>
       </c>
       <c r="W13" s="31">
         <f t="shared" si="10"/>
-        <v>-35.341974000000008</v>
+        <v>-61.117567999999991</v>
       </c>
       <c r="X13" s="31">
         <f t="shared" si="10"/>
-        <v>-39.268860000000004</v>
+        <v>-68.757263999999992</v>
       </c>
       <c r="Y13" s="31">
         <f t="shared" si="10"/>
-        <v>-43.195746000000007</v>
+        <v>-76.396959999999993</v>
       </c>
       <c r="Z13" s="31">
         <f t="shared" si="10"/>
-        <v>-47.12263200000001</v>
+        <v>-84.036655999999994</v>
       </c>
       <c r="AA13" s="31">
         <f t="shared" si="10"/>
-        <v>-51.049518000000006</v>
+        <v>-91.67635199999998</v>
       </c>
       <c r="AB13" s="31">
         <f t="shared" si="10"/>
-        <v>-54.976404000000009</v>
+        <v>-99.316047999999981</v>
       </c>
       <c r="AC13" s="31">
         <f t="shared" si="10"/>
-        <v>-58.903290000000005</v>
+        <v>-106.95574399999998</v>
       </c>
     </row>
     <row r="14" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -3777,93 +3778,93 @@
       </c>
       <c r="C14" s="10">
         <f t="shared" ref="C14:C34" si="12">IF(B14&lt;&gt;0,C13*$E$9,0)</f>
-        <v>1.618E-2</v>
+        <v>1.3819999999999999E-2</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" ref="D14:D34" si="13">+C14*E14*100</f>
-        <v>42.067999999999998</v>
+        <v>49.751999999999995</v>
       </c>
       <c r="E14" s="9">
         <f>IF(B14=0,0,$E$3+$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H14" s="34">
         <v>4</v>
       </c>
       <c r="I14" s="30">
         <f t="shared" si="8"/>
-        <v>4.2358010320000007E-2</v>
+        <v>2.6395149679999994E-2</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="31">
         <f>I14*100*I6</f>
-        <v>12.707403096</v>
+        <v>31.674179615999993</v>
       </c>
       <c r="N14" s="31">
         <f>I14*100*(I6-I5)</f>
-        <v>6.3537015480000001</v>
+        <v>21.116119743999995</v>
       </c>
       <c r="O14" s="31">
         <f t="shared" ref="O14:AC14" si="14">$I$14*100*($I$6-$I$5*K10)</f>
-        <v>0</v>
+        <v>10.558059871999998</v>
       </c>
       <c r="P14" s="31">
         <f t="shared" si="14"/>
-        <v>-6.3537015480000001</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="31">
         <f t="shared" si="14"/>
-        <v>-12.707403096</v>
+        <v>-10.558059871999998</v>
       </c>
       <c r="R14" s="31">
         <f t="shared" si="14"/>
-        <v>-19.061104644</v>
+        <v>-21.116119743999995</v>
       </c>
       <c r="S14" s="31">
         <f t="shared" si="14"/>
-        <v>-25.414806192</v>
+        <v>-31.674179615999993</v>
       </c>
       <c r="T14" s="31">
         <f t="shared" si="14"/>
-        <v>-31.768507740000004</v>
+        <v>-42.232239487999991</v>
       </c>
       <c r="U14" s="31">
         <f t="shared" si="14"/>
-        <v>-38.122209288000001</v>
+        <v>-52.790299359999992</v>
       </c>
       <c r="V14" s="31">
         <f t="shared" si="14"/>
-        <v>-44.475910836000004</v>
+        <v>-63.348359231999986</v>
       </c>
       <c r="W14" s="31">
         <f t="shared" si="14"/>
-        <v>-50.829612384000001</v>
+        <v>-73.90641910399998</v>
       </c>
       <c r="X14" s="31">
         <f t="shared" si="14"/>
-        <v>-57.183313932000004</v>
+        <v>-84.464478975999981</v>
       </c>
       <c r="Y14" s="31">
         <f t="shared" si="14"/>
-        <v>-63.537015480000008</v>
+        <v>-95.022538847999982</v>
       </c>
       <c r="Z14" s="31">
         <f t="shared" si="14"/>
-        <v>-69.890717028000012</v>
+        <v>-105.58059871999998</v>
       </c>
       <c r="AA14" s="31">
         <f t="shared" si="14"/>
-        <v>-76.244418576000001</v>
+        <v>-116.13865859199997</v>
       </c>
       <c r="AB14" s="31">
         <f t="shared" si="14"/>
-        <v>-82.598120124000005</v>
+        <v>-126.69671846399997</v>
       </c>
       <c r="AC14" s="31">
         <f t="shared" si="14"/>
-        <v>-88.951821672000008</v>
+        <v>-137.25477833599996</v>
       </c>
     </row>
     <row r="15" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -3873,22 +3874,22 @@
       </c>
       <c r="C15" s="10">
         <f t="shared" si="12"/>
-        <v>2.6179240000000003E-2</v>
+        <v>1.9099239999999996E-2</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="13"/>
-        <v>62.830176000000002</v>
+        <v>64.937415999999999</v>
       </c>
       <c r="E15" s="9">
         <f>IF(B15=0,0,$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H15" s="34">
         <v>5</v>
       </c>
       <c r="I15" s="30">
         <f t="shared" si="8"/>
-        <v>6.8535260697760017E-2</v>
+        <v>3.647809685775999E-2</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="3"/>
@@ -3896,67 +3897,67 @@
       <c r="M15" s="3"/>
       <c r="N15" s="31">
         <f>I15*I6*100</f>
-        <v>20.560578209328007</v>
+        <v>43.773716229311987</v>
       </c>
       <c r="O15" s="31">
         <f>I15*100*(I6-I5)</f>
-        <v>10.280289104664002</v>
+        <v>29.182477486207993</v>
       </c>
       <c r="P15" s="31">
         <f t="shared" ref="P15:AC15" si="15">$I$15*100*($I$6-$I$5*K10)</f>
-        <v>0</v>
+        <v>14.591238743103997</v>
       </c>
       <c r="Q15" s="31">
         <f t="shared" si="15"/>
-        <v>-10.280289104664002</v>
+        <v>0</v>
       </c>
       <c r="R15" s="31">
         <f t="shared" si="15"/>
-        <v>-20.560578209328003</v>
+        <v>-14.591238743103997</v>
       </c>
       <c r="S15" s="31">
         <f t="shared" si="15"/>
-        <v>-30.840867313992007</v>
+        <v>-29.182477486207993</v>
       </c>
       <c r="T15" s="31">
         <f t="shared" si="15"/>
-        <v>-41.121156418656007</v>
+        <v>-43.773716229311987</v>
       </c>
       <c r="U15" s="31">
         <f t="shared" si="15"/>
-        <v>-51.401445523320014</v>
+        <v>-58.364954972415987</v>
       </c>
       <c r="V15" s="31">
         <f t="shared" si="15"/>
-        <v>-61.681734627984014</v>
+        <v>-72.956193715519987</v>
       </c>
       <c r="W15" s="31">
         <f t="shared" si="15"/>
-        <v>-71.962023732648021</v>
+        <v>-87.547432458623973</v>
       </c>
       <c r="X15" s="31">
         <f t="shared" si="15"/>
-        <v>-82.242312837312014</v>
+        <v>-102.13867120172797</v>
       </c>
       <c r="Y15" s="31">
         <f t="shared" si="15"/>
-        <v>-92.522601941976021</v>
+        <v>-116.72990994483197</v>
       </c>
       <c r="Z15" s="31">
         <f t="shared" si="15"/>
-        <v>-102.80289104664003</v>
+        <v>-131.32114868793596</v>
       </c>
       <c r="AA15" s="31">
         <f t="shared" si="15"/>
-        <v>-113.08318015130402</v>
+        <v>-145.91238743103997</v>
       </c>
       <c r="AB15" s="31">
         <f t="shared" si="15"/>
-        <v>-123.36346925596803</v>
+        <v>-160.50362617414396</v>
       </c>
       <c r="AC15" s="31">
         <f t="shared" si="15"/>
-        <v>-133.64375836063203</v>
+        <v>-175.09486491724795</v>
       </c>
     </row>
     <row r="16" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -3966,22 +3967,22 @@
       </c>
       <c r="C16" s="10">
         <f t="shared" si="12"/>
-        <v>4.2358010320000007E-2</v>
+        <v>2.6395149679999994E-2</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="13"/>
-        <v>93.18762270400002</v>
+        <v>84.464478975999981</v>
       </c>
       <c r="E16" s="9">
         <f>IF(B16=0,0,$E$5+$E$6+($E$7*($E$10-6)))</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H16" s="34">
         <v>6</v>
       </c>
       <c r="I16" s="30">
         <f t="shared" si="8"/>
-        <v>0.11089005180897571</v>
+        <v>5.0412729857424302E-2</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -3990,63 +3991,63 @@
       <c r="N16" s="3"/>
       <c r="O16" s="31">
         <f>I16*I6*100</f>
-        <v>33.267015542692711</v>
+        <v>60.495275828909165</v>
       </c>
       <c r="P16" s="31">
         <f>I16*100*(I6-I5)</f>
-        <v>16.633507771346355</v>
+        <v>40.330183885939441</v>
       </c>
       <c r="Q16" s="31">
         <f t="shared" ref="Q16:Y16" si="16">$I$16*100*($I$6-$I$5*K10)</f>
-        <v>0</v>
+        <v>20.16509194296972</v>
       </c>
       <c r="R16" s="31">
         <f t="shared" si="16"/>
-        <v>-16.633507771346355</v>
+        <v>0</v>
       </c>
       <c r="S16" s="31">
         <f t="shared" si="16"/>
-        <v>-33.267015542692711</v>
+        <v>-20.16509194296972</v>
       </c>
       <c r="T16" s="31">
         <f t="shared" si="16"/>
-        <v>-49.90052331403907</v>
+        <v>-40.330183885939441</v>
       </c>
       <c r="U16" s="31">
         <f t="shared" si="16"/>
-        <v>-66.534031085385422</v>
+        <v>-60.495275828909158</v>
       </c>
       <c r="V16" s="31">
         <f t="shared" si="16"/>
-        <v>-83.167538856731781</v>
+        <v>-80.660367771878882</v>
       </c>
       <c r="W16" s="31">
         <f t="shared" si="16"/>
-        <v>-99.80104662807814</v>
+        <v>-100.82545971484861</v>
       </c>
       <c r="X16" s="31">
         <f t="shared" si="16"/>
-        <v>-116.4345543994245</v>
+        <v>-120.99055165781832</v>
       </c>
       <c r="Y16" s="31">
         <f t="shared" si="16"/>
-        <v>-133.06806217077084</v>
+        <v>-141.15564360078804</v>
       </c>
       <c r="Z16" s="31">
         <f t="shared" ref="Z16" si="17">$I$16*100*($I$6-$I$5*T10)</f>
-        <v>-149.7015699421172</v>
+        <v>-161.32073554375776</v>
       </c>
       <c r="AA16" s="31">
         <f t="shared" ref="AA16" si="18">$I$16*100*($I$6-$I$5*U10)</f>
-        <v>-166.33507771346356</v>
+        <v>-181.48582748672749</v>
       </c>
       <c r="AB16" s="31">
         <f t="shared" ref="AB16" si="19">$I$16*100*($I$6-$I$5*V10)</f>
-        <v>-182.96858548480992</v>
+        <v>-201.65091942969721</v>
       </c>
       <c r="AC16" s="31">
         <f t="shared" ref="AC16" si="20">$I$16*100*($I$6-$I$5*W10)</f>
-        <v>-199.60209325615628</v>
+        <v>-221.81601137266694</v>
       </c>
     </row>
     <row r="17" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4056,22 +4057,22 @@
       </c>
       <c r="C17" s="10">
         <f t="shared" si="12"/>
-        <v>6.8535260697760017E-2</v>
+        <v>3.647809685775999E-2</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" si="13"/>
-        <v>137.07052139552002</v>
+        <v>109.43429057327995</v>
       </c>
       <c r="E17" s="9">
         <f>IF(B17=0,0,$E$6+($E$7*($E$10-6)))</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H17" s="34">
         <v>7</v>
       </c>
       <c r="I17" s="30">
         <f t="shared" si="8"/>
-        <v>0.17942010382692272</v>
+        <v>6.9670392662960379E-2</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -4081,59 +4082,59 @@
       <c r="O17" s="3"/>
       <c r="P17" s="31">
         <f>I6*I17*100</f>
-        <v>53.826031148076815</v>
+        <v>83.604471195552449</v>
       </c>
       <c r="Q17" s="31">
         <f>I17*100*(I6-I5)</f>
-        <v>26.913015574038404</v>
+        <v>55.736314130368299</v>
       </c>
       <c r="R17" s="31">
         <f t="shared" ref="R17:Y17" si="21">$I$17*100*($I$6-$I$5*K10)</f>
-        <v>0</v>
+        <v>27.86815706518415</v>
       </c>
       <c r="S17" s="31">
         <f t="shared" si="21"/>
-        <v>-26.913015574038404</v>
+        <v>0</v>
       </c>
       <c r="T17" s="31">
         <f t="shared" si="21"/>
-        <v>-53.826031148076808</v>
+        <v>-27.86815706518415</v>
       </c>
       <c r="U17" s="31">
         <f t="shared" si="21"/>
-        <v>-80.739046722115219</v>
+        <v>-55.736314130368299</v>
       </c>
       <c r="V17" s="31">
         <f t="shared" si="21"/>
-        <v>-107.65206229615362</v>
+        <v>-83.604471195552449</v>
       </c>
       <c r="W17" s="31">
         <f t="shared" si="21"/>
-        <v>-134.56507787019203</v>
+        <v>-111.4726282607366</v>
       </c>
       <c r="X17" s="31">
         <f t="shared" si="21"/>
-        <v>-161.47809344423044</v>
+        <v>-139.34078532592076</v>
       </c>
       <c r="Y17" s="31">
         <f t="shared" si="21"/>
-        <v>-188.39110901826885</v>
+        <v>-167.2089423911049</v>
       </c>
       <c r="Z17" s="31">
         <f t="shared" ref="Z17" si="22">$I$17*100*($I$6-$I$5*S10)</f>
-        <v>-215.30412459230723</v>
+        <v>-195.07709945628903</v>
       </c>
       <c r="AA17" s="31">
         <f t="shared" ref="AA17" si="23">$I$17*100*($I$6-$I$5*T10)</f>
-        <v>-242.21714016634564</v>
+        <v>-222.9452565214732</v>
       </c>
       <c r="AB17" s="31">
         <f t="shared" ref="AB17" si="24">$I$17*100*($I$6-$I$5*U10)</f>
-        <v>-269.13015574038405</v>
+        <v>-250.81341358665736</v>
       </c>
       <c r="AC17" s="31">
         <f t="shared" ref="AC17" si="25">$I$17*100*($I$6-$I$5*V10)</f>
-        <v>-296.04317131442247</v>
+        <v>-278.68157065184153</v>
       </c>
     </row>
     <row r="18" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4143,22 +4144,22 @@
       </c>
       <c r="C18" s="10">
         <f t="shared" si="12"/>
-        <v>0.11089005180897571</v>
+        <v>5.0412729857424302E-2</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="13"/>
-        <v>199.60209325615628</v>
+        <v>141.15564360078804</v>
       </c>
       <c r="E18" s="9">
         <f>IF(B18=0,0,($E$7*($E$10-6)))</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H18" s="34">
         <v>8</v>
       </c>
       <c r="I18" s="30">
         <f t="shared" si="8"/>
-        <v>0.29030172799196097</v>
+        <v>9.6284482660211237E-2</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -4169,55 +4170,55 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="31">
         <f>I6*I18*100</f>
-        <v>87.090518397588284</v>
+        <v>115.54137919225349</v>
       </c>
       <c r="R18" s="31">
         <f>I18*100*(I6-I5)</f>
-        <v>43.545259198794149</v>
+        <v>77.027586128168991</v>
       </c>
       <c r="S18" s="31">
         <f t="shared" ref="S18:Y18" si="26">$I$18*100*($I$6-$I$5*K10)</f>
-        <v>0</v>
+        <v>38.513793064084496</v>
       </c>
       <c r="T18" s="31">
         <f t="shared" si="26"/>
-        <v>-43.545259198794149</v>
+        <v>0</v>
       </c>
       <c r="U18" s="31">
         <f t="shared" si="26"/>
-        <v>-87.090518397588298</v>
+        <v>-38.513793064084496</v>
       </c>
       <c r="V18" s="31">
         <f t="shared" si="26"/>
-        <v>-130.63577759638244</v>
+        <v>-77.027586128168991</v>
       </c>
       <c r="W18" s="31">
         <f t="shared" si="26"/>
-        <v>-174.1810367951766</v>
+        <v>-115.54137919225349</v>
       </c>
       <c r="X18" s="31">
         <f t="shared" si="26"/>
-        <v>-217.72629599397072</v>
+        <v>-154.05517225633798</v>
       </c>
       <c r="Y18" s="31">
         <f t="shared" si="26"/>
-        <v>-261.27155519276488</v>
+        <v>-192.56896532042248</v>
       </c>
       <c r="Z18" s="31">
         <f t="shared" ref="Z18" si="27">$I$18*100*($I$6-$I$5*R10)</f>
-        <v>-304.81681439155903</v>
+        <v>-231.08275838450697</v>
       </c>
       <c r="AA18" s="31">
         <f t="shared" ref="AA18" si="28">$I$18*100*($I$6-$I$5*S10)</f>
-        <v>-348.36207359035319</v>
+        <v>-269.59655144859147</v>
       </c>
       <c r="AB18" s="31">
         <f t="shared" ref="AB18" si="29">$I$18*100*($I$6-$I$5*T10)</f>
-        <v>-391.90733278914735</v>
+        <v>-308.11034451267597</v>
       </c>
       <c r="AC18" s="31">
         <f t="shared" ref="AC18" si="30">$I$18*100*($I$6-$I$5*U10)</f>
-        <v>-435.45259198794145</v>
+        <v>-346.62413757676046</v>
       </c>
     </row>
     <row r="19" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4227,22 +4228,22 @@
       </c>
       <c r="C19" s="10">
         <f t="shared" si="12"/>
-        <v>0.17942010382692272</v>
+        <v>6.9670392662960379E-2</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" si="13"/>
-        <v>287.07216612307633</v>
+        <v>181.14302092369698</v>
       </c>
       <c r="E19" s="9">
         <f>IF(B19=0,0,($E$7*($E$10-7)))</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H19" s="34">
         <v>9</v>
       </c>
       <c r="I19" s="30">
         <f t="shared" si="8"/>
-        <v>0.46970819589099289</v>
+        <v>0.13306515503641192</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -4254,51 +4255,51 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="31">
         <f>I6*I19*100</f>
-        <v>140.91245876729786</v>
+        <v>159.6781860436943</v>
       </c>
       <c r="S19" s="31">
         <f>I19*100*(I6-I5)</f>
-        <v>70.456229383648932</v>
+        <v>106.45212402912954</v>
       </c>
       <c r="T19" s="31">
         <f t="shared" ref="T19:Y19" si="31">$I$19*100*($I$6-$I$5*K10)</f>
-        <v>0</v>
+        <v>53.226062014564768</v>
       </c>
       <c r="U19" s="31">
         <f t="shared" si="31"/>
-        <v>-70.456229383648932</v>
+        <v>0</v>
       </c>
       <c r="V19" s="31">
         <f t="shared" si="31"/>
-        <v>-140.91245876729786</v>
+        <v>-53.226062014564768</v>
       </c>
       <c r="W19" s="31">
         <f t="shared" si="31"/>
-        <v>-211.36868815094678</v>
+        <v>-106.45212402912954</v>
       </c>
       <c r="X19" s="31">
         <f t="shared" si="31"/>
-        <v>-281.82491753459573</v>
+        <v>-159.6781860436943</v>
       </c>
       <c r="Y19" s="31">
         <f t="shared" si="31"/>
-        <v>-352.28114691824464</v>
+        <v>-212.90424805825907</v>
       </c>
       <c r="Z19" s="31">
         <f t="shared" ref="Z19" si="32">$I$19*100*($I$6-$I$5*Q10)</f>
-        <v>-422.73737630189356</v>
+        <v>-266.13031007282382</v>
       </c>
       <c r="AA19" s="31">
         <f t="shared" ref="AA19" si="33">$I$19*100*($I$6-$I$5*R10)</f>
-        <v>-493.19360568554248</v>
+        <v>-319.35637208738859</v>
       </c>
       <c r="AB19" s="31">
         <f t="shared" ref="AB19" si="34">$I$19*100*($I$6-$I$5*S10)</f>
-        <v>-563.64983506919145</v>
+        <v>-372.58243410195337</v>
       </c>
       <c r="AC19" s="31">
         <f t="shared" ref="AC19" si="35">$I$19*100*($I$6-$I$5*T10)</f>
-        <v>-634.10606445284031</v>
+        <v>-425.80849611651814</v>
       </c>
     </row>
     <row r="20" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4308,22 +4309,22 @@
       </c>
       <c r="C20" s="10">
         <f t="shared" si="12"/>
-        <v>0.29030172799196097</v>
+        <v>9.6284482660211237E-2</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="13"/>
-        <v>406.42241918874538</v>
+        <v>231.08275838450697</v>
       </c>
       <c r="E20" s="9">
         <f>IF(B20=0,0,($E$7*($E$10-8)))</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H20" s="34">
         <v>10</v>
       </c>
       <c r="I20" s="30">
         <f t="shared" si="8"/>
-        <v>0.75998786095162651</v>
+        <v>0.18389604426032125</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -4336,47 +4337,47 @@
       <c r="R20" s="3"/>
       <c r="S20" s="31">
         <f>I6*I20*100</f>
-        <v>227.99635828548793</v>
+        <v>220.67525311238549</v>
       </c>
       <c r="T20" s="31">
         <f>I20*100*(I6-I5)</f>
-        <v>113.99817914274399</v>
+        <v>147.116835408257</v>
       </c>
       <c r="U20" s="31">
         <f>$I$20*100*($I$6-$I$5*K10)</f>
-        <v>0</v>
+        <v>73.558417704128502</v>
       </c>
       <c r="V20" s="31">
         <f>$I$20*100*($I$6-$I$5*L10)</f>
-        <v>-113.99817914274399</v>
+        <v>0</v>
       </c>
       <c r="W20" s="31">
         <f>$I$20*100*($I$6-$I$5*M10)</f>
-        <v>-227.99635828548799</v>
+        <v>-73.558417704128502</v>
       </c>
       <c r="X20" s="31">
         <f>$I$20*100*($I$6-$I$5*N10)</f>
-        <v>-341.99453742823198</v>
+        <v>-147.116835408257</v>
       </c>
       <c r="Y20" s="31">
         <f>$I$20*100*($I$6-$I$5*O10)</f>
-        <v>-455.99271657097597</v>
+        <v>-220.67525311238552</v>
       </c>
       <c r="Z20" s="31">
         <f t="shared" ref="Z20:AC20" si="36">$I$20*100*($I$6-$I$5*P10)</f>
-        <v>-569.99089571371996</v>
+        <v>-294.23367081651401</v>
       </c>
       <c r="AA20" s="31">
         <f t="shared" si="36"/>
-        <v>-683.98907485646396</v>
+        <v>-367.79208852064249</v>
       </c>
       <c r="AB20" s="31">
         <f t="shared" si="36"/>
-        <v>-797.98725399920795</v>
+        <v>-441.35050622477104</v>
       </c>
       <c r="AC20" s="31">
         <f t="shared" si="36"/>
-        <v>-911.98543314195194</v>
+        <v>-514.90892392889953</v>
       </c>
     </row>
     <row r="21" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4386,22 +4387,22 @@
       </c>
       <c r="C21" s="10">
         <f t="shared" si="12"/>
-        <v>0.46970819589099289</v>
+        <v>0.13306515503641192</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="13"/>
-        <v>563.64983506919145</v>
+        <v>292.74334108010623</v>
       </c>
       <c r="E21" s="9">
         <f>IF(B21=0,0,($E$7*($E$10-9)))</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H21" s="34">
         <v>11</v>
       </c>
       <c r="I21" s="30">
         <f t="shared" si="8"/>
-        <v>1.2296603590197317</v>
+        <v>0.25414433316776397</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -4415,43 +4416,43 @@
       <c r="S21" s="3"/>
       <c r="T21" s="32">
         <f>I6*I21*100</f>
-        <v>368.89810770591953</v>
+        <v>304.97319980131675</v>
       </c>
       <c r="U21" s="32">
         <f>I21*100*(I6-I5)</f>
-        <v>184.44905385295976</v>
+        <v>203.31546653421117</v>
       </c>
       <c r="V21" s="32">
         <f>$I$21*100*($I$6-$I$5*K10)</f>
-        <v>0</v>
+        <v>101.65773326710558</v>
       </c>
       <c r="W21" s="32">
         <f>$I$21*100*($I$6-$I$5*L10)</f>
-        <v>-184.44905385295976</v>
+        <v>0</v>
       </c>
       <c r="X21" s="32">
         <f>$I$21*100*($I$6-$I$5*M10)</f>
-        <v>-368.89810770591953</v>
+        <v>-101.65773326710558</v>
       </c>
       <c r="Y21" s="32">
         <f>$I$21*100*($I$6-$I$5*N10)</f>
-        <v>-553.34716155887929</v>
+        <v>-203.31546653421117</v>
       </c>
       <c r="Z21" s="32">
         <f t="shared" ref="Z21:AC21" si="37">$I$21*100*($I$6-$I$5*O10)</f>
-        <v>-737.79621541183906</v>
+        <v>-304.97319980131675</v>
       </c>
       <c r="AA21" s="32">
         <f t="shared" si="37"/>
-        <v>-922.24526926479882</v>
+        <v>-406.63093306842234</v>
       </c>
       <c r="AB21" s="32">
         <f t="shared" si="37"/>
-        <v>-1106.6943231177586</v>
+        <v>-508.28866633552792</v>
       </c>
       <c r="AC21" s="32">
         <f t="shared" si="37"/>
-        <v>-1291.1433769707182</v>
+        <v>-609.94639960263351</v>
       </c>
     </row>
     <row r="22" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4461,22 +4462,22 @@
       </c>
       <c r="C22" s="10">
         <f t="shared" si="12"/>
-        <v>0.75998786095162651</v>
+        <v>0.18389604426032125</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="13"/>
-        <v>759.98786095162654</v>
+        <v>367.79208852064249</v>
       </c>
       <c r="E22" s="9">
         <f>IF(B22=0,0,($E$7*($E$10-10)))</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H22" s="34">
         <v>12</v>
       </c>
       <c r="I22" s="30">
         <f t="shared" si="8"/>
-        <v>1.9895904608939261</v>
+        <v>0.3512274684378498</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -4491,39 +4492,39 @@
       <c r="T22" s="32"/>
       <c r="U22" s="32">
         <f>I6*I22*100</f>
-        <v>596.87713826817776</v>
+        <v>421.47296212541977</v>
       </c>
       <c r="V22" s="32">
         <f>I22*100*(I6-I5)</f>
-        <v>298.43856913408894</v>
+        <v>280.98197475027985</v>
       </c>
       <c r="W22" s="32">
         <f>$I$22*100*($I$6-$I$5*K10)</f>
-        <v>0</v>
+        <v>140.49098737513992</v>
       </c>
       <c r="X22" s="32">
         <f>$I$22*100*($I$6-$I$5*L10)</f>
-        <v>-298.43856913408894</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="32">
         <f>$I$22*100*($I$6-$I$5*M10)</f>
-        <v>-596.87713826817787</v>
+        <v>-140.49098737513992</v>
       </c>
       <c r="Z22" s="32">
         <f t="shared" ref="Z22:AC22" si="38">$I$22*100*($I$6-$I$5*N10)</f>
-        <v>-895.31570740226675</v>
+        <v>-280.98197475027985</v>
       </c>
       <c r="AA22" s="32">
         <f t="shared" si="38"/>
-        <v>-1193.7542765363557</v>
+        <v>-421.47296212541977</v>
       </c>
       <c r="AB22" s="32">
         <f t="shared" si="38"/>
-        <v>-1492.1928456704445</v>
+        <v>-561.96394950055969</v>
       </c>
       <c r="AC22" s="32">
         <f t="shared" si="38"/>
-        <v>-1790.6314148045335</v>
+        <v>-702.45493687569956</v>
       </c>
     </row>
     <row r="23" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4533,22 +4534,22 @@
       </c>
       <c r="C23" s="10">
         <f t="shared" si="12"/>
-        <v>1.2296603590197317</v>
+        <v>0.25414433316776397</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" si="13"/>
-        <v>983.72828721578537</v>
+        <v>457.4597997019751</v>
       </c>
       <c r="E23" s="9">
         <f>IF(B23=0,0,($E$7*($E$10-11)))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H23" s="34">
         <v>13</v>
       </c>
       <c r="I23" s="30">
         <f t="shared" si="8"/>
-        <v>3.2191573657263728</v>
+        <v>0.48539636138110837</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -4564,35 +4565,35 @@
       <c r="U23" s="32"/>
       <c r="V23" s="32">
         <f>I6*I23*100</f>
-        <v>965.7472097179118</v>
+        <v>582.47563365733004</v>
       </c>
       <c r="W23" s="32">
         <f>I23*100*(I6-I5)</f>
-        <v>482.8736048589559</v>
+        <v>388.31708910488669</v>
       </c>
       <c r="X23" s="32">
         <f>$I$23*100*($I$6-$I$5*K10)</f>
-        <v>0</v>
+        <v>194.15854455244335</v>
       </c>
       <c r="Y23" s="32">
         <f>$I$23*100*($I$6-$I$5*L10)</f>
-        <v>-482.8736048589559</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="32">
         <f t="shared" ref="Z23:AC23" si="39">$I$23*100*($I$6-$I$5*M10)</f>
-        <v>-965.7472097179118</v>
+        <v>-194.15854455244335</v>
       </c>
       <c r="AA23" s="32">
         <f t="shared" si="39"/>
-        <v>-1448.6208145768678</v>
+        <v>-388.31708910488669</v>
       </c>
       <c r="AB23" s="32">
         <f t="shared" si="39"/>
-        <v>-1931.4944194358236</v>
+        <v>-582.47563365733004</v>
       </c>
       <c r="AC23" s="32">
         <f t="shared" si="39"/>
-        <v>-2414.3680242947798</v>
+        <v>-776.63417820977338</v>
       </c>
     </row>
     <row r="24" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4602,22 +4603,22 @@
       </c>
       <c r="C24" s="10">
         <f t="shared" si="12"/>
-        <v>1.9895904608939261</v>
+        <v>0.3512274684378498</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="13"/>
-        <v>1193.7542765363555</v>
+        <v>561.96394950055969</v>
       </c>
       <c r="E24" s="9">
         <f>IF(B24=0,0,($E$7*($E$10-12)))</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H24" s="34">
         <v>14</v>
       </c>
       <c r="I24" s="30">
         <f t="shared" si="8"/>
-        <v>5.2085966177452718</v>
+        <v>0.6708177714286917</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -4634,31 +4635,31 @@
       <c r="V24" s="32"/>
       <c r="W24" s="32">
         <f>I6*I24*100</f>
-        <v>1562.5789853235815</v>
+        <v>804.98132571443011</v>
       </c>
       <c r="X24" s="32">
         <f>I24*100*(I6-I5)</f>
-        <v>781.28949266179086</v>
+        <v>536.65421714295337</v>
       </c>
       <c r="Y24" s="32">
         <f>$I$24*100*($I$6-$I$5*K10)</f>
-        <v>0</v>
+        <v>268.32710857147669</v>
       </c>
       <c r="Z24" s="32">
         <f t="shared" ref="Z24:AC24" si="40">$I$24*100*($I$6-$I$5*L10)</f>
-        <v>-781.28949266179086</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="32">
         <f t="shared" si="40"/>
-        <v>-1562.5789853235817</v>
+        <v>-268.32710857147669</v>
       </c>
       <c r="AB24" s="32">
         <f t="shared" si="40"/>
-        <v>-2343.8684779853725</v>
+        <v>-536.65421714295337</v>
       </c>
       <c r="AC24" s="32">
         <f t="shared" si="40"/>
-        <v>-3125.1579706471634</v>
+        <v>-804.98132571443011</v>
       </c>
     </row>
     <row r="25" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4668,22 +4669,22 @@
       </c>
       <c r="C25" s="10">
         <f t="shared" si="12"/>
-        <v>3.2191573657263728</v>
+        <v>0.48539636138110837</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" si="13"/>
-        <v>1287.6629462905491</v>
+        <v>679.55490593355171</v>
       </c>
       <c r="E25" s="9">
         <f>IF(B25=0,0,($E$7*($E$10-13)))</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H25" s="34">
         <v>15</v>
       </c>
       <c r="I25" s="30">
         <f t="shared" si="8"/>
-        <v>8.4275093275118511</v>
+        <v>0.92707016011445187</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -4701,27 +4702,27 @@
       <c r="W25" s="32"/>
       <c r="X25" s="32">
         <f>I6*I25*100</f>
-        <v>2528.2527982535557</v>
+        <v>1112.4841921373422</v>
       </c>
       <c r="Y25" s="32">
         <f>I25*100*(I6-I5)</f>
-        <v>1264.1263991267776</v>
+        <v>741.65612809156153</v>
       </c>
       <c r="Z25" s="32">
         <f>$I$25*100*($I$6-$I$5*K10)</f>
-        <v>0</v>
+        <v>370.82806404578076</v>
       </c>
       <c r="AA25" s="32">
         <f>$I$25*100*($I$6-$I$5*L10)</f>
-        <v>-1264.1263991267776</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="32">
         <f>$I$25*100*($I$6-$I$5*M10)</f>
-        <v>-2528.2527982535553</v>
+        <v>-370.82806404578076</v>
       </c>
       <c r="AC25" s="32">
         <f>$I$25*100*($I$6-$I$5*N10)</f>
-        <v>-3792.3791973803332</v>
+        <v>-741.65612809156153</v>
       </c>
     </row>
     <row r="26" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4731,22 +4732,22 @@
       </c>
       <c r="C26" s="10">
         <f t="shared" si="12"/>
-        <v>5.2085966177452718</v>
+        <v>0.6708177714286917</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" si="13"/>
-        <v>1041.7193235490545</v>
+        <v>804.98132571443011</v>
       </c>
       <c r="E26" s="9">
         <f>IF(B26=0,0,($E$7*($E$10-14)))</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H26" s="34">
         <v>16</v>
       </c>
       <c r="I26" s="30">
         <f t="shared" si="8"/>
-        <v>13.635710091914175</v>
+        <v>1.2812109612781724</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -4765,23 +4766,23 @@
       <c r="X26" s="32"/>
       <c r="Y26" s="32">
         <f>I26*I6*100</f>
-        <v>4090.7130275742525</v>
+        <v>1537.4531535338069</v>
       </c>
       <c r="Z26" s="32">
         <f>$I$26*100*($I$6-$I$5)</f>
-        <v>2045.3565137871262</v>
+        <v>1024.9687690225378</v>
       </c>
       <c r="AA26" s="32">
         <f>$I$26*100*($I$6-$I$5*K10)</f>
-        <v>0</v>
+        <v>512.4843845112689</v>
       </c>
       <c r="AB26" s="32">
         <f>$I$26*100*($I$6-$I$5*L10)</f>
-        <v>-2045.3565137871262</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="32">
         <f>$I$26*100*($I$6-$I$5*M10)</f>
-        <v>-4090.7130275742525</v>
+        <v>-512.4843845112689</v>
       </c>
     </row>
     <row r="27" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4791,162 +4792,162 @@
       </c>
       <c r="C27" s="10">
         <f t="shared" si="12"/>
-        <v>8.4275093275118511</v>
+        <v>0.92707016011445187</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>927.07016011445182</v>
       </c>
       <c r="E27" s="9">
         <f>IF(B27=0,0,($E$7*($E$10-15)))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H27" s="34">
         <v>17</v>
       </c>
       <c r="I27" s="30">
         <f t="shared" si="8"/>
-        <v>22.062578928717137</v>
+        <v>1.770633548486434</v>
       </c>
       <c r="Z27" s="32">
         <f>$I$27*$I$6*100</f>
-        <v>6618.7736786151418</v>
+        <v>2124.7602581837205</v>
       </c>
       <c r="AA27" s="32">
         <f>$I$27*100*($I$6-$I$5*J$10)</f>
-        <v>3309.3868393075709</v>
+        <v>1416.5068387891472</v>
       </c>
       <c r="AB27" s="32">
         <f t="shared" ref="AB27:AC27" si="41">$I$27*100*($I$6-$I$5*K$10)</f>
-        <v>0</v>
+        <v>708.2534193945736</v>
       </c>
       <c r="AC27" s="32">
         <f t="shared" si="41"/>
-        <v>-3309.3868393075709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="24">
+      <c r="B28" s="24" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>L16</v>
       </c>
       <c r="C28" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.2812109612781724</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1024.9687690225378</v>
       </c>
       <c r="E28" s="9">
         <f>IF(B28=0,0,($E$7*($E$10-16)))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H28" s="34">
         <v>18</v>
       </c>
       <c r="I28" s="30">
         <f t="shared" si="8"/>
-        <v>35.697252706664329</v>
+        <v>2.4470155640082516</v>
       </c>
       <c r="AA28" s="32">
         <f>$I$28*$I$6*100</f>
-        <v>10709.175811999299</v>
+        <v>2936.4186768099016</v>
       </c>
       <c r="AB28" s="32">
         <f>$I$28*100*($I$6-$I$5*J$10)</f>
-        <v>5354.5879059996496</v>
+        <v>1957.6124512066012</v>
       </c>
       <c r="AC28" s="32">
         <f>$I$28*100*($I$6-$I$5*K$10)</f>
-        <v>0</v>
+        <v>978.80622560330062</v>
       </c>
     </row>
     <row r="29" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="24">
+      <c r="B29" s="24" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>L17</v>
       </c>
       <c r="C29" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.770633548486434</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1062.3801290918602</v>
       </c>
       <c r="E29" s="9">
         <f>IF(B29=0,0,($E$7*($E$10-17)))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H29" s="34">
         <v>19</v>
       </c>
       <c r="I29" s="30">
         <f t="shared" si="8"/>
-        <v>57.758154879382886</v>
+        <v>3.3817755094594033</v>
       </c>
       <c r="AB29" s="32">
         <f>$I$29*$I$6*100</f>
-        <v>17327.446463814867</v>
+        <v>4058.1306113512837</v>
       </c>
       <c r="AC29" s="32">
         <f>$I$29*100*($I$6-$I$5*J$10)</f>
-        <v>8663.7232319074319</v>
+        <v>2705.4204075675225</v>
       </c>
     </row>
     <row r="30" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="24">
+      <c r="B30" s="24" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>L18</v>
       </c>
       <c r="C30" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.4470155640082516</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>978.80622560330062</v>
       </c>
       <c r="E30" s="9">
         <f>IF(B30=0,0,($E$7*($E$10-18)))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H30" s="34">
         <v>20</v>
       </c>
       <c r="I30" s="30">
         <f t="shared" si="8"/>
-        <v>93.452694594841518</v>
+        <v>4.6736137540728953</v>
       </c>
       <c r="AC30" s="32">
         <f>$I$30*$I$6*100</f>
-        <v>28035.808378452453</v>
+        <v>5608.3365048874739</v>
       </c>
     </row>
     <row r="31" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="24">
+      <c r="B31" s="24" t="str">
         <f>IF(B30=0,0,IF(VALUE(MID(B30,2,2))&gt;=$E$10,0,"L"&amp;VALUE(MID(B30,2,2))+1))</f>
-        <v>0</v>
+        <v>L19</v>
       </c>
       <c r="C31" s="10">
         <f>IF(B31&lt;&gt;0,C30*$E$9,0)</f>
-        <v>0</v>
+        <v>3.3817755094594033</v>
       </c>
       <c r="D31" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>676.35510189188062</v>
       </c>
       <c r="E31" s="9">
         <f>IF(B31=0,0,($E$7*($E$10-19)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" s="36" t="s">
         <v>46</v>
       </c>
       <c r="I31" s="41">
         <f>SUM(I11:I26)</f>
-        <v>35.683784674299567</v>
+        <v>4.6089883468231267</v>
       </c>
       <c r="J31" s="37">
         <f>SUMIF(J11:J30, "&lt;0")</f>
@@ -4962,81 +4963,81 @@
       </c>
       <c r="M31" s="37">
         <f t="shared" si="42"/>
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="N31" s="37">
         <f t="shared" si="42"/>
-        <v>-5.4269999999999996</v>
+        <v>-4</v>
       </c>
       <c r="O31" s="37">
         <f t="shared" si="42"/>
-        <v>-13.280885999999999</v>
+        <v>-13.527999999999999</v>
       </c>
       <c r="P31" s="37">
         <f t="shared" si="42"/>
-        <v>-27.488473547999998</v>
+        <v>-30.695695999999998</v>
       </c>
       <c r="Q31" s="37">
         <f t="shared" si="42"/>
-        <v>-51.976350200664001</v>
+        <v>-58.421451872000006</v>
       </c>
       <c r="R31" s="37">
         <f t="shared" si="42"/>
-        <v>-93.097734624674359</v>
+        <v>-100.73844648710399</v>
       </c>
       <c r="S31" s="37">
         <f t="shared" si="42"/>
-        <v>-161.13213462272313</v>
+        <v>-163.22053304517769</v>
       </c>
       <c r="T31" s="37">
         <f t="shared" si="42"/>
-        <v>-272.71179381956603</v>
+        <v>-253.57077666843554</v>
       </c>
       <c r="U31" s="37">
         <f t="shared" si="42"/>
-        <v>-454.7476824000579</v>
+        <v>-382.43481335577786</v>
       </c>
       <c r="V31" s="37">
         <f t="shared" si="42"/>
-        <v>-750.7817501232937</v>
+        <v>-564.52491205768501</v>
       </c>
       <c r="W31" s="37">
         <f t="shared" si="42"/>
-        <v>-1231.2648716994895</v>
+        <v>-820.1734284637206</v>
       </c>
       <c r="X31" s="37">
         <f t="shared" si="42"/>
-        <v>-2010.1865624097738</v>
+        <v>-1177.4796781368618</v>
       </c>
       <c r="Y31" s="37">
         <f t="shared" si="42"/>
-        <v>-3271.981857979014</v>
+        <v>-1675.276915185143</v>
       </c>
       <c r="Z31" s="37">
         <f t="shared" si="42"/>
-        <v>-5315.0666462100453</v>
+        <v>-2367.2326967858671</v>
       </c>
       <c r="AA31" s="37">
         <f t="shared" si="42"/>
-        <v>-8622.277833567854</v>
+        <v>-3327.5155869580685</v>
       </c>
       <c r="AB31" s="37">
         <f t="shared" si="42"/>
-        <v>-13974.845534712789</v>
+        <v>-4658.6265411760505</v>
       </c>
       <c r="AC31" s="37">
         <f t="shared" si="42"/>
-        <v>-22636.800075165294</v>
+        <v>-6502.2218799053016</v>
       </c>
     </row>
     <row r="32" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="24">
+      <c r="B32" s="24" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>L20</v>
       </c>
       <c r="C32" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4.6736137540728953</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" si="13"/>
@@ -5051,83 +5052,83 @@
       </c>
       <c r="J32" s="124">
         <f t="shared" ref="J32:AC32" si="44">SUM(J11:J30)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K32" s="124">
         <f t="shared" si="44"/>
-        <v>6.3539999999999992</v>
+        <v>24.584</v>
       </c>
       <c r="L32" s="124">
         <f t="shared" si="44"/>
-        <v>10.280772000000001</v>
+        <v>37.975087999999992</v>
       </c>
       <c r="M32" s="124">
         <f t="shared" si="44"/>
-        <v>15.134289096</v>
+        <v>52.481571615999989</v>
       </c>
       <c r="N32" s="124">
         <f t="shared" si="44"/>
-        <v>21.487279757328007</v>
+        <v>68.529531973311975</v>
       </c>
       <c r="O32" s="124">
         <f t="shared" si="44"/>
-        <v>30.266418647356716</v>
+        <v>86.707813187117154</v>
       </c>
       <c r="P32" s="124">
         <f t="shared" si="44"/>
-        <v>42.971065371423173</v>
+        <v>107.83019782459588</v>
       </c>
       <c r="Q32" s="124">
         <f t="shared" si="44"/>
-        <v>62.027183770962687</v>
+        <v>133.0213333935915</v>
       </c>
       <c r="R32" s="124">
         <f t="shared" si="44"/>
-        <v>91.35998334141766</v>
+        <v>163.83548274994345</v>
       </c>
       <c r="S32" s="124">
         <f t="shared" si="44"/>
-        <v>137.32045304641372</v>
+        <v>202.42063716042185</v>
       </c>
       <c r="T32" s="124">
         <f t="shared" si="44"/>
-        <v>210.1844930290975</v>
+        <v>251.74532055570299</v>
       </c>
       <c r="U32" s="124">
         <f t="shared" si="44"/>
-        <v>326.57850972107963</v>
+        <v>315.91203300798156</v>
       </c>
       <c r="V32" s="124">
         <f t="shared" si="44"/>
-        <v>513.40402872870709</v>
+        <v>400.59042961703045</v>
       </c>
       <c r="W32" s="124">
         <f t="shared" si="44"/>
-        <v>814.18771848304789</v>
+        <v>513.61597373073619</v>
       </c>
       <c r="X32" s="124">
         <f t="shared" si="44"/>
-        <v>1299.3557285055726</v>
+        <v>665.81727569587713</v>
       </c>
       <c r="Y32" s="124">
         <f t="shared" si="44"/>
-        <v>2082.8575687220164</v>
+        <v>872.15947501170206</v>
       </c>
       <c r="Z32" s="124">
         <f t="shared" si="44"/>
-        <v>3349.0635461922229</v>
+        <v>1153.324394466172</v>
       </c>
       <c r="AA32" s="124">
         <f t="shared" si="44"/>
-        <v>5396.284817739016</v>
+        <v>1537.8943131522494</v>
       </c>
       <c r="AB32" s="124">
         <f t="shared" si="44"/>
-        <v>8707.1888351017278</v>
+        <v>2065.3699407764079</v>
       </c>
       <c r="AC32" s="124">
         <f t="shared" si="44"/>
-        <v>14062.731535194591</v>
+        <v>2790.3412581529956</v>
       </c>
     </row>
     <row r="33" spans="2:30" ht="16.8" x14ac:dyDescent="0.3">
@@ -5157,79 +5158,79 @@
       </c>
       <c r="K33" s="39">
         <f>SUM($I11:$I12)</f>
-        <v>2.6180000000000002E-2</v>
+        <v>2.3820000000000001E-2</v>
       </c>
       <c r="L33" s="39">
         <f>SUM($I11:$I13)</f>
-        <v>5.2359240000000001E-2</v>
+        <v>4.2919239999999997E-2</v>
       </c>
       <c r="M33" s="39">
         <f>SUM($I11:$I14)</f>
-        <v>9.4717250320000002E-2</v>
+        <v>6.9314389679999991E-2</v>
       </c>
       <c r="N33" s="39">
         <f>SUM($I11:$I15)</f>
-        <v>0.16325251101776</v>
+        <v>0.10579248653775998</v>
       </c>
       <c r="O33" s="39">
         <f>SUM($I11:$I16)</f>
-        <v>0.27414256282673571</v>
+        <v>0.15620521639518428</v>
       </c>
       <c r="P33" s="39">
         <f>SUM($I11:$I17)</f>
-        <v>0.45356266665365841</v>
+        <v>0.22587560905814466</v>
       </c>
       <c r="Q33" s="39">
         <f>SUM($I11:$I18)</f>
-        <v>0.74386439464561938</v>
+        <v>0.32216009171835591</v>
       </c>
       <c r="R33" s="39">
         <f>SUM($I11:$I19)</f>
-        <v>1.2135725905366122</v>
+        <v>0.45522524675476783</v>
       </c>
       <c r="S33" s="39">
         <f>SUM($I11:$I20)</f>
-        <v>1.9735604514882388</v>
+        <v>0.63912129101508908</v>
       </c>
       <c r="T33" s="39">
         <f>SUM($I11:$I21)</f>
-        <v>3.2032208105079705</v>
+        <v>0.89326562418285305</v>
       </c>
       <c r="U33" s="39">
         <f>SUM($I11:$I22)</f>
-        <v>5.1928112714018964</v>
+        <v>1.244493092620703</v>
       </c>
       <c r="V33" s="39">
         <f>SUM($I11:$I23)</f>
-        <v>8.4119686371282683</v>
+        <v>1.7298894540018113</v>
       </c>
       <c r="W33" s="39">
         <f>SUM($I11:$I24)</f>
-        <v>13.62056525487354</v>
+        <v>2.4007072254305029</v>
       </c>
       <c r="X33" s="39">
         <f>SUM($I11:$I25)</f>
-        <v>22.048074582385389</v>
+        <v>3.3277773855449548</v>
       </c>
       <c r="Y33" s="39">
         <f>SUM($I11:$I26)</f>
-        <v>35.683784674299567</v>
+        <v>4.6089883468231267</v>
       </c>
       <c r="Z33" s="39">
         <f>SUM($I11:$I27)</f>
-        <v>57.746363603016704</v>
+        <v>6.3796218953095609</v>
       </c>
       <c r="AA33" s="39">
         <f>SUM($I11:$I28)</f>
-        <v>93.443616309681033</v>
+        <v>8.8266374593178121</v>
       </c>
       <c r="AB33" s="39">
         <f>SUM($I11:$I29)</f>
-        <v>151.20177118906392</v>
+        <v>12.208412968777216</v>
       </c>
       <c r="AC33" s="39">
         <f>SUM($I11:$I30)</f>
-        <v>244.65446578390544</v>
+        <v>16.88202672285011</v>
       </c>
     </row>
     <row r="34" spans="2:30" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -5256,95 +5257,95 @@
       </c>
       <c r="C35" s="25">
         <f>SUM(C13:C34)</f>
-        <v>22.048074582385389</v>
+        <v>16.88202672285011</v>
       </c>
       <c r="D35" s="25">
         <f>SUM(D13:D34)</f>
-        <v>7086.7555282800604</v>
+        <v>8734.045404633569</v>
       </c>
       <c r="E35" s="26">
         <f>MAX(E13:E34)</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J35" s="5" t="str">
         <f t="shared" ref="J35:AB35" si="45">"iff(trade_no == "&amp;J10&amp;") return "&amp;ROUND(J32, 2)&amp;" ;"</f>
-        <v>iff(trade_no == 1) return 3 ;</v>
+        <v>iff(trade_no == 1) return 12 ;</v>
       </c>
       <c r="K35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 2) return 6.35 ;</v>
+        <v>iff(trade_no == 2) return 24.58 ;</v>
       </c>
       <c r="L35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 3) return 10.28 ;</v>
+        <v>iff(trade_no == 3) return 37.98 ;</v>
       </c>
       <c r="M35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 4) return 15.13 ;</v>
+        <v>iff(trade_no == 4) return 52.48 ;</v>
       </c>
       <c r="N35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 5) return 21.49 ;</v>
+        <v>iff(trade_no == 5) return 68.53 ;</v>
       </c>
       <c r="O35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 6) return 30.27 ;</v>
+        <v>iff(trade_no == 6) return 86.71 ;</v>
       </c>
       <c r="P35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 7) return 42.97 ;</v>
+        <v>iff(trade_no == 7) return 107.83 ;</v>
       </c>
       <c r="Q35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 8) return 62.03 ;</v>
+        <v>iff(trade_no == 8) return 133.02 ;</v>
       </c>
       <c r="R35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 9) return 91.36 ;</v>
+        <v>iff(trade_no == 9) return 163.84 ;</v>
       </c>
       <c r="S35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 10) return 137.32 ;</v>
+        <v>iff(trade_no == 10) return 202.42 ;</v>
       </c>
       <c r="T35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 11) return 210.18 ;</v>
+        <v>iff(trade_no == 11) return 251.75 ;</v>
       </c>
       <c r="U35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 12) return 326.58 ;</v>
+        <v>iff(trade_no == 12) return 315.91 ;</v>
       </c>
       <c r="V35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 13) return 513.4 ;</v>
+        <v>iff(trade_no == 13) return 400.59 ;</v>
       </c>
       <c r="W35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 14) return 814.19 ;</v>
+        <v>iff(trade_no == 14) return 513.62 ;</v>
       </c>
       <c r="X35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 15) return 1299.36 ;</v>
+        <v>iff(trade_no == 15) return 665.82 ;</v>
       </c>
       <c r="Y35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 16) return 2082.86 ;</v>
+        <v>iff(trade_no == 16) return 872.16 ;</v>
       </c>
       <c r="Z35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 17) return 3349.06 ;</v>
+        <v>iff(trade_no == 17) return 1153.32 ;</v>
       </c>
       <c r="AA35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 18) return 5396.28 ;</v>
+        <v>iff(trade_no == 18) return 1537.89 ;</v>
       </c>
       <c r="AB35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 19) return 8707.19 ;</v>
+        <v>iff(trade_no == 19) return 2065.37 ;</v>
       </c>
       <c r="AC35" s="5" t="str">
         <f>"iff(trade_no == "&amp;AC10&amp;") return "&amp;ROUND(AC32, 2)&amp;" ;"</f>
-        <v>iff(trade_no == 20) return 14062.73 ;</v>
+        <v>iff(trade_no == 20) return 2790.34 ;</v>
       </c>
     </row>
     <row r="36" spans="2:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7EB2D5-9F79-4EFE-A2E2-D7C0E0D5A0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1926F0B8-8FB3-4AE3-88D3-3DB9E5AD04F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,16 +378,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="13">
+  <numFmts count="11">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="0;\-0;;\ @"/>
     <numFmt numFmtId="180" formatCode="0.00;\-0.00;;\ @"/>
     <numFmt numFmtId="181" formatCode="#,##0.000"/>
     <numFmt numFmtId="182" formatCode="#,##0.000_);\(#,##0.000\)"/>
     <numFmt numFmtId="183" formatCode="#,##0.0"/>
-    <numFmt numFmtId="184" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="185" formatCode="#,##0_ "/>
     <numFmt numFmtId="186" formatCode="0.00000_ "/>
     <numFmt numFmtId="187" formatCode="#,##0.00000_);\(#,##0.00000\)"/>
@@ -1220,7 +1218,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1315,9 +1313,6 @@
     <xf numFmtId="4" fontId="18" fillId="15" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1344,9 +1339,6 @@
     </xf>
     <xf numFmtId="37" fontId="17" fillId="16" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1510,9 +1502,6 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="17" fillId="16" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="185" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="182" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1571,6 +1560,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2950,7 +2945,7 @@
   <dimension ref="B1:AD99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2982,29 +2977,29 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="2:29" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="54">
-        <v>2</v>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="130">
+        <v>6.2949999999999999</v>
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="128" t="s">
+      <c r="K2" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128" t="s">
+      <c r="L2" s="125"/>
+      <c r="M2" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128" t="s">
+      <c r="N2" s="125"/>
+      <c r="O2" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
       <c r="R2" s="40"/>
       <c r="S2" s="40"/>
       <c r="T2" s="40"/>
@@ -3015,37 +3010,37 @@
       <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="42">
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="131">
         <f>E2</f>
-        <v>2</v>
+        <v>6.2949999999999999</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
-      <c r="K3" s="125">
+      <c r="K3" s="122">
         <f>SUM('Bảng Input L30'!C13:C37)</f>
-        <v>33.76405344570022</v>
-      </c>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126">
+        <v>44.096149164770779</v>
+      </c>
+      <c r="L3" s="122"/>
+      <c r="M3" s="123">
         <f>K3*90</f>
-        <v>3038.7648101130198</v>
-      </c>
-      <c r="N3" s="126"/>
-      <c r="O3" s="127">
+        <v>3968.6534248293701</v>
+      </c>
+      <c r="N3" s="123"/>
+      <c r="O3" s="124">
         <f>M3+'Bảng Input L30'!D35</f>
-        <v>11772.810214746589</v>
-      </c>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="110">
+        <v>26274.216450090862</v>
+      </c>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="107">
         <f>O3*2</f>
-        <v>23545.620429493178</v>
+        <v>52548.432900181724</v>
       </c>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
@@ -3056,21 +3051,21 @@
       <c r="Y3" s="20"/>
     </row>
     <row r="4" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="42">
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="131">
         <f>E3</f>
-        <v>2</v>
+        <v>6.2949999999999999</v>
       </c>
       <c r="H4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="51">
         <f>E9</f>
-        <v>1.3819999999999999</v>
+        <v>1.6180000000000001</v>
       </c>
       <c r="J4" s="1">
         <v>1.3819999999999999</v>
@@ -3092,20 +3087,21 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="42">
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="131">
         <f>E4</f>
-        <v>2</v>
+        <v>6.2949999999999999</v>
       </c>
       <c r="H5" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="109">
-        <v>4</v>
+      <c r="I5" s="51">
+        <f>E2</f>
+        <v>6.2949999999999999</v>
       </c>
       <c r="J5" s="2">
         <v>1.6180000000000001</v>
@@ -3127,21 +3123,21 @@
       <c r="Y5" s="2"/>
     </row>
     <row r="6" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="42">
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="131">
         <f>E5</f>
-        <v>2</v>
+        <v>6.2949999999999999</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="109">
-        <f>I5*3</f>
-        <v>12</v>
+      <c r="I6" s="51">
+        <f>I5*J6</f>
+        <v>16.480309999999999</v>
       </c>
       <c r="J6" s="2">
         <v>2.6179999999999999</v>
@@ -3149,14 +3145,14 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="42">
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="131">
         <f>E6</f>
-        <v>2</v>
+        <v>6.2949999999999999</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -3165,88 +3161,88 @@
       </c>
       <c r="K7" s="38">
         <f>J7-I$5</f>
-        <v>2196</v>
+        <v>2193.7049999999999</v>
       </c>
       <c r="L7" s="38">
         <f t="shared" ref="L7:Y7" si="0">K7-$I$5</f>
-        <v>2192</v>
+        <v>2187.41</v>
       </c>
       <c r="M7" s="38">
         <f t="shared" si="0"/>
-        <v>2188</v>
+        <v>2181.1149999999998</v>
       </c>
       <c r="N7" s="38">
         <f t="shared" si="0"/>
-        <v>2184</v>
+        <v>2174.8199999999997</v>
       </c>
       <c r="O7" s="38">
         <f t="shared" si="0"/>
-        <v>2180</v>
+        <v>2168.5249999999996</v>
       </c>
       <c r="P7" s="38">
         <f t="shared" si="0"/>
-        <v>2176</v>
+        <v>2162.2299999999996</v>
       </c>
       <c r="Q7" s="38">
         <f t="shared" si="0"/>
-        <v>2172</v>
+        <v>2155.9349999999995</v>
       </c>
       <c r="R7" s="38">
         <f t="shared" si="0"/>
-        <v>2168</v>
+        <v>2149.6399999999994</v>
       </c>
       <c r="S7" s="38">
         <f t="shared" si="0"/>
-        <v>2164</v>
+        <v>2143.3449999999993</v>
       </c>
       <c r="T7" s="38">
         <f t="shared" si="0"/>
-        <v>2160</v>
+        <v>2137.0499999999993</v>
       </c>
       <c r="U7" s="38">
         <f t="shared" si="0"/>
-        <v>2156</v>
+        <v>2130.7549999999992</v>
       </c>
       <c r="V7" s="38">
         <f t="shared" si="0"/>
-        <v>2152</v>
+        <v>2124.4599999999991</v>
       </c>
       <c r="W7" s="38">
         <f t="shared" si="0"/>
-        <v>2148</v>
+        <v>2118.1649999999991</v>
       </c>
       <c r="X7" s="38">
         <f t="shared" si="0"/>
-        <v>2144</v>
+        <v>2111.869999999999</v>
       </c>
       <c r="Y7" s="38">
         <f t="shared" si="0"/>
-        <v>2140</v>
+        <v>2105.5749999999989</v>
       </c>
       <c r="Z7" s="38">
         <f t="shared" ref="Z7" si="1">Y7-$I$5</f>
-        <v>2136</v>
+        <v>2099.2799999999988</v>
       </c>
       <c r="AA7" s="38">
         <f t="shared" ref="AA7" si="2">Z7-$I$5</f>
-        <v>2132</v>
+        <v>2092.9849999999988</v>
       </c>
       <c r="AB7" s="38">
         <f t="shared" ref="AB7" si="3">AA7-$I$5</f>
-        <v>2128</v>
+        <v>2086.6899999999987</v>
       </c>
       <c r="AC7" s="38">
         <f t="shared" ref="AC7" si="4">AB7-$I$5</f>
-        <v>2124</v>
+        <v>2080.3949999999986</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="112">
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="109">
         <v>0.01</v>
       </c>
       <c r="H8" s="1"/>
@@ -3256,89 +3252,90 @@
       </c>
       <c r="K8" s="38">
         <f t="shared" ref="K8:Y8" si="5">$J$7-K7</f>
-        <v>4</v>
+        <v>6.2950000000000728</v>
       </c>
       <c r="L8" s="38">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>12.590000000000146</v>
       </c>
       <c r="M8" s="38">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>18.885000000000218</v>
       </c>
       <c r="N8" s="38">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>25.180000000000291</v>
       </c>
       <c r="O8" s="38">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>31.475000000000364</v>
       </c>
       <c r="P8" s="38">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>37.770000000000437</v>
       </c>
       <c r="Q8" s="38">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>44.065000000000509</v>
       </c>
       <c r="R8" s="38">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>50.360000000000582</v>
       </c>
       <c r="S8" s="38">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>56.655000000000655</v>
       </c>
       <c r="T8" s="38">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>62.950000000000728</v>
       </c>
       <c r="U8" s="38">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>69.2450000000008</v>
       </c>
       <c r="V8" s="38">
         <f t="shared" si="5"/>
-        <v>48</v>
+        <v>75.540000000000873</v>
       </c>
       <c r="W8" s="38">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>81.835000000000946</v>
       </c>
       <c r="X8" s="38">
         <f t="shared" si="5"/>
-        <v>56</v>
+        <v>88.130000000001019</v>
       </c>
       <c r="Y8" s="38">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>94.425000000001091</v>
       </c>
       <c r="Z8" s="38">
         <f t="shared" ref="Z8:AC8" si="6">$J$7-Z7</f>
-        <v>64</v>
+        <v>100.72000000000116</v>
       </c>
       <c r="AA8" s="38">
         <f t="shared" si="6"/>
-        <v>68</v>
+        <v>107.01500000000124</v>
       </c>
       <c r="AB8" s="38">
         <f t="shared" si="6"/>
-        <v>72</v>
+        <v>113.31000000000131</v>
       </c>
       <c r="AC8" s="38">
         <f t="shared" si="6"/>
-        <v>76</v>
+        <v>119.60500000000138</v>
       </c>
     </row>
     <row r="9" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="111">
-        <v>1.3819999999999999</v>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="108">
+        <f>J5</f>
+        <v>1.6180000000000001</v>
       </c>
       <c r="H9" s="29" t="s">
         <v>14</v>
@@ -3408,18 +3405,18 @@
       </c>
     </row>
     <row r="10" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="55">
-        <v>20</v>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="53">
+        <v>15</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="53"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="29">
         <v>1</v>
       </c>
@@ -3495,83 +3492,83 @@
       </c>
       <c r="J11" s="31">
         <f>I11*I6*100</f>
-        <v>12</v>
+        <v>16.480309999999999</v>
       </c>
       <c r="K11" s="31">
         <f>I11*100*(I6-I5)</f>
-        <v>8</v>
+        <v>10.185309999999999</v>
       </c>
       <c r="L11" s="31">
         <f t="shared" ref="L11:AC11" si="7">$I$11*100*($I$6-$I$5*K10)</f>
-        <v>4</v>
+        <v>3.8903099999999995</v>
       </c>
       <c r="M11" s="31">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-2.4046899999999987</v>
       </c>
       <c r="N11" s="31">
         <f>$I$11*100*($I$6-$I$5*M10)</f>
-        <v>-4</v>
+        <v>-8.6996900000000004</v>
       </c>
       <c r="O11" s="31">
         <f t="shared" si="7"/>
-        <v>-8</v>
+        <v>-14.994690000000002</v>
       </c>
       <c r="P11" s="31">
         <f t="shared" si="7"/>
-        <v>-12</v>
+        <v>-21.289689999999997</v>
       </c>
       <c r="Q11" s="31">
         <f t="shared" si="7"/>
-        <v>-16</v>
+        <v>-27.584689999999998</v>
       </c>
       <c r="R11" s="31">
         <f t="shared" si="7"/>
-        <v>-20</v>
+        <v>-33.879689999999997</v>
       </c>
       <c r="S11" s="31">
         <f t="shared" si="7"/>
-        <v>-24</v>
+        <v>-40.174689999999998</v>
       </c>
       <c r="T11" s="31">
         <f t="shared" si="7"/>
-        <v>-28</v>
+        <v>-46.46969</v>
       </c>
       <c r="U11" s="31">
         <f t="shared" si="7"/>
-        <v>-32</v>
+        <v>-52.764690000000002</v>
       </c>
       <c r="V11" s="31">
         <f t="shared" si="7"/>
-        <v>-36</v>
+        <v>-59.059689999999989</v>
       </c>
       <c r="W11" s="31">
         <f t="shared" si="7"/>
-        <v>-40</v>
+        <v>-65.354689999999991</v>
       </c>
       <c r="X11" s="31">
         <f t="shared" si="7"/>
-        <v>-44</v>
+        <v>-71.649689999999993</v>
       </c>
       <c r="Y11" s="31">
         <f t="shared" si="7"/>
-        <v>-48</v>
+        <v>-77.944689999999994</v>
       </c>
       <c r="Z11" s="31">
         <f t="shared" si="7"/>
-        <v>-52</v>
+        <v>-84.239689999999996</v>
       </c>
       <c r="AA11" s="31">
         <f t="shared" si="7"/>
-        <v>-56</v>
+        <v>-90.534689999999998</v>
       </c>
       <c r="AB11" s="31">
         <f t="shared" si="7"/>
-        <v>-60</v>
+        <v>-96.829689999999999</v>
       </c>
       <c r="AC11" s="31">
         <f t="shared" si="7"/>
-        <v>-64</v>
+        <v>-103.12469</v>
       </c>
     </row>
     <row r="12" spans="2:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3592,84 +3589,84 @@
       </c>
       <c r="I12" s="30">
         <f t="shared" ref="I12:I30" si="8">I11*$I$4</f>
-        <v>1.3819999999999999E-2</v>
+        <v>1.618E-2</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="31">
         <f>I12*100*I6</f>
-        <v>16.584</v>
+        <v>26.665141579999997</v>
       </c>
       <c r="L12" s="31">
         <f>I12*100*(I6-I5)</f>
-        <v>11.055999999999999</v>
+        <v>16.479831579999999</v>
       </c>
       <c r="M12" s="31">
         <f t="shared" ref="M12:AC12" si="9">$I$12*100*($I$6-$I$5*K10)</f>
-        <v>5.5279999999999996</v>
+        <v>6.2945215799999987</v>
       </c>
       <c r="N12" s="31">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-3.8907884199999976</v>
       </c>
       <c r="O12" s="31">
         <f t="shared" si="9"/>
-        <v>-5.5279999999999996</v>
+        <v>-14.076098419999999</v>
       </c>
       <c r="P12" s="31">
         <f t="shared" si="9"/>
-        <v>-11.055999999999999</v>
+        <v>-24.261408420000002</v>
       </c>
       <c r="Q12" s="31">
         <f t="shared" si="9"/>
-        <v>-16.584</v>
+        <v>-34.446718419999989</v>
       </c>
       <c r="R12" s="31">
         <f t="shared" si="9"/>
-        <v>-22.111999999999998</v>
+        <v>-44.632028419999997</v>
       </c>
       <c r="S12" s="31">
         <f t="shared" si="9"/>
-        <v>-27.639999999999997</v>
+        <v>-54.817338419999992</v>
       </c>
       <c r="T12" s="31">
         <f t="shared" si="9"/>
-        <v>-33.167999999999999</v>
+        <v>-65.002648419999986</v>
       </c>
       <c r="U12" s="31">
         <f t="shared" si="9"/>
-        <v>-38.695999999999998</v>
+        <v>-75.187958420000001</v>
       </c>
       <c r="V12" s="31">
         <f t="shared" si="9"/>
-        <v>-44.223999999999997</v>
+        <v>-85.373268420000002</v>
       </c>
       <c r="W12" s="31">
         <f t="shared" si="9"/>
-        <v>-49.751999999999995</v>
+        <v>-95.558578419999975</v>
       </c>
       <c r="X12" s="31">
         <f t="shared" si="9"/>
-        <v>-55.279999999999994</v>
+        <v>-105.74388841999998</v>
       </c>
       <c r="Y12" s="31">
         <f t="shared" si="9"/>
-        <v>-60.807999999999993</v>
+        <v>-115.92919841999998</v>
       </c>
       <c r="Z12" s="31">
         <f t="shared" si="9"/>
-        <v>-66.335999999999999</v>
+        <v>-126.11450841999998</v>
       </c>
       <c r="AA12" s="31">
         <f t="shared" si="9"/>
-        <v>-71.86399999999999</v>
+        <v>-136.29981841999998</v>
       </c>
       <c r="AB12" s="31">
         <f t="shared" si="9"/>
-        <v>-77.391999999999996</v>
+        <v>-146.48512842</v>
       </c>
       <c r="AC12" s="31">
         <f t="shared" si="9"/>
-        <v>-82.919999999999987</v>
+        <v>-156.67043841999998</v>
       </c>
     </row>
     <row r="13" spans="2:29" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
@@ -3683,92 +3680,92 @@
       </c>
       <c r="D13" s="9">
         <f>+C13*E13*100</f>
-        <v>38</v>
+        <v>88.13</v>
       </c>
       <c r="E13" s="9">
         <f>IF(B13=0,0,$E$2+$E$3+$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
-        <v>38</v>
+        <v>88.13</v>
       </c>
       <c r="H13" s="34">
         <v>3</v>
       </c>
       <c r="I13" s="30">
         <f t="shared" si="8"/>
-        <v>1.9099239999999996E-2</v>
+        <v>2.6179240000000003E-2</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="31">
         <f>I13*100*I6</f>
-        <v>22.919087999999995</v>
+        <v>43.144199076440003</v>
       </c>
       <c r="M13" s="31">
         <f>I13*100*(I6-I5)</f>
-        <v>15.279391999999998</v>
+        <v>26.664367496440001</v>
       </c>
       <c r="N13" s="31">
         <f t="shared" ref="N13:AC13" si="10">$I$13*100*($I$6-$I$5*K10)</f>
-        <v>7.6396959999999989</v>
+        <v>10.18453591644</v>
       </c>
       <c r="O13" s="31">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-6.2952956635599975</v>
       </c>
       <c r="P13" s="31">
         <f t="shared" si="10"/>
-        <v>-7.6396959999999989</v>
+        <v>-22.775127243560004</v>
       </c>
       <c r="Q13" s="31">
         <f t="shared" si="10"/>
-        <v>-15.279391999999998</v>
+        <v>-39.25495882356001</v>
       </c>
       <c r="R13" s="31">
         <f t="shared" si="10"/>
-        <v>-22.919087999999995</v>
+        <v>-55.734790403559998</v>
       </c>
       <c r="S13" s="31">
         <f t="shared" si="10"/>
-        <v>-30.558783999999996</v>
+        <v>-72.214621983560008</v>
       </c>
       <c r="T13" s="31">
         <f t="shared" si="10"/>
-        <v>-38.198479999999996</v>
+        <v>-88.694453563560003</v>
       </c>
       <c r="U13" s="31">
         <f t="shared" si="10"/>
-        <v>-45.83817599999999</v>
+        <v>-105.17428514356001</v>
       </c>
       <c r="V13" s="31">
         <f t="shared" si="10"/>
-        <v>-53.477871999999991</v>
+        <v>-121.65411672356002</v>
       </c>
       <c r="W13" s="31">
         <f t="shared" si="10"/>
-        <v>-61.117567999999991</v>
+        <v>-138.13394830356003</v>
       </c>
       <c r="X13" s="31">
         <f t="shared" si="10"/>
-        <v>-68.757263999999992</v>
+        <v>-154.61377988356</v>
       </c>
       <c r="Y13" s="31">
         <f t="shared" si="10"/>
-        <v>-76.396959999999993</v>
+        <v>-171.09361146355999</v>
       </c>
       <c r="Z13" s="31">
         <f t="shared" si="10"/>
-        <v>-84.036655999999994</v>
+        <v>-187.57344304356002</v>
       </c>
       <c r="AA13" s="31">
         <f t="shared" si="10"/>
-        <v>-91.67635199999998</v>
+        <v>-204.05327462356001</v>
       </c>
       <c r="AB13" s="31">
         <f t="shared" si="10"/>
-        <v>-99.316047999999981</v>
+        <v>-220.53310620356001</v>
       </c>
       <c r="AC13" s="31">
         <f t="shared" si="10"/>
-        <v>-106.95574399999998</v>
+        <v>-237.01293778356003</v>
       </c>
     </row>
     <row r="14" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -3778,93 +3775,93 @@
       </c>
       <c r="C14" s="10">
         <f t="shared" ref="C14:C34" si="12">IF(B14&lt;&gt;0,C13*$E$9,0)</f>
-        <v>1.3819999999999999E-2</v>
+        <v>1.618E-2</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" ref="D14:D34" si="13">+C14*E14*100</f>
-        <v>49.751999999999995</v>
+        <v>132.40903000000003</v>
       </c>
       <c r="E14" s="9">
         <f>IF(B14=0,0,$E$3+$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
-        <v>36</v>
+        <v>81.835000000000008</v>
       </c>
       <c r="H14" s="34">
         <v>4</v>
       </c>
       <c r="I14" s="30">
         <f t="shared" si="8"/>
-        <v>2.6395149679999994E-2</v>
+        <v>4.2358010320000007E-2</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="31">
         <f>I14*100*I6</f>
-        <v>31.674179615999993</v>
+        <v>69.807314105679922</v>
       </c>
       <c r="N14" s="31">
         <f>I14*100*(I6-I5)</f>
-        <v>21.116119743999995</v>
+        <v>43.142946609239921</v>
       </c>
       <c r="O14" s="31">
         <f t="shared" ref="O14:AC14" si="14">$I$14*100*($I$6-$I$5*K10)</f>
-        <v>10.558059871999998</v>
+        <v>16.47857911279992</v>
       </c>
       <c r="P14" s="31">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-10.185788383640075</v>
       </c>
       <c r="Q14" s="31">
         <f t="shared" si="14"/>
-        <v>-10.558059871999998</v>
+        <v>-36.850155880080088</v>
       </c>
       <c r="R14" s="31">
         <f t="shared" si="14"/>
-        <v>-21.116119743999995</v>
+        <v>-63.514523376520096</v>
       </c>
       <c r="S14" s="31">
         <f t="shared" si="14"/>
-        <v>-31.674179615999993</v>
+        <v>-90.178890872960068</v>
       </c>
       <c r="T14" s="31">
         <f t="shared" si="14"/>
-        <v>-42.232239487999991</v>
+        <v>-116.84325836940009</v>
       </c>
       <c r="U14" s="31">
         <f t="shared" si="14"/>
-        <v>-52.790299359999992</v>
+        <v>-143.50762586584008</v>
       </c>
       <c r="V14" s="31">
         <f t="shared" si="14"/>
-        <v>-63.348359231999986</v>
+        <v>-170.17199336228009</v>
       </c>
       <c r="W14" s="31">
         <f t="shared" si="14"/>
-        <v>-73.90641910399998</v>
+        <v>-196.8363608587201</v>
       </c>
       <c r="X14" s="31">
         <f t="shared" si="14"/>
-        <v>-84.464478975999981</v>
+        <v>-223.50072835516011</v>
       </c>
       <c r="Y14" s="31">
         <f t="shared" si="14"/>
-        <v>-95.022538847999982</v>
+        <v>-250.16509585160006</v>
       </c>
       <c r="Z14" s="31">
         <f t="shared" si="14"/>
-        <v>-105.58059871999998</v>
+        <v>-276.82946334804006</v>
       </c>
       <c r="AA14" s="31">
         <f t="shared" si="14"/>
-        <v>-116.13865859199997</v>
+        <v>-303.4938308444801</v>
       </c>
       <c r="AB14" s="31">
         <f t="shared" si="14"/>
-        <v>-126.69671846399997</v>
+        <v>-330.15819834092008</v>
       </c>
       <c r="AC14" s="31">
         <f t="shared" si="14"/>
-        <v>-137.25477833599996</v>
+        <v>-356.82256583736012</v>
       </c>
     </row>
     <row r="15" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -3874,22 +3871,22 @@
       </c>
       <c r="C15" s="10">
         <f t="shared" si="12"/>
-        <v>1.9099239999999996E-2</v>
+        <v>2.6179240000000003E-2</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="13"/>
-        <v>64.937415999999999</v>
+        <v>197.75797896</v>
       </c>
       <c r="E15" s="9">
         <f>IF(B15=0,0,$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
-        <v>34</v>
+        <v>75.539999999999992</v>
       </c>
       <c r="H15" s="34">
         <v>5</v>
       </c>
       <c r="I15" s="30">
         <f t="shared" si="8"/>
-        <v>3.647809685775999E-2</v>
+        <v>6.8535260697760017E-2</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="3"/>
@@ -3897,67 +3894,67 @@
       <c r="M15" s="3"/>
       <c r="N15" s="31">
         <f>I15*I6*100</f>
-        <v>43.773716229311987</v>
+        <v>112.94823422299014</v>
       </c>
       <c r="O15" s="31">
         <f>I15*100*(I6-I5)</f>
-        <v>29.182477486207993</v>
+        <v>69.805287613750195</v>
       </c>
       <c r="P15" s="31">
         <f t="shared" ref="P15:AC15" si="15">$I$15*100*($I$6-$I$5*K10)</f>
-        <v>14.591238743103997</v>
+        <v>26.662341004510271</v>
       </c>
       <c r="Q15" s="31">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-16.480605604729643</v>
       </c>
       <c r="R15" s="31">
         <f t="shared" si="15"/>
-        <v>-14.591238743103997</v>
+        <v>-59.623552213969582</v>
       </c>
       <c r="S15" s="31">
         <f t="shared" si="15"/>
-        <v>-29.182477486207993</v>
+        <v>-102.76649882320953</v>
       </c>
       <c r="T15" s="31">
         <f t="shared" si="15"/>
-        <v>-43.773716229311987</v>
+        <v>-145.90944543244942</v>
       </c>
       <c r="U15" s="31">
         <f t="shared" si="15"/>
-        <v>-58.364954972415987</v>
+        <v>-189.05239204168936</v>
       </c>
       <c r="V15" s="31">
         <f t="shared" si="15"/>
-        <v>-72.956193715519987</v>
+        <v>-232.19533865092927</v>
       </c>
       <c r="W15" s="31">
         <f t="shared" si="15"/>
-        <v>-87.547432458623973</v>
+        <v>-275.33828526016919</v>
       </c>
       <c r="X15" s="31">
         <f t="shared" si="15"/>
-        <v>-102.13867120172797</v>
+        <v>-318.48123186940916</v>
       </c>
       <c r="Y15" s="31">
         <f t="shared" si="15"/>
-        <v>-116.72990994483197</v>
+        <v>-361.62417847864907</v>
       </c>
       <c r="Z15" s="31">
         <f t="shared" si="15"/>
-        <v>-131.32114868793596</v>
+        <v>-404.76712508788893</v>
       </c>
       <c r="AA15" s="31">
         <f t="shared" si="15"/>
-        <v>-145.91238743103997</v>
+        <v>-447.9100716971289</v>
       </c>
       <c r="AB15" s="31">
         <f t="shared" si="15"/>
-        <v>-160.50362617414396</v>
+        <v>-491.05301830636881</v>
       </c>
       <c r="AC15" s="31">
         <f t="shared" si="15"/>
-        <v>-175.09486491724795</v>
+        <v>-534.19596491560878</v>
       </c>
     </row>
     <row r="16" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -3967,22 +3964,22 @@
       </c>
       <c r="C16" s="10">
         <f t="shared" si="12"/>
-        <v>2.6395149679999994E-2</v>
+        <v>4.2358010320000007E-2</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="13"/>
-        <v>84.464478975999981</v>
+        <v>293.30804246084006</v>
       </c>
       <c r="E16" s="9">
         <f>IF(B16=0,0,$E$5+$E$6+($E$7*($E$10-6)))</f>
-        <v>32</v>
+        <v>69.245000000000005</v>
       </c>
       <c r="H16" s="34">
         <v>6</v>
       </c>
       <c r="I16" s="30">
         <f t="shared" si="8"/>
-        <v>5.0412729857424302E-2</v>
+        <v>0.11089005180897571</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -3991,63 +3988,63 @@
       <c r="N16" s="3"/>
       <c r="O16" s="31">
         <f>I16*I6*100</f>
-        <v>60.495275828909165</v>
+        <v>182.75024297279805</v>
       </c>
       <c r="P16" s="31">
         <f>I16*100*(I6-I5)</f>
-        <v>40.330183885939441</v>
+        <v>112.94495535904782</v>
       </c>
       <c r="Q16" s="31">
         <f t="shared" ref="Q16:Y16" si="16">$I$16*100*($I$6-$I$5*K10)</f>
-        <v>20.16509194296972</v>
+        <v>43.139667745297622</v>
       </c>
       <c r="R16" s="31">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-26.665619868452566</v>
       </c>
       <c r="S16" s="31">
         <f t="shared" si="16"/>
-        <v>-20.16509194296972</v>
+        <v>-96.47090748220279</v>
       </c>
       <c r="T16" s="31">
         <f t="shared" si="16"/>
-        <v>-40.330183885939441</v>
+        <v>-166.27619509595303</v>
       </c>
       <c r="U16" s="31">
         <f t="shared" si="16"/>
-        <v>-60.495275828909158</v>
+        <v>-236.08148270970318</v>
       </c>
       <c r="V16" s="31">
         <f t="shared" si="16"/>
-        <v>-80.660367771878882</v>
+        <v>-305.88677032345339</v>
       </c>
       <c r="W16" s="31">
         <f t="shared" si="16"/>
-        <v>-100.82545971484861</v>
+        <v>-375.69205793720357</v>
       </c>
       <c r="X16" s="31">
         <f t="shared" si="16"/>
-        <v>-120.99055165781832</v>
+        <v>-445.49734555095381</v>
       </c>
       <c r="Y16" s="31">
         <f t="shared" si="16"/>
-        <v>-141.15564360078804</v>
+        <v>-515.30263316470405</v>
       </c>
       <c r="Z16" s="31">
         <f t="shared" ref="Z16" si="17">$I$16*100*($I$6-$I$5*T10)</f>
-        <v>-161.32073554375776</v>
+        <v>-585.10792077845429</v>
       </c>
       <c r="AA16" s="31">
         <f t="shared" ref="AA16" si="18">$I$16*100*($I$6-$I$5*U10)</f>
-        <v>-181.48582748672749</v>
+        <v>-654.9132083922043</v>
       </c>
       <c r="AB16" s="31">
         <f t="shared" ref="AB16" si="19">$I$16*100*($I$6-$I$5*V10)</f>
-        <v>-201.65091942969721</v>
+        <v>-724.71849600595453</v>
       </c>
       <c r="AC16" s="31">
         <f t="shared" ref="AC16" si="20">$I$16*100*($I$6-$I$5*W10)</f>
-        <v>-221.81601137266694</v>
+        <v>-794.52378361970477</v>
       </c>
     </row>
     <row r="17" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4057,22 +4054,22 @@
       </c>
       <c r="C17" s="10">
         <f t="shared" si="12"/>
-        <v>3.647809685775999E-2</v>
+        <v>6.8535260697760017E-2</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" si="13"/>
-        <v>109.43429057327995</v>
+        <v>431.42946609239931</v>
       </c>
       <c r="E17" s="9">
         <f>IF(B17=0,0,$E$6+($E$7*($E$10-6)))</f>
-        <v>30</v>
+        <v>62.95</v>
       </c>
       <c r="H17" s="34">
         <v>7</v>
       </c>
       <c r="I17" s="30">
         <f t="shared" si="8"/>
-        <v>6.9670392662960379E-2</v>
+        <v>0.17942010382692272</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -4082,59 +4079,59 @@
       <c r="O17" s="3"/>
       <c r="P17" s="31">
         <f>I6*I17*100</f>
-        <v>83.604471195552449</v>
+        <v>295.68989312998724</v>
       </c>
       <c r="Q17" s="31">
         <f>I17*100*(I6-I5)</f>
-        <v>55.736314130368299</v>
+        <v>182.7449377709394</v>
       </c>
       <c r="R17" s="31">
         <f t="shared" ref="R17:Y17" si="21">$I$17*100*($I$6-$I$5*K10)</f>
-        <v>27.86815706518415</v>
+        <v>69.799982411891563</v>
       </c>
       <c r="S17" s="31">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-43.144972947156255</v>
       </c>
       <c r="T17" s="31">
         <f t="shared" si="21"/>
-        <v>-27.86815706518415</v>
+        <v>-156.08992830620411</v>
       </c>
       <c r="U17" s="31">
         <f t="shared" si="21"/>
-        <v>-55.736314130368299</v>
+        <v>-269.03488366525198</v>
       </c>
       <c r="V17" s="31">
         <f t="shared" si="21"/>
-        <v>-83.604471195552449</v>
+        <v>-381.97983902429974</v>
       </c>
       <c r="W17" s="31">
         <f t="shared" si="21"/>
-        <v>-111.4726282607366</v>
+        <v>-494.9247943833476</v>
       </c>
       <c r="X17" s="31">
         <f t="shared" si="21"/>
-        <v>-139.34078532592076</v>
+        <v>-607.86974974239547</v>
       </c>
       <c r="Y17" s="31">
         <f t="shared" si="21"/>
-        <v>-167.2089423911049</v>
+        <v>-720.81470510144334</v>
       </c>
       <c r="Z17" s="31">
         <f t="shared" ref="Z17" si="22">$I$17*100*($I$6-$I$5*S10)</f>
-        <v>-195.07709945628903</v>
+        <v>-833.7596604604912</v>
       </c>
       <c r="AA17" s="31">
         <f t="shared" ref="AA17" si="23">$I$17*100*($I$6-$I$5*T10)</f>
-        <v>-222.9452565214732</v>
+        <v>-946.70461581953907</v>
       </c>
       <c r="AB17" s="31">
         <f t="shared" ref="AB17" si="24">$I$17*100*($I$6-$I$5*U10)</f>
-        <v>-250.81341358665736</v>
+        <v>-1059.6495711785867</v>
       </c>
       <c r="AC17" s="31">
         <f t="shared" ref="AC17" si="25">$I$17*100*($I$6-$I$5*V10)</f>
-        <v>-278.68157065184153</v>
+        <v>-1172.5945265376345</v>
       </c>
     </row>
     <row r="18" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4144,22 +4141,22 @@
       </c>
       <c r="C18" s="10">
         <f t="shared" si="12"/>
-        <v>5.0412729857424302E-2</v>
+        <v>0.11089005180897571</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="13"/>
-        <v>141.15564360078804</v>
+        <v>628.24758852375192</v>
       </c>
       <c r="E18" s="9">
         <f>IF(B18=0,0,($E$7*($E$10-6)))</f>
-        <v>28</v>
+        <v>56.655000000000001</v>
       </c>
       <c r="H18" s="34">
         <v>8</v>
       </c>
       <c r="I18" s="30">
         <f t="shared" si="8"/>
-        <v>9.6284482660211237E-2</v>
+        <v>0.29030172799196097</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -4170,55 +4167,55 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="31">
         <f>I6*I18*100</f>
-        <v>115.54137919225349</v>
+        <v>478.42624708431936</v>
       </c>
       <c r="R18" s="31">
         <f>I18*100*(I6-I5)</f>
-        <v>77.027586128168991</v>
+        <v>295.68130931337998</v>
       </c>
       <c r="S18" s="31">
         <f t="shared" ref="S18:Y18" si="26">$I$18*100*($I$6-$I$5*K10)</f>
-        <v>38.513793064084496</v>
+        <v>112.93637154244055</v>
       </c>
       <c r="T18" s="31">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-69.808566228498833</v>
       </c>
       <c r="U18" s="31">
         <f t="shared" si="26"/>
-        <v>-38.513793064084496</v>
+        <v>-252.55350399943831</v>
       </c>
       <c r="V18" s="31">
         <f t="shared" si="26"/>
-        <v>-77.027586128168991</v>
+        <v>-435.29844177037779</v>
       </c>
       <c r="W18" s="31">
         <f t="shared" si="26"/>
-        <v>-115.54137919225349</v>
+        <v>-618.04337954131711</v>
       </c>
       <c r="X18" s="31">
         <f t="shared" si="26"/>
-        <v>-154.05517225633798</v>
+        <v>-800.78831731225659</v>
       </c>
       <c r="Y18" s="31">
         <f t="shared" si="26"/>
-        <v>-192.56896532042248</v>
+        <v>-983.53325508319597</v>
       </c>
       <c r="Z18" s="31">
         <f t="shared" ref="Z18" si="27">$I$18*100*($I$6-$I$5*R10)</f>
-        <v>-231.08275838450697</v>
+        <v>-1166.2781928541353</v>
       </c>
       <c r="AA18" s="31">
         <f t="shared" ref="AA18" si="28">$I$18*100*($I$6-$I$5*S10)</f>
-        <v>-269.59655144859147</v>
+        <v>-1349.0231306250748</v>
       </c>
       <c r="AB18" s="31">
         <f t="shared" ref="AB18" si="29">$I$18*100*($I$6-$I$5*T10)</f>
-        <v>-308.11034451267597</v>
+        <v>-1531.7680683960143</v>
       </c>
       <c r="AC18" s="31">
         <f t="shared" ref="AC18" si="30">$I$18*100*($I$6-$I$5*U10)</f>
-        <v>-346.62413757676046</v>
+        <v>-1714.5130061669536</v>
       </c>
     </row>
     <row r="19" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4228,22 +4225,22 @@
       </c>
       <c r="C19" s="10">
         <f t="shared" si="12"/>
-        <v>6.9670392662960379E-2</v>
+        <v>0.17942010382692272</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" si="13"/>
-        <v>181.14302092369698</v>
+        <v>903.55964287238282</v>
       </c>
       <c r="E19" s="9">
         <f>IF(B19=0,0,($E$7*($E$10-7)))</f>
-        <v>26</v>
+        <v>50.36</v>
       </c>
       <c r="H19" s="34">
         <v>9</v>
       </c>
       <c r="I19" s="30">
         <f t="shared" si="8"/>
-        <v>0.13306515503641192</v>
+        <v>0.46970819589099289</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -4255,51 +4252,51 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="31">
         <f>I6*I19*100</f>
-        <v>159.6781860436943</v>
+        <v>774.09366778242884</v>
       </c>
       <c r="S19" s="31">
         <f>I19*100*(I6-I5)</f>
-        <v>106.45212402912954</v>
+        <v>478.4123584690488</v>
       </c>
       <c r="T19" s="31">
         <f t="shared" ref="T19:Y19" si="31">$I$19*100*($I$6-$I$5*K10)</f>
-        <v>53.226062014564768</v>
+        <v>182.73104915566881</v>
       </c>
       <c r="U19" s="31">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>-112.9502601577111</v>
       </c>
       <c r="V19" s="31">
         <f t="shared" si="31"/>
-        <v>-53.226062014564768</v>
+        <v>-408.63156947109115</v>
       </c>
       <c r="W19" s="31">
         <f t="shared" si="31"/>
-        <v>-106.45212402912954</v>
+        <v>-704.31287878447131</v>
       </c>
       <c r="X19" s="31">
         <f t="shared" si="31"/>
-        <v>-159.6781860436943</v>
+        <v>-999.99418809785107</v>
       </c>
       <c r="Y19" s="31">
         <f t="shared" si="31"/>
-        <v>-212.90424805825907</v>
+        <v>-1295.6754974112312</v>
       </c>
       <c r="Z19" s="31">
         <f t="shared" ref="Z19" si="32">$I$19*100*($I$6-$I$5*Q10)</f>
-        <v>-266.13031007282382</v>
+        <v>-1591.356806724611</v>
       </c>
       <c r="AA19" s="31">
         <f t="shared" ref="AA19" si="33">$I$19*100*($I$6-$I$5*R10)</f>
-        <v>-319.35637208738859</v>
+        <v>-1887.0381160379911</v>
       </c>
       <c r="AB19" s="31">
         <f t="shared" ref="AB19" si="34">$I$19*100*($I$6-$I$5*S10)</f>
-        <v>-372.58243410195337</v>
+        <v>-2182.7194253513712</v>
       </c>
       <c r="AC19" s="31">
         <f t="shared" ref="AC19" si="35">$I$19*100*($I$6-$I$5*T10)</f>
-        <v>-425.80849611651814</v>
+        <v>-2478.4007346647513</v>
       </c>
     </row>
     <row r="20" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4309,22 +4306,22 @@
       </c>
       <c r="C20" s="10">
         <f t="shared" si="12"/>
-        <v>9.6284482660211237E-2</v>
+        <v>0.29030172799196097</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="13"/>
-        <v>231.08275838450697</v>
+        <v>1279.214564396576</v>
       </c>
       <c r="E20" s="9">
         <f>IF(B20=0,0,($E$7*($E$10-8)))</f>
-        <v>24</v>
+        <v>44.064999999999998</v>
       </c>
       <c r="H20" s="34">
         <v>10</v>
       </c>
       <c r="I20" s="30">
         <f t="shared" si="8"/>
-        <v>0.18389604426032125</v>
+        <v>0.75998786095162651</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -4337,47 +4334,47 @@
       <c r="R20" s="3"/>
       <c r="S20" s="31">
         <f>I6*I20*100</f>
-        <v>220.67525311238549</v>
+        <v>1252.4835544719699</v>
       </c>
       <c r="T20" s="31">
         <f>I20*100*(I6-I5)</f>
-        <v>147.116835408257</v>
+        <v>774.07119600292117</v>
       </c>
       <c r="U20" s="31">
         <f>$I$20*100*($I$6-$I$5*K10)</f>
-        <v>73.558417704128502</v>
+        <v>295.6588375338722</v>
       </c>
       <c r="V20" s="31">
         <f>$I$20*100*($I$6-$I$5*L10)</f>
-        <v>0</v>
+        <v>-182.7535209351766</v>
       </c>
       <c r="W20" s="31">
         <f>$I$20*100*($I$6-$I$5*M10)</f>
-        <v>-73.558417704128502</v>
+        <v>-661.16587940422562</v>
       </c>
       <c r="X20" s="31">
         <f>$I$20*100*($I$6-$I$5*N10)</f>
-        <v>-147.116835408257</v>
+        <v>-1139.5782378732747</v>
       </c>
       <c r="Y20" s="31">
         <f>$I$20*100*($I$6-$I$5*O10)</f>
-        <v>-220.67525311238552</v>
+        <v>-1617.9905963423232</v>
       </c>
       <c r="Z20" s="31">
         <f t="shared" ref="Z20:AC20" si="36">$I$20*100*($I$6-$I$5*P10)</f>
-        <v>-294.23367081651401</v>
+        <v>-2096.4029548113722</v>
       </c>
       <c r="AA20" s="31">
         <f t="shared" si="36"/>
-        <v>-367.79208852064249</v>
+        <v>-2574.8153132804209</v>
       </c>
       <c r="AB20" s="31">
         <f t="shared" si="36"/>
-        <v>-441.35050622477104</v>
+        <v>-3053.2276717494701</v>
       </c>
       <c r="AC20" s="31">
         <f t="shared" si="36"/>
-        <v>-514.90892392889953</v>
+        <v>-3531.6400302185193</v>
       </c>
     </row>
     <row r="21" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4387,22 +4384,22 @@
       </c>
       <c r="C21" s="10">
         <f t="shared" si="12"/>
-        <v>0.13306515503641192</v>
+        <v>0.46970819589099289</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="13"/>
-        <v>292.74334108010623</v>
+        <v>1774.0878558802799</v>
       </c>
       <c r="E21" s="9">
         <f>IF(B21=0,0,($E$7*($E$10-9)))</f>
-        <v>22</v>
+        <v>37.769999999999996</v>
       </c>
       <c r="H21" s="34">
         <v>11</v>
       </c>
       <c r="I21" s="30">
         <f t="shared" si="8"/>
-        <v>0.25414433316776397</v>
+        <v>1.2296603590197317</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -4416,43 +4413,43 @@
       <c r="S21" s="3"/>
       <c r="T21" s="32">
         <f>I6*I21*100</f>
-        <v>304.97319980131675</v>
+        <v>2026.5183911356473</v>
       </c>
       <c r="U21" s="32">
         <f>I21*100*(I6-I5)</f>
-        <v>203.31546653421117</v>
+        <v>1252.4471951327264</v>
       </c>
       <c r="V21" s="32">
         <f>$I$21*100*($I$6-$I$5*K10)</f>
-        <v>101.65773326710558</v>
+        <v>478.37599912980517</v>
       </c>
       <c r="W21" s="32">
         <f>$I$21*100*($I$6-$I$5*L10)</f>
-        <v>0</v>
+        <v>-295.69519687311572</v>
       </c>
       <c r="X21" s="32">
         <f>$I$21*100*($I$6-$I$5*M10)</f>
-        <v>-101.65773326710558</v>
+        <v>-1069.7663928760371</v>
       </c>
       <c r="Y21" s="32">
         <f>$I$21*100*($I$6-$I$5*N10)</f>
-        <v>-203.31546653421117</v>
+        <v>-1843.8375888789583</v>
       </c>
       <c r="Z21" s="32">
         <f t="shared" ref="Z21:AC21" si="37">$I$21*100*($I$6-$I$5*O10)</f>
-        <v>-304.97319980131675</v>
+        <v>-2617.908784881879</v>
       </c>
       <c r="AA21" s="32">
         <f t="shared" si="37"/>
-        <v>-406.63093306842234</v>
+        <v>-3391.9799808848002</v>
       </c>
       <c r="AB21" s="32">
         <f t="shared" si="37"/>
-        <v>-508.28866633552792</v>
+        <v>-4166.0511768877213</v>
       </c>
       <c r="AC21" s="32">
         <f t="shared" si="37"/>
-        <v>-609.94639960263351</v>
+        <v>-4940.1223728906425</v>
       </c>
     </row>
     <row r="22" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4462,22 +4459,22 @@
       </c>
       <c r="C22" s="10">
         <f t="shared" si="12"/>
-        <v>0.18389604426032125</v>
+        <v>0.75998786095162651</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="13"/>
-        <v>367.79208852064249</v>
+        <v>2392.0617923452446</v>
       </c>
       <c r="E22" s="9">
         <f>IF(B22=0,0,($E$7*($E$10-10)))</f>
-        <v>20</v>
+        <v>31.475000000000001</v>
       </c>
       <c r="H22" s="34">
         <v>12</v>
       </c>
       <c r="I22" s="30">
         <f t="shared" si="8"/>
-        <v>0.3512274684378498</v>
+        <v>1.9895904608939261</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -4492,39 +4489,39 @@
       <c r="T22" s="32"/>
       <c r="U22" s="32">
         <f>I6*I22*100</f>
-        <v>421.47296212541977</v>
+        <v>3278.9067568574778</v>
       </c>
       <c r="V22" s="32">
         <f>I22*100*(I6-I5)</f>
-        <v>280.98197475027985</v>
+        <v>2026.4595617247514</v>
       </c>
       <c r="W22" s="32">
         <f>$I$22*100*($I$6-$I$5*K10)</f>
-        <v>140.49098737513992</v>
+        <v>774.01236659202493</v>
       </c>
       <c r="X22" s="32">
         <f>$I$22*100*($I$6-$I$5*L10)</f>
-        <v>0</v>
+        <v>-478.43482854070123</v>
       </c>
       <c r="Y22" s="32">
         <f>$I$22*100*($I$6-$I$5*M10)</f>
-        <v>-140.49098737513992</v>
+        <v>-1730.8820236734282</v>
       </c>
       <c r="Z22" s="32">
         <f t="shared" ref="Z22:AC22" si="38">$I$22*100*($I$6-$I$5*N10)</f>
-        <v>-280.98197475027985</v>
+        <v>-2983.329218806155</v>
       </c>
       <c r="AA22" s="32">
         <f t="shared" si="38"/>
-        <v>-421.47296212541977</v>
+        <v>-4235.7764139388801</v>
       </c>
       <c r="AB22" s="32">
         <f t="shared" si="38"/>
-        <v>-561.96394950055969</v>
+        <v>-5488.2236090716069</v>
       </c>
       <c r="AC22" s="32">
         <f t="shared" si="38"/>
-        <v>-702.45493687569956</v>
+        <v>-6740.6708042043338</v>
       </c>
     </row>
     <row r="23" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4534,22 +4531,22 @@
       </c>
       <c r="C23" s="10">
         <f t="shared" si="12"/>
-        <v>0.25414433316776397</v>
+        <v>1.2296603590197317</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" si="13"/>
-        <v>457.4597997019751</v>
+        <v>3096.2847840116842</v>
       </c>
       <c r="E23" s="9">
         <f>IF(B23=0,0,($E$7*($E$10-11)))</f>
-        <v>18</v>
+        <v>25.18</v>
       </c>
       <c r="H23" s="34">
         <v>13</v>
       </c>
       <c r="I23" s="30">
         <f t="shared" si="8"/>
-        <v>0.48539636138110837</v>
+        <v>3.2191573657263728</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -4565,35 +4562,35 @@
       <c r="U23" s="32"/>
       <c r="V23" s="32">
         <f>I6*I23*100</f>
-        <v>582.47563365733004</v>
+        <v>5305.2711325953996</v>
       </c>
       <c r="W23" s="32">
         <f>I23*100*(I6-I5)</f>
-        <v>388.31708910488669</v>
+        <v>3278.8115708706482</v>
       </c>
       <c r="X23" s="32">
         <f>$I$23*100*($I$6-$I$5*K10)</f>
-        <v>194.15854455244335</v>
+        <v>1252.3520091458963</v>
       </c>
       <c r="Y23" s="32">
         <f>$I$23*100*($I$6-$I$5*L10)</f>
-        <v>0</v>
+        <v>-774.10755257885478</v>
       </c>
       <c r="Z23" s="32">
         <f t="shared" ref="Z23:AC23" si="39">$I$23*100*($I$6-$I$5*M10)</f>
-        <v>-194.15854455244335</v>
+        <v>-2800.567114303607</v>
       </c>
       <c r="AA23" s="32">
         <f t="shared" si="39"/>
-        <v>-388.31708910488669</v>
+        <v>-4827.0266760283594</v>
       </c>
       <c r="AB23" s="32">
         <f t="shared" si="39"/>
-        <v>-582.47563365733004</v>
+        <v>-6853.486237753109</v>
       </c>
       <c r="AC23" s="32">
         <f t="shared" si="39"/>
-        <v>-776.63417820977338</v>
+        <v>-8879.9457994778622</v>
       </c>
     </row>
     <row r="24" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4603,22 +4600,22 @@
       </c>
       <c r="C24" s="10">
         <f t="shared" si="12"/>
-        <v>0.3512274684378498</v>
+        <v>1.9895904608939261</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="13"/>
-        <v>561.96394950055969</v>
+        <v>3757.3415853981792</v>
       </c>
       <c r="E24" s="9">
         <f>IF(B24=0,0,($E$7*($E$10-12)))</f>
-        <v>16</v>
+        <v>18.884999999999998</v>
       </c>
       <c r="H24" s="34">
         <v>14</v>
       </c>
       <c r="I24" s="30">
         <f t="shared" si="8"/>
-        <v>0.6708177714286917</v>
+        <v>5.2085966177452718</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -4635,31 +4632,31 @@
       <c r="V24" s="32"/>
       <c r="W24" s="32">
         <f>I6*I24*100</f>
-        <v>804.98132571443011</v>
+        <v>8583.9286925393571</v>
       </c>
       <c r="X24" s="32">
         <f>I24*100*(I6-I5)</f>
-        <v>536.65421714295337</v>
+        <v>5305.1171216687098</v>
       </c>
       <c r="Y24" s="32">
         <f>$I$24*100*($I$6-$I$5*K10)</f>
-        <v>268.32710857147669</v>
+        <v>2026.3055507980607</v>
       </c>
       <c r="Z24" s="32">
         <f t="shared" ref="Z24:AC24" si="40">$I$24*100*($I$6-$I$5*L10)</f>
-        <v>0</v>
+        <v>-1252.5060200725873</v>
       </c>
       <c r="AA24" s="32">
         <f t="shared" si="40"/>
-        <v>-268.32710857147669</v>
+        <v>-4531.3175909432375</v>
       </c>
       <c r="AB24" s="32">
         <f t="shared" si="40"/>
-        <v>-536.65421714295337</v>
+        <v>-7810.1291618138866</v>
       </c>
       <c r="AC24" s="32">
         <f t="shared" si="40"/>
-        <v>-804.98132571443011</v>
+        <v>-11088.940732684534</v>
       </c>
     </row>
     <row r="25" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4669,22 +4666,22 @@
       </c>
       <c r="C25" s="10">
         <f t="shared" si="12"/>
-        <v>0.48539636138110837</v>
+        <v>3.2191573657263728</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" si="13"/>
-        <v>679.55490593355171</v>
+        <v>4052.9191234495029</v>
       </c>
       <c r="E25" s="9">
         <f>IF(B25=0,0,($E$7*($E$10-13)))</f>
-        <v>14</v>
+        <v>12.59</v>
       </c>
       <c r="H25" s="34">
         <v>15</v>
       </c>
       <c r="I25" s="30">
         <f t="shared" si="8"/>
-        <v>0.92707016011445187</v>
+        <v>8.4275093275118511</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -4702,27 +4699,27 @@
       <c r="W25" s="32"/>
       <c r="X25" s="32">
         <f>I6*I25*100</f>
-        <v>1112.4841921373422</v>
+        <v>13888.796624528683</v>
       </c>
       <c r="Y25" s="32">
         <f>I25*100*(I6-I5)</f>
-        <v>741.65612809156153</v>
+        <v>8583.6795028599736</v>
       </c>
       <c r="Z25" s="32">
         <f>$I$25*100*($I$6-$I$5*K10)</f>
-        <v>370.82806404578076</v>
+        <v>3278.5623811912628</v>
       </c>
       <c r="AA25" s="32">
         <f>$I$25*100*($I$6-$I$5*L10)</f>
-        <v>0</v>
+        <v>-2026.5547404774463</v>
       </c>
       <c r="AB25" s="32">
         <f>$I$25*100*($I$6-$I$5*M10)</f>
-        <v>-370.82806404578076</v>
+        <v>-7331.6718621461578</v>
       </c>
       <c r="AC25" s="32">
         <f>$I$25*100*($I$6-$I$5*N10)</f>
-        <v>-741.65612809156153</v>
+        <v>-12636.788983814869</v>
       </c>
     </row>
     <row r="26" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4732,22 +4729,22 @@
       </c>
       <c r="C26" s="10">
         <f t="shared" si="12"/>
-        <v>0.6708177714286917</v>
+        <v>5.2085966177452718</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" si="13"/>
-        <v>804.98132571443011</v>
+        <v>3278.8115708706487</v>
       </c>
       <c r="E26" s="9">
         <f>IF(B26=0,0,($E$7*($E$10-14)))</f>
-        <v>12</v>
+        <v>6.2949999999999999</v>
       </c>
       <c r="H26" s="34">
         <v>16</v>
       </c>
       <c r="I26" s="30">
         <f t="shared" si="8"/>
-        <v>1.2812109612781724</v>
+        <v>13.635710091914175</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -4766,23 +4763,23 @@
       <c r="X26" s="32"/>
       <c r="Y26" s="32">
         <f>I26*I6*100</f>
-        <v>1537.4531535338069</v>
+        <v>22472.07293848741</v>
       </c>
       <c r="Z26" s="32">
         <f>$I$26*100*($I$6-$I$5)</f>
-        <v>1024.9687690225378</v>
+        <v>13888.393435627435</v>
       </c>
       <c r="AA26" s="32">
         <f>$I$26*100*($I$6-$I$5*K10)</f>
-        <v>512.4843845112689</v>
+        <v>5304.7139327674631</v>
       </c>
       <c r="AB26" s="32">
         <f>$I$26*100*($I$6-$I$5*L10)</f>
-        <v>0</v>
+        <v>-3278.9655700925077</v>
       </c>
       <c r="AC26" s="32">
         <f>$I$26*100*($I$6-$I$5*M10)</f>
-        <v>-512.4843845112689</v>
+        <v>-11862.645072952484</v>
       </c>
     </row>
     <row r="27" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4792,162 +4789,162 @@
       </c>
       <c r="C27" s="10">
         <f t="shared" si="12"/>
-        <v>0.92707016011445187</v>
+        <v>8.4275093275118511</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" si="13"/>
-        <v>927.07016011445182</v>
+        <v>0</v>
       </c>
       <c r="E27" s="9">
         <f>IF(B27=0,0,($E$7*($E$10-15)))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H27" s="34">
         <v>17</v>
       </c>
       <c r="I27" s="30">
         <f t="shared" si="8"/>
-        <v>1.770633548486434</v>
+        <v>22.062578928717137</v>
       </c>
       <c r="Z27" s="32">
         <f>$I$27*$I$6*100</f>
-        <v>2124.7602581837205</v>
+        <v>36359.814014472628</v>
       </c>
       <c r="AA27" s="32">
         <f>$I$27*100*($I$6-$I$5*J$10)</f>
-        <v>1416.5068387891472</v>
+        <v>22471.420578845195</v>
       </c>
       <c r="AB27" s="32">
         <f t="shared" ref="AB27:AC27" si="41">$I$27*100*($I$6-$I$5*K$10)</f>
-        <v>708.2534193945736</v>
+        <v>8583.027143217756</v>
       </c>
       <c r="AC27" s="32">
         <f t="shared" si="41"/>
+        <v>-5305.3662924096789</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="24">
+        <f t="shared" si="11"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="24" t="str">
-        <f t="shared" si="11"/>
-        <v>L16</v>
       </c>
       <c r="C28" s="10">
         <f t="shared" si="12"/>
-        <v>1.2812109612781724</v>
+        <v>0</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="13"/>
-        <v>1024.9687690225378</v>
+        <v>0</v>
       </c>
       <c r="E28" s="9">
         <f>IF(B28=0,0,($E$7*($E$10-16)))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H28" s="34">
         <v>18</v>
       </c>
       <c r="I28" s="30">
         <f t="shared" si="8"/>
-        <v>2.4470155640082516</v>
+        <v>35.697252706664329</v>
       </c>
       <c r="AA28" s="32">
         <f>$I$28*$I$6*100</f>
-        <v>2936.4186768099016</v>
+        <v>58830.179075416723</v>
       </c>
       <c r="AB28" s="32">
         <f>$I$28*100*($I$6-$I$5*J$10)</f>
-        <v>1957.6124512066012</v>
+        <v>36358.758496571529</v>
       </c>
       <c r="AC28" s="32">
         <f>$I$28*100*($I$6-$I$5*K$10)</f>
-        <v>978.80622560330062</v>
+        <v>13887.337917726329</v>
       </c>
     </row>
     <row r="29" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="24" t="str">
+      <c r="B29" s="24">
         <f t="shared" si="11"/>
-        <v>L17</v>
+        <v>0</v>
       </c>
       <c r="C29" s="10">
         <f t="shared" si="12"/>
-        <v>1.770633548486434</v>
+        <v>0</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" si="13"/>
-        <v>1062.3801290918602</v>
+        <v>0</v>
       </c>
       <c r="E29" s="9">
         <f>IF(B29=0,0,($E$7*($E$10-17)))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H29" s="34">
         <v>19</v>
       </c>
       <c r="I29" s="30">
         <f t="shared" si="8"/>
-        <v>3.3817755094594033</v>
+        <v>57.758154879382886</v>
       </c>
       <c r="AB29" s="32">
         <f>$I$29*$I$6*100</f>
-        <v>4058.1306113512837</v>
+        <v>95187.229744024255</v>
       </c>
       <c r="AC29" s="32">
         <f>$I$29*100*($I$6-$I$5*J$10)</f>
-        <v>2705.4204075675225</v>
+        <v>58828.471247452726</v>
       </c>
     </row>
     <row r="30" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="24" t="str">
+      <c r="B30" s="24">
         <f t="shared" si="11"/>
-        <v>L18</v>
+        <v>0</v>
       </c>
       <c r="C30" s="10">
         <f t="shared" si="12"/>
-        <v>2.4470155640082516</v>
+        <v>0</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" si="13"/>
-        <v>978.80622560330062</v>
+        <v>0</v>
       </c>
       <c r="E30" s="9">
         <f>IF(B30=0,0,($E$7*($E$10-18)))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H30" s="34">
         <v>20</v>
       </c>
       <c r="I30" s="30">
         <f t="shared" si="8"/>
-        <v>4.6736137540728953</v>
+        <v>93.452694594841518</v>
       </c>
       <c r="AC30" s="32">
         <f>$I$30*$I$6*100</f>
-        <v>5608.3365048874739</v>
+        <v>154012.93772583126</v>
       </c>
     </row>
     <row r="31" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="24" t="str">
+      <c r="B31" s="24">
         <f>IF(B30=0,0,IF(VALUE(MID(B30,2,2))&gt;=$E$10,0,"L"&amp;VALUE(MID(B30,2,2))+1))</f>
-        <v>L19</v>
+        <v>0</v>
       </c>
       <c r="C31" s="10">
         <f>IF(B31&lt;&gt;0,C30*$E$9,0)</f>
-        <v>3.3817755094594033</v>
+        <v>0</v>
       </c>
       <c r="D31" s="9">
         <f t="shared" si="13"/>
-        <v>676.35510189188062</v>
+        <v>0</v>
       </c>
       <c r="E31" s="9">
         <f>IF(B31=0,0,($E$7*($E$10-19)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" s="36" t="s">
         <v>46</v>
       </c>
       <c r="I31" s="41">
         <f>SUM(I11:I26)</f>
-        <v>4.6089883468231267</v>
+        <v>35.683784674299567</v>
       </c>
       <c r="J31" s="37">
         <f>SUMIF(J11:J30, "&lt;0")</f>
@@ -4963,81 +4960,81 @@
       </c>
       <c r="M31" s="37">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>-2.4046899999999987</v>
       </c>
       <c r="N31" s="37">
         <f t="shared" si="42"/>
-        <v>-4</v>
+        <v>-12.590478419999998</v>
       </c>
       <c r="O31" s="37">
         <f t="shared" si="42"/>
-        <v>-13.527999999999999</v>
+        <v>-35.366084083559997</v>
       </c>
       <c r="P31" s="37">
         <f t="shared" si="42"/>
-        <v>-30.695695999999998</v>
+        <v>-78.512014047200083</v>
       </c>
       <c r="Q31" s="37">
         <f t="shared" si="42"/>
-        <v>-58.421451872000006</v>
+        <v>-154.61712872836972</v>
       </c>
       <c r="R31" s="37">
         <f t="shared" si="42"/>
-        <v>-100.73844648710399</v>
+        <v>-284.05020428250219</v>
       </c>
       <c r="S31" s="37">
         <f t="shared" si="42"/>
-        <v>-163.22053304517769</v>
+        <v>-499.7679205290886</v>
       </c>
       <c r="T31" s="37">
         <f t="shared" si="42"/>
-        <v>-253.57077666843554</v>
+        <v>-855.09418541606544</v>
       </c>
       <c r="U31" s="37">
         <f t="shared" si="42"/>
-        <v>-382.43481335577786</v>
+        <v>-1436.307082003194</v>
       </c>
       <c r="V31" s="37">
         <f t="shared" si="42"/>
-        <v>-564.52491205768501</v>
+        <v>-2383.0045486811682</v>
       </c>
       <c r="W31" s="37">
         <f t="shared" si="42"/>
-        <v>-820.1734284637206</v>
+        <v>-3921.0560497661299</v>
       </c>
       <c r="X31" s="37">
         <f t="shared" si="42"/>
-        <v>-1177.4796781368618</v>
+        <v>-6415.9183785215992</v>
       </c>
       <c r="Y31" s="37">
         <f t="shared" si="42"/>
-        <v>-1675.276915185143</v>
+        <v>-10458.900626447949</v>
       </c>
       <c r="Z31" s="37">
         <f t="shared" si="42"/>
-        <v>-2367.2326967858671</v>
+        <v>-17006.740903592781</v>
       </c>
       <c r="AA31" s="37">
         <f t="shared" si="42"/>
-        <v>-3327.5155869580685</v>
+        <v>-27607.441472013124</v>
       </c>
       <c r="AB31" s="37">
         <f t="shared" si="42"/>
-        <v>-4658.6265411760505</v>
+        <v>-44765.66999171723</v>
       </c>
       <c r="AC31" s="37">
         <f t="shared" si="42"/>
-        <v>-6502.2218799053016</v>
+        <v>-72533.97873659851</v>
       </c>
     </row>
     <row r="32" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="24" t="str">
+      <c r="B32" s="24">
         <f t="shared" si="11"/>
-        <v>L20</v>
+        <v>0</v>
       </c>
       <c r="C32" s="10">
         <f t="shared" si="12"/>
-        <v>4.6736137540728953</v>
+        <v>0</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" si="13"/>
@@ -5050,85 +5047,85 @@
       <c r="I32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J32" s="124">
+      <c r="J32" s="121">
         <f t="shared" ref="J32:AC32" si="44">SUM(J11:J30)</f>
-        <v>12</v>
-      </c>
-      <c r="K32" s="124">
+        <v>16.480309999999999</v>
+      </c>
+      <c r="K32" s="121">
         <f t="shared" si="44"/>
-        <v>24.584</v>
-      </c>
-      <c r="L32" s="124">
+        <v>36.850451579999998</v>
+      </c>
+      <c r="L32" s="121">
         <f t="shared" si="44"/>
-        <v>37.975087999999992</v>
-      </c>
-      <c r="M32" s="124">
+        <v>63.514340656439998</v>
+      </c>
+      <c r="M32" s="121">
         <f t="shared" si="44"/>
-        <v>52.481571615999989</v>
-      </c>
-      <c r="N32" s="124">
+        <v>100.36151318211992</v>
+      </c>
+      <c r="N32" s="121">
         <f t="shared" si="44"/>
-        <v>68.529531973311975</v>
-      </c>
-      <c r="O32" s="124">
+        <v>153.68523832867007</v>
+      </c>
+      <c r="O32" s="121">
         <f t="shared" si="44"/>
-        <v>86.707813187117154</v>
-      </c>
-      <c r="P32" s="124">
+        <v>233.66802561578817</v>
+      </c>
+      <c r="P32" s="121">
         <f t="shared" si="44"/>
-        <v>107.83019782459588</v>
-      </c>
-      <c r="Q32" s="124">
+        <v>356.78517544634525</v>
+      </c>
+      <c r="Q32" s="121">
         <f t="shared" si="44"/>
-        <v>133.0213333935915</v>
-      </c>
-      <c r="R32" s="124">
+        <v>549.69372387218664</v>
+      </c>
+      <c r="R32" s="121">
         <f t="shared" si="44"/>
-        <v>163.83548274994345</v>
-      </c>
-      <c r="S32" s="124">
+        <v>855.52475522519819</v>
+      </c>
+      <c r="S32" s="121">
         <f t="shared" si="44"/>
-        <v>202.42063716042185</v>
-      </c>
-      <c r="T32" s="124">
+        <v>1344.0643639543707</v>
+      </c>
+      <c r="T32" s="121">
         <f t="shared" si="44"/>
-        <v>251.74532055570299</v>
-      </c>
-      <c r="U32" s="124">
+        <v>2128.2264508781718</v>
+      </c>
+      <c r="U32" s="121">
         <f t="shared" si="44"/>
-        <v>315.91203300798156</v>
-      </c>
-      <c r="V32" s="124">
+        <v>3390.7057075208822</v>
+      </c>
+      <c r="V32" s="121">
         <f t="shared" si="44"/>
-        <v>400.59042961703045</v>
-      </c>
-      <c r="W32" s="124">
+        <v>5427.1021447687881</v>
+      </c>
+      <c r="W32" s="121">
         <f t="shared" si="44"/>
-        <v>513.61597373073619</v>
-      </c>
-      <c r="X32" s="124">
+        <v>8715.6965802359009</v>
+      </c>
+      <c r="X32" s="121">
         <f t="shared" si="44"/>
-        <v>665.81727569587713</v>
-      </c>
-      <c r="Y32" s="124">
+        <v>14030.34737682169</v>
+      </c>
+      <c r="Y32" s="121">
         <f t="shared" si="44"/>
-        <v>872.15947501170206</v>
-      </c>
-      <c r="Z32" s="124">
+        <v>22623.157365697494</v>
+      </c>
+      <c r="Z32" s="121">
         <f t="shared" si="44"/>
-        <v>1153.324394466172</v>
-      </c>
-      <c r="AA32" s="124">
+        <v>36520.028927698542</v>
+      </c>
+      <c r="AA32" s="121">
         <f t="shared" si="44"/>
-        <v>1537.8943131522494</v>
-      </c>
-      <c r="AB32" s="124">
+        <v>58998.87211501626</v>
+      </c>
+      <c r="AB32" s="121">
         <f t="shared" si="44"/>
-        <v>2065.3699407764079</v>
-      </c>
-      <c r="AC32" s="124">
+        <v>95363.345392096307</v>
+      </c>
+      <c r="AC32" s="121">
         <f t="shared" si="44"/>
-        <v>2790.3412581529956</v>
+        <v>154194.76815441181</v>
       </c>
     </row>
     <row r="33" spans="2:30" ht="16.8" x14ac:dyDescent="0.3">
@@ -5158,79 +5155,79 @@
       </c>
       <c r="K33" s="39">
         <f>SUM($I11:$I12)</f>
-        <v>2.3820000000000001E-2</v>
+        <v>2.6180000000000002E-2</v>
       </c>
       <c r="L33" s="39">
         <f>SUM($I11:$I13)</f>
-        <v>4.2919239999999997E-2</v>
+        <v>5.2359240000000001E-2</v>
       </c>
       <c r="M33" s="39">
         <f>SUM($I11:$I14)</f>
-        <v>6.9314389679999991E-2</v>
+        <v>9.4717250320000002E-2</v>
       </c>
       <c r="N33" s="39">
         <f>SUM($I11:$I15)</f>
-        <v>0.10579248653775998</v>
+        <v>0.16325251101776</v>
       </c>
       <c r="O33" s="39">
         <f>SUM($I11:$I16)</f>
-        <v>0.15620521639518428</v>
+        <v>0.27414256282673571</v>
       </c>
       <c r="P33" s="39">
         <f>SUM($I11:$I17)</f>
-        <v>0.22587560905814466</v>
+        <v>0.45356266665365841</v>
       </c>
       <c r="Q33" s="39">
         <f>SUM($I11:$I18)</f>
-        <v>0.32216009171835591</v>
+        <v>0.74386439464561938</v>
       </c>
       <c r="R33" s="39">
         <f>SUM($I11:$I19)</f>
-        <v>0.45522524675476783</v>
+        <v>1.2135725905366122</v>
       </c>
       <c r="S33" s="39">
         <f>SUM($I11:$I20)</f>
-        <v>0.63912129101508908</v>
+        <v>1.9735604514882388</v>
       </c>
       <c r="T33" s="39">
         <f>SUM($I11:$I21)</f>
-        <v>0.89326562418285305</v>
+        <v>3.2032208105079705</v>
       </c>
       <c r="U33" s="39">
         <f>SUM($I11:$I22)</f>
-        <v>1.244493092620703</v>
+        <v>5.1928112714018964</v>
       </c>
       <c r="V33" s="39">
         <f>SUM($I11:$I23)</f>
-        <v>1.7298894540018113</v>
+        <v>8.4119686371282683</v>
       </c>
       <c r="W33" s="39">
         <f>SUM($I11:$I24)</f>
-        <v>2.4007072254305029</v>
+        <v>13.62056525487354</v>
       </c>
       <c r="X33" s="39">
         <f>SUM($I11:$I25)</f>
-        <v>3.3277773855449548</v>
+        <v>22.048074582385389</v>
       </c>
       <c r="Y33" s="39">
         <f>SUM($I11:$I26)</f>
-        <v>4.6089883468231267</v>
+        <v>35.683784674299567</v>
       </c>
       <c r="Z33" s="39">
         <f>SUM($I11:$I27)</f>
-        <v>6.3796218953095609</v>
+        <v>57.746363603016704</v>
       </c>
       <c r="AA33" s="39">
         <f>SUM($I11:$I28)</f>
-        <v>8.8266374593178121</v>
+        <v>93.443616309681033</v>
       </c>
       <c r="AB33" s="39">
         <f>SUM($I11:$I29)</f>
-        <v>12.208412968777216</v>
+        <v>151.20177118906392</v>
       </c>
       <c r="AC33" s="39">
         <f>SUM($I11:$I30)</f>
-        <v>16.88202672285011</v>
+        <v>244.65446578390544</v>
       </c>
     </row>
     <row r="34" spans="2:30" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -5252,100 +5249,100 @@
       </c>
     </row>
     <row r="35" spans="2:30" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="54" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="25">
         <f>SUM(C13:C34)</f>
-        <v>16.88202672285011</v>
+        <v>22.048074582385389</v>
       </c>
       <c r="D35" s="25">
         <f>SUM(D13:D34)</f>
-        <v>8734.045404633569</v>
+        <v>22305.56302526149</v>
       </c>
       <c r="E35" s="26">
         <f>MAX(E13:E34)</f>
-        <v>38</v>
+        <v>88.13</v>
       </c>
       <c r="J35" s="5" t="str">
         <f t="shared" ref="J35:AB35" si="45">"iff(trade_no == "&amp;J10&amp;") return "&amp;ROUND(J32, 2)&amp;" ;"</f>
-        <v>iff(trade_no == 1) return 12 ;</v>
+        <v>iff(trade_no == 1) return 16.48 ;</v>
       </c>
       <c r="K35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 2) return 24.58 ;</v>
+        <v>iff(trade_no == 2) return 36.85 ;</v>
       </c>
       <c r="L35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 3) return 37.98 ;</v>
+        <v>iff(trade_no == 3) return 63.51 ;</v>
       </c>
       <c r="M35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 4) return 52.48 ;</v>
+        <v>iff(trade_no == 4) return 100.36 ;</v>
       </c>
       <c r="N35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 5) return 68.53 ;</v>
+        <v>iff(trade_no == 5) return 153.69 ;</v>
       </c>
       <c r="O35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 6) return 86.71 ;</v>
+        <v>iff(trade_no == 6) return 233.67 ;</v>
       </c>
       <c r="P35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 7) return 107.83 ;</v>
+        <v>iff(trade_no == 7) return 356.79 ;</v>
       </c>
       <c r="Q35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 8) return 133.02 ;</v>
+        <v>iff(trade_no == 8) return 549.69 ;</v>
       </c>
       <c r="R35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 9) return 163.84 ;</v>
+        <v>iff(trade_no == 9) return 855.52 ;</v>
       </c>
       <c r="S35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 10) return 202.42 ;</v>
+        <v>iff(trade_no == 10) return 1344.06 ;</v>
       </c>
       <c r="T35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 11) return 251.75 ;</v>
+        <v>iff(trade_no == 11) return 2128.23 ;</v>
       </c>
       <c r="U35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 12) return 315.91 ;</v>
+        <v>iff(trade_no == 12) return 3390.71 ;</v>
       </c>
       <c r="V35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 13) return 400.59 ;</v>
+        <v>iff(trade_no == 13) return 5427.1 ;</v>
       </c>
       <c r="W35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 14) return 513.62 ;</v>
+        <v>iff(trade_no == 14) return 8715.7 ;</v>
       </c>
       <c r="X35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 15) return 665.82 ;</v>
+        <v>iff(trade_no == 15) return 14030.35 ;</v>
       </c>
       <c r="Y35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 16) return 872.16 ;</v>
+        <v>iff(trade_no == 16) return 22623.16 ;</v>
       </c>
       <c r="Z35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 17) return 1153.32 ;</v>
+        <v>iff(trade_no == 17) return 36520.03 ;</v>
       </c>
       <c r="AA35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 18) return 1537.89 ;</v>
+        <v>iff(trade_no == 18) return 58998.87 ;</v>
       </c>
       <c r="AB35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 19) return 2065.37 ;</v>
+        <v>iff(trade_no == 19) return 95363.35 ;</v>
       </c>
       <c r="AC35" s="5" t="str">
         <f>"iff(trade_no == "&amp;AC10&amp;") return "&amp;ROUND(AC32, 2)&amp;" ;"</f>
-        <v>iff(trade_no == 20) return 2790.34 ;</v>
+        <v>iff(trade_no == 20) return 154194.77 ;</v>
       </c>
     </row>
     <row r="36" spans="2:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -7069,29 +7066,29 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="2:29" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="114">
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="111">
         <v>0.11</v>
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="128" t="s">
+      <c r="K2" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128" t="s">
+      <c r="L2" s="125"/>
+      <c r="M2" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128" t="s">
+      <c r="N2" s="125"/>
+      <c r="O2" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
       <c r="R2" s="40"/>
       <c r="S2" s="40"/>
       <c r="T2" s="40"/>
@@ -7102,35 +7099,35 @@
       <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="115">
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="112">
         <f>E2</f>
         <v>0.11</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
-      <c r="K3" s="125">
+      <c r="K3" s="122">
         <f>SUM(GBPJPY!C13:C37)</f>
         <v>12.759243790619122</v>
       </c>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126">
+      <c r="L3" s="122"/>
+      <c r="M3" s="123">
         <f>K3*91</f>
         <v>1161.09118494634</v>
       </c>
-      <c r="N3" s="126"/>
-      <c r="O3" s="127">
+      <c r="N3" s="123"/>
+      <c r="O3" s="124">
         <f>M3+GBPJPY!D35</f>
         <v>1339.9022866437358</v>
       </c>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="110">
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="107">
         <f>O3*2</f>
         <v>2679.8045732874716</v>
       </c>
@@ -7143,19 +7140,19 @@
       <c r="Y3" s="20"/>
     </row>
     <row r="4" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="115">
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="112">
         <f>E3</f>
         <v>0.11</v>
       </c>
       <c r="H4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="51">
         <f>E9</f>
         <v>1.3819999999999999</v>
       </c>
@@ -7179,19 +7176,19 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="115">
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="112">
         <f>E4</f>
         <v>0.11</v>
       </c>
       <c r="H5" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="51">
         <v>0.11</v>
       </c>
       <c r="J5" s="2">
@@ -7214,19 +7211,19 @@
       <c r="Y5" s="2"/>
     </row>
     <row r="6" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="115">
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="112">
         <f>E5</f>
         <v>0.11</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="51">
         <f>I5*3</f>
         <v>0.33</v>
       </c>
@@ -7236,12 +7233,12 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="115">
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="112">
         <f>E6</f>
         <v>0.11</v>
       </c>
@@ -7328,12 +7325,12 @@
       </c>
     </row>
     <row r="8" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="112">
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="109">
         <v>0.01</v>
       </c>
       <c r="H8" s="1"/>
@@ -7419,12 +7416,12 @@
       </c>
     </row>
     <row r="9" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="111">
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="108">
         <v>1.3819999999999999</v>
       </c>
       <c r="H9" s="29" t="s">
@@ -7495,18 +7492,18 @@
       </c>
     </row>
     <row r="10" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="55">
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="53">
         <v>17</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="53"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="29">
         <v>1</v>
       </c>
@@ -7580,83 +7577,83 @@
         <f>GBPJPY!C13</f>
         <v>0.01</v>
       </c>
-      <c r="J11" s="116">
+      <c r="J11" s="113">
         <f>I11*I6*100</f>
         <v>0.33</v>
       </c>
-      <c r="K11" s="116">
+      <c r="K11" s="113">
         <f>I11*100*(I6-I5)</f>
         <v>0.22000000000000003</v>
       </c>
-      <c r="L11" s="116">
+      <c r="L11" s="113">
         <f t="shared" ref="L11:AC11" si="2">$I$11*100*($I$6-$I$5*K10)</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="M11" s="116">
+      <c r="M11" s="113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N11" s="116">
+      <c r="N11" s="113">
         <f>$I$11*100*($I$6-$I$5*M10)</f>
         <v>-0.10999999999999999</v>
       </c>
-      <c r="O11" s="116">
+      <c r="O11" s="113">
         <f t="shared" si="2"/>
         <v>-0.22000000000000003</v>
       </c>
-      <c r="P11" s="116">
+      <c r="P11" s="113">
         <f t="shared" si="2"/>
         <v>-0.33</v>
       </c>
-      <c r="Q11" s="116">
+      <c r="Q11" s="113">
         <f t="shared" si="2"/>
         <v>-0.44</v>
       </c>
-      <c r="R11" s="116">
+      <c r="R11" s="113">
         <f t="shared" si="2"/>
         <v>-0.55000000000000004</v>
       </c>
-      <c r="S11" s="116">
+      <c r="S11" s="113">
         <f t="shared" si="2"/>
         <v>-0.65999999999999992</v>
       </c>
-      <c r="T11" s="116">
+      <c r="T11" s="113">
         <f t="shared" si="2"/>
         <v>-0.77</v>
       </c>
-      <c r="U11" s="116">
+      <c r="U11" s="113">
         <f t="shared" si="2"/>
         <v>-0.87999999999999989</v>
       </c>
-      <c r="V11" s="116">
+      <c r="V11" s="113">
         <f t="shared" si="2"/>
         <v>-0.99</v>
       </c>
-      <c r="W11" s="116">
+      <c r="W11" s="113">
         <f t="shared" si="2"/>
         <v>-1.0999999999999999</v>
       </c>
-      <c r="X11" s="116">
+      <c r="X11" s="113">
         <f t="shared" si="2"/>
         <v>-1.21</v>
       </c>
-      <c r="Y11" s="116">
+      <c r="Y11" s="113">
         <f t="shared" si="2"/>
         <v>-1.3199999999999998</v>
       </c>
-      <c r="Z11" s="116">
+      <c r="Z11" s="113">
         <f t="shared" si="2"/>
         <v>-1.43</v>
       </c>
-      <c r="AA11" s="116">
+      <c r="AA11" s="113">
         <f t="shared" si="2"/>
         <v>-1.54</v>
       </c>
-      <c r="AB11" s="116">
+      <c r="AB11" s="113">
         <f t="shared" si="2"/>
         <v>-1.65</v>
       </c>
-      <c r="AC11" s="116">
+      <c r="AC11" s="113">
         <f t="shared" si="2"/>
         <v>-1.7599999999999998</v>
       </c>
@@ -7681,80 +7678,80 @@
         <f t="shared" ref="I12:I30" si="3">I11*$I$4</f>
         <v>1.3819999999999999E-2</v>
       </c>
-      <c r="J12" s="117"/>
-      <c r="K12" s="116">
+      <c r="J12" s="114"/>
+      <c r="K12" s="113">
         <f>I12*100*I6</f>
         <v>0.45605999999999997</v>
       </c>
-      <c r="L12" s="116">
+      <c r="L12" s="113">
         <f>I12*100*(I6-I5)</f>
         <v>0.30404000000000003</v>
       </c>
-      <c r="M12" s="116">
+      <c r="M12" s="113">
         <f t="shared" ref="M12:AC12" si="4">$I$12*100*($I$6-$I$5*K10)</f>
         <v>0.15202000000000002</v>
       </c>
-      <c r="N12" s="116">
+      <c r="N12" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O12" s="116">
+      <c r="O12" s="113">
         <f t="shared" si="4"/>
         <v>-0.15201999999999996</v>
       </c>
-      <c r="P12" s="116">
+      <c r="P12" s="113">
         <f t="shared" si="4"/>
         <v>-0.30404000000000003</v>
       </c>
-      <c r="Q12" s="116">
+      <c r="Q12" s="113">
         <f t="shared" si="4"/>
         <v>-0.45605999999999997</v>
       </c>
-      <c r="R12" s="116">
+      <c r="R12" s="113">
         <f t="shared" si="4"/>
         <v>-0.60807999999999995</v>
       </c>
-      <c r="S12" s="116">
+      <c r="S12" s="113">
         <f t="shared" si="4"/>
         <v>-0.7601</v>
       </c>
-      <c r="T12" s="116">
+      <c r="T12" s="113">
         <f t="shared" si="4"/>
         <v>-0.91211999999999982</v>
       </c>
-      <c r="U12" s="116">
+      <c r="U12" s="113">
         <f t="shared" si="4"/>
         <v>-1.0641399999999999</v>
       </c>
-      <c r="V12" s="116">
+      <c r="V12" s="113">
         <f t="shared" si="4"/>
         <v>-1.2161599999999997</v>
       </c>
-      <c r="W12" s="116">
+      <c r="W12" s="113">
         <f t="shared" si="4"/>
         <v>-1.36818</v>
       </c>
-      <c r="X12" s="116">
+      <c r="X12" s="113">
         <f t="shared" si="4"/>
         <v>-1.5201999999999998</v>
       </c>
-      <c r="Y12" s="116">
+      <c r="Y12" s="113">
         <f t="shared" si="4"/>
         <v>-1.6722199999999998</v>
       </c>
-      <c r="Z12" s="116">
+      <c r="Z12" s="113">
         <f t="shared" si="4"/>
         <v>-1.8242399999999996</v>
       </c>
-      <c r="AA12" s="116">
+      <c r="AA12" s="113">
         <f t="shared" si="4"/>
         <v>-1.9762599999999997</v>
       </c>
-      <c r="AB12" s="116">
+      <c r="AB12" s="113">
         <f t="shared" si="4"/>
         <v>-2.1282799999999997</v>
       </c>
-      <c r="AC12" s="116">
+      <c r="AC12" s="113">
         <f t="shared" si="4"/>
         <v>-2.2802999999999995</v>
       </c>
@@ -7772,7 +7769,7 @@
         <f>+C13*E13*100</f>
         <v>1.76</v>
       </c>
-      <c r="E13" s="113">
+      <c r="E13" s="110">
         <f>IF(B13=0,0,$E$2+$E$3+$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
         <v>1.76</v>
       </c>
@@ -7783,77 +7780,77 @@
         <f t="shared" si="3"/>
         <v>1.9099239999999996E-2</v>
       </c>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="116">
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="113">
         <f>I13*100*I6</f>
         <v>0.63027491999999996</v>
       </c>
-      <c r="M13" s="116">
+      <c r="M13" s="113">
         <f>I13*100*(I6-I5)</f>
         <v>0.42018327999999999</v>
       </c>
-      <c r="N13" s="116">
+      <c r="N13" s="113">
         <f t="shared" ref="N13:AC13" si="5">$I$13*100*($I$6-$I$5*K10)</f>
         <v>0.21009164</v>
       </c>
-      <c r="O13" s="116">
+      <c r="O13" s="113">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P13" s="116">
+      <c r="P13" s="113">
         <f t="shared" si="5"/>
         <v>-0.21009163999999994</v>
       </c>
-      <c r="Q13" s="116">
+      <c r="Q13" s="113">
         <f t="shared" si="5"/>
         <v>-0.42018327999999999</v>
       </c>
-      <c r="R13" s="116">
+      <c r="R13" s="113">
         <f t="shared" si="5"/>
         <v>-0.63027491999999996</v>
       </c>
-      <c r="S13" s="116">
+      <c r="S13" s="113">
         <f t="shared" si="5"/>
         <v>-0.84036655999999987</v>
       </c>
-      <c r="T13" s="116">
+      <c r="T13" s="113">
         <f t="shared" si="5"/>
         <v>-1.0504582</v>
       </c>
-      <c r="U13" s="116">
+      <c r="U13" s="113">
         <f t="shared" si="5"/>
         <v>-1.2605498399999997</v>
       </c>
-      <c r="V13" s="116">
+      <c r="V13" s="113">
         <f t="shared" si="5"/>
         <v>-1.4706414799999998</v>
       </c>
-      <c r="W13" s="116">
+      <c r="W13" s="113">
         <f t="shared" si="5"/>
         <v>-1.6807331199999995</v>
       </c>
-      <c r="X13" s="116">
+      <c r="X13" s="113">
         <f t="shared" si="5"/>
         <v>-1.8908247599999997</v>
       </c>
-      <c r="Y13" s="116">
+      <c r="Y13" s="113">
         <f t="shared" si="5"/>
         <v>-2.1009163999999996</v>
       </c>
-      <c r="Z13" s="116">
+      <c r="Z13" s="113">
         <f t="shared" si="5"/>
         <v>-2.3110080399999995</v>
       </c>
-      <c r="AA13" s="116">
+      <c r="AA13" s="113">
         <f t="shared" si="5"/>
         <v>-2.5210996799999994</v>
       </c>
-      <c r="AB13" s="116">
+      <c r="AB13" s="113">
         <f t="shared" si="5"/>
         <v>-2.7311913199999993</v>
       </c>
-      <c r="AC13" s="116">
+      <c r="AC13" s="113">
         <f t="shared" si="5"/>
         <v>-2.9412829599999997</v>
       </c>
@@ -7871,7 +7868,7 @@
         <f t="shared" ref="D14:D34" si="8">+C14*E14*100</f>
         <v>2.2802999999999995</v>
       </c>
-      <c r="E14" s="113">
+      <c r="E14" s="110">
         <f>IF(B14=0,0,$E$3+$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
         <v>1.65</v>
       </c>
@@ -7882,74 +7879,74 @@
         <f t="shared" si="3"/>
         <v>2.6395149679999994E-2</v>
       </c>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="116">
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="113">
         <f>I14*100*I6</f>
         <v>0.8710399394399998</v>
       </c>
-      <c r="N14" s="116">
+      <c r="N14" s="113">
         <f>I14*100*(I6-I5)</f>
         <v>0.58069329295999994</v>
       </c>
-      <c r="O14" s="116">
+      <c r="O14" s="113">
         <f t="shared" ref="O14:AC14" si="9">$I$14*100*($I$6-$I$5*K10)</f>
         <v>0.29034664647999997</v>
       </c>
-      <c r="P14" s="116">
+      <c r="P14" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="116">
+      <c r="Q14" s="113">
         <f t="shared" si="9"/>
         <v>-0.29034664647999991</v>
       </c>
-      <c r="R14" s="116">
+      <c r="R14" s="113">
         <f t="shared" si="9"/>
         <v>-0.58069329295999994</v>
       </c>
-      <c r="S14" s="116">
+      <c r="S14" s="113">
         <f t="shared" si="9"/>
         <v>-0.8710399394399998</v>
       </c>
-      <c r="T14" s="116">
+      <c r="T14" s="113">
         <f t="shared" si="9"/>
         <v>-1.1613865859199997</v>
       </c>
-      <c r="U14" s="116">
+      <c r="U14" s="113">
         <f t="shared" si="9"/>
         <v>-1.4517332323999999</v>
       </c>
-      <c r="V14" s="116">
+      <c r="V14" s="113">
         <f t="shared" si="9"/>
         <v>-1.7420798788799994</v>
       </c>
-      <c r="W14" s="116">
+      <c r="W14" s="113">
         <f t="shared" si="9"/>
         <v>-2.0324265253599996</v>
       </c>
-      <c r="X14" s="116">
+      <c r="X14" s="113">
         <f t="shared" si="9"/>
         <v>-2.3227731718399993</v>
       </c>
-      <c r="Y14" s="116">
+      <c r="Y14" s="113">
         <f t="shared" si="9"/>
         <v>-2.6131198183199995</v>
       </c>
-      <c r="Z14" s="116">
+      <c r="Z14" s="113">
         <f t="shared" si="9"/>
         <v>-2.9034664647999988</v>
       </c>
-      <c r="AA14" s="116">
+      <c r="AA14" s="113">
         <f t="shared" si="9"/>
         <v>-3.193813111279999</v>
       </c>
-      <c r="AB14" s="116">
+      <c r="AB14" s="113">
         <f t="shared" si="9"/>
         <v>-3.4841597577599988</v>
       </c>
-      <c r="AC14" s="116">
+      <c r="AC14" s="113">
         <f t="shared" si="9"/>
         <v>-3.7745064042399989</v>
       </c>
@@ -7967,7 +7964,7 @@
         <f t="shared" si="8"/>
         <v>2.9412829599999997</v>
       </c>
-      <c r="E15" s="113">
+      <c r="E15" s="110">
         <f>IF(B15=0,0,$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
         <v>1.54</v>
       </c>
@@ -7978,71 +7975,71 @@
         <f t="shared" si="3"/>
         <v>3.647809685775999E-2</v>
       </c>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="116">
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="113">
         <f>I15*I6*100</f>
         <v>1.2037771963060797</v>
       </c>
-      <c r="O15" s="116">
+      <c r="O15" s="113">
         <f>I15*100*(I6-I5)</f>
         <v>0.80251813087071988</v>
       </c>
-      <c r="P15" s="116">
+      <c r="P15" s="113">
         <f t="shared" ref="P15:AC15" si="10">$I$15*100*($I$6-$I$5*K10)</f>
         <v>0.40125906543535994</v>
       </c>
-      <c r="Q15" s="116">
+      <c r="Q15" s="113">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R15" s="116">
+      <c r="R15" s="113">
         <f t="shared" si="10"/>
         <v>-0.40125906543535989</v>
       </c>
-      <c r="S15" s="116">
+      <c r="S15" s="113">
         <f t="shared" si="10"/>
         <v>-0.80251813087071988</v>
       </c>
-      <c r="T15" s="116">
+      <c r="T15" s="113">
         <f t="shared" si="10"/>
         <v>-1.2037771963060797</v>
       </c>
-      <c r="U15" s="116">
+      <c r="U15" s="113">
         <f t="shared" si="10"/>
         <v>-1.6050362617414395</v>
       </c>
-      <c r="V15" s="116">
+      <c r="V15" s="113">
         <f t="shared" si="10"/>
         <v>-2.0062953271767996</v>
       </c>
-      <c r="W15" s="116">
+      <c r="W15" s="113">
         <f t="shared" si="10"/>
         <v>-2.407554392612159</v>
       </c>
-      <c r="X15" s="116">
+      <c r="X15" s="113">
         <f t="shared" si="10"/>
         <v>-2.8088134580475193</v>
       </c>
-      <c r="Y15" s="116">
+      <c r="Y15" s="113">
         <f t="shared" si="10"/>
         <v>-3.2100725234828791</v>
       </c>
-      <c r="Z15" s="116">
+      <c r="Z15" s="113">
         <f t="shared" si="10"/>
         <v>-3.6113315889182394</v>
       </c>
-      <c r="AA15" s="116">
+      <c r="AA15" s="113">
         <f t="shared" si="10"/>
         <v>-4.0125906543535983</v>
       </c>
-      <c r="AB15" s="116">
+      <c r="AB15" s="113">
         <f t="shared" si="10"/>
         <v>-4.413849719788959</v>
       </c>
-      <c r="AC15" s="116">
+      <c r="AC15" s="113">
         <f t="shared" si="10"/>
         <v>-4.815108785224318</v>
       </c>
@@ -8060,7 +8057,7 @@
         <f t="shared" si="8"/>
         <v>3.7745064042399989</v>
       </c>
-      <c r="E16" s="113">
+      <c r="E16" s="110">
         <f>IF(B16=0,0,$E$5+$E$6+($E$7*($E$10-6)))</f>
         <v>1.43</v>
       </c>
@@ -8071,68 +8068,68 @@
         <f t="shared" si="3"/>
         <v>5.0412729857424302E-2</v>
       </c>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="116">
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="113">
         <f>I16*I6*100</f>
         <v>1.663620085295002</v>
       </c>
-      <c r="P16" s="116">
+      <c r="P16" s="113">
         <f>I16*100*(I6-I5)</f>
         <v>1.1090800568633348</v>
       </c>
-      <c r="Q16" s="116">
+      <c r="Q16" s="113">
         <f t="shared" ref="Q16:AC16" si="11">$I$16*100*($I$6-$I$5*K10)</f>
         <v>0.55454002843166739</v>
       </c>
-      <c r="R16" s="116">
+      <c r="R16" s="113">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S16" s="116">
+      <c r="S16" s="113">
         <f t="shared" si="11"/>
         <v>-0.55454002843166728</v>
       </c>
-      <c r="T16" s="116">
+      <c r="T16" s="113">
         <f t="shared" si="11"/>
         <v>-1.1090800568633348</v>
       </c>
-      <c r="U16" s="116">
+      <c r="U16" s="113">
         <f t="shared" si="11"/>
         <v>-1.663620085295002</v>
       </c>
-      <c r="V16" s="116">
+      <c r="V16" s="113">
         <f t="shared" si="11"/>
         <v>-2.2181601137266691</v>
       </c>
-      <c r="W16" s="116">
+      <c r="W16" s="113">
         <f t="shared" si="11"/>
         <v>-2.7727001421583366</v>
       </c>
-      <c r="X16" s="116">
+      <c r="X16" s="113">
         <f t="shared" si="11"/>
         <v>-3.3272401705900037</v>
       </c>
-      <c r="Y16" s="116">
+      <c r="Y16" s="113">
         <f t="shared" si="11"/>
         <v>-3.8817801990216712</v>
       </c>
-      <c r="Z16" s="116">
+      <c r="Z16" s="113">
         <f t="shared" si="11"/>
         <v>-4.4363202274533382</v>
       </c>
-      <c r="AA16" s="116">
+      <c r="AA16" s="113">
         <f t="shared" si="11"/>
         <v>-4.9908602558850061</v>
       </c>
-      <c r="AB16" s="116">
+      <c r="AB16" s="113">
         <f t="shared" si="11"/>
         <v>-5.5454002843166723</v>
       </c>
-      <c r="AC16" s="116">
+      <c r="AC16" s="113">
         <f t="shared" si="11"/>
         <v>-6.0999403127483403</v>
       </c>
@@ -8150,7 +8147,7 @@
         <f t="shared" si="8"/>
         <v>4.8151087852243188</v>
       </c>
-      <c r="E17" s="113">
+      <c r="E17" s="110">
         <f>IF(B17=0,0,$E$6+($E$7*($E$10-6)))</f>
         <v>1.32</v>
       </c>
@@ -8161,65 +8158,65 @@
         <f t="shared" si="3"/>
         <v>6.9670392662960379E-2</v>
       </c>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="116">
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="113">
         <f>I6*I17*100</f>
         <v>2.2991229578776928</v>
       </c>
-      <c r="Q17" s="116">
+      <c r="Q17" s="113">
         <f>I17*100*(I6-I5)</f>
         <v>1.5327486385851283</v>
       </c>
-      <c r="R17" s="116">
+      <c r="R17" s="113">
         <f t="shared" ref="R17:AC17" si="12">$I$17*100*($I$6-$I$5*K10)</f>
         <v>0.76637431929256417</v>
       </c>
-      <c r="S17" s="116">
+      <c r="S17" s="113">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T17" s="116">
+      <c r="T17" s="113">
         <f t="shared" si="12"/>
         <v>-0.76637431929256405</v>
       </c>
-      <c r="U17" s="116">
+      <c r="U17" s="113">
         <f t="shared" si="12"/>
         <v>-1.5327486385851283</v>
       </c>
-      <c r="V17" s="116">
+      <c r="V17" s="113">
         <f t="shared" si="12"/>
         <v>-2.2991229578776924</v>
       </c>
-      <c r="W17" s="116">
+      <c r="W17" s="113">
         <f t="shared" si="12"/>
         <v>-3.0654972771702567</v>
       </c>
-      <c r="X17" s="116">
+      <c r="X17" s="113">
         <f t="shared" si="12"/>
         <v>-3.8318715964628209</v>
       </c>
-      <c r="Y17" s="116">
+      <c r="Y17" s="113">
         <f t="shared" si="12"/>
         <v>-4.5982459157553839</v>
       </c>
-      <c r="Z17" s="116">
+      <c r="Z17" s="113">
         <f t="shared" si="12"/>
         <v>-5.3646202350479486</v>
       </c>
-      <c r="AA17" s="116">
+      <c r="AA17" s="113">
         <f t="shared" si="12"/>
         <v>-6.1309945543405124</v>
       </c>
-      <c r="AB17" s="116">
+      <c r="AB17" s="113">
         <f t="shared" si="12"/>
         <v>-6.8973688736330772</v>
       </c>
-      <c r="AC17" s="116">
+      <c r="AC17" s="113">
         <f t="shared" si="12"/>
         <v>-7.6637431929256401</v>
       </c>
@@ -8237,7 +8234,7 @@
         <f t="shared" si="8"/>
         <v>6.0999403127483403</v>
       </c>
-      <c r="E18" s="113">
+      <c r="E18" s="110">
         <f>IF(B18=0,0,($E$7*($E$10-6)))</f>
         <v>1.21</v>
       </c>
@@ -8248,62 +8245,62 @@
         <f t="shared" si="3"/>
         <v>9.6284482660211237E-2</v>
       </c>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="116">
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="113">
         <f>I6*I18*100</f>
         <v>3.1773879277869712</v>
       </c>
-      <c r="R18" s="116">
+      <c r="R18" s="113">
         <f>I18*100*(I6-I5)</f>
         <v>2.1182586185246475</v>
       </c>
-      <c r="S18" s="116">
+      <c r="S18" s="113">
         <f t="shared" ref="S18:AC18" si="13">$I$18*100*($I$6-$I$5*K10)</f>
         <v>1.0591293092623237</v>
       </c>
-      <c r="T18" s="116">
+      <c r="T18" s="113">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U18" s="116">
+      <c r="U18" s="113">
         <f t="shared" si="13"/>
         <v>-1.0591293092623235</v>
       </c>
-      <c r="V18" s="116">
+      <c r="V18" s="113">
         <f t="shared" si="13"/>
         <v>-2.1182586185246475</v>
       </c>
-      <c r="W18" s="116">
+      <c r="W18" s="113">
         <f t="shared" si="13"/>
         <v>-3.1773879277869712</v>
       </c>
-      <c r="X18" s="116">
+      <c r="X18" s="113">
         <f t="shared" si="13"/>
         <v>-4.2365172370492949</v>
       </c>
-      <c r="Y18" s="116">
+      <c r="Y18" s="113">
         <f t="shared" si="13"/>
         <v>-5.2956465463116187</v>
       </c>
-      <c r="Z18" s="116">
+      <c r="Z18" s="113">
         <f t="shared" si="13"/>
         <v>-6.3547758555739406</v>
       </c>
-      <c r="AA18" s="116">
+      <c r="AA18" s="113">
         <f t="shared" si="13"/>
         <v>-7.4139051648362653</v>
       </c>
-      <c r="AB18" s="116">
+      <c r="AB18" s="113">
         <f t="shared" si="13"/>
         <v>-8.4730344740985881</v>
       </c>
-      <c r="AC18" s="116">
+      <c r="AC18" s="113">
         <f t="shared" si="13"/>
         <v>-9.5321637833609127</v>
       </c>
@@ -8321,7 +8318,7 @@
         <f t="shared" si="8"/>
         <v>7.6637431929256428</v>
       </c>
-      <c r="E19" s="113">
+      <c r="E19" s="110">
         <f>IF(B19=0,0,($E$7*($E$10-7)))</f>
         <v>1.1000000000000001</v>
       </c>
@@ -8332,59 +8329,59 @@
         <f t="shared" si="3"/>
         <v>0.13306515503641192</v>
       </c>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="116">
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="114"/>
+      <c r="R19" s="113">
         <f>I6*I19*100</f>
         <v>4.3911501162015938</v>
       </c>
-      <c r="S19" s="116">
+      <c r="S19" s="113">
         <f>I19*100*(I6-I5)</f>
         <v>2.9274334108010627</v>
       </c>
-      <c r="T19" s="116">
+      <c r="T19" s="113">
         <f t="shared" ref="T19:AC19" si="14">$I$19*100*($I$6-$I$5*K10)</f>
         <v>1.4637167054005313</v>
       </c>
-      <c r="U19" s="116">
+      <c r="U19" s="113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V19" s="116">
+      <c r="V19" s="113">
         <f t="shared" si="14"/>
         <v>-1.4637167054005309</v>
       </c>
-      <c r="W19" s="116">
+      <c r="W19" s="113">
         <f t="shared" si="14"/>
         <v>-2.9274334108010627</v>
       </c>
-      <c r="X19" s="116">
+      <c r="X19" s="113">
         <f t="shared" si="14"/>
         <v>-4.3911501162015938</v>
       </c>
-      <c r="Y19" s="116">
+      <c r="Y19" s="113">
         <f t="shared" si="14"/>
         <v>-5.8548668216021245</v>
       </c>
-      <c r="Z19" s="116">
+      <c r="Z19" s="113">
         <f t="shared" si="14"/>
         <v>-7.318583527002656</v>
       </c>
-      <c r="AA19" s="116">
+      <c r="AA19" s="113">
         <f t="shared" si="14"/>
         <v>-8.7823002324031858</v>
       </c>
-      <c r="AB19" s="116">
+      <c r="AB19" s="113">
         <f t="shared" si="14"/>
         <v>-10.246016937803718</v>
       </c>
-      <c r="AC19" s="116">
+      <c r="AC19" s="113">
         <f t="shared" si="14"/>
         <v>-11.709733643204247</v>
       </c>
@@ -8402,7 +8399,7 @@
         <f t="shared" si="8"/>
         <v>9.5321637833609127</v>
       </c>
-      <c r="E20" s="113">
+      <c r="E20" s="110">
         <f>IF(B20=0,0,($E$7*($E$10-8)))</f>
         <v>0.99</v>
       </c>
@@ -8413,56 +8410,56 @@
         <f t="shared" si="3"/>
         <v>0.18389604426032125</v>
       </c>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="117"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="116">
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="113">
         <f>I6*I20*100</f>
         <v>6.0685694605906013</v>
       </c>
-      <c r="T20" s="116">
+      <c r="T20" s="113">
         <f>I20*100*(I6-I5)</f>
         <v>4.0457129737270678</v>
       </c>
-      <c r="U20" s="116">
+      <c r="U20" s="113">
         <f>$I$20*100*($I$6-$I$5*K10)</f>
         <v>2.0228564868635339</v>
       </c>
-      <c r="V20" s="116">
+      <c r="V20" s="113">
         <f>$I$20*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="116">
+      <c r="W20" s="113">
         <f>$I$20*100*($I$6-$I$5*M10)</f>
         <v>-2.0228564868635335</v>
       </c>
-      <c r="X20" s="116">
+      <c r="X20" s="113">
         <f>$I$20*100*($I$6-$I$5*N10)</f>
         <v>-4.0457129737270678</v>
       </c>
-      <c r="Y20" s="116">
+      <c r="Y20" s="113">
         <f>$I$20*100*($I$6-$I$5*O10)</f>
         <v>-6.0685694605906013</v>
       </c>
-      <c r="Z20" s="116">
+      <c r="Z20" s="113">
         <f t="shared" ref="Z20:AC20" si="15">$I$20*100*($I$6-$I$5*P10)</f>
         <v>-8.0914259474541357</v>
       </c>
-      <c r="AA20" s="116">
+      <c r="AA20" s="113">
         <f t="shared" si="15"/>
         <v>-10.114282434317669</v>
       </c>
-      <c r="AB20" s="116">
+      <c r="AB20" s="113">
         <f t="shared" si="15"/>
         <v>-12.137138921181201</v>
       </c>
-      <c r="AC20" s="116">
+      <c r="AC20" s="113">
         <f t="shared" si="15"/>
         <v>-14.159995408044736</v>
       </c>
@@ -8480,7 +8477,7 @@
         <f t="shared" si="8"/>
         <v>11.709733643204249</v>
       </c>
-      <c r="E21" s="113">
+      <c r="E21" s="110">
         <f>IF(B21=0,0,($E$7*($E$10-9)))</f>
         <v>0.88</v>
       </c>
@@ -8491,53 +8488,53 @@
         <f t="shared" si="3"/>
         <v>0.25414433316776397</v>
       </c>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="117"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="117"/>
-      <c r="R21" s="117"/>
-      <c r="S21" s="117"/>
-      <c r="T21" s="118">
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="114"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="115">
         <f>I6*I21*100</f>
         <v>8.3867629945362108</v>
       </c>
-      <c r="U21" s="118">
+      <c r="U21" s="115">
         <f>I21*100*(I6-I5)</f>
         <v>5.5911753296908078</v>
       </c>
-      <c r="V21" s="118">
+      <c r="V21" s="115">
         <f>$I$21*100*($I$6-$I$5*K10)</f>
         <v>2.7955876648454039</v>
       </c>
-      <c r="W21" s="118">
+      <c r="W21" s="115">
         <f>$I$21*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="X21" s="118">
+      <c r="X21" s="115">
         <f>$I$21*100*($I$6-$I$5*M10)</f>
         <v>-2.7955876648454034</v>
       </c>
-      <c r="Y21" s="118">
+      <c r="Y21" s="115">
         <f>$I$21*100*($I$6-$I$5*N10)</f>
         <v>-5.5911753296908078</v>
       </c>
-      <c r="Z21" s="118">
+      <c r="Z21" s="115">
         <f t="shared" ref="Z21:AC21" si="16">$I$21*100*($I$6-$I$5*O10)</f>
         <v>-8.3867629945362108</v>
       </c>
-      <c r="AA21" s="118">
+      <c r="AA21" s="115">
         <f t="shared" si="16"/>
         <v>-11.182350659381614</v>
       </c>
-      <c r="AB21" s="118">
+      <c r="AB21" s="115">
         <f t="shared" si="16"/>
         <v>-13.977938324227019</v>
       </c>
-      <c r="AC21" s="118">
+      <c r="AC21" s="115">
         <f t="shared" si="16"/>
         <v>-16.773525989072418</v>
       </c>
@@ -8555,7 +8552,7 @@
         <f t="shared" si="8"/>
         <v>14.159995408044738</v>
       </c>
-      <c r="E22" s="113">
+      <c r="E22" s="110">
         <f>IF(B22=0,0,($E$7*($E$10-10)))</f>
         <v>0.77</v>
       </c>
@@ -8566,50 +8563,50 @@
         <f t="shared" si="3"/>
         <v>0.3512274684378498</v>
       </c>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="117"/>
-      <c r="R22" s="117"/>
-      <c r="S22" s="117"/>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118">
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="114"/>
+      <c r="R22" s="114"/>
+      <c r="S22" s="114"/>
+      <c r="T22" s="115"/>
+      <c r="U22" s="115">
         <f>I6*I22*100</f>
         <v>11.590506458449044</v>
       </c>
-      <c r="V22" s="118">
+      <c r="V22" s="115">
         <f>I22*100*(I6-I5)</f>
         <v>7.7270043056326969</v>
       </c>
-      <c r="W22" s="118">
+      <c r="W22" s="115">
         <f>$I$22*100*($I$6-$I$5*K10)</f>
         <v>3.8635021528163485</v>
       </c>
-      <c r="X22" s="118">
+      <c r="X22" s="115">
         <f>$I$22*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="Y22" s="118">
+      <c r="Y22" s="115">
         <f>$I$22*100*($I$6-$I$5*M10)</f>
         <v>-3.8635021528163476</v>
       </c>
-      <c r="Z22" s="118">
+      <c r="Z22" s="115">
         <f t="shared" ref="Z22:AC22" si="17">$I$22*100*($I$6-$I$5*N10)</f>
         <v>-7.7270043056326969</v>
       </c>
-      <c r="AA22" s="118">
+      <c r="AA22" s="115">
         <f t="shared" si="17"/>
         <v>-11.590506458449044</v>
       </c>
-      <c r="AB22" s="118">
+      <c r="AB22" s="115">
         <f t="shared" si="17"/>
         <v>-15.454008611265392</v>
       </c>
-      <c r="AC22" s="118">
+      <c r="AC22" s="115">
         <f t="shared" si="17"/>
         <v>-19.317510764081742</v>
       </c>
@@ -8627,7 +8624,7 @@
         <f t="shared" si="8"/>
         <v>16.773525989072422</v>
       </c>
-      <c r="E23" s="113">
+      <c r="E23" s="110">
         <f>IF(B23=0,0,($E$7*($E$10-11)))</f>
         <v>0.66</v>
       </c>
@@ -8638,47 +8635,47 @@
         <f t="shared" si="3"/>
         <v>0.48539636138110837</v>
       </c>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="117"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="118">
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="114"/>
+      <c r="R23" s="114"/>
+      <c r="S23" s="114"/>
+      <c r="T23" s="115"/>
+      <c r="U23" s="115"/>
+      <c r="V23" s="115">
         <f>I6*I23*100</f>
         <v>16.018079925576576</v>
       </c>
-      <c r="W23" s="118">
+      <c r="W23" s="115">
         <f>I23*100*(I6-I5)</f>
         <v>10.678719950384385</v>
       </c>
-      <c r="X23" s="118">
+      <c r="X23" s="115">
         <f>$I$23*100*($I$6-$I$5*K10)</f>
         <v>5.3393599751921927</v>
       </c>
-      <c r="Y23" s="118">
+      <c r="Y23" s="115">
         <f>$I$23*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="118">
+      <c r="Z23" s="115">
         <f t="shared" ref="Z23:AC23" si="18">$I$23*100*($I$6-$I$5*M10)</f>
         <v>-5.339359975192191</v>
       </c>
-      <c r="AA23" s="118">
+      <c r="AA23" s="115">
         <f t="shared" si="18"/>
         <v>-10.678719950384385</v>
       </c>
-      <c r="AB23" s="118">
+      <c r="AB23" s="115">
         <f t="shared" si="18"/>
         <v>-16.018079925576576</v>
       </c>
-      <c r="AC23" s="118">
+      <c r="AC23" s="115">
         <f t="shared" si="18"/>
         <v>-21.357439900768767</v>
       </c>
@@ -8696,7 +8693,7 @@
         <f t="shared" si="8"/>
         <v>19.317510764081742</v>
       </c>
-      <c r="E24" s="113">
+      <c r="E24" s="110">
         <f>IF(B24=0,0,($E$7*($E$10-12)))</f>
         <v>0.55000000000000004</v>
       </c>
@@ -8707,44 +8704,44 @@
         <f t="shared" si="3"/>
         <v>0.6708177714286917</v>
       </c>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="117"/>
-      <c r="S24" s="117"/>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="118"/>
-      <c r="W24" s="118">
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="114"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="114"/>
+      <c r="Q24" s="114"/>
+      <c r="R24" s="114"/>
+      <c r="S24" s="114"/>
+      <c r="T24" s="115"/>
+      <c r="U24" s="115"/>
+      <c r="V24" s="115"/>
+      <c r="W24" s="115">
         <f>I6*I24*100</f>
         <v>22.136986457146826</v>
       </c>
-      <c r="X24" s="118">
+      <c r="X24" s="115">
         <f>I24*100*(I6-I5)</f>
         <v>14.757990971431219</v>
       </c>
-      <c r="Y24" s="118">
+      <c r="Y24" s="115">
         <f>$I$24*100*($I$6-$I$5*K10)</f>
         <v>7.3789954857156097</v>
       </c>
-      <c r="Z24" s="118">
+      <c r="Z24" s="115">
         <f t="shared" ref="Z24:AC24" si="19">$I$24*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="118">
+      <c r="AA24" s="115">
         <f t="shared" si="19"/>
         <v>-7.3789954857156079</v>
       </c>
-      <c r="AB24" s="118">
+      <c r="AB24" s="115">
         <f t="shared" si="19"/>
         <v>-14.757990971431219</v>
       </c>
-      <c r="AC24" s="118">
+      <c r="AC24" s="115">
         <f t="shared" si="19"/>
         <v>-22.136986457146829</v>
       </c>
@@ -8762,7 +8759,7 @@
         <f t="shared" si="8"/>
         <v>21.357439900768767</v>
       </c>
-      <c r="E25" s="113">
+      <c r="E25" s="110">
         <f>IF(B25=0,0,($E$7*($E$10-13)))</f>
         <v>0.44</v>
       </c>
@@ -8773,41 +8770,41 @@
         <f t="shared" si="3"/>
         <v>0.92707016011445187</v>
       </c>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="117"/>
-      <c r="R25" s="117"/>
-      <c r="S25" s="117"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118">
+      <c r="J25" s="114"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="114"/>
+      <c r="N25" s="114"/>
+      <c r="O25" s="114"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="114"/>
+      <c r="R25" s="114"/>
+      <c r="S25" s="114"/>
+      <c r="T25" s="115"/>
+      <c r="U25" s="115"/>
+      <c r="V25" s="115"/>
+      <c r="W25" s="115"/>
+      <c r="X25" s="115">
         <f>I6*I25*100</f>
         <v>30.59331528377691</v>
       </c>
-      <c r="Y25" s="118">
+      <c r="Y25" s="115">
         <f>I25*100*(I6-I5)</f>
         <v>20.395543522517944</v>
       </c>
-      <c r="Z25" s="118">
+      <c r="Z25" s="115">
         <f>$I$25*100*($I$6-$I$5*K10)</f>
         <v>10.197771761258972</v>
       </c>
-      <c r="AA25" s="118">
+      <c r="AA25" s="115">
         <f>$I$25*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="118">
+      <c r="AB25" s="115">
         <f>$I$25*100*($I$6-$I$5*M10)</f>
         <v>-10.19777176125897</v>
       </c>
-      <c r="AC25" s="118">
+      <c r="AC25" s="115">
         <f>$I$25*100*($I$6-$I$5*N10)</f>
         <v>-20.395543522517944</v>
       </c>
@@ -8825,7 +8822,7 @@
         <f t="shared" si="8"/>
         <v>22.136986457146826</v>
       </c>
-      <c r="E26" s="113">
+      <c r="E26" s="110">
         <f>IF(B26=0,0,($E$7*($E$10-14)))</f>
         <v>0.33</v>
       </c>
@@ -8836,38 +8833,38 @@
         <f t="shared" si="3"/>
         <v>1.2812109612781724</v>
       </c>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="117"/>
-      <c r="S26" s="117"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="118"/>
-      <c r="X26" s="118"/>
-      <c r="Y26" s="118">
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="114"/>
+      <c r="R26" s="114"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="115"/>
+      <c r="U26" s="115"/>
+      <c r="V26" s="115"/>
+      <c r="W26" s="115"/>
+      <c r="X26" s="115"/>
+      <c r="Y26" s="115">
         <f>I26*I6*100</f>
         <v>42.279961722179685</v>
       </c>
-      <c r="Z26" s="118">
+      <c r="Z26" s="115">
         <f>$I$26*100*($I$6-$I$5)</f>
         <v>28.186641148119794</v>
       </c>
-      <c r="AA26" s="118">
+      <c r="AA26" s="115">
         <f>$I$26*100*($I$6-$I$5*K10)</f>
         <v>14.093320574059897</v>
       </c>
-      <c r="AB26" s="118">
+      <c r="AB26" s="115">
         <f>$I$26*100*($I$6-$I$5*L10)</f>
         <v>0</v>
       </c>
-      <c r="AC26" s="118">
+      <c r="AC26" s="115">
         <f>$I$26*100*($I$6-$I$5*M10)</f>
         <v>-14.093320574059893</v>
       </c>
@@ -8885,7 +8882,7 @@
         <f t="shared" si="8"/>
         <v>20.395543522517944</v>
       </c>
-      <c r="E27" s="113">
+      <c r="E27" s="110">
         <f>IF(B27=0,0,($E$7*($E$10-15)))</f>
         <v>0.22</v>
       </c>
@@ -8896,35 +8893,35 @@
         <f t="shared" si="3"/>
         <v>1.770633548486434</v>
       </c>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="119"/>
-      <c r="T27" s="119"/>
-      <c r="U27" s="119"/>
-      <c r="V27" s="119"/>
-      <c r="W27" s="119"/>
-      <c r="X27" s="119"/>
-      <c r="Y27" s="119"/>
-      <c r="Z27" s="118">
+      <c r="J27" s="116"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="116"/>
+      <c r="O27" s="116"/>
+      <c r="P27" s="116"/>
+      <c r="Q27" s="116"/>
+      <c r="R27" s="116"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="116"/>
+      <c r="U27" s="116"/>
+      <c r="V27" s="116"/>
+      <c r="W27" s="116"/>
+      <c r="X27" s="116"/>
+      <c r="Y27" s="116"/>
+      <c r="Z27" s="115">
         <f>$I$27*$I$6*100</f>
         <v>58.430907100052323</v>
       </c>
-      <c r="AA27" s="118">
+      <c r="AA27" s="115">
         <f>$I$27*100*($I$6-$I$5*J$10)</f>
         <v>38.953938066701554</v>
       </c>
-      <c r="AB27" s="118">
+      <c r="AB27" s="115">
         <f t="shared" ref="AB27:AC27" si="20">$I$27*100*($I$6-$I$5*K$10)</f>
         <v>19.476969033350777</v>
       </c>
-      <c r="AC27" s="118">
+      <c r="AC27" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -8942,7 +8939,7 @@
         <f t="shared" si="8"/>
         <v>14.093320574059895</v>
       </c>
-      <c r="E28" s="113">
+      <c r="E28" s="110">
         <f>IF(B28=0,0,($E$7*($E$10-16)))</f>
         <v>0.11</v>
       </c>
@@ -8953,32 +8950,32 @@
         <f t="shared" si="3"/>
         <v>2.4470155640082516</v>
       </c>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="119"/>
-      <c r="T28" s="119"/>
-      <c r="U28" s="119"/>
-      <c r="V28" s="119"/>
-      <c r="W28" s="119"/>
-      <c r="X28" s="119"/>
-      <c r="Y28" s="119"/>
-      <c r="Z28" s="119"/>
-      <c r="AA28" s="118">
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="116"/>
+      <c r="P28" s="116"/>
+      <c r="Q28" s="116"/>
+      <c r="R28" s="116"/>
+      <c r="S28" s="116"/>
+      <c r="T28" s="116"/>
+      <c r="U28" s="116"/>
+      <c r="V28" s="116"/>
+      <c r="W28" s="116"/>
+      <c r="X28" s="116"/>
+      <c r="Y28" s="116"/>
+      <c r="Z28" s="116"/>
+      <c r="AA28" s="115">
         <f>$I$28*$I$6*100</f>
         <v>80.751513612272305</v>
       </c>
-      <c r="AB28" s="118">
+      <c r="AB28" s="115">
         <f>$I$28*100*($I$6-$I$5*J$10)</f>
         <v>53.834342408181541</v>
       </c>
-      <c r="AC28" s="118">
+      <c r="AC28" s="115">
         <f>$I$28*100*($I$6-$I$5*K$10)</f>
         <v>26.917171204090771</v>
       </c>
@@ -8996,7 +8993,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E29" s="113">
+      <c r="E29" s="110">
         <f>IF(B29=0,0,($E$7*($E$10-17)))</f>
         <v>0</v>
       </c>
@@ -9007,29 +9004,29 @@
         <f t="shared" si="3"/>
         <v>3.3817755094594033</v>
       </c>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
-      <c r="T29" s="119"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="119"/>
-      <c r="W29" s="119"/>
-      <c r="X29" s="119"/>
-      <c r="Y29" s="119"/>
-      <c r="Z29" s="119"/>
-      <c r="AA29" s="119"/>
-      <c r="AB29" s="118">
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="116"/>
+      <c r="P29" s="116"/>
+      <c r="Q29" s="116"/>
+      <c r="R29" s="116"/>
+      <c r="S29" s="116"/>
+      <c r="T29" s="116"/>
+      <c r="U29" s="116"/>
+      <c r="V29" s="116"/>
+      <c r="W29" s="116"/>
+      <c r="X29" s="116"/>
+      <c r="Y29" s="116"/>
+      <c r="Z29" s="116"/>
+      <c r="AA29" s="116"/>
+      <c r="AB29" s="115">
         <f>$I$29*$I$6*100</f>
         <v>111.59859181216032</v>
       </c>
-      <c r="AC29" s="118">
+      <c r="AC29" s="115">
         <f>$I$29*100*($I$6-$I$5*J$10)</f>
         <v>74.399061208106872</v>
       </c>
@@ -9058,26 +9055,26 @@
         <f t="shared" si="3"/>
         <v>4.6736137540728953</v>
       </c>
-      <c r="J30" s="119"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="119"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="119"/>
-      <c r="T30" s="119"/>
-      <c r="U30" s="119"/>
-      <c r="V30" s="119"/>
-      <c r="W30" s="119"/>
-      <c r="X30" s="119"/>
-      <c r="Y30" s="119"/>
-      <c r="Z30" s="119"/>
-      <c r="AA30" s="119"/>
-      <c r="AB30" s="119"/>
-      <c r="AC30" s="118">
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="116"/>
+      <c r="P30" s="116"/>
+      <c r="Q30" s="116"/>
+      <c r="R30" s="116"/>
+      <c r="S30" s="116"/>
+      <c r="T30" s="116"/>
+      <c r="U30" s="116"/>
+      <c r="V30" s="116"/>
+      <c r="W30" s="116"/>
+      <c r="X30" s="116"/>
+      <c r="Y30" s="116"/>
+      <c r="Z30" s="116"/>
+      <c r="AA30" s="116"/>
+      <c r="AB30" s="116"/>
+      <c r="AC30" s="115">
         <f>$I$30*$I$6*100</f>
         <v>154.22925388440555</v>
       </c>
@@ -9106,83 +9103,83 @@
         <f>SUM(I11:I26)</f>
         <v>4.6089883468231267</v>
       </c>
-      <c r="J31" s="120">
+      <c r="J31" s="117">
         <f>SUMIF(J11:J30, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="K31" s="120">
+      <c r="K31" s="117">
         <f t="shared" ref="K31:AC31" si="21">SUMIF(K11:K30, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="L31" s="120">
+      <c r="L31" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M31" s="120">
+      <c r="M31" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="N31" s="120">
+      <c r="N31" s="117">
         <f t="shared" si="21"/>
         <v>-0.10999999999999999</v>
       </c>
-      <c r="O31" s="120">
+      <c r="O31" s="117">
         <f t="shared" si="21"/>
         <v>-0.37202000000000002</v>
       </c>
-      <c r="P31" s="120">
+      <c r="P31" s="117">
         <f t="shared" si="21"/>
         <v>-0.84413163999999996</v>
       </c>
-      <c r="Q31" s="120">
+      <c r="Q31" s="117">
         <f t="shared" si="21"/>
         <v>-1.6065899264799999</v>
       </c>
-      <c r="R31" s="120">
+      <c r="R31" s="117">
         <f t="shared" si="21"/>
         <v>-2.77030727839536</v>
       </c>
-      <c r="S31" s="120">
+      <c r="S31" s="117">
         <f t="shared" si="21"/>
         <v>-4.4885646587423862</v>
       </c>
-      <c r="T31" s="120">
+      <c r="T31" s="117">
         <f t="shared" si="21"/>
         <v>-6.973196358381978</v>
       </c>
-      <c r="U31" s="120">
+      <c r="U31" s="117">
         <f t="shared" si="21"/>
         <v>-10.516957367283892</v>
       </c>
-      <c r="V31" s="120">
+      <c r="V31" s="117">
         <f t="shared" si="21"/>
         <v>-15.524435081586336</v>
       </c>
-      <c r="W31" s="120">
+      <c r="W31" s="117">
         <f t="shared" si="21"/>
         <v>-22.554769282752318</v>
       </c>
-      <c r="X31" s="120">
+      <c r="X31" s="117">
         <f t="shared" si="21"/>
         <v>-32.380691148763702</v>
       </c>
-      <c r="Y31" s="120">
+      <c r="Y31" s="117">
         <f t="shared" si="21"/>
         <v>-46.070115167591432</v>
       </c>
-      <c r="Z31" s="120">
+      <c r="Z31" s="117">
         <f t="shared" si="21"/>
         <v>-65.098899161611357</v>
       </c>
-      <c r="AA31" s="120">
+      <c r="AA31" s="117">
         <f t="shared" si="21"/>
         <v>-91.506678641346895</v>
       </c>
-      <c r="AB31" s="120">
+      <c r="AB31" s="117">
         <f t="shared" si="21"/>
         <v>-128.11222988234138</v>
       </c>
-      <c r="AC31" s="120">
+      <c r="AC31" s="117">
         <f t="shared" si="21"/>
         <v>-178.81110169739583</v>
       </c>
@@ -9207,83 +9204,83 @@
       <c r="I32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J32" s="121">
+      <c r="J32" s="118">
         <f t="shared" ref="J32:AC32" si="23">SUM(J11:J30)</f>
         <v>0.33</v>
       </c>
-      <c r="K32" s="121">
+      <c r="K32" s="118">
         <f t="shared" si="23"/>
         <v>0.67605999999999999</v>
       </c>
-      <c r="L32" s="121">
+      <c r="L32" s="118">
         <f t="shared" si="23"/>
         <v>1.0443149200000001</v>
       </c>
-      <c r="M32" s="121">
+      <c r="M32" s="118">
         <f t="shared" si="23"/>
         <v>1.4432432194399998</v>
       </c>
-      <c r="N32" s="121">
+      <c r="N32" s="118">
         <f t="shared" si="23"/>
         <v>1.8845621292660797</v>
       </c>
-      <c r="O32" s="121">
+      <c r="O32" s="118">
         <f t="shared" si="23"/>
         <v>2.3844648626457219</v>
       </c>
-      <c r="P32" s="121">
+      <c r="P32" s="118">
         <f t="shared" si="23"/>
         <v>2.9653304401763876</v>
       </c>
-      <c r="Q32" s="121">
+      <c r="Q32" s="118">
         <f t="shared" si="23"/>
         <v>3.6580866683237669</v>
       </c>
-      <c r="R32" s="121">
+      <c r="R32" s="118">
         <f t="shared" si="23"/>
         <v>4.5054757756234451</v>
       </c>
-      <c r="S32" s="121">
+      <c r="S32" s="118">
         <f t="shared" si="23"/>
         <v>5.5665675219116011</v>
       </c>
-      <c r="T32" s="121">
+      <c r="T32" s="118">
         <f t="shared" si="23"/>
         <v>6.9229963152818321</v>
       </c>
-      <c r="U32" s="121">
+      <c r="U32" s="118">
         <f t="shared" si="23"/>
         <v>8.687580907719493</v>
       </c>
-      <c r="V32" s="121">
+      <c r="V32" s="118">
         <f t="shared" si="23"/>
         <v>11.016236814468339</v>
       </c>
-      <c r="W32" s="121">
+      <c r="W32" s="118">
         <f t="shared" si="23"/>
         <v>14.124439277595242</v>
       </c>
-      <c r="X32" s="121">
+      <c r="X32" s="118">
         <f t="shared" si="23"/>
         <v>18.309975081636619</v>
       </c>
-      <c r="Y32" s="121">
+      <c r="Y32" s="118">
         <f t="shared" si="23"/>
         <v>23.98438556282181</v>
       </c>
-      <c r="Z32" s="121">
+      <c r="Z32" s="118">
         <f t="shared" si="23"/>
         <v>31.71642084781973</v>
       </c>
-      <c r="AA32" s="121">
+      <c r="AA32" s="118">
         <f t="shared" si="23"/>
         <v>42.292093611686866</v>
       </c>
-      <c r="AB32" s="121">
+      <c r="AB32" s="118">
         <f t="shared" si="23"/>
         <v>56.797673371351252</v>
       </c>
-      <c r="AC32" s="121">
+      <c r="AC32" s="118">
         <f t="shared" si="23"/>
         <v>76.734384599207374</v>
       </c>
@@ -9409,7 +9406,7 @@
       </c>
     </row>
     <row r="35" spans="2:30" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="54" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="25">
@@ -11119,278 +11116,278 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="57"/>
-    <col min="2" max="2" width="6" style="57" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" style="55"/>
+    <col min="2" max="2" width="6" style="55" customWidth="1"/>
     <col min="3" max="4" width="9.09765625" style="19"/>
     <col min="5" max="5" width="15.3984375" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.09765625" style="19"/>
-    <col min="7" max="20" width="9.09765625" style="57"/>
-    <col min="21" max="21" width="10.3984375" style="57" customWidth="1"/>
-    <col min="22" max="16384" width="9.09765625" style="57"/>
+    <col min="7" max="20" width="9.09765625" style="55"/>
+    <col min="21" max="21" width="10.3984375" style="55" customWidth="1"/>
+    <col min="22" max="16384" width="9.09765625" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="126" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="58">
+      <c r="F1" s="56">
         <v>1</v>
       </c>
-      <c r="G1" s="58">
+      <c r="G1" s="56">
         <v>1.6</v>
       </c>
-      <c r="H1" s="58">
+      <c r="H1" s="56">
         <v>1.7</v>
       </c>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="65"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69">
+      <c r="G2" s="66"/>
+      <c r="H2" s="67">
         <v>5</v>
       </c>
-      <c r="I2" s="69">
+      <c r="I2" s="67">
         <v>5</v>
       </c>
-      <c r="J2" s="69">
+      <c r="J2" s="67">
         <v>5</v>
       </c>
-      <c r="K2" s="69">
+      <c r="K2" s="67">
         <v>5</v>
       </c>
-      <c r="L2" s="69">
+      <c r="L2" s="67">
         <v>5</v>
       </c>
-      <c r="M2" s="69">
+      <c r="M2" s="67">
         <v>5</v>
       </c>
-      <c r="N2" s="70">
+      <c r="N2" s="68">
         <v>5</v>
       </c>
-      <c r="O2" s="82">
+      <c r="O2" s="80">
         <v>3</v>
       </c>
-      <c r="P2" s="83">
+      <c r="P2" s="81">
         <v>3</v>
       </c>
-      <c r="Q2" s="84">
+      <c r="Q2" s="82">
         <v>3</v>
       </c>
-      <c r="R2" s="88">
+      <c r="R2" s="86">
         <v>2</v>
       </c>
-      <c r="S2" s="89">
+      <c r="S2" s="87">
         <v>2</v>
       </c>
-      <c r="T2" s="89">
+      <c r="T2" s="87">
         <v>2</v>
       </c>
-      <c r="U2" s="90">
+      <c r="U2" s="88">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65" t="s">
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72">
+      <c r="G3" s="69"/>
+      <c r="H3" s="70">
         <f>H2</f>
         <v>5</v>
       </c>
-      <c r="I3" s="72">
+      <c r="I3" s="70">
         <f>SUM($H$2:I2)</f>
         <v>10</v>
       </c>
-      <c r="J3" s="72">
+      <c r="J3" s="70">
         <f>SUM($H$2:J2)</f>
         <v>15</v>
       </c>
-      <c r="K3" s="72">
+      <c r="K3" s="70">
         <f>SUM($H$2:K2)</f>
         <v>20</v>
       </c>
-      <c r="L3" s="72">
+      <c r="L3" s="70">
         <f>SUM($H$2:L2)</f>
         <v>25</v>
       </c>
-      <c r="M3" s="72">
+      <c r="M3" s="70">
         <f>SUM($H$2:M2)</f>
         <v>30</v>
       </c>
-      <c r="N3" s="73">
+      <c r="N3" s="71">
         <f>SUM($H$2:N2)</f>
         <v>35</v>
       </c>
-      <c r="O3" s="85">
+      <c r="O3" s="83">
         <f>SUM($H$2:O2)</f>
         <v>38</v>
       </c>
-      <c r="P3" s="86">
+      <c r="P3" s="84">
         <f>SUM($H$2:P2)</f>
         <v>41</v>
       </c>
-      <c r="Q3" s="87">
+      <c r="Q3" s="85">
         <f>SUM($H$2:Q2)</f>
         <v>44</v>
       </c>
-      <c r="R3" s="91">
+      <c r="R3" s="89">
         <f>SUM($H$2:R2)</f>
         <v>46</v>
       </c>
-      <c r="S3" s="92">
+      <c r="S3" s="90">
         <f>SUM($H$2:S2)</f>
         <v>48</v>
       </c>
-      <c r="T3" s="92">
+      <c r="T3" s="90">
         <f>SUM($H$2:T2)</f>
         <v>50</v>
       </c>
-      <c r="U3" s="93">
+      <c r="U3" s="91">
         <f>SUM($H$2:U2)</f>
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="132"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="129"/>
       <c r="E4" s="15" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="15"/>
-      <c r="G4" s="96">
+      <c r="G4" s="94">
         <v>30</v>
       </c>
-      <c r="H4" s="97">
+      <c r="H4" s="95">
         <v>30</v>
       </c>
-      <c r="I4" s="97">
+      <c r="I4" s="95">
         <v>30</v>
       </c>
-      <c r="J4" s="97">
+      <c r="J4" s="95">
         <v>30</v>
       </c>
-      <c r="K4" s="97">
+      <c r="K4" s="95">
         <v>30</v>
       </c>
-      <c r="L4" s="97">
+      <c r="L4" s="95">
         <v>30</v>
       </c>
-      <c r="M4" s="97">
+      <c r="M4" s="95">
         <v>30</v>
       </c>
-      <c r="N4" s="98">
+      <c r="N4" s="96">
         <v>30</v>
       </c>
-      <c r="O4" s="99">
+      <c r="O4" s="97">
         <v>5</v>
       </c>
-      <c r="P4" s="100">
+      <c r="P4" s="98">
         <v>5</v>
       </c>
-      <c r="Q4" s="101">
+      <c r="Q4" s="99">
         <v>5</v>
       </c>
-      <c r="R4" s="102">
+      <c r="R4" s="100">
         <v>3</v>
       </c>
-      <c r="S4" s="103">
+      <c r="S4" s="101">
         <v>3</v>
       </c>
-      <c r="T4" s="103">
+      <c r="T4" s="101">
         <v>3</v>
       </c>
-      <c r="U4" s="104">
+      <c r="U4" s="102">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:23" ht="14.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="58">
         <f>F1</f>
         <v>1</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="58">
         <f>G1</f>
         <v>1.6</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="58">
         <f>H1</f>
         <v>1.7</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="106" t="s">
+      <c r="H5" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="106" t="s">
+      <c r="I5" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="106" t="s">
+      <c r="J5" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="106" t="s">
+      <c r="L5" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="106" t="s">
+      <c r="M5" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="107" t="s">
+      <c r="N5" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="108" t="s">
+      <c r="O5" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="106" t="s">
+      <c r="P5" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="107" t="s">
+      <c r="Q5" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="108" t="s">
+      <c r="R5" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="106" t="s">
+      <c r="S5" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="106" t="s">
+      <c r="T5" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="107" t="s">
+      <c r="U5" s="105" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="59" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="16">
@@ -11404,74 +11401,74 @@
         <f>C6</f>
         <v>0.01</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="62">
         <v>0.01</v>
       </c>
-      <c r="G6" s="94">
+      <c r="G6" s="92">
         <f>F6*G4*100</f>
         <v>30</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="45">
         <f>$F$6*(H4-H3)*100</f>
         <v>25</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="45">
         <f t="shared" ref="I6:U6" si="0">$F$6*(I4-I3)*100</f>
         <v>20</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="45">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="45">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6" s="95">
+      <c r="N6" s="93">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="48">
         <f t="shared" si="0"/>
         <v>-33</v>
       </c>
-      <c r="P6" s="46">
+      <c r="P6" s="45">
         <f t="shared" si="0"/>
         <v>-36</v>
       </c>
-      <c r="Q6" s="95">
+      <c r="Q6" s="93">
         <f t="shared" si="0"/>
         <v>-39</v>
       </c>
-      <c r="R6" s="49">
+      <c r="R6" s="48">
         <f t="shared" si="0"/>
         <v>-43</v>
       </c>
-      <c r="S6" s="46">
+      <c r="S6" s="45">
         <f t="shared" si="0"/>
         <v>-45</v>
       </c>
-      <c r="T6" s="46">
+      <c r="T6" s="45">
         <f t="shared" si="0"/>
         <v>-47</v>
       </c>
-      <c r="U6" s="95">
+      <c r="U6" s="93">
         <f t="shared" si="0"/>
         <v>-49</v>
       </c>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="59" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="17">
@@ -11490,8 +11487,8 @@
         <f>F6*$F$1</f>
         <v>0.01</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="50">
+      <c r="G7" s="46"/>
+      <c r="H7" s="49">
         <f>F7*H4*100</f>
         <v>30</v>
       </c>
@@ -11515,11 +11512,11 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O7" s="47">
+      <c r="O7" s="46">
         <f t="shared" si="3"/>
         <v>-28</v>
       </c>
@@ -11527,11 +11524,11 @@
         <f t="shared" si="3"/>
         <v>-31</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="Q7" s="47">
         <f t="shared" si="3"/>
         <v>-34</v>
       </c>
-      <c r="R7" s="47">
+      <c r="R7" s="46">
         <f t="shared" si="3"/>
         <v>-38</v>
       </c>
@@ -11543,15 +11540,15 @@
         <f t="shared" si="3"/>
         <v>-42</v>
       </c>
-      <c r="U7" s="48">
+      <c r="U7" s="47">
         <f t="shared" si="3"/>
         <v>-44</v>
       </c>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="59" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="17">
@@ -11570,9 +11567,9 @@
         <f>F7*$F$1</f>
         <v>0.01</v>
       </c>
-      <c r="G8" s="47"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="50">
+      <c r="I8" s="49">
         <f>F8*I4*100</f>
         <v>30</v>
       </c>
@@ -11592,11 +11589,11 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="N8" s="48">
+      <c r="N8" s="47">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="O8" s="47">
+      <c r="O8" s="46">
         <f t="shared" si="4"/>
         <v>-23</v>
       </c>
@@ -11604,11 +11601,11 @@
         <f t="shared" si="4"/>
         <v>-26</v>
       </c>
-      <c r="Q8" s="48">
+      <c r="Q8" s="47">
         <f t="shared" si="4"/>
         <v>-29</v>
       </c>
-      <c r="R8" s="47">
+      <c r="R8" s="46">
         <f t="shared" si="4"/>
         <v>-33</v>
       </c>
@@ -11620,15 +11617,15 @@
         <f t="shared" si="4"/>
         <v>-37</v>
       </c>
-      <c r="U8" s="48">
+      <c r="U8" s="47">
         <f t="shared" si="4"/>
         <v>-39</v>
       </c>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="60"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="59" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="17">
@@ -11647,10 +11644,10 @@
         <f t="shared" ref="F9:F13" si="6">F8*$F$1</f>
         <v>0.01</v>
       </c>
-      <c r="G9" s="47"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="50">
+      <c r="J9" s="49">
         <f>F9*J4*100</f>
         <v>30</v>
       </c>
@@ -11666,11 +11663,11 @@
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="N9" s="48">
+      <c r="N9" s="47">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="O9" s="47">
+      <c r="O9" s="46">
         <f t="shared" si="7"/>
         <v>-18</v>
       </c>
@@ -11678,11 +11675,11 @@
         <f t="shared" si="7"/>
         <v>-21</v>
       </c>
-      <c r="Q9" s="48">
+      <c r="Q9" s="47">
         <f t="shared" si="7"/>
         <v>-24</v>
       </c>
-      <c r="R9" s="47">
+      <c r="R9" s="46">
         <f t="shared" si="7"/>
         <v>-28.000000000000004</v>
       </c>
@@ -11694,15 +11691,15 @@
         <f t="shared" si="7"/>
         <v>-32</v>
       </c>
-      <c r="U9" s="48">
+      <c r="U9" s="47">
         <f t="shared" si="7"/>
         <v>-34</v>
       </c>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="59" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="17">
@@ -11721,11 +11718,11 @@
         <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
-      <c r="G10" s="47"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="50">
+      <c r="K10" s="49">
         <f>F10*K4*100</f>
         <v>30</v>
       </c>
@@ -11737,11 +11734,11 @@
         <f>$F$10*(M4-(M3-$K$3))*100</f>
         <v>20</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="47">
         <f t="shared" ref="N10:U10" si="8">$F$10*(N4-(N3-$K$3))*100</f>
         <v>15</v>
       </c>
-      <c r="O10" s="47">
+      <c r="O10" s="46">
         <f t="shared" si="8"/>
         <v>-13</v>
       </c>
@@ -11749,11 +11746,11 @@
         <f t="shared" si="8"/>
         <v>-16</v>
       </c>
-      <c r="Q10" s="48">
+      <c r="Q10" s="47">
         <f t="shared" si="8"/>
         <v>-19</v>
       </c>
-      <c r="R10" s="47">
+      <c r="R10" s="46">
         <f t="shared" si="8"/>
         <v>-23</v>
       </c>
@@ -11765,15 +11762,15 @@
         <f t="shared" si="8"/>
         <v>-27</v>
       </c>
-      <c r="U10" s="48">
+      <c r="U10" s="47">
         <f t="shared" si="8"/>
         <v>-28.999999999999996</v>
       </c>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="59" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="17">
@@ -11792,12 +11789,12 @@
         <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
-      <c r="G11" s="47"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="50">
+      <c r="L11" s="49">
         <f>F11*L4*100</f>
         <v>30</v>
       </c>
@@ -11805,11 +11802,11 @@
         <f>$F$11*(M4-(M3-$L$3))*100</f>
         <v>25</v>
       </c>
-      <c r="N11" s="48">
+      <c r="N11" s="47">
         <f>$F$11*(N4-(N3-$L$3))*100</f>
         <v>20</v>
       </c>
-      <c r="O11" s="47">
+      <c r="O11" s="46">
         <f t="shared" ref="O11:U11" si="9">$F$11*(O4-(O3-$L$3))*100</f>
         <v>-8</v>
       </c>
@@ -11817,11 +11814,11 @@
         <f t="shared" si="9"/>
         <v>-11</v>
       </c>
-      <c r="Q11" s="48">
+      <c r="Q11" s="47">
         <f t="shared" si="9"/>
         <v>-14.000000000000002</v>
       </c>
-      <c r="R11" s="47">
+      <c r="R11" s="46">
         <f t="shared" si="9"/>
         <v>-18</v>
       </c>
@@ -11833,15 +11830,15 @@
         <f t="shared" si="9"/>
         <v>-22</v>
       </c>
-      <c r="U11" s="48">
+      <c r="U11" s="47">
         <f t="shared" si="9"/>
         <v>-24</v>
       </c>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="59" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="17">
@@ -11859,21 +11856,21 @@
       <c r="F12" s="17">
         <v>0.01</v>
       </c>
-      <c r="G12" s="47"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
-      <c r="M12" s="50">
+      <c r="M12" s="49">
         <f>F12*M4*100</f>
         <v>30</v>
       </c>
-      <c r="N12" s="48">
+      <c r="N12" s="47">
         <f>$F$12*(N4-(N3-$M$3))*100</f>
         <v>25</v>
       </c>
-      <c r="O12" s="47">
+      <c r="O12" s="46">
         <f>$F$12*(O4-(O3-$M$3))*100</f>
         <v>-3</v>
       </c>
@@ -11881,11 +11878,11 @@
         <f t="shared" ref="P12:U12" si="10">$F$12*(P4-(P3-$M$3))*100</f>
         <v>-6</v>
       </c>
-      <c r="Q12" s="48">
+      <c r="Q12" s="47">
         <f t="shared" si="10"/>
         <v>-9</v>
       </c>
-      <c r="R12" s="47">
+      <c r="R12" s="46">
         <f t="shared" si="10"/>
         <v>-13</v>
       </c>
@@ -11897,15 +11894,15 @@
         <f t="shared" si="10"/>
         <v>-17</v>
       </c>
-      <c r="U12" s="48">
+      <c r="U12" s="47">
         <f t="shared" si="10"/>
         <v>-19</v>
       </c>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="59" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="17">
@@ -11924,18 +11921,18 @@
         <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
-      <c r="G13" s="47"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="75">
+      <c r="N13" s="73">
         <f>F13*N4*100</f>
         <v>30</v>
       </c>
-      <c r="O13" s="47">
+      <c r="O13" s="46">
         <f>$F$13*(O4-(O3-$N$3))*100</f>
         <v>2</v>
       </c>
@@ -11943,11 +11940,11 @@
         <f>$F$13*(P4-(P3-$N$3))*100</f>
         <v>-1</v>
       </c>
-      <c r="Q13" s="48">
+      <c r="Q13" s="47">
         <f t="shared" ref="Q13:U13" si="11">$F$13*(Q4-(Q3-$N$3))*100</f>
         <v>-4</v>
       </c>
-      <c r="R13" s="47">
+      <c r="R13" s="46">
         <f t="shared" si="11"/>
         <v>-8</v>
       </c>
@@ -11959,15 +11956,15 @@
         <f t="shared" si="11"/>
         <v>-12</v>
       </c>
-      <c r="U13" s="48">
+      <c r="U13" s="47">
         <f t="shared" si="11"/>
         <v>-14.000000000000002</v>
       </c>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="59" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="17">
@@ -11985,15 +11982,15 @@
       <c r="F14" s="17">
         <v>0.43</v>
       </c>
-      <c r="G14" s="47"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="74">
+      <c r="N14" s="47"/>
+      <c r="O14" s="72">
         <f>F14*O4*100</f>
         <v>215</v>
       </c>
@@ -12001,11 +11998,11 @@
         <f>$F$14*(P4-(P3-$O$3))*100</f>
         <v>86</v>
       </c>
-      <c r="Q14" s="48">
+      <c r="Q14" s="47">
         <f>$F$14*(Q4-(Q3-$O$3))*100</f>
         <v>-43</v>
       </c>
-      <c r="R14" s="47">
+      <c r="R14" s="46">
         <f t="shared" ref="R14:U14" si="12">$F$14*(R4-(R3-$O$3))*100</f>
         <v>-215</v>
       </c>
@@ -12017,15 +12014,15 @@
         <f t="shared" si="12"/>
         <v>-387</v>
       </c>
-      <c r="U14" s="48">
+      <c r="U14" s="47">
         <f t="shared" si="12"/>
         <v>-472.99999999999994</v>
       </c>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
     </row>
     <row r="15" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="59" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="17">
@@ -12043,24 +12040,24 @@
       <c r="F15" s="17">
         <v>0.69</v>
       </c>
-      <c r="G15" s="47"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="50">
+      <c r="N15" s="47"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="49">
         <f>F15*P4*100</f>
         <v>345</v>
       </c>
-      <c r="Q15" s="48">
+      <c r="Q15" s="47">
         <f>$F$15*(Q4-(Q3-$P$3))*100</f>
         <v>138</v>
       </c>
-      <c r="R15" s="47">
+      <c r="R15" s="46">
         <f>$F$15*(R4-(R3-$P$3))*100</f>
         <v>-138</v>
       </c>
@@ -12072,15 +12069,15 @@
         <f t="shared" si="13"/>
         <v>-413.99999999999994</v>
       </c>
-      <c r="U15" s="48">
+      <c r="U15" s="47">
         <f t="shared" si="13"/>
         <v>-552</v>
       </c>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="59" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="17">
@@ -12098,21 +12095,21 @@
       <c r="F16" s="17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G16" s="47"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="46"/>
       <c r="P16" s="18"/>
-      <c r="Q16" s="75">
+      <c r="Q16" s="73">
         <f>F16*Q4*100</f>
         <v>550</v>
       </c>
-      <c r="R16" s="47">
+      <c r="R16" s="46">
         <f>$F$16*(R4-(R3-$Q$3))*100</f>
         <v>110.00000000000001</v>
       </c>
@@ -12124,15 +12121,15 @@
         <f t="shared" ref="T16:U16" si="14">$F$16*(T4-(T3-$Q$3))*100</f>
         <v>-330</v>
       </c>
-      <c r="U16" s="48">
+      <c r="U16" s="47">
         <f t="shared" si="14"/>
         <v>-550</v>
       </c>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="59" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="17">
@@ -12150,18 +12147,18 @@
       <c r="F17" s="17">
         <v>1.76</v>
       </c>
-      <c r="G17" s="47"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="46"/>
       <c r="P17" s="18"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="74">
+      <c r="Q17" s="47"/>
+      <c r="R17" s="72">
         <f>F17*R4*100</f>
         <v>528</v>
       </c>
@@ -12173,15 +12170,15 @@
         <f>$F$17*(T4-(T3-$R$3))*100</f>
         <v>-176</v>
       </c>
-      <c r="U17" s="48">
+      <c r="U17" s="47">
         <f t="shared" ref="U17" si="15">$F$17*(U4-(U3-$R$3))*100</f>
         <v>-528</v>
       </c>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="59" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="17">
@@ -12199,19 +12196,19 @@
       <c r="F18" s="17">
         <v>5.83</v>
       </c>
-      <c r="G18" s="47"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="46"/>
       <c r="P18" s="18"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="50">
+      <c r="Q18" s="47"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="49">
         <f>F18*S4*100</f>
         <v>1749.0000000000002</v>
       </c>
@@ -12219,15 +12216,15 @@
         <f>$F$18*(T4-(T3-$S$3))*100</f>
         <v>583</v>
       </c>
-      <c r="U18" s="48">
+      <c r="U18" s="47">
         <f>$F$18*(U4-(U3-$S$3))*100</f>
         <v>-583</v>
       </c>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="59" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="17">
@@ -12245,32 +12242,32 @@
       <c r="F19" s="17">
         <v>9.9</v>
       </c>
-      <c r="G19" s="47"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="46"/>
       <c r="P19" s="18"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="46"/>
       <c r="S19" s="18"/>
-      <c r="T19" s="50">
+      <c r="T19" s="49">
         <f>F19*T4*100</f>
         <v>2970.0000000000005</v>
       </c>
-      <c r="U19" s="48">
+      <c r="U19" s="47">
         <f>$F$19*(U4-(U3-$T$3))*100</f>
         <v>990</v>
       </c>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="59" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="17">
@@ -12285,1133 +12282,1133 @@
         <f t="shared" si="2"/>
         <v>16.837782655940089</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="65">
         <v>16.84</v>
       </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="51">
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="50">
         <f>F20*U4*100</f>
         <v>5052</v>
       </c>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F21" s="63">
+      <c r="F21" s="61">
         <f>SUM(F6:F20)</f>
         <v>36.629999999999995</v>
       </c>
-      <c r="G21" s="79">
+      <c r="G21" s="77">
         <f>SUMIF(G5:G20, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="H21" s="80">
+      <c r="H21" s="78">
         <f t="shared" ref="H21:U21" si="16">SUMIF(H5:H20, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="I21" s="80">
+      <c r="I21" s="78">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J21" s="80">
+      <c r="J21" s="78">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K21" s="80">
+      <c r="K21" s="78">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L21" s="80">
+      <c r="L21" s="78">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M21" s="80">
+      <c r="M21" s="78">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N21" s="81">
+      <c r="N21" s="79">
         <f t="shared" si="16"/>
         <v>-5</v>
       </c>
-      <c r="O21" s="79">
+      <c r="O21" s="77">
         <f t="shared" si="16"/>
         <v>-126</v>
       </c>
-      <c r="P21" s="80">
+      <c r="P21" s="78">
         <f t="shared" si="16"/>
         <v>-148</v>
       </c>
-      <c r="Q21" s="81">
+      <c r="Q21" s="79">
         <f t="shared" si="16"/>
         <v>-215</v>
       </c>
-      <c r="R21" s="79">
+      <c r="R21" s="77">
         <f t="shared" si="16"/>
         <v>-557</v>
       </c>
-      <c r="S21" s="80">
+      <c r="S21" s="78">
         <f t="shared" si="16"/>
         <v>-907</v>
       </c>
-      <c r="T21" s="80">
+      <c r="T21" s="78">
         <f t="shared" si="16"/>
         <v>-1543</v>
       </c>
-      <c r="U21" s="81">
+      <c r="U21" s="79">
         <f t="shared" si="16"/>
         <v>-2938</v>
       </c>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F22" s="57"/>
-      <c r="G22" s="79">
+      <c r="F22" s="55"/>
+      <c r="G22" s="77">
         <f t="shared" ref="G22:U22" si="17">SUM(G6:G20)</f>
         <v>30</v>
       </c>
-      <c r="H22" s="80">
+      <c r="H22" s="78">
         <f t="shared" si="17"/>
         <v>55</v>
       </c>
-      <c r="I22" s="80">
+      <c r="I22" s="78">
         <f t="shared" si="17"/>
         <v>75</v>
       </c>
-      <c r="J22" s="80">
+      <c r="J22" s="78">
         <f t="shared" si="17"/>
         <v>90</v>
       </c>
-      <c r="K22" s="80">
+      <c r="K22" s="78">
         <f t="shared" si="17"/>
         <v>100</v>
       </c>
-      <c r="L22" s="80">
+      <c r="L22" s="78">
         <f t="shared" si="17"/>
         <v>105</v>
       </c>
-      <c r="M22" s="80">
+      <c r="M22" s="78">
         <f t="shared" si="17"/>
         <v>105</v>
       </c>
-      <c r="N22" s="81">
+      <c r="N22" s="79">
         <f t="shared" si="17"/>
         <v>100</v>
       </c>
-      <c r="O22" s="79">
+      <c r="O22" s="77">
         <f t="shared" si="17"/>
         <v>91</v>
       </c>
-      <c r="P22" s="80">
+      <c r="P22" s="78">
         <f t="shared" si="17"/>
         <v>283</v>
       </c>
-      <c r="Q22" s="81">
+      <c r="Q22" s="79">
         <f t="shared" si="17"/>
         <v>473</v>
       </c>
-      <c r="R22" s="79">
+      <c r="R22" s="77">
         <f t="shared" si="17"/>
         <v>81</v>
       </c>
-      <c r="S22" s="80">
+      <c r="S22" s="78">
         <f t="shared" si="17"/>
         <v>1018.0000000000002</v>
       </c>
-      <c r="T22" s="80">
+      <c r="T22" s="78">
         <f t="shared" si="17"/>
         <v>2010.0000000000005</v>
       </c>
-      <c r="U22" s="81">
+      <c r="U22" s="79">
         <f t="shared" si="17"/>
         <v>3104</v>
       </c>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F23" s="57"/>
-      <c r="G23" s="62"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="60"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F24" s="57"/>
+      <c r="F24" s="55"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F25" s="57"/>
+      <c r="F25" s="55"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F26" s="57"/>
-      <c r="W26" s="62"/>
+      <c r="F26" s="55"/>
+      <c r="W26" s="60"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F27" s="57"/>
+      <c r="F27" s="55"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F28" s="57"/>
+      <c r="F28" s="55"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F29" s="57"/>
+      <c r="F29" s="55"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="G30" s="57">
+      <c r="G30" s="55">
         <v>1</v>
       </c>
-      <c r="H30" s="57">
+      <c r="H30" s="55">
         <v>2</v>
       </c>
-      <c r="I30" s="57">
+      <c r="I30" s="55">
         <v>3</v>
       </c>
-      <c r="J30" s="57">
+      <c r="J30" s="55">
         <v>4</v>
       </c>
-      <c r="K30" s="57">
+      <c r="K30" s="55">
         <v>5</v>
       </c>
-      <c r="L30" s="57">
+      <c r="L30" s="55">
         <v>6</v>
       </c>
-      <c r="M30" s="57">
+      <c r="M30" s="55">
         <v>7</v>
       </c>
-      <c r="N30" s="57">
+      <c r="N30" s="55">
         <v>8</v>
       </c>
-      <c r="O30" s="57">
+      <c r="O30" s="55">
         <v>9</v>
       </c>
-      <c r="P30" s="57">
+      <c r="P30" s="55">
         <v>10</v>
       </c>
-      <c r="Q30" s="57">
+      <c r="Q30" s="55">
         <v>11</v>
       </c>
-      <c r="R30" s="57">
+      <c r="R30" s="55">
         <v>12</v>
       </c>
-      <c r="S30" s="57">
+      <c r="S30" s="55">
         <v>13</v>
       </c>
-      <c r="T30" s="57">
+      <c r="T30" s="55">
         <v>14</v>
       </c>
-      <c r="U30" s="57">
+      <c r="U30" s="55">
         <v>15</v>
       </c>
-      <c r="V30" s="57">
+      <c r="V30" s="55">
         <v>16</v>
       </c>
-      <c r="W30" s="57">
+      <c r="W30" s="55">
         <v>17</v>
       </c>
-      <c r="X30" s="57">
+      <c r="X30" s="55">
         <v>18</v>
       </c>
-      <c r="Y30" s="57">
+      <c r="Y30" s="55">
         <v>19</v>
       </c>
-      <c r="Z30" s="57">
+      <c r="Z30" s="55">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F31" s="62">
+      <c r="F31" s="60">
         <v>1</v>
       </c>
-      <c r="G31" s="122">
+      <c r="G31" s="119">
         <v>200</v>
       </c>
-      <c r="H31" s="122">
+      <c r="H31" s="119">
         <f>G31*1.05</f>
         <v>210</v>
       </c>
-      <c r="I31" s="122">
+      <c r="I31" s="119">
         <f t="shared" ref="I31:Z31" si="18">H31*1.05</f>
         <v>220.5</v>
       </c>
-      <c r="J31" s="122">
+      <c r="J31" s="119">
         <f t="shared" si="18"/>
         <v>231.52500000000001</v>
       </c>
-      <c r="K31" s="122">
+      <c r="K31" s="119">
         <f t="shared" si="18"/>
         <v>243.10125000000002</v>
       </c>
-      <c r="L31" s="122">
+      <c r="L31" s="119">
         <f t="shared" si="18"/>
         <v>255.25631250000004</v>
       </c>
-      <c r="M31" s="122">
+      <c r="M31" s="119">
         <f t="shared" si="18"/>
         <v>268.01912812500007</v>
       </c>
-      <c r="N31" s="122">
+      <c r="N31" s="119">
         <f t="shared" si="18"/>
         <v>281.4200845312501</v>
       </c>
-      <c r="O31" s="122">
+      <c r="O31" s="119">
         <f t="shared" si="18"/>
         <v>295.49108875781263</v>
       </c>
-      <c r="P31" s="122">
+      <c r="P31" s="119">
         <f t="shared" si="18"/>
         <v>310.26564319570326</v>
       </c>
-      <c r="Q31" s="122">
+      <c r="Q31" s="119">
         <f t="shared" si="18"/>
         <v>325.77892535548841</v>
       </c>
-      <c r="R31" s="122">
+      <c r="R31" s="119">
         <f t="shared" si="18"/>
         <v>342.06787162326287</v>
       </c>
-      <c r="S31" s="122">
+      <c r="S31" s="119">
         <f t="shared" si="18"/>
         <v>359.17126520442605</v>
       </c>
-      <c r="T31" s="122">
+      <c r="T31" s="119">
         <f t="shared" si="18"/>
         <v>377.12982846464735</v>
       </c>
-      <c r="U31" s="122">
+      <c r="U31" s="119">
         <f t="shared" si="18"/>
         <v>395.98631988787974</v>
       </c>
-      <c r="V31" s="122">
+      <c r="V31" s="119">
         <f t="shared" si="18"/>
         <v>415.78563588227377</v>
       </c>
-      <c r="W31" s="122">
+      <c r="W31" s="119">
         <f t="shared" si="18"/>
         <v>436.57491767638749</v>
       </c>
-      <c r="X31" s="122">
+      <c r="X31" s="119">
         <f t="shared" si="18"/>
         <v>458.40366356020689</v>
       </c>
-      <c r="Y31" s="122">
+      <c r="Y31" s="119">
         <f t="shared" si="18"/>
         <v>481.32384673821724</v>
       </c>
-      <c r="Z31" s="122">
+      <c r="Z31" s="119">
         <f t="shared" si="18"/>
         <v>505.39003907512813</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="F32" s="62">
+      <c r="F32" s="60">
         <v>2</v>
       </c>
-      <c r="G32" s="122">
+      <c r="G32" s="119">
         <v>500</v>
       </c>
-      <c r="H32" s="122">
+      <c r="H32" s="119">
         <f>G32*1.05</f>
         <v>525</v>
       </c>
-      <c r="I32" s="122">
+      <c r="I32" s="119">
         <f t="shared" ref="I32:Z32" si="19">H32*1.05</f>
         <v>551.25</v>
       </c>
-      <c r="J32" s="122">
+      <c r="J32" s="119">
         <f t="shared" si="19"/>
         <v>578.8125</v>
       </c>
-      <c r="K32" s="122">
+      <c r="K32" s="119">
         <f t="shared" si="19"/>
         <v>607.75312500000007</v>
       </c>
-      <c r="L32" s="122">
+      <c r="L32" s="119">
         <f t="shared" si="19"/>
         <v>638.14078125000015</v>
       </c>
-      <c r="M32" s="122">
+      <c r="M32" s="119">
         <f t="shared" si="19"/>
         <v>670.04782031250022</v>
       </c>
-      <c r="N32" s="122">
+      <c r="N32" s="119">
         <f t="shared" si="19"/>
         <v>703.55021132812522</v>
       </c>
-      <c r="O32" s="122">
+      <c r="O32" s="119">
         <f t="shared" si="19"/>
         <v>738.72772189453156</v>
       </c>
-      <c r="P32" s="122">
+      <c r="P32" s="119">
         <f t="shared" si="19"/>
         <v>775.66410798925813</v>
       </c>
-      <c r="Q32" s="122">
+      <c r="Q32" s="119">
         <f t="shared" si="19"/>
         <v>814.44731338872111</v>
       </c>
-      <c r="R32" s="122">
+      <c r="R32" s="119">
         <f t="shared" si="19"/>
         <v>855.16967905815716</v>
       </c>
-      <c r="S32" s="122">
+      <c r="S32" s="119">
         <f t="shared" si="19"/>
         <v>897.92816301106507</v>
       </c>
-      <c r="T32" s="122">
+      <c r="T32" s="119">
         <f t="shared" si="19"/>
         <v>942.82457116161834</v>
       </c>
-      <c r="U32" s="122">
+      <c r="U32" s="119">
         <f t="shared" si="19"/>
         <v>989.96579971969925</v>
       </c>
-      <c r="V32" s="122">
+      <c r="V32" s="119">
         <f t="shared" si="19"/>
         <v>1039.4640897056843</v>
       </c>
-      <c r="W32" s="122">
+      <c r="W32" s="119">
         <f t="shared" si="19"/>
         <v>1091.4372941909685</v>
       </c>
-      <c r="X32" s="122">
+      <c r="X32" s="119">
         <f t="shared" si="19"/>
         <v>1146.0091589005169</v>
       </c>
-      <c r="Y32" s="122">
+      <c r="Y32" s="119">
         <f t="shared" si="19"/>
         <v>1203.3096168455429</v>
       </c>
-      <c r="Z32" s="122">
+      <c r="Z32" s="119">
         <f t="shared" si="19"/>
         <v>1263.4750976878202</v>
       </c>
     </row>
     <row r="33" spans="6:26" x14ac:dyDescent="0.45">
-      <c r="F33" s="62">
+      <c r="F33" s="60">
         <v>3</v>
       </c>
-      <c r="G33" s="122">
+      <c r="G33" s="119">
         <v>1200</v>
       </c>
-      <c r="H33" s="122">
+      <c r="H33" s="119">
         <f>G33*1.05</f>
         <v>1260</v>
       </c>
-      <c r="I33" s="122">
+      <c r="I33" s="119">
         <f t="shared" ref="I33:Z33" si="20">H33*1.05</f>
         <v>1323</v>
       </c>
-      <c r="J33" s="122">
+      <c r="J33" s="119">
         <f t="shared" si="20"/>
         <v>1389.15</v>
       </c>
-      <c r="K33" s="122">
+      <c r="K33" s="119">
         <f t="shared" si="20"/>
         <v>1458.6075000000001</v>
       </c>
-      <c r="L33" s="122">
+      <c r="L33" s="119">
         <f t="shared" si="20"/>
         <v>1531.5378750000002</v>
       </c>
-      <c r="M33" s="122">
+      <c r="M33" s="119">
         <f t="shared" si="20"/>
         <v>1608.1147687500004</v>
       </c>
-      <c r="N33" s="122">
+      <c r="N33" s="119">
         <f t="shared" si="20"/>
         <v>1688.5205071875005</v>
       </c>
-      <c r="O33" s="122">
+      <c r="O33" s="119">
         <f t="shared" si="20"/>
         <v>1772.9465325468755</v>
       </c>
-      <c r="P33" s="122">
+      <c r="P33" s="119">
         <f t="shared" si="20"/>
         <v>1861.5938591742192</v>
       </c>
-      <c r="Q33" s="122">
+      <c r="Q33" s="119">
         <f t="shared" si="20"/>
         <v>1954.6735521329304</v>
       </c>
-      <c r="R33" s="122">
+      <c r="R33" s="119">
         <f t="shared" si="20"/>
         <v>2052.4072297395769</v>
       </c>
-      <c r="S33" s="122">
+      <c r="S33" s="119">
         <f t="shared" si="20"/>
         <v>2155.0275912265561</v>
       </c>
-      <c r="T33" s="122">
+      <c r="T33" s="119">
         <f t="shared" si="20"/>
         <v>2262.7789707878842</v>
       </c>
-      <c r="U33" s="122">
+      <c r="U33" s="119">
         <f t="shared" si="20"/>
         <v>2375.9179193272785</v>
       </c>
-      <c r="V33" s="122">
+      <c r="V33" s="119">
         <f t="shared" si="20"/>
         <v>2494.7138152936427</v>
       </c>
-      <c r="W33" s="122">
+      <c r="W33" s="119">
         <f t="shared" si="20"/>
         <v>2619.4495060583249</v>
       </c>
-      <c r="X33" s="122">
+      <c r="X33" s="119">
         <f t="shared" si="20"/>
         <v>2750.4219813612413</v>
       </c>
-      <c r="Y33" s="122">
+      <c r="Y33" s="119">
         <f t="shared" si="20"/>
         <v>2887.9430804293033</v>
       </c>
-      <c r="Z33" s="122">
+      <c r="Z33" s="119">
         <f t="shared" si="20"/>
         <v>3032.3402344507685</v>
       </c>
     </row>
     <row r="34" spans="6:26" x14ac:dyDescent="0.45">
-      <c r="F34" s="62">
+      <c r="F34" s="60">
         <v>4</v>
       </c>
-      <c r="G34" s="122">
+      <c r="G34" s="119">
         <v>3000</v>
       </c>
-      <c r="H34" s="122">
+      <c r="H34" s="119">
         <f>G34*1.05</f>
         <v>3150</v>
       </c>
-      <c r="I34" s="122">
+      <c r="I34" s="119">
         <f t="shared" ref="I34:Z34" si="21">H34*1.05</f>
         <v>3307.5</v>
       </c>
-      <c r="J34" s="122">
+      <c r="J34" s="119">
         <f t="shared" si="21"/>
         <v>3472.875</v>
       </c>
-      <c r="K34" s="122">
+      <c r="K34" s="119">
         <f t="shared" si="21"/>
         <v>3646.5187500000002</v>
       </c>
-      <c r="L34" s="122">
+      <c r="L34" s="119">
         <f t="shared" si="21"/>
         <v>3828.8446875000004</v>
       </c>
-      <c r="M34" s="122">
+      <c r="M34" s="119">
         <f t="shared" si="21"/>
         <v>4020.2869218750006</v>
       </c>
-      <c r="N34" s="122">
+      <c r="N34" s="119">
         <f t="shared" si="21"/>
         <v>4221.3012679687508</v>
       </c>
-      <c r="O34" s="122">
+      <c r="O34" s="119">
         <f t="shared" si="21"/>
         <v>4432.3663313671886</v>
       </c>
-      <c r="P34" s="122">
+      <c r="P34" s="119">
         <f t="shared" si="21"/>
         <v>4653.9846479355483</v>
       </c>
-      <c r="Q34" s="122">
+      <c r="Q34" s="119">
         <f t="shared" si="21"/>
         <v>4886.6838803323262</v>
       </c>
-      <c r="R34" s="122">
+      <c r="R34" s="119">
         <f t="shared" si="21"/>
         <v>5131.0180743489427</v>
       </c>
-      <c r="S34" s="122">
+      <c r="S34" s="119">
         <f t="shared" si="21"/>
         <v>5387.5689780663897</v>
       </c>
-      <c r="T34" s="122">
+      <c r="T34" s="119">
         <f t="shared" si="21"/>
         <v>5656.9474269697093</v>
       </c>
-      <c r="U34" s="122">
+      <c r="U34" s="119">
         <f t="shared" si="21"/>
         <v>5939.7947983181948</v>
       </c>
-      <c r="V34" s="122">
+      <c r="V34" s="119">
         <f t="shared" si="21"/>
         <v>6236.7845382341047</v>
       </c>
-      <c r="W34" s="122">
+      <c r="W34" s="119">
         <f t="shared" si="21"/>
         <v>6548.6237651458105</v>
       </c>
-      <c r="X34" s="122">
+      <c r="X34" s="119">
         <f t="shared" si="21"/>
         <v>6876.0549534031015</v>
       </c>
-      <c r="Y34" s="122">
+      <c r="Y34" s="119">
         <f t="shared" si="21"/>
         <v>7219.857701073257</v>
       </c>
-      <c r="Z34" s="122">
+      <c r="Z34" s="119">
         <f t="shared" si="21"/>
         <v>7580.8505861269205</v>
       </c>
     </row>
     <row r="35" spans="6:26" x14ac:dyDescent="0.45">
-      <c r="F35" s="62">
+      <c r="F35" s="60">
         <v>5</v>
       </c>
-      <c r="G35" s="122">
+      <c r="G35" s="119">
         <v>7500</v>
       </c>
-      <c r="H35" s="122">
+      <c r="H35" s="119">
         <f>G35*1.05</f>
         <v>7875</v>
       </c>
-      <c r="I35" s="122">
+      <c r="I35" s="119">
         <f t="shared" ref="I35:Z38" si="22">H35*1.05</f>
         <v>8268.75</v>
       </c>
-      <c r="J35" s="122">
+      <c r="J35" s="119">
         <f t="shared" si="22"/>
         <v>8682.1875</v>
       </c>
-      <c r="K35" s="122">
+      <c r="K35" s="119">
         <f t="shared" si="22"/>
         <v>9116.296875</v>
       </c>
-      <c r="L35" s="122">
+      <c r="L35" s="119">
         <f t="shared" si="22"/>
         <v>9572.1117187500004</v>
       </c>
-      <c r="M35" s="122">
+      <c r="M35" s="119">
         <f t="shared" si="22"/>
         <v>10050.717304687501</v>
       </c>
-      <c r="N35" s="122">
+      <c r="N35" s="119">
         <f t="shared" si="22"/>
         <v>10553.253169921876</v>
       </c>
-      <c r="O35" s="122">
+      <c r="O35" s="119">
         <f t="shared" si="22"/>
         <v>11080.91582841797</v>
       </c>
-      <c r="P35" s="122">
+      <c r="P35" s="119">
         <f t="shared" si="22"/>
         <v>11634.961619838869</v>
       </c>
-      <c r="Q35" s="122">
+      <c r="Q35" s="119">
         <f t="shared" si="22"/>
         <v>12216.709700830812</v>
       </c>
-      <c r="R35" s="122">
+      <c r="R35" s="119">
         <f t="shared" si="22"/>
         <v>12827.545185872354</v>
       </c>
-      <c r="S35" s="122">
+      <c r="S35" s="119">
         <f t="shared" si="22"/>
         <v>13468.922445165972</v>
       </c>
-      <c r="T35" s="122">
+      <c r="T35" s="119">
         <f t="shared" si="22"/>
         <v>14142.368567424272</v>
       </c>
-      <c r="U35" s="122">
+      <c r="U35" s="119">
         <f t="shared" si="22"/>
         <v>14849.486995795485</v>
       </c>
-      <c r="V35" s="122">
+      <c r="V35" s="119">
         <f t="shared" si="22"/>
         <v>15591.96134558526</v>
       </c>
-      <c r="W35" s="122">
+      <c r="W35" s="119">
         <f t="shared" si="22"/>
         <v>16371.559412864523</v>
       </c>
-      <c r="X35" s="122">
+      <c r="X35" s="119">
         <f t="shared" si="22"/>
         <v>17190.13738350775</v>
       </c>
-      <c r="Y35" s="122">
+      <c r="Y35" s="119">
         <f t="shared" si="22"/>
         <v>18049.644252683138</v>
       </c>
-      <c r="Z35" s="122">
+      <c r="Z35" s="119">
         <f t="shared" si="22"/>
         <v>18952.126465317295</v>
       </c>
     </row>
     <row r="36" spans="6:26" x14ac:dyDescent="0.45">
-      <c r="F36" s="62">
+      <c r="F36" s="60">
         <v>6</v>
       </c>
-      <c r="G36" s="122">
+      <c r="G36" s="119">
         <v>18000</v>
       </c>
-      <c r="H36" s="122">
+      <c r="H36" s="119">
         <f t="shared" ref="H36:W38" si="23">G36*1.05</f>
         <v>18900</v>
       </c>
-      <c r="I36" s="122">
+      <c r="I36" s="119">
         <f t="shared" si="23"/>
         <v>19845</v>
       </c>
-      <c r="J36" s="122">
+      <c r="J36" s="119">
         <f t="shared" si="23"/>
         <v>20837.25</v>
       </c>
-      <c r="K36" s="122">
+      <c r="K36" s="119">
         <f t="shared" si="23"/>
         <v>21879.112499999999</v>
       </c>
-      <c r="L36" s="122">
+      <c r="L36" s="119">
         <f t="shared" si="23"/>
         <v>22973.068125000002</v>
       </c>
-      <c r="M36" s="122">
+      <c r="M36" s="119">
         <f t="shared" si="23"/>
         <v>24121.721531250001</v>
       </c>
-      <c r="N36" s="122">
+      <c r="N36" s="119">
         <f t="shared" si="23"/>
         <v>25327.807607812501</v>
       </c>
-      <c r="O36" s="122">
+      <c r="O36" s="119">
         <f t="shared" si="23"/>
         <v>26594.197988203126</v>
       </c>
-      <c r="P36" s="122">
+      <c r="P36" s="119">
         <f t="shared" si="23"/>
         <v>27923.907887613284</v>
       </c>
-      <c r="Q36" s="122">
+      <c r="Q36" s="119">
         <f t="shared" si="23"/>
         <v>29320.10328199395</v>
       </c>
-      <c r="R36" s="122">
+      <c r="R36" s="119">
         <f t="shared" si="23"/>
         <v>30786.108446093647</v>
       </c>
-      <c r="S36" s="122">
+      <c r="S36" s="119">
         <f t="shared" si="23"/>
         <v>32325.413868398329</v>
       </c>
-      <c r="T36" s="122">
+      <c r="T36" s="119">
         <f t="shared" si="23"/>
         <v>33941.684561818249</v>
       </c>
-      <c r="U36" s="122">
+      <c r="U36" s="119">
         <f t="shared" si="23"/>
         <v>35638.768789909162</v>
       </c>
-      <c r="V36" s="122">
+      <c r="V36" s="119">
         <f t="shared" si="23"/>
         <v>37420.707229404623</v>
       </c>
-      <c r="W36" s="122">
+      <c r="W36" s="119">
         <f t="shared" si="23"/>
         <v>39291.742590874856</v>
       </c>
-      <c r="X36" s="122">
+      <c r="X36" s="119">
         <f t="shared" si="22"/>
         <v>41256.329720418602</v>
       </c>
-      <c r="Y36" s="122">
+      <c r="Y36" s="119">
         <f t="shared" si="22"/>
         <v>43319.146206439531</v>
       </c>
-      <c r="Z36" s="122">
+      <c r="Z36" s="119">
         <f t="shared" si="22"/>
         <v>45485.103516761512</v>
       </c>
     </row>
     <row r="37" spans="6:26" x14ac:dyDescent="0.45">
-      <c r="F37" s="62">
+      <c r="F37" s="60">
         <v>7</v>
       </c>
-      <c r="G37" s="122">
+      <c r="G37" s="119">
         <v>45000</v>
       </c>
-      <c r="H37" s="122">
+      <c r="H37" s="119">
         <f t="shared" si="23"/>
         <v>47250</v>
       </c>
-      <c r="I37" s="122">
+      <c r="I37" s="119">
         <f t="shared" si="22"/>
         <v>49612.5</v>
       </c>
-      <c r="J37" s="122">
+      <c r="J37" s="119">
         <f t="shared" si="22"/>
         <v>52093.125</v>
       </c>
-      <c r="K37" s="122">
+      <c r="K37" s="119">
         <f t="shared" si="22"/>
         <v>54697.78125</v>
       </c>
-      <c r="L37" s="122">
+      <c r="L37" s="119">
         <f t="shared" si="22"/>
         <v>57432.670312500006</v>
       </c>
-      <c r="M37" s="122">
+      <c r="M37" s="119">
         <f t="shared" si="22"/>
         <v>60304.303828125012</v>
       </c>
-      <c r="N37" s="122">
+      <c r="N37" s="119">
         <f t="shared" si="22"/>
         <v>63319.519019531268</v>
       </c>
-      <c r="O37" s="122">
+      <c r="O37" s="119">
         <f t="shared" si="22"/>
         <v>66485.494970507832</v>
       </c>
-      <c r="P37" s="122">
+      <c r="P37" s="119">
         <f t="shared" si="22"/>
         <v>69809.769719033226</v>
       </c>
-      <c r="Q37" s="122">
+      <c r="Q37" s="119">
         <f t="shared" si="22"/>
         <v>73300.258204984886</v>
       </c>
-      <c r="R37" s="122">
+      <c r="R37" s="119">
         <f t="shared" si="22"/>
         <v>76965.271115234136</v>
       </c>
-      <c r="S37" s="122">
+      <c r="S37" s="119">
         <f t="shared" si="22"/>
         <v>80813.534670995839</v>
       </c>
-      <c r="T37" s="122">
+      <c r="T37" s="119">
         <f t="shared" si="22"/>
         <v>84854.21140454564</v>
       </c>
-      <c r="U37" s="122">
+      <c r="U37" s="119">
         <f t="shared" si="22"/>
         <v>89096.921974772922</v>
       </c>
-      <c r="V37" s="122">
+      <c r="V37" s="119">
         <f t="shared" si="22"/>
         <v>93551.768073511572</v>
       </c>
-      <c r="W37" s="122">
+      <c r="W37" s="119">
         <f t="shared" si="22"/>
         <v>98229.356477187161</v>
       </c>
-      <c r="X37" s="122">
+      <c r="X37" s="119">
         <f t="shared" si="22"/>
         <v>103140.82430104652</v>
       </c>
-      <c r="Y37" s="122">
+      <c r="Y37" s="119">
         <f t="shared" si="22"/>
         <v>108297.86551609886</v>
       </c>
-      <c r="Z37" s="122">
+      <c r="Z37" s="119">
         <f t="shared" si="22"/>
         <v>113712.75879190381</v>
       </c>
     </row>
     <row r="38" spans="6:26" x14ac:dyDescent="0.45">
-      <c r="F38" s="62">
+      <c r="F38" s="60">
         <v>8</v>
       </c>
-      <c r="G38" s="122">
+      <c r="G38" s="119">
         <v>100000</v>
       </c>
-      <c r="H38" s="122">
+      <c r="H38" s="119">
         <f t="shared" si="23"/>
         <v>105000</v>
       </c>
-      <c r="I38" s="122">
+      <c r="I38" s="119">
         <f t="shared" si="22"/>
         <v>110250</v>
       </c>
-      <c r="J38" s="122">
+      <c r="J38" s="119">
         <f t="shared" si="22"/>
         <v>115762.5</v>
       </c>
-      <c r="K38" s="122">
+      <c r="K38" s="119">
         <f t="shared" si="22"/>
         <v>121550.625</v>
       </c>
-      <c r="L38" s="122">
+      <c r="L38" s="119">
         <f t="shared" si="22"/>
         <v>127628.15625</v>
       </c>
-      <c r="M38" s="122">
+      <c r="M38" s="119">
         <f t="shared" si="22"/>
         <v>134009.56406249999</v>
       </c>
-      <c r="N38" s="122">
+      <c r="N38" s="119">
         <f t="shared" si="22"/>
         <v>140710.042265625</v>
       </c>
-      <c r="O38" s="122">
+      <c r="O38" s="119">
         <f t="shared" si="22"/>
         <v>147745.54437890626</v>
       </c>
-      <c r="P38" s="122">
+      <c r="P38" s="119">
         <f t="shared" si="22"/>
         <v>155132.82159785158</v>
       </c>
-      <c r="Q38" s="122">
+      <c r="Q38" s="119">
         <f t="shared" si="22"/>
         <v>162889.46267774416</v>
       </c>
-      <c r="R38" s="122">
+      <c r="R38" s="119">
         <f t="shared" si="22"/>
         <v>171033.93581163138</v>
       </c>
-      <c r="S38" s="122">
+      <c r="S38" s="119">
         <f t="shared" si="22"/>
         <v>179585.63260221295</v>
       </c>
-      <c r="T38" s="122">
+      <c r="T38" s="119">
         <f t="shared" si="22"/>
         <v>188564.91423232362</v>
       </c>
-      <c r="U38" s="122">
+      <c r="U38" s="119">
         <f t="shared" si="22"/>
         <v>197993.1599439398</v>
       </c>
-      <c r="V38" s="122">
+      <c r="V38" s="119">
         <f t="shared" si="22"/>
         <v>207892.8179411368</v>
       </c>
-      <c r="W38" s="122">
+      <c r="W38" s="119">
         <f t="shared" si="22"/>
         <v>218287.45883819365</v>
       </c>
-      <c r="X38" s="122">
+      <c r="X38" s="119">
         <f t="shared" si="22"/>
         <v>229201.83178010333</v>
       </c>
-      <c r="Y38" s="122">
+      <c r="Y38" s="119">
         <f t="shared" si="22"/>
         <v>240661.9233691085</v>
       </c>
-      <c r="Z38" s="122">
+      <c r="Z38" s="119">
         <f t="shared" si="22"/>
         <v>252695.01953756393</v>
       </c>
     </row>
     <row r="42" spans="6:26" x14ac:dyDescent="0.45">
-      <c r="G42" s="57">
+      <c r="G42" s="55">
         <v>1</v>
       </c>
-      <c r="H42" s="57">
+      <c r="H42" s="55">
         <v>2</v>
       </c>
-      <c r="I42" s="57">
+      <c r="I42" s="55">
         <v>3</v>
       </c>
-      <c r="J42" s="57">
+      <c r="J42" s="55">
         <v>4</v>
       </c>
-      <c r="K42" s="57">
+      <c r="K42" s="55">
         <v>5</v>
       </c>
-      <c r="L42" s="57">
+      <c r="L42" s="55">
         <v>6</v>
       </c>
-      <c r="M42" s="57">
+      <c r="M42" s="55">
         <v>7</v>
       </c>
-      <c r="N42" s="57">
+      <c r="N42" s="55">
         <v>8</v>
       </c>
-      <c r="O42" s="57">
+      <c r="O42" s="55">
         <v>9</v>
       </c>
-      <c r="P42" s="57">
+      <c r="P42" s="55">
         <v>10</v>
       </c>
-      <c r="Q42" s="57">
+      <c r="Q42" s="55">
         <v>11</v>
       </c>
-      <c r="R42" s="57">
+      <c r="R42" s="55">
         <v>12</v>
       </c>
-      <c r="S42" s="57">
+      <c r="S42" s="55">
         <v>13</v>
       </c>
-      <c r="T42" s="57">
+      <c r="T42" s="55">
         <v>14</v>
       </c>
-      <c r="U42" s="57">
+      <c r="U42" s="55">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="6:26" x14ac:dyDescent="0.45">
-      <c r="G43" s="57">
+      <c r="G43" s="55">
         <v>30</v>
       </c>
-      <c r="H43" s="57">
+      <c r="H43" s="55">
         <v>30</v>
       </c>
-      <c r="I43" s="57">
+      <c r="I43" s="55">
         <v>30</v>
       </c>
-      <c r="J43" s="57">
+      <c r="J43" s="55">
         <v>30</v>
       </c>
-      <c r="K43" s="57">
+      <c r="K43" s="55">
         <v>30</v>
       </c>
-      <c r="L43" s="57">
+      <c r="L43" s="55">
         <v>30</v>
       </c>
-      <c r="M43" s="57">
+      <c r="M43" s="55">
         <v>30</v>
       </c>
-      <c r="N43" s="57">
+      <c r="N43" s="55">
         <v>30</v>
       </c>
-      <c r="O43" s="57">
+      <c r="O43" s="55">
         <v>30</v>
       </c>
-      <c r="P43" s="57">
+      <c r="P43" s="55">
         <v>30</v>
       </c>
-      <c r="Q43" s="57">
+      <c r="Q43" s="55">
         <v>30</v>
       </c>
-      <c r="R43" s="57">
+      <c r="R43" s="55">
         <v>30</v>
       </c>
-      <c r="S43" s="57">
+      <c r="S43" s="55">
         <v>30</v>
       </c>
-      <c r="T43" s="57">
+      <c r="T43" s="55">
         <v>30</v>
       </c>
-      <c r="U43" s="57">
+      <c r="U43" s="55">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="6:26" x14ac:dyDescent="0.45">
-      <c r="G44" s="57">
+      <c r="G44" s="55">
         <v>10</v>
       </c>
-      <c r="H44" s="57">
+      <c r="H44" s="55">
         <f>$G44*H42</f>
         <v>20</v>
       </c>
-      <c r="I44" s="57">
+      <c r="I44" s="55">
         <f t="shared" ref="I44:U44" si="24">$G44*I42</f>
         <v>30</v>
       </c>
-      <c r="J44" s="57">
+      <c r="J44" s="55">
         <f t="shared" si="24"/>
         <v>40</v>
       </c>
-      <c r="K44" s="57">
+      <c r="K44" s="55">
         <f t="shared" si="24"/>
         <v>50</v>
       </c>
-      <c r="L44" s="57">
+      <c r="L44" s="55">
         <f t="shared" si="24"/>
         <v>60</v>
       </c>
-      <c r="M44" s="57">
+      <c r="M44" s="55">
         <f t="shared" si="24"/>
         <v>70</v>
       </c>
-      <c r="N44" s="57">
+      <c r="N44" s="55">
         <f t="shared" si="24"/>
         <v>80</v>
       </c>
-      <c r="O44" s="57">
+      <c r="O44" s="55">
         <f t="shared" si="24"/>
         <v>90</v>
       </c>
-      <c r="P44" s="57">
+      <c r="P44" s="55">
         <f t="shared" si="24"/>
         <v>100</v>
       </c>
-      <c r="Q44" s="57">
+      <c r="Q44" s="55">
         <f t="shared" si="24"/>
         <v>110</v>
       </c>
-      <c r="R44" s="57">
+      <c r="R44" s="55">
         <f t="shared" si="24"/>
         <v>120</v>
       </c>
-      <c r="S44" s="57">
+      <c r="S44" s="55">
         <f t="shared" si="24"/>
         <v>130</v>
       </c>
-      <c r="T44" s="57">
+      <c r="T44" s="55">
         <f t="shared" si="24"/>
         <v>140</v>
       </c>
-      <c r="U44" s="57">
+      <c r="U44" s="55">
         <f t="shared" si="24"/>
         <v>150</v>
       </c>
     </row>
     <row r="45" spans="6:26" x14ac:dyDescent="0.45">
-      <c r="G45" s="123">
+      <c r="G45" s="120">
         <f>SUM(G43:G44)</f>
         <v>40</v>
       </c>
-      <c r="H45" s="123">
+      <c r="H45" s="120">
         <f t="shared" ref="H45:U45" si="25">SUM(H43:H44)</f>
         <v>50</v>
       </c>
-      <c r="I45" s="123">
+      <c r="I45" s="120">
         <f t="shared" si="25"/>
         <v>60</v>
       </c>
-      <c r="J45" s="123">
+      <c r="J45" s="120">
         <f t="shared" si="25"/>
         <v>70</v>
       </c>
-      <c r="K45" s="123">
+      <c r="K45" s="120">
         <f t="shared" si="25"/>
         <v>80</v>
       </c>
-      <c r="L45" s="123">
+      <c r="L45" s="120">
         <f t="shared" si="25"/>
         <v>90</v>
       </c>
-      <c r="M45" s="123">
+      <c r="M45" s="120">
         <f t="shared" si="25"/>
         <v>100</v>
       </c>
-      <c r="N45" s="123">
+      <c r="N45" s="120">
         <f t="shared" si="25"/>
         <v>110</v>
       </c>
-      <c r="O45" s="123">
+      <c r="O45" s="120">
         <f t="shared" si="25"/>
         <v>120</v>
       </c>
-      <c r="P45" s="123">
+      <c r="P45" s="120">
         <f t="shared" si="25"/>
         <v>130</v>
       </c>
-      <c r="Q45" s="123">
+      <c r="Q45" s="120">
         <f t="shared" si="25"/>
         <v>140</v>
       </c>
-      <c r="R45" s="123">
+      <c r="R45" s="120">
         <f t="shared" si="25"/>
         <v>150</v>
       </c>
-      <c r="S45" s="123">
+      <c r="S45" s="120">
         <f t="shared" si="25"/>
         <v>160</v>
       </c>
-      <c r="T45" s="123">
+      <c r="T45" s="120">
         <f t="shared" si="25"/>
         <v>170</v>
       </c>
-      <c r="U45" s="123">
+      <c r="U45" s="120">
         <f t="shared" si="25"/>
         <v>180</v>
       </c>

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1926F0B8-8FB3-4AE3-88D3-3DB9E5AD04F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0141BBC-1220-41A1-BC9C-4E6D7473A57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7644" yWindow="240" windowWidth="31320" windowHeight="14244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Input L30" sheetId="2" r:id="rId1"/>
@@ -380,16 +380,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="0;\-0;;\ @"/>
-    <numFmt numFmtId="180" formatCode="0.00;\-0.00;;\ @"/>
-    <numFmt numFmtId="181" formatCode="#,##0.000"/>
-    <numFmt numFmtId="182" formatCode="#,##0.000_);\(#,##0.000\)"/>
-    <numFmt numFmtId="183" formatCode="#,##0.0"/>
-    <numFmt numFmtId="185" formatCode="#,##0_ "/>
-    <numFmt numFmtId="186" formatCode="0.00000_ "/>
-    <numFmt numFmtId="187" formatCode="#,##0.00000_);\(#,##0.00000\)"/>
-    <numFmt numFmtId="188" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0;\-0;;\ @"/>
+    <numFmt numFmtId="179" formatCode="0.00;\-0.00;;\ @"/>
+    <numFmt numFmtId="180" formatCode="#,##0.000"/>
+    <numFmt numFmtId="181" formatCode="#,##0.000_);\(#,##0.000\)"/>
+    <numFmt numFmtId="182" formatCode="#,##0.0"/>
+    <numFmt numFmtId="183" formatCode="#,##0_ "/>
+    <numFmt numFmtId="184" formatCode="0.00000_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.00000_);\(#,##0.00000\)"/>
+    <numFmt numFmtId="186" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1225,15 +1225,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="178" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="179" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1256,22 +1256,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1315,7 +1315,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1334,13 +1334,13 @@
     <xf numFmtId="3" fontId="10" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="17" fillId="16" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="17" fillId="16" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="17" fillId="16" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1355,7 +1355,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1502,33 +1502,33 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="185" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="188" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="19" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="186" fontId="19" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="25" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1536,6 +1536,12 @@
     </xf>
     <xf numFmtId="4" fontId="25" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="21" fillId="7" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1560,12 +1566,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2945,7 +2945,7 @@
   <dimension ref="B1:AD99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2982,24 +2982,24 @@
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="44"/>
-      <c r="E2" s="130">
-        <v>6.2949999999999999</v>
+      <c r="E2" s="122">
+        <v>1.5</v>
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="125" t="s">
+      <c r="K2" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125" t="s">
+      <c r="L2" s="127"/>
+      <c r="M2" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125" t="s">
+      <c r="N2" s="127"/>
+      <c r="O2" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
       <c r="R2" s="40"/>
       <c r="S2" s="40"/>
       <c r="T2" s="40"/>
@@ -3015,32 +3015,32 @@
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="44"/>
-      <c r="E3" s="131">
+      <c r="E3" s="123">
         <f>E2</f>
-        <v>6.2949999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
-      <c r="K3" s="122">
+      <c r="K3" s="124">
         <f>SUM('Bảng Input L30'!C13:C37)</f>
-        <v>44.096149164770779</v>
-      </c>
-      <c r="L3" s="122"/>
-      <c r="M3" s="123">
+        <v>0.44000000000000011</v>
+      </c>
+      <c r="L3" s="124"/>
+      <c r="M3" s="125">
         <f>K3*90</f>
-        <v>3968.6534248293701</v>
-      </c>
-      <c r="N3" s="123"/>
-      <c r="O3" s="124">
+        <v>39.600000000000009</v>
+      </c>
+      <c r="N3" s="125"/>
+      <c r="O3" s="126">
         <f>M3+'Bảng Input L30'!D35</f>
-        <v>26274.216450090862</v>
-      </c>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
+        <v>16164.6</v>
+      </c>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
       <c r="R3" s="107">
         <f>O3*2</f>
-        <v>52548.432900181724</v>
+        <v>32329.200000000001</v>
       </c>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
@@ -3056,16 +3056,15 @@
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="44"/>
-      <c r="E4" s="131">
+      <c r="E4" s="123">
         <f>E3</f>
-        <v>6.2949999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H4" s="28" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="51">
-        <f>E9</f>
-        <v>1.6180000000000001</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
         <v>1.3819999999999999</v>
@@ -3092,16 +3091,15 @@
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="44"/>
-      <c r="E5" s="131">
+      <c r="E5" s="123">
         <f>E4</f>
-        <v>6.2949999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H5" s="28" t="s">
         <v>53</v>
       </c>
       <c r="I5" s="51">
-        <f>E2</f>
-        <v>6.2949999999999999</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2">
         <v>1.6180000000000001</v>
@@ -3128,16 +3126,16 @@
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
-      <c r="E6" s="131">
+      <c r="E6" s="123">
         <f>E5</f>
-        <v>6.2949999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>71</v>
       </c>
       <c r="I6" s="51">
         <f>I5*J6</f>
-        <v>16.480309999999999</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="J6" s="2">
         <v>2.6179999999999999</v>
@@ -3150,9 +3148,9 @@
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="131">
+      <c r="E7" s="123">
         <f>E6</f>
-        <v>6.2949999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -3161,79 +3159,79 @@
       </c>
       <c r="K7" s="38">
         <f>J7-I$5</f>
-        <v>2193.7049999999999</v>
+        <v>2199</v>
       </c>
       <c r="L7" s="38">
         <f t="shared" ref="L7:Y7" si="0">K7-$I$5</f>
-        <v>2187.41</v>
+        <v>2198</v>
       </c>
       <c r="M7" s="38">
         <f t="shared" si="0"/>
-        <v>2181.1149999999998</v>
+        <v>2197</v>
       </c>
       <c r="N7" s="38">
         <f t="shared" si="0"/>
-        <v>2174.8199999999997</v>
+        <v>2196</v>
       </c>
       <c r="O7" s="38">
         <f t="shared" si="0"/>
-        <v>2168.5249999999996</v>
+        <v>2195</v>
       </c>
       <c r="P7" s="38">
         <f t="shared" si="0"/>
-        <v>2162.2299999999996</v>
+        <v>2194</v>
       </c>
       <c r="Q7" s="38">
         <f t="shared" si="0"/>
-        <v>2155.9349999999995</v>
+        <v>2193</v>
       </c>
       <c r="R7" s="38">
         <f t="shared" si="0"/>
-        <v>2149.6399999999994</v>
+        <v>2192</v>
       </c>
       <c r="S7" s="38">
         <f t="shared" si="0"/>
-        <v>2143.3449999999993</v>
+        <v>2191</v>
       </c>
       <c r="T7" s="38">
         <f t="shared" si="0"/>
-        <v>2137.0499999999993</v>
+        <v>2190</v>
       </c>
       <c r="U7" s="38">
         <f t="shared" si="0"/>
-        <v>2130.7549999999992</v>
+        <v>2189</v>
       </c>
       <c r="V7" s="38">
         <f t="shared" si="0"/>
-        <v>2124.4599999999991</v>
+        <v>2188</v>
       </c>
       <c r="W7" s="38">
         <f t="shared" si="0"/>
-        <v>2118.1649999999991</v>
+        <v>2187</v>
       </c>
       <c r="X7" s="38">
         <f t="shared" si="0"/>
-        <v>2111.869999999999</v>
+        <v>2186</v>
       </c>
       <c r="Y7" s="38">
         <f t="shared" si="0"/>
-        <v>2105.5749999999989</v>
+        <v>2185</v>
       </c>
       <c r="Z7" s="38">
         <f t="shared" ref="Z7" si="1">Y7-$I$5</f>
-        <v>2099.2799999999988</v>
+        <v>2184</v>
       </c>
       <c r="AA7" s="38">
         <f t="shared" ref="AA7" si="2">Z7-$I$5</f>
-        <v>2092.9849999999988</v>
+        <v>2183</v>
       </c>
       <c r="AB7" s="38">
         <f t="shared" ref="AB7" si="3">AA7-$I$5</f>
-        <v>2086.6899999999987</v>
+        <v>2182</v>
       </c>
       <c r="AC7" s="38">
         <f t="shared" ref="AC7" si="4">AB7-$I$5</f>
-        <v>2080.3949999999986</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -3252,79 +3250,79 @@
       </c>
       <c r="K8" s="38">
         <f t="shared" ref="K8:Y8" si="5">$J$7-K7</f>
-        <v>6.2950000000000728</v>
+        <v>1</v>
       </c>
       <c r="L8" s="38">
         <f t="shared" si="5"/>
-        <v>12.590000000000146</v>
+        <v>2</v>
       </c>
       <c r="M8" s="38">
         <f t="shared" si="5"/>
-        <v>18.885000000000218</v>
+        <v>3</v>
       </c>
       <c r="N8" s="38">
         <f t="shared" si="5"/>
-        <v>25.180000000000291</v>
+        <v>4</v>
       </c>
       <c r="O8" s="38">
         <f t="shared" si="5"/>
-        <v>31.475000000000364</v>
+        <v>5</v>
       </c>
       <c r="P8" s="38">
         <f t="shared" si="5"/>
-        <v>37.770000000000437</v>
+        <v>6</v>
       </c>
       <c r="Q8" s="38">
         <f t="shared" si="5"/>
-        <v>44.065000000000509</v>
+        <v>7</v>
       </c>
       <c r="R8" s="38">
         <f t="shared" si="5"/>
-        <v>50.360000000000582</v>
+        <v>8</v>
       </c>
       <c r="S8" s="38">
         <f t="shared" si="5"/>
-        <v>56.655000000000655</v>
+        <v>9</v>
       </c>
       <c r="T8" s="38">
         <f t="shared" si="5"/>
-        <v>62.950000000000728</v>
+        <v>10</v>
       </c>
       <c r="U8" s="38">
         <f t="shared" si="5"/>
-        <v>69.2450000000008</v>
+        <v>11</v>
       </c>
       <c r="V8" s="38">
         <f t="shared" si="5"/>
-        <v>75.540000000000873</v>
+        <v>12</v>
       </c>
       <c r="W8" s="38">
         <f t="shared" si="5"/>
-        <v>81.835000000000946</v>
+        <v>13</v>
       </c>
       <c r="X8" s="38">
         <f t="shared" si="5"/>
-        <v>88.130000000001019</v>
+        <v>14</v>
       </c>
       <c r="Y8" s="38">
         <f t="shared" si="5"/>
-        <v>94.425000000001091</v>
+        <v>15</v>
       </c>
       <c r="Z8" s="38">
         <f t="shared" ref="Z8:AC8" si="6">$J$7-Z7</f>
-        <v>100.72000000000116</v>
+        <v>16</v>
       </c>
       <c r="AA8" s="38">
         <f t="shared" si="6"/>
-        <v>107.01500000000124</v>
+        <v>17</v>
       </c>
       <c r="AB8" s="38">
         <f t="shared" si="6"/>
-        <v>113.31000000000131</v>
+        <v>18</v>
       </c>
       <c r="AC8" s="38">
         <f t="shared" si="6"/>
-        <v>119.60500000000138</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -3334,8 +3332,7 @@
       <c r="C9" s="43"/>
       <c r="D9" s="44"/>
       <c r="E9" s="108">
-        <f>J5</f>
-        <v>1.6180000000000001</v>
+        <v>1</v>
       </c>
       <c r="H9" s="29" t="s">
         <v>14</v>
@@ -3411,7 +3408,7 @@
       <c r="C10" s="43"/>
       <c r="D10" s="44"/>
       <c r="E10" s="53">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>51</v>
@@ -3492,83 +3489,83 @@
       </c>
       <c r="J11" s="31">
         <f>I11*I6*100</f>
-        <v>16.480309999999999</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="K11" s="31">
         <f>I11*100*(I6-I5)</f>
-        <v>10.185309999999999</v>
+        <v>1.6179999999999999</v>
       </c>
       <c r="L11" s="31">
         <f t="shared" ref="L11:AC11" si="7">$I$11*100*($I$6-$I$5*K10)</f>
-        <v>3.8903099999999995</v>
+        <v>0.61799999999999988</v>
       </c>
       <c r="M11" s="31">
         <f t="shared" si="7"/>
-        <v>-2.4046899999999987</v>
+        <v>-0.38200000000000012</v>
       </c>
       <c r="N11" s="31">
         <f>$I$11*100*($I$6-$I$5*M10)</f>
-        <v>-8.6996900000000004</v>
+        <v>-1.3820000000000001</v>
       </c>
       <c r="O11" s="31">
         <f t="shared" si="7"/>
-        <v>-14.994690000000002</v>
+        <v>-2.3820000000000001</v>
       </c>
       <c r="P11" s="31">
         <f t="shared" si="7"/>
-        <v>-21.289689999999997</v>
+        <v>-3.3820000000000001</v>
       </c>
       <c r="Q11" s="31">
         <f t="shared" si="7"/>
-        <v>-27.584689999999998</v>
+        <v>-4.3819999999999997</v>
       </c>
       <c r="R11" s="31">
         <f t="shared" si="7"/>
-        <v>-33.879689999999997</v>
+        <v>-5.3819999999999997</v>
       </c>
       <c r="S11" s="31">
         <f t="shared" si="7"/>
-        <v>-40.174689999999998</v>
+        <v>-6.3819999999999997</v>
       </c>
       <c r="T11" s="31">
         <f t="shared" si="7"/>
-        <v>-46.46969</v>
+        <v>-7.3819999999999997</v>
       </c>
       <c r="U11" s="31">
         <f t="shared" si="7"/>
-        <v>-52.764690000000002</v>
+        <v>-8.3819999999999997</v>
       </c>
       <c r="V11" s="31">
         <f t="shared" si="7"/>
-        <v>-59.059689999999989</v>
+        <v>-9.3819999999999997</v>
       </c>
       <c r="W11" s="31">
         <f t="shared" si="7"/>
-        <v>-65.354689999999991</v>
+        <v>-10.382</v>
       </c>
       <c r="X11" s="31">
         <f t="shared" si="7"/>
-        <v>-71.649689999999993</v>
+        <v>-11.382</v>
       </c>
       <c r="Y11" s="31">
         <f t="shared" si="7"/>
-        <v>-77.944689999999994</v>
+        <v>-12.382</v>
       </c>
       <c r="Z11" s="31">
         <f t="shared" si="7"/>
-        <v>-84.239689999999996</v>
+        <v>-13.382</v>
       </c>
       <c r="AA11" s="31">
         <f t="shared" si="7"/>
-        <v>-90.534689999999998</v>
+        <v>-14.382</v>
       </c>
       <c r="AB11" s="31">
         <f t="shared" si="7"/>
-        <v>-96.829689999999999</v>
+        <v>-15.382</v>
       </c>
       <c r="AC11" s="31">
         <f t="shared" si="7"/>
-        <v>-103.12469</v>
+        <v>-16.382000000000001</v>
       </c>
     </row>
     <row r="12" spans="2:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3589,84 +3586,84 @@
       </c>
       <c r="I12" s="30">
         <f t="shared" ref="I12:I30" si="8">I11*$I$4</f>
-        <v>1.618E-2</v>
+        <v>0.01</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="31">
         <f>I12*100*I6</f>
-        <v>26.665141579999997</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="L12" s="31">
         <f>I12*100*(I6-I5)</f>
-        <v>16.479831579999999</v>
+        <v>1.6179999999999999</v>
       </c>
       <c r="M12" s="31">
         <f t="shared" ref="M12:AC12" si="9">$I$12*100*($I$6-$I$5*K10)</f>
-        <v>6.2945215799999987</v>
+        <v>0.61799999999999988</v>
       </c>
       <c r="N12" s="31">
         <f t="shared" si="9"/>
-        <v>-3.8907884199999976</v>
+        <v>-0.38200000000000012</v>
       </c>
       <c r="O12" s="31">
         <f t="shared" si="9"/>
-        <v>-14.076098419999999</v>
+        <v>-1.3820000000000001</v>
       </c>
       <c r="P12" s="31">
         <f t="shared" si="9"/>
-        <v>-24.261408420000002</v>
+        <v>-2.3820000000000001</v>
       </c>
       <c r="Q12" s="31">
         <f t="shared" si="9"/>
-        <v>-34.446718419999989</v>
+        <v>-3.3820000000000001</v>
       </c>
       <c r="R12" s="31">
         <f t="shared" si="9"/>
-        <v>-44.632028419999997</v>
+        <v>-4.3819999999999997</v>
       </c>
       <c r="S12" s="31">
         <f t="shared" si="9"/>
-        <v>-54.817338419999992</v>
+        <v>-5.3819999999999997</v>
       </c>
       <c r="T12" s="31">
         <f t="shared" si="9"/>
-        <v>-65.002648419999986</v>
+        <v>-6.3819999999999997</v>
       </c>
       <c r="U12" s="31">
         <f t="shared" si="9"/>
-        <v>-75.187958420000001</v>
+        <v>-7.3819999999999997</v>
       </c>
       <c r="V12" s="31">
         <f t="shared" si="9"/>
-        <v>-85.373268420000002</v>
+        <v>-8.3819999999999997</v>
       </c>
       <c r="W12" s="31">
         <f t="shared" si="9"/>
-        <v>-95.558578419999975</v>
+        <v>-9.3819999999999997</v>
       </c>
       <c r="X12" s="31">
         <f t="shared" si="9"/>
-        <v>-105.74388841999998</v>
+        <v>-10.382</v>
       </c>
       <c r="Y12" s="31">
         <f t="shared" si="9"/>
-        <v>-115.92919841999998</v>
+        <v>-11.382</v>
       </c>
       <c r="Z12" s="31">
         <f t="shared" si="9"/>
-        <v>-126.11450841999998</v>
+        <v>-12.382</v>
       </c>
       <c r="AA12" s="31">
         <f t="shared" si="9"/>
-        <v>-136.29981841999998</v>
+        <v>-13.382</v>
       </c>
       <c r="AB12" s="31">
         <f t="shared" si="9"/>
-        <v>-146.48512842</v>
+        <v>-14.382</v>
       </c>
       <c r="AC12" s="31">
         <f t="shared" si="9"/>
-        <v>-156.67043841999998</v>
+        <v>-15.382</v>
       </c>
     </row>
     <row r="13" spans="2:29" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
@@ -3680,92 +3677,92 @@
       </c>
       <c r="D13" s="9">
         <f>+C13*E13*100</f>
-        <v>88.13</v>
+        <v>748.5</v>
       </c>
       <c r="E13" s="9">
         <f>IF(B13=0,0,$E$2+$E$3+$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
-        <v>88.13</v>
+        <v>748.5</v>
       </c>
       <c r="H13" s="34">
         <v>3</v>
       </c>
       <c r="I13" s="30">
         <f t="shared" si="8"/>
-        <v>2.6179240000000003E-2</v>
+        <v>0.01</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="31">
         <f>I13*100*I6</f>
-        <v>43.144199076440003</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="M13" s="31">
         <f>I13*100*(I6-I5)</f>
-        <v>26.664367496440001</v>
+        <v>1.6179999999999999</v>
       </c>
       <c r="N13" s="31">
         <f t="shared" ref="N13:AC13" si="10">$I$13*100*($I$6-$I$5*K10)</f>
-        <v>10.18453591644</v>
+        <v>0.61799999999999988</v>
       </c>
       <c r="O13" s="31">
         <f t="shared" si="10"/>
-        <v>-6.2952956635599975</v>
+        <v>-0.38200000000000012</v>
       </c>
       <c r="P13" s="31">
         <f t="shared" si="10"/>
-        <v>-22.775127243560004</v>
+        <v>-1.3820000000000001</v>
       </c>
       <c r="Q13" s="31">
         <f t="shared" si="10"/>
-        <v>-39.25495882356001</v>
+        <v>-2.3820000000000001</v>
       </c>
       <c r="R13" s="31">
         <f t="shared" si="10"/>
-        <v>-55.734790403559998</v>
+        <v>-3.3820000000000001</v>
       </c>
       <c r="S13" s="31">
         <f t="shared" si="10"/>
-        <v>-72.214621983560008</v>
+        <v>-4.3819999999999997</v>
       </c>
       <c r="T13" s="31">
         <f t="shared" si="10"/>
-        <v>-88.694453563560003</v>
+        <v>-5.3819999999999997</v>
       </c>
       <c r="U13" s="31">
         <f t="shared" si="10"/>
-        <v>-105.17428514356001</v>
+        <v>-6.3819999999999997</v>
       </c>
       <c r="V13" s="31">
         <f t="shared" si="10"/>
-        <v>-121.65411672356002</v>
+        <v>-7.3819999999999997</v>
       </c>
       <c r="W13" s="31">
         <f t="shared" si="10"/>
-        <v>-138.13394830356003</v>
+        <v>-8.3819999999999997</v>
       </c>
       <c r="X13" s="31">
         <f t="shared" si="10"/>
-        <v>-154.61377988356</v>
+        <v>-9.3819999999999997</v>
       </c>
       <c r="Y13" s="31">
         <f t="shared" si="10"/>
-        <v>-171.09361146355999</v>
+        <v>-10.382</v>
       </c>
       <c r="Z13" s="31">
         <f t="shared" si="10"/>
-        <v>-187.57344304356002</v>
+        <v>-11.382</v>
       </c>
       <c r="AA13" s="31">
         <f t="shared" si="10"/>
-        <v>-204.05327462356001</v>
+        <v>-12.382</v>
       </c>
       <c r="AB13" s="31">
         <f t="shared" si="10"/>
-        <v>-220.53310620356001</v>
+        <v>-13.382</v>
       </c>
       <c r="AC13" s="31">
         <f t="shared" si="10"/>
-        <v>-237.01293778356003</v>
+        <v>-14.382</v>
       </c>
     </row>
     <row r="14" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -3775,93 +3772,93 @@
       </c>
       <c r="C14" s="10">
         <f t="shared" ref="C14:C34" si="12">IF(B14&lt;&gt;0,C13*$E$9,0)</f>
-        <v>1.618E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" ref="D14:D34" si="13">+C14*E14*100</f>
-        <v>132.40903000000003</v>
+        <v>747</v>
       </c>
       <c r="E14" s="9">
         <f>IF(B14=0,0,$E$3+$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
-        <v>81.835000000000008</v>
+        <v>747</v>
       </c>
       <c r="H14" s="34">
         <v>4</v>
       </c>
       <c r="I14" s="30">
         <f t="shared" si="8"/>
-        <v>4.2358010320000007E-2</v>
+        <v>0.01</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="31">
         <f>I14*100*I6</f>
-        <v>69.807314105679922</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="N14" s="31">
         <f>I14*100*(I6-I5)</f>
-        <v>43.142946609239921</v>
+        <v>1.6179999999999999</v>
       </c>
       <c r="O14" s="31">
         <f t="shared" ref="O14:AC14" si="14">$I$14*100*($I$6-$I$5*K10)</f>
-        <v>16.47857911279992</v>
+        <v>0.61799999999999988</v>
       </c>
       <c r="P14" s="31">
         <f t="shared" si="14"/>
-        <v>-10.185788383640075</v>
+        <v>-0.38200000000000012</v>
       </c>
       <c r="Q14" s="31">
         <f t="shared" si="14"/>
-        <v>-36.850155880080088</v>
+        <v>-1.3820000000000001</v>
       </c>
       <c r="R14" s="31">
         <f t="shared" si="14"/>
-        <v>-63.514523376520096</v>
+        <v>-2.3820000000000001</v>
       </c>
       <c r="S14" s="31">
         <f t="shared" si="14"/>
-        <v>-90.178890872960068</v>
+        <v>-3.3820000000000001</v>
       </c>
       <c r="T14" s="31">
         <f t="shared" si="14"/>
-        <v>-116.84325836940009</v>
+        <v>-4.3819999999999997</v>
       </c>
       <c r="U14" s="31">
         <f t="shared" si="14"/>
-        <v>-143.50762586584008</v>
+        <v>-5.3819999999999997</v>
       </c>
       <c r="V14" s="31">
         <f t="shared" si="14"/>
-        <v>-170.17199336228009</v>
+        <v>-6.3819999999999997</v>
       </c>
       <c r="W14" s="31">
         <f t="shared" si="14"/>
-        <v>-196.8363608587201</v>
+        <v>-7.3819999999999997</v>
       </c>
       <c r="X14" s="31">
         <f t="shared" si="14"/>
-        <v>-223.50072835516011</v>
+        <v>-8.3819999999999997</v>
       </c>
       <c r="Y14" s="31">
         <f t="shared" si="14"/>
-        <v>-250.16509585160006</v>
+        <v>-9.3819999999999997</v>
       </c>
       <c r="Z14" s="31">
         <f t="shared" si="14"/>
-        <v>-276.82946334804006</v>
+        <v>-10.382</v>
       </c>
       <c r="AA14" s="31">
         <f t="shared" si="14"/>
-        <v>-303.4938308444801</v>
+        <v>-11.382</v>
       </c>
       <c r="AB14" s="31">
         <f t="shared" si="14"/>
-        <v>-330.15819834092008</v>
+        <v>-12.382</v>
       </c>
       <c r="AC14" s="31">
         <f t="shared" si="14"/>
-        <v>-356.82256583736012</v>
+        <v>-13.382</v>
       </c>
     </row>
     <row r="15" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -3871,22 +3868,22 @@
       </c>
       <c r="C15" s="10">
         <f t="shared" si="12"/>
-        <v>2.6179240000000003E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="13"/>
-        <v>197.75797896</v>
+        <v>745.5</v>
       </c>
       <c r="E15" s="9">
         <f>IF(B15=0,0,$E$4+$E$5+$E$6+($E$7*($E$10-6)))</f>
-        <v>75.539999999999992</v>
+        <v>745.5</v>
       </c>
       <c r="H15" s="34">
         <v>5</v>
       </c>
       <c r="I15" s="30">
         <f t="shared" si="8"/>
-        <v>6.8535260697760017E-2</v>
+        <v>0.01</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="3"/>
@@ -3894,67 +3891,67 @@
       <c r="M15" s="3"/>
       <c r="N15" s="31">
         <f>I15*I6*100</f>
-        <v>112.94823422299014</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="O15" s="31">
         <f>I15*100*(I6-I5)</f>
-        <v>69.805287613750195</v>
+        <v>1.6179999999999999</v>
       </c>
       <c r="P15" s="31">
         <f t="shared" ref="P15:AC15" si="15">$I$15*100*($I$6-$I$5*K10)</f>
-        <v>26.662341004510271</v>
+        <v>0.61799999999999988</v>
       </c>
       <c r="Q15" s="31">
         <f t="shared" si="15"/>
-        <v>-16.480605604729643</v>
+        <v>-0.38200000000000012</v>
       </c>
       <c r="R15" s="31">
         <f t="shared" si="15"/>
-        <v>-59.623552213969582</v>
+        <v>-1.3820000000000001</v>
       </c>
       <c r="S15" s="31">
         <f t="shared" si="15"/>
-        <v>-102.76649882320953</v>
+        <v>-2.3820000000000001</v>
       </c>
       <c r="T15" s="31">
         <f t="shared" si="15"/>
-        <v>-145.90944543244942</v>
+        <v>-3.3820000000000001</v>
       </c>
       <c r="U15" s="31">
         <f t="shared" si="15"/>
-        <v>-189.05239204168936</v>
+        <v>-4.3819999999999997</v>
       </c>
       <c r="V15" s="31">
         <f t="shared" si="15"/>
-        <v>-232.19533865092927</v>
+        <v>-5.3819999999999997</v>
       </c>
       <c r="W15" s="31">
         <f t="shared" si="15"/>
-        <v>-275.33828526016919</v>
+        <v>-6.3819999999999997</v>
       </c>
       <c r="X15" s="31">
         <f t="shared" si="15"/>
-        <v>-318.48123186940916</v>
+        <v>-7.3819999999999997</v>
       </c>
       <c r="Y15" s="31">
         <f t="shared" si="15"/>
-        <v>-361.62417847864907</v>
+        <v>-8.3819999999999997</v>
       </c>
       <c r="Z15" s="31">
         <f t="shared" si="15"/>
-        <v>-404.76712508788893</v>
+        <v>-9.3819999999999997</v>
       </c>
       <c r="AA15" s="31">
         <f t="shared" si="15"/>
-        <v>-447.9100716971289</v>
+        <v>-10.382</v>
       </c>
       <c r="AB15" s="31">
         <f t="shared" si="15"/>
-        <v>-491.05301830636881</v>
+        <v>-11.382</v>
       </c>
       <c r="AC15" s="31">
         <f t="shared" si="15"/>
-        <v>-534.19596491560878</v>
+        <v>-12.382</v>
       </c>
     </row>
     <row r="16" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -3964,22 +3961,22 @@
       </c>
       <c r="C16" s="10">
         <f t="shared" si="12"/>
-        <v>4.2358010320000007E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="13"/>
-        <v>293.30804246084006</v>
+        <v>744</v>
       </c>
       <c r="E16" s="9">
         <f>IF(B16=0,0,$E$5+$E$6+($E$7*($E$10-6)))</f>
-        <v>69.245000000000005</v>
+        <v>744</v>
       </c>
       <c r="H16" s="34">
         <v>6</v>
       </c>
       <c r="I16" s="30">
         <f t="shared" si="8"/>
-        <v>0.11089005180897571</v>
+        <v>0.01</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -3988,63 +3985,63 @@
       <c r="N16" s="3"/>
       <c r="O16" s="31">
         <f>I16*I6*100</f>
-        <v>182.75024297279805</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="P16" s="31">
         <f>I16*100*(I6-I5)</f>
-        <v>112.94495535904782</v>
+        <v>1.6179999999999999</v>
       </c>
       <c r="Q16" s="31">
         <f t="shared" ref="Q16:Y16" si="16">$I$16*100*($I$6-$I$5*K10)</f>
-        <v>43.139667745297622</v>
+        <v>0.61799999999999988</v>
       </c>
       <c r="R16" s="31">
         <f t="shared" si="16"/>
-        <v>-26.665619868452566</v>
+        <v>-0.38200000000000012</v>
       </c>
       <c r="S16" s="31">
         <f t="shared" si="16"/>
-        <v>-96.47090748220279</v>
+        <v>-1.3820000000000001</v>
       </c>
       <c r="T16" s="31">
         <f t="shared" si="16"/>
-        <v>-166.27619509595303</v>
+        <v>-2.3820000000000001</v>
       </c>
       <c r="U16" s="31">
         <f t="shared" si="16"/>
-        <v>-236.08148270970318</v>
+        <v>-3.3820000000000001</v>
       </c>
       <c r="V16" s="31">
         <f t="shared" si="16"/>
-        <v>-305.88677032345339</v>
+        <v>-4.3819999999999997</v>
       </c>
       <c r="W16" s="31">
         <f t="shared" si="16"/>
-        <v>-375.69205793720357</v>
+        <v>-5.3819999999999997</v>
       </c>
       <c r="X16" s="31">
         <f t="shared" si="16"/>
-        <v>-445.49734555095381</v>
+        <v>-6.3819999999999997</v>
       </c>
       <c r="Y16" s="31">
         <f t="shared" si="16"/>
-        <v>-515.30263316470405</v>
+        <v>-7.3819999999999997</v>
       </c>
       <c r="Z16" s="31">
         <f t="shared" ref="Z16" si="17">$I$16*100*($I$6-$I$5*T10)</f>
-        <v>-585.10792077845429</v>
+        <v>-8.3819999999999997</v>
       </c>
       <c r="AA16" s="31">
         <f t="shared" ref="AA16" si="18">$I$16*100*($I$6-$I$5*U10)</f>
-        <v>-654.9132083922043</v>
+        <v>-9.3819999999999997</v>
       </c>
       <c r="AB16" s="31">
         <f t="shared" ref="AB16" si="19">$I$16*100*($I$6-$I$5*V10)</f>
-        <v>-724.71849600595453</v>
+        <v>-10.382</v>
       </c>
       <c r="AC16" s="31">
         <f t="shared" ref="AC16" si="20">$I$16*100*($I$6-$I$5*W10)</f>
-        <v>-794.52378361970477</v>
+        <v>-11.382</v>
       </c>
     </row>
     <row r="17" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4054,22 +4051,22 @@
       </c>
       <c r="C17" s="10">
         <f t="shared" si="12"/>
-        <v>6.8535260697760017E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" si="13"/>
-        <v>431.42946609239931</v>
+        <v>742.5</v>
       </c>
       <c r="E17" s="9">
         <f>IF(B17=0,0,$E$6+($E$7*($E$10-6)))</f>
-        <v>62.95</v>
+        <v>742.5</v>
       </c>
       <c r="H17" s="34">
         <v>7</v>
       </c>
       <c r="I17" s="30">
         <f t="shared" si="8"/>
-        <v>0.17942010382692272</v>
+        <v>0.01</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -4079,59 +4076,59 @@
       <c r="O17" s="3"/>
       <c r="P17" s="31">
         <f>I6*I17*100</f>
-        <v>295.68989312998724</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="Q17" s="31">
         <f>I17*100*(I6-I5)</f>
-        <v>182.7449377709394</v>
+        <v>1.6179999999999999</v>
       </c>
       <c r="R17" s="31">
         <f t="shared" ref="R17:Y17" si="21">$I$17*100*($I$6-$I$5*K10)</f>
-        <v>69.799982411891563</v>
+        <v>0.61799999999999988</v>
       </c>
       <c r="S17" s="31">
         <f t="shared" si="21"/>
-        <v>-43.144972947156255</v>
+        <v>-0.38200000000000012</v>
       </c>
       <c r="T17" s="31">
         <f t="shared" si="21"/>
-        <v>-156.08992830620411</v>
+        <v>-1.3820000000000001</v>
       </c>
       <c r="U17" s="31">
         <f t="shared" si="21"/>
-        <v>-269.03488366525198</v>
+        <v>-2.3820000000000001</v>
       </c>
       <c r="V17" s="31">
         <f t="shared" si="21"/>
-        <v>-381.97983902429974</v>
+        <v>-3.3820000000000001</v>
       </c>
       <c r="W17" s="31">
         <f t="shared" si="21"/>
-        <v>-494.9247943833476</v>
+        <v>-4.3819999999999997</v>
       </c>
       <c r="X17" s="31">
         <f t="shared" si="21"/>
-        <v>-607.86974974239547</v>
+        <v>-5.3819999999999997</v>
       </c>
       <c r="Y17" s="31">
         <f t="shared" si="21"/>
-        <v>-720.81470510144334</v>
+        <v>-6.3819999999999997</v>
       </c>
       <c r="Z17" s="31">
         <f t="shared" ref="Z17" si="22">$I$17*100*($I$6-$I$5*S10)</f>
-        <v>-833.7596604604912</v>
+        <v>-7.3819999999999997</v>
       </c>
       <c r="AA17" s="31">
         <f t="shared" ref="AA17" si="23">$I$17*100*($I$6-$I$5*T10)</f>
-        <v>-946.70461581953907</v>
+        <v>-8.3819999999999997</v>
       </c>
       <c r="AB17" s="31">
         <f t="shared" ref="AB17" si="24">$I$17*100*($I$6-$I$5*U10)</f>
-        <v>-1059.6495711785867</v>
+        <v>-9.3819999999999997</v>
       </c>
       <c r="AC17" s="31">
         <f t="shared" ref="AC17" si="25">$I$17*100*($I$6-$I$5*V10)</f>
-        <v>-1172.5945265376345</v>
+        <v>-10.382</v>
       </c>
     </row>
     <row r="18" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4141,22 +4138,22 @@
       </c>
       <c r="C18" s="10">
         <f t="shared" si="12"/>
-        <v>0.11089005180897571</v>
+        <v>0.01</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="13"/>
-        <v>628.24758852375192</v>
+        <v>741</v>
       </c>
       <c r="E18" s="9">
         <f>IF(B18=0,0,($E$7*($E$10-6)))</f>
-        <v>56.655000000000001</v>
+        <v>741</v>
       </c>
       <c r="H18" s="34">
         <v>8</v>
       </c>
       <c r="I18" s="30">
         <f t="shared" si="8"/>
-        <v>0.29030172799196097</v>
+        <v>0.01</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -4167,55 +4164,55 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="31">
         <f>I6*I18*100</f>
-        <v>478.42624708431936</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="R18" s="31">
         <f>I18*100*(I6-I5)</f>
-        <v>295.68130931337998</v>
+        <v>1.6179999999999999</v>
       </c>
       <c r="S18" s="31">
         <f t="shared" ref="S18:Y18" si="26">$I$18*100*($I$6-$I$5*K10)</f>
-        <v>112.93637154244055</v>
+        <v>0.61799999999999988</v>
       </c>
       <c r="T18" s="31">
         <f t="shared" si="26"/>
-        <v>-69.808566228498833</v>
+        <v>-0.38200000000000012</v>
       </c>
       <c r="U18" s="31">
         <f t="shared" si="26"/>
-        <v>-252.55350399943831</v>
+        <v>-1.3820000000000001</v>
       </c>
       <c r="V18" s="31">
         <f t="shared" si="26"/>
-        <v>-435.29844177037779</v>
+        <v>-2.3820000000000001</v>
       </c>
       <c r="W18" s="31">
         <f t="shared" si="26"/>
-        <v>-618.04337954131711</v>
+        <v>-3.3820000000000001</v>
       </c>
       <c r="X18" s="31">
         <f t="shared" si="26"/>
-        <v>-800.78831731225659</v>
+        <v>-4.3819999999999997</v>
       </c>
       <c r="Y18" s="31">
         <f t="shared" si="26"/>
-        <v>-983.53325508319597</v>
+        <v>-5.3819999999999997</v>
       </c>
       <c r="Z18" s="31">
         <f t="shared" ref="Z18" si="27">$I$18*100*($I$6-$I$5*R10)</f>
-        <v>-1166.2781928541353</v>
+        <v>-6.3819999999999997</v>
       </c>
       <c r="AA18" s="31">
         <f t="shared" ref="AA18" si="28">$I$18*100*($I$6-$I$5*S10)</f>
-        <v>-1349.0231306250748</v>
+        <v>-7.3819999999999997</v>
       </c>
       <c r="AB18" s="31">
         <f t="shared" ref="AB18" si="29">$I$18*100*($I$6-$I$5*T10)</f>
-        <v>-1531.7680683960143</v>
+        <v>-8.3819999999999997</v>
       </c>
       <c r="AC18" s="31">
         <f t="shared" ref="AC18" si="30">$I$18*100*($I$6-$I$5*U10)</f>
-        <v>-1714.5130061669536</v>
+        <v>-9.3819999999999997</v>
       </c>
     </row>
     <row r="19" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4225,22 +4222,22 @@
       </c>
       <c r="C19" s="10">
         <f t="shared" si="12"/>
-        <v>0.17942010382692272</v>
+        <v>0.01</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" si="13"/>
-        <v>903.55964287238282</v>
+        <v>739.5</v>
       </c>
       <c r="E19" s="9">
         <f>IF(B19=0,0,($E$7*($E$10-7)))</f>
-        <v>50.36</v>
+        <v>739.5</v>
       </c>
       <c r="H19" s="34">
         <v>9</v>
       </c>
       <c r="I19" s="30">
         <f t="shared" si="8"/>
-        <v>0.46970819589099289</v>
+        <v>0.01</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -4252,51 +4249,51 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="31">
         <f>I6*I19*100</f>
-        <v>774.09366778242884</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="S19" s="31">
         <f>I19*100*(I6-I5)</f>
-        <v>478.4123584690488</v>
+        <v>1.6179999999999999</v>
       </c>
       <c r="T19" s="31">
         <f t="shared" ref="T19:Y19" si="31">$I$19*100*($I$6-$I$5*K10)</f>
-        <v>182.73104915566881</v>
+        <v>0.61799999999999988</v>
       </c>
       <c r="U19" s="31">
         <f t="shared" si="31"/>
-        <v>-112.9502601577111</v>
+        <v>-0.38200000000000012</v>
       </c>
       <c r="V19" s="31">
         <f t="shared" si="31"/>
-        <v>-408.63156947109115</v>
+        <v>-1.3820000000000001</v>
       </c>
       <c r="W19" s="31">
         <f t="shared" si="31"/>
-        <v>-704.31287878447131</v>
+        <v>-2.3820000000000001</v>
       </c>
       <c r="X19" s="31">
         <f t="shared" si="31"/>
-        <v>-999.99418809785107</v>
+        <v>-3.3820000000000001</v>
       </c>
       <c r="Y19" s="31">
         <f t="shared" si="31"/>
-        <v>-1295.6754974112312</v>
+        <v>-4.3819999999999997</v>
       </c>
       <c r="Z19" s="31">
         <f t="shared" ref="Z19" si="32">$I$19*100*($I$6-$I$5*Q10)</f>
-        <v>-1591.356806724611</v>
+        <v>-5.3819999999999997</v>
       </c>
       <c r="AA19" s="31">
         <f t="shared" ref="AA19" si="33">$I$19*100*($I$6-$I$5*R10)</f>
-        <v>-1887.0381160379911</v>
+        <v>-6.3819999999999997</v>
       </c>
       <c r="AB19" s="31">
         <f t="shared" ref="AB19" si="34">$I$19*100*($I$6-$I$5*S10)</f>
-        <v>-2182.7194253513712</v>
+        <v>-7.3819999999999997</v>
       </c>
       <c r="AC19" s="31">
         <f t="shared" ref="AC19" si="35">$I$19*100*($I$6-$I$5*T10)</f>
-        <v>-2478.4007346647513</v>
+        <v>-8.3819999999999997</v>
       </c>
     </row>
     <row r="20" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4306,22 +4303,22 @@
       </c>
       <c r="C20" s="10">
         <f t="shared" si="12"/>
-        <v>0.29030172799196097</v>
+        <v>0.01</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="13"/>
-        <v>1279.214564396576</v>
+        <v>738</v>
       </c>
       <c r="E20" s="9">
         <f>IF(B20=0,0,($E$7*($E$10-8)))</f>
-        <v>44.064999999999998</v>
+        <v>738</v>
       </c>
       <c r="H20" s="34">
         <v>10</v>
       </c>
       <c r="I20" s="30">
         <f t="shared" si="8"/>
-        <v>0.75998786095162651</v>
+        <v>0.01</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -4334,47 +4331,47 @@
       <c r="R20" s="3"/>
       <c r="S20" s="31">
         <f>I6*I20*100</f>
-        <v>1252.4835544719699</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="T20" s="31">
         <f>I20*100*(I6-I5)</f>
-        <v>774.07119600292117</v>
+        <v>1.6179999999999999</v>
       </c>
       <c r="U20" s="31">
         <f>$I$20*100*($I$6-$I$5*K10)</f>
-        <v>295.6588375338722</v>
+        <v>0.61799999999999988</v>
       </c>
       <c r="V20" s="31">
         <f>$I$20*100*($I$6-$I$5*L10)</f>
-        <v>-182.7535209351766</v>
+        <v>-0.38200000000000012</v>
       </c>
       <c r="W20" s="31">
         <f>$I$20*100*($I$6-$I$5*M10)</f>
-        <v>-661.16587940422562</v>
+        <v>-1.3820000000000001</v>
       </c>
       <c r="X20" s="31">
         <f>$I$20*100*($I$6-$I$5*N10)</f>
-        <v>-1139.5782378732747</v>
+        <v>-2.3820000000000001</v>
       </c>
       <c r="Y20" s="31">
         <f>$I$20*100*($I$6-$I$5*O10)</f>
-        <v>-1617.9905963423232</v>
+        <v>-3.3820000000000001</v>
       </c>
       <c r="Z20" s="31">
         <f t="shared" ref="Z20:AC20" si="36">$I$20*100*($I$6-$I$5*P10)</f>
-        <v>-2096.4029548113722</v>
+        <v>-4.3819999999999997</v>
       </c>
       <c r="AA20" s="31">
         <f t="shared" si="36"/>
-        <v>-2574.8153132804209</v>
+        <v>-5.3819999999999997</v>
       </c>
       <c r="AB20" s="31">
         <f t="shared" si="36"/>
-        <v>-3053.2276717494701</v>
+        <v>-6.3819999999999997</v>
       </c>
       <c r="AC20" s="31">
         <f t="shared" si="36"/>
-        <v>-3531.6400302185193</v>
+        <v>-7.3819999999999997</v>
       </c>
     </row>
     <row r="21" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4384,22 +4381,22 @@
       </c>
       <c r="C21" s="10">
         <f t="shared" si="12"/>
-        <v>0.46970819589099289</v>
+        <v>0.01</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="13"/>
-        <v>1774.0878558802799</v>
+        <v>736.5</v>
       </c>
       <c r="E21" s="9">
         <f>IF(B21=0,0,($E$7*($E$10-9)))</f>
-        <v>37.769999999999996</v>
+        <v>736.5</v>
       </c>
       <c r="H21" s="34">
         <v>11</v>
       </c>
       <c r="I21" s="30">
         <f t="shared" si="8"/>
-        <v>1.2296603590197317</v>
+        <v>0.01</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -4413,43 +4410,43 @@
       <c r="S21" s="3"/>
       <c r="T21" s="32">
         <f>I6*I21*100</f>
-        <v>2026.5183911356473</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="U21" s="32">
         <f>I21*100*(I6-I5)</f>
-        <v>1252.4471951327264</v>
+        <v>1.6179999999999999</v>
       </c>
       <c r="V21" s="32">
         <f>$I$21*100*($I$6-$I$5*K10)</f>
-        <v>478.37599912980517</v>
+        <v>0.61799999999999988</v>
       </c>
       <c r="W21" s="32">
         <f>$I$21*100*($I$6-$I$5*L10)</f>
-        <v>-295.69519687311572</v>
+        <v>-0.38200000000000012</v>
       </c>
       <c r="X21" s="32">
         <f>$I$21*100*($I$6-$I$5*M10)</f>
-        <v>-1069.7663928760371</v>
+        <v>-1.3820000000000001</v>
       </c>
       <c r="Y21" s="32">
         <f>$I$21*100*($I$6-$I$5*N10)</f>
-        <v>-1843.8375888789583</v>
+        <v>-2.3820000000000001</v>
       </c>
       <c r="Z21" s="32">
         <f t="shared" ref="Z21:AC21" si="37">$I$21*100*($I$6-$I$5*O10)</f>
-        <v>-2617.908784881879</v>
+        <v>-3.3820000000000001</v>
       </c>
       <c r="AA21" s="32">
         <f t="shared" si="37"/>
-        <v>-3391.9799808848002</v>
+        <v>-4.3819999999999997</v>
       </c>
       <c r="AB21" s="32">
         <f t="shared" si="37"/>
-        <v>-4166.0511768877213</v>
+        <v>-5.3819999999999997</v>
       </c>
       <c r="AC21" s="32">
         <f t="shared" si="37"/>
-        <v>-4940.1223728906425</v>
+        <v>-6.3819999999999997</v>
       </c>
     </row>
     <row r="22" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4459,22 +4456,22 @@
       </c>
       <c r="C22" s="10">
         <f t="shared" si="12"/>
-        <v>0.75998786095162651</v>
+        <v>0.01</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="13"/>
-        <v>2392.0617923452446</v>
+        <v>735</v>
       </c>
       <c r="E22" s="9">
         <f>IF(B22=0,0,($E$7*($E$10-10)))</f>
-        <v>31.475000000000001</v>
+        <v>735</v>
       </c>
       <c r="H22" s="34">
         <v>12</v>
       </c>
       <c r="I22" s="30">
         <f t="shared" si="8"/>
-        <v>1.9895904608939261</v>
+        <v>0.01</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -4489,39 +4486,39 @@
       <c r="T22" s="32"/>
       <c r="U22" s="32">
         <f>I6*I22*100</f>
-        <v>3278.9067568574778</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="V22" s="32">
         <f>I22*100*(I6-I5)</f>
-        <v>2026.4595617247514</v>
+        <v>1.6179999999999999</v>
       </c>
       <c r="W22" s="32">
         <f>$I$22*100*($I$6-$I$5*K10)</f>
-        <v>774.01236659202493</v>
+        <v>0.61799999999999988</v>
       </c>
       <c r="X22" s="32">
         <f>$I$22*100*($I$6-$I$5*L10)</f>
-        <v>-478.43482854070123</v>
+        <v>-0.38200000000000012</v>
       </c>
       <c r="Y22" s="32">
         <f>$I$22*100*($I$6-$I$5*M10)</f>
-        <v>-1730.8820236734282</v>
+        <v>-1.3820000000000001</v>
       </c>
       <c r="Z22" s="32">
         <f t="shared" ref="Z22:AC22" si="38">$I$22*100*($I$6-$I$5*N10)</f>
-        <v>-2983.329218806155</v>
+        <v>-2.3820000000000001</v>
       </c>
       <c r="AA22" s="32">
         <f t="shared" si="38"/>
-        <v>-4235.7764139388801</v>
+        <v>-3.3820000000000001</v>
       </c>
       <c r="AB22" s="32">
         <f t="shared" si="38"/>
-        <v>-5488.2236090716069</v>
+        <v>-4.3819999999999997</v>
       </c>
       <c r="AC22" s="32">
         <f t="shared" si="38"/>
-        <v>-6740.6708042043338</v>
+        <v>-5.3819999999999997</v>
       </c>
     </row>
     <row r="23" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4531,22 +4528,22 @@
       </c>
       <c r="C23" s="10">
         <f t="shared" si="12"/>
-        <v>1.2296603590197317</v>
+        <v>0.01</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" si="13"/>
-        <v>3096.2847840116842</v>
+        <v>733.5</v>
       </c>
       <c r="E23" s="9">
         <f>IF(B23=0,0,($E$7*($E$10-11)))</f>
-        <v>25.18</v>
+        <v>733.5</v>
       </c>
       <c r="H23" s="34">
         <v>13</v>
       </c>
       <c r="I23" s="30">
         <f t="shared" si="8"/>
-        <v>3.2191573657263728</v>
+        <v>0.01</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -4562,35 +4559,35 @@
       <c r="U23" s="32"/>
       <c r="V23" s="32">
         <f>I6*I23*100</f>
-        <v>5305.2711325953996</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="W23" s="32">
         <f>I23*100*(I6-I5)</f>
-        <v>3278.8115708706482</v>
+        <v>1.6179999999999999</v>
       </c>
       <c r="X23" s="32">
         <f>$I$23*100*($I$6-$I$5*K10)</f>
-        <v>1252.3520091458963</v>
+        <v>0.61799999999999988</v>
       </c>
       <c r="Y23" s="32">
         <f>$I$23*100*($I$6-$I$5*L10)</f>
-        <v>-774.10755257885478</v>
+        <v>-0.38200000000000012</v>
       </c>
       <c r="Z23" s="32">
         <f t="shared" ref="Z23:AC23" si="39">$I$23*100*($I$6-$I$5*M10)</f>
-        <v>-2800.567114303607</v>
+        <v>-1.3820000000000001</v>
       </c>
       <c r="AA23" s="32">
         <f t="shared" si="39"/>
-        <v>-4827.0266760283594</v>
+        <v>-2.3820000000000001</v>
       </c>
       <c r="AB23" s="32">
         <f t="shared" si="39"/>
-        <v>-6853.486237753109</v>
+        <v>-3.3820000000000001</v>
       </c>
       <c r="AC23" s="32">
         <f t="shared" si="39"/>
-        <v>-8879.9457994778622</v>
+        <v>-4.3819999999999997</v>
       </c>
     </row>
     <row r="24" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4600,22 +4597,22 @@
       </c>
       <c r="C24" s="10">
         <f t="shared" si="12"/>
-        <v>1.9895904608939261</v>
+        <v>0.01</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="13"/>
-        <v>3757.3415853981792</v>
+        <v>732</v>
       </c>
       <c r="E24" s="9">
         <f>IF(B24=0,0,($E$7*($E$10-12)))</f>
-        <v>18.884999999999998</v>
+        <v>732</v>
       </c>
       <c r="H24" s="34">
         <v>14</v>
       </c>
       <c r="I24" s="30">
         <f t="shared" si="8"/>
-        <v>5.2085966177452718</v>
+        <v>0.01</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -4632,31 +4629,31 @@
       <c r="V24" s="32"/>
       <c r="W24" s="32">
         <f>I6*I24*100</f>
-        <v>8583.9286925393571</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="X24" s="32">
         <f>I24*100*(I6-I5)</f>
-        <v>5305.1171216687098</v>
+        <v>1.6179999999999999</v>
       </c>
       <c r="Y24" s="32">
         <f>$I$24*100*($I$6-$I$5*K10)</f>
-        <v>2026.3055507980607</v>
+        <v>0.61799999999999988</v>
       </c>
       <c r="Z24" s="32">
         <f t="shared" ref="Z24:AC24" si="40">$I$24*100*($I$6-$I$5*L10)</f>
-        <v>-1252.5060200725873</v>
+        <v>-0.38200000000000012</v>
       </c>
       <c r="AA24" s="32">
         <f t="shared" si="40"/>
-        <v>-4531.3175909432375</v>
+        <v>-1.3820000000000001</v>
       </c>
       <c r="AB24" s="32">
         <f t="shared" si="40"/>
-        <v>-7810.1291618138866</v>
+        <v>-2.3820000000000001</v>
       </c>
       <c r="AC24" s="32">
         <f t="shared" si="40"/>
-        <v>-11088.940732684534</v>
+        <v>-3.3820000000000001</v>
       </c>
     </row>
     <row r="25" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4666,22 +4663,22 @@
       </c>
       <c r="C25" s="10">
         <f t="shared" si="12"/>
-        <v>3.2191573657263728</v>
+        <v>0.01</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" si="13"/>
-        <v>4052.9191234495029</v>
+        <v>730.5</v>
       </c>
       <c r="E25" s="9">
         <f>IF(B25=0,0,($E$7*($E$10-13)))</f>
-        <v>12.59</v>
+        <v>730.5</v>
       </c>
       <c r="H25" s="34">
         <v>15</v>
       </c>
       <c r="I25" s="30">
         <f t="shared" si="8"/>
-        <v>8.4275093275118511</v>
+        <v>0.01</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -4699,27 +4696,27 @@
       <c r="W25" s="32"/>
       <c r="X25" s="32">
         <f>I6*I25*100</f>
-        <v>13888.796624528683</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="Y25" s="32">
         <f>I25*100*(I6-I5)</f>
-        <v>8583.6795028599736</v>
+        <v>1.6179999999999999</v>
       </c>
       <c r="Z25" s="32">
         <f>$I$25*100*($I$6-$I$5*K10)</f>
-        <v>3278.5623811912628</v>
+        <v>0.61799999999999988</v>
       </c>
       <c r="AA25" s="32">
         <f>$I$25*100*($I$6-$I$5*L10)</f>
-        <v>-2026.5547404774463</v>
+        <v>-0.38200000000000012</v>
       </c>
       <c r="AB25" s="32">
         <f>$I$25*100*($I$6-$I$5*M10)</f>
-        <v>-7331.6718621461578</v>
+        <v>-1.3820000000000001</v>
       </c>
       <c r="AC25" s="32">
         <f>$I$25*100*($I$6-$I$5*N10)</f>
-        <v>-12636.788983814869</v>
+        <v>-2.3820000000000001</v>
       </c>
     </row>
     <row r="26" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4729,22 +4726,22 @@
       </c>
       <c r="C26" s="10">
         <f t="shared" si="12"/>
-        <v>5.2085966177452718</v>
+        <v>0.01</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" si="13"/>
-        <v>3278.8115708706487</v>
+        <v>729</v>
       </c>
       <c r="E26" s="9">
         <f>IF(B26=0,0,($E$7*($E$10-14)))</f>
-        <v>6.2949999999999999</v>
+        <v>729</v>
       </c>
       <c r="H26" s="34">
         <v>16</v>
       </c>
       <c r="I26" s="30">
         <f t="shared" si="8"/>
-        <v>13.635710091914175</v>
+        <v>0.01</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -4763,23 +4760,23 @@
       <c r="X26" s="32"/>
       <c r="Y26" s="32">
         <f>I26*I6*100</f>
-        <v>22472.07293848741</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="Z26" s="32">
         <f>$I$26*100*($I$6-$I$5)</f>
-        <v>13888.393435627435</v>
+        <v>1.6179999999999999</v>
       </c>
       <c r="AA26" s="32">
         <f>$I$26*100*($I$6-$I$5*K10)</f>
-        <v>5304.7139327674631</v>
+        <v>0.61799999999999988</v>
       </c>
       <c r="AB26" s="32">
         <f>$I$26*100*($I$6-$I$5*L10)</f>
-        <v>-3278.9655700925077</v>
+        <v>-0.38200000000000012</v>
       </c>
       <c r="AC26" s="32">
         <f>$I$26*100*($I$6-$I$5*M10)</f>
-        <v>-11862.645072952484</v>
+        <v>-1.3820000000000001</v>
       </c>
     </row>
     <row r="27" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -4789,162 +4786,162 @@
       </c>
       <c r="C27" s="10">
         <f t="shared" si="12"/>
-        <v>8.4275093275118511</v>
+        <v>0.01</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>727.5</v>
       </c>
       <c r="E27" s="9">
         <f>IF(B27=0,0,($E$7*($E$10-15)))</f>
-        <v>0</v>
+        <v>727.5</v>
       </c>
       <c r="H27" s="34">
         <v>17</v>
       </c>
       <c r="I27" s="30">
         <f t="shared" si="8"/>
-        <v>22.062578928717137</v>
+        <v>0.01</v>
       </c>
       <c r="Z27" s="32">
         <f>$I$27*$I$6*100</f>
-        <v>36359.814014472628</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="AA27" s="32">
         <f>$I$27*100*($I$6-$I$5*J$10)</f>
-        <v>22471.420578845195</v>
+        <v>1.6179999999999999</v>
       </c>
       <c r="AB27" s="32">
         <f t="shared" ref="AB27:AC27" si="41">$I$27*100*($I$6-$I$5*K$10)</f>
-        <v>8583.027143217756</v>
+        <v>0.61799999999999988</v>
       </c>
       <c r="AC27" s="32">
         <f t="shared" si="41"/>
-        <v>-5305.3662924096789</v>
+        <v>-0.38200000000000012</v>
       </c>
     </row>
     <row r="28" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="24">
+      <c r="B28" s="24" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>L16</v>
       </c>
       <c r="C28" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="E28" s="9">
         <f>IF(B28=0,0,($E$7*($E$10-16)))</f>
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="H28" s="34">
         <v>18</v>
       </c>
       <c r="I28" s="30">
         <f t="shared" si="8"/>
-        <v>35.697252706664329</v>
+        <v>0.01</v>
       </c>
       <c r="AA28" s="32">
         <f>$I$28*$I$6*100</f>
-        <v>58830.179075416723</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="AB28" s="32">
         <f>$I$28*100*($I$6-$I$5*J$10)</f>
-        <v>36358.758496571529</v>
+        <v>1.6179999999999999</v>
       </c>
       <c r="AC28" s="32">
         <f>$I$28*100*($I$6-$I$5*K$10)</f>
-        <v>13887.337917726329</v>
+        <v>0.61799999999999988</v>
       </c>
     </row>
     <row r="29" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="24">
+      <c r="B29" s="24" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>L17</v>
       </c>
       <c r="C29" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>724.5</v>
       </c>
       <c r="E29" s="9">
         <f>IF(B29=0,0,($E$7*($E$10-17)))</f>
-        <v>0</v>
+        <v>724.5</v>
       </c>
       <c r="H29" s="34">
         <v>19</v>
       </c>
       <c r="I29" s="30">
         <f t="shared" si="8"/>
-        <v>57.758154879382886</v>
+        <v>0.01</v>
       </c>
       <c r="AB29" s="32">
         <f>$I$29*$I$6*100</f>
-        <v>95187.229744024255</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="AC29" s="32">
         <f>$I$29*100*($I$6-$I$5*J$10)</f>
-        <v>58828.471247452726</v>
+        <v>1.6179999999999999</v>
       </c>
     </row>
     <row r="30" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="24">
+      <c r="B30" s="24" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>L18</v>
       </c>
       <c r="C30" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>723</v>
       </c>
       <c r="E30" s="9">
         <f>IF(B30=0,0,($E$7*($E$10-18)))</f>
-        <v>0</v>
+        <v>723</v>
       </c>
       <c r="H30" s="34">
         <v>20</v>
       </c>
       <c r="I30" s="30">
         <f t="shared" si="8"/>
-        <v>93.452694594841518</v>
+        <v>0.01</v>
       </c>
       <c r="AC30" s="32">
         <f>$I$30*$I$6*100</f>
-        <v>154012.93772583126</v>
+        <v>2.6179999999999999</v>
       </c>
     </row>
     <row r="31" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="24">
+      <c r="B31" s="24" t="str">
         <f>IF(B30=0,0,IF(VALUE(MID(B30,2,2))&gt;=$E$10,0,"L"&amp;VALUE(MID(B30,2,2))+1))</f>
-        <v>0</v>
+        <v>L19</v>
       </c>
       <c r="C31" s="10">
         <f>IF(B31&lt;&gt;0,C30*$E$9,0)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D31" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>721.5</v>
       </c>
       <c r="E31" s="9">
         <f>IF(B31=0,0,($E$7*($E$10-19)))</f>
-        <v>0</v>
+        <v>721.5</v>
       </c>
       <c r="H31" s="36" t="s">
         <v>46</v>
       </c>
       <c r="I31" s="41">
         <f>SUM(I11:I26)</f>
-        <v>35.683784674299567</v>
+        <v>0.16</v>
       </c>
       <c r="J31" s="37">
         <f>SUMIF(J11:J30, "&lt;0")</f>
@@ -4960,190 +4957,190 @@
       </c>
       <c r="M31" s="37">
         <f t="shared" si="42"/>
-        <v>-2.4046899999999987</v>
+        <v>-0.38200000000000012</v>
       </c>
       <c r="N31" s="37">
         <f t="shared" si="42"/>
-        <v>-12.590478419999998</v>
+        <v>-1.7640000000000002</v>
       </c>
       <c r="O31" s="37">
         <f t="shared" si="42"/>
-        <v>-35.366084083559997</v>
+        <v>-4.1460000000000008</v>
       </c>
       <c r="P31" s="37">
         <f t="shared" si="42"/>
-        <v>-78.512014047200083</v>
+        <v>-7.5280000000000005</v>
       </c>
       <c r="Q31" s="37">
         <f t="shared" si="42"/>
-        <v>-154.61712872836972</v>
+        <v>-11.909999999999998</v>
       </c>
       <c r="R31" s="37">
         <f t="shared" si="42"/>
-        <v>-284.05020428250219</v>
+        <v>-17.292000000000002</v>
       </c>
       <c r="S31" s="37">
         <f t="shared" si="42"/>
-        <v>-499.7679205290886</v>
+        <v>-23.674000000000007</v>
       </c>
       <c r="T31" s="37">
         <f t="shared" si="42"/>
-        <v>-855.09418541606544</v>
+        <v>-31.056000000000004</v>
       </c>
       <c r="U31" s="37">
         <f t="shared" si="42"/>
-        <v>-1436.307082003194</v>
+        <v>-39.437999999999988</v>
       </c>
       <c r="V31" s="37">
         <f t="shared" si="42"/>
-        <v>-2383.0045486811682</v>
+        <v>-48.819999999999986</v>
       </c>
       <c r="W31" s="37">
         <f t="shared" si="42"/>
-        <v>-3921.0560497661299</v>
+        <v>-59.201999999999984</v>
       </c>
       <c r="X31" s="37">
         <f t="shared" si="42"/>
-        <v>-6415.9183785215992</v>
+        <v>-70.584000000000003</v>
       </c>
       <c r="Y31" s="37">
         <f t="shared" si="42"/>
-        <v>-10458.900626447949</v>
+        <v>-82.966000000000022</v>
       </c>
       <c r="Z31" s="37">
         <f t="shared" si="42"/>
-        <v>-17006.740903592781</v>
+        <v>-96.348000000000042</v>
       </c>
       <c r="AA31" s="37">
         <f t="shared" si="42"/>
-        <v>-27607.441472013124</v>
+        <v>-110.73000000000005</v>
       </c>
       <c r="AB31" s="37">
         <f t="shared" si="42"/>
-        <v>-44765.66999171723</v>
+        <v>-126.11200000000005</v>
       </c>
       <c r="AC31" s="37">
         <f t="shared" si="42"/>
-        <v>-72533.97873659851</v>
+        <v>-142.49400000000006</v>
       </c>
     </row>
     <row r="32" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="24">
+      <c r="B32" s="24" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>L20</v>
       </c>
       <c r="C32" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E32" s="9">
         <f t="shared" ref="E32:E34" si="43">IF(B32=0,0,($E$7*($E$10-20)))</f>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>85</v>
       </c>
       <c r="J32" s="121">
         <f t="shared" ref="J32:AC32" si="44">SUM(J11:J30)</f>
-        <v>16.480309999999999</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="K32" s="121">
         <f t="shared" si="44"/>
-        <v>36.850451579999998</v>
+        <v>4.2359999999999998</v>
       </c>
       <c r="L32" s="121">
         <f t="shared" si="44"/>
-        <v>63.514340656439998</v>
+        <v>4.8539999999999992</v>
       </c>
       <c r="M32" s="121">
         <f t="shared" si="44"/>
-        <v>100.36151318211992</v>
+        <v>4.4719999999999995</v>
       </c>
       <c r="N32" s="121">
         <f t="shared" si="44"/>
-        <v>153.68523832867007</v>
+        <v>3.0899999999999994</v>
       </c>
       <c r="O32" s="121">
         <f t="shared" si="44"/>
-        <v>233.66802561578817</v>
+        <v>0.70799999999999885</v>
       </c>
       <c r="P32" s="121">
         <f t="shared" si="44"/>
-        <v>356.78517544634525</v>
+        <v>-2.6739999999999999</v>
       </c>
       <c r="Q32" s="121">
         <f t="shared" si="44"/>
-        <v>549.69372387218664</v>
+        <v>-7.0559999999999974</v>
       </c>
       <c r="R32" s="121">
         <f t="shared" si="44"/>
-        <v>855.52475522519819</v>
+        <v>-12.438000000000002</v>
       </c>
       <c r="S32" s="121">
         <f t="shared" si="44"/>
-        <v>1344.0643639543707</v>
+        <v>-18.820000000000011</v>
       </c>
       <c r="T32" s="121">
         <f t="shared" si="44"/>
-        <v>2128.2264508781718</v>
+        <v>-26.202000000000009</v>
       </c>
       <c r="U32" s="121">
         <f t="shared" si="44"/>
-        <v>3390.7057075208822</v>
+        <v>-34.583999999999982</v>
       </c>
       <c r="V32" s="121">
         <f t="shared" si="44"/>
-        <v>5427.1021447687881</v>
+        <v>-43.96599999999998</v>
       </c>
       <c r="W32" s="121">
         <f t="shared" si="44"/>
-        <v>8715.6965802359009</v>
+        <v>-54.347999999999978</v>
       </c>
       <c r="X32" s="121">
         <f t="shared" si="44"/>
-        <v>14030.34737682169</v>
+        <v>-65.730000000000018</v>
       </c>
       <c r="Y32" s="121">
         <f t="shared" si="44"/>
-        <v>22623.157365697494</v>
+        <v>-78.112000000000037</v>
       </c>
       <c r="Z32" s="121">
         <f t="shared" si="44"/>
-        <v>36520.028927698542</v>
+        <v>-91.494000000000057</v>
       </c>
       <c r="AA32" s="121">
         <f t="shared" si="44"/>
-        <v>58998.87211501626</v>
+        <v>-105.87600000000006</v>
       </c>
       <c r="AB32" s="121">
         <f t="shared" si="44"/>
-        <v>95363.345392096307</v>
+        <v>-121.25800000000007</v>
       </c>
       <c r="AC32" s="121">
         <f t="shared" si="44"/>
-        <v>154194.76815441181</v>
+        <v>-137.64000000000007</v>
       </c>
     </row>
     <row r="33" spans="2:30" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="24">
+      <c r="B33" s="24" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>L21</v>
       </c>
       <c r="C33" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E33" s="9">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="5" t="s">
@@ -5155,97 +5152,97 @@
       </c>
       <c r="K33" s="39">
         <f>SUM($I11:$I12)</f>
-        <v>2.6180000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="L33" s="39">
         <f>SUM($I11:$I13)</f>
-        <v>5.2359240000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="M33" s="39">
         <f>SUM($I11:$I14)</f>
-        <v>9.4717250320000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N33" s="39">
         <f>SUM($I11:$I15)</f>
-        <v>0.16325251101776</v>
+        <v>0.05</v>
       </c>
       <c r="O33" s="39">
         <f>SUM($I11:$I16)</f>
-        <v>0.27414256282673571</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="P33" s="39">
         <f>SUM($I11:$I17)</f>
-        <v>0.45356266665365841</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q33" s="39">
         <f>SUM($I11:$I18)</f>
-        <v>0.74386439464561938</v>
+        <v>0.08</v>
       </c>
       <c r="R33" s="39">
         <f>SUM($I11:$I19)</f>
-        <v>1.2135725905366122</v>
+        <v>0.09</v>
       </c>
       <c r="S33" s="39">
         <f>SUM($I11:$I20)</f>
-        <v>1.9735604514882388</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="T33" s="39">
         <f>SUM($I11:$I21)</f>
-        <v>3.2032208105079705</v>
+        <v>0.10999999999999999</v>
       </c>
       <c r="U33" s="39">
         <f>SUM($I11:$I22)</f>
-        <v>5.1928112714018964</v>
+        <v>0.11999999999999998</v>
       </c>
       <c r="V33" s="39">
         <f>SUM($I11:$I23)</f>
-        <v>8.4119686371282683</v>
+        <v>0.12999999999999998</v>
       </c>
       <c r="W33" s="39">
         <f>SUM($I11:$I24)</f>
-        <v>13.62056525487354</v>
+        <v>0.13999999999999999</v>
       </c>
       <c r="X33" s="39">
         <f>SUM($I11:$I25)</f>
-        <v>22.048074582385389</v>
+        <v>0.15</v>
       </c>
       <c r="Y33" s="39">
         <f>SUM($I11:$I26)</f>
-        <v>35.683784674299567</v>
+        <v>0.16</v>
       </c>
       <c r="Z33" s="39">
         <f>SUM($I11:$I27)</f>
-        <v>57.746363603016704</v>
+        <v>0.17</v>
       </c>
       <c r="AA33" s="39">
         <f>SUM($I11:$I28)</f>
-        <v>93.443616309681033</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="AB33" s="39">
         <f>SUM($I11:$I29)</f>
-        <v>151.20177118906392</v>
+        <v>0.19000000000000003</v>
       </c>
       <c r="AC33" s="39">
         <f>SUM($I11:$I30)</f>
-        <v>244.65446578390544</v>
+        <v>0.20000000000000004</v>
       </c>
     </row>
     <row r="34" spans="2:30" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="24">
+      <c r="B34" s="24" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>L22</v>
       </c>
       <c r="C34" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D34" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E34" s="9">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>720</v>
       </c>
     </row>
     <row r="35" spans="2:30" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5254,95 +5251,95 @@
       </c>
       <c r="C35" s="25">
         <f>SUM(C13:C34)</f>
-        <v>22.048074582385389</v>
+        <v>0.22000000000000006</v>
       </c>
       <c r="D35" s="25">
         <f>SUM(D13:D34)</f>
-        <v>22305.56302526149</v>
+        <v>16125</v>
       </c>
       <c r="E35" s="26">
         <f>MAX(E13:E34)</f>
-        <v>88.13</v>
+        <v>748.5</v>
       </c>
       <c r="J35" s="5" t="str">
         <f t="shared" ref="J35:AB35" si="45">"iff(trade_no == "&amp;J10&amp;") return "&amp;ROUND(J32, 2)&amp;" ;"</f>
-        <v>iff(trade_no == 1) return 16.48 ;</v>
+        <v>iff(trade_no == 1) return 2.62 ;</v>
       </c>
       <c r="K35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 2) return 36.85 ;</v>
+        <v>iff(trade_no == 2) return 4.24 ;</v>
       </c>
       <c r="L35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 3) return 63.51 ;</v>
+        <v>iff(trade_no == 3) return 4.85 ;</v>
       </c>
       <c r="M35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 4) return 100.36 ;</v>
+        <v>iff(trade_no == 4) return 4.47 ;</v>
       </c>
       <c r="N35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 5) return 153.69 ;</v>
+        <v>iff(trade_no == 5) return 3.09 ;</v>
       </c>
       <c r="O35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 6) return 233.67 ;</v>
+        <v>iff(trade_no == 6) return 0.71 ;</v>
       </c>
       <c r="P35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 7) return 356.79 ;</v>
+        <v>iff(trade_no == 7) return -2.67 ;</v>
       </c>
       <c r="Q35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 8) return 549.69 ;</v>
+        <v>iff(trade_no == 8) return -7.06 ;</v>
       </c>
       <c r="R35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 9) return 855.52 ;</v>
+        <v>iff(trade_no == 9) return -12.44 ;</v>
       </c>
       <c r="S35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 10) return 1344.06 ;</v>
+        <v>iff(trade_no == 10) return -18.82 ;</v>
       </c>
       <c r="T35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 11) return 2128.23 ;</v>
+        <v>iff(trade_no == 11) return -26.2 ;</v>
       </c>
       <c r="U35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 12) return 3390.71 ;</v>
+        <v>iff(trade_no == 12) return -34.58 ;</v>
       </c>
       <c r="V35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 13) return 5427.1 ;</v>
+        <v>iff(trade_no == 13) return -43.97 ;</v>
       </c>
       <c r="W35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 14) return 8715.7 ;</v>
+        <v>iff(trade_no == 14) return -54.35 ;</v>
       </c>
       <c r="X35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 15) return 14030.35 ;</v>
+        <v>iff(trade_no == 15) return -65.73 ;</v>
       </c>
       <c r="Y35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 16) return 22623.16 ;</v>
+        <v>iff(trade_no == 16) return -78.11 ;</v>
       </c>
       <c r="Z35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 17) return 36520.03 ;</v>
+        <v>iff(trade_no == 17) return -91.49 ;</v>
       </c>
       <c r="AA35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 18) return 58998.87 ;</v>
+        <v>iff(trade_no == 18) return -105.88 ;</v>
       </c>
       <c r="AB35" s="5" t="str">
         <f t="shared" si="45"/>
-        <v>iff(trade_no == 19) return 95363.35 ;</v>
+        <v>iff(trade_no == 19) return -121.26 ;</v>
       </c>
       <c r="AC35" s="5" t="str">
         <f>"iff(trade_no == "&amp;AC10&amp;") return "&amp;ROUND(AC32, 2)&amp;" ;"</f>
-        <v>iff(trade_no == 20) return 154194.77 ;</v>
+        <v>iff(trade_no == 20) return -137.64 ;</v>
       </c>
     </row>
     <row r="36" spans="2:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -7076,19 +7073,19 @@
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="125" t="s">
+      <c r="K2" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125" t="s">
+      <c r="L2" s="127"/>
+      <c r="M2" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125" t="s">
+      <c r="N2" s="127"/>
+      <c r="O2" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
       <c r="R2" s="40"/>
       <c r="S2" s="40"/>
       <c r="T2" s="40"/>
@@ -7111,22 +7108,22 @@
       <c r="H3" s="27"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
-      <c r="K3" s="122">
+      <c r="K3" s="124">
         <f>SUM(GBPJPY!C13:C37)</f>
         <v>12.759243790619122</v>
       </c>
-      <c r="L3" s="122"/>
-      <c r="M3" s="123">
+      <c r="L3" s="124"/>
+      <c r="M3" s="125">
         <f>K3*91</f>
         <v>1161.09118494634</v>
       </c>
-      <c r="N3" s="123"/>
-      <c r="O3" s="124">
+      <c r="N3" s="125"/>
+      <c r="O3" s="126">
         <f>M3+GBPJPY!D35</f>
         <v>1339.9022866437358</v>
       </c>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
       <c r="R3" s="107">
         <f>O3*2</f>
         <v>2679.8045732874716</v>
@@ -11127,11 +11124,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
       <c r="E1" s="13" t="s">
         <v>50</v>
       </c>
@@ -11146,11 +11143,11 @@
       </c>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
       <c r="E2" s="63"/>
       <c r="F2" s="14" t="s">
         <v>84</v>
@@ -11200,9 +11197,9 @@
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="127"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
       <c r="E3" s="63"/>
       <c r="F3" s="63" t="s">
         <v>83</v>
@@ -11266,11 +11263,11 @@
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="129"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="15" t="s">
         <v>13</v>
       </c>

--- a/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HomePC\Documents\GitHub\BiGek\bsc_scan_binance\src\main\resources\MQL5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5AA8A6-8234-463D-8EC2-0876E59D2B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="240" windowWidth="31320" windowHeight="14240"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Input L30" sheetId="2" r:id="rId1"/>
@@ -17,8 +18,9 @@
     <sheet name="Thay đổi hệ số quãng" sheetId="10" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
     <sheet name="Sheet1 (2)" sheetId="9" r:id="rId5"/>
+    <sheet name="5%" sheetId="13" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
   <si>
     <t>Quãng giá L1-L2</t>
   </si>
@@ -231,7 +233,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -309,7 +311,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -372,42 +374,47 @@
     <t>Volume</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>5%/Ngày</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0;\-0;;\ @"/>
-    <numFmt numFmtId="166" formatCode="0.00;\-0.00;;\ @"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000_);\(#,##0.000\)"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0_ "/>
-    <numFmt numFmtId="170" formatCode="0.00000_ "/>
-    <numFmt numFmtId="171" formatCode="#,##0.00000_);\(#,##0.00000\)"/>
-    <numFmt numFmtId="172" formatCode="0.00_);[Red]\(0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="11">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0;\-0;;\ @"/>
+    <numFmt numFmtId="179" formatCode="0.00;\-0.00;;\ @"/>
+    <numFmt numFmtId="180" formatCode="#,##0.000_);\(#,##0.000\)"/>
+    <numFmt numFmtId="181" formatCode="#,##0.0"/>
+    <numFmt numFmtId="182" formatCode="#,##0_ "/>
+    <numFmt numFmtId="183" formatCode="0.00000_ "/>
+    <numFmt numFmtId="184" formatCode="#,##0.00000_);\(#,##0.00000\)"/>
+    <numFmt numFmtId="185" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -421,27 +428,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -571,8 +578,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,6 +703,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,25 +1233,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1252,22 +1274,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1304,7 +1326,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1323,13 +1345,13 @@
     <xf numFmtId="3" fontId="10" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="16" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="17" fillId="16" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="17" fillId="16" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1344,7 +1366,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1491,42 +1513,42 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="185" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="185" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="185" fontId="19" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="25" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1541,7 +1563,7 @@
     <xf numFmtId="2" fontId="25" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="21" fillId="7" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1568,15 +1590,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="28" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
-    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Input" xfId="6" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="40">
     <dxf>
@@ -1976,8 +2003,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>257423</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>440303</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>159917</xdr:rowOff>
     </xdr:to>
@@ -2020,8 +2047,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>311723</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>509843</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>49640</xdr:rowOff>
     </xdr:to>
@@ -2196,8 +2223,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>330770</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>513650</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>218500</xdr:rowOff>
     </xdr:to>
@@ -2240,8 +2267,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>10472</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>193352</xdr:colOff>
       <xdr:row>157</xdr:row>
       <xdr:rowOff>55418</xdr:rowOff>
     </xdr:to>
@@ -2284,8 +2311,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>330770</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>528890</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>49640</xdr:rowOff>
     </xdr:to>
@@ -2373,7 +2400,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>475276</xdr:colOff>
+      <xdr:colOff>261916</xdr:colOff>
       <xdr:row>211</xdr:row>
       <xdr:rowOff>165131</xdr:rowOff>
     </xdr:to>
@@ -2417,7 +2444,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>513371</xdr:colOff>
+      <xdr:colOff>56171</xdr:colOff>
       <xdr:row>211</xdr:row>
       <xdr:rowOff>31798</xdr:rowOff>
     </xdr:to>
@@ -2461,7 +2488,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>532419</xdr:colOff>
+      <xdr:colOff>242859</xdr:colOff>
       <xdr:row>211</xdr:row>
       <xdr:rowOff>88941</xdr:rowOff>
     </xdr:to>
@@ -2942,42 +2969,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="10" customWidth="1"/>
-    <col min="4" max="5" width="14.7265625" style="9" customWidth="1"/>
-    <col min="6" max="7" width="9.08984375" style="3"/>
+    <col min="2" max="2" width="14.69921875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" style="10" customWidth="1"/>
+    <col min="4" max="5" width="14.69921875" style="9" customWidth="1"/>
+    <col min="6" max="7" width="9.09765625" style="3"/>
     <col min="8" max="8" width="19" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="10.6328125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="8.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="12.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.08984375" style="3"/>
+    <col min="9" max="9" width="12.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="10.59765625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="2:29" ht="25">
+    <row r="2" spans="2:29" ht="25.2" x14ac:dyDescent="0.4">
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
@@ -3010,7 +3037,7 @@
       <c r="X2" s="35"/>
       <c r="Y2" s="35"/>
     </row>
-    <row r="3" spans="2:29" ht="16.5">
+    <row r="3" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B3" s="37" t="s">
         <v>1</v>
       </c>
@@ -3053,7 +3080,7 @@
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="2:29" ht="19">
+    <row r="4" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="B4" s="37" t="s">
         <v>2</v>
       </c>
@@ -3088,7 +3115,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="2:29" ht="19">
+    <row r="5" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="B5" s="37" t="s">
         <v>3</v>
       </c>
@@ -3123,7 +3150,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="2:29" ht="19">
+    <row r="6" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="B6" s="37" t="s">
         <v>4</v>
       </c>
@@ -3144,7 +3171,7 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="2:29" ht="16.5">
+    <row r="7" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="37" t="s">
         <v>5</v>
       </c>
@@ -3236,7 +3263,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="8" spans="2:29" ht="16.5">
+    <row r="8" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="37" t="s">
         <v>72</v>
       </c>
@@ -3327,7 +3354,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="2:29" ht="16.5">
+    <row r="9" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="37" t="s">
         <v>6</v>
       </c>
@@ -3403,7 +3430,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="2:29" ht="19">
+    <row r="10" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="B10" s="37" t="s">
         <v>73</v>
       </c>
@@ -3477,7 +3504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:29" ht="17" thickBot="1">
+    <row r="11" spans="2:29" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
@@ -3570,7 +3597,7 @@
         <v>-85</v>
       </c>
     </row>
-    <row r="12" spans="2:29" ht="17.5" thickTop="1" thickBot="1">
+    <row r="12" spans="2:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
         <v>7</v>
       </c>
@@ -3668,7 +3695,7 @@
         <v>-129.44</v>
       </c>
     </row>
-    <row r="13" spans="2:29" ht="17" thickTop="1">
+    <row r="13" spans="2:29" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="22" t="str">
         <f>IF($E$10&gt;0,"L1",0)</f>
         <v>L1</v>
@@ -3767,7 +3794,7 @@
         <v>-196.34430000000003</v>
       </c>
     </row>
-    <row r="14" spans="2:29" ht="16.5">
+    <row r="14" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B14" s="22" t="str">
         <f t="shared" ref="B14:B34" si="10">IF(B13=0,0,IF(VALUE(MID(B13,2,2))&gt;=$E$10,0,"L"&amp;VALUE(MID(B13,2,2))+1))</f>
         <v>L2</v>
@@ -3863,7 +3890,7 @@
         <v>-296.50607224000004</v>
       </c>
     </row>
-    <row r="15" spans="2:29" ht="16.5">
+    <row r="15" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="str">
         <f t="shared" si="10"/>
         <v>L3</v>
@@ -3956,7 +3983,7 @@
         <v>-445.47919453544012</v>
       </c>
     </row>
-    <row r="16" spans="2:29" ht="16.5">
+    <row r="16" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B16" s="22" t="str">
         <f t="shared" si="10"/>
         <v>L4</v>
@@ -4046,7 +4073,7 @@
         <v>-665.34031085385425</v>
       </c>
     </row>
-    <row r="17" spans="2:29" ht="16.5">
+    <row r="17" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="str">
         <f t="shared" si="10"/>
         <v>L5</v>
@@ -4133,7 +4160,7 @@
         <v>-986.81057104807485</v>
       </c>
     </row>
-    <row r="18" spans="2:29" ht="16.5">
+    <row r="18" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B18" s="22" t="str">
         <f t="shared" si="10"/>
         <v>L6</v>
@@ -4217,7 +4244,7 @@
         <v>-1451.5086399598049</v>
       </c>
     </row>
-    <row r="19" spans="2:29" ht="16.5">
+    <row r="19" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="22" t="str">
         <f t="shared" si="10"/>
         <v>L7</v>
@@ -4298,7 +4325,7 @@
         <v>-2113.6868815094676</v>
       </c>
     </row>
-    <row r="20" spans="2:29" ht="16.5">
+    <row r="20" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B20" s="22" t="str">
         <f t="shared" si="10"/>
         <v>L8</v>
@@ -4376,7 +4403,7 @@
         <v>-3039.9514438065062</v>
       </c>
     </row>
-    <row r="21" spans="2:29" ht="16.5">
+    <row r="21" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B21" s="22" t="str">
         <f t="shared" si="10"/>
         <v>L9</v>
@@ -4451,7 +4478,7 @@
         <v>-4303.8112565690608</v>
       </c>
     </row>
-    <row r="22" spans="2:29" ht="16.5">
+    <row r="22" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B22" s="22" t="str">
         <f t="shared" si="10"/>
         <v>L10</v>
@@ -4523,7 +4550,7 @@
         <v>-5968.7713826817781</v>
       </c>
     </row>
-    <row r="23" spans="2:29" ht="16.5">
+    <row r="23" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B23" s="22" t="str">
         <f t="shared" si="10"/>
         <v>L11</v>
@@ -4592,7 +4619,7 @@
         <v>-8047.8934143159322</v>
       </c>
     </row>
-    <row r="24" spans="2:29" ht="16.5">
+    <row r="24" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B24" s="22" t="str">
         <f t="shared" si="10"/>
         <v>L12</v>
@@ -4658,7 +4685,7 @@
         <v>-10417.193235490544</v>
       </c>
     </row>
-    <row r="25" spans="2:29" ht="16.5">
+    <row r="25" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B25" s="22" t="str">
         <f t="shared" si="10"/>
         <v>L13</v>
@@ -4721,7 +4748,7 @@
         <v>-12641.263991267777</v>
       </c>
     </row>
-    <row r="26" spans="2:29" ht="16.5">
+    <row r="26" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B26" s="22" t="str">
         <f t="shared" si="10"/>
         <v>L14</v>
@@ -4781,7 +4808,7 @@
         <v>-13635.710091914174</v>
       </c>
     </row>
-    <row r="27" spans="2:29" ht="16.5">
+    <row r="27" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B27" s="22" t="str">
         <f t="shared" si="10"/>
         <v>L15</v>
@@ -4838,7 +4865,7 @@
         <v>-11031.28946435857</v>
       </c>
     </row>
-    <row r="28" spans="2:29" ht="16.5">
+    <row r="28" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B28" s="22" t="str">
         <f t="shared" si="10"/>
         <v>L16</v>
@@ -4892,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:29" ht="16.5">
+    <row r="29" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B29" s="22" t="str">
         <f t="shared" si="10"/>
         <v>L17</v>
@@ -4943,7 +4970,7 @@
         <v>28879.077439691442</v>
       </c>
     </row>
-    <row r="30" spans="2:29" ht="16.5">
+    <row r="30" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B30" s="22" t="str">
         <f t="shared" si="10"/>
         <v>L18</v>
@@ -4991,7 +5018,7 @@
         <v>93452.694594841523</v>
       </c>
     </row>
-    <row r="31" spans="2:29" ht="16.5">
+    <row r="31" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B31" s="22" t="str">
         <f>IF(B30=0,0,IF(VALUE(MID(B30,2,2))&gt;=$E$10,0,"L"&amp;VALUE(MID(B30,2,2))+1))</f>
         <v>L19</v>
@@ -5096,7 +5123,7 @@
         <v>-75456.000250550991</v>
       </c>
     </row>
-    <row r="32" spans="2:29" ht="16.5">
+    <row r="32" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B32" s="22" t="str">
         <f t="shared" si="10"/>
         <v>L20</v>
@@ -5197,7 +5224,7 @@
         <v>46875.771783981974</v>
       </c>
     </row>
-    <row r="33" spans="2:30" ht="16.5">
+    <row r="33" spans="2:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B33" s="22">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5299,7 +5326,7 @@
         <v>244.65446578390544</v>
       </c>
     </row>
-    <row r="34" spans="2:30" ht="17" thickBot="1">
+    <row r="34" spans="2:30" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="22">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5317,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:30" ht="17.5" thickTop="1" thickBot="1">
+    <row r="35" spans="2:30" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="49" t="s">
         <v>11</v>
       </c>
@@ -5414,8 +5441,8 @@
         <v>iff(trade_no == 20) return 46875.77 ;</v>
       </c>
     </row>
-    <row r="36" spans="2:30" ht="13" thickTop="1"/>
-    <row r="37" spans="2:30">
+    <row r="36" spans="2:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -5442,7 +5469,7 @@
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
     </row>
-    <row r="38" spans="2:30">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -5469,7 +5496,7 @@
       <c r="AC38" s="9"/>
       <c r="AD38" s="9"/>
     </row>
-    <row r="39" spans="2:30">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -5496,7 +5523,7 @@
       <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
     </row>
-    <row r="40" spans="2:30">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -5523,7 +5550,7 @@
       <c r="AC40" s="9"/>
       <c r="AD40" s="9"/>
     </row>
-    <row r="41" spans="2:30">
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -5550,7 +5577,7 @@
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
     </row>
-    <row r="42" spans="2:30">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -5577,7 +5604,7 @@
       <c r="AC42" s="9"/>
       <c r="AD42" s="9"/>
     </row>
-    <row r="43" spans="2:30">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -5604,7 +5631,7 @@
       <c r="AC43" s="9"/>
       <c r="AD43" s="9"/>
     </row>
-    <row r="44" spans="2:30">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -5631,7 +5658,7 @@
       <c r="AC44" s="9"/>
       <c r="AD44" s="9"/>
     </row>
-    <row r="45" spans="2:30">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -5658,7 +5685,7 @@
       <c r="AC45" s="9"/>
       <c r="AD45" s="9"/>
     </row>
-    <row r="46" spans="2:30">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -5685,7 +5712,7 @@
       <c r="AC46" s="9"/>
       <c r="AD46" s="9"/>
     </row>
-    <row r="47" spans="2:30">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -5712,7 +5739,7 @@
       <c r="AC47" s="9"/>
       <c r="AD47" s="9"/>
     </row>
-    <row r="48" spans="2:30">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -5739,7 +5766,7 @@
       <c r="AC48" s="9"/>
       <c r="AD48" s="9"/>
     </row>
-    <row r="49" spans="6:30">
+    <row r="49" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -5766,7 +5793,7 @@
       <c r="AC49" s="9"/>
       <c r="AD49" s="9"/>
     </row>
-    <row r="50" spans="6:30">
+    <row r="50" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -5793,7 +5820,7 @@
       <c r="AC50" s="9"/>
       <c r="AD50" s="9"/>
     </row>
-    <row r="51" spans="6:30">
+    <row r="51" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -5820,7 +5847,7 @@
       <c r="AC51" s="9"/>
       <c r="AD51" s="9"/>
     </row>
-    <row r="52" spans="6:30">
+    <row r="52" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -5847,7 +5874,7 @@
       <c r="AC52" s="9"/>
       <c r="AD52" s="9"/>
     </row>
-    <row r="53" spans="6:30">
+    <row r="53" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -5874,7 +5901,7 @@
       <c r="AC53" s="9"/>
       <c r="AD53" s="9"/>
     </row>
-    <row r="54" spans="6:30">
+    <row r="54" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -5901,7 +5928,7 @@
       <c r="AC54" s="9"/>
       <c r="AD54" s="9"/>
     </row>
-    <row r="55" spans="6:30">
+    <row r="55" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
@@ -5928,7 +5955,7 @@
       <c r="AC55" s="9"/>
       <c r="AD55" s="9"/>
     </row>
-    <row r="56" spans="6:30">
+    <row r="56" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
@@ -5955,7 +5982,7 @@
       <c r="AC56" s="9"/>
       <c r="AD56" s="9"/>
     </row>
-    <row r="57" spans="6:30">
+    <row r="57" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
@@ -5982,7 +6009,7 @@
       <c r="AC57" s="9"/>
       <c r="AD57" s="9"/>
     </row>
-    <row r="58" spans="6:30">
+    <row r="58" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
@@ -6009,7 +6036,7 @@
       <c r="AC58" s="9"/>
       <c r="AD58" s="9"/>
     </row>
-    <row r="59" spans="6:30">
+    <row r="59" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
@@ -6036,7 +6063,7 @@
       <c r="AC59" s="9"/>
       <c r="AD59" s="9"/>
     </row>
-    <row r="60" spans="6:30">
+    <row r="60" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -6063,7 +6090,7 @@
       <c r="AC60" s="9"/>
       <c r="AD60" s="9"/>
     </row>
-    <row r="61" spans="6:30">
+    <row r="61" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
@@ -6090,7 +6117,7 @@
       <c r="AC61" s="9"/>
       <c r="AD61" s="9"/>
     </row>
-    <row r="62" spans="6:30">
+    <row r="62" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
@@ -6117,7 +6144,7 @@
       <c r="AC62" s="9"/>
       <c r="AD62" s="9"/>
     </row>
-    <row r="63" spans="6:30">
+    <row r="63" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
@@ -6144,7 +6171,7 @@
       <c r="AC63" s="9"/>
       <c r="AD63" s="9"/>
     </row>
-    <row r="64" spans="6:30">
+    <row r="64" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
@@ -6171,7 +6198,7 @@
       <c r="AC64" s="9"/>
       <c r="AD64" s="9"/>
     </row>
-    <row r="65" spans="6:30">
+    <row r="65" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
@@ -6198,7 +6225,7 @@
       <c r="AC65" s="9"/>
       <c r="AD65" s="9"/>
     </row>
-    <row r="66" spans="6:30">
+    <row r="66" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
@@ -6221,7 +6248,7 @@
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
     </row>
-    <row r="67" spans="6:30">
+    <row r="67" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
@@ -6244,7 +6271,7 @@
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
     </row>
-    <row r="68" spans="6:30">
+    <row r="68" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -6267,7 +6294,7 @@
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
     </row>
-    <row r="69" spans="6:30">
+    <row r="69" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
@@ -6290,7 +6317,7 @@
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
     </row>
-    <row r="70" spans="6:30">
+    <row r="70" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
@@ -6313,7 +6340,7 @@
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
     </row>
-    <row r="71" spans="6:30">
+    <row r="71" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
@@ -6336,7 +6363,7 @@
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
     </row>
-    <row r="72" spans="6:30">
+    <row r="72" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
@@ -6359,7 +6386,7 @@
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
     </row>
-    <row r="73" spans="6:30">
+    <row r="73" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
@@ -6382,7 +6409,7 @@
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
     </row>
-    <row r="74" spans="6:30">
+    <row r="74" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
@@ -6405,7 +6432,7 @@
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
     </row>
-    <row r="75" spans="6:30">
+    <row r="75" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
@@ -6428,7 +6455,7 @@
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
     </row>
-    <row r="76" spans="6:30">
+    <row r="76" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
@@ -6451,7 +6478,7 @@
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
     </row>
-    <row r="77" spans="6:30">
+    <row r="77" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
@@ -6474,7 +6501,7 @@
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
     </row>
-    <row r="78" spans="6:30">
+    <row r="78" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
@@ -6497,7 +6524,7 @@
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
     </row>
-    <row r="79" spans="6:30">
+    <row r="79" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
@@ -6520,7 +6547,7 @@
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
     </row>
-    <row r="80" spans="6:30">
+    <row r="80" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
@@ -6543,7 +6570,7 @@
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
     </row>
-    <row r="81" spans="6:26">
+    <row r="81" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
@@ -6566,7 +6593,7 @@
       <c r="Y81" s="9"/>
       <c r="Z81" s="9"/>
     </row>
-    <row r="82" spans="6:26">
+    <row r="82" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
@@ -6589,7 +6616,7 @@
       <c r="Y82" s="9"/>
       <c r="Z82" s="9"/>
     </row>
-    <row r="83" spans="6:26">
+    <row r="83" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
@@ -6612,7 +6639,7 @@
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
     </row>
-    <row r="84" spans="6:26">
+    <row r="84" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
@@ -6635,7 +6662,7 @@
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
     </row>
-    <row r="85" spans="6:26">
+    <row r="85" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
@@ -6658,7 +6685,7 @@
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
     </row>
-    <row r="86" spans="6:26">
+    <row r="86" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
@@ -6681,7 +6708,7 @@
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
     </row>
-    <row r="87" spans="6:26">
+    <row r="87" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
@@ -6704,7 +6731,7 @@
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
     </row>
-    <row r="88" spans="6:26">
+    <row r="88" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
@@ -6727,7 +6754,7 @@
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
     </row>
-    <row r="89" spans="6:26">
+    <row r="89" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
@@ -6750,7 +6777,7 @@
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
     </row>
-    <row r="90" spans="6:26">
+    <row r="90" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
@@ -6773,7 +6800,7 @@
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
     </row>
-    <row r="91" spans="6:26">
+    <row r="91" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
@@ -6796,7 +6823,7 @@
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
     </row>
-    <row r="92" spans="6:26">
+    <row r="92" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
@@ -6819,7 +6846,7 @@
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
     </row>
-    <row r="93" spans="6:26">
+    <row r="93" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
@@ -6842,7 +6869,7 @@
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
     </row>
-    <row r="94" spans="6:26">
+    <row r="94" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
@@ -6865,7 +6892,7 @@
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
     </row>
-    <row r="95" spans="6:26">
+    <row r="95" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
@@ -6888,7 +6915,7 @@
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
     </row>
-    <row r="96" spans="6:26">
+    <row r="96" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -6911,7 +6938,7 @@
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
     </row>
-    <row r="97" spans="6:26">
+    <row r="97" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
@@ -6934,7 +6961,7 @@
       <c r="Y97" s="9"/>
       <c r="Z97" s="9"/>
     </row>
-    <row r="98" spans="6:26">
+    <row r="98" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
@@ -6957,7 +6984,7 @@
       <c r="Y98" s="9"/>
       <c r="Z98" s="9"/>
     </row>
-    <row r="99" spans="6:26">
+    <row r="99" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
@@ -7099,42 +7126,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AD99"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="10" customWidth="1"/>
-    <col min="4" max="5" width="14.7265625" style="9" customWidth="1"/>
-    <col min="6" max="7" width="9.08984375" style="3"/>
+    <col min="2" max="2" width="14.69921875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" style="10" customWidth="1"/>
+    <col min="4" max="5" width="14.69921875" style="9" customWidth="1"/>
+    <col min="6" max="7" width="9.09765625" style="3"/>
     <col min="8" max="8" width="19" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="10.6328125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="8.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="12.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.08984375" style="3"/>
+    <col min="9" max="9" width="12.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="10.59765625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="2:29" ht="25">
+    <row r="2" spans="2:29" ht="25.2" x14ac:dyDescent="0.4">
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
@@ -7167,7 +7194,7 @@
       <c r="X2" s="35"/>
       <c r="Y2" s="35"/>
     </row>
-    <row r="3" spans="2:29" ht="16.5">
+    <row r="3" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B3" s="37" t="s">
         <v>1</v>
       </c>
@@ -7208,7 +7235,7 @@
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="2:29" ht="19">
+    <row r="4" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="B4" s="37" t="s">
         <v>2</v>
       </c>
@@ -7244,7 +7271,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="2:29" ht="19">
+    <row r="5" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="B5" s="37" t="s">
         <v>3</v>
       </c>
@@ -7279,7 +7306,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="2:29" ht="19">
+    <row r="6" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="B6" s="37" t="s">
         <v>4</v>
       </c>
@@ -7301,7 +7328,7 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="2:29" ht="16.5">
+    <row r="7" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="37" t="s">
         <v>5</v>
       </c>
@@ -7393,7 +7420,7 @@
         <v>2197.9099999999976</v>
       </c>
     </row>
-    <row r="8" spans="2:29" ht="16.5">
+    <row r="8" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="37" t="s">
         <v>72</v>
       </c>
@@ -7484,7 +7511,7 @@
         <v>2.0900000000024193</v>
       </c>
     </row>
-    <row r="9" spans="2:29" ht="16.5">
+    <row r="9" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="37" t="s">
         <v>6</v>
       </c>
@@ -7560,7 +7587,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="2:29" ht="19">
+    <row r="10" spans="2:29" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="B10" s="37" t="s">
         <v>73</v>
       </c>
@@ -7634,7 +7661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:29" ht="17" thickBot="1">
+    <row r="11" spans="2:29" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
@@ -7727,7 +7754,7 @@
         <v>-1.7599999999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:29" ht="17.5" thickTop="1" thickBot="1">
+    <row r="12" spans="2:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
         <v>7</v>
       </c>
@@ -7825,7 +7852,7 @@
         <v>-2.2802999999999995</v>
       </c>
     </row>
-    <row r="13" spans="2:29" ht="17" thickTop="1">
+    <row r="13" spans="2:29" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="22" t="str">
         <f>IF($E$10&gt;0,"L1",0)</f>
         <v>L1</v>
@@ -7924,7 +7951,7 @@
         <v>-2.9412829599999997</v>
       </c>
     </row>
-    <row r="14" spans="2:29" ht="16.5">
+    <row r="14" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B14" s="22" t="str">
         <f t="shared" ref="B14:B34" si="6">IF(B13=0,0,IF(VALUE(MID(B13,2,2))&gt;=$E$10,0,"L"&amp;VALUE(MID(B13,2,2))+1))</f>
         <v>L2</v>
@@ -8020,7 +8047,7 @@
         <v>-3.7745064042399989</v>
       </c>
     </row>
-    <row r="15" spans="2:29" ht="16.5">
+    <row r="15" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="str">
         <f t="shared" si="6"/>
         <v>L3</v>
@@ -8113,7 +8140,7 @@
         <v>-4.815108785224318</v>
       </c>
     </row>
-    <row r="16" spans="2:29" ht="16.5">
+    <row r="16" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B16" s="22" t="str">
         <f t="shared" si="6"/>
         <v>L4</v>
@@ -8203,7 +8230,7 @@
         <v>-6.0999403127483403</v>
       </c>
     </row>
-    <row r="17" spans="2:29" ht="16.5">
+    <row r="17" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="str">
         <f t="shared" si="6"/>
         <v>L5</v>
@@ -8290,7 +8317,7 @@
         <v>-7.6637431929256401</v>
       </c>
     </row>
-    <row r="18" spans="2:29" ht="16.5">
+    <row r="18" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B18" s="22" t="str">
         <f t="shared" si="6"/>
         <v>L6</v>
@@ -8374,7 +8401,7 @@
         <v>-9.5321637833609127</v>
       </c>
     </row>
-    <row r="19" spans="2:29" ht="16.5">
+    <row r="19" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="22" t="str">
         <f t="shared" si="6"/>
         <v>L7</v>
@@ -8455,7 +8482,7 @@
         <v>-11.709733643204247</v>
       </c>
     </row>
-    <row r="20" spans="2:29" ht="16.5">
+    <row r="20" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B20" s="22" t="str">
         <f t="shared" si="6"/>
         <v>L8</v>
@@ -8533,7 +8560,7 @@
         <v>-14.159995408044736</v>
       </c>
     </row>
-    <row r="21" spans="2:29" ht="16.5">
+    <row r="21" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B21" s="22" t="str">
         <f t="shared" si="6"/>
         <v>L9</v>
@@ -8608,7 +8635,7 @@
         <v>-16.773525989072418</v>
       </c>
     </row>
-    <row r="22" spans="2:29" ht="16.5">
+    <row r="22" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B22" s="22" t="str">
         <f t="shared" si="6"/>
         <v>L10</v>
@@ -8680,7 +8707,7 @@
         <v>-19.317510764081742</v>
       </c>
     </row>
-    <row r="23" spans="2:29" ht="16.5">
+    <row r="23" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B23" s="22" t="str">
         <f t="shared" si="6"/>
         <v>L11</v>
@@ -8749,7 +8776,7 @@
         <v>-21.357439900768767</v>
       </c>
     </row>
-    <row r="24" spans="2:29" ht="16.5">
+    <row r="24" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B24" s="22" t="str">
         <f t="shared" si="6"/>
         <v>L12</v>
@@ -8815,7 +8842,7 @@
         <v>-22.136986457146829</v>
       </c>
     </row>
-    <row r="25" spans="2:29" ht="16.5">
+    <row r="25" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B25" s="22" t="str">
         <f t="shared" si="6"/>
         <v>L13</v>
@@ -8878,7 +8905,7 @@
         <v>-20.395543522517944</v>
       </c>
     </row>
-    <row r="26" spans="2:29" ht="16.5">
+    <row r="26" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B26" s="22" t="str">
         <f t="shared" si="6"/>
         <v>L14</v>
@@ -8938,7 +8965,7 @@
         <v>-14.093320574059893</v>
       </c>
     </row>
-    <row r="27" spans="2:29" ht="16.5">
+    <row r="27" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B27" s="22" t="str">
         <f t="shared" si="6"/>
         <v>L15</v>
@@ -8995,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:29" ht="16.5">
+    <row r="28" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B28" s="22" t="str">
         <f t="shared" si="6"/>
         <v>L16</v>
@@ -9049,7 +9076,7 @@
         <v>26.917171204090771</v>
       </c>
     </row>
-    <row r="29" spans="2:29" ht="16.5">
+    <row r="29" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B29" s="22" t="str">
         <f t="shared" si="6"/>
         <v>L17</v>
@@ -9100,7 +9127,7 @@
         <v>74.399061208106872</v>
       </c>
     </row>
-    <row r="30" spans="2:29" ht="16.5">
+    <row r="30" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B30" s="22">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9148,7 +9175,7 @@
         <v>154.22925388440555</v>
       </c>
     </row>
-    <row r="31" spans="2:29" ht="16.5">
+    <row r="31" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B31" s="22">
         <f>IF(B30=0,0,IF(VALUE(MID(B30,2,2))&gt;=$E$10,0,"L"&amp;VALUE(MID(B30,2,2))+1))</f>
         <v>0</v>
@@ -9253,7 +9280,7 @@
         <v>-178.81110169739583</v>
       </c>
     </row>
-    <row r="32" spans="2:29" ht="16.5">
+    <row r="32" spans="2:29" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B32" s="22">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9354,7 +9381,7 @@
         <v>76.734384599207374</v>
       </c>
     </row>
-    <row r="33" spans="2:30" ht="16.5">
+    <row r="33" spans="2:30" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B33" s="22">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9456,7 +9483,7 @@
         <v>16.88202672285011</v>
       </c>
     </row>
-    <row r="34" spans="2:30" ht="17" thickBot="1">
+    <row r="34" spans="2:30" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="22">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9474,7 +9501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:30" ht="17.5" thickTop="1" thickBot="1">
+    <row r="35" spans="2:30" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="49" t="s">
         <v>11</v>
       </c>
@@ -9491,8 +9518,8 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="36" spans="2:30" ht="13" thickTop="1"/>
-    <row r="37" spans="2:30">
+    <row r="36" spans="2:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -9519,7 +9546,7 @@
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
     </row>
-    <row r="38" spans="2:30">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -9546,7 +9573,7 @@
       <c r="AC38" s="9"/>
       <c r="AD38" s="9"/>
     </row>
-    <row r="39" spans="2:30">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -9573,7 +9600,7 @@
       <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
     </row>
-    <row r="40" spans="2:30">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -9600,7 +9627,7 @@
       <c r="AC40" s="9"/>
       <c r="AD40" s="9"/>
     </row>
-    <row r="41" spans="2:30">
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -9627,7 +9654,7 @@
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
     </row>
-    <row r="42" spans="2:30">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -9654,7 +9681,7 @@
       <c r="AC42" s="9"/>
       <c r="AD42" s="9"/>
     </row>
-    <row r="43" spans="2:30">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -9681,7 +9708,7 @@
       <c r="AC43" s="9"/>
       <c r="AD43" s="9"/>
     </row>
-    <row r="44" spans="2:30">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -9708,7 +9735,7 @@
       <c r="AC44" s="9"/>
       <c r="AD44" s="9"/>
     </row>
-    <row r="45" spans="2:30">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -9735,7 +9762,7 @@
       <c r="AC45" s="9"/>
       <c r="AD45" s="9"/>
     </row>
-    <row r="46" spans="2:30">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -9762,7 +9789,7 @@
       <c r="AC46" s="9"/>
       <c r="AD46" s="9"/>
     </row>
-    <row r="47" spans="2:30">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -9789,7 +9816,7 @@
       <c r="AC47" s="9"/>
       <c r="AD47" s="9"/>
     </row>
-    <row r="48" spans="2:30">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -9816,7 +9843,7 @@
       <c r="AC48" s="9"/>
       <c r="AD48" s="9"/>
     </row>
-    <row r="49" spans="6:30">
+    <row r="49" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -9843,7 +9870,7 @@
       <c r="AC49" s="9"/>
       <c r="AD49" s="9"/>
     </row>
-    <row r="50" spans="6:30">
+    <row r="50" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -9870,7 +9897,7 @@
       <c r="AC50" s="9"/>
       <c r="AD50" s="9"/>
     </row>
-    <row r="51" spans="6:30">
+    <row r="51" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -9897,7 +9924,7 @@
       <c r="AC51" s="9"/>
       <c r="AD51" s="9"/>
     </row>
-    <row r="52" spans="6:30">
+    <row r="52" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -9924,7 +9951,7 @@
       <c r="AC52" s="9"/>
       <c r="AD52" s="9"/>
     </row>
-    <row r="53" spans="6:30">
+    <row r="53" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -9951,7 +9978,7 @@
       <c r="AC53" s="9"/>
       <c r="AD53" s="9"/>
     </row>
-    <row r="54" spans="6:30">
+    <row r="54" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -9978,7 +10005,7 @@
       <c r="AC54" s="9"/>
       <c r="AD54" s="9"/>
     </row>
-    <row r="55" spans="6:30">
+    <row r="55" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
@@ -10005,7 +10032,7 @@
       <c r="AC55" s="9"/>
       <c r="AD55" s="9"/>
     </row>
-    <row r="56" spans="6:30">
+    <row r="56" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
@@ -10032,7 +10059,7 @@
       <c r="AC56" s="9"/>
       <c r="AD56" s="9"/>
     </row>
-    <row r="57" spans="6:30">
+    <row r="57" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
@@ -10059,7 +10086,7 @@
       <c r="AC57" s="9"/>
       <c r="AD57" s="9"/>
     </row>
-    <row r="58" spans="6:30">
+    <row r="58" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
@@ -10086,7 +10113,7 @@
       <c r="AC58" s="9"/>
       <c r="AD58" s="9"/>
     </row>
-    <row r="59" spans="6:30">
+    <row r="59" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
@@ -10113,7 +10140,7 @@
       <c r="AC59" s="9"/>
       <c r="AD59" s="9"/>
     </row>
-    <row r="60" spans="6:30">
+    <row r="60" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -10140,7 +10167,7 @@
       <c r="AC60" s="9"/>
       <c r="AD60" s="9"/>
     </row>
-    <row r="61" spans="6:30">
+    <row r="61" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
@@ -10167,7 +10194,7 @@
       <c r="AC61" s="9"/>
       <c r="AD61" s="9"/>
     </row>
-    <row r="62" spans="6:30">
+    <row r="62" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
@@ -10194,7 +10221,7 @@
       <c r="AC62" s="9"/>
       <c r="AD62" s="9"/>
     </row>
-    <row r="63" spans="6:30">
+    <row r="63" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
@@ -10221,7 +10248,7 @@
       <c r="AC63" s="9"/>
       <c r="AD63" s="9"/>
     </row>
-    <row r="64" spans="6:30">
+    <row r="64" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
@@ -10248,7 +10275,7 @@
       <c r="AC64" s="9"/>
       <c r="AD64" s="9"/>
     </row>
-    <row r="65" spans="6:30">
+    <row r="65" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
@@ -10275,7 +10302,7 @@
       <c r="AC65" s="9"/>
       <c r="AD65" s="9"/>
     </row>
-    <row r="66" spans="6:30">
+    <row r="66" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
@@ -10298,7 +10325,7 @@
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
     </row>
-    <row r="67" spans="6:30">
+    <row r="67" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
@@ -10321,7 +10348,7 @@
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
     </row>
-    <row r="68" spans="6:30">
+    <row r="68" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -10344,7 +10371,7 @@
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
     </row>
-    <row r="69" spans="6:30">
+    <row r="69" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
@@ -10367,7 +10394,7 @@
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
     </row>
-    <row r="70" spans="6:30">
+    <row r="70" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
@@ -10390,7 +10417,7 @@
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
     </row>
-    <row r="71" spans="6:30">
+    <row r="71" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
@@ -10413,7 +10440,7 @@
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
     </row>
-    <row r="72" spans="6:30">
+    <row r="72" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
@@ -10436,7 +10463,7 @@
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
     </row>
-    <row r="73" spans="6:30">
+    <row r="73" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
@@ -10459,7 +10486,7 @@
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
     </row>
-    <row r="74" spans="6:30">
+    <row r="74" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
@@ -10482,7 +10509,7 @@
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
     </row>
-    <row r="75" spans="6:30">
+    <row r="75" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
@@ -10505,7 +10532,7 @@
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
     </row>
-    <row r="76" spans="6:30">
+    <row r="76" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
@@ -10528,7 +10555,7 @@
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
     </row>
-    <row r="77" spans="6:30">
+    <row r="77" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
@@ -10551,7 +10578,7 @@
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
     </row>
-    <row r="78" spans="6:30">
+    <row r="78" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
@@ -10574,7 +10601,7 @@
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
     </row>
-    <row r="79" spans="6:30">
+    <row r="79" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
@@ -10597,7 +10624,7 @@
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
     </row>
-    <row r="80" spans="6:30">
+    <row r="80" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
@@ -10620,7 +10647,7 @@
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
     </row>
-    <row r="81" spans="6:26">
+    <row r="81" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
@@ -10643,7 +10670,7 @@
       <c r="Y81" s="9"/>
       <c r="Z81" s="9"/>
     </row>
-    <row r="82" spans="6:26">
+    <row r="82" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
@@ -10666,7 +10693,7 @@
       <c r="Y82" s="9"/>
       <c r="Z82" s="9"/>
     </row>
-    <row r="83" spans="6:26">
+    <row r="83" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
@@ -10689,7 +10716,7 @@
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
     </row>
-    <row r="84" spans="6:26">
+    <row r="84" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
@@ -10712,7 +10739,7 @@
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
     </row>
-    <row r="85" spans="6:26">
+    <row r="85" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
@@ -10735,7 +10762,7 @@
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
     </row>
-    <row r="86" spans="6:26">
+    <row r="86" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
@@ -10758,7 +10785,7 @@
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
     </row>
-    <row r="87" spans="6:26">
+    <row r="87" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
@@ -10781,7 +10808,7 @@
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
     </row>
-    <row r="88" spans="6:26">
+    <row r="88" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
@@ -10804,7 +10831,7 @@
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
     </row>
-    <row r="89" spans="6:26">
+    <row r="89" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
@@ -10827,7 +10854,7 @@
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
     </row>
-    <row r="90" spans="6:26">
+    <row r="90" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
@@ -10850,7 +10877,7 @@
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
     </row>
-    <row r="91" spans="6:26">
+    <row r="91" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
@@ -10873,7 +10900,7 @@
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
     </row>
-    <row r="92" spans="6:26">
+    <row r="92" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
@@ -10896,7 +10923,7 @@
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
     </row>
-    <row r="93" spans="6:26">
+    <row r="93" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
@@ -10919,7 +10946,7 @@
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
     </row>
-    <row r="94" spans="6:26">
+    <row r="94" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
@@ -10942,7 +10969,7 @@
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
     </row>
-    <row r="95" spans="6:26">
+    <row r="95" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
@@ -10965,7 +10992,7 @@
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
     </row>
-    <row r="96" spans="6:26">
+    <row r="96" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -10988,7 +11015,7 @@
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
     </row>
-    <row r="97" spans="6:26">
+    <row r="97" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
@@ -11011,7 +11038,7 @@
       <c r="Y97" s="9"/>
       <c r="Z97" s="9"/>
     </row>
-    <row r="98" spans="6:26">
+    <row r="98" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
@@ -11034,7 +11061,7 @@
       <c r="Y98" s="9"/>
       <c r="Z98" s="9"/>
     </row>
-    <row r="99" spans="6:26">
+    <row r="99" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
@@ -11176,26 +11203,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Z45"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="50"/>
+    <col min="1" max="1" width="9.09765625" style="50"/>
     <col min="2" max="2" width="6" style="50" customWidth="1"/>
-    <col min="3" max="4" width="9.08984375" style="17"/>
-    <col min="5" max="5" width="15.36328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="17"/>
-    <col min="7" max="20" width="9.08984375" style="50"/>
-    <col min="21" max="21" width="10.36328125" style="50" customWidth="1"/>
-    <col min="22" max="16384" width="9.08984375" style="50"/>
+    <col min="3" max="4" width="9.09765625" style="17"/>
+    <col min="5" max="5" width="15.3984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.09765625" style="17"/>
+    <col min="7" max="20" width="9.09765625" style="50"/>
+    <col min="21" max="21" width="10.3984375" style="50" customWidth="1"/>
+    <col min="22" max="16384" width="9.09765625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B1" s="129" t="s">
         <v>78</v>
       </c>
@@ -11214,7 +11241,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="2" spans="2:23">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B2" s="129" t="s">
         <v>79</v>
       </c>
@@ -11268,7 +11295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:23">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B3" s="129"/>
       <c r="C3" s="129"/>
       <c r="D3" s="130"/>
@@ -11334,7 +11361,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:23">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B4" s="131" t="s">
         <v>80</v>
       </c>
@@ -11390,7 +11417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="14.5">
+    <row r="5" spans="2:23" ht="14.4" x14ac:dyDescent="0.45">
       <c r="B5" s="52" t="s">
         <v>81</v>
       </c>
@@ -11455,7 +11482,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:23">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B6" s="54" t="s">
         <v>31</v>
       </c>
@@ -11536,7 +11563,7 @@
       <c r="V6" s="55"/>
       <c r="W6" s="55"/>
     </row>
-    <row r="7" spans="2:23">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B7" s="54" t="s">
         <v>32</v>
       </c>
@@ -11616,7 +11643,7 @@
       <c r="V7" s="55"/>
       <c r="W7" s="55"/>
     </row>
-    <row r="8" spans="2:23">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B8" s="54" t="s">
         <v>33</v>
       </c>
@@ -11693,7 +11720,7 @@
       <c r="V8" s="55"/>
       <c r="W8" s="55"/>
     </row>
-    <row r="9" spans="2:23">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B9" s="54" t="s">
         <v>34</v>
       </c>
@@ -11767,7 +11794,7 @@
       <c r="V9" s="55"/>
       <c r="W9" s="55"/>
     </row>
-    <row r="10" spans="2:23">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B10" s="54" t="s">
         <v>35</v>
       </c>
@@ -11838,7 +11865,7 @@
       <c r="V10" s="55"/>
       <c r="W10" s="55"/>
     </row>
-    <row r="11" spans="2:23">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B11" s="54" t="s">
         <v>36</v>
       </c>
@@ -11906,7 +11933,7 @@
       <c r="V11" s="55"/>
       <c r="W11" s="55"/>
     </row>
-    <row r="12" spans="2:23">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B12" s="54" t="s">
         <v>37</v>
       </c>
@@ -11970,7 +11997,7 @@
       <c r="V12" s="55"/>
       <c r="W12" s="55"/>
     </row>
-    <row r="13" spans="2:23">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B13" s="54" t="s">
         <v>38</v>
       </c>
@@ -12032,7 +12059,7 @@
       <c r="V13" s="55"/>
       <c r="W13" s="55"/>
     </row>
-    <row r="14" spans="2:23">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B14" s="54" t="s">
         <v>39</v>
       </c>
@@ -12090,7 +12117,7 @@
       <c r="V14" s="55"/>
       <c r="W14" s="55"/>
     </row>
-    <row r="15" spans="2:23" ht="14.15" customHeight="1">
+    <row r="15" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="54" t="s">
         <v>40</v>
       </c>
@@ -12145,7 +12172,7 @@
       <c r="V15" s="55"/>
       <c r="W15" s="55"/>
     </row>
-    <row r="16" spans="2:23">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B16" s="54" t="s">
         <v>41</v>
       </c>
@@ -12197,7 +12224,7 @@
       <c r="V16" s="55"/>
       <c r="W16" s="55"/>
     </row>
-    <row r="17" spans="2:26">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B17" s="54" t="s">
         <v>42</v>
       </c>
@@ -12246,7 +12273,7 @@
       <c r="V17" s="55"/>
       <c r="W17" s="55"/>
     </row>
-    <row r="18" spans="2:26">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B18" s="54" t="s">
         <v>43</v>
       </c>
@@ -12292,7 +12319,7 @@
       <c r="V18" s="55"/>
       <c r="W18" s="55"/>
     </row>
-    <row r="19" spans="2:26">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B19" s="54" t="s">
         <v>44</v>
       </c>
@@ -12335,7 +12362,7 @@
       <c r="V19" s="55"/>
       <c r="W19" s="55"/>
     </row>
-    <row r="20" spans="2:26">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B20" s="54" t="s">
         <v>45</v>
       </c>
@@ -12375,7 +12402,7 @@
       <c r="V20" s="55"/>
       <c r="W20" s="55"/>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F21" s="56">
         <f>SUM(F6:F20)</f>
         <v>36.629999999999995</v>
@@ -12443,7 +12470,7 @@
       <c r="V21" s="55"/>
       <c r="W21" s="55"/>
     </row>
-    <row r="22" spans="2:26">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F22" s="50"/>
       <c r="G22" s="72">
         <f t="shared" ref="G22:U22" si="17">SUM(G6:G20)</f>
@@ -12508,30 +12535,30 @@
       <c r="V22" s="55"/>
       <c r="W22" s="55"/>
     </row>
-    <row r="23" spans="2:26">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F23" s="50"/>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F24" s="50"/>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F25" s="50"/>
     </row>
-    <row r="26" spans="2:26">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F26" s="50"/>
       <c r="W26" s="55"/>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F27" s="50"/>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F28" s="50"/>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F29" s="50"/>
     </row>
-    <row r="30" spans="2:26">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.45">
       <c r="G30" s="50">
         <v>1</v>
       </c>
@@ -12593,7 +12620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:26">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F31" s="55">
         <v>1</v>
       </c>
@@ -12677,7 +12704,7 @@
         <v>505.39003907512813</v>
       </c>
     </row>
-    <row r="32" spans="2:26">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F32" s="55">
         <v>2</v>
       </c>
@@ -12761,7 +12788,7 @@
         <v>1263.4750976878202</v>
       </c>
     </row>
-    <row r="33" spans="6:26">
+    <row r="33" spans="6:26" x14ac:dyDescent="0.45">
       <c r="F33" s="55">
         <v>3</v>
       </c>
@@ -12845,7 +12872,7 @@
         <v>3032.3402344507685</v>
       </c>
     </row>
-    <row r="34" spans="6:26">
+    <row r="34" spans="6:26" x14ac:dyDescent="0.45">
       <c r="F34" s="55">
         <v>4</v>
       </c>
@@ -12929,7 +12956,7 @@
         <v>7580.8505861269205</v>
       </c>
     </row>
-    <row r="35" spans="6:26">
+    <row r="35" spans="6:26" x14ac:dyDescent="0.45">
       <c r="F35" s="55">
         <v>5</v>
       </c>
@@ -13013,7 +13040,7 @@
         <v>18952.126465317295</v>
       </c>
     </row>
-    <row r="36" spans="6:26">
+    <row r="36" spans="6:26" x14ac:dyDescent="0.45">
       <c r="F36" s="55">
         <v>6</v>
       </c>
@@ -13097,7 +13124,7 @@
         <v>45485.103516761512</v>
       </c>
     </row>
-    <row r="37" spans="6:26">
+    <row r="37" spans="6:26" x14ac:dyDescent="0.45">
       <c r="F37" s="55">
         <v>7</v>
       </c>
@@ -13181,7 +13208,7 @@
         <v>113712.75879190381</v>
       </c>
     </row>
-    <row r="38" spans="6:26">
+    <row r="38" spans="6:26" x14ac:dyDescent="0.45">
       <c r="F38" s="55">
         <v>8</v>
       </c>
@@ -13265,7 +13292,7 @@
         <v>252695.01953756393</v>
       </c>
     </row>
-    <row r="42" spans="6:26">
+    <row r="42" spans="6:26" x14ac:dyDescent="0.45">
       <c r="G42" s="50">
         <v>1</v>
       </c>
@@ -13312,7 +13339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="6:26">
+    <row r="43" spans="6:26" x14ac:dyDescent="0.45">
       <c r="G43" s="50">
         <v>30</v>
       </c>
@@ -13359,7 +13386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="6:26">
+    <row r="44" spans="6:26" x14ac:dyDescent="0.45">
       <c r="G44" s="50">
         <v>10</v>
       </c>
@@ -13420,7 +13447,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="6:26">
+    <row r="45" spans="6:26" x14ac:dyDescent="0.45">
       <c r="G45" s="115">
         <f>SUM(G43:G44)</f>
         <v>40</v>
@@ -13497,16 +13524,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:AU56"/>
   <sheetViews>
-    <sheetView topLeftCell="B228" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y255" sqref="Y255"/>
+    <sheetView topLeftCell="A225" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B238" sqref="B238:AO259"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="24" max="24" width="11.59765625" customWidth="1"/>
+    <col min="28" max="28" width="10.796875" customWidth="1"/>
+    <col min="32" max="32" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.19921875" customWidth="1"/>
+    <col min="40" max="40" width="12.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:47">
+    <row r="3" spans="2:47" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -13541,7 +13575,7 @@
         <v>107.7</v>
       </c>
     </row>
-    <row r="56" spans="2:38">
+    <row r="56" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>64</v>
       </c>
@@ -13578,16 +13612,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="K169:L169"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" workbookViewId="0">
+    <sheetView topLeftCell="A86" workbookViewId="0">
       <selection activeCell="AA165" sqref="AA165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="169" spans="11:12">
+    <row r="169" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K169">
         <v>2149.9029999999998</v>
       </c>
@@ -13600,4 +13634,2502 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF39EB4-41C7-4E4A-8227-183AC99C598A}">
+  <dimension ref="A1:AV23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A1" s="135" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="D2" s="134">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="133">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="133">
+        <f>D23*$D$2</f>
+        <v>106.13190820577691</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="133">
+        <f>H23*$D$2</f>
+        <v>281.59954848498637</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="133">
+        <f>L23*$D$2</f>
+        <v>747.16743576492001</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="133">
+        <f>P23*$D$2</f>
+        <v>1982.4576426737046</v>
+      </c>
+      <c r="V4">
+        <v>6</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4" s="133">
+        <f>T23*$D$2</f>
+        <v>5260.0503138521626</v>
+      </c>
+      <c r="Z4">
+        <v>7</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="133">
+        <f>X23*$D$2</f>
+        <v>13956.479426688142</v>
+      </c>
+      <c r="AD4">
+        <v>8</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="133">
+        <f>AB23*$D$2</f>
+        <v>37030.694834727001</v>
+      </c>
+      <c r="AH4">
+        <v>9</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="133">
+        <f>AF23*$D$2</f>
+        <v>98253.45762488457</v>
+      </c>
+      <c r="AL4">
+        <v>10</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="133">
+        <f>AJ23*$D$2</f>
+        <v>260695.67363861101</v>
+      </c>
+      <c r="AP4">
+        <v>11</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="133">
+        <f>AN23*$D$2</f>
+        <v>691703.23260640597</v>
+      </c>
+      <c r="AT4">
+        <v>12</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="133">
+        <f>AR23*$D$2</f>
+        <v>1835294.599715556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="133">
+        <f>D4*$D$2</f>
+        <v>42</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="133">
+        <f>H4*$D$2</f>
+        <v>111.43850361606576</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="133">
+        <f>L4*$D$2</f>
+        <v>295.67952590923568</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5" s="133">
+        <f>P4*$D$2</f>
+        <v>784.52580755316603</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5" s="133">
+        <f>T4*$D$2</f>
+        <v>2081.5805248073898</v>
+      </c>
+      <c r="V5">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5" s="133">
+        <f>X4*$D$2</f>
+        <v>5523.0528295447712</v>
+      </c>
+      <c r="Z5">
+        <v>7</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="133">
+        <f>AB4*$D$2</f>
+        <v>14654.30339802255</v>
+      </c>
+      <c r="AD5">
+        <v>8</v>
+      </c>
+      <c r="AE5">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="133">
+        <f>AF4*$D$2</f>
+        <v>38882.229576463353</v>
+      </c>
+      <c r="AH5">
+        <v>9</v>
+      </c>
+      <c r="AI5">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="133">
+        <f>AJ4*$D$2</f>
+        <v>103166.1305061288</v>
+      </c>
+      <c r="AL5">
+        <v>10</v>
+      </c>
+      <c r="AM5">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="133">
+        <f>AN4*$D$2</f>
+        <v>273730.45732054155</v>
+      </c>
+      <c r="AP5">
+        <v>11</v>
+      </c>
+      <c r="AQ5">
+        <v>2</v>
+      </c>
+      <c r="AR5" s="133">
+        <f>AR4*$D$2</f>
+        <v>726288.39423672634</v>
+      </c>
+      <c r="AT5">
+        <v>12</v>
+      </c>
+      <c r="AU5">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="133">
+        <f>AV4*$D$2</f>
+        <v>1927059.329701334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="133">
+        <f>D5*$D$2</f>
+        <v>44.1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="133">
+        <f>H5*$D$2</f>
+        <v>117.01042879686905</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="133">
+        <f>L5*$D$2</f>
+        <v>310.46350220469748</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6" s="133">
+        <f>P5*$D$2</f>
+        <v>823.75209793082433</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6" s="133">
+        <f>T5*$D$2</f>
+        <v>2185.6595510477596</v>
+      </c>
+      <c r="V6">
+        <v>6</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6" s="133">
+        <f>X5*$D$2</f>
+        <v>5799.20547102201</v>
+      </c>
+      <c r="Z6">
+        <v>7</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="133">
+        <f>AB5*$D$2</f>
+        <v>15387.018567923678</v>
+      </c>
+      <c r="AD6">
+        <v>8</v>
+      </c>
+      <c r="AE6">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="133">
+        <f>AF5*$D$2</f>
+        <v>40826.341055286524</v>
+      </c>
+      <c r="AH6">
+        <v>9</v>
+      </c>
+      <c r="AI6">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="133">
+        <f>AJ5*$D$2</f>
+        <v>108324.43703143524</v>
+      </c>
+      <c r="AL6">
+        <v>10</v>
+      </c>
+      <c r="AM6">
+        <v>3</v>
+      </c>
+      <c r="AN6" s="133">
+        <f>AN5*$D$2</f>
+        <v>287416.98018656863</v>
+      </c>
+      <c r="AP6">
+        <v>11</v>
+      </c>
+      <c r="AQ6">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="133">
+        <f>AR5*$D$2</f>
+        <v>762602.81394856272</v>
+      </c>
+      <c r="AT6">
+        <v>12</v>
+      </c>
+      <c r="AU6">
+        <v>3</v>
+      </c>
+      <c r="AV6" s="133">
+        <f>AV5*$D$2</f>
+        <v>2023412.2961864008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="133">
+        <f>D6*$D$2</f>
+        <v>46.305000000000007</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="133">
+        <f>H6*$D$2</f>
+        <v>122.86095023671251</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7" s="133">
+        <f>L6*$D$2</f>
+        <v>325.98667731493236</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" s="133">
+        <f>P6*$D$2</f>
+        <v>864.93970282736564</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7" s="133">
+        <f>T6*$D$2</f>
+        <v>2294.9425286001479</v>
+      </c>
+      <c r="V7">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+      <c r="X7" s="133">
+        <f>X6*$D$2</f>
+        <v>6089.1657445731107</v>
+      </c>
+      <c r="Z7">
+        <v>7</v>
+      </c>
+      <c r="AA7">
+        <v>4</v>
+      </c>
+      <c r="AB7" s="133">
+        <f>AB6*$D$2</f>
+        <v>16156.369496319863</v>
+      </c>
+      <c r="AD7">
+        <v>8</v>
+      </c>
+      <c r="AE7">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="133">
+        <f>AF6*$D$2</f>
+        <v>42867.658108050855</v>
+      </c>
+      <c r="AH7">
+        <v>9</v>
+      </c>
+      <c r="AI7">
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="133">
+        <f>AJ6*$D$2</f>
+        <v>113740.65888300701</v>
+      </c>
+      <c r="AL7">
+        <v>10</v>
+      </c>
+      <c r="AM7">
+        <v>4</v>
+      </c>
+      <c r="AN7" s="133">
+        <f>AN6*$D$2</f>
+        <v>301787.82919589709</v>
+      </c>
+      <c r="AP7">
+        <v>11</v>
+      </c>
+      <c r="AQ7">
+        <v>4</v>
+      </c>
+      <c r="AR7" s="133">
+        <f>AR6*$D$2</f>
+        <v>800732.95464599086</v>
+      </c>
+      <c r="AT7">
+        <v>12</v>
+      </c>
+      <c r="AU7">
+        <v>4</v>
+      </c>
+      <c r="AV7" s="133">
+        <f>AV6*$D$2</f>
+        <v>2124582.9109957209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="133">
+        <f>D7*$D$2</f>
+        <v>48.620250000000006</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="133">
+        <f>H7*$D$2</f>
+        <v>129.00399774854813</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8" s="133">
+        <f>L7*$D$2</f>
+        <v>342.286011180679</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8" s="133">
+        <f>P7*$D$2</f>
+        <v>908.18668796873396</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8" s="133">
+        <f>T7*$D$2</f>
+        <v>2409.6896550301553</v>
+      </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8" s="133">
+        <f>X7*$D$2</f>
+        <v>6393.6240318017663</v>
+      </c>
+      <c r="Z8">
+        <v>7</v>
+      </c>
+      <c r="AA8">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="133">
+        <f>AB7*$D$2</f>
+        <v>16964.187971135856</v>
+      </c>
+      <c r="AD8">
+        <v>8</v>
+      </c>
+      <c r="AE8">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="133">
+        <f>AF7*$D$2</f>
+        <v>45011.041013453403</v>
+      </c>
+      <c r="AH8">
+        <v>9</v>
+      </c>
+      <c r="AI8">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="133">
+        <f>AJ7*$D$2</f>
+        <v>119427.69182715737</v>
+      </c>
+      <c r="AL8">
+        <v>10</v>
+      </c>
+      <c r="AM8">
+        <v>5</v>
+      </c>
+      <c r="AN8" s="133">
+        <f>AN7*$D$2</f>
+        <v>316877.22065569198</v>
+      </c>
+      <c r="AP8">
+        <v>11</v>
+      </c>
+      <c r="AQ8">
+        <v>5</v>
+      </c>
+      <c r="AR8" s="133">
+        <f>AR7*$D$2</f>
+        <v>840769.6023782905</v>
+      </c>
+      <c r="AT8">
+        <v>12</v>
+      </c>
+      <c r="AU8">
+        <v>5</v>
+      </c>
+      <c r="AV8" s="133">
+        <f>AV7*$D$2</f>
+        <v>2230812.0565455072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="133">
+        <f>D8*$D$2</f>
+        <v>51.051262500000007</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9" s="133">
+        <f>H8*$D$2</f>
+        <v>135.45419763597553</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9" s="133">
+        <f>L8*$D$2</f>
+        <v>359.40031173971295</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9" s="133">
+        <f>P8*$D$2</f>
+        <v>953.59602236717069</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9" s="133">
+        <f>T8*$D$2</f>
+        <v>2530.1741377816634</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9" s="133">
+        <f>X8*$D$2</f>
+        <v>6713.3052333918549</v>
+      </c>
+      <c r="Z9">
+        <v>7</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9" s="133">
+        <f>AB8*$D$2</f>
+        <v>17812.397369692651</v>
+      </c>
+      <c r="AD9">
+        <v>8</v>
+      </c>
+      <c r="AE9">
+        <v>6</v>
+      </c>
+      <c r="AF9" s="133">
+        <f>AF8*$D$2</f>
+        <v>47261.593064126078</v>
+      </c>
+      <c r="AH9">
+        <v>9</v>
+      </c>
+      <c r="AI9">
+        <v>6</v>
+      </c>
+      <c r="AJ9" s="133">
+        <f>AJ8*$D$2</f>
+        <v>125399.07641851524</v>
+      </c>
+      <c r="AL9">
+        <v>10</v>
+      </c>
+      <c r="AM9">
+        <v>6</v>
+      </c>
+      <c r="AN9" s="133">
+        <f>AN8*$D$2</f>
+        <v>332721.08168847661</v>
+      </c>
+      <c r="AP9">
+        <v>11</v>
+      </c>
+      <c r="AQ9">
+        <v>6</v>
+      </c>
+      <c r="AR9" s="133">
+        <f>AR8*$D$2</f>
+        <v>882808.082497205</v>
+      </c>
+      <c r="AT9">
+        <v>12</v>
+      </c>
+      <c r="AU9">
+        <v>6</v>
+      </c>
+      <c r="AV9" s="133">
+        <f>AV8*$D$2</f>
+        <v>2342352.6593727828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="133">
+        <f>D9*$D$2</f>
+        <v>53.603825625000013</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" s="133">
+        <f>H9*$D$2</f>
+        <v>142.22690751777432</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10" s="133">
+        <f>L9*$D$2</f>
+        <v>377.3703273266986</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10" s="133">
+        <f>P9*$D$2</f>
+        <v>1001.2758234855293</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>7</v>
+      </c>
+      <c r="T10" s="133">
+        <f>T9*$D$2</f>
+        <v>2656.6828446707468</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="W10">
+        <v>7</v>
+      </c>
+      <c r="X10" s="133">
+        <f>X9*$D$2</f>
+        <v>7048.9704950614478</v>
+      </c>
+      <c r="Z10">
+        <v>7</v>
+      </c>
+      <c r="AA10">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="133">
+        <f>AB9*$D$2</f>
+        <v>18703.017238177286</v>
+      </c>
+      <c r="AD10">
+        <v>8</v>
+      </c>
+      <c r="AE10">
+        <v>7</v>
+      </c>
+      <c r="AF10" s="133">
+        <f>AF9*$D$2</f>
+        <v>49624.672717332382</v>
+      </c>
+      <c r="AH10">
+        <v>9</v>
+      </c>
+      <c r="AI10">
+        <v>7</v>
+      </c>
+      <c r="AJ10" s="133">
+        <f>AJ9*$D$2</f>
+        <v>131669.030239441</v>
+      </c>
+      <c r="AL10">
+        <v>10</v>
+      </c>
+      <c r="AM10">
+        <v>7</v>
+      </c>
+      <c r="AN10" s="133">
+        <f>AN9*$D$2</f>
+        <v>349357.13577290048</v>
+      </c>
+      <c r="AP10">
+        <v>11</v>
+      </c>
+      <c r="AQ10">
+        <v>7</v>
+      </c>
+      <c r="AR10" s="133">
+        <f>AR9*$D$2</f>
+        <v>926948.48662206531</v>
+      </c>
+      <c r="AT10">
+        <v>12</v>
+      </c>
+      <c r="AU10">
+        <v>7</v>
+      </c>
+      <c r="AV10" s="133">
+        <f>AV9*$D$2</f>
+        <v>2459470.2923414218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" s="133">
+        <f>D10*$D$2</f>
+        <v>56.284016906250017</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11" s="133">
+        <f>H10*$D$2</f>
+        <v>149.33825289366305</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11" s="133">
+        <f>L10*$D$2</f>
+        <v>396.23884369303357</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11" s="133">
+        <f>P10*$D$2</f>
+        <v>1051.3396146598059</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="T11" s="133">
+        <f>T10*$D$2</f>
+        <v>2789.5169869042843</v>
+      </c>
+      <c r="V11">
+        <v>6</v>
+      </c>
+      <c r="W11">
+        <v>8</v>
+      </c>
+      <c r="X11" s="133">
+        <f>X10*$D$2</f>
+        <v>7401.4190198145207</v>
+      </c>
+      <c r="Z11">
+        <v>7</v>
+      </c>
+      <c r="AA11">
+        <v>8</v>
+      </c>
+      <c r="AB11" s="133">
+        <f>AB10*$D$2</f>
+        <v>19638.16810008615</v>
+      </c>
+      <c r="AD11">
+        <v>8</v>
+      </c>
+      <c r="AE11">
+        <v>8</v>
+      </c>
+      <c r="AF11" s="133">
+        <f>AF10*$D$2</f>
+        <v>52105.906353199003</v>
+      </c>
+      <c r="AH11">
+        <v>9</v>
+      </c>
+      <c r="AI11">
+        <v>8</v>
+      </c>
+      <c r="AJ11" s="133">
+        <f>AJ10*$D$2</f>
+        <v>138252.48175141306</v>
+      </c>
+      <c r="AL11">
+        <v>10</v>
+      </c>
+      <c r="AM11">
+        <v>8</v>
+      </c>
+      <c r="AN11" s="133">
+        <f>AN10*$D$2</f>
+        <v>366824.99256154551</v>
+      </c>
+      <c r="AP11">
+        <v>11</v>
+      </c>
+      <c r="AQ11">
+        <v>8</v>
+      </c>
+      <c r="AR11" s="133">
+        <f>AR10*$D$2</f>
+        <v>973295.91095316864</v>
+      </c>
+      <c r="AT11">
+        <v>12</v>
+      </c>
+      <c r="AU11">
+        <v>8</v>
+      </c>
+      <c r="AV11" s="133">
+        <f>AV10*$D$2</f>
+        <v>2582443.8069584928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" s="133">
+        <f>D11*$D$2</f>
+        <v>59.098217751562522</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12" s="133">
+        <f>H11*$D$2</f>
+        <v>156.80516553834622</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12" s="133">
+        <f>L11*$D$2</f>
+        <v>416.05078587768526</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>9</v>
+      </c>
+      <c r="P12" s="133">
+        <f>P11*$D$2</f>
+        <v>1103.9065953927961</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <v>9</v>
+      </c>
+      <c r="T12" s="133">
+        <f>T11*$D$2</f>
+        <v>2928.9928362494989</v>
+      </c>
+      <c r="V12">
+        <v>6</v>
+      </c>
+      <c r="W12">
+        <v>9</v>
+      </c>
+      <c r="X12" s="133">
+        <f>X11*$D$2</f>
+        <v>7771.4899708052471</v>
+      </c>
+      <c r="Z12">
+        <v>7</v>
+      </c>
+      <c r="AA12">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="133">
+        <f>AB11*$D$2</f>
+        <v>20620.076505090459</v>
+      </c>
+      <c r="AD12">
+        <v>8</v>
+      </c>
+      <c r="AE12">
+        <v>9</v>
+      </c>
+      <c r="AF12" s="133">
+        <f>AF11*$D$2</f>
+        <v>54711.201670858958</v>
+      </c>
+      <c r="AH12">
+        <v>9</v>
+      </c>
+      <c r="AI12">
+        <v>9</v>
+      </c>
+      <c r="AJ12" s="133">
+        <f>AJ11*$D$2</f>
+        <v>145165.10583898373</v>
+      </c>
+      <c r="AL12">
+        <v>10</v>
+      </c>
+      <c r="AM12">
+        <v>9</v>
+      </c>
+      <c r="AN12" s="133">
+        <f>AN11*$D$2</f>
+        <v>385166.24218962283</v>
+      </c>
+      <c r="AP12">
+        <v>11</v>
+      </c>
+      <c r="AQ12">
+        <v>9</v>
+      </c>
+      <c r="AR12" s="133">
+        <f>AR11*$D$2</f>
+        <v>1021960.7065008271</v>
+      </c>
+      <c r="AT12">
+        <v>12</v>
+      </c>
+      <c r="AU12">
+        <v>9</v>
+      </c>
+      <c r="AV12" s="133">
+        <f>AV11*$D$2</f>
+        <v>2711565.9973064177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="133">
+        <f>D12*$D$2</f>
+        <v>62.053128639140652</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13" s="133">
+        <f>H12*$D$2</f>
+        <v>164.64542381526354</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13" s="133">
+        <f>L12*$D$2</f>
+        <v>436.85332517156957</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13" s="133">
+        <f>P12*$D$2</f>
+        <v>1159.1019251624359</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13" s="133">
+        <f>T12*$D$2</f>
+        <v>3075.4424780619738</v>
+      </c>
+      <c r="V13">
+        <v>6</v>
+      </c>
+      <c r="W13">
+        <v>10</v>
+      </c>
+      <c r="X13" s="133">
+        <f>X12*$D$2</f>
+        <v>8160.0644693455097</v>
+      </c>
+      <c r="Z13">
+        <v>7</v>
+      </c>
+      <c r="AA13">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="133">
+        <f>AB12*$D$2</f>
+        <v>21651.080330344983</v>
+      </c>
+      <c r="AD13">
+        <v>8</v>
+      </c>
+      <c r="AE13">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="133">
+        <f>AF12*$D$2</f>
+        <v>57446.761754401909</v>
+      </c>
+      <c r="AH13">
+        <v>9</v>
+      </c>
+      <c r="AI13">
+        <v>10</v>
+      </c>
+      <c r="AJ13" s="133">
+        <f>AJ12*$D$2</f>
+        <v>152423.36113093293</v>
+      </c>
+      <c r="AL13">
+        <v>10</v>
+      </c>
+      <c r="AM13">
+        <v>10</v>
+      </c>
+      <c r="AN13" s="133">
+        <f>AN12*$D$2</f>
+        <v>404424.55429910397</v>
+      </c>
+      <c r="AP13">
+        <v>11</v>
+      </c>
+      <c r="AQ13">
+        <v>10</v>
+      </c>
+      <c r="AR13" s="133">
+        <f>AR12*$D$2</f>
+        <v>1073058.7418258686</v>
+      </c>
+      <c r="AT13">
+        <v>12</v>
+      </c>
+      <c r="AU13">
+        <v>10</v>
+      </c>
+      <c r="AV13" s="133">
+        <f>AV12*$D$2</f>
+        <v>2847144.2971717385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14" s="133">
+        <f>D13*$D$2</f>
+        <v>65.155785071097682</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14" s="133">
+        <f>H13*$D$2</f>
+        <v>172.87769500602673</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
+      <c r="L14" s="133">
+        <f>L13*$D$2</f>
+        <v>458.69599143014807</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>11</v>
+      </c>
+      <c r="P14" s="133">
+        <f>P13*$D$2</f>
+        <v>1217.0570214205577</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>11</v>
+      </c>
+      <c r="T14" s="133">
+        <f>T13*$D$2</f>
+        <v>3229.2146019650727</v>
+      </c>
+      <c r="V14">
+        <v>6</v>
+      </c>
+      <c r="W14">
+        <v>11</v>
+      </c>
+      <c r="X14" s="133">
+        <f>X13*$D$2</f>
+        <v>8568.067692812785</v>
+      </c>
+      <c r="Z14">
+        <v>7</v>
+      </c>
+      <c r="AA14">
+        <v>11</v>
+      </c>
+      <c r="AB14" s="133">
+        <f>AB13*$D$2</f>
+        <v>22733.634346862233</v>
+      </c>
+      <c r="AD14">
+        <v>8</v>
+      </c>
+      <c r="AE14">
+        <v>11</v>
+      </c>
+      <c r="AF14" s="133">
+        <f>AF13*$D$2</f>
+        <v>60319.099842122007</v>
+      </c>
+      <c r="AH14">
+        <v>9</v>
+      </c>
+      <c r="AI14">
+        <v>11</v>
+      </c>
+      <c r="AJ14" s="133">
+        <f>AJ13*$D$2</f>
+        <v>160044.52918747958</v>
+      </c>
+      <c r="AL14">
+        <v>10</v>
+      </c>
+      <c r="AM14">
+        <v>11</v>
+      </c>
+      <c r="AN14" s="133">
+        <f>AN13*$D$2</f>
+        <v>424645.78201405919</v>
+      </c>
+      <c r="AP14">
+        <v>11</v>
+      </c>
+      <c r="AQ14">
+        <v>11</v>
+      </c>
+      <c r="AR14" s="133">
+        <f>AR13*$D$2</f>
+        <v>1126711.6789171621</v>
+      </c>
+      <c r="AT14">
+        <v>12</v>
+      </c>
+      <c r="AU14">
+        <v>11</v>
+      </c>
+      <c r="AV14" s="133">
+        <f>AV13*$D$2</f>
+        <v>2989501.5120303254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15" s="133">
+        <f>D14*$D$2</f>
+        <v>68.413574324652572</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15" s="133">
+        <f>H14*$D$2</f>
+        <v>181.52157975632807</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="L15" s="133">
+        <f>L14*$D$2</f>
+        <v>481.6307910016555</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>12</v>
+      </c>
+      <c r="P15" s="133">
+        <f>P14*$D$2</f>
+        <v>1277.9098724915857</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>12</v>
+      </c>
+      <c r="T15" s="133">
+        <f>T14*$D$2</f>
+        <v>3390.6753320633266</v>
+      </c>
+      <c r="V15">
+        <v>6</v>
+      </c>
+      <c r="W15">
+        <v>12</v>
+      </c>
+      <c r="X15" s="133">
+        <f>X14*$D$2</f>
+        <v>8996.4710774534251</v>
+      </c>
+      <c r="Z15">
+        <v>7</v>
+      </c>
+      <c r="AA15">
+        <v>12</v>
+      </c>
+      <c r="AB15" s="133">
+        <f>AB14*$D$2</f>
+        <v>23870.316064205344</v>
+      </c>
+      <c r="AD15">
+        <v>8</v>
+      </c>
+      <c r="AE15">
+        <v>12</v>
+      </c>
+      <c r="AF15" s="133">
+        <f>AF14*$D$2</f>
+        <v>63335.054834228111</v>
+      </c>
+      <c r="AH15">
+        <v>9</v>
+      </c>
+      <c r="AI15">
+        <v>12</v>
+      </c>
+      <c r="AJ15" s="133">
+        <f>AJ14*$D$2</f>
+        <v>168046.75564685356</v>
+      </c>
+      <c r="AL15">
+        <v>10</v>
+      </c>
+      <c r="AM15">
+        <v>12</v>
+      </c>
+      <c r="AN15" s="133">
+        <f>AN14*$D$2</f>
+        <v>445878.07111476216</v>
+      </c>
+      <c r="AP15">
+        <v>11</v>
+      </c>
+      <c r="AQ15">
+        <v>12</v>
+      </c>
+      <c r="AR15" s="133">
+        <f>AR14*$D$2</f>
+        <v>1183047.2628630202</v>
+      </c>
+      <c r="AT15">
+        <v>12</v>
+      </c>
+      <c r="AU15">
+        <v>12</v>
+      </c>
+      <c r="AV15" s="133">
+        <f>AV14*$D$2</f>
+        <v>3138976.5876318417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16" s="133">
+        <f>D15*$D$2</f>
+        <v>71.834253040885201</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16" s="133">
+        <f>H15*$D$2</f>
+        <v>190.59765874414447</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>13</v>
+      </c>
+      <c r="L16" s="133">
+        <f>L15*$D$2</f>
+        <v>505.71233055173832</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>13</v>
+      </c>
+      <c r="P16" s="133">
+        <f>P15*$D$2</f>
+        <v>1341.805366116165</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>13</v>
+      </c>
+      <c r="T16" s="133">
+        <f>T15*$D$2</f>
+        <v>3560.209098666493</v>
+      </c>
+      <c r="V16">
+        <v>6</v>
+      </c>
+      <c r="W16">
+        <v>13</v>
+      </c>
+      <c r="X16" s="133">
+        <f>X15*$D$2</f>
+        <v>9446.2946313260964</v>
+      </c>
+      <c r="Z16">
+        <v>7</v>
+      </c>
+      <c r="AA16">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="133">
+        <f>AB15*$D$2</f>
+        <v>25063.831867415614</v>
+      </c>
+      <c r="AD16">
+        <v>8</v>
+      </c>
+      <c r="AE16">
+        <v>13</v>
+      </c>
+      <c r="AF16" s="133">
+        <f>AF15*$D$2</f>
+        <v>66501.807575939514</v>
+      </c>
+      <c r="AH16">
+        <v>9</v>
+      </c>
+      <c r="AI16">
+        <v>13</v>
+      </c>
+      <c r="AJ16" s="133">
+        <f>AJ15*$D$2</f>
+        <v>176449.09342919625</v>
+      </c>
+      <c r="AL16">
+        <v>10</v>
+      </c>
+      <c r="AM16">
+        <v>13</v>
+      </c>
+      <c r="AN16" s="133">
+        <f>AN15*$D$2</f>
+        <v>468171.97467050026</v>
+      </c>
+      <c r="AP16">
+        <v>11</v>
+      </c>
+      <c r="AQ16">
+        <v>13</v>
+      </c>
+      <c r="AR16" s="133">
+        <f>AR15*$D$2</f>
+        <v>1242199.6260061713</v>
+      </c>
+      <c r="AT16">
+        <v>12</v>
+      </c>
+      <c r="AU16">
+        <v>13</v>
+      </c>
+      <c r="AV16" s="133">
+        <f>AV15*$D$2</f>
+        <v>3295925.4170134338</v>
+      </c>
+    </row>
+    <row r="17" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17" s="133">
+        <f>D16*$D$2</f>
+        <v>75.425965692929466</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17" s="133">
+        <f>H16*$D$2</f>
+        <v>200.12754168135169</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
+      <c r="L17" s="133">
+        <f>L16*$D$2</f>
+        <v>530.99794707932529</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>14</v>
+      </c>
+      <c r="P17" s="133">
+        <f>P16*$D$2</f>
+        <v>1408.8956344219735</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>14</v>
+      </c>
+      <c r="T17" s="133">
+        <f>T16*$D$2</f>
+        <v>3738.2195535998176</v>
+      </c>
+      <c r="V17">
+        <v>6</v>
+      </c>
+      <c r="W17">
+        <v>14</v>
+      </c>
+      <c r="X17" s="133">
+        <f>X16*$D$2</f>
+        <v>9918.6093628924009</v>
+      </c>
+      <c r="Z17">
+        <v>7</v>
+      </c>
+      <c r="AA17">
+        <v>14</v>
+      </c>
+      <c r="AB17" s="133">
+        <f>AB16*$D$2</f>
+        <v>26317.023460786397</v>
+      </c>
+      <c r="AD17">
+        <v>8</v>
+      </c>
+      <c r="AE17">
+        <v>14</v>
+      </c>
+      <c r="AF17" s="133">
+        <f>AF16*$D$2</f>
+        <v>69826.897954736487</v>
+      </c>
+      <c r="AH17">
+        <v>9</v>
+      </c>
+      <c r="AI17">
+        <v>14</v>
+      </c>
+      <c r="AJ17" s="133">
+        <f>AJ16*$D$2</f>
+        <v>185271.54810065607</v>
+      </c>
+      <c r="AL17">
+        <v>10</v>
+      </c>
+      <c r="AM17">
+        <v>14</v>
+      </c>
+      <c r="AN17" s="133">
+        <f>AN16*$D$2</f>
+        <v>491580.57340402529</v>
+      </c>
+      <c r="AP17">
+        <v>11</v>
+      </c>
+      <c r="AQ17">
+        <v>14</v>
+      </c>
+      <c r="AR17" s="133">
+        <f>AR16*$D$2</f>
+        <v>1304309.6073064799</v>
+      </c>
+      <c r="AT17">
+        <v>12</v>
+      </c>
+      <c r="AU17">
+        <v>14</v>
+      </c>
+      <c r="AV17" s="133">
+        <f>AV16*$D$2</f>
+        <v>3460721.6878641057</v>
+      </c>
+    </row>
+    <row r="18" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18" s="133">
+        <f>D17*$D$2</f>
+        <v>79.197263977575943</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18" s="133">
+        <f>H17*$D$2</f>
+        <v>210.13391876541928</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>15</v>
+      </c>
+      <c r="L18" s="133">
+        <f>L17*$D$2</f>
+        <v>557.54784443329163</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>15</v>
+      </c>
+      <c r="P18" s="133">
+        <f>P17*$D$2</f>
+        <v>1479.3404161430722</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>15</v>
+      </c>
+      <c r="T18" s="133">
+        <f>T17*$D$2</f>
+        <v>3925.1305312798086</v>
+      </c>
+      <c r="V18">
+        <v>6</v>
+      </c>
+      <c r="W18">
+        <v>15</v>
+      </c>
+      <c r="X18" s="133">
+        <f>X17*$D$2</f>
+        <v>10414.539831037022</v>
+      </c>
+      <c r="Z18">
+        <v>7</v>
+      </c>
+      <c r="AA18">
+        <v>15</v>
+      </c>
+      <c r="AB18" s="133">
+        <f>AB17*$D$2</f>
+        <v>27632.874633825719</v>
+      </c>
+      <c r="AD18">
+        <v>8</v>
+      </c>
+      <c r="AE18">
+        <v>15</v>
+      </c>
+      <c r="AF18" s="133">
+        <f>AF17*$D$2</f>
+        <v>73318.242852473311</v>
+      </c>
+      <c r="AH18">
+        <v>9</v>
+      </c>
+      <c r="AI18">
+        <v>15</v>
+      </c>
+      <c r="AJ18" s="133">
+        <f>AJ17*$D$2</f>
+        <v>194535.12550568889</v>
+      </c>
+      <c r="AL18">
+        <v>10</v>
+      </c>
+      <c r="AM18">
+        <v>15</v>
+      </c>
+      <c r="AN18" s="133">
+        <f>AN17*$D$2</f>
+        <v>516159.6020742266</v>
+      </c>
+      <c r="AP18">
+        <v>11</v>
+      </c>
+      <c r="AQ18">
+        <v>15</v>
+      </c>
+      <c r="AR18" s="133">
+        <f>AR17*$D$2</f>
+        <v>1369525.087671804</v>
+      </c>
+      <c r="AT18">
+        <v>12</v>
+      </c>
+      <c r="AU18">
+        <v>15</v>
+      </c>
+      <c r="AV18" s="133">
+        <f>AV17*$D$2</f>
+        <v>3633757.7722573113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19" s="133">
+        <f>D18*$D$2</f>
+        <v>83.15712717645475</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19" s="133">
+        <f>H18*$D$2</f>
+        <v>220.64061470369026</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>16</v>
+      </c>
+      <c r="L19" s="133">
+        <f>L18*$D$2</f>
+        <v>585.42523665495628</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>16</v>
+      </c>
+      <c r="P19" s="133">
+        <f>P18*$D$2</f>
+        <v>1553.3074369502258</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>16</v>
+      </c>
+      <c r="T19" s="133">
+        <f>T18*$D$2</f>
+        <v>4121.3870578437991</v>
+      </c>
+      <c r="V19">
+        <v>6</v>
+      </c>
+      <c r="W19">
+        <v>16</v>
+      </c>
+      <c r="X19" s="133">
+        <f>X18*$D$2</f>
+        <v>10935.266822588874</v>
+      </c>
+      <c r="Z19">
+        <v>7</v>
+      </c>
+      <c r="AA19">
+        <v>16</v>
+      </c>
+      <c r="AB19" s="133">
+        <f>AB18*$D$2</f>
+        <v>29014.518365517008</v>
+      </c>
+      <c r="AD19">
+        <v>8</v>
+      </c>
+      <c r="AE19">
+        <v>16</v>
+      </c>
+      <c r="AF19" s="133">
+        <f>AF18*$D$2</f>
+        <v>76984.154995096978</v>
+      </c>
+      <c r="AH19">
+        <v>9</v>
+      </c>
+      <c r="AI19">
+        <v>16</v>
+      </c>
+      <c r="AJ19" s="133">
+        <f>AJ18*$D$2</f>
+        <v>204261.88178097334</v>
+      </c>
+      <c r="AL19">
+        <v>10</v>
+      </c>
+      <c r="AM19">
+        <v>16</v>
+      </c>
+      <c r="AN19" s="133">
+        <f>AN18*$D$2</f>
+        <v>541967.58217793796</v>
+      </c>
+      <c r="AP19">
+        <v>11</v>
+      </c>
+      <c r="AQ19">
+        <v>16</v>
+      </c>
+      <c r="AR19" s="133">
+        <f>AR18*$D$2</f>
+        <v>1438001.3420553943</v>
+      </c>
+      <c r="AT19">
+        <v>12</v>
+      </c>
+      <c r="AU19">
+        <v>16</v>
+      </c>
+      <c r="AV19" s="133">
+        <f>AV18*$D$2</f>
+        <v>3815445.6608701772</v>
+      </c>
+    </row>
+    <row r="20" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20" s="133">
+        <f>D19*$D$2</f>
+        <v>87.314983535277491</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
+      <c r="H20" s="133">
+        <f>H19*$D$2</f>
+        <v>231.67264543887478</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>17</v>
+      </c>
+      <c r="L20" s="133">
+        <f>L19*$D$2</f>
+        <v>614.69649848770416</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>17</v>
+      </c>
+      <c r="P20" s="133">
+        <f>P19*$D$2</f>
+        <v>1630.9728087977371</v>
+      </c>
+      <c r="R20">
+        <v>5</v>
+      </c>
+      <c r="S20">
+        <v>17</v>
+      </c>
+      <c r="T20" s="133">
+        <f>T19*$D$2</f>
+        <v>4327.4564107359893</v>
+      </c>
+      <c r="V20">
+        <v>6</v>
+      </c>
+      <c r="W20">
+        <v>17</v>
+      </c>
+      <c r="X20" s="133">
+        <f>X19*$D$2</f>
+        <v>11482.030163718318</v>
+      </c>
+      <c r="Z20">
+        <v>7</v>
+      </c>
+      <c r="AA20">
+        <v>17</v>
+      </c>
+      <c r="AB20" s="133">
+        <f>AB19*$D$2</f>
+        <v>30465.244283792861</v>
+      </c>
+      <c r="AD20">
+        <v>8</v>
+      </c>
+      <c r="AE20">
+        <v>17</v>
+      </c>
+      <c r="AF20" s="133">
+        <f>AF19*$D$2</f>
+        <v>80833.362744851824</v>
+      </c>
+      <c r="AH20">
+        <v>9</v>
+      </c>
+      <c r="AI20">
+        <v>17</v>
+      </c>
+      <c r="AJ20" s="133">
+        <f>AJ19*$D$2</f>
+        <v>214474.97587002203</v>
+      </c>
+      <c r="AL20">
+        <v>10</v>
+      </c>
+      <c r="AM20">
+        <v>17</v>
+      </c>
+      <c r="AN20" s="133">
+        <f>AN19*$D$2</f>
+        <v>569065.96128683491</v>
+      </c>
+      <c r="AP20">
+        <v>11</v>
+      </c>
+      <c r="AQ20">
+        <v>17</v>
+      </c>
+      <c r="AR20" s="133">
+        <f>AR19*$D$2</f>
+        <v>1509901.4091581642</v>
+      </c>
+      <c r="AT20">
+        <v>12</v>
+      </c>
+      <c r="AU20">
+        <v>17</v>
+      </c>
+      <c r="AV20" s="133">
+        <f>AV19*$D$2</f>
+        <v>4006217.9439136861</v>
+      </c>
+    </row>
+    <row r="21" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21" s="133">
+        <f>D20*$D$2</f>
+        <v>91.680732712041376</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="H21" s="133">
+        <f>H20*$D$2</f>
+        <v>243.25627771081852</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>18</v>
+      </c>
+      <c r="L21" s="133">
+        <f>L20*$D$2</f>
+        <v>645.43132341208934</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>18</v>
+      </c>
+      <c r="P21" s="133">
+        <f>P20*$D$2</f>
+        <v>1712.521449237624</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
+      <c r="S21">
+        <v>18</v>
+      </c>
+      <c r="T21" s="133">
+        <f>T20*$D$2</f>
+        <v>4543.829231272789</v>
+      </c>
+      <c r="V21">
+        <v>6</v>
+      </c>
+      <c r="W21">
+        <v>18</v>
+      </c>
+      <c r="X21" s="133">
+        <f>X20*$D$2</f>
+        <v>12056.131671904235</v>
+      </c>
+      <c r="Z21">
+        <v>7</v>
+      </c>
+      <c r="AA21">
+        <v>18</v>
+      </c>
+      <c r="AB21" s="133">
+        <f>AB20*$D$2</f>
+        <v>31988.506497982504</v>
+      </c>
+      <c r="AD21">
+        <v>8</v>
+      </c>
+      <c r="AE21">
+        <v>18</v>
+      </c>
+      <c r="AF21" s="133">
+        <f>AF20*$D$2</f>
+        <v>84875.030882094419</v>
+      </c>
+      <c r="AH21">
+        <v>9</v>
+      </c>
+      <c r="AI21">
+        <v>18</v>
+      </c>
+      <c r="AJ21" s="133">
+        <f>AJ20*$D$2</f>
+        <v>225198.72466352314</v>
+      </c>
+      <c r="AL21">
+        <v>10</v>
+      </c>
+      <c r="AM21">
+        <v>18</v>
+      </c>
+      <c r="AN21" s="133">
+        <f>AN20*$D$2</f>
+        <v>597519.25935117668</v>
+      </c>
+      <c r="AP21">
+        <v>11</v>
+      </c>
+      <c r="AQ21">
+        <v>18</v>
+      </c>
+      <c r="AR21" s="133">
+        <f>AR20*$D$2</f>
+        <v>1585396.4796160725</v>
+      </c>
+      <c r="AT21">
+        <v>12</v>
+      </c>
+      <c r="AU21">
+        <v>18</v>
+      </c>
+      <c r="AV21" s="133">
+        <f>AV20*$D$2</f>
+        <v>4206528.8411093708</v>
+      </c>
+    </row>
+    <row r="22" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22" s="133">
+        <f>D21*$D$2</f>
+        <v>96.264769347643451</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>19</v>
+      </c>
+      <c r="H22" s="133">
+        <f>H21*$D$2</f>
+        <v>255.41909159635946</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>19</v>
+      </c>
+      <c r="L22" s="133">
+        <f>L21*$D$2</f>
+        <v>677.70288958269384</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>19</v>
+      </c>
+      <c r="P22" s="133">
+        <f>P21*$D$2</f>
+        <v>1798.1475216995052</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <v>19</v>
+      </c>
+      <c r="T22" s="133">
+        <f>T21*$D$2</f>
+        <v>4771.0206928364287</v>
+      </c>
+      <c r="V22">
+        <v>6</v>
+      </c>
+      <c r="W22">
+        <v>19</v>
+      </c>
+      <c r="X22" s="133">
+        <f>X21*$D$2</f>
+        <v>12658.938255499448</v>
+      </c>
+      <c r="Z22">
+        <v>7</v>
+      </c>
+      <c r="AA22">
+        <v>19</v>
+      </c>
+      <c r="AB22" s="133">
+        <f>AB21*$D$2</f>
+        <v>33587.931822881634</v>
+      </c>
+      <c r="AD22">
+        <v>8</v>
+      </c>
+      <c r="AE22">
+        <v>19</v>
+      </c>
+      <c r="AF22" s="133">
+        <f>AF21*$D$2</f>
+        <v>89118.782426199148</v>
+      </c>
+      <c r="AH22">
+        <v>9</v>
+      </c>
+      <c r="AI22">
+        <v>19</v>
+      </c>
+      <c r="AJ22" s="133">
+        <f>AJ21*$D$2</f>
+        <v>236458.66089669932</v>
+      </c>
+      <c r="AL22">
+        <v>10</v>
+      </c>
+      <c r="AM22">
+        <v>19</v>
+      </c>
+      <c r="AN22" s="133">
+        <f>AN21*$D$2</f>
+        <v>627395.22231873556</v>
+      </c>
+      <c r="AP22">
+        <v>11</v>
+      </c>
+      <c r="AQ22">
+        <v>19</v>
+      </c>
+      <c r="AR22" s="133">
+        <f>AR21*$D$2</f>
+        <v>1664666.3035968761</v>
+      </c>
+      <c r="AT22">
+        <v>12</v>
+      </c>
+      <c r="AU22">
+        <v>19</v>
+      </c>
+      <c r="AV22" s="133">
+        <f>AV21*$D$2</f>
+        <v>4416855.2831648393</v>
+      </c>
+    </row>
+    <row r="23" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" s="133">
+        <f>D22*$D$2</f>
+        <v>101.07800781502563</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23" s="133">
+        <f>H22*$D$2</f>
+        <v>268.19004617617747</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="L23" s="133">
+        <f>L22*$D$2</f>
+        <v>711.58803406182858</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>20</v>
+      </c>
+      <c r="P23" s="133">
+        <f>P22*$D$2</f>
+        <v>1888.0548977844805</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23">
+        <v>20</v>
+      </c>
+      <c r="T23" s="133">
+        <f>T22*$D$2</f>
+        <v>5009.5717274782501</v>
+      </c>
+      <c r="V23">
+        <v>6</v>
+      </c>
+      <c r="W23">
+        <v>20</v>
+      </c>
+      <c r="X23" s="133">
+        <f>X22*$D$2</f>
+        <v>13291.885168274421</v>
+      </c>
+      <c r="Z23">
+        <v>7</v>
+      </c>
+      <c r="AA23">
+        <v>20</v>
+      </c>
+      <c r="AB23" s="133">
+        <f>AB22*$D$2</f>
+        <v>35267.328414025716</v>
+      </c>
+      <c r="AD23">
+        <v>8</v>
+      </c>
+      <c r="AE23">
+        <v>20</v>
+      </c>
+      <c r="AF23" s="133">
+        <f>AF22*$D$2</f>
+        <v>93574.721547509107</v>
+      </c>
+      <c r="AH23">
+        <v>9</v>
+      </c>
+      <c r="AI23">
+        <v>20</v>
+      </c>
+      <c r="AJ23" s="133">
+        <f>AJ22*$D$2</f>
+        <v>248281.59394153429</v>
+      </c>
+      <c r="AL23">
+        <v>10</v>
+      </c>
+      <c r="AM23">
+        <v>20</v>
+      </c>
+      <c r="AN23" s="133">
+        <f>AN22*$D$2</f>
+        <v>658764.98343467235</v>
+      </c>
+      <c r="AP23">
+        <v>11</v>
+      </c>
+      <c r="AQ23">
+        <v>20</v>
+      </c>
+      <c r="AR23" s="133">
+        <f>AR22*$D$2</f>
+        <v>1747899.61877672</v>
+      </c>
+      <c r="AT23">
+        <v>12</v>
+      </c>
+      <c r="AU23">
+        <v>20</v>
+      </c>
+      <c r="AV23" s="133">
+        <f>AV22*$D$2</f>
+        <v>4637698.0473230816</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/XXX_LotSize.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5AA8A6-8234-463D-8EC2-0876E59D2B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152256CF-CCC0-4B4E-9962-F01C3AD3F3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,6 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0;\-0;;\ @"/>
@@ -395,6 +394,7 @@
     <numFmt numFmtId="183" formatCode="0.00000_ "/>
     <numFmt numFmtId="184" formatCode="#,##0.00000_);\(#,##0.00000\)"/>
     <numFmt numFmtId="185" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="186" formatCode="\$#,##0;\-\$#,##0"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1238,7 +1238,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1566,6 +1566,12 @@
     <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="28" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="186" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="21" fillId="7" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1588,11 +1594,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="28" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3015,19 +3016,19 @@
       </c>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
-      <c r="K2" s="128" t="s">
+      <c r="K2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128" t="s">
+      <c r="L2" s="132"/>
+      <c r="M2" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128" t="s">
+      <c r="N2" s="132"/>
+      <c r="O2" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
       <c r="R2" s="35"/>
       <c r="S2" s="35"/>
       <c r="T2" s="35"/>
@@ -3052,22 +3053,22 @@
       <c r="J3" s="18">
         <v>1</v>
       </c>
-      <c r="K3" s="125">
+      <c r="K3" s="129">
         <f>SUM('Bảng Input L30'!C13:C37)</f>
         <v>489.30893156781087</v>
       </c>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126">
+      <c r="L3" s="129"/>
+      <c r="M3" s="130">
         <f>K3*90</f>
         <v>44037.803841102977</v>
       </c>
-      <c r="N3" s="126"/>
-      <c r="O3" s="127">
+      <c r="N3" s="130"/>
+      <c r="O3" s="131">
         <f>M3+'Bảng Input L30'!D35</f>
         <v>241816.49784102643</v>
       </c>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
       <c r="R3" s="102">
         <f>O3*2</f>
         <v>483632.99568205286</v>
@@ -7172,19 +7173,19 @@
       </c>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
-      <c r="K2" s="128" t="s">
+      <c r="K2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128" t="s">
+      <c r="L2" s="132"/>
+      <c r="M2" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128" t="s">
+      <c r="N2" s="132"/>
+      <c r="O2" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
       <c r="R2" s="35"/>
       <c r="S2" s="35"/>
       <c r="T2" s="35"/>
@@ -7207,22 +7208,22 @@
       <c r="H3" s="25"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
-      <c r="K3" s="125">
+      <c r="K3" s="129">
         <f>SUM(GBPJPY!C13:C37)</f>
         <v>12.759243790619122</v>
       </c>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126">
+      <c r="L3" s="129"/>
+      <c r="M3" s="130">
         <f>K3*91</f>
         <v>1161.09118494634</v>
       </c>
-      <c r="N3" s="126"/>
-      <c r="O3" s="127">
+      <c r="N3" s="130"/>
+      <c r="O3" s="131">
         <f>M3+GBPJPY!D35</f>
         <v>1339.9022866437358</v>
       </c>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
       <c r="R3" s="102">
         <f>O3*2</f>
         <v>2679.8045732874716</v>
@@ -11223,11 +11224,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
       <c r="E1" s="11" t="s">
         <v>50</v>
       </c>
@@ -11242,11 +11243,11 @@
       </c>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="130"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="58"/>
       <c r="F2" s="12" t="s">
         <v>84</v>
@@ -11296,9 +11297,9 @@
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="130"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
       <c r="E3" s="58"/>
       <c r="F3" s="58" t="s">
         <v>83</v>
@@ -11362,11 +11363,11 @@
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="132"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="136"/>
       <c r="E4" s="13" t="s">
         <v>13</v>
       </c>
@@ -13638,9 +13639,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF39EB4-41C7-4E4A-8227-183AC99C598A}">
-  <dimension ref="A1:AV23"/>
+  <dimension ref="A1:AV46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="AJ27" sqref="AJ27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -13680,12 +13683,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="126" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="D2" s="134">
+      <c r="D2" s="125">
         <v>1.05</v>
       </c>
     </row>
@@ -13696,7 +13699,7 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="133">
+      <c r="D4" s="127">
         <v>40</v>
       </c>
       <c r="F4">
@@ -13705,7 +13708,7 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="133">
+      <c r="H4" s="127">
         <f>D23*$D$2</f>
         <v>106.13190820577691</v>
       </c>
@@ -13715,7 +13718,7 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" s="133">
+      <c r="L4" s="127">
         <f>H23*$D$2</f>
         <v>281.59954848498637</v>
       </c>
@@ -13725,7 +13728,7 @@
       <c r="O4">
         <v>1</v>
       </c>
-      <c r="P4" s="133">
+      <c r="P4" s="127">
         <f>L23*$D$2</f>
         <v>747.16743576492001</v>
       </c>
@@ -13735,7 +13738,7 @@
       <c r="S4">
         <v>1</v>
       </c>
-      <c r="T4" s="133">
+      <c r="T4" s="127">
         <f>P23*$D$2</f>
         <v>1982.4576426737046</v>
       </c>
@@ -13745,7 +13748,7 @@
       <c r="W4">
         <v>1</v>
       </c>
-      <c r="X4" s="133">
+      <c r="X4" s="127">
         <f>T23*$D$2</f>
         <v>5260.0503138521626</v>
       </c>
@@ -13755,7 +13758,7 @@
       <c r="AA4">
         <v>1</v>
       </c>
-      <c r="AB4" s="133">
+      <c r="AB4" s="127">
         <f>X23*$D$2</f>
         <v>13956.479426688142</v>
       </c>
@@ -13765,7 +13768,7 @@
       <c r="AE4">
         <v>1</v>
       </c>
-      <c r="AF4" s="133">
+      <c r="AF4" s="127">
         <f>AB23*$D$2</f>
         <v>37030.694834727001</v>
       </c>
@@ -13775,7 +13778,7 @@
       <c r="AI4">
         <v>1</v>
       </c>
-      <c r="AJ4" s="133">
+      <c r="AJ4" s="127">
         <f>AF23*$D$2</f>
         <v>98253.45762488457</v>
       </c>
@@ -13785,7 +13788,7 @@
       <c r="AM4">
         <v>1</v>
       </c>
-      <c r="AN4" s="133">
+      <c r="AN4" s="127">
         <f>AJ23*$D$2</f>
         <v>260695.67363861101</v>
       </c>
@@ -13795,7 +13798,7 @@
       <c r="AQ4">
         <v>1</v>
       </c>
-      <c r="AR4" s="133">
+      <c r="AR4" s="127">
         <f>AN23*$D$2</f>
         <v>691703.23260640597</v>
       </c>
@@ -13805,7 +13808,7 @@
       <c r="AU4">
         <v>1</v>
       </c>
-      <c r="AV4" s="133">
+      <c r="AV4" s="127">
         <f>AR23*$D$2</f>
         <v>1835294.599715556</v>
       </c>
@@ -13817,8 +13820,8 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="133">
-        <f>D4*$D$2</f>
+      <c r="D5" s="127">
+        <f t="shared" ref="D5:D23" si="0">D4*$D$2</f>
         <v>42</v>
       </c>
       <c r="F5">
@@ -13827,8 +13830,8 @@
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5" s="133">
-        <f>H4*$D$2</f>
+      <c r="H5" s="127">
+        <f t="shared" ref="H5:H23" si="1">H4*$D$2</f>
         <v>111.43850361606576</v>
       </c>
       <c r="J5">
@@ -13837,8 +13840,8 @@
       <c r="K5">
         <v>2</v>
       </c>
-      <c r="L5" s="133">
-        <f>L4*$D$2</f>
+      <c r="L5" s="127">
+        <f t="shared" ref="L5:L23" si="2">L4*$D$2</f>
         <v>295.67952590923568</v>
       </c>
       <c r="N5">
@@ -13847,8 +13850,8 @@
       <c r="O5">
         <v>2</v>
       </c>
-      <c r="P5" s="133">
-        <f>P4*$D$2</f>
+      <c r="P5" s="127">
+        <f t="shared" ref="P5:P23" si="3">P4*$D$2</f>
         <v>784.52580755316603</v>
       </c>
       <c r="R5">
@@ -13857,8 +13860,8 @@
       <c r="S5">
         <v>2</v>
       </c>
-      <c r="T5" s="133">
-        <f>T4*$D$2</f>
+      <c r="T5" s="127">
+        <f t="shared" ref="T5:T23" si="4">T4*$D$2</f>
         <v>2081.5805248073898</v>
       </c>
       <c r="V5">
@@ -13867,8 +13870,8 @@
       <c r="W5">
         <v>2</v>
       </c>
-      <c r="X5" s="133">
-        <f>X4*$D$2</f>
+      <c r="X5" s="127">
+        <f t="shared" ref="X5:X23" si="5">X4*$D$2</f>
         <v>5523.0528295447712</v>
       </c>
       <c r="Z5">
@@ -13877,8 +13880,8 @@
       <c r="AA5">
         <v>2</v>
       </c>
-      <c r="AB5" s="133">
-        <f>AB4*$D$2</f>
+      <c r="AB5" s="127">
+        <f t="shared" ref="AB5:AB23" si="6">AB4*$D$2</f>
         <v>14654.30339802255</v>
       </c>
       <c r="AD5">
@@ -13887,8 +13890,8 @@
       <c r="AE5">
         <v>2</v>
       </c>
-      <c r="AF5" s="133">
-        <f>AF4*$D$2</f>
+      <c r="AF5" s="127">
+        <f t="shared" ref="AF5:AF23" si="7">AF4*$D$2</f>
         <v>38882.229576463353</v>
       </c>
       <c r="AH5">
@@ -13897,8 +13900,8 @@
       <c r="AI5">
         <v>2</v>
       </c>
-      <c r="AJ5" s="133">
-        <f>AJ4*$D$2</f>
+      <c r="AJ5" s="127">
+        <f t="shared" ref="AJ5:AJ23" si="8">AJ4*$D$2</f>
         <v>103166.1305061288</v>
       </c>
       <c r="AL5">
@@ -13907,8 +13910,8 @@
       <c r="AM5">
         <v>2</v>
       </c>
-      <c r="AN5" s="133">
-        <f>AN4*$D$2</f>
+      <c r="AN5" s="127">
+        <f t="shared" ref="AN5:AN23" si="9">AN4*$D$2</f>
         <v>273730.45732054155</v>
       </c>
       <c r="AP5">
@@ -13917,8 +13920,8 @@
       <c r="AQ5">
         <v>2</v>
       </c>
-      <c r="AR5" s="133">
-        <f>AR4*$D$2</f>
+      <c r="AR5" s="127">
+        <f t="shared" ref="AR5:AR23" si="10">AR4*$D$2</f>
         <v>726288.39423672634</v>
       </c>
       <c r="AT5">
@@ -13927,8 +13930,8 @@
       <c r="AU5">
         <v>2</v>
       </c>
-      <c r="AV5" s="133">
-        <f>AV4*$D$2</f>
+      <c r="AV5" s="127">
+        <f t="shared" ref="AV5:AV23" si="11">AV4*$D$2</f>
         <v>1927059.329701334</v>
       </c>
     </row>
@@ -13939,8 +13942,8 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="133">
-        <f>D5*$D$2</f>
+      <c r="D6" s="127">
+        <f t="shared" si="0"/>
         <v>44.1</v>
       </c>
       <c r="F6">
@@ -13949,8 +13952,8 @@
       <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6" s="133">
-        <f>H5*$D$2</f>
+      <c r="H6" s="127">
+        <f t="shared" si="1"/>
         <v>117.01042879686905</v>
       </c>
       <c r="J6">
@@ -13959,8 +13962,8 @@
       <c r="K6">
         <v>3</v>
       </c>
-      <c r="L6" s="133">
-        <f>L5*$D$2</f>
+      <c r="L6" s="127">
+        <f t="shared" si="2"/>
         <v>310.46350220469748</v>
       </c>
       <c r="N6">
@@ -13969,8 +13972,8 @@
       <c r="O6">
         <v>3</v>
       </c>
-      <c r="P6" s="133">
-        <f>P5*$D$2</f>
+      <c r="P6" s="127">
+        <f t="shared" si="3"/>
         <v>823.75209793082433</v>
       </c>
       <c r="R6">
@@ -13979,8 +13982,8 @@
       <c r="S6">
         <v>3</v>
       </c>
-      <c r="T6" s="133">
-        <f>T5*$D$2</f>
+      <c r="T6" s="127">
+        <f t="shared" si="4"/>
         <v>2185.6595510477596</v>
       </c>
       <c r="V6">
@@ -13989,8 +13992,8 @@
       <c r="W6">
         <v>3</v>
       </c>
-      <c r="X6" s="133">
-        <f>X5*$D$2</f>
+      <c r="X6" s="127">
+        <f t="shared" si="5"/>
         <v>5799.20547102201</v>
       </c>
       <c r="Z6">
@@ -13999,8 +14002,8 @@
       <c r="AA6">
         <v>3</v>
       </c>
-      <c r="AB6" s="133">
-        <f>AB5*$D$2</f>
+      <c r="AB6" s="127">
+        <f t="shared" si="6"/>
         <v>15387.018567923678</v>
       </c>
       <c r="AD6">
@@ -14009,8 +14012,8 @@
       <c r="AE6">
         <v>3</v>
       </c>
-      <c r="AF6" s="133">
-        <f>AF5*$D$2</f>
+      <c r="AF6" s="127">
+        <f t="shared" si="7"/>
         <v>40826.341055286524</v>
       </c>
       <c r="AH6">
@@ -14019,8 +14022,8 @@
       <c r="AI6">
         <v>3</v>
       </c>
-      <c r="AJ6" s="133">
-        <f>AJ5*$D$2</f>
+      <c r="AJ6" s="127">
+        <f t="shared" si="8"/>
         <v>108324.43703143524</v>
       </c>
       <c r="AL6">
@@ -14029,8 +14032,8 @@
       <c r="AM6">
         <v>3</v>
       </c>
-      <c r="AN6" s="133">
-        <f>AN5*$D$2</f>
+      <c r="AN6" s="127">
+        <f t="shared" si="9"/>
         <v>287416.98018656863</v>
       </c>
       <c r="AP6">
@@ -14039,8 +14042,8 @@
       <c r="AQ6">
         <v>3</v>
       </c>
-      <c r="AR6" s="133">
-        <f>AR5*$D$2</f>
+      <c r="AR6" s="127">
+        <f t="shared" si="10"/>
         <v>762602.81394856272</v>
       </c>
       <c r="AT6">
@@ -14049,8 +14052,8 @@
       <c r="AU6">
         <v>3</v>
       </c>
-      <c r="AV6" s="133">
-        <f>AV5*$D$2</f>
+      <c r="AV6" s="127">
+        <f t="shared" si="11"/>
         <v>2023412.2961864008</v>
       </c>
     </row>
@@ -14061,8 +14064,8 @@
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="133">
-        <f>D6*$D$2</f>
+      <c r="D7" s="127">
+        <f t="shared" si="0"/>
         <v>46.305000000000007</v>
       </c>
       <c r="F7">
@@ -14071,8 +14074,8 @@
       <c r="G7">
         <v>4</v>
       </c>
-      <c r="H7" s="133">
-        <f>H6*$D$2</f>
+      <c r="H7" s="127">
+        <f t="shared" si="1"/>
         <v>122.86095023671251</v>
       </c>
       <c r="J7">
@@ -14081,8 +14084,8 @@
       <c r="K7">
         <v>4</v>
       </c>
-      <c r="L7" s="133">
-        <f>L6*$D$2</f>
+      <c r="L7" s="127">
+        <f t="shared" si="2"/>
         <v>325.98667731493236</v>
       </c>
       <c r="N7">
@@ -14091,8 +14094,8 @@
       <c r="O7">
         <v>4</v>
       </c>
-      <c r="P7" s="133">
-        <f>P6*$D$2</f>
+      <c r="P7" s="127">
+        <f t="shared" si="3"/>
         <v>864.93970282736564</v>
       </c>
       <c r="R7">
@@ -14101,8 +14104,8 @@
       <c r="S7">
         <v>4</v>
       </c>
-      <c r="T7" s="133">
-        <f>T6*$D$2</f>
+      <c r="T7" s="127">
+        <f t="shared" si="4"/>
         <v>2294.9425286001479</v>
       </c>
       <c r="V7">
@@ -14111,8 +14114,8 @@
       <c r="W7">
         <v>4</v>
       </c>
-      <c r="X7" s="133">
-        <f>X6*$D$2</f>
+      <c r="X7" s="127">
+        <f t="shared" si="5"/>
         <v>6089.1657445731107</v>
       </c>
       <c r="Z7">
@@ -14121,8 +14124,8 @@
       <c r="AA7">
         <v>4</v>
       </c>
-      <c r="AB7" s="133">
-        <f>AB6*$D$2</f>
+      <c r="AB7" s="127">
+        <f t="shared" si="6"/>
         <v>16156.369496319863</v>
       </c>
       <c r="AD7">
@@ -14131,8 +14134,8 @@
       <c r="AE7">
         <v>4</v>
       </c>
-      <c r="AF7" s="133">
-        <f>AF6*$D$2</f>
+      <c r="AF7" s="127">
+        <f t="shared" si="7"/>
         <v>42867.658108050855</v>
       </c>
       <c r="AH7">
@@ -14141,8 +14144,8 @@
       <c r="AI7">
         <v>4</v>
       </c>
-      <c r="AJ7" s="133">
-        <f>AJ6*$D$2</f>
+      <c r="AJ7" s="127">
+        <f t="shared" si="8"/>
         <v>113740.65888300701</v>
       </c>
       <c r="AL7">
@@ -14151,8 +14154,8 @@
       <c r="AM7">
         <v>4</v>
       </c>
-      <c r="AN7" s="133">
-        <f>AN6*$D$2</f>
+      <c r="AN7" s="127">
+        <f t="shared" si="9"/>
         <v>301787.82919589709</v>
       </c>
       <c r="AP7">
@@ -14161,8 +14164,8 @@
       <c r="AQ7">
         <v>4</v>
       </c>
-      <c r="AR7" s="133">
-        <f>AR6*$D$2</f>
+      <c r="AR7" s="127">
+        <f t="shared" si="10"/>
         <v>800732.95464599086</v>
       </c>
       <c r="AT7">
@@ -14171,8 +14174,8 @@
       <c r="AU7">
         <v>4</v>
       </c>
-      <c r="AV7" s="133">
-        <f>AV6*$D$2</f>
+      <c r="AV7" s="127">
+        <f t="shared" si="11"/>
         <v>2124582.9109957209</v>
       </c>
     </row>
@@ -14183,8 +14186,8 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" s="133">
-        <f>D7*$D$2</f>
+      <c r="D8" s="127">
+        <f t="shared" si="0"/>
         <v>48.620250000000006</v>
       </c>
       <c r="F8">
@@ -14193,8 +14196,8 @@
       <c r="G8">
         <v>5</v>
       </c>
-      <c r="H8" s="133">
-        <f>H7*$D$2</f>
+      <c r="H8" s="127">
+        <f t="shared" si="1"/>
         <v>129.00399774854813</v>
       </c>
       <c r="J8">
@@ -14203,8 +14206,8 @@
       <c r="K8">
         <v>5</v>
       </c>
-      <c r="L8" s="133">
-        <f>L7*$D$2</f>
+      <c r="L8" s="127">
+        <f t="shared" si="2"/>
         <v>342.286011180679</v>
       </c>
       <c r="N8">
@@ -14213,8 +14216,8 @@
       <c r="O8">
         <v>5</v>
       </c>
-      <c r="P8" s="133">
-        <f>P7*$D$2</f>
+      <c r="P8" s="127">
+        <f t="shared" si="3"/>
         <v>908.18668796873396</v>
       </c>
       <c r="R8">
@@ -14223,8 +14226,8 @@
       <c r="S8">
         <v>5</v>
       </c>
-      <c r="T8" s="133">
-        <f>T7*$D$2</f>
+      <c r="T8" s="127">
+        <f t="shared" si="4"/>
         <v>2409.6896550301553</v>
       </c>
       <c r="V8">
@@ -14233,8 +14236,8 @@
       <c r="W8">
         <v>5</v>
       </c>
-      <c r="X8" s="133">
-        <f>X7*$D$2</f>
+      <c r="X8" s="127">
+        <f t="shared" si="5"/>
         <v>6393.6240318017663</v>
       </c>
       <c r="Z8">
@@ -14243,8 +14246,8 @@
       <c r="AA8">
         <v>5</v>
       </c>
-      <c r="AB8" s="133">
-        <f>AB7*$D$2</f>
+      <c r="AB8" s="127">
+        <f t="shared" si="6"/>
         <v>16964.187971135856</v>
       </c>
       <c r="AD8">
@@ -14253,8 +14256,8 @@
       <c r="AE8">
         <v>5</v>
       </c>
-      <c r="AF8" s="133">
-        <f>AF7*$D$2</f>
+      <c r="AF8" s="127">
+        <f t="shared" si="7"/>
         <v>45011.041013453403</v>
       </c>
       <c r="AH8">
@@ -14263,8 +14266,8 @@
       <c r="AI8">
         <v>5</v>
       </c>
-      <c r="AJ8" s="133">
-        <f>AJ7*$D$2</f>
+      <c r="AJ8" s="127">
+        <f t="shared" si="8"/>
         <v>119427.69182715737</v>
       </c>
       <c r="AL8">
@@ -14273,8 +14276,8 @@
       <c r="AM8">
         <v>5</v>
       </c>
-      <c r="AN8" s="133">
-        <f>AN7*$D$2</f>
+      <c r="AN8" s="127">
+        <f t="shared" si="9"/>
         <v>316877.22065569198</v>
       </c>
       <c r="AP8">
@@ -14283,8 +14286,8 @@
       <c r="AQ8">
         <v>5</v>
       </c>
-      <c r="AR8" s="133">
-        <f>AR7*$D$2</f>
+      <c r="AR8" s="127">
+        <f t="shared" si="10"/>
         <v>840769.6023782905</v>
       </c>
       <c r="AT8">
@@ -14293,8 +14296,8 @@
       <c r="AU8">
         <v>5</v>
       </c>
-      <c r="AV8" s="133">
-        <f>AV7*$D$2</f>
+      <c r="AV8" s="127">
+        <f t="shared" si="11"/>
         <v>2230812.0565455072</v>
       </c>
     </row>
@@ -14305,8 +14308,8 @@
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" s="133">
-        <f>D8*$D$2</f>
+      <c r="D9" s="127">
+        <f t="shared" si="0"/>
         <v>51.051262500000007</v>
       </c>
       <c r="F9">
@@ -14315,8 +14318,8 @@
       <c r="G9">
         <v>6</v>
       </c>
-      <c r="H9" s="133">
-        <f>H8*$D$2</f>
+      <c r="H9" s="127">
+        <f t="shared" si="1"/>
         <v>135.45419763597553</v>
       </c>
       <c r="J9">
@@ -14325,8 +14328,8 @@
       <c r="K9">
         <v>6</v>
       </c>
-      <c r="L9" s="133">
-        <f>L8*$D$2</f>
+      <c r="L9" s="127">
+        <f t="shared" si="2"/>
         <v>359.40031173971295</v>
       </c>
       <c r="N9">
@@ -14335,8 +14338,8 @@
       <c r="O9">
         <v>6</v>
       </c>
-      <c r="P9" s="133">
-        <f>P8*$D$2</f>
+      <c r="P9" s="127">
+        <f t="shared" si="3"/>
         <v>953.59602236717069</v>
       </c>
       <c r="R9">
@@ -14345,8 +14348,8 @@
       <c r="S9">
         <v>6</v>
       </c>
-      <c r="T9" s="133">
-        <f>T8*$D$2</f>
+      <c r="T9" s="127">
+        <f t="shared" si="4"/>
         <v>2530.1741377816634</v>
       </c>
       <c r="V9">
@@ -14355,8 +14358,8 @@
       <c r="W9">
         <v>6</v>
       </c>
-      <c r="X9" s="133">
-        <f>X8*$D$2</f>
+      <c r="X9" s="127">
+        <f t="shared" si="5"/>
         <v>6713.3052333918549</v>
       </c>
       <c r="Z9">
@@ -14365,8 +14368,8 @@
       <c r="AA9">
         <v>6</v>
       </c>
-      <c r="AB9" s="133">
-        <f>AB8*$D$2</f>
+      <c r="AB9" s="127">
+        <f t="shared" si="6"/>
         <v>17812.397369692651</v>
       </c>
       <c r="AD9">
@@ -14375,8 +14378,8 @@
       <c r="AE9">
         <v>6</v>
       </c>
-      <c r="AF9" s="133">
-        <f>AF8*$D$2</f>
+      <c r="AF9" s="127">
+        <f t="shared" si="7"/>
         <v>47261.593064126078</v>
       </c>
       <c r="AH9">
@@ -14385,8 +14388,8 @@
       <c r="AI9">
         <v>6</v>
       </c>
-      <c r="AJ9" s="133">
-        <f>AJ8*$D$2</f>
+      <c r="AJ9" s="127">
+        <f t="shared" si="8"/>
         <v>125399.07641851524</v>
       </c>
       <c r="AL9">
@@ -14395,8 +14398,8 @@
       <c r="AM9">
         <v>6</v>
       </c>
-      <c r="AN9" s="133">
-        <f>AN8*$D$2</f>
+      <c r="AN9" s="127">
+        <f t="shared" si="9"/>
         <v>332721.08168847661</v>
       </c>
       <c r="AP9">
@@ -14405,8 +14408,8 @@
       <c r="AQ9">
         <v>6</v>
       </c>
-      <c r="AR9" s="133">
-        <f>AR8*$D$2</f>
+      <c r="AR9" s="127">
+        <f t="shared" si="10"/>
         <v>882808.082497205</v>
       </c>
       <c r="AT9">
@@ -14415,8 +14418,8 @@
       <c r="AU9">
         <v>6</v>
       </c>
-      <c r="AV9" s="133">
-        <f>AV8*$D$2</f>
+      <c r="AV9" s="127">
+        <f t="shared" si="11"/>
         <v>2342352.6593727828</v>
       </c>
     </row>
@@ -14427,8 +14430,8 @@
       <c r="C10">
         <v>7</v>
       </c>
-      <c r="D10" s="133">
-        <f>D9*$D$2</f>
+      <c r="D10" s="127">
+        <f t="shared" si="0"/>
         <v>53.603825625000013</v>
       </c>
       <c r="F10">
@@ -14437,8 +14440,8 @@
       <c r="G10">
         <v>7</v>
       </c>
-      <c r="H10" s="133">
-        <f>H9*$D$2</f>
+      <c r="H10" s="127">
+        <f t="shared" si="1"/>
         <v>142.22690751777432</v>
       </c>
       <c r="J10">
@@ -14447,8 +14450,8 @@
       <c r="K10">
         <v>7</v>
       </c>
-      <c r="L10" s="133">
-        <f>L9*$D$2</f>
+      <c r="L10" s="127">
+        <f t="shared" si="2"/>
         <v>377.3703273266986</v>
       </c>
       <c r="N10">
@@ -14457,8 +14460,8 @@
       <c r="O10">
         <v>7</v>
       </c>
-      <c r="P10" s="133">
-        <f>P9*$D$2</f>
+      <c r="P10" s="127">
+        <f t="shared" si="3"/>
         <v>1001.2758234855293</v>
       </c>
       <c r="R10">
@@ -14467,8 +14470,8 @@
       <c r="S10">
         <v>7</v>
       </c>
-      <c r="T10" s="133">
-        <f>T9*$D$2</f>
+      <c r="T10" s="127">
+        <f t="shared" si="4"/>
         <v>2656.6828446707468</v>
       </c>
       <c r="V10">
@@ -14477,8 +14480,8 @@
       <c r="W10">
         <v>7</v>
       </c>
-      <c r="X10" s="133">
-        <f>X9*$D$2</f>
+      <c r="X10" s="127">
+        <f t="shared" si="5"/>
         <v>7048.9704950614478</v>
       </c>
       <c r="Z10">
@@ -14487,8 +14490,8 @@
       <c r="AA10">
         <v>7</v>
       </c>
-      <c r="AB10" s="133">
-        <f>AB9*$D$2</f>
+      <c r="AB10" s="127">
+        <f t="shared" si="6"/>
         <v>18703.017238177286</v>
       </c>
       <c r="AD10">
@@ -14497,8 +14500,8 @@
       <c r="AE10">
         <v>7</v>
       </c>
-      <c r="AF10" s="133">
-        <f>AF9*$D$2</f>
+      <c r="AF10" s="127">
+        <f t="shared" si="7"/>
         <v>49624.672717332382</v>
       </c>
       <c r="AH10">
@@ -14507,8 +14510,8 @@
       <c r="AI10">
         <v>7</v>
       </c>
-      <c r="AJ10" s="133">
-        <f>AJ9*$D$2</f>
+      <c r="AJ10" s="127">
+        <f t="shared" si="8"/>
         <v>131669.030239441</v>
       </c>
       <c r="AL10">
@@ -14517,8 +14520,8 @@
       <c r="AM10">
         <v>7</v>
       </c>
-      <c r="AN10" s="133">
-        <f>AN9*$D$2</f>
+      <c r="AN10" s="127">
+        <f t="shared" si="9"/>
         <v>349357.13577290048</v>
       </c>
       <c r="AP10">
@@ -14527,8 +14530,8 @@
       <c r="AQ10">
         <v>7</v>
       </c>
-      <c r="AR10" s="133">
-        <f>AR9*$D$2</f>
+      <c r="AR10" s="127">
+        <f t="shared" si="10"/>
         <v>926948.48662206531</v>
       </c>
       <c r="AT10">
@@ -14537,8 +14540,8 @@
       <c r="AU10">
         <v>7</v>
       </c>
-      <c r="AV10" s="133">
-        <f>AV9*$D$2</f>
+      <c r="AV10" s="127">
+        <f t="shared" si="11"/>
         <v>2459470.2923414218</v>
       </c>
     </row>
@@ -14549,8 +14552,8 @@
       <c r="C11">
         <v>8</v>
       </c>
-      <c r="D11" s="133">
-        <f>D10*$D$2</f>
+      <c r="D11" s="127">
+        <f t="shared" si="0"/>
         <v>56.284016906250017</v>
       </c>
       <c r="F11">
@@ -14559,8 +14562,8 @@
       <c r="G11">
         <v>8</v>
       </c>
-      <c r="H11" s="133">
-        <f>H10*$D$2</f>
+      <c r="H11" s="127">
+        <f t="shared" si="1"/>
         <v>149.33825289366305</v>
       </c>
       <c r="J11">
@@ -14569,8 +14572,8 @@
       <c r="K11">
         <v>8</v>
       </c>
-      <c r="L11" s="133">
-        <f>L10*$D$2</f>
+      <c r="L11" s="127">
+        <f t="shared" si="2"/>
         <v>396.23884369303357</v>
       </c>
       <c r="N11">
@@ -14579,8 +14582,8 @@
       <c r="O11">
         <v>8</v>
       </c>
-      <c r="P11" s="133">
-        <f>P10*$D$2</f>
+      <c r="P11" s="127">
+        <f t="shared" si="3"/>
         <v>1051.3396146598059</v>
       </c>
       <c r="R11">
@@ -14589,8 +14592,8 @@
       <c r="S11">
         <v>8</v>
       </c>
-      <c r="T11" s="133">
-        <f>T10*$D$2</f>
+      <c r="T11" s="127">
+        <f t="shared" si="4"/>
         <v>2789.5169869042843</v>
       </c>
       <c r="V11">
@@ -14599,8 +14602,8 @@
       <c r="W11">
         <v>8</v>
       </c>
-      <c r="X11" s="133">
-        <f>X10*$D$2</f>
+      <c r="X11" s="127">
+        <f t="shared" si="5"/>
         <v>7401.4190198145207</v>
       </c>
       <c r="Z11">
@@ -14609,8 +14612,8 @@
       <c r="AA11">
         <v>8</v>
       </c>
-      <c r="AB11" s="133">
-        <f>AB10*$D$2</f>
+      <c r="AB11" s="127">
+        <f t="shared" si="6"/>
         <v>19638.16810008615</v>
       </c>
       <c r="AD11">
@@ -14619,8 +14622,8 @@
       <c r="AE11">
         <v>8</v>
       </c>
-      <c r="AF11" s="133">
-        <f>AF10*$D$2</f>
+      <c r="AF11" s="127">
+        <f t="shared" si="7"/>
         <v>52105.906353199003</v>
       </c>
       <c r="AH11">
@@ -14629,8 +14632,8 @@
       <c r="AI11">
         <v>8</v>
       </c>
-      <c r="AJ11" s="133">
-        <f>AJ10*$D$2</f>
+      <c r="AJ11" s="127">
+        <f t="shared" si="8"/>
         <v>138252.48175141306</v>
       </c>
       <c r="AL11">
@@ -14639,8 +14642,8 @@
       <c r="AM11">
         <v>8</v>
       </c>
-      <c r="AN11" s="133">
-        <f>AN10*$D$2</f>
+      <c r="AN11" s="127">
+        <f t="shared" si="9"/>
         <v>366824.99256154551</v>
       </c>
       <c r="AP11">
@@ -14649,8 +14652,8 @@
       <c r="AQ11">
         <v>8</v>
       </c>
-      <c r="AR11" s="133">
-        <f>AR10*$D$2</f>
+      <c r="AR11" s="127">
+        <f t="shared" si="10"/>
         <v>973295.91095316864</v>
       </c>
       <c r="AT11">
@@ -14659,8 +14662,8 @@
       <c r="AU11">
         <v>8</v>
       </c>
-      <c r="AV11" s="133">
-        <f>AV10*$D$2</f>
+      <c r="AV11" s="127">
+        <f t="shared" si="11"/>
         <v>2582443.8069584928</v>
       </c>
     </row>
@@ -14671,8 +14674,8 @@
       <c r="C12">
         <v>9</v>
       </c>
-      <c r="D12" s="133">
-        <f>D11*$D$2</f>
+      <c r="D12" s="127">
+        <f t="shared" si="0"/>
         <v>59.098217751562522</v>
       </c>
       <c r="F12">
@@ -14681,8 +14684,8 @@
       <c r="G12">
         <v>9</v>
       </c>
-      <c r="H12" s="133">
-        <f>H11*$D$2</f>
+      <c r="H12" s="127">
+        <f t="shared" si="1"/>
         <v>156.80516553834622</v>
       </c>
       <c r="J12">
@@ -14691,8 +14694,8 @@
       <c r="K12">
         <v>9</v>
       </c>
-      <c r="L12" s="133">
-        <f>L11*$D$2</f>
+      <c r="L12" s="127">
+        <f t="shared" si="2"/>
         <v>416.05078587768526</v>
       </c>
       <c r="N12">
@@ -14701,8 +14704,8 @@
       <c r="O12">
         <v>9</v>
       </c>
-      <c r="P12" s="133">
-        <f>P11*$D$2</f>
+      <c r="P12" s="127">
+        <f t="shared" si="3"/>
         <v>1103.9065953927961</v>
       </c>
       <c r="R12">
@@ -14711,8 +14714,8 @@
       <c r="S12">
         <v>9</v>
       </c>
-      <c r="T12" s="133">
-        <f>T11*$D$2</f>
+      <c r="T12" s="127">
+        <f t="shared" si="4"/>
         <v>2928.9928362494989</v>
       </c>
       <c r="V12">
@@ -14721,8 +14724,8 @@
       <c r="W12">
         <v>9</v>
       </c>
-      <c r="X12" s="133">
-        <f>X11*$D$2</f>
+      <c r="X12" s="127">
+        <f t="shared" si="5"/>
         <v>7771.4899708052471</v>
       </c>
       <c r="Z12">
@@ -14731,8 +14734,8 @@
       <c r="AA12">
         <v>9</v>
       </c>
-      <c r="AB12" s="133">
-        <f>AB11*$D$2</f>
+      <c r="AB12" s="127">
+        <f t="shared" si="6"/>
         <v>20620.076505090459</v>
       </c>
       <c r="AD12">
@@ -14741,8 +14744,8 @@
       <c r="AE12">
         <v>9</v>
       </c>
-      <c r="AF12" s="133">
-        <f>AF11*$D$2</f>
+      <c r="AF12" s="127">
+        <f t="shared" si="7"/>
         <v>54711.201670858958</v>
       </c>
       <c r="AH12">
@@ -14751,8 +14754,8 @@
       <c r="AI12">
         <v>9</v>
       </c>
-      <c r="AJ12" s="133">
-        <f>AJ11*$D$2</f>
+      <c r="AJ12" s="127">
+        <f t="shared" si="8"/>
         <v>145165.10583898373</v>
       </c>
       <c r="AL12">
@@ -14761,8 +14764,8 @@
       <c r="AM12">
         <v>9</v>
       </c>
-      <c r="AN12" s="133">
-        <f>AN11*$D$2</f>
+      <c r="AN12" s="127">
+        <f t="shared" si="9"/>
         <v>385166.24218962283</v>
       </c>
       <c r="AP12">
@@ -14771,8 +14774,8 @@
       <c r="AQ12">
         <v>9</v>
       </c>
-      <c r="AR12" s="133">
-        <f>AR11*$D$2</f>
+      <c r="AR12" s="127">
+        <f t="shared" si="10"/>
         <v>1021960.7065008271</v>
       </c>
       <c r="AT12">
@@ -14781,8 +14784,8 @@
       <c r="AU12">
         <v>9</v>
       </c>
-      <c r="AV12" s="133">
-        <f>AV11*$D$2</f>
+      <c r="AV12" s="127">
+        <f t="shared" si="11"/>
         <v>2711565.9973064177</v>
       </c>
     </row>
@@ -14793,8 +14796,8 @@
       <c r="C13">
         <v>10</v>
       </c>
-      <c r="D13" s="133">
-        <f>D12*$D$2</f>
+      <c r="D13" s="127">
+        <f t="shared" si="0"/>
         <v>62.053128639140652</v>
       </c>
       <c r="F13">
@@ -14803,8 +14806,8 @@
       <c r="G13">
         <v>10</v>
       </c>
-      <c r="H13" s="133">
-        <f>H12*$D$2</f>
+      <c r="H13" s="127">
+        <f t="shared" si="1"/>
         <v>164.64542381526354</v>
       </c>
       <c r="J13">
@@ -14813,8 +14816,8 @@
       <c r="K13">
         <v>10</v>
       </c>
-      <c r="L13" s="133">
-        <f>L12*$D$2</f>
+      <c r="L13" s="127">
+        <f t="shared" si="2"/>
         <v>436.85332517156957</v>
       </c>
       <c r="N13">
@@ -14823,8 +14826,8 @@
       <c r="O13">
         <v>10</v>
       </c>
-      <c r="P13" s="133">
-        <f>P12*$D$2</f>
+      <c r="P13" s="127">
+        <f t="shared" si="3"/>
         <v>1159.1019251624359</v>
       </c>
       <c r="R13">
@@ -14833,8 +14836,8 @@
       <c r="S13">
         <v>10</v>
       </c>
-      <c r="T13" s="133">
-        <f>T12*$D$2</f>
+      <c r="T13" s="127">
+        <f t="shared" si="4"/>
         <v>3075.4424780619738</v>
       </c>
       <c r="V13">
@@ -14843,8 +14846,8 @@
       <c r="W13">
         <v>10</v>
       </c>
-      <c r="X13" s="133">
-        <f>X12*$D$2</f>
+      <c r="X13" s="127">
+        <f t="shared" si="5"/>
         <v>8160.0644693455097</v>
       </c>
       <c r="Z13">
@@ -14853,8 +14856,8 @@
       <c r="AA13">
         <v>10</v>
       </c>
-      <c r="AB13" s="133">
-        <f>AB12*$D$2</f>
+      <c r="AB13" s="127">
+        <f t="shared" si="6"/>
         <v>21651.080330344983</v>
       </c>
       <c r="AD13">
@@ -14863,8 +14866,8 @@
       <c r="AE13">
         <v>10</v>
       </c>
-      <c r="AF13" s="133">
-        <f>AF12*$D$2</f>
+      <c r="AF13" s="127">
+        <f t="shared" si="7"/>
         <v>57446.761754401909</v>
       </c>
       <c r="AH13">
@@ -14873,8 +14876,8 @@
       <c r="AI13">
         <v>10</v>
       </c>
-      <c r="AJ13" s="133">
-        <f>AJ12*$D$2</f>
+      <c r="AJ13" s="127">
+        <f t="shared" si="8"/>
         <v>152423.36113093293</v>
       </c>
       <c r="AL13">
@@ -14883,8 +14886,8 @@
       <c r="AM13">
         <v>10</v>
       </c>
-      <c r="AN13" s="133">
-        <f>AN12*$D$2</f>
+      <c r="AN13" s="127">
+        <f t="shared" si="9"/>
         <v>404424.55429910397</v>
       </c>
       <c r="AP13">
@@ -14893,8 +14896,8 @@
       <c r="AQ13">
         <v>10</v>
       </c>
-      <c r="AR13" s="133">
-        <f>AR12*$D$2</f>
+      <c r="AR13" s="127">
+        <f t="shared" si="10"/>
         <v>1073058.7418258686</v>
       </c>
       <c r="AT13">
@@ -14903,8 +14906,8 @@
       <c r="AU13">
         <v>10</v>
       </c>
-      <c r="AV13" s="133">
-        <f>AV12*$D$2</f>
+      <c r="AV13" s="127">
+        <f t="shared" si="11"/>
         <v>2847144.2971717385</v>
       </c>
     </row>
@@ -14915,8 +14918,8 @@
       <c r="C14">
         <v>11</v>
       </c>
-      <c r="D14" s="133">
-        <f>D13*$D$2</f>
+      <c r="D14" s="127">
+        <f t="shared" si="0"/>
         <v>65.155785071097682</v>
       </c>
       <c r="F14">
@@ -14925,8 +14928,8 @@
       <c r="G14">
         <v>11</v>
       </c>
-      <c r="H14" s="133">
-        <f>H13*$D$2</f>
+      <c r="H14" s="127">
+        <f t="shared" si="1"/>
         <v>172.87769500602673</v>
       </c>
       <c r="J14">
@@ -14935,8 +14938,8 @@
       <c r="K14">
         <v>11</v>
       </c>
-      <c r="L14" s="133">
-        <f>L13*$D$2</f>
+      <c r="L14" s="127">
+        <f t="shared" si="2"/>
         <v>458.69599143014807</v>
       </c>
       <c r="N14">
@@ -14945,8 +14948,8 @@
       <c r="O14">
         <v>11</v>
       </c>
-      <c r="P14" s="133">
-        <f>P13*$D$2</f>
+      <c r="P14" s="127">
+        <f t="shared" si="3"/>
         <v>1217.0570214205577</v>
       </c>
       <c r="R14">
@@ -14955,8 +14958,8 @@
       <c r="S14">
         <v>11</v>
       </c>
-      <c r="T14" s="133">
-        <f>T13*$D$2</f>
+      <c r="T14" s="127">
+        <f t="shared" si="4"/>
         <v>3229.2146019650727</v>
       </c>
       <c r="V14">
@@ -14965,8 +14968,8 @@
       <c r="W14">
         <v>11</v>
       </c>
-      <c r="X14" s="133">
-        <f>X13*$D$2</f>
+      <c r="X14" s="127">
+        <f t="shared" si="5"/>
         <v>8568.067692812785</v>
       </c>
       <c r="Z14">
@@ -14975,8 +14978,8 @@
       <c r="AA14">
         <v>11</v>
       </c>
-      <c r="AB14" s="133">
-        <f>AB13*$D$2</f>
+      <c r="AB14" s="127">
+        <f t="shared" si="6"/>
         <v>22733.634346862233</v>
       </c>
       <c r="AD14">
@@ -14985,8 +14988,8 @@
       <c r="AE14">
         <v>11</v>
       </c>
-      <c r="AF14" s="133">
-        <f>AF13*$D$2</f>
+      <c r="AF14" s="127">
+        <f t="shared" si="7"/>
         <v>60319.099842122007</v>
       </c>
       <c r="AH14">
@@ -14995,8 +14998,8 @@
       <c r="AI14">
         <v>11</v>
       </c>
-      <c r="AJ14" s="133">
-        <f>AJ13*$D$2</f>
+      <c r="AJ14" s="127">
+        <f t="shared" si="8"/>
         <v>160044.52918747958</v>
       </c>
       <c r="AL14">
@@ -15005,8 +15008,8 @@
       <c r="AM14">
         <v>11</v>
       </c>
-      <c r="AN14" s="133">
-        <f>AN13*$D$2</f>
+      <c r="AN14" s="127">
+        <f t="shared" si="9"/>
         <v>424645.78201405919</v>
       </c>
       <c r="AP14">
@@ -15015,8 +15018,8 @@
       <c r="AQ14">
         <v>11</v>
       </c>
-      <c r="AR14" s="133">
-        <f>AR13*$D$2</f>
+      <c r="AR14" s="127">
+        <f t="shared" si="10"/>
         <v>1126711.6789171621</v>
       </c>
       <c r="AT14">
@@ -15025,8 +15028,8 @@
       <c r="AU14">
         <v>11</v>
       </c>
-      <c r="AV14" s="133">
-        <f>AV13*$D$2</f>
+      <c r="AV14" s="127">
+        <f t="shared" si="11"/>
         <v>2989501.5120303254</v>
       </c>
     </row>
@@ -15037,8 +15040,8 @@
       <c r="C15">
         <v>12</v>
       </c>
-      <c r="D15" s="133">
-        <f>D14*$D$2</f>
+      <c r="D15" s="127">
+        <f t="shared" si="0"/>
         <v>68.413574324652572</v>
       </c>
       <c r="F15">
@@ -15047,8 +15050,8 @@
       <c r="G15">
         <v>12</v>
       </c>
-      <c r="H15" s="133">
-        <f>H14*$D$2</f>
+      <c r="H15" s="127">
+        <f t="shared" si="1"/>
         <v>181.52157975632807</v>
       </c>
       <c r="J15">
@@ -15057,8 +15060,8 @@
       <c r="K15">
         <v>12</v>
       </c>
-      <c r="L15" s="133">
-        <f>L14*$D$2</f>
+      <c r="L15" s="127">
+        <f t="shared" si="2"/>
         <v>481.6307910016555</v>
       </c>
       <c r="N15">
@@ -15067,8 +15070,8 @@
       <c r="O15">
         <v>12</v>
       </c>
-      <c r="P15" s="133">
-        <f>P14*$D$2</f>
+      <c r="P15" s="127">
+        <f t="shared" si="3"/>
         <v>1277.9098724915857</v>
       </c>
       <c r="R15">
@@ -15077,8 +15080,8 @@
       <c r="S15">
         <v>12</v>
       </c>
-      <c r="T15" s="133">
-        <f>T14*$D$2</f>
+      <c r="T15" s="127">
+        <f t="shared" si="4"/>
         <v>3390.6753320633266</v>
       </c>
       <c r="V15">
@@ -15087,8 +15090,8 @@
       <c r="W15">
         <v>12</v>
       </c>
-      <c r="X15" s="133">
-        <f>X14*$D$2</f>
+      <c r="X15" s="127">
+        <f t="shared" si="5"/>
         <v>8996.4710774534251</v>
       </c>
       <c r="Z15">
@@ -15097,8 +15100,8 @@
       <c r="AA15">
         <v>12</v>
       </c>
-      <c r="AB15" s="133">
-        <f>AB14*$D$2</f>
+      <c r="AB15" s="127">
+        <f t="shared" si="6"/>
         <v>23870.316064205344</v>
       </c>
       <c r="AD15">
@@ -15107,8 +15110,8 @@
       <c r="AE15">
         <v>12</v>
       </c>
-      <c r="AF15" s="133">
-        <f>AF14*$D$2</f>
+      <c r="AF15" s="127">
+        <f t="shared" si="7"/>
         <v>63335.054834228111</v>
       </c>
       <c r="AH15">
@@ -15117,8 +15120,8 @@
       <c r="AI15">
         <v>12</v>
       </c>
-      <c r="AJ15" s="133">
-        <f>AJ14*$D$2</f>
+      <c r="AJ15" s="127">
+        <f t="shared" si="8"/>
         <v>168046.75564685356</v>
       </c>
       <c r="AL15">
@@ -15127,8 +15130,8 @@
       <c r="AM15">
         <v>12</v>
       </c>
-      <c r="AN15" s="133">
-        <f>AN14*$D$2</f>
+      <c r="AN15" s="127">
+        <f t="shared" si="9"/>
         <v>445878.07111476216</v>
       </c>
       <c r="AP15">
@@ -15137,8 +15140,8 @@
       <c r="AQ15">
         <v>12</v>
       </c>
-      <c r="AR15" s="133">
-        <f>AR14*$D$2</f>
+      <c r="AR15" s="127">
+        <f t="shared" si="10"/>
         <v>1183047.2628630202</v>
       </c>
       <c r="AT15">
@@ -15147,8 +15150,8 @@
       <c r="AU15">
         <v>12</v>
       </c>
-      <c r="AV15" s="133">
-        <f>AV14*$D$2</f>
+      <c r="AV15" s="127">
+        <f t="shared" si="11"/>
         <v>3138976.5876318417</v>
       </c>
     </row>
@@ -15159,8 +15162,8 @@
       <c r="C16">
         <v>13</v>
       </c>
-      <c r="D16" s="133">
-        <f>D15*$D$2</f>
+      <c r="D16" s="127">
+        <f t="shared" si="0"/>
         <v>71.834253040885201</v>
       </c>
       <c r="F16">
@@ -15169,8 +15172,8 @@
       <c r="G16">
         <v>13</v>
       </c>
-      <c r="H16" s="133">
-        <f>H15*$D$2</f>
+      <c r="H16" s="127">
+        <f t="shared" si="1"/>
         <v>190.59765874414447</v>
       </c>
       <c r="J16">
@@ -15179,8 +15182,8 @@
       <c r="K16">
         <v>13</v>
       </c>
-      <c r="L16" s="133">
-        <f>L15*$D$2</f>
+      <c r="L16" s="127">
+        <f t="shared" si="2"/>
         <v>505.71233055173832</v>
       </c>
       <c r="N16">
@@ -15189,8 +15192,8 @@
       <c r="O16">
         <v>13</v>
       </c>
-      <c r="P16" s="133">
-        <f>P15*$D$2</f>
+      <c r="P16" s="127">
+        <f t="shared" si="3"/>
         <v>1341.805366116165</v>
       </c>
       <c r="R16">
@@ -15199,8 +15202,8 @@
       <c r="S16">
         <v>13</v>
       </c>
-      <c r="T16" s="133">
-        <f>T15*$D$2</f>
+      <c r="T16" s="127">
+        <f t="shared" si="4"/>
         <v>3560.209098666493</v>
       </c>
       <c r="V16">
@@ -15209,8 +15212,8 @@
       <c r="W16">
         <v>13</v>
       </c>
-      <c r="X16" s="133">
-        <f>X15*$D$2</f>
+      <c r="X16" s="127">
+        <f t="shared" si="5"/>
         <v>9446.2946313260964</v>
       </c>
       <c r="Z16">
@@ -15219,8 +15222,8 @@
       <c r="AA16">
         <v>13</v>
       </c>
-      <c r="AB16" s="133">
-        <f>AB15*$D$2</f>
+      <c r="AB16" s="127">
+        <f t="shared" si="6"/>
         <v>25063.831867415614</v>
       </c>
       <c r="AD16">
@@ -15229,8 +15232,8 @@
       <c r="AE16">
         <v>13</v>
       </c>
-      <c r="AF16" s="133">
-        <f>AF15*$D$2</f>
+      <c r="AF16" s="127">
+        <f t="shared" si="7"/>
         <v>66501.807575939514</v>
       </c>
       <c r="AH16">
@@ -15239,8 +15242,8 @@
       <c r="AI16">
         <v>13</v>
       </c>
-      <c r="AJ16" s="133">
-        <f>AJ15*$D$2</f>
+      <c r="AJ16" s="127">
+        <f t="shared" si="8"/>
         <v>176449.09342919625</v>
       </c>
       <c r="AL16">
@@ -15249,8 +15252,8 @@
       <c r="AM16">
         <v>13</v>
       </c>
-      <c r="AN16" s="133">
-        <f>AN15*$D$2</f>
+      <c r="AN16" s="127">
+        <f t="shared" si="9"/>
         <v>468171.97467050026</v>
       </c>
       <c r="AP16">
@@ -15259,8 +15262,8 @@
       <c r="AQ16">
         <v>13</v>
       </c>
-      <c r="AR16" s="133">
-        <f>AR15*$D$2</f>
+      <c r="AR16" s="127">
+        <f t="shared" si="10"/>
         <v>1242199.6260061713</v>
       </c>
       <c r="AT16">
@@ -15269,8 +15272,8 @@
       <c r="AU16">
         <v>13</v>
       </c>
-      <c r="AV16" s="133">
-        <f>AV15*$D$2</f>
+      <c r="AV16" s="127">
+        <f t="shared" si="11"/>
         <v>3295925.4170134338</v>
       </c>
     </row>
@@ -15281,8 +15284,8 @@
       <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17" s="133">
-        <f>D16*$D$2</f>
+      <c r="D17" s="127">
+        <f t="shared" si="0"/>
         <v>75.425965692929466</v>
       </c>
       <c r="F17">
@@ -15291,8 +15294,8 @@
       <c r="G17">
         <v>14</v>
       </c>
-      <c r="H17" s="133">
-        <f>H16*$D$2</f>
+      <c r="H17" s="127">
+        <f t="shared" si="1"/>
         <v>200.12754168135169</v>
       </c>
       <c r="J17">
@@ -15301,8 +15304,8 @@
       <c r="K17">
         <v>14</v>
       </c>
-      <c r="L17" s="133">
-        <f>L16*$D$2</f>
+      <c r="L17" s="127">
+        <f t="shared" si="2"/>
         <v>530.99794707932529</v>
       </c>
       <c r="N17">
@@ -15311,8 +15314,8 @@
       <c r="O17">
         <v>14</v>
       </c>
-      <c r="P17" s="133">
-        <f>P16*$D$2</f>
+      <c r="P17" s="127">
+        <f t="shared" si="3"/>
         <v>1408.8956344219735</v>
       </c>
       <c r="R17">
@@ -15321,8 +15324,8 @@
       <c r="S17">
         <v>14</v>
       </c>
-      <c r="T17" s="133">
-        <f>T16*$D$2</f>
+      <c r="T17" s="127">
+        <f t="shared" si="4"/>
         <v>3738.2195535998176</v>
       </c>
       <c r="V17">
@@ -15331,8 +15334,8 @@
       <c r="W17">
         <v>14</v>
       </c>
-      <c r="X17" s="133">
-        <f>X16*$D$2</f>
+      <c r="X17" s="127">
+        <f t="shared" si="5"/>
         <v>9918.6093628924009</v>
       </c>
       <c r="Z17">
@@ -15341,8 +15344,8 @@
       <c r="AA17">
         <v>14</v>
       </c>
-      <c r="AB17" s="133">
-        <f>AB16*$D$2</f>
+      <c r="AB17" s="127">
+        <f t="shared" si="6"/>
         <v>26317.023460786397</v>
       </c>
       <c r="AD17">
@@ -15351,8 +15354,8 @@
       <c r="AE17">
         <v>14</v>
       </c>
-      <c r="AF17" s="133">
-        <f>AF16*$D$2</f>
+      <c r="AF17" s="127">
+        <f t="shared" si="7"/>
         <v>69826.897954736487</v>
       </c>
       <c r="AH17">
@@ -15361,8 +15364,8 @@
       <c r="AI17">
         <v>14</v>
       </c>
-      <c r="AJ17" s="133">
-        <f>AJ16*$D$2</f>
+      <c r="AJ17" s="127">
+        <f t="shared" si="8"/>
         <v>185271.54810065607</v>
       </c>
       <c r="AL17">
@@ -15371,8 +15374,8 @@
       <c r="AM17">
         <v>14</v>
       </c>
-      <c r="AN17" s="133">
-        <f>AN16*$D$2</f>
+      <c r="AN17" s="127">
+        <f t="shared" si="9"/>
         <v>491580.57340402529</v>
       </c>
       <c r="AP17">
@@ -15381,8 +15384,8 @@
       <c r="AQ17">
         <v>14</v>
       </c>
-      <c r="AR17" s="133">
-        <f>AR16*$D$2</f>
+      <c r="AR17" s="127">
+        <f t="shared" si="10"/>
         <v>1304309.6073064799</v>
       </c>
       <c r="AT17">
@@ -15391,8 +15394,8 @@
       <c r="AU17">
         <v>14</v>
       </c>
-      <c r="AV17" s="133">
-        <f>AV16*$D$2</f>
+      <c r="AV17" s="127">
+        <f t="shared" si="11"/>
         <v>3460721.6878641057</v>
       </c>
     </row>
@@ -15403,8 +15406,8 @@
       <c r="C18">
         <v>15</v>
       </c>
-      <c r="D18" s="133">
-        <f>D17*$D$2</f>
+      <c r="D18" s="127">
+        <f t="shared" si="0"/>
         <v>79.197263977575943</v>
       </c>
       <c r="F18">
@@ -15413,8 +15416,8 @@
       <c r="G18">
         <v>15</v>
       </c>
-      <c r="H18" s="133">
-        <f>H17*$D$2</f>
+      <c r="H18" s="127">
+        <f t="shared" si="1"/>
         <v>210.13391876541928</v>
       </c>
       <c r="J18">
@@ -15423,8 +15426,8 @@
       <c r="K18">
         <v>15</v>
       </c>
-      <c r="L18" s="133">
-        <f>L17*$D$2</f>
+      <c r="L18" s="127">
+        <f t="shared" si="2"/>
         <v>557.54784443329163</v>
       </c>
       <c r="N18">
@@ -15433,8 +15436,8 @@
       <c r="O18">
         <v>15</v>
       </c>
-      <c r="P18" s="133">
-        <f>P17*$D$2</f>
+      <c r="P18" s="127">
+        <f t="shared" si="3"/>
         <v>1479.3404161430722</v>
       </c>
       <c r="R18">
@@ -15443,8 +15446,8 @@
       <c r="S18">
         <v>15</v>
       </c>
-      <c r="T18" s="133">
-        <f>T17*$D$2</f>
+      <c r="T18" s="127">
+        <f t="shared" si="4"/>
         <v>3925.1305312798086</v>
       </c>
       <c r="V18">
@@ -15453,8 +15456,8 @@
       <c r="W18">
         <v>15</v>
       </c>
-      <c r="X18" s="133">
-        <f>X17*$D$2</f>
+      <c r="X18" s="127">
+        <f t="shared" si="5"/>
         <v>10414.539831037022</v>
       </c>
       <c r="Z18">
@@ -15463,8 +15466,8 @@
       <c r="AA18">
         <v>15</v>
       </c>
-      <c r="AB18" s="133">
-        <f>AB17*$D$2</f>
+      <c r="AB18" s="127">
+        <f t="shared" si="6"/>
         <v>27632.874633825719</v>
       </c>
       <c r="AD18">
@@ -15473,8 +15476,8 @@
       <c r="AE18">
         <v>15</v>
       </c>
-      <c r="AF18" s="133">
-        <f>AF17*$D$2</f>
+      <c r="AF18" s="127">
+        <f t="shared" si="7"/>
         <v>73318.242852473311</v>
       </c>
       <c r="AH18">
@@ -15483,8 +15486,8 @@
       <c r="AI18">
         <v>15</v>
       </c>
-      <c r="AJ18" s="133">
-        <f>AJ17*$D$2</f>
+      <c r="AJ18" s="127">
+        <f t="shared" si="8"/>
         <v>194535.12550568889</v>
       </c>
       <c r="AL18">
@@ -15493,8 +15496,8 @@
       <c r="AM18">
         <v>15</v>
       </c>
-      <c r="AN18" s="133">
-        <f>AN17*$D$2</f>
+      <c r="AN18" s="127">
+        <f t="shared" si="9"/>
         <v>516159.6020742266</v>
       </c>
       <c r="AP18">
@@ -15503,8 +15506,8 @@
       <c r="AQ18">
         <v>15</v>
       </c>
-      <c r="AR18" s="133">
-        <f>AR17*$D$2</f>
+      <c r="AR18" s="127">
+        <f t="shared" si="10"/>
         <v>1369525.087671804</v>
       </c>
       <c r="AT18">
@@ -15513,8 +15516,8 @@
       <c r="AU18">
         <v>15</v>
       </c>
-      <c r="AV18" s="133">
-        <f>AV17*$D$2</f>
+      <c r="AV18" s="127">
+        <f t="shared" si="11"/>
         <v>3633757.7722573113</v>
       </c>
     </row>
@@ -15525,8 +15528,8 @@
       <c r="C19">
         <v>16</v>
       </c>
-      <c r="D19" s="133">
-        <f>D18*$D$2</f>
+      <c r="D19" s="127">
+        <f t="shared" si="0"/>
         <v>83.15712717645475</v>
       </c>
       <c r="F19">
@@ -15535,8 +15538,8 @@
       <c r="G19">
         <v>16</v>
       </c>
-      <c r="H19" s="133">
-        <f>H18*$D$2</f>
+      <c r="H19" s="127">
+        <f t="shared" si="1"/>
         <v>220.64061470369026</v>
       </c>
       <c r="J19">
@@ -15545,8 +15548,8 @@
       <c r="K19">
         <v>16</v>
       </c>
-      <c r="L19" s="133">
-        <f>L18*$D$2</f>
+      <c r="L19" s="127">
+        <f t="shared" si="2"/>
         <v>585.42523665495628</v>
       </c>
       <c r="N19">
@@ -15555,8 +15558,8 @@
       <c r="O19">
         <v>16</v>
       </c>
-      <c r="P19" s="133">
-        <f>P18*$D$2</f>
+      <c r="P19" s="127">
+        <f t="shared" si="3"/>
         <v>1553.3074369502258</v>
       </c>
       <c r="R19">
@@ -15565,8 +15568,8 @@
       <c r="S19">
         <v>16</v>
       </c>
-      <c r="T19" s="133">
-        <f>T18*$D$2</f>
+      <c r="T19" s="127">
+        <f t="shared" si="4"/>
         <v>4121.3870578437991</v>
       </c>
       <c r="V19">
@@ -15575,8 +15578,8 @@
       <c r="W19">
         <v>16</v>
       </c>
-      <c r="X19" s="133">
-        <f>X18*$D$2</f>
+      <c r="X19" s="127">
+        <f t="shared" si="5"/>
         <v>10935.266822588874</v>
       </c>
       <c r="Z19">
@@ -15585,8 +15588,8 @@
       <c r="AA19">
         <v>16</v>
       </c>
-      <c r="AB19" s="133">
-        <f>AB18*$D$2</f>
+      <c r="AB19" s="127">
+        <f t="shared" si="6"/>
         <v>29014.518365517008</v>
       </c>
       <c r="AD19">
@@ -15595,8 +15598,8 @@
       <c r="AE19">
         <v>16</v>
       </c>
-      <c r="AF19" s="133">
-        <f>AF18*$D$2</f>
+      <c r="AF19" s="127">
+        <f t="shared" si="7"/>
         <v>76984.154995096978</v>
       </c>
       <c r="AH19">
@@ -15605,8 +15608,8 @@
       <c r="AI19">
         <v>16</v>
       </c>
-      <c r="AJ19" s="133">
-        <f>AJ18*$D$2</f>
+      <c r="AJ19" s="127">
+        <f t="shared" si="8"/>
         <v>204261.88178097334</v>
       </c>
       <c r="AL19">
@@ -15615,8 +15618,8 @@
       <c r="AM19">
         <v>16</v>
       </c>
-      <c r="AN19" s="133">
-        <f>AN18*$D$2</f>
+      <c r="AN19" s="127">
+        <f t="shared" si="9"/>
         <v>541967.58217793796</v>
       </c>
       <c r="AP19">
@@ -15625,8 +15628,8 @@
       <c r="AQ19">
         <v>16</v>
       </c>
-      <c r="AR19" s="133">
-        <f>AR18*$D$2</f>
+      <c r="AR19" s="127">
+        <f t="shared" si="10"/>
         <v>1438001.3420553943</v>
       </c>
       <c r="AT19">
@@ -15635,8 +15638,8 @@
       <c r="AU19">
         <v>16</v>
       </c>
-      <c r="AV19" s="133">
-        <f>AV18*$D$2</f>
+      <c r="AV19" s="127">
+        <f t="shared" si="11"/>
         <v>3815445.6608701772</v>
       </c>
     </row>
@@ -15647,8 +15650,8 @@
       <c r="C20">
         <v>17</v>
       </c>
-      <c r="D20" s="133">
-        <f>D19*$D$2</f>
+      <c r="D20" s="127">
+        <f t="shared" si="0"/>
         <v>87.314983535277491</v>
       </c>
       <c r="F20">
@@ -15657,8 +15660,8 @@
       <c r="G20">
         <v>17</v>
       </c>
-      <c r="H20" s="133">
-        <f>H19*$D$2</f>
+      <c r="H20" s="127">
+        <f t="shared" si="1"/>
         <v>231.67264543887478</v>
       </c>
       <c r="J20">
@@ -15667,8 +15670,8 @@
       <c r="K20">
         <v>17</v>
       </c>
-      <c r="L20" s="133">
-        <f>L19*$D$2</f>
+      <c r="L20" s="127">
+        <f t="shared" si="2"/>
         <v>614.69649848770416</v>
       </c>
       <c r="N20">
@@ -15677,8 +15680,8 @@
       <c r="O20">
         <v>17</v>
       </c>
-      <c r="P20" s="133">
-        <f>P19*$D$2</f>
+      <c r="P20" s="127">
+        <f t="shared" si="3"/>
         <v>1630.9728087977371</v>
       </c>
       <c r="R20">
@@ -15687,8 +15690,8 @@
       <c r="S20">
         <v>17</v>
       </c>
-      <c r="T20" s="133">
-        <f>T19*$D$2</f>
+      <c r="T20" s="127">
+        <f t="shared" si="4"/>
         <v>4327.4564107359893</v>
       </c>
       <c r="V20">
@@ -15697,8 +15700,8 @@
       <c r="W20">
         <v>17</v>
       </c>
-      <c r="X20" s="133">
-        <f>X19*$D$2</f>
+      <c r="X20" s="127">
+        <f t="shared" si="5"/>
         <v>11482.030163718318</v>
       </c>
       <c r="Z20">
@@ -15707,8 +15710,8 @@
       <c r="AA20">
         <v>17</v>
       </c>
-      <c r="AB20" s="133">
-        <f>AB19*$D$2</f>
+      <c r="AB20" s="127">
+        <f t="shared" si="6"/>
         <v>30465.244283792861</v>
       </c>
       <c r="AD20">
@@ -15717,8 +15720,8 @@
       <c r="AE20">
         <v>17</v>
       </c>
-      <c r="AF20" s="133">
-        <f>AF19*$D$2</f>
+      <c r="AF20" s="127">
+        <f t="shared" si="7"/>
         <v>80833.362744851824</v>
       </c>
       <c r="AH20">
@@ -15727,8 +15730,8 @@
       <c r="AI20">
         <v>17</v>
       </c>
-      <c r="AJ20" s="133">
-        <f>AJ19*$D$2</f>
+      <c r="AJ20" s="127">
+        <f t="shared" si="8"/>
         <v>214474.97587002203</v>
       </c>
       <c r="AL20">
@@ -15737,8 +15740,8 @@
       <c r="AM20">
         <v>17</v>
       </c>
-      <c r="AN20" s="133">
-        <f>AN19*$D$2</f>
+      <c r="AN20" s="127">
+        <f t="shared" si="9"/>
         <v>569065.96128683491</v>
       </c>
       <c r="AP20">
@@ -15747,8 +15750,8 @@
       <c r="AQ20">
         <v>17</v>
       </c>
-      <c r="AR20" s="133">
-        <f>AR19*$D$2</f>
+      <c r="AR20" s="127">
+        <f t="shared" si="10"/>
         <v>1509901.4091581642</v>
       </c>
       <c r="AT20">
@@ -15757,8 +15760,8 @@
       <c r="AU20">
         <v>17</v>
       </c>
-      <c r="AV20" s="133">
-        <f>AV19*$D$2</f>
+      <c r="AV20" s="127">
+        <f t="shared" si="11"/>
         <v>4006217.9439136861</v>
       </c>
     </row>
@@ -15769,8 +15772,8 @@
       <c r="C21">
         <v>18</v>
       </c>
-      <c r="D21" s="133">
-        <f>D20*$D$2</f>
+      <c r="D21" s="127">
+        <f t="shared" si="0"/>
         <v>91.680732712041376</v>
       </c>
       <c r="F21">
@@ -15779,8 +15782,8 @@
       <c r="G21">
         <v>18</v>
       </c>
-      <c r="H21" s="133">
-        <f>H20*$D$2</f>
+      <c r="H21" s="127">
+        <f t="shared" si="1"/>
         <v>243.25627771081852</v>
       </c>
       <c r="J21">
@@ -15789,8 +15792,8 @@
       <c r="K21">
         <v>18</v>
       </c>
-      <c r="L21" s="133">
-        <f>L20*$D$2</f>
+      <c r="L21" s="127">
+        <f t="shared" si="2"/>
         <v>645.43132341208934</v>
       </c>
       <c r="N21">
@@ -15799,8 +15802,8 @@
       <c r="O21">
         <v>18</v>
       </c>
-      <c r="P21" s="133">
-        <f>P20*$D$2</f>
+      <c r="P21" s="127">
+        <f t="shared" si="3"/>
         <v>1712.521449237624</v>
       </c>
       <c r="R21">
@@ -15809,8 +15812,8 @@
       <c r="S21">
         <v>18</v>
       </c>
-      <c r="T21" s="133">
-        <f>T20*$D$2</f>
+      <c r="T21" s="127">
+        <f t="shared" si="4"/>
         <v>4543.829231272789</v>
       </c>
       <c r="V21">
@@ -15819,8 +15822,8 @@
       <c r="W21">
         <v>18</v>
       </c>
-      <c r="X21" s="133">
-        <f>X20*$D$2</f>
+      <c r="X21" s="127">
+        <f t="shared" si="5"/>
         <v>12056.131671904235</v>
       </c>
       <c r="Z21">
@@ -15829,8 +15832,8 @@
       <c r="AA21">
         <v>18</v>
       </c>
-      <c r="AB21" s="133">
-        <f>AB20*$D$2</f>
+      <c r="AB21" s="127">
+        <f t="shared" si="6"/>
         <v>31988.506497982504</v>
       </c>
       <c r="AD21">
@@ -15839,8 +15842,8 @@
       <c r="AE21">
         <v>18</v>
       </c>
-      <c r="AF21" s="133">
-        <f>AF20*$D$2</f>
+      <c r="AF21" s="127">
+        <f t="shared" si="7"/>
         <v>84875.030882094419</v>
       </c>
       <c r="AH21">
@@ -15849,8 +15852,8 @@
       <c r="AI21">
         <v>18</v>
       </c>
-      <c r="AJ21" s="133">
-        <f>AJ20*$D$2</f>
+      <c r="AJ21" s="127">
+        <f t="shared" si="8"/>
         <v>225198.72466352314</v>
       </c>
       <c r="AL21">
@@ -15859,8 +15862,8 @@
       <c r="AM21">
         <v>18</v>
       </c>
-      <c r="AN21" s="133">
-        <f>AN20*$D$2</f>
+      <c r="AN21" s="127">
+        <f t="shared" si="9"/>
         <v>597519.25935117668</v>
       </c>
       <c r="AP21">
@@ -15869,8 +15872,8 @@
       <c r="AQ21">
         <v>18</v>
       </c>
-      <c r="AR21" s="133">
-        <f>AR20*$D$2</f>
+      <c r="AR21" s="127">
+        <f t="shared" si="10"/>
         <v>1585396.4796160725</v>
       </c>
       <c r="AT21">
@@ -15879,8 +15882,8 @@
       <c r="AU21">
         <v>18</v>
       </c>
-      <c r="AV21" s="133">
-        <f>AV20*$D$2</f>
+      <c r="AV21" s="127">
+        <f t="shared" si="11"/>
         <v>4206528.8411093708</v>
       </c>
     </row>
@@ -15891,8 +15894,8 @@
       <c r="C22">
         <v>19</v>
       </c>
-      <c r="D22" s="133">
-        <f>D21*$D$2</f>
+      <c r="D22" s="127">
+        <f t="shared" si="0"/>
         <v>96.264769347643451</v>
       </c>
       <c r="F22">
@@ -15901,8 +15904,8 @@
       <c r="G22">
         <v>19</v>
       </c>
-      <c r="H22" s="133">
-        <f>H21*$D$2</f>
+      <c r="H22" s="127">
+        <f t="shared" si="1"/>
         <v>255.41909159635946</v>
       </c>
       <c r="J22">
@@ -15911,8 +15914,8 @@
       <c r="K22">
         <v>19</v>
       </c>
-      <c r="L22" s="133">
-        <f>L21*$D$2</f>
+      <c r="L22" s="127">
+        <f t="shared" si="2"/>
         <v>677.70288958269384</v>
       </c>
       <c r="N22">
@@ -15921,8 +15924,8 @@
       <c r="O22">
         <v>19</v>
       </c>
-      <c r="P22" s="133">
-        <f>P21*$D$2</f>
+      <c r="P22" s="127">
+        <f t="shared" si="3"/>
         <v>1798.1475216995052</v>
       </c>
       <c r="R22">
@@ -15931,8 +15934,8 @@
       <c r="S22">
         <v>19</v>
       </c>
-      <c r="T22" s="133">
-        <f>T21*$D$2</f>
+      <c r="T22" s="127">
+        <f t="shared" si="4"/>
         <v>4771.0206928364287</v>
       </c>
       <c r="V22">
@@ -15941,8 +15944,8 @@
       <c r="W22">
         <v>19</v>
       </c>
-      <c r="X22" s="133">
-        <f>X21*$D$2</f>
+      <c r="X22" s="127">
+        <f t="shared" si="5"/>
         <v>12658.938255499448</v>
       </c>
       <c r="Z22">
@@ -15951,8 +15954,8 @@
       <c r="AA22">
         <v>19</v>
       </c>
-      <c r="AB22" s="133">
-        <f>AB21*$D$2</f>
+      <c r="AB22" s="127">
+        <f t="shared" si="6"/>
         <v>33587.931822881634</v>
       </c>
       <c r="AD22">
@@ -15961,8 +15964,8 @@
       <c r="AE22">
         <v>19</v>
       </c>
-      <c r="AF22" s="133">
-        <f>AF21*$D$2</f>
+      <c r="AF22" s="127">
+        <f t="shared" si="7"/>
         <v>89118.782426199148</v>
       </c>
       <c r="AH22">
@@ -15971,8 +15974,8 @@
       <c r="AI22">
         <v>19</v>
       </c>
-      <c r="AJ22" s="133">
-        <f>AJ21*$D$2</f>
+      <c r="AJ22" s="127">
+        <f t="shared" si="8"/>
         <v>236458.66089669932</v>
       </c>
       <c r="AL22">
@@ -15981,8 +15984,8 @@
       <c r="AM22">
         <v>19</v>
       </c>
-      <c r="AN22" s="133">
-        <f>AN21*$D$2</f>
+      <c r="AN22" s="127">
+        <f t="shared" si="9"/>
         <v>627395.22231873556</v>
       </c>
       <c r="AP22">
@@ -15991,8 +15994,8 @@
       <c r="AQ22">
         <v>19</v>
       </c>
-      <c r="AR22" s="133">
-        <f>AR21*$D$2</f>
+      <c r="AR22" s="127">
+        <f t="shared" si="10"/>
         <v>1664666.3035968761</v>
       </c>
       <c r="AT22">
@@ -16001,8 +16004,8 @@
       <c r="AU22">
         <v>19</v>
       </c>
-      <c r="AV22" s="133">
-        <f>AV21*$D$2</f>
+      <c r="AV22" s="127">
+        <f t="shared" si="11"/>
         <v>4416855.2831648393</v>
       </c>
     </row>
@@ -16013,8 +16016,8 @@
       <c r="C23">
         <v>20</v>
       </c>
-      <c r="D23" s="133">
-        <f>D22*$D$2</f>
+      <c r="D23" s="127">
+        <f t="shared" si="0"/>
         <v>101.07800781502563</v>
       </c>
       <c r="F23">
@@ -16023,8 +16026,8 @@
       <c r="G23">
         <v>20</v>
       </c>
-      <c r="H23" s="133">
-        <f>H22*$D$2</f>
+      <c r="H23" s="127">
+        <f t="shared" si="1"/>
         <v>268.19004617617747</v>
       </c>
       <c r="J23">
@@ -16033,8 +16036,8 @@
       <c r="K23">
         <v>20</v>
       </c>
-      <c r="L23" s="133">
-        <f>L22*$D$2</f>
+      <c r="L23" s="127">
+        <f t="shared" si="2"/>
         <v>711.58803406182858</v>
       </c>
       <c r="N23">
@@ -16043,8 +16046,8 @@
       <c r="O23">
         <v>20</v>
       </c>
-      <c r="P23" s="133">
-        <f>P22*$D$2</f>
+      <c r="P23" s="127">
+        <f t="shared" si="3"/>
         <v>1888.0548977844805</v>
       </c>
       <c r="R23">
@@ -16053,8 +16056,8 @@
       <c r="S23">
         <v>20</v>
       </c>
-      <c r="T23" s="133">
-        <f>T22*$D$2</f>
+      <c r="T23" s="127">
+        <f t="shared" si="4"/>
         <v>5009.5717274782501</v>
       </c>
       <c r="V23">
@@ -16063,8 +16066,8 @@
       <c r="W23">
         <v>20</v>
       </c>
-      <c r="X23" s="133">
-        <f>X22*$D$2</f>
+      <c r="X23" s="127">
+        <f t="shared" si="5"/>
         <v>13291.885168274421</v>
       </c>
       <c r="Z23">
@@ -16073,8 +16076,8 @@
       <c r="AA23">
         <v>20</v>
       </c>
-      <c r="AB23" s="133">
-        <f>AB22*$D$2</f>
+      <c r="AB23" s="127">
+        <f t="shared" si="6"/>
         <v>35267.328414025716</v>
       </c>
       <c r="AD23">
@@ -16083,8 +16086,8 @@
       <c r="AE23">
         <v>20</v>
       </c>
-      <c r="AF23" s="133">
-        <f>AF22*$D$2</f>
+      <c r="AF23" s="127">
+        <f t="shared" si="7"/>
         <v>93574.721547509107</v>
       </c>
       <c r="AH23">
@@ -16093,8 +16096,8 @@
       <c r="AI23">
         <v>20</v>
       </c>
-      <c r="AJ23" s="133">
-        <f>AJ22*$D$2</f>
+      <c r="AJ23" s="127">
+        <f t="shared" si="8"/>
         <v>248281.59394153429</v>
       </c>
       <c r="AL23">
@@ -16103,8 +16106,8 @@
       <c r="AM23">
         <v>20</v>
       </c>
-      <c r="AN23" s="133">
-        <f>AN22*$D$2</f>
+      <c r="AN23" s="127">
+        <f t="shared" si="9"/>
         <v>658764.98343467235</v>
       </c>
       <c r="AP23">
@@ -16113,8 +16116,8 @@
       <c r="AQ23">
         <v>20</v>
       </c>
-      <c r="AR23" s="133">
-        <f>AR22*$D$2</f>
+      <c r="AR23" s="127">
+        <f t="shared" si="10"/>
         <v>1747899.61877672</v>
       </c>
       <c r="AT23">
@@ -16123,9 +16126,2487 @@
       <c r="AU23">
         <v>20</v>
       </c>
-      <c r="AV23" s="133">
-        <f>AV22*$D$2</f>
+      <c r="AV23" s="127">
+        <f t="shared" si="11"/>
         <v>4637698.0473230816</v>
+      </c>
+    </row>
+    <row r="26" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="D26" s="127">
+        <f>D28-D27</f>
+        <v>2</v>
+      </c>
+      <c r="H26" s="127">
+        <f>H28-H27</f>
+        <v>4</v>
+      </c>
+      <c r="L26" s="127">
+        <f>L28-L27</f>
+        <v>8</v>
+      </c>
+      <c r="P26" s="127">
+        <f>P28-P27</f>
+        <v>16</v>
+      </c>
+      <c r="T26" s="127">
+        <f>T28-T27</f>
+        <v>32</v>
+      </c>
+      <c r="X26" s="127">
+        <f>X28-X27</f>
+        <v>64</v>
+      </c>
+      <c r="AB26" s="127">
+        <f>AB28-AB27</f>
+        <v>128</v>
+      </c>
+      <c r="AF26" s="127">
+        <f>AF28-AF27</f>
+        <v>256</v>
+      </c>
+      <c r="AJ26" s="127">
+        <f>AJ28-AJ27</f>
+        <v>512</v>
+      </c>
+      <c r="AN26" s="127">
+        <f>AN28-AN27</f>
+        <v>1024</v>
+      </c>
+      <c r="AR26" s="127">
+        <f>AR28-AR27</f>
+        <v>2048</v>
+      </c>
+      <c r="AV26" s="127">
+        <f>AV28-AV27</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="27" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="128">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="128">
+        <v>80</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" s="128">
+        <v>160</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" s="128">
+        <v>320</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27" s="128">
+        <v>640</v>
+      </c>
+      <c r="V27">
+        <v>6</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27" s="128">
+        <v>1280</v>
+      </c>
+      <c r="Z27">
+        <v>7</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="128">
+        <v>2560</v>
+      </c>
+      <c r="AD27">
+        <v>8</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="128">
+        <v>5120</v>
+      </c>
+      <c r="AH27">
+        <v>9</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="128">
+        <v>10240</v>
+      </c>
+      <c r="AL27">
+        <v>10</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="128">
+        <v>20480</v>
+      </c>
+      <c r="AP27">
+        <v>11</v>
+      </c>
+      <c r="AQ27">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="128">
+        <v>40960</v>
+      </c>
+      <c r="AT27">
+        <v>12</v>
+      </c>
+      <c r="AU27">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="128">
+        <v>81920</v>
+      </c>
+    </row>
+    <row r="28" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="127">
+        <f>D$27 + D$27*($D$2-1)*(C28-1)</f>
+        <v>42</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" s="127">
+        <f>H$27 + H$27*($D$2-1)*(G28-1)</f>
+        <v>84</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28" s="127">
+        <f>L$27 + L$27*($D$2-1)*(K28-1)</f>
+        <v>168</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28" s="127">
+        <f>P$27 + P$27*($D$2-1)*(O28-1)</f>
+        <v>336</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28" s="127">
+        <f>T$27 + T$27*($D$2-1)*(S28-1)</f>
+        <v>672</v>
+      </c>
+      <c r="V28">
+        <v>6</v>
+      </c>
+      <c r="W28">
+        <v>2</v>
+      </c>
+      <c r="X28" s="127">
+        <f>X$27 + X$27*($D$2-1)*(W28-1)</f>
+        <v>1344</v>
+      </c>
+      <c r="Z28">
+        <v>7</v>
+      </c>
+      <c r="AA28">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="127">
+        <f>AB$27 + AB$27*($D$2-1)*(AA28-1)</f>
+        <v>2688</v>
+      </c>
+      <c r="AD28">
+        <v>8</v>
+      </c>
+      <c r="AE28">
+        <v>2</v>
+      </c>
+      <c r="AF28" s="127">
+        <f>AF$27 + AF$27*($D$2-1)*(AE28-1)</f>
+        <v>5376</v>
+      </c>
+      <c r="AH28">
+        <v>9</v>
+      </c>
+      <c r="AI28">
+        <v>2</v>
+      </c>
+      <c r="AJ28" s="127">
+        <f>AJ$27 + AJ$27*($D$2-1)*(AI28-1)</f>
+        <v>10752</v>
+      </c>
+      <c r="AL28">
+        <v>10</v>
+      </c>
+      <c r="AM28">
+        <v>2</v>
+      </c>
+      <c r="AN28" s="127">
+        <f>AN$27 + AN$27*($D$2-1)*(AM28-1)</f>
+        <v>21504</v>
+      </c>
+      <c r="AP28">
+        <v>11</v>
+      </c>
+      <c r="AQ28">
+        <v>2</v>
+      </c>
+      <c r="AR28" s="127">
+        <f>AR$27 + AR$27*($D$2-1)*(AQ28-1)</f>
+        <v>43008</v>
+      </c>
+      <c r="AT28">
+        <v>12</v>
+      </c>
+      <c r="AU28">
+        <v>2</v>
+      </c>
+      <c r="AV28" s="127">
+        <f>AV$27 + AV$27*($D$2-1)*(AU28-1)</f>
+        <v>86016</v>
+      </c>
+    </row>
+    <row r="29" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="127">
+        <f t="shared" ref="D29:D46" si="12">D$27 + D$27*($D$2-1)*(C29-1)</f>
+        <v>44</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29" s="127">
+        <f t="shared" ref="H29:H46" si="13">H$27 + H$27*($D$2-1)*(G29-1)</f>
+        <v>88</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29" s="127">
+        <f t="shared" ref="L29:L46" si="14">L$27 + L$27*($D$2-1)*(K29-1)</f>
+        <v>176</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29" s="127">
+        <f t="shared" ref="P29:P46" si="15">P$27 + P$27*($D$2-1)*(O29-1)</f>
+        <v>352</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
+      <c r="S29">
+        <v>3</v>
+      </c>
+      <c r="T29" s="127">
+        <f t="shared" ref="T29:T46" si="16">T$27 + T$27*($D$2-1)*(S29-1)</f>
+        <v>704</v>
+      </c>
+      <c r="V29">
+        <v>6</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="X29" s="127">
+        <f t="shared" ref="X29:X46" si="17">X$27 + X$27*($D$2-1)*(W29-1)</f>
+        <v>1408</v>
+      </c>
+      <c r="Z29">
+        <v>7</v>
+      </c>
+      <c r="AA29">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="127">
+        <f t="shared" ref="AB29:AB46" si="18">AB$27 + AB$27*($D$2-1)*(AA29-1)</f>
+        <v>2816</v>
+      </c>
+      <c r="AD29">
+        <v>8</v>
+      </c>
+      <c r="AE29">
+        <v>3</v>
+      </c>
+      <c r="AF29" s="127">
+        <f t="shared" ref="AF29:AF46" si="19">AF$27 + AF$27*($D$2-1)*(AE29-1)</f>
+        <v>5632</v>
+      </c>
+      <c r="AH29">
+        <v>9</v>
+      </c>
+      <c r="AI29">
+        <v>3</v>
+      </c>
+      <c r="AJ29" s="127">
+        <f t="shared" ref="AJ29:AJ46" si="20">AJ$27 + AJ$27*($D$2-1)*(AI29-1)</f>
+        <v>11264</v>
+      </c>
+      <c r="AL29">
+        <v>10</v>
+      </c>
+      <c r="AM29">
+        <v>3</v>
+      </c>
+      <c r="AN29" s="127">
+        <f t="shared" ref="AN29:AN46" si="21">AN$27 + AN$27*($D$2-1)*(AM29-1)</f>
+        <v>22528</v>
+      </c>
+      <c r="AP29">
+        <v>11</v>
+      </c>
+      <c r="AQ29">
+        <v>3</v>
+      </c>
+      <c r="AR29" s="127">
+        <f t="shared" ref="AR29:AR46" si="22">AR$27 + AR$27*($D$2-1)*(AQ29-1)</f>
+        <v>45056</v>
+      </c>
+      <c r="AT29">
+        <v>12</v>
+      </c>
+      <c r="AU29">
+        <v>3</v>
+      </c>
+      <c r="AV29" s="127">
+        <f t="shared" ref="AV29:AV46" si="23">AV$27 + AV$27*($D$2-1)*(AU29-1)</f>
+        <v>90112</v>
+      </c>
+    </row>
+    <row r="30" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" s="127">
+        <f t="shared" si="12"/>
+        <v>46.000000000000007</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30" s="127">
+        <f t="shared" si="13"/>
+        <v>92.000000000000014</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30" s="127">
+        <f t="shared" si="14"/>
+        <v>184.00000000000003</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30" s="127">
+        <f t="shared" si="15"/>
+        <v>368.00000000000006</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+      <c r="S30">
+        <v>4</v>
+      </c>
+      <c r="T30" s="127">
+        <f t="shared" si="16"/>
+        <v>736.00000000000011</v>
+      </c>
+      <c r="V30">
+        <v>6</v>
+      </c>
+      <c r="W30">
+        <v>4</v>
+      </c>
+      <c r="X30" s="127">
+        <f t="shared" si="17"/>
+        <v>1472.0000000000002</v>
+      </c>
+      <c r="Z30">
+        <v>7</v>
+      </c>
+      <c r="AA30">
+        <v>4</v>
+      </c>
+      <c r="AB30" s="127">
+        <f t="shared" si="18"/>
+        <v>2944.0000000000005</v>
+      </c>
+      <c r="AD30">
+        <v>8</v>
+      </c>
+      <c r="AE30">
+        <v>4</v>
+      </c>
+      <c r="AF30" s="127">
+        <f t="shared" si="19"/>
+        <v>5888.0000000000009</v>
+      </c>
+      <c r="AH30">
+        <v>9</v>
+      </c>
+      <c r="AI30">
+        <v>4</v>
+      </c>
+      <c r="AJ30" s="127">
+        <f t="shared" si="20"/>
+        <v>11776.000000000002</v>
+      </c>
+      <c r="AL30">
+        <v>10</v>
+      </c>
+      <c r="AM30">
+        <v>4</v>
+      </c>
+      <c r="AN30" s="127">
+        <f t="shared" si="21"/>
+        <v>23552.000000000004</v>
+      </c>
+      <c r="AP30">
+        <v>11</v>
+      </c>
+      <c r="AQ30">
+        <v>4</v>
+      </c>
+      <c r="AR30" s="127">
+        <f t="shared" si="22"/>
+        <v>47104.000000000007</v>
+      </c>
+      <c r="AT30">
+        <v>12</v>
+      </c>
+      <c r="AU30">
+        <v>4</v>
+      </c>
+      <c r="AV30" s="127">
+        <f t="shared" si="23"/>
+        <v>94208.000000000015</v>
+      </c>
+    </row>
+    <row r="31" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" s="127">
+        <f t="shared" si="12"/>
+        <v>48.000000000000007</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31" s="127">
+        <f t="shared" si="13"/>
+        <v>96.000000000000014</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31" s="127">
+        <f t="shared" si="14"/>
+        <v>192.00000000000003</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>5</v>
+      </c>
+      <c r="P31" s="127">
+        <f t="shared" si="15"/>
+        <v>384.00000000000006</v>
+      </c>
+      <c r="R31">
+        <v>5</v>
+      </c>
+      <c r="S31">
+        <v>5</v>
+      </c>
+      <c r="T31" s="127">
+        <f t="shared" si="16"/>
+        <v>768.00000000000011</v>
+      </c>
+      <c r="V31">
+        <v>6</v>
+      </c>
+      <c r="W31">
+        <v>5</v>
+      </c>
+      <c r="X31" s="127">
+        <f t="shared" si="17"/>
+        <v>1536.0000000000002</v>
+      </c>
+      <c r="Z31">
+        <v>7</v>
+      </c>
+      <c r="AA31">
+        <v>5</v>
+      </c>
+      <c r="AB31" s="127">
+        <f t="shared" si="18"/>
+        <v>3072.0000000000005</v>
+      </c>
+      <c r="AD31">
+        <v>8</v>
+      </c>
+      <c r="AE31">
+        <v>5</v>
+      </c>
+      <c r="AF31" s="127">
+        <f t="shared" si="19"/>
+        <v>6144.0000000000009</v>
+      </c>
+      <c r="AH31">
+        <v>9</v>
+      </c>
+      <c r="AI31">
+        <v>5</v>
+      </c>
+      <c r="AJ31" s="127">
+        <f t="shared" si="20"/>
+        <v>12288.000000000002</v>
+      </c>
+      <c r="AL31">
+        <v>10</v>
+      </c>
+      <c r="AM31">
+        <v>5</v>
+      </c>
+      <c r="AN31" s="127">
+        <f t="shared" si="21"/>
+        <v>24576.000000000004</v>
+      </c>
+      <c r="AP31">
+        <v>11</v>
+      </c>
+      <c r="AQ31">
+        <v>5</v>
+      </c>
+      <c r="AR31" s="127">
+        <f t="shared" si="22"/>
+        <v>49152.000000000007</v>
+      </c>
+      <c r="AT31">
+        <v>12</v>
+      </c>
+      <c r="AU31">
+        <v>5</v>
+      </c>
+      <c r="AV31" s="127">
+        <f t="shared" si="23"/>
+        <v>98304.000000000015</v>
+      </c>
+    </row>
+    <row r="32" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32" s="127">
+        <f t="shared" si="12"/>
+        <v>50.000000000000007</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32" s="127">
+        <f t="shared" si="13"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32" s="127">
+        <f t="shared" si="14"/>
+        <v>200.00000000000003</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32">
+        <v>6</v>
+      </c>
+      <c r="P32" s="127">
+        <f t="shared" si="15"/>
+        <v>400.00000000000006</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="T32" s="127">
+        <f t="shared" si="16"/>
+        <v>800.00000000000011</v>
+      </c>
+      <c r="V32">
+        <v>6</v>
+      </c>
+      <c r="W32">
+        <v>6</v>
+      </c>
+      <c r="X32" s="127">
+        <f t="shared" si="17"/>
+        <v>1600.0000000000002</v>
+      </c>
+      <c r="Z32">
+        <v>7</v>
+      </c>
+      <c r="AA32">
+        <v>6</v>
+      </c>
+      <c r="AB32" s="127">
+        <f t="shared" si="18"/>
+        <v>3200.0000000000005</v>
+      </c>
+      <c r="AD32">
+        <v>8</v>
+      </c>
+      <c r="AE32">
+        <v>6</v>
+      </c>
+      <c r="AF32" s="127">
+        <f t="shared" si="19"/>
+        <v>6400.0000000000009</v>
+      </c>
+      <c r="AH32">
+        <v>9</v>
+      </c>
+      <c r="AI32">
+        <v>6</v>
+      </c>
+      <c r="AJ32" s="127">
+        <f t="shared" si="20"/>
+        <v>12800.000000000002</v>
+      </c>
+      <c r="AL32">
+        <v>10</v>
+      </c>
+      <c r="AM32">
+        <v>6</v>
+      </c>
+      <c r="AN32" s="127">
+        <f t="shared" si="21"/>
+        <v>25600.000000000004</v>
+      </c>
+      <c r="AP32">
+        <v>11</v>
+      </c>
+      <c r="AQ32">
+        <v>6</v>
+      </c>
+      <c r="AR32" s="127">
+        <f t="shared" si="22"/>
+        <v>51200.000000000007</v>
+      </c>
+      <c r="AT32">
+        <v>12</v>
+      </c>
+      <c r="AU32">
+        <v>6</v>
+      </c>
+      <c r="AV32" s="127">
+        <f t="shared" si="23"/>
+        <v>102400.00000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33" s="127">
+        <f t="shared" si="12"/>
+        <v>52.000000000000014</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33" s="127">
+        <f t="shared" si="13"/>
+        <v>104.00000000000003</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>7</v>
+      </c>
+      <c r="L33" s="127">
+        <f t="shared" si="14"/>
+        <v>208.00000000000006</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>7</v>
+      </c>
+      <c r="P33" s="127">
+        <f t="shared" si="15"/>
+        <v>416.00000000000011</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+      <c r="S33">
+        <v>7</v>
+      </c>
+      <c r="T33" s="127">
+        <f t="shared" si="16"/>
+        <v>832.00000000000023</v>
+      </c>
+      <c r="V33">
+        <v>6</v>
+      </c>
+      <c r="W33">
+        <v>7</v>
+      </c>
+      <c r="X33" s="127">
+        <f t="shared" si="17"/>
+        <v>1664.0000000000005</v>
+      </c>
+      <c r="Z33">
+        <v>7</v>
+      </c>
+      <c r="AA33">
+        <v>7</v>
+      </c>
+      <c r="AB33" s="127">
+        <f t="shared" si="18"/>
+        <v>3328.0000000000009</v>
+      </c>
+      <c r="AD33">
+        <v>8</v>
+      </c>
+      <c r="AE33">
+        <v>7</v>
+      </c>
+      <c r="AF33" s="127">
+        <f t="shared" si="19"/>
+        <v>6656.0000000000018</v>
+      </c>
+      <c r="AH33">
+        <v>9</v>
+      </c>
+      <c r="AI33">
+        <v>7</v>
+      </c>
+      <c r="AJ33" s="127">
+        <f t="shared" si="20"/>
+        <v>13312.000000000004</v>
+      </c>
+      <c r="AL33">
+        <v>10</v>
+      </c>
+      <c r="AM33">
+        <v>7</v>
+      </c>
+      <c r="AN33" s="127">
+        <f t="shared" si="21"/>
+        <v>26624.000000000007</v>
+      </c>
+      <c r="AP33">
+        <v>11</v>
+      </c>
+      <c r="AQ33">
+        <v>7</v>
+      </c>
+      <c r="AR33" s="127">
+        <f t="shared" si="22"/>
+        <v>53248.000000000015</v>
+      </c>
+      <c r="AT33">
+        <v>12</v>
+      </c>
+      <c r="AU33">
+        <v>7</v>
+      </c>
+      <c r="AV33" s="127">
+        <f t="shared" si="23"/>
+        <v>106496.00000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34" s="127">
+        <f t="shared" si="12"/>
+        <v>54.000000000000014</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>8</v>
+      </c>
+      <c r="H34" s="127">
+        <f t="shared" si="13"/>
+        <v>108.00000000000003</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>8</v>
+      </c>
+      <c r="L34" s="127">
+        <f t="shared" si="14"/>
+        <v>216.00000000000006</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <v>8</v>
+      </c>
+      <c r="P34" s="127">
+        <f t="shared" si="15"/>
+        <v>432.00000000000011</v>
+      </c>
+      <c r="R34">
+        <v>5</v>
+      </c>
+      <c r="S34">
+        <v>8</v>
+      </c>
+      <c r="T34" s="127">
+        <f t="shared" si="16"/>
+        <v>864.00000000000023</v>
+      </c>
+      <c r="V34">
+        <v>6</v>
+      </c>
+      <c r="W34">
+        <v>8</v>
+      </c>
+      <c r="X34" s="127">
+        <f t="shared" si="17"/>
+        <v>1728.0000000000005</v>
+      </c>
+      <c r="Z34">
+        <v>7</v>
+      </c>
+      <c r="AA34">
+        <v>8</v>
+      </c>
+      <c r="AB34" s="127">
+        <f t="shared" si="18"/>
+        <v>3456.0000000000009</v>
+      </c>
+      <c r="AD34">
+        <v>8</v>
+      </c>
+      <c r="AE34">
+        <v>8</v>
+      </c>
+      <c r="AF34" s="127">
+        <f t="shared" si="19"/>
+        <v>6912.0000000000018</v>
+      </c>
+      <c r="AH34">
+        <v>9</v>
+      </c>
+      <c r="AI34">
+        <v>8</v>
+      </c>
+      <c r="AJ34" s="127">
+        <f t="shared" si="20"/>
+        <v>13824.000000000004</v>
+      </c>
+      <c r="AL34">
+        <v>10</v>
+      </c>
+      <c r="AM34">
+        <v>8</v>
+      </c>
+      <c r="AN34" s="127">
+        <f t="shared" si="21"/>
+        <v>27648.000000000007</v>
+      </c>
+      <c r="AP34">
+        <v>11</v>
+      </c>
+      <c r="AQ34">
+        <v>8</v>
+      </c>
+      <c r="AR34" s="127">
+        <f t="shared" si="22"/>
+        <v>55296.000000000015</v>
+      </c>
+      <c r="AT34">
+        <v>12</v>
+      </c>
+      <c r="AU34">
+        <v>8</v>
+      </c>
+      <c r="AV34" s="127">
+        <f t="shared" si="23"/>
+        <v>110592.00000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35" s="127">
+        <f t="shared" si="12"/>
+        <v>56.000000000000014</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>9</v>
+      </c>
+      <c r="H35" s="127">
+        <f t="shared" si="13"/>
+        <v>112.00000000000003</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>9</v>
+      </c>
+      <c r="L35" s="127">
+        <f t="shared" si="14"/>
+        <v>224.00000000000006</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35">
+        <v>9</v>
+      </c>
+      <c r="P35" s="127">
+        <f t="shared" si="15"/>
+        <v>448.00000000000011</v>
+      </c>
+      <c r="R35">
+        <v>5</v>
+      </c>
+      <c r="S35">
+        <v>9</v>
+      </c>
+      <c r="T35" s="127">
+        <f t="shared" si="16"/>
+        <v>896.00000000000023</v>
+      </c>
+      <c r="V35">
+        <v>6</v>
+      </c>
+      <c r="W35">
+        <v>9</v>
+      </c>
+      <c r="X35" s="127">
+        <f t="shared" si="17"/>
+        <v>1792.0000000000005</v>
+      </c>
+      <c r="Z35">
+        <v>7</v>
+      </c>
+      <c r="AA35">
+        <v>9</v>
+      </c>
+      <c r="AB35" s="127">
+        <f t="shared" si="18"/>
+        <v>3584.0000000000009</v>
+      </c>
+      <c r="AD35">
+        <v>8</v>
+      </c>
+      <c r="AE35">
+        <v>9</v>
+      </c>
+      <c r="AF35" s="127">
+        <f t="shared" si="19"/>
+        <v>7168.0000000000018</v>
+      </c>
+      <c r="AH35">
+        <v>9</v>
+      </c>
+      <c r="AI35">
+        <v>9</v>
+      </c>
+      <c r="AJ35" s="127">
+        <f t="shared" si="20"/>
+        <v>14336.000000000004</v>
+      </c>
+      <c r="AL35">
+        <v>10</v>
+      </c>
+      <c r="AM35">
+        <v>9</v>
+      </c>
+      <c r="AN35" s="127">
+        <f t="shared" si="21"/>
+        <v>28672.000000000007</v>
+      </c>
+      <c r="AP35">
+        <v>11</v>
+      </c>
+      <c r="AQ35">
+        <v>9</v>
+      </c>
+      <c r="AR35" s="127">
+        <f t="shared" si="22"/>
+        <v>57344.000000000015</v>
+      </c>
+      <c r="AT35">
+        <v>12</v>
+      </c>
+      <c r="AU35">
+        <v>9</v>
+      </c>
+      <c r="AV35" s="127">
+        <f t="shared" si="23"/>
+        <v>114688.00000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36" s="127">
+        <f t="shared" si="12"/>
+        <v>58.000000000000014</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36" s="127">
+        <f t="shared" si="13"/>
+        <v>116.00000000000003</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36" s="127">
+        <f t="shared" si="14"/>
+        <v>232.00000000000006</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36">
+        <v>10</v>
+      </c>
+      <c r="P36" s="127">
+        <f t="shared" si="15"/>
+        <v>464.00000000000011</v>
+      </c>
+      <c r="R36">
+        <v>5</v>
+      </c>
+      <c r="S36">
+        <v>10</v>
+      </c>
+      <c r="T36" s="127">
+        <f t="shared" si="16"/>
+        <v>928.00000000000023</v>
+      </c>
+      <c r="V36">
+        <v>6</v>
+      </c>
+      <c r="W36">
+        <v>10</v>
+      </c>
+      <c r="X36" s="127">
+        <f t="shared" si="17"/>
+        <v>1856.0000000000005</v>
+      </c>
+      <c r="Z36">
+        <v>7</v>
+      </c>
+      <c r="AA36">
+        <v>10</v>
+      </c>
+      <c r="AB36" s="127">
+        <f t="shared" si="18"/>
+        <v>3712.0000000000009</v>
+      </c>
+      <c r="AD36">
+        <v>8</v>
+      </c>
+      <c r="AE36">
+        <v>10</v>
+      </c>
+      <c r="AF36" s="127">
+        <f t="shared" si="19"/>
+        <v>7424.0000000000018</v>
+      </c>
+      <c r="AH36">
+        <v>9</v>
+      </c>
+      <c r="AI36">
+        <v>10</v>
+      </c>
+      <c r="AJ36" s="127">
+        <f t="shared" si="20"/>
+        <v>14848.000000000004</v>
+      </c>
+      <c r="AL36">
+        <v>10</v>
+      </c>
+      <c r="AM36">
+        <v>10</v>
+      </c>
+      <c r="AN36" s="127">
+        <f t="shared" si="21"/>
+        <v>29696.000000000007</v>
+      </c>
+      <c r="AP36">
+        <v>11</v>
+      </c>
+      <c r="AQ36">
+        <v>10</v>
+      </c>
+      <c r="AR36" s="127">
+        <f t="shared" si="22"/>
+        <v>59392.000000000015</v>
+      </c>
+      <c r="AT36">
+        <v>12</v>
+      </c>
+      <c r="AU36">
+        <v>10</v>
+      </c>
+      <c r="AV36" s="127">
+        <f t="shared" si="23"/>
+        <v>118784.00000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37" s="127">
+        <f t="shared" si="12"/>
+        <v>60.000000000000014</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>11</v>
+      </c>
+      <c r="H37" s="127">
+        <f t="shared" si="13"/>
+        <v>120.00000000000003</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <v>11</v>
+      </c>
+      <c r="L37" s="127">
+        <f t="shared" si="14"/>
+        <v>240.00000000000006</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37">
+        <v>11</v>
+      </c>
+      <c r="P37" s="127">
+        <f t="shared" si="15"/>
+        <v>480.00000000000011</v>
+      </c>
+      <c r="R37">
+        <v>5</v>
+      </c>
+      <c r="S37">
+        <v>11</v>
+      </c>
+      <c r="T37" s="127">
+        <f t="shared" si="16"/>
+        <v>960.00000000000023</v>
+      </c>
+      <c r="V37">
+        <v>6</v>
+      </c>
+      <c r="W37">
+        <v>11</v>
+      </c>
+      <c r="X37" s="127">
+        <f t="shared" si="17"/>
+        <v>1920.0000000000005</v>
+      </c>
+      <c r="Z37">
+        <v>7</v>
+      </c>
+      <c r="AA37">
+        <v>11</v>
+      </c>
+      <c r="AB37" s="127">
+        <f t="shared" si="18"/>
+        <v>3840.0000000000009</v>
+      </c>
+      <c r="AD37">
+        <v>8</v>
+      </c>
+      <c r="AE37">
+        <v>11</v>
+      </c>
+      <c r="AF37" s="127">
+        <f t="shared" si="19"/>
+        <v>7680.0000000000018</v>
+      </c>
+      <c r="AH37">
+        <v>9</v>
+      </c>
+      <c r="AI37">
+        <v>11</v>
+      </c>
+      <c r="AJ37" s="127">
+        <f t="shared" si="20"/>
+        <v>15360.000000000004</v>
+      </c>
+      <c r="AL37">
+        <v>10</v>
+      </c>
+      <c r="AM37">
+        <v>11</v>
+      </c>
+      <c r="AN37" s="127">
+        <f t="shared" si="21"/>
+        <v>30720.000000000007</v>
+      </c>
+      <c r="AP37">
+        <v>11</v>
+      </c>
+      <c r="AQ37">
+        <v>11</v>
+      </c>
+      <c r="AR37" s="127">
+        <f t="shared" si="22"/>
+        <v>61440.000000000015</v>
+      </c>
+      <c r="AT37">
+        <v>12</v>
+      </c>
+      <c r="AU37">
+        <v>11</v>
+      </c>
+      <c r="AV37" s="127">
+        <f t="shared" si="23"/>
+        <v>122880.00000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38" s="127">
+        <f t="shared" si="12"/>
+        <v>62.000000000000021</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>12</v>
+      </c>
+      <c r="H38" s="127">
+        <f t="shared" si="13"/>
+        <v>124.00000000000004</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>12</v>
+      </c>
+      <c r="L38" s="127">
+        <f t="shared" si="14"/>
+        <v>248.00000000000009</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
+      </c>
+      <c r="O38">
+        <v>12</v>
+      </c>
+      <c r="P38" s="127">
+        <f t="shared" si="15"/>
+        <v>496.00000000000017</v>
+      </c>
+      <c r="R38">
+        <v>5</v>
+      </c>
+      <c r="S38">
+        <v>12</v>
+      </c>
+      <c r="T38" s="127">
+        <f t="shared" si="16"/>
+        <v>992.00000000000034</v>
+      </c>
+      <c r="V38">
+        <v>6</v>
+      </c>
+      <c r="W38">
+        <v>12</v>
+      </c>
+      <c r="X38" s="127">
+        <f t="shared" si="17"/>
+        <v>1984.0000000000007</v>
+      </c>
+      <c r="Z38">
+        <v>7</v>
+      </c>
+      <c r="AA38">
+        <v>12</v>
+      </c>
+      <c r="AB38" s="127">
+        <f t="shared" si="18"/>
+        <v>3968.0000000000014</v>
+      </c>
+      <c r="AD38">
+        <v>8</v>
+      </c>
+      <c r="AE38">
+        <v>12</v>
+      </c>
+      <c r="AF38" s="127">
+        <f t="shared" si="19"/>
+        <v>7936.0000000000027</v>
+      </c>
+      <c r="AH38">
+        <v>9</v>
+      </c>
+      <c r="AI38">
+        <v>12</v>
+      </c>
+      <c r="AJ38" s="127">
+        <f t="shared" si="20"/>
+        <v>15872.000000000005</v>
+      </c>
+      <c r="AL38">
+        <v>10</v>
+      </c>
+      <c r="AM38">
+        <v>12</v>
+      </c>
+      <c r="AN38" s="127">
+        <f t="shared" si="21"/>
+        <v>31744.000000000011</v>
+      </c>
+      <c r="AP38">
+        <v>11</v>
+      </c>
+      <c r="AQ38">
+        <v>12</v>
+      </c>
+      <c r="AR38" s="127">
+        <f t="shared" si="22"/>
+        <v>63488.000000000022</v>
+      </c>
+      <c r="AT38">
+        <v>12</v>
+      </c>
+      <c r="AU38">
+        <v>12</v>
+      </c>
+      <c r="AV38" s="127">
+        <f t="shared" si="23"/>
+        <v>126976.00000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39" s="127">
+        <f t="shared" si="12"/>
+        <v>64.000000000000028</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>13</v>
+      </c>
+      <c r="H39" s="127">
+        <f t="shared" si="13"/>
+        <v>128.00000000000006</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>13</v>
+      </c>
+      <c r="L39" s="127">
+        <f t="shared" si="14"/>
+        <v>256.00000000000011</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39">
+        <v>13</v>
+      </c>
+      <c r="P39" s="127">
+        <f t="shared" si="15"/>
+        <v>512.00000000000023</v>
+      </c>
+      <c r="R39">
+        <v>5</v>
+      </c>
+      <c r="S39">
+        <v>13</v>
+      </c>
+      <c r="T39" s="127">
+        <f t="shared" si="16"/>
+        <v>1024.0000000000005</v>
+      </c>
+      <c r="V39">
+        <v>6</v>
+      </c>
+      <c r="W39">
+        <v>13</v>
+      </c>
+      <c r="X39" s="127">
+        <f t="shared" si="17"/>
+        <v>2048.0000000000009</v>
+      </c>
+      <c r="Z39">
+        <v>7</v>
+      </c>
+      <c r="AA39">
+        <v>13</v>
+      </c>
+      <c r="AB39" s="127">
+        <f t="shared" si="18"/>
+        <v>4096.0000000000018</v>
+      </c>
+      <c r="AD39">
+        <v>8</v>
+      </c>
+      <c r="AE39">
+        <v>13</v>
+      </c>
+      <c r="AF39" s="127">
+        <f t="shared" si="19"/>
+        <v>8192.0000000000036</v>
+      </c>
+      <c r="AH39">
+        <v>9</v>
+      </c>
+      <c r="AI39">
+        <v>13</v>
+      </c>
+      <c r="AJ39" s="127">
+        <f t="shared" si="20"/>
+        <v>16384.000000000007</v>
+      </c>
+      <c r="AL39">
+        <v>10</v>
+      </c>
+      <c r="AM39">
+        <v>13</v>
+      </c>
+      <c r="AN39" s="127">
+        <f t="shared" si="21"/>
+        <v>32768.000000000015</v>
+      </c>
+      <c r="AP39">
+        <v>11</v>
+      </c>
+      <c r="AQ39">
+        <v>13</v>
+      </c>
+      <c r="AR39" s="127">
+        <f t="shared" si="22"/>
+        <v>65536.000000000029</v>
+      </c>
+      <c r="AT39">
+        <v>12</v>
+      </c>
+      <c r="AU39">
+        <v>13</v>
+      </c>
+      <c r="AV39" s="127">
+        <f t="shared" si="23"/>
+        <v>131072.00000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>14</v>
+      </c>
+      <c r="D40" s="127">
+        <f t="shared" si="12"/>
+        <v>66.000000000000028</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>14</v>
+      </c>
+      <c r="H40" s="127">
+        <f t="shared" si="13"/>
+        <v>132.00000000000006</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>14</v>
+      </c>
+      <c r="L40" s="127">
+        <f t="shared" si="14"/>
+        <v>264.00000000000011</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="O40">
+        <v>14</v>
+      </c>
+      <c r="P40" s="127">
+        <f t="shared" si="15"/>
+        <v>528.00000000000023</v>
+      </c>
+      <c r="R40">
+        <v>5</v>
+      </c>
+      <c r="S40">
+        <v>14</v>
+      </c>
+      <c r="T40" s="127">
+        <f t="shared" si="16"/>
+        <v>1056.0000000000005</v>
+      </c>
+      <c r="V40">
+        <v>6</v>
+      </c>
+      <c r="W40">
+        <v>14</v>
+      </c>
+      <c r="X40" s="127">
+        <f t="shared" si="17"/>
+        <v>2112.0000000000009</v>
+      </c>
+      <c r="Z40">
+        <v>7</v>
+      </c>
+      <c r="AA40">
+        <v>14</v>
+      </c>
+      <c r="AB40" s="127">
+        <f t="shared" si="18"/>
+        <v>4224.0000000000018</v>
+      </c>
+      <c r="AD40">
+        <v>8</v>
+      </c>
+      <c r="AE40">
+        <v>14</v>
+      </c>
+      <c r="AF40" s="127">
+        <f t="shared" si="19"/>
+        <v>8448.0000000000036</v>
+      </c>
+      <c r="AH40">
+        <v>9</v>
+      </c>
+      <c r="AI40">
+        <v>14</v>
+      </c>
+      <c r="AJ40" s="127">
+        <f t="shared" si="20"/>
+        <v>16896.000000000007</v>
+      </c>
+      <c r="AL40">
+        <v>10</v>
+      </c>
+      <c r="AM40">
+        <v>14</v>
+      </c>
+      <c r="AN40" s="127">
+        <f t="shared" si="21"/>
+        <v>33792.000000000015</v>
+      </c>
+      <c r="AP40">
+        <v>11</v>
+      </c>
+      <c r="AQ40">
+        <v>14</v>
+      </c>
+      <c r="AR40" s="127">
+        <f t="shared" si="22"/>
+        <v>67584.000000000029</v>
+      </c>
+      <c r="AT40">
+        <v>12</v>
+      </c>
+      <c r="AU40">
+        <v>14</v>
+      </c>
+      <c r="AV40" s="127">
+        <f t="shared" si="23"/>
+        <v>135168.00000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41" s="127">
+        <f t="shared" si="12"/>
+        <v>68.000000000000028</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>15</v>
+      </c>
+      <c r="H41" s="127">
+        <f t="shared" si="13"/>
+        <v>136.00000000000006</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>15</v>
+      </c>
+      <c r="L41" s="127">
+        <f t="shared" si="14"/>
+        <v>272.00000000000011</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="O41">
+        <v>15</v>
+      </c>
+      <c r="P41" s="127">
+        <f t="shared" si="15"/>
+        <v>544.00000000000023</v>
+      </c>
+      <c r="R41">
+        <v>5</v>
+      </c>
+      <c r="S41">
+        <v>15</v>
+      </c>
+      <c r="T41" s="127">
+        <f t="shared" si="16"/>
+        <v>1088.0000000000005</v>
+      </c>
+      <c r="V41">
+        <v>6</v>
+      </c>
+      <c r="W41">
+        <v>15</v>
+      </c>
+      <c r="X41" s="127">
+        <f t="shared" si="17"/>
+        <v>2176.0000000000009</v>
+      </c>
+      <c r="Z41">
+        <v>7</v>
+      </c>
+      <c r="AA41">
+        <v>15</v>
+      </c>
+      <c r="AB41" s="127">
+        <f t="shared" si="18"/>
+        <v>4352.0000000000018</v>
+      </c>
+      <c r="AD41">
+        <v>8</v>
+      </c>
+      <c r="AE41">
+        <v>15</v>
+      </c>
+      <c r="AF41" s="127">
+        <f t="shared" si="19"/>
+        <v>8704.0000000000036</v>
+      </c>
+      <c r="AH41">
+        <v>9</v>
+      </c>
+      <c r="AI41">
+        <v>15</v>
+      </c>
+      <c r="AJ41" s="127">
+        <f t="shared" si="20"/>
+        <v>17408.000000000007</v>
+      </c>
+      <c r="AL41">
+        <v>10</v>
+      </c>
+      <c r="AM41">
+        <v>15</v>
+      </c>
+      <c r="AN41" s="127">
+        <f t="shared" si="21"/>
+        <v>34816.000000000015</v>
+      </c>
+      <c r="AP41">
+        <v>11</v>
+      </c>
+      <c r="AQ41">
+        <v>15</v>
+      </c>
+      <c r="AR41" s="127">
+        <f t="shared" si="22"/>
+        <v>69632.000000000029</v>
+      </c>
+      <c r="AT41">
+        <v>12</v>
+      </c>
+      <c r="AU41">
+        <v>15</v>
+      </c>
+      <c r="AV41" s="127">
+        <f t="shared" si="23"/>
+        <v>139264.00000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>16</v>
+      </c>
+      <c r="D42" s="127">
+        <f t="shared" si="12"/>
+        <v>70.000000000000028</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>16</v>
+      </c>
+      <c r="H42" s="127">
+        <f t="shared" si="13"/>
+        <v>140.00000000000006</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42">
+        <v>16</v>
+      </c>
+      <c r="L42" s="127">
+        <f t="shared" si="14"/>
+        <v>280.00000000000011</v>
+      </c>
+      <c r="N42">
+        <v>4</v>
+      </c>
+      <c r="O42">
+        <v>16</v>
+      </c>
+      <c r="P42" s="127">
+        <f t="shared" si="15"/>
+        <v>560.00000000000023</v>
+      </c>
+      <c r="R42">
+        <v>5</v>
+      </c>
+      <c r="S42">
+        <v>16</v>
+      </c>
+      <c r="T42" s="127">
+        <f t="shared" si="16"/>
+        <v>1120.0000000000005</v>
+      </c>
+      <c r="V42">
+        <v>6</v>
+      </c>
+      <c r="W42">
+        <v>16</v>
+      </c>
+      <c r="X42" s="127">
+        <f t="shared" si="17"/>
+        <v>2240.0000000000009</v>
+      </c>
+      <c r="Z42">
+        <v>7</v>
+      </c>
+      <c r="AA42">
+        <v>16</v>
+      </c>
+      <c r="AB42" s="127">
+        <f t="shared" si="18"/>
+        <v>4480.0000000000018</v>
+      </c>
+      <c r="AD42">
+        <v>8</v>
+      </c>
+      <c r="AE42">
+        <v>16</v>
+      </c>
+      <c r="AF42" s="127">
+        <f t="shared" si="19"/>
+        <v>8960.0000000000036</v>
+      </c>
+      <c r="AH42">
+        <v>9</v>
+      </c>
+      <c r="AI42">
+        <v>16</v>
+      </c>
+      <c r="AJ42" s="127">
+        <f t="shared" si="20"/>
+        <v>17920.000000000007</v>
+      </c>
+      <c r="AL42">
+        <v>10</v>
+      </c>
+      <c r="AM42">
+        <v>16</v>
+      </c>
+      <c r="AN42" s="127">
+        <f t="shared" si="21"/>
+        <v>35840.000000000015</v>
+      </c>
+      <c r="AP42">
+        <v>11</v>
+      </c>
+      <c r="AQ42">
+        <v>16</v>
+      </c>
+      <c r="AR42" s="127">
+        <f t="shared" si="22"/>
+        <v>71680.000000000029</v>
+      </c>
+      <c r="AT42">
+        <v>12</v>
+      </c>
+      <c r="AU42">
+        <v>16</v>
+      </c>
+      <c r="AV42" s="127">
+        <f t="shared" si="23"/>
+        <v>143360.00000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>17</v>
+      </c>
+      <c r="D43" s="127">
+        <f t="shared" si="12"/>
+        <v>72.000000000000028</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>17</v>
+      </c>
+      <c r="H43" s="127">
+        <f t="shared" si="13"/>
+        <v>144.00000000000006</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>17</v>
+      </c>
+      <c r="L43" s="127">
+        <f t="shared" si="14"/>
+        <v>288.00000000000011</v>
+      </c>
+      <c r="N43">
+        <v>4</v>
+      </c>
+      <c r="O43">
+        <v>17</v>
+      </c>
+      <c r="P43" s="127">
+        <f t="shared" si="15"/>
+        <v>576.00000000000023</v>
+      </c>
+      <c r="R43">
+        <v>5</v>
+      </c>
+      <c r="S43">
+        <v>17</v>
+      </c>
+      <c r="T43" s="127">
+        <f t="shared" si="16"/>
+        <v>1152.0000000000005</v>
+      </c>
+      <c r="V43">
+        <v>6</v>
+      </c>
+      <c r="W43">
+        <v>17</v>
+      </c>
+      <c r="X43" s="127">
+        <f t="shared" si="17"/>
+        <v>2304.0000000000009</v>
+      </c>
+      <c r="Z43">
+        <v>7</v>
+      </c>
+      <c r="AA43">
+        <v>17</v>
+      </c>
+      <c r="AB43" s="127">
+        <f t="shared" si="18"/>
+        <v>4608.0000000000018</v>
+      </c>
+      <c r="AD43">
+        <v>8</v>
+      </c>
+      <c r="AE43">
+        <v>17</v>
+      </c>
+      <c r="AF43" s="127">
+        <f t="shared" si="19"/>
+        <v>9216.0000000000036</v>
+      </c>
+      <c r="AH43">
+        <v>9</v>
+      </c>
+      <c r="AI43">
+        <v>17</v>
+      </c>
+      <c r="AJ43" s="127">
+        <f t="shared" si="20"/>
+        <v>18432.000000000007</v>
+      </c>
+      <c r="AL43">
+        <v>10</v>
+      </c>
+      <c r="AM43">
+        <v>17</v>
+      </c>
+      <c r="AN43" s="127">
+        <f t="shared" si="21"/>
+        <v>36864.000000000015</v>
+      </c>
+      <c r="AP43">
+        <v>11</v>
+      </c>
+      <c r="AQ43">
+        <v>17</v>
+      </c>
+      <c r="AR43" s="127">
+        <f t="shared" si="22"/>
+        <v>73728.000000000029</v>
+      </c>
+      <c r="AT43">
+        <v>12</v>
+      </c>
+      <c r="AU43">
+        <v>17</v>
+      </c>
+      <c r="AV43" s="127">
+        <f t="shared" si="23"/>
+        <v>147456.00000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>18</v>
+      </c>
+      <c r="D44" s="127">
+        <f t="shared" si="12"/>
+        <v>74.000000000000028</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>18</v>
+      </c>
+      <c r="H44" s="127">
+        <f t="shared" si="13"/>
+        <v>148.00000000000006</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>18</v>
+      </c>
+      <c r="L44" s="127">
+        <f t="shared" si="14"/>
+        <v>296.00000000000011</v>
+      </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
+      <c r="O44">
+        <v>18</v>
+      </c>
+      <c r="P44" s="127">
+        <f t="shared" si="15"/>
+        <v>592.00000000000023</v>
+      </c>
+      <c r="R44">
+        <v>5</v>
+      </c>
+      <c r="S44">
+        <v>18</v>
+      </c>
+      <c r="T44" s="127">
+        <f t="shared" si="16"/>
+        <v>1184.0000000000005</v>
+      </c>
+      <c r="V44">
+        <v>6</v>
+      </c>
+      <c r="W44">
+        <v>18</v>
+      </c>
+      <c r="X44" s="127">
+        <f t="shared" si="17"/>
+        <v>2368.0000000000009</v>
+      </c>
+      <c r="Z44">
+        <v>7</v>
+      </c>
+      <c r="AA44">
+        <v>18</v>
+      </c>
+      <c r="AB44" s="127">
+        <f t="shared" si="18"/>
+        <v>4736.0000000000018</v>
+      </c>
+      <c r="AD44">
+        <v>8</v>
+      </c>
+      <c r="AE44">
+        <v>18</v>
+      </c>
+      <c r="AF44" s="127">
+        <f t="shared" si="19"/>
+        <v>9472.0000000000036</v>
+      </c>
+      <c r="AH44">
+        <v>9</v>
+      </c>
+      <c r="AI44">
+        <v>18</v>
+      </c>
+      <c r="AJ44" s="127">
+        <f t="shared" si="20"/>
+        <v>18944.000000000007</v>
+      </c>
+      <c r="AL44">
+        <v>10</v>
+      </c>
+      <c r="AM44">
+        <v>18</v>
+      </c>
+      <c r="AN44" s="127">
+        <f t="shared" si="21"/>
+        <v>37888.000000000015</v>
+      </c>
+      <c r="AP44">
+        <v>11</v>
+      </c>
+      <c r="AQ44">
+        <v>18</v>
+      </c>
+      <c r="AR44" s="127">
+        <f t="shared" si="22"/>
+        <v>75776.000000000029</v>
+      </c>
+      <c r="AT44">
+        <v>12</v>
+      </c>
+      <c r="AU44">
+        <v>18</v>
+      </c>
+      <c r="AV44" s="127">
+        <f t="shared" si="23"/>
+        <v>151552.00000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
+      <c r="D45" s="127">
+        <f t="shared" si="12"/>
+        <v>76.000000000000028</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>19</v>
+      </c>
+      <c r="H45" s="127">
+        <f t="shared" si="13"/>
+        <v>152.00000000000006</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>19</v>
+      </c>
+      <c r="L45" s="127">
+        <f t="shared" si="14"/>
+        <v>304.00000000000011</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="O45">
+        <v>19</v>
+      </c>
+      <c r="P45" s="127">
+        <f t="shared" si="15"/>
+        <v>608.00000000000023</v>
+      </c>
+      <c r="R45">
+        <v>5</v>
+      </c>
+      <c r="S45">
+        <v>19</v>
+      </c>
+      <c r="T45" s="127">
+        <f t="shared" si="16"/>
+        <v>1216.0000000000005</v>
+      </c>
+      <c r="V45">
+        <v>6</v>
+      </c>
+      <c r="W45">
+        <v>19</v>
+      </c>
+      <c r="X45" s="127">
+        <f t="shared" si="17"/>
+        <v>2432.0000000000009</v>
+      </c>
+      <c r="Z45">
+        <v>7</v>
+      </c>
+      <c r="AA45">
+        <v>19</v>
+      </c>
+      <c r="AB45" s="127">
+        <f t="shared" si="18"/>
+        <v>4864.0000000000018</v>
+      </c>
+      <c r="AD45">
+        <v>8</v>
+      </c>
+      <c r="AE45">
+        <v>19</v>
+      </c>
+      <c r="AF45" s="127">
+        <f t="shared" si="19"/>
+        <v>9728.0000000000036</v>
+      </c>
+      <c r="AH45">
+        <v>9</v>
+      </c>
+      <c r="AI45">
+        <v>19</v>
+      </c>
+      <c r="AJ45" s="127">
+        <f t="shared" si="20"/>
+        <v>19456.000000000007</v>
+      </c>
+      <c r="AL45">
+        <v>10</v>
+      </c>
+      <c r="AM45">
+        <v>19</v>
+      </c>
+      <c r="AN45" s="127">
+        <f t="shared" si="21"/>
+        <v>38912.000000000015</v>
+      </c>
+      <c r="AP45">
+        <v>11</v>
+      </c>
+      <c r="AQ45">
+        <v>19</v>
+      </c>
+      <c r="AR45" s="127">
+        <f t="shared" si="22"/>
+        <v>77824.000000000029</v>
+      </c>
+      <c r="AT45">
+        <v>12</v>
+      </c>
+      <c r="AU45">
+        <v>19</v>
+      </c>
+      <c r="AV45" s="127">
+        <f t="shared" si="23"/>
+        <v>155648.00000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="2:48" x14ac:dyDescent="0.45">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46" s="127">
+        <f t="shared" si="12"/>
+        <v>78.000000000000028</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>20</v>
+      </c>
+      <c r="H46" s="127">
+        <f t="shared" si="13"/>
+        <v>156.00000000000006</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>20</v>
+      </c>
+      <c r="L46" s="127">
+        <f t="shared" si="14"/>
+        <v>312.00000000000011</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>20</v>
+      </c>
+      <c r="P46" s="127">
+        <f t="shared" si="15"/>
+        <v>624.00000000000023</v>
+      </c>
+      <c r="R46">
+        <v>5</v>
+      </c>
+      <c r="S46">
+        <v>20</v>
+      </c>
+      <c r="T46" s="127">
+        <f t="shared" si="16"/>
+        <v>1248.0000000000005</v>
+      </c>
+      <c r="V46">
+        <v>6</v>
+      </c>
+      <c r="W46">
+        <v>20</v>
+      </c>
+      <c r="X46" s="127">
+        <f t="shared" si="17"/>
+        <v>2496.0000000000009</v>
+      </c>
+      <c r="Z46">
+        <v>7</v>
+      </c>
+      <c r="AA46">
+        <v>20</v>
+      </c>
+      <c r="AB46" s="127">
+        <f t="shared" si="18"/>
+        <v>4992.0000000000018</v>
+      </c>
+      <c r="AD46">
+        <v>8</v>
+      </c>
+      <c r="AE46">
+        <v>20</v>
+      </c>
+      <c r="AF46" s="127">
+        <f t="shared" si="19"/>
+        <v>9984.0000000000036</v>
+      </c>
+      <c r="AH46">
+        <v>9</v>
+      </c>
+      <c r="AI46">
+        <v>20</v>
+      </c>
+      <c r="AJ46" s="127">
+        <f t="shared" si="20"/>
+        <v>19968.000000000007</v>
+      </c>
+      <c r="AL46">
+        <v>10</v>
+      </c>
+      <c r="AM46">
+        <v>20</v>
+      </c>
+      <c r="AN46" s="127">
+        <f t="shared" si="21"/>
+        <v>39936.000000000015</v>
+      </c>
+      <c r="AP46">
+        <v>11</v>
+      </c>
+      <c r="AQ46">
+        <v>20</v>
+      </c>
+      <c r="AR46" s="127">
+        <f t="shared" si="22"/>
+        <v>79872.000000000029</v>
+      </c>
+      <c r="AT46">
+        <v>12</v>
+      </c>
+      <c r="AU46">
+        <v>20</v>
+      </c>
+      <c r="AV46" s="127">
+        <f t="shared" si="23"/>
+        <v>159744.00000000006</v>
       </c>
     </row>
   </sheetData>
